--- a/me/2.Apex-Fundamentals.xlsx
+++ b/me/2.Apex-Fundamentals.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\salesforce\me\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D2CF992-ED1A-4B20-A51E-7B5F433369B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1018B3EC-FC3D-4DD8-B670-046A6AB1A3BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hello World" sheetId="1" r:id="rId1"/>
     <sheet name="Primitive Data Types" sheetId="2" r:id="rId2"/>
+    <sheet name="String Class Methods" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="77">
   <si>
     <t>Mở Developer Console trên tab mới</t>
   </si>
@@ -220,6 +221,106 @@
   </si>
   <si>
     <t>Khi các tham số chưa được set giá trị thì giá trị mặc định của nó là null, lúc này chưa chiếm dung lượng của bộ nhớ</t>
+  </si>
+  <si>
+    <t>3.string-class-methods.txt</t>
+  </si>
+  <si>
+    <t>salesforce\2.Apex-Fundamentals\3.string-class-methods.txt</t>
+  </si>
+  <si>
+    <t>System.debug('Actual String: '+str);</t>
+  </si>
+  <si>
+    <t>// capitalize string</t>
+  </si>
+  <si>
+    <t>System.debug('Capitalize String: '+str.capitalize());</t>
+  </si>
+  <si>
+    <t>// contains example</t>
+  </si>
+  <si>
+    <t>System.debug('Contains ring? :'+ str.contains('ring'));</t>
+  </si>
+  <si>
+    <t>// convert to upper case</t>
+  </si>
+  <si>
+    <t>System.debug('Upper case: '+str.toUpperCase());</t>
+  </si>
+  <si>
+    <t>// convert to lower case</t>
+  </si>
+  <si>
+    <t>System.debug('Lower case: '+str.toLowerCase());</t>
+  </si>
+  <si>
+    <t>// equals</t>
+  </si>
+  <si>
+    <t>System.debug('Is equal to ring?: '+str.equals('ring'));</t>
+  </si>
+  <si>
+    <t>String str1 = 'Manish';</t>
+  </si>
+  <si>
+    <t>String str2 = 'maNish';</t>
+  </si>
+  <si>
+    <t>System.debug('str1 equals str2: '+str1.equals(str2));</t>
+  </si>
+  <si>
+    <t>System.debug('str1 equals str2 ignore case: '+str1.toLowerCase().equals(str2.toLowerCase()));</t>
+  </si>
+  <si>
+    <t>// remove</t>
+  </si>
+  <si>
+    <t>System.debug('Remove ring: '+str.remove('ring'));</t>
+  </si>
+  <si>
+    <t>// replace</t>
+  </si>
+  <si>
+    <t>System.debug('Replace ring: '+str.replace('ring', 'rong'));</t>
+  </si>
+  <si>
+    <t>// split</t>
+  </si>
+  <si>
+    <t>System.debug('Split by space: '+str.split(' '));</t>
+  </si>
+  <si>
+    <t>Chuyển ký tự đầu tiên của chuỗi sang chữ hoa</t>
+  </si>
+  <si>
+    <t>Kết quả thu được là 1 list</t>
+  </si>
+  <si>
+    <t>String str = 'i am a string variable ';</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> am a string variable</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -348,7 +449,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -360,9 +461,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -372,6 +470,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1810,6 +1919,152 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>162330</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B028893-3AFD-8000-B102-B98A3AB1C7D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="704850" y="8296275"/>
+          <a:ext cx="11353800" cy="5772555"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>67428</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5907A7F-5D45-8151-E012-4146D909DB80}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="695325" y="14354175"/>
+          <a:ext cx="11315700" cy="5144253"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56DD0333-792A-83DC-16AF-E78C15AC5FEA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2457450" y="17754600"/>
+          <a:ext cx="200025" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3484,8 +3739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82B92C1D-F078-402F-9CBE-00A6C09FD094}">
   <dimension ref="A2:T181"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3511,29 +3766,23 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" s="4"/>
-      <c r="C6" s="11" t="s">
+      <c r="C6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="4"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="12" t="s">
+      <c r="D7" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="11"/>
       <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="4"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="11"/>
       <c r="F8" s="5"/>
       <c r="G8" t="s">
         <v>17</v>
@@ -3573,102 +3822,48 @@
       <c r="B14" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
       <c r="I14" s="5"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="4"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
       <c r="I15" s="5"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
       <c r="I16" s="5"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
       <c r="I17" s="5"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="4"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
       <c r="I18" s="5"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
       <c r="I19" s="5"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
       <c r="I20" s="5"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="4"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
       <c r="I21" s="5"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
       <c r="I22" s="5"/>
       <c r="J22" t="s">
         <v>17</v>
@@ -3681,102 +3876,48 @@
       <c r="B23" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
       <c r="I23" s="5"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="4"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
       <c r="I24" s="5"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
       <c r="I25" s="5"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
       <c r="I26" s="5"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="4"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
       <c r="I27" s="5"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
       <c r="I28" s="5"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
       <c r="I29" s="5"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="4"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
       <c r="I30" s="5"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
       <c r="I31" s="5"/>
       <c r="J31" t="s">
         <v>17</v>
@@ -3789,34 +3930,16 @@
       <c r="B32" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
       <c r="I32" s="5"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B33" s="4"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
       <c r="I33" s="5"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B34" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
       <c r="I34" s="5"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -3831,18 +3954,8 @@
       <c r="H35" s="7"/>
       <c r="I35" s="8"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-    </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="14" t="s">
+      <c r="A38" s="11" t="s">
         <v>44</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -3859,228 +3972,118 @@
       <c r="B39" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
       <c r="H39" s="5"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B40" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
       <c r="H40" s="5"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B41" s="4"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
       <c r="H41" s="5"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B42" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
       <c r="H42" s="5"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B43" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
       <c r="H43" s="5"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B44" s="4"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
       <c r="H44" s="5"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B45" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
       <c r="H45" s="5"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B46" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
       <c r="H46" s="5"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B47" s="4"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
       <c r="H47" s="5"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B48" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
       <c r="H48" s="5"/>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="11"/>
       <c r="H49" s="5"/>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" s="4"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="11"/>
-      <c r="G50" s="11"/>
       <c r="H50" s="5"/>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="11"/>
-      <c r="G51" s="11"/>
       <c r="H51" s="5"/>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B52" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C52" s="11"/>
-      <c r="D52" s="11"/>
-      <c r="E52" s="11"/>
-      <c r="F52" s="11"/>
-      <c r="G52" s="11"/>
       <c r="H52" s="5"/>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B53" s="4"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="11"/>
       <c r="H53" s="5"/>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C54" s="11"/>
-      <c r="D54" s="11"/>
-      <c r="E54" s="11"/>
-      <c r="F54" s="11"/>
-      <c r="G54" s="11"/>
       <c r="H54" s="5"/>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B55" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C55" s="11"/>
-      <c r="D55" s="11"/>
-      <c r="E55" s="11"/>
-      <c r="F55" s="11"/>
-      <c r="G55" s="11"/>
       <c r="H55" s="5"/>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" s="4"/>
-      <c r="C56" s="11"/>
-      <c r="D56" s="11"/>
-      <c r="E56" s="11"/>
-      <c r="F56" s="11"/>
-      <c r="G56" s="11"/>
       <c r="H56" s="5"/>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C57" s="11"/>
-      <c r="D57" s="11"/>
-      <c r="E57" s="11"/>
-      <c r="F57" s="11"/>
-      <c r="G57" s="11"/>
       <c r="H57" s="5"/>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B58" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C58" s="11"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="11"/>
-      <c r="G58" s="11"/>
       <c r="H58" s="5"/>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B59" s="4"/>
-      <c r="C59" s="11"/>
-      <c r="D59" s="11"/>
-      <c r="E59" s="11"/>
-      <c r="F59" s="11"/>
-      <c r="G59" s="11"/>
       <c r="H59" s="5"/>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B60" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C60" s="11"/>
-      <c r="D60" s="11"/>
-      <c r="E60" s="11"/>
-      <c r="F60" s="11"/>
-      <c r="G60" s="11"/>
       <c r="H60" s="5"/>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.25">
@@ -4120,1256 +4123,230 @@
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
-      <c r="B66" s="11"/>
-      <c r="C66" s="11"/>
-      <c r="D66" s="11"/>
-      <c r="E66" s="11"/>
-      <c r="F66" s="11"/>
-      <c r="G66" s="11"/>
-      <c r="H66" s="11"/>
-      <c r="I66" s="11"/>
-      <c r="J66" s="11"/>
-      <c r="K66" s="11"/>
-      <c r="L66" s="11"/>
-      <c r="M66" s="11"/>
-      <c r="N66" s="11"/>
-      <c r="O66" s="11"/>
-      <c r="P66" s="11"/>
-      <c r="Q66" s="11"/>
-      <c r="R66" s="11"/>
-      <c r="S66" s="11"/>
       <c r="T66" s="5"/>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
-      <c r="B67" s="11"/>
-      <c r="C67" s="11"/>
-      <c r="D67" s="11"/>
-      <c r="E67" s="11"/>
-      <c r="F67" s="11"/>
-      <c r="G67" s="11"/>
-      <c r="H67" s="11"/>
-      <c r="I67" s="11"/>
-      <c r="J67" s="11"/>
-      <c r="K67" s="11"/>
-      <c r="L67" s="11"/>
-      <c r="M67" s="11"/>
-      <c r="N67" s="11"/>
-      <c r="O67" s="11"/>
-      <c r="P67" s="11"/>
-      <c r="Q67" s="11"/>
-      <c r="R67" s="11"/>
-      <c r="S67" s="11"/>
       <c r="T67" s="5"/>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
-      <c r="B68" s="11"/>
-      <c r="C68" s="11"/>
-      <c r="D68" s="11"/>
-      <c r="E68" s="11"/>
-      <c r="F68" s="11"/>
-      <c r="G68" s="11"/>
-      <c r="H68" s="11"/>
-      <c r="I68" s="11"/>
-      <c r="J68" s="11"/>
-      <c r="K68" s="11"/>
-      <c r="L68" s="11"/>
-      <c r="M68" s="11"/>
-      <c r="N68" s="11"/>
-      <c r="O68" s="11"/>
-      <c r="P68" s="11"/>
-      <c r="Q68" s="11"/>
-      <c r="R68" s="11"/>
-      <c r="S68" s="11"/>
       <c r="T68" s="5"/>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
-      <c r="B69" s="11"/>
-      <c r="C69" s="11"/>
-      <c r="D69" s="11"/>
-      <c r="E69" s="11"/>
-      <c r="F69" s="11"/>
-      <c r="G69" s="11"/>
-      <c r="H69" s="11"/>
-      <c r="I69" s="11"/>
-      <c r="J69" s="11"/>
-      <c r="K69" s="11"/>
-      <c r="L69" s="11"/>
-      <c r="M69" s="11"/>
-      <c r="N69" s="11"/>
-      <c r="O69" s="11"/>
-      <c r="P69" s="11"/>
-      <c r="Q69" s="11"/>
-      <c r="R69" s="11"/>
-      <c r="S69" s="11"/>
       <c r="T69" s="5"/>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
-      <c r="B70" s="11"/>
-      <c r="C70" s="11"/>
-      <c r="D70" s="11"/>
-      <c r="E70" s="11"/>
-      <c r="F70" s="11"/>
-      <c r="G70" s="11"/>
-      <c r="H70" s="11"/>
-      <c r="I70" s="11"/>
-      <c r="J70" s="11"/>
-      <c r="K70" s="11"/>
-      <c r="L70" s="11"/>
-      <c r="M70" s="11"/>
-      <c r="N70" s="11"/>
-      <c r="O70" s="11"/>
-      <c r="P70" s="11"/>
-      <c r="Q70" s="11"/>
-      <c r="R70" s="11"/>
-      <c r="S70" s="11"/>
       <c r="T70" s="5"/>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
-      <c r="B71" s="11"/>
-      <c r="C71" s="11"/>
-      <c r="D71" s="11"/>
-      <c r="E71" s="11"/>
-      <c r="F71" s="11"/>
-      <c r="G71" s="11"/>
-      <c r="H71" s="11"/>
-      <c r="I71" s="11"/>
-      <c r="J71" s="11"/>
-      <c r="K71" s="11"/>
-      <c r="L71" s="11"/>
-      <c r="M71" s="11"/>
-      <c r="N71" s="11"/>
-      <c r="O71" s="11"/>
-      <c r="P71" s="11"/>
-      <c r="Q71" s="11"/>
-      <c r="R71" s="11"/>
-      <c r="S71" s="11"/>
       <c r="T71" s="5"/>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
-      <c r="B72" s="11"/>
-      <c r="C72" s="11"/>
-      <c r="D72" s="11"/>
-      <c r="E72" s="11"/>
-      <c r="F72" s="11"/>
-      <c r="G72" s="11"/>
-      <c r="H72" s="11"/>
-      <c r="I72" s="11"/>
-      <c r="J72" s="11"/>
-      <c r="K72" s="11"/>
-      <c r="L72" s="11"/>
-      <c r="M72" s="11"/>
-      <c r="N72" s="11"/>
-      <c r="O72" s="11"/>
-      <c r="P72" s="11"/>
-      <c r="Q72" s="11"/>
-      <c r="R72" s="11"/>
-      <c r="S72" s="11"/>
       <c r="T72" s="5"/>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
-      <c r="B73" s="11"/>
-      <c r="C73" s="11"/>
-      <c r="D73" s="11"/>
-      <c r="E73" s="11"/>
-      <c r="F73" s="11"/>
-      <c r="G73" s="11"/>
-      <c r="H73" s="11"/>
-      <c r="I73" s="11"/>
-      <c r="J73" s="11"/>
-      <c r="K73" s="11"/>
-      <c r="L73" s="11"/>
-      <c r="M73" s="11"/>
-      <c r="N73" s="11"/>
-      <c r="O73" s="11"/>
-      <c r="P73" s="11"/>
-      <c r="Q73" s="11"/>
-      <c r="R73" s="11"/>
-      <c r="S73" s="11"/>
       <c r="T73" s="5"/>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
-      <c r="B74" s="11"/>
-      <c r="C74" s="11"/>
-      <c r="D74" s="11"/>
-      <c r="E74" s="11"/>
-      <c r="F74" s="11"/>
-      <c r="G74" s="11"/>
-      <c r="H74" s="11"/>
-      <c r="I74" s="11"/>
-      <c r="J74" s="11"/>
-      <c r="K74" s="11"/>
-      <c r="L74" s="11"/>
-      <c r="M74" s="11"/>
-      <c r="N74" s="11"/>
-      <c r="O74" s="11"/>
-      <c r="P74" s="11"/>
-      <c r="Q74" s="11"/>
-      <c r="R74" s="11"/>
-      <c r="S74" s="11"/>
       <c r="T74" s="5"/>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
-      <c r="B75" s="11"/>
-      <c r="C75" s="11"/>
-      <c r="D75" s="11"/>
-      <c r="E75" s="11"/>
-      <c r="F75" s="11"/>
-      <c r="G75" s="11"/>
-      <c r="H75" s="11"/>
-      <c r="I75" s="11"/>
-      <c r="J75" s="11"/>
-      <c r="K75" s="11"/>
-      <c r="L75" s="11"/>
-      <c r="M75" s="11"/>
-      <c r="N75" s="11"/>
-      <c r="O75" s="11"/>
-      <c r="P75" s="11"/>
-      <c r="Q75" s="11"/>
-      <c r="R75" s="11"/>
-      <c r="S75" s="11"/>
       <c r="T75" s="5"/>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
-      <c r="B76" s="11"/>
-      <c r="C76" s="11"/>
-      <c r="D76" s="11"/>
-      <c r="E76" s="11"/>
-      <c r="F76" s="11"/>
-      <c r="G76" s="11"/>
-      <c r="H76" s="11"/>
-      <c r="I76" s="11"/>
-      <c r="J76" s="11"/>
-      <c r="K76" s="11"/>
-      <c r="L76" s="11"/>
-      <c r="M76" s="11"/>
-      <c r="N76" s="11"/>
-      <c r="O76" s="11"/>
-      <c r="P76" s="11"/>
-      <c r="Q76" s="11"/>
-      <c r="R76" s="11"/>
-      <c r="S76" s="11"/>
       <c r="T76" s="5"/>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
-      <c r="B77" s="11"/>
-      <c r="C77" s="11"/>
-      <c r="D77" s="11"/>
-      <c r="E77" s="11"/>
-      <c r="F77" s="11"/>
-      <c r="G77" s="11"/>
-      <c r="H77" s="11"/>
-      <c r="I77" s="11"/>
-      <c r="J77" s="11"/>
-      <c r="K77" s="11"/>
-      <c r="L77" s="11"/>
-      <c r="M77" s="11"/>
-      <c r="N77" s="11"/>
-      <c r="O77" s="11"/>
-      <c r="P77" s="11"/>
-      <c r="Q77" s="11"/>
-      <c r="R77" s="11"/>
-      <c r="S77" s="11"/>
       <c r="T77" s="5"/>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
-      <c r="B78" s="11"/>
-      <c r="C78" s="11"/>
-      <c r="D78" s="11"/>
-      <c r="E78" s="11"/>
-      <c r="F78" s="11"/>
-      <c r="G78" s="11"/>
-      <c r="H78" s="11"/>
-      <c r="I78" s="11"/>
-      <c r="J78" s="11"/>
-      <c r="K78" s="11"/>
-      <c r="L78" s="11"/>
-      <c r="M78" s="11"/>
-      <c r="N78" s="11"/>
-      <c r="O78" s="11"/>
-      <c r="P78" s="11"/>
-      <c r="Q78" s="11"/>
-      <c r="R78" s="11"/>
-      <c r="S78" s="11"/>
       <c r="T78" s="5"/>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
-      <c r="B79" s="11"/>
-      <c r="C79" s="11"/>
-      <c r="D79" s="11"/>
-      <c r="E79" s="11"/>
-      <c r="F79" s="11"/>
-      <c r="G79" s="11"/>
-      <c r="H79" s="11"/>
-      <c r="I79" s="11"/>
-      <c r="J79" s="11"/>
-      <c r="K79" s="11"/>
-      <c r="L79" s="11"/>
-      <c r="M79" s="11"/>
-      <c r="N79" s="11"/>
-      <c r="O79" s="11"/>
-      <c r="P79" s="11"/>
-      <c r="Q79" s="11"/>
-      <c r="R79" s="11"/>
-      <c r="S79" s="11"/>
       <c r="T79" s="5"/>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
-      <c r="B80" s="11"/>
-      <c r="C80" s="11"/>
-      <c r="D80" s="11"/>
-      <c r="E80" s="11"/>
-      <c r="F80" s="11"/>
-      <c r="G80" s="11"/>
-      <c r="H80" s="11"/>
-      <c r="I80" s="11"/>
-      <c r="J80" s="11"/>
-      <c r="K80" s="11"/>
-      <c r="L80" s="11"/>
-      <c r="M80" s="11"/>
-      <c r="N80" s="11"/>
-      <c r="O80" s="11"/>
-      <c r="P80" s="11"/>
-      <c r="Q80" s="11"/>
-      <c r="R80" s="11"/>
-      <c r="S80" s="11"/>
       <c r="T80" s="5"/>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
-      <c r="B81" s="11"/>
-      <c r="C81" s="11"/>
-      <c r="D81" s="11"/>
-      <c r="E81" s="11"/>
-      <c r="F81" s="11"/>
-      <c r="G81" s="11"/>
-      <c r="H81" s="11"/>
-      <c r="I81" s="11"/>
-      <c r="J81" s="11"/>
-      <c r="K81" s="11"/>
-      <c r="L81" s="11"/>
-      <c r="M81" s="11"/>
-      <c r="N81" s="11"/>
-      <c r="O81" s="11"/>
-      <c r="P81" s="11"/>
-      <c r="Q81" s="11"/>
-      <c r="R81" s="11"/>
-      <c r="S81" s="11"/>
       <c r="T81" s="5"/>
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
-      <c r="B82" s="11"/>
-      <c r="C82" s="11"/>
-      <c r="D82" s="11"/>
-      <c r="E82" s="11"/>
-      <c r="F82" s="11"/>
-      <c r="G82" s="11"/>
-      <c r="H82" s="11"/>
-      <c r="I82" s="11"/>
-      <c r="J82" s="11"/>
-      <c r="K82" s="11"/>
-      <c r="L82" s="11"/>
-      <c r="M82" s="11"/>
-      <c r="N82" s="11"/>
-      <c r="O82" s="11"/>
-      <c r="P82" s="11"/>
-      <c r="Q82" s="11"/>
-      <c r="R82" s="11"/>
-      <c r="S82" s="11"/>
       <c r="T82" s="5"/>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
-      <c r="B83" s="11"/>
-      <c r="C83" s="11"/>
-      <c r="D83" s="11"/>
-      <c r="E83" s="11"/>
-      <c r="F83" s="11"/>
-      <c r="G83" s="11"/>
-      <c r="H83" s="11"/>
-      <c r="I83" s="11"/>
-      <c r="J83" s="11"/>
-      <c r="K83" s="11"/>
-      <c r="L83" s="11"/>
-      <c r="M83" s="11"/>
-      <c r="N83" s="11"/>
-      <c r="O83" s="11"/>
-      <c r="P83" s="11"/>
-      <c r="Q83" s="11"/>
-      <c r="R83" s="11"/>
-      <c r="S83" s="11"/>
       <c r="T83" s="5"/>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
-      <c r="B84" s="11"/>
-      <c r="C84" s="11"/>
-      <c r="D84" s="11"/>
-      <c r="E84" s="11"/>
-      <c r="F84" s="11"/>
-      <c r="G84" s="11"/>
-      <c r="H84" s="11"/>
-      <c r="I84" s="11"/>
-      <c r="J84" s="11"/>
-      <c r="K84" s="11"/>
-      <c r="L84" s="11"/>
-      <c r="M84" s="11"/>
-      <c r="N84" s="11"/>
-      <c r="O84" s="11"/>
-      <c r="P84" s="11"/>
-      <c r="Q84" s="11"/>
-      <c r="R84" s="11"/>
-      <c r="S84" s="11"/>
       <c r="T84" s="5"/>
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
-      <c r="B85" s="11"/>
-      <c r="C85" s="11"/>
-      <c r="D85" s="11"/>
-      <c r="E85" s="11"/>
-      <c r="F85" s="11"/>
-      <c r="G85" s="11"/>
-      <c r="H85" s="11"/>
-      <c r="I85" s="11"/>
-      <c r="J85" s="11"/>
-      <c r="K85" s="11"/>
-      <c r="L85" s="11"/>
-      <c r="M85" s="11"/>
-      <c r="N85" s="11"/>
-      <c r="O85" s="11"/>
-      <c r="P85" s="11"/>
-      <c r="Q85" s="11"/>
-      <c r="R85" s="11"/>
-      <c r="S85" s="11"/>
       <c r="T85" s="5"/>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A86" s="4"/>
-      <c r="B86" s="11"/>
-      <c r="C86" s="11"/>
-      <c r="D86" s="11"/>
-      <c r="E86" s="11"/>
-      <c r="F86" s="11"/>
-      <c r="G86" s="11"/>
-      <c r="H86" s="11"/>
-      <c r="I86" s="11"/>
-      <c r="J86" s="11"/>
-      <c r="K86" s="11"/>
-      <c r="L86" s="11"/>
-      <c r="M86" s="11"/>
-      <c r="N86" s="11"/>
-      <c r="O86" s="11"/>
-      <c r="P86" s="11"/>
-      <c r="Q86" s="11"/>
-      <c r="R86" s="11"/>
-      <c r="S86" s="11"/>
       <c r="T86" s="5"/>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
-      <c r="B87" s="11"/>
-      <c r="C87" s="11"/>
-      <c r="D87" s="11"/>
-      <c r="E87" s="11"/>
-      <c r="F87" s="11"/>
-      <c r="G87" s="11"/>
-      <c r="H87" s="11"/>
-      <c r="I87" s="11"/>
-      <c r="J87" s="11"/>
-      <c r="K87" s="11"/>
-      <c r="L87" s="11"/>
-      <c r="M87" s="11"/>
-      <c r="N87" s="11"/>
-      <c r="O87" s="11"/>
-      <c r="P87" s="11"/>
-      <c r="Q87" s="11"/>
-      <c r="R87" s="11"/>
-      <c r="S87" s="11"/>
       <c r="T87" s="5"/>
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
-      <c r="B88" s="11"/>
-      <c r="C88" s="11"/>
-      <c r="D88" s="11"/>
-      <c r="E88" s="11"/>
-      <c r="F88" s="11"/>
-      <c r="G88" s="11"/>
-      <c r="H88" s="11"/>
-      <c r="I88" s="11"/>
-      <c r="J88" s="11"/>
-      <c r="K88" s="11"/>
-      <c r="L88" s="11"/>
-      <c r="M88" s="11"/>
-      <c r="N88" s="11"/>
-      <c r="O88" s="11"/>
-      <c r="P88" s="11"/>
-      <c r="Q88" s="11"/>
-      <c r="R88" s="11"/>
-      <c r="S88" s="11"/>
       <c r="T88" s="5"/>
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A89" s="4"/>
-      <c r="B89" s="11"/>
-      <c r="C89" s="11"/>
-      <c r="D89" s="11"/>
-      <c r="E89" s="11"/>
-      <c r="F89" s="11"/>
-      <c r="G89" s="11"/>
-      <c r="H89" s="11"/>
-      <c r="I89" s="11"/>
-      <c r="J89" s="11"/>
-      <c r="K89" s="11"/>
-      <c r="L89" s="11"/>
-      <c r="M89" s="11"/>
-      <c r="N89" s="11"/>
-      <c r="O89" s="11"/>
-      <c r="P89" s="11"/>
-      <c r="Q89" s="11"/>
-      <c r="R89" s="11"/>
-      <c r="S89" s="11"/>
       <c r="T89" s="5"/>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
-      <c r="B90" s="11"/>
-      <c r="C90" s="11"/>
-      <c r="D90" s="11"/>
-      <c r="E90" s="11"/>
-      <c r="F90" s="11"/>
-      <c r="G90" s="11"/>
-      <c r="H90" s="11"/>
-      <c r="I90" s="11"/>
-      <c r="J90" s="11"/>
-      <c r="K90" s="11"/>
-      <c r="L90" s="11"/>
-      <c r="M90" s="11"/>
-      <c r="N90" s="11"/>
-      <c r="O90" s="11"/>
-      <c r="P90" s="11"/>
-      <c r="Q90" s="11"/>
-      <c r="R90" s="11"/>
-      <c r="S90" s="11"/>
       <c r="T90" s="5"/>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
-      <c r="B91" s="11"/>
-      <c r="C91" s="11"/>
-      <c r="D91" s="11"/>
-      <c r="E91" s="11"/>
-      <c r="F91" s="11"/>
-      <c r="G91" s="11"/>
-      <c r="H91" s="11"/>
-      <c r="I91" s="11"/>
-      <c r="J91" s="11"/>
-      <c r="K91" s="11"/>
-      <c r="L91" s="11"/>
-      <c r="M91" s="11"/>
-      <c r="N91" s="11"/>
-      <c r="O91" s="11"/>
-      <c r="P91" s="11"/>
-      <c r="Q91" s="11"/>
-      <c r="R91" s="11"/>
-      <c r="S91" s="11"/>
       <c r="T91" s="5"/>
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
-      <c r="B92" s="11"/>
-      <c r="C92" s="11"/>
-      <c r="D92" s="11"/>
-      <c r="E92" s="11"/>
-      <c r="F92" s="11"/>
-      <c r="G92" s="11"/>
-      <c r="H92" s="11"/>
-      <c r="I92" s="11"/>
-      <c r="J92" s="11"/>
-      <c r="K92" s="11"/>
-      <c r="L92" s="11"/>
-      <c r="M92" s="11"/>
-      <c r="N92" s="11"/>
-      <c r="O92" s="11"/>
-      <c r="P92" s="11"/>
-      <c r="Q92" s="11"/>
-      <c r="R92" s="11"/>
-      <c r="S92" s="11"/>
       <c r="T92" s="5"/>
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
-      <c r="B93" s="11"/>
-      <c r="C93" s="11"/>
-      <c r="D93" s="11"/>
-      <c r="E93" s="11"/>
-      <c r="F93" s="11"/>
-      <c r="G93" s="11"/>
-      <c r="H93" s="11"/>
-      <c r="I93" s="11"/>
-      <c r="J93" s="11"/>
-      <c r="K93" s="11"/>
-      <c r="L93" s="11"/>
-      <c r="M93" s="11"/>
-      <c r="N93" s="11"/>
-      <c r="O93" s="11"/>
-      <c r="P93" s="11"/>
-      <c r="Q93" s="11"/>
-      <c r="R93" s="11"/>
-      <c r="S93" s="11"/>
       <c r="T93" s="5"/>
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A94" s="4"/>
-      <c r="B94" s="11"/>
-      <c r="C94" s="11"/>
-      <c r="D94" s="11"/>
-      <c r="E94" s="11"/>
-      <c r="F94" s="11"/>
-      <c r="G94" s="11"/>
-      <c r="H94" s="11"/>
-      <c r="I94" s="11"/>
-      <c r="J94" s="11"/>
-      <c r="K94" s="11"/>
-      <c r="L94" s="11"/>
-      <c r="M94" s="11"/>
-      <c r="N94" s="11"/>
-      <c r="O94" s="11"/>
-      <c r="P94" s="11"/>
-      <c r="Q94" s="11"/>
-      <c r="R94" s="11"/>
-      <c r="S94" s="11"/>
       <c r="T94" s="5"/>
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A95" s="4"/>
-      <c r="B95" s="11"/>
-      <c r="C95" s="11"/>
-      <c r="D95" s="11"/>
-      <c r="E95" s="11"/>
-      <c r="F95" s="11"/>
-      <c r="G95" s="11"/>
-      <c r="H95" s="11"/>
-      <c r="I95" s="11"/>
-      <c r="J95" s="11"/>
-      <c r="K95" s="11"/>
-      <c r="L95" s="11"/>
-      <c r="M95" s="11"/>
-      <c r="N95" s="11"/>
-      <c r="O95" s="11"/>
-      <c r="P95" s="11"/>
-      <c r="Q95" s="11"/>
-      <c r="R95" s="11"/>
-      <c r="S95" s="11"/>
       <c r="T95" s="5"/>
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A96" s="4"/>
-      <c r="B96" s="11"/>
-      <c r="C96" s="11"/>
-      <c r="D96" s="11"/>
-      <c r="E96" s="11"/>
-      <c r="F96" s="11"/>
-      <c r="G96" s="11"/>
-      <c r="H96" s="11"/>
-      <c r="I96" s="11"/>
-      <c r="J96" s="11"/>
-      <c r="K96" s="11"/>
-      <c r="L96" s="11"/>
-      <c r="M96" s="11"/>
-      <c r="N96" s="11"/>
-      <c r="O96" s="11"/>
-      <c r="P96" s="11"/>
-      <c r="Q96" s="11"/>
-      <c r="R96" s="11"/>
-      <c r="S96" s="11"/>
       <c r="T96" s="5"/>
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A97" s="4"/>
-      <c r="B97" s="11"/>
-      <c r="C97" s="11"/>
-      <c r="D97" s="11"/>
-      <c r="E97" s="11"/>
-      <c r="F97" s="11"/>
-      <c r="G97" s="11"/>
-      <c r="H97" s="11"/>
-      <c r="I97" s="11"/>
-      <c r="J97" s="11"/>
-      <c r="K97" s="11"/>
-      <c r="L97" s="11"/>
-      <c r="M97" s="11"/>
-      <c r="N97" s="11"/>
-      <c r="O97" s="11"/>
-      <c r="P97" s="11"/>
-      <c r="Q97" s="11"/>
-      <c r="R97" s="11"/>
-      <c r="S97" s="11"/>
       <c r="T97" s="5"/>
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A98" s="4"/>
-      <c r="B98" s="11"/>
-      <c r="C98" s="11"/>
-      <c r="D98" s="11"/>
-      <c r="E98" s="11"/>
-      <c r="F98" s="11"/>
-      <c r="G98" s="11"/>
-      <c r="H98" s="11"/>
-      <c r="I98" s="11"/>
-      <c r="J98" s="11"/>
-      <c r="K98" s="11"/>
-      <c r="L98" s="11"/>
-      <c r="M98" s="11"/>
-      <c r="N98" s="11"/>
-      <c r="O98" s="11"/>
-      <c r="P98" s="11"/>
-      <c r="Q98" s="11"/>
-      <c r="R98" s="11"/>
-      <c r="S98" s="11"/>
       <c r="T98" s="5"/>
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A99" s="4"/>
-      <c r="B99" s="11"/>
-      <c r="C99" s="11"/>
-      <c r="D99" s="11"/>
-      <c r="E99" s="11"/>
-      <c r="F99" s="11"/>
-      <c r="G99" s="11"/>
-      <c r="H99" s="11"/>
-      <c r="I99" s="11"/>
-      <c r="J99" s="11"/>
-      <c r="K99" s="11"/>
-      <c r="L99" s="11"/>
-      <c r="M99" s="11"/>
-      <c r="N99" s="11"/>
-      <c r="O99" s="11"/>
-      <c r="P99" s="11"/>
-      <c r="Q99" s="11"/>
-      <c r="R99" s="11"/>
-      <c r="S99" s="11"/>
       <c r="T99" s="5"/>
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A100" s="4"/>
-      <c r="B100" s="11"/>
-      <c r="C100" s="11"/>
-      <c r="D100" s="11"/>
-      <c r="E100" s="11"/>
-      <c r="F100" s="11"/>
-      <c r="G100" s="11"/>
-      <c r="H100" s="11"/>
-      <c r="I100" s="11"/>
-      <c r="J100" s="11"/>
-      <c r="K100" s="11"/>
-      <c r="L100" s="11"/>
-      <c r="M100" s="11"/>
-      <c r="N100" s="11"/>
-      <c r="O100" s="11"/>
-      <c r="P100" s="11"/>
-      <c r="Q100" s="11"/>
-      <c r="R100" s="11"/>
-      <c r="S100" s="11"/>
       <c r="T100" s="5"/>
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A101" s="4"/>
-      <c r="B101" s="11"/>
-      <c r="C101" s="11"/>
-      <c r="D101" s="11"/>
-      <c r="E101" s="11"/>
-      <c r="F101" s="11"/>
-      <c r="G101" s="11"/>
-      <c r="H101" s="11"/>
-      <c r="I101" s="11"/>
-      <c r="J101" s="11"/>
-      <c r="K101" s="11"/>
-      <c r="L101" s="11"/>
-      <c r="M101" s="11"/>
-      <c r="N101" s="11"/>
-      <c r="O101" s="11"/>
-      <c r="P101" s="11"/>
-      <c r="Q101" s="11"/>
-      <c r="R101" s="11"/>
-      <c r="S101" s="11"/>
       <c r="T101" s="5"/>
     </row>
     <row r="102" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A102" s="4"/>
-      <c r="B102" s="11"/>
-      <c r="C102" s="11"/>
-      <c r="D102" s="11"/>
-      <c r="E102" s="11"/>
-      <c r="F102" s="11"/>
-      <c r="G102" s="11"/>
-      <c r="H102" s="11"/>
-      <c r="I102" s="11"/>
-      <c r="J102" s="11"/>
-      <c r="K102" s="11"/>
-      <c r="L102" s="11"/>
-      <c r="M102" s="11"/>
-      <c r="N102" s="11"/>
-      <c r="O102" s="11"/>
-      <c r="P102" s="11"/>
-      <c r="Q102" s="11"/>
-      <c r="R102" s="11"/>
-      <c r="S102" s="11"/>
       <c r="T102" s="5"/>
     </row>
     <row r="103" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A103" s="4"/>
-      <c r="B103" s="11"/>
-      <c r="C103" s="11"/>
-      <c r="D103" s="11"/>
-      <c r="E103" s="11"/>
-      <c r="F103" s="11"/>
-      <c r="G103" s="11"/>
-      <c r="H103" s="11"/>
-      <c r="I103" s="11"/>
-      <c r="J103" s="11"/>
-      <c r="K103" s="11"/>
-      <c r="L103" s="11"/>
-      <c r="M103" s="11"/>
-      <c r="N103" s="11"/>
-      <c r="O103" s="11"/>
-      <c r="P103" s="11"/>
-      <c r="Q103" s="11"/>
-      <c r="R103" s="11"/>
-      <c r="S103" s="11"/>
       <c r="T103" s="5"/>
     </row>
     <row r="104" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A104" s="4"/>
-      <c r="B104" s="11"/>
-      <c r="C104" s="11"/>
-      <c r="D104" s="11"/>
-      <c r="E104" s="11"/>
-      <c r="F104" s="11"/>
-      <c r="G104" s="11"/>
-      <c r="H104" s="11"/>
-      <c r="I104" s="11"/>
-      <c r="J104" s="11"/>
-      <c r="K104" s="11"/>
-      <c r="L104" s="11"/>
-      <c r="M104" s="11"/>
-      <c r="N104" s="11"/>
-      <c r="O104" s="11"/>
-      <c r="P104" s="11"/>
-      <c r="Q104" s="11"/>
-      <c r="R104" s="11"/>
-      <c r="S104" s="11"/>
       <c r="T104" s="5"/>
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A105" s="4"/>
-      <c r="B105" s="11"/>
-      <c r="C105" s="11"/>
-      <c r="D105" s="11"/>
-      <c r="E105" s="11"/>
-      <c r="F105" s="11"/>
-      <c r="G105" s="11"/>
-      <c r="H105" s="11"/>
-      <c r="I105" s="11"/>
-      <c r="J105" s="11"/>
-      <c r="K105" s="11"/>
-      <c r="L105" s="11"/>
-      <c r="M105" s="11"/>
-      <c r="N105" s="11"/>
-      <c r="O105" s="11"/>
-      <c r="P105" s="11"/>
-      <c r="Q105" s="11"/>
-      <c r="R105" s="11"/>
-      <c r="S105" s="11"/>
       <c r="T105" s="5"/>
     </row>
     <row r="106" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A106" s="4"/>
-      <c r="B106" s="11"/>
-      <c r="C106" s="11"/>
-      <c r="D106" s="11"/>
-      <c r="E106" s="11"/>
-      <c r="F106" s="11"/>
-      <c r="G106" s="11"/>
-      <c r="H106" s="11"/>
-      <c r="I106" s="11"/>
-      <c r="J106" s="11"/>
-      <c r="K106" s="11"/>
-      <c r="L106" s="11"/>
-      <c r="M106" s="11"/>
-      <c r="N106" s="11"/>
-      <c r="O106" s="11"/>
-      <c r="P106" s="11"/>
-      <c r="Q106" s="11"/>
-      <c r="R106" s="11"/>
-      <c r="S106" s="11"/>
       <c r="T106" s="5"/>
     </row>
     <row r="107" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A107" s="4"/>
-      <c r="B107" s="11"/>
-      <c r="C107" s="11"/>
-      <c r="D107" s="11"/>
-      <c r="E107" s="11"/>
-      <c r="F107" s="11"/>
-      <c r="G107" s="11"/>
-      <c r="H107" s="11"/>
-      <c r="I107" s="11"/>
-      <c r="J107" s="11"/>
-      <c r="K107" s="11"/>
-      <c r="L107" s="11"/>
-      <c r="M107" s="11"/>
-      <c r="N107" s="11"/>
-      <c r="O107" s="11"/>
-      <c r="P107" s="11"/>
-      <c r="Q107" s="11"/>
-      <c r="R107" s="11"/>
-      <c r="S107" s="11"/>
       <c r="T107" s="5"/>
     </row>
     <row r="108" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A108" s="4"/>
-      <c r="B108" s="11"/>
-      <c r="C108" s="11"/>
-      <c r="D108" s="11"/>
-      <c r="E108" s="11"/>
-      <c r="F108" s="11"/>
-      <c r="G108" s="11"/>
-      <c r="H108" s="11"/>
-      <c r="I108" s="11"/>
-      <c r="J108" s="11"/>
-      <c r="K108" s="11"/>
-      <c r="L108" s="11"/>
-      <c r="M108" s="11"/>
-      <c r="N108" s="11"/>
-      <c r="O108" s="11"/>
-      <c r="P108" s="11"/>
-      <c r="Q108" s="11"/>
-      <c r="R108" s="11"/>
-      <c r="S108" s="11"/>
       <c r="T108" s="5"/>
     </row>
     <row r="109" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A109" s="4"/>
-      <c r="B109" s="11"/>
-      <c r="C109" s="11"/>
-      <c r="D109" s="11"/>
-      <c r="E109" s="11"/>
-      <c r="F109" s="11"/>
-      <c r="G109" s="11"/>
-      <c r="H109" s="11"/>
-      <c r="I109" s="11"/>
-      <c r="J109" s="11"/>
-      <c r="K109" s="11"/>
-      <c r="L109" s="11"/>
-      <c r="M109" s="11"/>
-      <c r="N109" s="11"/>
-      <c r="O109" s="11"/>
-      <c r="P109" s="11"/>
-      <c r="Q109" s="11"/>
-      <c r="R109" s="11"/>
-      <c r="S109" s="11"/>
       <c r="T109" s="5"/>
     </row>
     <row r="110" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A110" s="4"/>
-      <c r="B110" s="11"/>
-      <c r="C110" s="11"/>
-      <c r="D110" s="11"/>
-      <c r="E110" s="11"/>
-      <c r="F110" s="11"/>
-      <c r="G110" s="11"/>
-      <c r="H110" s="11"/>
-      <c r="I110" s="11"/>
-      <c r="J110" s="11"/>
-      <c r="K110" s="11"/>
-      <c r="L110" s="11"/>
-      <c r="M110" s="11"/>
-      <c r="N110" s="11"/>
-      <c r="O110" s="11"/>
-      <c r="P110" s="11"/>
-      <c r="Q110" s="11"/>
-      <c r="R110" s="11"/>
-      <c r="S110" s="11"/>
       <c r="T110" s="5"/>
     </row>
     <row r="111" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A111" s="4"/>
-      <c r="B111" s="11"/>
-      <c r="C111" s="11"/>
-      <c r="D111" s="11"/>
-      <c r="E111" s="11"/>
-      <c r="F111" s="11"/>
-      <c r="G111" s="11"/>
-      <c r="H111" s="11"/>
-      <c r="I111" s="11"/>
-      <c r="J111" s="11"/>
-      <c r="K111" s="11"/>
-      <c r="L111" s="11"/>
-      <c r="M111" s="11"/>
-      <c r="N111" s="11"/>
-      <c r="O111" s="11"/>
-      <c r="P111" s="11"/>
-      <c r="Q111" s="11"/>
-      <c r="R111" s="11"/>
-      <c r="S111" s="11"/>
       <c r="T111" s="5"/>
     </row>
     <row r="112" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A112" s="4"/>
-      <c r="B112" s="11"/>
-      <c r="C112" s="11"/>
-      <c r="D112" s="11"/>
-      <c r="E112" s="11"/>
-      <c r="F112" s="11"/>
-      <c r="G112" s="11"/>
-      <c r="H112" s="11"/>
-      <c r="I112" s="11"/>
-      <c r="J112" s="11"/>
-      <c r="K112" s="11"/>
-      <c r="L112" s="11"/>
-      <c r="M112" s="11"/>
-      <c r="N112" s="11"/>
-      <c r="O112" s="11"/>
-      <c r="P112" s="11"/>
-      <c r="Q112" s="11"/>
-      <c r="R112" s="11"/>
-      <c r="S112" s="11"/>
       <c r="T112" s="5"/>
     </row>
     <row r="113" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A113" s="4"/>
-      <c r="B113" s="11"/>
-      <c r="C113" s="11"/>
-      <c r="D113" s="11"/>
-      <c r="E113" s="11"/>
-      <c r="F113" s="11"/>
-      <c r="G113" s="11"/>
-      <c r="H113" s="11"/>
-      <c r="I113" s="11"/>
-      <c r="J113" s="11"/>
-      <c r="K113" s="11"/>
-      <c r="L113" s="11"/>
-      <c r="M113" s="11"/>
-      <c r="N113" s="11"/>
-      <c r="O113" s="11"/>
-      <c r="P113" s="11"/>
-      <c r="Q113" s="11"/>
-      <c r="R113" s="11"/>
-      <c r="S113" s="11"/>
       <c r="T113" s="5"/>
     </row>
     <row r="114" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A114" s="4"/>
-      <c r="B114" s="11"/>
-      <c r="C114" s="11"/>
-      <c r="D114" s="11"/>
-      <c r="E114" s="11"/>
-      <c r="F114" s="11"/>
-      <c r="G114" s="11"/>
-      <c r="H114" s="11"/>
-      <c r="I114" s="11"/>
-      <c r="J114" s="11"/>
-      <c r="K114" s="11"/>
-      <c r="L114" s="11"/>
-      <c r="M114" s="11"/>
-      <c r="N114" s="11"/>
-      <c r="O114" s="11"/>
-      <c r="P114" s="11"/>
-      <c r="Q114" s="11"/>
-      <c r="R114" s="11"/>
-      <c r="S114" s="11"/>
       <c r="T114" s="5"/>
     </row>
     <row r="115" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A115" s="4"/>
-      <c r="B115" s="11"/>
-      <c r="C115" s="11"/>
-      <c r="D115" s="11"/>
-      <c r="E115" s="11"/>
-      <c r="F115" s="11"/>
-      <c r="G115" s="11"/>
-      <c r="H115" s="11"/>
-      <c r="I115" s="11"/>
-      <c r="J115" s="11"/>
-      <c r="K115" s="11"/>
-      <c r="L115" s="11"/>
-      <c r="M115" s="11"/>
-      <c r="N115" s="11"/>
-      <c r="O115" s="11"/>
-      <c r="P115" s="11"/>
-      <c r="Q115" s="11"/>
-      <c r="R115" s="11"/>
-      <c r="S115" s="11"/>
       <c r="T115" s="5"/>
     </row>
     <row r="116" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A116" s="4"/>
-      <c r="B116" s="11"/>
-      <c r="C116" s="11"/>
-      <c r="D116" s="11"/>
-      <c r="E116" s="11"/>
-      <c r="F116" s="11"/>
-      <c r="G116" s="11"/>
-      <c r="H116" s="11"/>
-      <c r="I116" s="11"/>
-      <c r="J116" s="11"/>
-      <c r="K116" s="11"/>
-      <c r="L116" s="11"/>
-      <c r="M116" s="11"/>
-      <c r="N116" s="11"/>
-      <c r="O116" s="11"/>
-      <c r="P116" s="11"/>
-      <c r="Q116" s="11"/>
-      <c r="R116" s="11"/>
-      <c r="S116" s="11"/>
       <c r="T116" s="5"/>
     </row>
     <row r="117" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A117" s="4"/>
-      <c r="B117" s="11"/>
-      <c r="C117" s="11"/>
-      <c r="D117" s="11"/>
-      <c r="E117" s="11"/>
-      <c r="F117" s="11"/>
-      <c r="G117" s="11"/>
-      <c r="H117" s="11"/>
-      <c r="I117" s="11"/>
-      <c r="J117" s="11"/>
-      <c r="K117" s="11"/>
-      <c r="L117" s="11"/>
-      <c r="M117" s="11"/>
-      <c r="N117" s="11"/>
-      <c r="O117" s="11"/>
-      <c r="P117" s="11"/>
-      <c r="Q117" s="11"/>
-      <c r="R117" s="11"/>
-      <c r="S117" s="11"/>
       <c r="T117" s="5"/>
     </row>
     <row r="118" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A118" s="4"/>
-      <c r="B118" s="11"/>
-      <c r="C118" s="11"/>
-      <c r="D118" s="11"/>
-      <c r="E118" s="11"/>
-      <c r="F118" s="11"/>
-      <c r="G118" s="11"/>
-      <c r="H118" s="11"/>
-      <c r="I118" s="11"/>
-      <c r="J118" s="11"/>
-      <c r="K118" s="11"/>
-      <c r="L118" s="11"/>
-      <c r="M118" s="11"/>
-      <c r="N118" s="11"/>
-      <c r="O118" s="11"/>
-      <c r="P118" s="11"/>
-      <c r="Q118" s="11"/>
-      <c r="R118" s="11"/>
-      <c r="S118" s="11"/>
       <c r="T118" s="5"/>
     </row>
     <row r="119" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A119" s="4"/>
-      <c r="B119" s="11"/>
-      <c r="C119" s="11"/>
-      <c r="D119" s="11"/>
-      <c r="E119" s="11"/>
-      <c r="F119" s="11"/>
-      <c r="G119" s="11"/>
-      <c r="H119" s="11"/>
-      <c r="I119" s="11"/>
-      <c r="J119" s="11"/>
-      <c r="K119" s="11"/>
-      <c r="L119" s="11"/>
-      <c r="M119" s="11"/>
-      <c r="N119" s="11"/>
-      <c r="O119" s="11"/>
-      <c r="P119" s="11"/>
-      <c r="Q119" s="11"/>
-      <c r="R119" s="11"/>
-      <c r="S119" s="11"/>
       <c r="T119" s="5"/>
     </row>
     <row r="120" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A120" s="4"/>
-      <c r="B120" s="11"/>
-      <c r="C120" s="11"/>
-      <c r="D120" s="11"/>
-      <c r="E120" s="11"/>
-      <c r="F120" s="11"/>
-      <c r="G120" s="11"/>
-      <c r="H120" s="11"/>
-      <c r="I120" s="11"/>
-      <c r="J120" s="11"/>
-      <c r="K120" s="11"/>
-      <c r="L120" s="11"/>
-      <c r="M120" s="11"/>
-      <c r="N120" s="11"/>
-      <c r="O120" s="11"/>
-      <c r="P120" s="11"/>
-      <c r="Q120" s="11"/>
-      <c r="R120" s="11"/>
-      <c r="S120" s="11"/>
       <c r="T120" s="5"/>
     </row>
     <row r="121" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A121" s="4"/>
-      <c r="B121" s="11"/>
-      <c r="C121" s="11"/>
-      <c r="D121" s="11"/>
-      <c r="E121" s="11"/>
-      <c r="F121" s="11"/>
-      <c r="G121" s="11"/>
-      <c r="H121" s="11"/>
-      <c r="I121" s="11"/>
-      <c r="J121" s="11"/>
-      <c r="K121" s="11"/>
-      <c r="L121" s="11"/>
-      <c r="M121" s="11"/>
-      <c r="N121" s="11"/>
-      <c r="O121" s="11"/>
-      <c r="P121" s="11"/>
-      <c r="Q121" s="11"/>
-      <c r="R121" s="11"/>
-      <c r="S121" s="11"/>
       <c r="T121" s="5"/>
     </row>
     <row r="122" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A122" s="4"/>
-      <c r="B122" s="11"/>
-      <c r="C122" s="11"/>
-      <c r="D122" s="11"/>
-      <c r="E122" s="11"/>
-      <c r="F122" s="11"/>
-      <c r="G122" s="11"/>
-      <c r="H122" s="11"/>
-      <c r="I122" s="11"/>
-      <c r="J122" s="11"/>
-      <c r="K122" s="11"/>
-      <c r="L122" s="11"/>
-      <c r="M122" s="11"/>
-      <c r="N122" s="11"/>
-      <c r="O122" s="11"/>
-      <c r="P122" s="11"/>
-      <c r="Q122" s="11"/>
-      <c r="R122" s="11"/>
-      <c r="S122" s="11"/>
       <c r="T122" s="5"/>
     </row>
     <row r="123" spans="1:20" x14ac:dyDescent="0.25">
@@ -5395,7 +4372,7 @@
       <c r="T123" s="8"/>
     </row>
     <row r="126" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A126" s="15" t="s">
+      <c r="A126" s="12" t="s">
         <v>44</v>
       </c>
       <c r="B126" s="2" t="s">
@@ -5421,1191 +4398,219 @@
       <c r="T126" s="3"/>
     </row>
     <row r="127" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A127" s="16"/>
-      <c r="B127" s="11"/>
-      <c r="C127" s="11"/>
-      <c r="D127" s="11"/>
-      <c r="E127" s="11"/>
-      <c r="F127" s="11"/>
-      <c r="G127" s="11"/>
-      <c r="H127" s="11"/>
-      <c r="I127" s="11"/>
-      <c r="J127" s="11"/>
-      <c r="K127" s="11"/>
-      <c r="L127" s="11"/>
-      <c r="M127" s="11"/>
-      <c r="N127" s="11"/>
-      <c r="O127" s="11"/>
-      <c r="P127" s="11"/>
-      <c r="Q127" s="11"/>
-      <c r="R127" s="11"/>
-      <c r="S127" s="11"/>
+      <c r="A127" s="13"/>
       <c r="T127" s="5"/>
     </row>
     <row r="128" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A128" s="4"/>
-      <c r="B128" s="11"/>
-      <c r="C128" s="11"/>
-      <c r="D128" s="11"/>
-      <c r="E128" s="11"/>
-      <c r="F128" s="11"/>
-      <c r="G128" s="11"/>
-      <c r="H128" s="11"/>
-      <c r="I128" s="11"/>
-      <c r="J128" s="11"/>
-      <c r="K128" s="11"/>
-      <c r="L128" s="11"/>
-      <c r="M128" s="11"/>
-      <c r="N128" s="11"/>
-      <c r="O128" s="11"/>
-      <c r="P128" s="11"/>
-      <c r="Q128" s="11"/>
-      <c r="R128" s="11"/>
-      <c r="S128" s="11"/>
       <c r="T128" s="5"/>
     </row>
     <row r="129" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A129" s="4"/>
-      <c r="B129" s="11"/>
-      <c r="C129" s="11"/>
-      <c r="D129" s="11"/>
-      <c r="E129" s="11"/>
-      <c r="F129" s="11"/>
-      <c r="G129" s="11"/>
-      <c r="H129" s="11"/>
-      <c r="I129" s="11"/>
-      <c r="J129" s="11"/>
-      <c r="K129" s="11"/>
-      <c r="L129" s="11"/>
-      <c r="M129" s="11"/>
-      <c r="N129" s="11"/>
-      <c r="O129" s="11"/>
-      <c r="P129" s="11"/>
-      <c r="Q129" s="11"/>
-      <c r="R129" s="11"/>
-      <c r="S129" s="11"/>
       <c r="T129" s="5"/>
     </row>
     <row r="130" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A130" s="4"/>
-      <c r="B130" s="11"/>
-      <c r="C130" s="11"/>
-      <c r="D130" s="11"/>
-      <c r="E130" s="11"/>
-      <c r="F130" s="11"/>
-      <c r="G130" s="11"/>
-      <c r="H130" s="11"/>
-      <c r="I130" s="11"/>
-      <c r="J130" s="11"/>
-      <c r="K130" s="11"/>
-      <c r="L130" s="11"/>
-      <c r="M130" s="11"/>
-      <c r="N130" s="11"/>
-      <c r="O130" s="11"/>
-      <c r="P130" s="11"/>
-      <c r="Q130" s="11"/>
-      <c r="R130" s="11"/>
-      <c r="S130" s="11"/>
       <c r="T130" s="5"/>
     </row>
     <row r="131" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A131" s="4"/>
-      <c r="B131" s="11"/>
-      <c r="C131" s="11"/>
-      <c r="D131" s="11"/>
-      <c r="E131" s="11"/>
-      <c r="F131" s="11"/>
-      <c r="G131" s="11"/>
-      <c r="H131" s="11"/>
-      <c r="I131" s="11"/>
-      <c r="J131" s="11"/>
-      <c r="K131" s="11"/>
-      <c r="L131" s="11"/>
-      <c r="M131" s="11"/>
-      <c r="N131" s="11"/>
-      <c r="O131" s="11"/>
-      <c r="P131" s="11"/>
-      <c r="Q131" s="11"/>
-      <c r="R131" s="11"/>
-      <c r="S131" s="11"/>
       <c r="T131" s="5"/>
     </row>
     <row r="132" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A132" s="4"/>
-      <c r="B132" s="11"/>
-      <c r="C132" s="11"/>
-      <c r="D132" s="11"/>
-      <c r="E132" s="11"/>
-      <c r="F132" s="11"/>
-      <c r="G132" s="11"/>
-      <c r="H132" s="11"/>
-      <c r="I132" s="11"/>
-      <c r="J132" s="11"/>
-      <c r="K132" s="11"/>
-      <c r="L132" s="11"/>
-      <c r="M132" s="11"/>
-      <c r="N132" s="11"/>
-      <c r="O132" s="11"/>
-      <c r="P132" s="11"/>
-      <c r="Q132" s="11"/>
-      <c r="R132" s="11"/>
-      <c r="S132" s="11"/>
       <c r="T132" s="5"/>
     </row>
     <row r="133" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A133" s="4"/>
-      <c r="B133" s="11"/>
-      <c r="C133" s="11"/>
-      <c r="D133" s="11"/>
-      <c r="E133" s="11"/>
-      <c r="F133" s="11"/>
-      <c r="G133" s="11"/>
-      <c r="H133" s="11"/>
-      <c r="I133" s="11"/>
-      <c r="J133" s="11"/>
-      <c r="K133" s="11"/>
-      <c r="L133" s="11"/>
-      <c r="M133" s="11"/>
-      <c r="N133" s="11"/>
-      <c r="O133" s="11"/>
-      <c r="P133" s="11"/>
-      <c r="Q133" s="11"/>
-      <c r="R133" s="11"/>
-      <c r="S133" s="11"/>
       <c r="T133" s="5"/>
     </row>
     <row r="134" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A134" s="4"/>
-      <c r="B134" s="11"/>
-      <c r="C134" s="11"/>
-      <c r="D134" s="11"/>
-      <c r="E134" s="11"/>
-      <c r="F134" s="11"/>
-      <c r="G134" s="11"/>
-      <c r="H134" s="11"/>
-      <c r="I134" s="11"/>
-      <c r="J134" s="11"/>
-      <c r="K134" s="11"/>
-      <c r="L134" s="11"/>
-      <c r="M134" s="11"/>
-      <c r="N134" s="11"/>
-      <c r="O134" s="11"/>
-      <c r="P134" s="11"/>
-      <c r="Q134" s="11"/>
-      <c r="R134" s="11"/>
-      <c r="S134" s="11"/>
       <c r="T134" s="5"/>
     </row>
     <row r="135" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A135" s="4"/>
-      <c r="B135" s="11"/>
-      <c r="C135" s="11"/>
-      <c r="D135" s="11"/>
-      <c r="E135" s="11"/>
-      <c r="F135" s="11"/>
-      <c r="G135" s="11"/>
-      <c r="H135" s="11"/>
-      <c r="I135" s="11"/>
-      <c r="J135" s="11"/>
-      <c r="K135" s="11"/>
-      <c r="L135" s="11"/>
-      <c r="M135" s="11"/>
-      <c r="N135" s="11"/>
-      <c r="O135" s="11"/>
-      <c r="P135" s="11"/>
-      <c r="Q135" s="11"/>
-      <c r="R135" s="11"/>
-      <c r="S135" s="11"/>
       <c r="T135" s="5"/>
     </row>
     <row r="136" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A136" s="4"/>
-      <c r="B136" s="11"/>
-      <c r="C136" s="11"/>
-      <c r="D136" s="11"/>
-      <c r="E136" s="11"/>
-      <c r="F136" s="11"/>
-      <c r="G136" s="11"/>
-      <c r="H136" s="11"/>
-      <c r="I136" s="11"/>
-      <c r="J136" s="11"/>
-      <c r="K136" s="11"/>
-      <c r="L136" s="11"/>
-      <c r="M136" s="11"/>
-      <c r="N136" s="11"/>
-      <c r="O136" s="11"/>
-      <c r="P136" s="11"/>
-      <c r="Q136" s="11"/>
-      <c r="R136" s="11"/>
-      <c r="S136" s="11"/>
       <c r="T136" s="5"/>
     </row>
     <row r="137" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A137" s="4"/>
-      <c r="B137" s="11"/>
-      <c r="C137" s="11"/>
-      <c r="D137" s="11"/>
-      <c r="E137" s="11"/>
-      <c r="F137" s="11"/>
-      <c r="G137" s="11"/>
-      <c r="H137" s="11"/>
-      <c r="I137" s="11"/>
-      <c r="J137" s="11"/>
-      <c r="K137" s="11"/>
-      <c r="L137" s="11"/>
-      <c r="M137" s="11"/>
-      <c r="N137" s="11"/>
-      <c r="O137" s="11"/>
-      <c r="P137" s="11"/>
-      <c r="Q137" s="11"/>
-      <c r="R137" s="11"/>
-      <c r="S137" s="11"/>
       <c r="T137" s="5"/>
     </row>
     <row r="138" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A138" s="4"/>
-      <c r="B138" s="11"/>
-      <c r="C138" s="11"/>
-      <c r="D138" s="11"/>
-      <c r="E138" s="11"/>
-      <c r="F138" s="11"/>
-      <c r="G138" s="11"/>
-      <c r="H138" s="11"/>
-      <c r="I138" s="11"/>
-      <c r="J138" s="11"/>
-      <c r="K138" s="11"/>
-      <c r="L138" s="11"/>
-      <c r="M138" s="11"/>
-      <c r="N138" s="11"/>
-      <c r="O138" s="11"/>
-      <c r="P138" s="11"/>
-      <c r="Q138" s="11"/>
-      <c r="R138" s="11"/>
-      <c r="S138" s="11"/>
       <c r="T138" s="5"/>
     </row>
     <row r="139" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A139" s="4"/>
-      <c r="B139" s="11"/>
-      <c r="C139" s="11"/>
-      <c r="D139" s="11"/>
-      <c r="E139" s="11"/>
-      <c r="F139" s="11"/>
-      <c r="G139" s="11"/>
-      <c r="H139" s="11"/>
-      <c r="I139" s="11"/>
-      <c r="J139" s="11"/>
-      <c r="K139" s="11"/>
-      <c r="L139" s="11"/>
-      <c r="M139" s="11"/>
-      <c r="N139" s="11"/>
-      <c r="O139" s="11"/>
-      <c r="P139" s="11"/>
-      <c r="Q139" s="11"/>
-      <c r="R139" s="11"/>
-      <c r="S139" s="11"/>
       <c r="T139" s="5"/>
     </row>
     <row r="140" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A140" s="4"/>
-      <c r="B140" s="11"/>
-      <c r="C140" s="11"/>
-      <c r="D140" s="11"/>
-      <c r="E140" s="11"/>
-      <c r="F140" s="11"/>
-      <c r="G140" s="11"/>
-      <c r="H140" s="11"/>
-      <c r="I140" s="11"/>
-      <c r="J140" s="11"/>
-      <c r="K140" s="11"/>
-      <c r="L140" s="11"/>
-      <c r="M140" s="11"/>
-      <c r="N140" s="11"/>
-      <c r="O140" s="11"/>
-      <c r="P140" s="11"/>
-      <c r="Q140" s="11"/>
-      <c r="R140" s="11"/>
-      <c r="S140" s="11"/>
       <c r="T140" s="5"/>
     </row>
     <row r="141" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A141" s="4"/>
-      <c r="B141" s="11"/>
-      <c r="C141" s="11"/>
-      <c r="D141" s="11"/>
-      <c r="E141" s="11"/>
-      <c r="F141" s="11"/>
-      <c r="G141" s="11"/>
-      <c r="H141" s="11"/>
-      <c r="I141" s="11"/>
-      <c r="J141" s="11"/>
-      <c r="K141" s="11"/>
-      <c r="L141" s="11"/>
-      <c r="M141" s="11"/>
-      <c r="N141" s="11"/>
-      <c r="O141" s="11"/>
-      <c r="P141" s="11"/>
-      <c r="Q141" s="11"/>
-      <c r="R141" s="11"/>
-      <c r="S141" s="11"/>
       <c r="T141" s="5"/>
     </row>
     <row r="142" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A142" s="4"/>
-      <c r="B142" s="11"/>
-      <c r="C142" s="11"/>
-      <c r="D142" s="11"/>
-      <c r="E142" s="11"/>
-      <c r="F142" s="11"/>
-      <c r="G142" s="11"/>
-      <c r="H142" s="11"/>
-      <c r="I142" s="11"/>
-      <c r="J142" s="11"/>
-      <c r="K142" s="11"/>
-      <c r="L142" s="11"/>
-      <c r="M142" s="11"/>
-      <c r="N142" s="11"/>
-      <c r="O142" s="11"/>
-      <c r="P142" s="11"/>
-      <c r="Q142" s="11"/>
-      <c r="R142" s="11"/>
-      <c r="S142" s="11"/>
       <c r="T142" s="5"/>
     </row>
     <row r="143" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A143" s="4"/>
-      <c r="B143" s="11"/>
-      <c r="C143" s="11"/>
-      <c r="D143" s="11"/>
-      <c r="E143" s="11"/>
-      <c r="F143" s="11"/>
-      <c r="G143" s="11"/>
-      <c r="H143" s="11"/>
-      <c r="I143" s="11"/>
-      <c r="J143" s="11"/>
-      <c r="K143" s="11"/>
-      <c r="L143" s="11"/>
-      <c r="M143" s="11"/>
-      <c r="N143" s="11"/>
-      <c r="O143" s="11"/>
-      <c r="P143" s="11"/>
-      <c r="Q143" s="11"/>
-      <c r="R143" s="11"/>
-      <c r="S143" s="11"/>
       <c r="T143" s="5"/>
     </row>
     <row r="144" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A144" s="4"/>
-      <c r="B144" s="11"/>
-      <c r="C144" s="11"/>
-      <c r="D144" s="11"/>
-      <c r="E144" s="11"/>
-      <c r="F144" s="11"/>
-      <c r="G144" s="11"/>
-      <c r="H144" s="11"/>
-      <c r="I144" s="11"/>
-      <c r="J144" s="11"/>
-      <c r="K144" s="11"/>
-      <c r="L144" s="11"/>
-      <c r="M144" s="11"/>
-      <c r="N144" s="11"/>
-      <c r="O144" s="11"/>
-      <c r="P144" s="11"/>
-      <c r="Q144" s="11"/>
-      <c r="R144" s="11"/>
-      <c r="S144" s="11"/>
       <c r="T144" s="5"/>
     </row>
     <row r="145" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A145" s="4"/>
-      <c r="B145" s="11"/>
-      <c r="C145" s="11"/>
-      <c r="D145" s="11"/>
-      <c r="E145" s="11"/>
-      <c r="F145" s="11"/>
-      <c r="G145" s="11"/>
-      <c r="H145" s="11"/>
-      <c r="I145" s="11"/>
-      <c r="J145" s="11"/>
-      <c r="K145" s="11"/>
-      <c r="L145" s="11"/>
-      <c r="M145" s="11"/>
-      <c r="N145" s="11"/>
-      <c r="O145" s="11"/>
-      <c r="P145" s="11"/>
-      <c r="Q145" s="11"/>
-      <c r="R145" s="11"/>
-      <c r="S145" s="11"/>
       <c r="T145" s="5"/>
     </row>
     <row r="146" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A146" s="4"/>
-      <c r="B146" s="11"/>
-      <c r="C146" s="11"/>
-      <c r="D146" s="11"/>
-      <c r="E146" s="11"/>
-      <c r="F146" s="11"/>
-      <c r="G146" s="11"/>
-      <c r="H146" s="11"/>
-      <c r="I146" s="11"/>
-      <c r="J146" s="11"/>
-      <c r="K146" s="11"/>
-      <c r="L146" s="11"/>
-      <c r="M146" s="11"/>
-      <c r="N146" s="11"/>
-      <c r="O146" s="11"/>
-      <c r="P146" s="11"/>
-      <c r="Q146" s="11"/>
-      <c r="R146" s="11"/>
-      <c r="S146" s="11"/>
       <c r="T146" s="5"/>
     </row>
     <row r="147" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A147" s="4"/>
-      <c r="B147" s="11"/>
-      <c r="C147" s="11"/>
-      <c r="D147" s="11"/>
-      <c r="E147" s="11"/>
-      <c r="F147" s="11"/>
-      <c r="G147" s="11"/>
-      <c r="H147" s="11"/>
-      <c r="I147" s="11"/>
-      <c r="J147" s="11"/>
-      <c r="K147" s="11"/>
-      <c r="L147" s="11"/>
-      <c r="M147" s="11"/>
-      <c r="N147" s="11"/>
-      <c r="O147" s="11"/>
-      <c r="P147" s="11"/>
-      <c r="Q147" s="11"/>
-      <c r="R147" s="11"/>
-      <c r="S147" s="11"/>
       <c r="T147" s="5"/>
     </row>
     <row r="148" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A148" s="4"/>
-      <c r="B148" s="11"/>
-      <c r="C148" s="11"/>
-      <c r="D148" s="11"/>
-      <c r="E148" s="11"/>
-      <c r="F148" s="11"/>
-      <c r="G148" s="11"/>
-      <c r="H148" s="11"/>
-      <c r="I148" s="11"/>
-      <c r="J148" s="11"/>
-      <c r="K148" s="11"/>
-      <c r="L148" s="11"/>
-      <c r="M148" s="11"/>
-      <c r="N148" s="11"/>
-      <c r="O148" s="11"/>
-      <c r="P148" s="11"/>
-      <c r="Q148" s="11"/>
-      <c r="R148" s="11"/>
-      <c r="S148" s="11"/>
       <c r="T148" s="5"/>
     </row>
     <row r="149" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A149" s="4"/>
-      <c r="B149" s="11"/>
-      <c r="C149" s="11"/>
-      <c r="D149" s="11"/>
-      <c r="E149" s="11"/>
-      <c r="F149" s="11"/>
-      <c r="G149" s="11"/>
-      <c r="H149" s="11"/>
-      <c r="I149" s="11"/>
-      <c r="J149" s="11"/>
-      <c r="K149" s="11"/>
-      <c r="L149" s="11"/>
-      <c r="M149" s="11"/>
-      <c r="N149" s="11"/>
-      <c r="O149" s="11"/>
-      <c r="P149" s="11"/>
-      <c r="Q149" s="11"/>
-      <c r="R149" s="11"/>
-      <c r="S149" s="11"/>
       <c r="T149" s="5"/>
     </row>
     <row r="150" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A150" s="4"/>
-      <c r="B150" s="11"/>
-      <c r="C150" s="11"/>
-      <c r="D150" s="11"/>
-      <c r="E150" s="11"/>
-      <c r="F150" s="11"/>
-      <c r="G150" s="11"/>
-      <c r="H150" s="11"/>
-      <c r="I150" s="11"/>
-      <c r="J150" s="11"/>
-      <c r="K150" s="11"/>
-      <c r="L150" s="11"/>
-      <c r="M150" s="11"/>
-      <c r="N150" s="11"/>
-      <c r="O150" s="11"/>
-      <c r="P150" s="11"/>
-      <c r="Q150" s="11"/>
-      <c r="R150" s="11"/>
-      <c r="S150" s="11"/>
       <c r="T150" s="5"/>
     </row>
     <row r="151" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A151" s="4"/>
-      <c r="B151" s="11"/>
-      <c r="C151" s="11"/>
-      <c r="D151" s="11"/>
-      <c r="E151" s="11"/>
-      <c r="F151" s="11"/>
-      <c r="G151" s="11"/>
-      <c r="H151" s="11"/>
-      <c r="I151" s="11"/>
-      <c r="J151" s="11"/>
-      <c r="K151" s="11"/>
-      <c r="L151" s="11"/>
-      <c r="M151" s="11"/>
-      <c r="N151" s="11"/>
-      <c r="O151" s="11"/>
-      <c r="P151" s="11"/>
-      <c r="Q151" s="11"/>
-      <c r="R151" s="11"/>
-      <c r="S151" s="11"/>
       <c r="T151" s="5"/>
     </row>
     <row r="152" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A152" s="4"/>
-      <c r="B152" s="11"/>
-      <c r="C152" s="11"/>
-      <c r="D152" s="11"/>
-      <c r="E152" s="11"/>
-      <c r="F152" s="11"/>
-      <c r="G152" s="11"/>
-      <c r="H152" s="11"/>
-      <c r="I152" s="11"/>
-      <c r="J152" s="11"/>
-      <c r="K152" s="11"/>
-      <c r="L152" s="11"/>
-      <c r="M152" s="11"/>
-      <c r="N152" s="11"/>
-      <c r="O152" s="11"/>
-      <c r="P152" s="11"/>
-      <c r="Q152" s="11"/>
-      <c r="R152" s="11"/>
-      <c r="S152" s="11"/>
       <c r="T152" s="5"/>
     </row>
     <row r="153" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A153" s="4"/>
-      <c r="B153" s="11"/>
-      <c r="C153" s="11"/>
-      <c r="D153" s="11"/>
-      <c r="E153" s="11"/>
-      <c r="F153" s="11"/>
-      <c r="G153" s="11"/>
-      <c r="H153" s="11"/>
-      <c r="I153" s="11"/>
-      <c r="J153" s="11"/>
-      <c r="K153" s="11"/>
-      <c r="L153" s="11"/>
-      <c r="M153" s="11"/>
-      <c r="N153" s="11"/>
-      <c r="O153" s="11"/>
-      <c r="P153" s="11"/>
-      <c r="Q153" s="11"/>
-      <c r="R153" s="11"/>
-      <c r="S153" s="11"/>
       <c r="T153" s="5"/>
     </row>
     <row r="154" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A154" s="4"/>
-      <c r="B154" s="11"/>
-      <c r="C154" s="11"/>
-      <c r="D154" s="11"/>
-      <c r="E154" s="11"/>
-      <c r="F154" s="11"/>
-      <c r="G154" s="11"/>
-      <c r="H154" s="11"/>
-      <c r="I154" s="11"/>
-      <c r="J154" s="11"/>
-      <c r="K154" s="11"/>
-      <c r="L154" s="11"/>
-      <c r="M154" s="11"/>
-      <c r="N154" s="11"/>
-      <c r="O154" s="11"/>
-      <c r="P154" s="11"/>
-      <c r="Q154" s="11"/>
-      <c r="R154" s="11"/>
-      <c r="S154" s="11"/>
       <c r="T154" s="5"/>
     </row>
     <row r="155" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A155" s="4"/>
-      <c r="B155" s="11"/>
-      <c r="C155" s="11"/>
-      <c r="D155" s="11"/>
-      <c r="E155" s="11"/>
-      <c r="F155" s="11"/>
-      <c r="G155" s="11"/>
-      <c r="H155" s="11"/>
-      <c r="I155" s="11"/>
-      <c r="J155" s="11"/>
-      <c r="K155" s="11"/>
-      <c r="L155" s="11"/>
-      <c r="M155" s="11"/>
-      <c r="N155" s="11"/>
-      <c r="O155" s="11"/>
-      <c r="P155" s="11"/>
-      <c r="Q155" s="11"/>
-      <c r="R155" s="11"/>
-      <c r="S155" s="11"/>
       <c r="T155" s="5"/>
     </row>
     <row r="156" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A156" s="4"/>
-      <c r="B156" s="11"/>
-      <c r="C156" s="11"/>
-      <c r="D156" s="11"/>
-      <c r="E156" s="11"/>
-      <c r="F156" s="11"/>
-      <c r="G156" s="11"/>
-      <c r="H156" s="11"/>
-      <c r="I156" s="11"/>
-      <c r="J156" s="11"/>
-      <c r="K156" s="11"/>
-      <c r="L156" s="11"/>
-      <c r="M156" s="11"/>
-      <c r="N156" s="11"/>
-      <c r="O156" s="11"/>
-      <c r="P156" s="11"/>
-      <c r="Q156" s="11"/>
-      <c r="R156" s="11"/>
-      <c r="S156" s="11"/>
       <c r="T156" s="5"/>
     </row>
     <row r="157" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A157" s="4"/>
-      <c r="B157" s="11"/>
-      <c r="C157" s="11"/>
-      <c r="D157" s="11"/>
-      <c r="E157" s="11"/>
-      <c r="F157" s="11"/>
-      <c r="G157" s="11"/>
-      <c r="H157" s="11"/>
-      <c r="I157" s="11"/>
-      <c r="J157" s="11"/>
-      <c r="K157" s="11"/>
-      <c r="L157" s="11"/>
-      <c r="M157" s="11"/>
-      <c r="N157" s="11"/>
-      <c r="O157" s="11"/>
-      <c r="P157" s="11"/>
-      <c r="Q157" s="11"/>
-      <c r="R157" s="11"/>
-      <c r="S157" s="11"/>
       <c r="T157" s="5"/>
     </row>
     <row r="158" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A158" s="4"/>
-      <c r="B158" s="11"/>
-      <c r="C158" s="11"/>
-      <c r="D158" s="11"/>
-      <c r="E158" s="11"/>
-      <c r="F158" s="11"/>
-      <c r="G158" s="11"/>
-      <c r="H158" s="11"/>
-      <c r="I158" s="11"/>
-      <c r="J158" s="11"/>
-      <c r="K158" s="11"/>
-      <c r="L158" s="11"/>
-      <c r="M158" s="11"/>
-      <c r="N158" s="11"/>
-      <c r="O158" s="11"/>
-      <c r="P158" s="11"/>
-      <c r="Q158" s="11"/>
-      <c r="R158" s="11"/>
-      <c r="S158" s="11"/>
       <c r="T158" s="5"/>
     </row>
     <row r="159" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A159" s="4"/>
-      <c r="B159" s="11"/>
-      <c r="C159" s="11"/>
-      <c r="D159" s="11"/>
-      <c r="E159" s="11"/>
-      <c r="F159" s="11"/>
-      <c r="G159" s="11"/>
-      <c r="H159" s="11"/>
-      <c r="I159" s="11"/>
-      <c r="J159" s="11"/>
-      <c r="K159" s="11"/>
-      <c r="L159" s="11"/>
-      <c r="M159" s="11"/>
-      <c r="N159" s="11"/>
-      <c r="O159" s="11"/>
-      <c r="P159" s="11"/>
-      <c r="Q159" s="11"/>
-      <c r="R159" s="11"/>
-      <c r="S159" s="11"/>
       <c r="T159" s="5"/>
     </row>
     <row r="160" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A160" s="4"/>
-      <c r="B160" s="11"/>
-      <c r="C160" s="11"/>
-      <c r="D160" s="11"/>
-      <c r="E160" s="11"/>
-      <c r="F160" s="11"/>
-      <c r="G160" s="11"/>
-      <c r="H160" s="11"/>
-      <c r="I160" s="11"/>
-      <c r="J160" s="11"/>
-      <c r="K160" s="11"/>
-      <c r="L160" s="11"/>
-      <c r="M160" s="11"/>
-      <c r="N160" s="11"/>
-      <c r="O160" s="11"/>
-      <c r="P160" s="11"/>
-      <c r="Q160" s="11"/>
-      <c r="R160" s="11"/>
-      <c r="S160" s="11"/>
       <c r="T160" s="5"/>
     </row>
     <row r="161" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A161" s="4"/>
-      <c r="B161" s="11"/>
-      <c r="C161" s="11"/>
-      <c r="D161" s="11"/>
-      <c r="E161" s="11"/>
-      <c r="F161" s="11"/>
-      <c r="G161" s="11"/>
-      <c r="H161" s="11"/>
-      <c r="I161" s="11"/>
-      <c r="J161" s="11"/>
-      <c r="K161" s="11"/>
-      <c r="L161" s="11"/>
-      <c r="M161" s="11"/>
-      <c r="N161" s="11"/>
-      <c r="O161" s="11"/>
-      <c r="P161" s="11"/>
-      <c r="Q161" s="11"/>
-      <c r="R161" s="11"/>
-      <c r="S161" s="11"/>
       <c r="T161" s="5"/>
     </row>
     <row r="162" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A162" s="4"/>
-      <c r="B162" s="11"/>
-      <c r="C162" s="11"/>
-      <c r="D162" s="11"/>
-      <c r="E162" s="11"/>
-      <c r="F162" s="11"/>
-      <c r="G162" s="11"/>
-      <c r="H162" s="11"/>
-      <c r="I162" s="11"/>
-      <c r="J162" s="11"/>
-      <c r="K162" s="11"/>
-      <c r="L162" s="11"/>
-      <c r="M162" s="11"/>
-      <c r="N162" s="11"/>
-      <c r="O162" s="11"/>
-      <c r="P162" s="11"/>
-      <c r="Q162" s="11"/>
-      <c r="R162" s="11"/>
-      <c r="S162" s="11"/>
       <c r="T162" s="5"/>
     </row>
     <row r="163" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A163" s="4"/>
-      <c r="B163" s="11"/>
-      <c r="C163" s="11"/>
-      <c r="D163" s="11"/>
-      <c r="E163" s="11"/>
-      <c r="F163" s="11"/>
-      <c r="G163" s="11"/>
-      <c r="H163" s="11"/>
-      <c r="I163" s="11"/>
-      <c r="J163" s="11"/>
-      <c r="K163" s="11"/>
-      <c r="L163" s="11"/>
-      <c r="M163" s="11"/>
-      <c r="N163" s="11"/>
-      <c r="O163" s="11"/>
-      <c r="P163" s="11"/>
-      <c r="Q163" s="11"/>
-      <c r="R163" s="11"/>
-      <c r="S163" s="11"/>
       <c r="T163" s="5"/>
     </row>
     <row r="164" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A164" s="4"/>
-      <c r="B164" s="11"/>
-      <c r="C164" s="11"/>
-      <c r="D164" s="11"/>
-      <c r="E164" s="11"/>
-      <c r="F164" s="11"/>
-      <c r="G164" s="11"/>
-      <c r="H164" s="11"/>
-      <c r="I164" s="11"/>
-      <c r="J164" s="11"/>
-      <c r="K164" s="11"/>
-      <c r="L164" s="11"/>
-      <c r="M164" s="11"/>
-      <c r="N164" s="11"/>
-      <c r="O164" s="11"/>
-      <c r="P164" s="11"/>
-      <c r="Q164" s="11"/>
-      <c r="R164" s="11"/>
-      <c r="S164" s="11"/>
       <c r="T164" s="5"/>
     </row>
     <row r="165" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A165" s="4"/>
-      <c r="B165" s="11"/>
-      <c r="C165" s="11"/>
-      <c r="D165" s="11"/>
-      <c r="E165" s="11"/>
-      <c r="F165" s="11"/>
-      <c r="G165" s="11"/>
-      <c r="H165" s="11"/>
-      <c r="I165" s="11"/>
-      <c r="J165" s="11"/>
-      <c r="K165" s="11"/>
-      <c r="L165" s="11"/>
-      <c r="M165" s="11"/>
-      <c r="N165" s="11"/>
-      <c r="O165" s="11"/>
-      <c r="P165" s="11"/>
-      <c r="Q165" s="11"/>
-      <c r="R165" s="11"/>
-      <c r="S165" s="11"/>
       <c r="T165" s="5"/>
     </row>
     <row r="166" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A166" s="4"/>
-      <c r="B166" s="11"/>
-      <c r="C166" s="11"/>
-      <c r="D166" s="11"/>
-      <c r="E166" s="11"/>
-      <c r="F166" s="11"/>
-      <c r="G166" s="11"/>
-      <c r="H166" s="11"/>
-      <c r="I166" s="11"/>
-      <c r="J166" s="11"/>
-      <c r="K166" s="11"/>
-      <c r="L166" s="11"/>
-      <c r="M166" s="11"/>
-      <c r="N166" s="11"/>
-      <c r="O166" s="11"/>
-      <c r="P166" s="11"/>
-      <c r="Q166" s="11"/>
-      <c r="R166" s="11"/>
-      <c r="S166" s="11"/>
       <c r="T166" s="5"/>
     </row>
     <row r="167" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A167" s="4"/>
-      <c r="B167" s="11"/>
-      <c r="C167" s="11"/>
-      <c r="D167" s="11"/>
-      <c r="E167" s="11"/>
-      <c r="F167" s="11"/>
-      <c r="G167" s="11"/>
-      <c r="H167" s="11"/>
-      <c r="I167" s="11"/>
-      <c r="J167" s="11"/>
-      <c r="K167" s="11"/>
-      <c r="L167" s="11"/>
-      <c r="M167" s="11"/>
-      <c r="N167" s="11"/>
-      <c r="O167" s="11"/>
-      <c r="P167" s="11"/>
-      <c r="Q167" s="11"/>
-      <c r="R167" s="11"/>
-      <c r="S167" s="11"/>
       <c r="T167" s="5"/>
     </row>
     <row r="168" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A168" s="4"/>
-      <c r="B168" s="11"/>
-      <c r="C168" s="11"/>
-      <c r="D168" s="11"/>
-      <c r="E168" s="11"/>
-      <c r="F168" s="11"/>
-      <c r="G168" s="11"/>
-      <c r="H168" s="11"/>
-      <c r="I168" s="11"/>
-      <c r="J168" s="11"/>
-      <c r="K168" s="11"/>
-      <c r="L168" s="11"/>
-      <c r="M168" s="11"/>
-      <c r="N168" s="11"/>
-      <c r="O168" s="11"/>
-      <c r="P168" s="11"/>
-      <c r="Q168" s="11"/>
-      <c r="R168" s="11"/>
-      <c r="S168" s="11"/>
       <c r="T168" s="5"/>
     </row>
     <row r="169" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A169" s="4"/>
-      <c r="B169" s="11"/>
-      <c r="C169" s="11"/>
-      <c r="D169" s="11"/>
-      <c r="E169" s="11"/>
-      <c r="F169" s="11"/>
-      <c r="G169" s="11"/>
-      <c r="H169" s="11"/>
-      <c r="I169" s="11"/>
-      <c r="J169" s="11"/>
-      <c r="K169" s="11"/>
-      <c r="L169" s="11"/>
-      <c r="M169" s="11"/>
-      <c r="N169" s="11"/>
-      <c r="O169" s="11"/>
-      <c r="P169" s="11"/>
-      <c r="Q169" s="11"/>
-      <c r="R169" s="11"/>
-      <c r="S169" s="11"/>
       <c r="T169" s="5"/>
     </row>
     <row r="170" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A170" s="4"/>
-      <c r="B170" s="11"/>
-      <c r="C170" s="11"/>
-      <c r="D170" s="11"/>
-      <c r="E170" s="11"/>
-      <c r="F170" s="11"/>
-      <c r="G170" s="11"/>
-      <c r="H170" s="11"/>
-      <c r="I170" s="11"/>
-      <c r="J170" s="11"/>
-      <c r="K170" s="11"/>
-      <c r="L170" s="11"/>
-      <c r="M170" s="11"/>
-      <c r="N170" s="11"/>
-      <c r="O170" s="11"/>
-      <c r="P170" s="11"/>
-      <c r="Q170" s="11"/>
-      <c r="R170" s="11"/>
-      <c r="S170" s="11"/>
       <c r="T170" s="5"/>
     </row>
     <row r="171" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A171" s="4"/>
-      <c r="B171" s="11"/>
-      <c r="C171" s="11"/>
-      <c r="D171" s="11"/>
-      <c r="E171" s="11"/>
-      <c r="F171" s="11"/>
-      <c r="G171" s="11"/>
-      <c r="H171" s="11"/>
-      <c r="I171" s="11"/>
-      <c r="J171" s="11"/>
-      <c r="K171" s="11"/>
-      <c r="L171" s="11"/>
-      <c r="M171" s="11"/>
-      <c r="N171" s="11"/>
-      <c r="O171" s="11"/>
-      <c r="P171" s="11"/>
-      <c r="Q171" s="11"/>
-      <c r="R171" s="11"/>
-      <c r="S171" s="11"/>
       <c r="T171" s="5"/>
     </row>
     <row r="172" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A172" s="4"/>
-      <c r="B172" s="11"/>
-      <c r="C172" s="11"/>
-      <c r="D172" s="11"/>
-      <c r="E172" s="11"/>
-      <c r="F172" s="11"/>
-      <c r="G172" s="11"/>
-      <c r="H172" s="11"/>
-      <c r="I172" s="11"/>
-      <c r="J172" s="11"/>
-      <c r="K172" s="11"/>
-      <c r="L172" s="11"/>
-      <c r="M172" s="11"/>
-      <c r="N172" s="11"/>
-      <c r="O172" s="11"/>
-      <c r="P172" s="11"/>
-      <c r="Q172" s="11"/>
-      <c r="R172" s="11"/>
-      <c r="S172" s="11"/>
       <c r="T172" s="5"/>
     </row>
     <row r="173" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A173" s="4"/>
-      <c r="B173" s="11"/>
-      <c r="C173" s="11"/>
-      <c r="D173" s="11"/>
-      <c r="E173" s="11"/>
-      <c r="F173" s="11"/>
-      <c r="G173" s="11"/>
-      <c r="H173" s="11"/>
-      <c r="I173" s="11"/>
-      <c r="J173" s="11"/>
-      <c r="K173" s="11"/>
-      <c r="L173" s="11"/>
-      <c r="M173" s="11"/>
-      <c r="N173" s="11"/>
-      <c r="O173" s="11"/>
-      <c r="P173" s="11"/>
-      <c r="Q173" s="11"/>
-      <c r="R173" s="11"/>
-      <c r="S173" s="11"/>
       <c r="T173" s="5"/>
     </row>
     <row r="174" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A174" s="4"/>
-      <c r="B174" s="11"/>
-      <c r="C174" s="11"/>
-      <c r="D174" s="11"/>
-      <c r="E174" s="11"/>
-      <c r="F174" s="11"/>
-      <c r="G174" s="11"/>
-      <c r="H174" s="11"/>
-      <c r="I174" s="11"/>
-      <c r="J174" s="11"/>
-      <c r="K174" s="11"/>
-      <c r="L174" s="11"/>
-      <c r="M174" s="11"/>
-      <c r="N174" s="11"/>
-      <c r="O174" s="11"/>
-      <c r="P174" s="11"/>
-      <c r="Q174" s="11"/>
-      <c r="R174" s="11"/>
-      <c r="S174" s="11"/>
       <c r="T174" s="5"/>
     </row>
     <row r="175" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A175" s="4"/>
-      <c r="B175" s="11"/>
-      <c r="C175" s="11"/>
-      <c r="D175" s="11"/>
-      <c r="E175" s="11"/>
-      <c r="F175" s="11"/>
-      <c r="G175" s="11"/>
-      <c r="H175" s="11"/>
-      <c r="I175" s="11"/>
-      <c r="J175" s="11"/>
-      <c r="K175" s="11"/>
-      <c r="L175" s="11"/>
-      <c r="M175" s="11"/>
-      <c r="N175" s="11"/>
-      <c r="O175" s="11"/>
-      <c r="P175" s="11"/>
-      <c r="Q175" s="11"/>
-      <c r="R175" s="11"/>
-      <c r="S175" s="11"/>
       <c r="T175" s="5"/>
     </row>
     <row r="176" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A176" s="4"/>
-      <c r="B176" s="11"/>
-      <c r="C176" s="11"/>
-      <c r="D176" s="11"/>
-      <c r="E176" s="11"/>
-      <c r="F176" s="11"/>
-      <c r="G176" s="11"/>
-      <c r="H176" s="11"/>
-      <c r="I176" s="11"/>
-      <c r="J176" s="11"/>
-      <c r="K176" s="11"/>
-      <c r="L176" s="11"/>
-      <c r="M176" s="11"/>
-      <c r="N176" s="11"/>
-      <c r="O176" s="11"/>
-      <c r="P176" s="11"/>
-      <c r="Q176" s="11"/>
-      <c r="R176" s="11"/>
-      <c r="S176" s="11"/>
       <c r="T176" s="5"/>
     </row>
     <row r="177" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A177" s="4"/>
-      <c r="B177" s="11"/>
-      <c r="C177" s="11"/>
-      <c r="D177" s="11"/>
-      <c r="E177" s="11"/>
-      <c r="F177" s="11"/>
-      <c r="G177" s="11"/>
-      <c r="H177" s="11"/>
-      <c r="I177" s="11"/>
-      <c r="J177" s="11"/>
-      <c r="K177" s="11"/>
-      <c r="L177" s="11"/>
-      <c r="M177" s="11"/>
-      <c r="N177" s="11"/>
-      <c r="O177" s="11"/>
-      <c r="P177" s="11"/>
-      <c r="Q177" s="11"/>
-      <c r="R177" s="11"/>
-      <c r="S177" s="11"/>
       <c r="T177" s="5"/>
     </row>
     <row r="178" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A178" s="4"/>
-      <c r="B178" s="11"/>
-      <c r="C178" s="11"/>
-      <c r="D178" s="11"/>
-      <c r="E178" s="11"/>
-      <c r="F178" s="11"/>
-      <c r="G178" s="11"/>
-      <c r="H178" s="11"/>
-      <c r="I178" s="11"/>
-      <c r="J178" s="11"/>
-      <c r="K178" s="11"/>
-      <c r="L178" s="11"/>
-      <c r="M178" s="11"/>
-      <c r="N178" s="11"/>
-      <c r="O178" s="11"/>
-      <c r="P178" s="11"/>
-      <c r="Q178" s="11"/>
-      <c r="R178" s="11"/>
-      <c r="S178" s="11"/>
       <c r="T178" s="5"/>
     </row>
     <row r="179" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A179" s="4"/>
-      <c r="B179" s="11"/>
-      <c r="C179" s="11"/>
-      <c r="D179" s="11"/>
-      <c r="E179" s="11"/>
-      <c r="F179" s="11"/>
-      <c r="G179" s="11"/>
-      <c r="H179" s="11"/>
-      <c r="I179" s="11"/>
-      <c r="J179" s="11"/>
-      <c r="K179" s="11"/>
-      <c r="L179" s="11"/>
-      <c r="M179" s="11"/>
-      <c r="N179" s="11"/>
-      <c r="O179" s="11"/>
-      <c r="P179" s="11"/>
-      <c r="Q179" s="11"/>
-      <c r="R179" s="11"/>
-      <c r="S179" s="11"/>
       <c r="T179" s="5"/>
     </row>
     <row r="180" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A180" s="4"/>
-      <c r="B180" s="11"/>
-      <c r="C180" s="11"/>
-      <c r="D180" s="11"/>
-      <c r="E180" s="11"/>
-      <c r="F180" s="11"/>
-      <c r="G180" s="11"/>
-      <c r="H180" s="11"/>
-      <c r="I180" s="11"/>
-      <c r="J180" s="11"/>
-      <c r="K180" s="11"/>
-      <c r="L180" s="11"/>
-      <c r="M180" s="11"/>
-      <c r="N180" s="11"/>
-      <c r="O180" s="11"/>
-      <c r="P180" s="11"/>
-      <c r="Q180" s="11"/>
-      <c r="R180" s="11"/>
-      <c r="S180" s="11"/>
       <c r="T180" s="5"/>
     </row>
     <row r="181" spans="1:20" x14ac:dyDescent="0.25">
@@ -6634,4 +4639,1757 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{955A85CC-5A2A-4587-B69E-7817EC3A7E85}">
+  <dimension ref="A3:T103"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="15"/>
+      <c r="B4" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="18"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="15"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="20"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="15"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="15"/>
+      <c r="F6" s="20"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="15"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="15"/>
+      <c r="F7" s="20"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="15"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="15"/>
+      <c r="F8" s="20"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="15"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="23"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="3"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="5"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="4"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="5"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="5"/>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B17" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="5"/>
+      <c r="L17" t="s">
+        <v>17</v>
+      </c>
+      <c r="M17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B18" s="4"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="5"/>
+      <c r="M18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B19" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="5"/>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B20" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="5"/>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B21" s="4"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="5"/>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B22" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="5"/>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B23" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="5"/>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B24" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="5"/>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B25" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="5"/>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B26" s="4"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="5"/>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B27" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="5"/>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B28" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="5"/>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B29" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="5"/>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B30" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="5"/>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B31" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="5"/>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B32" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="5"/>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B33" s="4"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="5"/>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B34" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="5"/>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B35" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="5"/>
+    </row>
+    <row r="36" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B36" s="4"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="24"/>
+      <c r="J36" s="24"/>
+      <c r="K36" s="5"/>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B37" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="24"/>
+      <c r="K37" s="5"/>
+    </row>
+    <row r="38" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B38" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="24"/>
+      <c r="J38" s="24"/>
+      <c r="K38" s="5"/>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B39" s="4"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="24"/>
+      <c r="K39" s="5"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B40" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="24"/>
+      <c r="J40" s="24"/>
+      <c r="K40" s="5"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B41" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="8"/>
+      <c r="M41" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B44" s="1"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="2"/>
+      <c r="S44" s="2"/>
+      <c r="T44" s="3"/>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B45" s="4"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="24"/>
+      <c r="I45" s="24"/>
+      <c r="J45" s="24"/>
+      <c r="K45" s="24"/>
+      <c r="L45" s="24"/>
+      <c r="M45" s="24"/>
+      <c r="N45" s="24"/>
+      <c r="O45" s="24"/>
+      <c r="P45" s="24"/>
+      <c r="Q45" s="24"/>
+      <c r="R45" s="24"/>
+      <c r="S45" s="24"/>
+      <c r="T45" s="5"/>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B46" s="4"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="24"/>
+      <c r="J46" s="24"/>
+      <c r="K46" s="24"/>
+      <c r="L46" s="24"/>
+      <c r="M46" s="24"/>
+      <c r="N46" s="24"/>
+      <c r="O46" s="24"/>
+      <c r="P46" s="24"/>
+      <c r="Q46" s="24"/>
+      <c r="R46" s="24"/>
+      <c r="S46" s="24"/>
+      <c r="T46" s="5"/>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B47" s="4"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="24"/>
+      <c r="H47" s="24"/>
+      <c r="I47" s="24"/>
+      <c r="J47" s="24"/>
+      <c r="K47" s="24"/>
+      <c r="L47" s="24"/>
+      <c r="M47" s="24"/>
+      <c r="N47" s="24"/>
+      <c r="O47" s="24"/>
+      <c r="P47" s="24"/>
+      <c r="Q47" s="24"/>
+      <c r="R47" s="24"/>
+      <c r="S47" s="24"/>
+      <c r="T47" s="5"/>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B48" s="4"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="24"/>
+      <c r="I48" s="24"/>
+      <c r="J48" s="24"/>
+      <c r="K48" s="24"/>
+      <c r="L48" s="24"/>
+      <c r="M48" s="24"/>
+      <c r="N48" s="24"/>
+      <c r="O48" s="24"/>
+      <c r="P48" s="24"/>
+      <c r="Q48" s="24"/>
+      <c r="R48" s="24"/>
+      <c r="S48" s="24"/>
+      <c r="T48" s="5"/>
+    </row>
+    <row r="49" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B49" s="4"/>
+      <c r="C49" s="24"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="24"/>
+      <c r="H49" s="24"/>
+      <c r="I49" s="24"/>
+      <c r="J49" s="24"/>
+      <c r="K49" s="24"/>
+      <c r="L49" s="24"/>
+      <c r="M49" s="24"/>
+      <c r="N49" s="24"/>
+      <c r="O49" s="24"/>
+      <c r="P49" s="24"/>
+      <c r="Q49" s="24"/>
+      <c r="R49" s="24"/>
+      <c r="S49" s="24"/>
+      <c r="T49" s="5"/>
+    </row>
+    <row r="50" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B50" s="4"/>
+      <c r="C50" s="24"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="24"/>
+      <c r="H50" s="24"/>
+      <c r="I50" s="24"/>
+      <c r="J50" s="24"/>
+      <c r="K50" s="24"/>
+      <c r="L50" s="24"/>
+      <c r="M50" s="24"/>
+      <c r="N50" s="24"/>
+      <c r="O50" s="24"/>
+      <c r="P50" s="24"/>
+      <c r="Q50" s="24"/>
+      <c r="R50" s="24"/>
+      <c r="S50" s="24"/>
+      <c r="T50" s="5"/>
+    </row>
+    <row r="51" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B51" s="4"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="24"/>
+      <c r="H51" s="24"/>
+      <c r="I51" s="24"/>
+      <c r="J51" s="24"/>
+      <c r="K51" s="24"/>
+      <c r="L51" s="24"/>
+      <c r="M51" s="24"/>
+      <c r="N51" s="24"/>
+      <c r="O51" s="24"/>
+      <c r="P51" s="24"/>
+      <c r="Q51" s="24"/>
+      <c r="R51" s="24"/>
+      <c r="S51" s="24"/>
+      <c r="T51" s="5"/>
+    </row>
+    <row r="52" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B52" s="4"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="24"/>
+      <c r="F52" s="24"/>
+      <c r="G52" s="24"/>
+      <c r="H52" s="24"/>
+      <c r="I52" s="24"/>
+      <c r="J52" s="24"/>
+      <c r="K52" s="24"/>
+      <c r="L52" s="24"/>
+      <c r="M52" s="24"/>
+      <c r="N52" s="24"/>
+      <c r="O52" s="24"/>
+      <c r="P52" s="24"/>
+      <c r="Q52" s="24"/>
+      <c r="R52" s="24"/>
+      <c r="S52" s="24"/>
+      <c r="T52" s="5"/>
+    </row>
+    <row r="53" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B53" s="4"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="24"/>
+      <c r="F53" s="24"/>
+      <c r="G53" s="24"/>
+      <c r="H53" s="24"/>
+      <c r="I53" s="24"/>
+      <c r="J53" s="24"/>
+      <c r="K53" s="24"/>
+      <c r="L53" s="24"/>
+      <c r="M53" s="24"/>
+      <c r="N53" s="24"/>
+      <c r="O53" s="24"/>
+      <c r="P53" s="24"/>
+      <c r="Q53" s="24"/>
+      <c r="R53" s="24"/>
+      <c r="S53" s="24"/>
+      <c r="T53" s="5"/>
+    </row>
+    <row r="54" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B54" s="4"/>
+      <c r="C54" s="24"/>
+      <c r="D54" s="24"/>
+      <c r="E54" s="24"/>
+      <c r="F54" s="24"/>
+      <c r="G54" s="24"/>
+      <c r="H54" s="24"/>
+      <c r="I54" s="24"/>
+      <c r="J54" s="24"/>
+      <c r="K54" s="24"/>
+      <c r="L54" s="24"/>
+      <c r="M54" s="24"/>
+      <c r="N54" s="24"/>
+      <c r="O54" s="24"/>
+      <c r="P54" s="24"/>
+      <c r="Q54" s="24"/>
+      <c r="R54" s="24"/>
+      <c r="S54" s="24"/>
+      <c r="T54" s="5"/>
+    </row>
+    <row r="55" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B55" s="4"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="24"/>
+      <c r="G55" s="24"/>
+      <c r="H55" s="24"/>
+      <c r="I55" s="24"/>
+      <c r="J55" s="24"/>
+      <c r="K55" s="24"/>
+      <c r="L55" s="24"/>
+      <c r="M55" s="24"/>
+      <c r="N55" s="24"/>
+      <c r="O55" s="24"/>
+      <c r="P55" s="24"/>
+      <c r="Q55" s="24"/>
+      <c r="R55" s="24"/>
+      <c r="S55" s="24"/>
+      <c r="T55" s="5"/>
+    </row>
+    <row r="56" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B56" s="4"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="24"/>
+      <c r="F56" s="24"/>
+      <c r="G56" s="24"/>
+      <c r="H56" s="24"/>
+      <c r="I56" s="24"/>
+      <c r="J56" s="24"/>
+      <c r="K56" s="24"/>
+      <c r="L56" s="24"/>
+      <c r="M56" s="24"/>
+      <c r="N56" s="24"/>
+      <c r="O56" s="24"/>
+      <c r="P56" s="24"/>
+      <c r="Q56" s="24"/>
+      <c r="R56" s="24"/>
+      <c r="S56" s="24"/>
+      <c r="T56" s="5"/>
+    </row>
+    <row r="57" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B57" s="4"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="24"/>
+      <c r="E57" s="24"/>
+      <c r="F57" s="24"/>
+      <c r="G57" s="24"/>
+      <c r="H57" s="24"/>
+      <c r="I57" s="24"/>
+      <c r="J57" s="24"/>
+      <c r="K57" s="24"/>
+      <c r="L57" s="24"/>
+      <c r="M57" s="24"/>
+      <c r="N57" s="24"/>
+      <c r="O57" s="24"/>
+      <c r="P57" s="24"/>
+      <c r="Q57" s="24"/>
+      <c r="R57" s="24"/>
+      <c r="S57" s="24"/>
+      <c r="T57" s="5"/>
+    </row>
+    <row r="58" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B58" s="4"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="24"/>
+      <c r="E58" s="24"/>
+      <c r="F58" s="24"/>
+      <c r="G58" s="24"/>
+      <c r="H58" s="24"/>
+      <c r="I58" s="24"/>
+      <c r="J58" s="24"/>
+      <c r="K58" s="24"/>
+      <c r="L58" s="24"/>
+      <c r="M58" s="24"/>
+      <c r="N58" s="24"/>
+      <c r="O58" s="24"/>
+      <c r="P58" s="24"/>
+      <c r="Q58" s="24"/>
+      <c r="R58" s="24"/>
+      <c r="S58" s="24"/>
+      <c r="T58" s="5"/>
+    </row>
+    <row r="59" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B59" s="4"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="24"/>
+      <c r="E59" s="24"/>
+      <c r="F59" s="24"/>
+      <c r="G59" s="24"/>
+      <c r="H59" s="24"/>
+      <c r="I59" s="24"/>
+      <c r="J59" s="24"/>
+      <c r="K59" s="24"/>
+      <c r="L59" s="24"/>
+      <c r="M59" s="24"/>
+      <c r="N59" s="24"/>
+      <c r="O59" s="24"/>
+      <c r="P59" s="24"/>
+      <c r="Q59" s="24"/>
+      <c r="R59" s="24"/>
+      <c r="S59" s="24"/>
+      <c r="T59" s="5"/>
+    </row>
+    <row r="60" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B60" s="4"/>
+      <c r="C60" s="24"/>
+      <c r="D60" s="24"/>
+      <c r="E60" s="24"/>
+      <c r="F60" s="24"/>
+      <c r="G60" s="24"/>
+      <c r="H60" s="24"/>
+      <c r="I60" s="24"/>
+      <c r="J60" s="24"/>
+      <c r="K60" s="24"/>
+      <c r="L60" s="24"/>
+      <c r="M60" s="24"/>
+      <c r="N60" s="24"/>
+      <c r="O60" s="24"/>
+      <c r="P60" s="24"/>
+      <c r="Q60" s="24"/>
+      <c r="R60" s="24"/>
+      <c r="S60" s="24"/>
+      <c r="T60" s="5"/>
+    </row>
+    <row r="61" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B61" s="4"/>
+      <c r="C61" s="24"/>
+      <c r="D61" s="24"/>
+      <c r="E61" s="24"/>
+      <c r="F61" s="24"/>
+      <c r="G61" s="24"/>
+      <c r="H61" s="24"/>
+      <c r="I61" s="24"/>
+      <c r="J61" s="24"/>
+      <c r="K61" s="24"/>
+      <c r="L61" s="24"/>
+      <c r="M61" s="24"/>
+      <c r="N61" s="24"/>
+      <c r="O61" s="24"/>
+      <c r="P61" s="24"/>
+      <c r="Q61" s="24"/>
+      <c r="R61" s="24"/>
+      <c r="S61" s="24"/>
+      <c r="T61" s="5"/>
+    </row>
+    <row r="62" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B62" s="4"/>
+      <c r="C62" s="24"/>
+      <c r="D62" s="24"/>
+      <c r="E62" s="24"/>
+      <c r="F62" s="24"/>
+      <c r="G62" s="24"/>
+      <c r="H62" s="24"/>
+      <c r="I62" s="24"/>
+      <c r="J62" s="24"/>
+      <c r="K62" s="24"/>
+      <c r="L62" s="24"/>
+      <c r="M62" s="24"/>
+      <c r="N62" s="24"/>
+      <c r="O62" s="24"/>
+      <c r="P62" s="24"/>
+      <c r="Q62" s="24"/>
+      <c r="R62" s="24"/>
+      <c r="S62" s="24"/>
+      <c r="T62" s="5"/>
+    </row>
+    <row r="63" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B63" s="4"/>
+      <c r="C63" s="24"/>
+      <c r="D63" s="24"/>
+      <c r="E63" s="24"/>
+      <c r="F63" s="24"/>
+      <c r="G63" s="24"/>
+      <c r="H63" s="24"/>
+      <c r="I63" s="24"/>
+      <c r="J63" s="24"/>
+      <c r="K63" s="24"/>
+      <c r="L63" s="24"/>
+      <c r="M63" s="24"/>
+      <c r="N63" s="24"/>
+      <c r="O63" s="24"/>
+      <c r="P63" s="24"/>
+      <c r="Q63" s="24"/>
+      <c r="R63" s="24"/>
+      <c r="S63" s="24"/>
+      <c r="T63" s="5"/>
+    </row>
+    <row r="64" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B64" s="4"/>
+      <c r="C64" s="24"/>
+      <c r="D64" s="24"/>
+      <c r="E64" s="24"/>
+      <c r="F64" s="24"/>
+      <c r="G64" s="24"/>
+      <c r="H64" s="24"/>
+      <c r="I64" s="24"/>
+      <c r="J64" s="24"/>
+      <c r="K64" s="24"/>
+      <c r="L64" s="24"/>
+      <c r="M64" s="24"/>
+      <c r="N64" s="24"/>
+      <c r="O64" s="24"/>
+      <c r="P64" s="24"/>
+      <c r="Q64" s="24"/>
+      <c r="R64" s="24"/>
+      <c r="S64" s="24"/>
+      <c r="T64" s="5"/>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B65" s="4"/>
+      <c r="C65" s="24"/>
+      <c r="D65" s="24"/>
+      <c r="E65" s="24"/>
+      <c r="F65" s="24"/>
+      <c r="G65" s="24"/>
+      <c r="H65" s="24"/>
+      <c r="I65" s="24"/>
+      <c r="J65" s="24"/>
+      <c r="K65" s="24"/>
+      <c r="L65" s="24"/>
+      <c r="M65" s="24"/>
+      <c r="N65" s="24"/>
+      <c r="O65" s="24"/>
+      <c r="P65" s="24"/>
+      <c r="Q65" s="24"/>
+      <c r="R65" s="24"/>
+      <c r="S65" s="24"/>
+      <c r="T65" s="5"/>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B66" s="4"/>
+      <c r="C66" s="24"/>
+      <c r="D66" s="24"/>
+      <c r="E66" s="24"/>
+      <c r="F66" s="24"/>
+      <c r="G66" s="24"/>
+      <c r="H66" s="24"/>
+      <c r="I66" s="24"/>
+      <c r="J66" s="24"/>
+      <c r="K66" s="24"/>
+      <c r="L66" s="24"/>
+      <c r="M66" s="24"/>
+      <c r="N66" s="24"/>
+      <c r="O66" s="24"/>
+      <c r="P66" s="24"/>
+      <c r="Q66" s="24"/>
+      <c r="R66" s="24"/>
+      <c r="S66" s="24"/>
+      <c r="T66" s="5"/>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B67" s="4"/>
+      <c r="C67" s="24"/>
+      <c r="D67" s="24"/>
+      <c r="E67" s="24"/>
+      <c r="F67" s="24"/>
+      <c r="G67" s="24"/>
+      <c r="H67" s="24"/>
+      <c r="I67" s="24"/>
+      <c r="J67" s="24"/>
+      <c r="K67" s="24"/>
+      <c r="L67" s="24"/>
+      <c r="M67" s="24"/>
+      <c r="N67" s="24"/>
+      <c r="O67" s="24"/>
+      <c r="P67" s="24"/>
+      <c r="Q67" s="24"/>
+      <c r="R67" s="24"/>
+      <c r="S67" s="24"/>
+      <c r="T67" s="5"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B68" s="4"/>
+      <c r="C68" s="24"/>
+      <c r="D68" s="24"/>
+      <c r="E68" s="24"/>
+      <c r="F68" s="24"/>
+      <c r="G68" s="24"/>
+      <c r="H68" s="24"/>
+      <c r="I68" s="24"/>
+      <c r="J68" s="24"/>
+      <c r="K68" s="24"/>
+      <c r="L68" s="24"/>
+      <c r="M68" s="24"/>
+      <c r="N68" s="24"/>
+      <c r="O68" s="24"/>
+      <c r="P68" s="24"/>
+      <c r="Q68" s="24"/>
+      <c r="R68" s="24"/>
+      <c r="S68" s="24"/>
+      <c r="T68" s="5"/>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B69" s="4"/>
+      <c r="C69" s="24"/>
+      <c r="D69" s="24"/>
+      <c r="E69" s="24"/>
+      <c r="F69" s="24"/>
+      <c r="G69" s="24"/>
+      <c r="H69" s="24"/>
+      <c r="I69" s="24"/>
+      <c r="J69" s="24"/>
+      <c r="K69" s="24"/>
+      <c r="L69" s="24"/>
+      <c r="M69" s="24"/>
+      <c r="N69" s="24"/>
+      <c r="O69" s="24"/>
+      <c r="P69" s="24"/>
+      <c r="Q69" s="24"/>
+      <c r="R69" s="24"/>
+      <c r="S69" s="24"/>
+      <c r="T69" s="5"/>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B70" s="4"/>
+      <c r="C70" s="24"/>
+      <c r="D70" s="24"/>
+      <c r="E70" s="24"/>
+      <c r="F70" s="24"/>
+      <c r="G70" s="24"/>
+      <c r="H70" s="24"/>
+      <c r="I70" s="24"/>
+      <c r="J70" s="24"/>
+      <c r="K70" s="24"/>
+      <c r="L70" s="24"/>
+      <c r="M70" s="24"/>
+      <c r="N70" s="24"/>
+      <c r="O70" s="24"/>
+      <c r="P70" s="24"/>
+      <c r="Q70" s="24"/>
+      <c r="R70" s="24"/>
+      <c r="S70" s="24"/>
+      <c r="T70" s="5"/>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B71" s="4"/>
+      <c r="C71" s="24"/>
+      <c r="D71" s="24"/>
+      <c r="E71" s="24"/>
+      <c r="F71" s="24"/>
+      <c r="G71" s="24"/>
+      <c r="H71" s="24"/>
+      <c r="I71" s="24"/>
+      <c r="J71" s="24"/>
+      <c r="K71" s="24"/>
+      <c r="L71" s="24"/>
+      <c r="M71" s="24"/>
+      <c r="N71" s="24"/>
+      <c r="O71" s="24"/>
+      <c r="P71" s="24"/>
+      <c r="Q71" s="24"/>
+      <c r="R71" s="24"/>
+      <c r="S71" s="24"/>
+      <c r="T71" s="5"/>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B72" s="4"/>
+      <c r="C72" s="24"/>
+      <c r="D72" s="24"/>
+      <c r="E72" s="24"/>
+      <c r="F72" s="24"/>
+      <c r="G72" s="24"/>
+      <c r="H72" s="24"/>
+      <c r="I72" s="24"/>
+      <c r="J72" s="24"/>
+      <c r="K72" s="24"/>
+      <c r="L72" s="24"/>
+      <c r="M72" s="24"/>
+      <c r="N72" s="24"/>
+      <c r="O72" s="24"/>
+      <c r="P72" s="24"/>
+      <c r="Q72" s="24"/>
+      <c r="R72" s="24"/>
+      <c r="S72" s="24"/>
+      <c r="T72" s="5"/>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B73" s="4"/>
+      <c r="C73" s="24"/>
+      <c r="D73" s="24"/>
+      <c r="E73" s="24"/>
+      <c r="F73" s="24"/>
+      <c r="G73" s="24"/>
+      <c r="H73" s="24"/>
+      <c r="I73" s="24"/>
+      <c r="J73" s="24"/>
+      <c r="K73" s="24"/>
+      <c r="L73" s="24"/>
+      <c r="M73" s="24"/>
+      <c r="N73" s="24"/>
+      <c r="O73" s="24"/>
+      <c r="P73" s="24"/>
+      <c r="Q73" s="24"/>
+      <c r="R73" s="24"/>
+      <c r="S73" s="24"/>
+      <c r="T73" s="5"/>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B74" s="4"/>
+      <c r="C74" s="24"/>
+      <c r="D74" s="24"/>
+      <c r="E74" s="24"/>
+      <c r="F74" s="24"/>
+      <c r="G74" s="24"/>
+      <c r="H74" s="24"/>
+      <c r="I74" s="24"/>
+      <c r="J74" s="24"/>
+      <c r="K74" s="24"/>
+      <c r="L74" s="24"/>
+      <c r="M74" s="24"/>
+      <c r="N74" s="24"/>
+      <c r="O74" s="24"/>
+      <c r="P74" s="24"/>
+      <c r="Q74" s="24"/>
+      <c r="R74" s="24"/>
+      <c r="S74" s="24"/>
+      <c r="T74" s="5"/>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B75" s="4"/>
+      <c r="C75" s="24"/>
+      <c r="D75" s="24"/>
+      <c r="E75" s="24"/>
+      <c r="F75" s="24"/>
+      <c r="G75" s="24"/>
+      <c r="H75" s="24"/>
+      <c r="I75" s="24"/>
+      <c r="J75" s="24"/>
+      <c r="K75" s="24"/>
+      <c r="L75" s="24"/>
+      <c r="M75" s="24"/>
+      <c r="N75" s="24"/>
+      <c r="O75" s="24"/>
+      <c r="P75" s="24"/>
+      <c r="Q75" s="24"/>
+      <c r="R75" s="24"/>
+      <c r="S75" s="24"/>
+      <c r="T75" s="5"/>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B76" s="4"/>
+      <c r="C76" s="24"/>
+      <c r="D76" s="24"/>
+      <c r="E76" s="24"/>
+      <c r="F76" s="24"/>
+      <c r="G76" s="24"/>
+      <c r="H76" s="24"/>
+      <c r="I76" s="24"/>
+      <c r="J76" s="24"/>
+      <c r="K76" s="24"/>
+      <c r="L76" s="24"/>
+      <c r="M76" s="24"/>
+      <c r="N76" s="24"/>
+      <c r="O76" s="24"/>
+      <c r="P76" s="24"/>
+      <c r="Q76" s="24"/>
+      <c r="R76" s="24"/>
+      <c r="S76" s="24"/>
+      <c r="T76" s="5"/>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B77" s="4"/>
+      <c r="C77" s="24"/>
+      <c r="D77" s="24"/>
+      <c r="E77" s="24"/>
+      <c r="F77" s="24"/>
+      <c r="G77" s="24"/>
+      <c r="H77" s="24"/>
+      <c r="I77" s="24"/>
+      <c r="J77" s="24"/>
+      <c r="K77" s="24"/>
+      <c r="L77" s="24"/>
+      <c r="M77" s="24"/>
+      <c r="N77" s="24"/>
+      <c r="O77" s="24"/>
+      <c r="P77" s="24"/>
+      <c r="Q77" s="24"/>
+      <c r="R77" s="24"/>
+      <c r="S77" s="24"/>
+      <c r="T77" s="5"/>
+    </row>
+    <row r="78" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B78" s="4"/>
+      <c r="C78" s="24"/>
+      <c r="D78" s="24"/>
+      <c r="E78" s="24"/>
+      <c r="F78" s="24"/>
+      <c r="G78" s="24"/>
+      <c r="H78" s="24"/>
+      <c r="I78" s="24"/>
+      <c r="J78" s="24"/>
+      <c r="K78" s="24"/>
+      <c r="L78" s="24"/>
+      <c r="M78" s="24"/>
+      <c r="N78" s="24"/>
+      <c r="O78" s="24"/>
+      <c r="P78" s="24"/>
+      <c r="Q78" s="24"/>
+      <c r="R78" s="24"/>
+      <c r="S78" s="24"/>
+      <c r="T78" s="5"/>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B79" s="4"/>
+      <c r="C79" s="24"/>
+      <c r="D79" s="24"/>
+      <c r="E79" s="24"/>
+      <c r="F79" s="24"/>
+      <c r="G79" s="24"/>
+      <c r="H79" s="24"/>
+      <c r="I79" s="24"/>
+      <c r="J79" s="24"/>
+      <c r="K79" s="24"/>
+      <c r="L79" s="24"/>
+      <c r="M79" s="24"/>
+      <c r="N79" s="24"/>
+      <c r="O79" s="24"/>
+      <c r="P79" s="24"/>
+      <c r="Q79" s="24"/>
+      <c r="R79" s="24"/>
+      <c r="S79" s="24"/>
+      <c r="T79" s="5"/>
+    </row>
+    <row r="80" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B80" s="4"/>
+      <c r="C80" s="24"/>
+      <c r="D80" s="24"/>
+      <c r="E80" s="24"/>
+      <c r="F80" s="24"/>
+      <c r="G80" s="24"/>
+      <c r="H80" s="24"/>
+      <c r="I80" s="24"/>
+      <c r="J80" s="24"/>
+      <c r="K80" s="24"/>
+      <c r="L80" s="24"/>
+      <c r="M80" s="24"/>
+      <c r="N80" s="24"/>
+      <c r="O80" s="24"/>
+      <c r="P80" s="24"/>
+      <c r="Q80" s="24"/>
+      <c r="R80" s="24"/>
+      <c r="S80" s="24"/>
+      <c r="T80" s="5"/>
+    </row>
+    <row r="81" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B81" s="4"/>
+      <c r="C81" s="24"/>
+      <c r="D81" s="24"/>
+      <c r="E81" s="24"/>
+      <c r="F81" s="24"/>
+      <c r="G81" s="24"/>
+      <c r="H81" s="24"/>
+      <c r="I81" s="24"/>
+      <c r="J81" s="24"/>
+      <c r="K81" s="24"/>
+      <c r="L81" s="24"/>
+      <c r="M81" s="24"/>
+      <c r="N81" s="24"/>
+      <c r="O81" s="24"/>
+      <c r="P81" s="24"/>
+      <c r="Q81" s="24"/>
+      <c r="R81" s="24"/>
+      <c r="S81" s="24"/>
+      <c r="T81" s="5"/>
+    </row>
+    <row r="82" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B82" s="4"/>
+      <c r="C82" s="24"/>
+      <c r="D82" s="24"/>
+      <c r="E82" s="24"/>
+      <c r="F82" s="24"/>
+      <c r="G82" s="24"/>
+      <c r="H82" s="24"/>
+      <c r="I82" s="24"/>
+      <c r="J82" s="24"/>
+      <c r="K82" s="24"/>
+      <c r="L82" s="24"/>
+      <c r="M82" s="24"/>
+      <c r="N82" s="24"/>
+      <c r="O82" s="24"/>
+      <c r="P82" s="24"/>
+      <c r="Q82" s="24"/>
+      <c r="R82" s="24"/>
+      <c r="S82" s="24"/>
+      <c r="T82" s="5"/>
+    </row>
+    <row r="83" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B83" s="4"/>
+      <c r="C83" s="24"/>
+      <c r="D83" s="24"/>
+      <c r="E83" s="24"/>
+      <c r="F83" s="24"/>
+      <c r="G83" s="24"/>
+      <c r="H83" s="24"/>
+      <c r="I83" s="24"/>
+      <c r="J83" s="24"/>
+      <c r="K83" s="24"/>
+      <c r="L83" s="24"/>
+      <c r="M83" s="24"/>
+      <c r="N83" s="24"/>
+      <c r="O83" s="24"/>
+      <c r="P83" s="24"/>
+      <c r="Q83" s="24"/>
+      <c r="R83" s="24"/>
+      <c r="S83" s="24"/>
+      <c r="T83" s="5"/>
+    </row>
+    <row r="84" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B84" s="4"/>
+      <c r="C84" s="24"/>
+      <c r="D84" s="24"/>
+      <c r="E84" s="24"/>
+      <c r="F84" s="24"/>
+      <c r="G84" s="24"/>
+      <c r="H84" s="24"/>
+      <c r="I84" s="24"/>
+      <c r="J84" s="24"/>
+      <c r="K84" s="24"/>
+      <c r="L84" s="24"/>
+      <c r="M84" s="24"/>
+      <c r="N84" s="24"/>
+      <c r="O84" s="24"/>
+      <c r="P84" s="24"/>
+      <c r="Q84" s="24"/>
+      <c r="R84" s="24"/>
+      <c r="S84" s="24"/>
+      <c r="T84" s="5"/>
+    </row>
+    <row r="85" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B85" s="4"/>
+      <c r="C85" s="24"/>
+      <c r="D85" s="24"/>
+      <c r="E85" s="24"/>
+      <c r="F85" s="24"/>
+      <c r="G85" s="24"/>
+      <c r="H85" s="24"/>
+      <c r="I85" s="24"/>
+      <c r="J85" s="24"/>
+      <c r="K85" s="24"/>
+      <c r="L85" s="24"/>
+      <c r="M85" s="24"/>
+      <c r="N85" s="24"/>
+      <c r="O85" s="24"/>
+      <c r="P85" s="24"/>
+      <c r="Q85" s="24"/>
+      <c r="R85" s="24"/>
+      <c r="S85" s="24"/>
+      <c r="T85" s="5"/>
+    </row>
+    <row r="86" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B86" s="4"/>
+      <c r="C86" s="24"/>
+      <c r="D86" s="24"/>
+      <c r="E86" s="24"/>
+      <c r="F86" s="24"/>
+      <c r="G86" s="24"/>
+      <c r="H86" s="24"/>
+      <c r="I86" s="24"/>
+      <c r="J86" s="24"/>
+      <c r="K86" s="24"/>
+      <c r="L86" s="24"/>
+      <c r="M86" s="24"/>
+      <c r="N86" s="24"/>
+      <c r="O86" s="24"/>
+      <c r="P86" s="24"/>
+      <c r="Q86" s="24"/>
+      <c r="R86" s="24"/>
+      <c r="S86" s="24"/>
+      <c r="T86" s="5"/>
+    </row>
+    <row r="87" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B87" s="4"/>
+      <c r="C87" s="24"/>
+      <c r="D87" s="24"/>
+      <c r="E87" s="24"/>
+      <c r="F87" s="24"/>
+      <c r="G87" s="24"/>
+      <c r="H87" s="24"/>
+      <c r="I87" s="24"/>
+      <c r="J87" s="24"/>
+      <c r="K87" s="24"/>
+      <c r="L87" s="24"/>
+      <c r="M87" s="24"/>
+      <c r="N87" s="24"/>
+      <c r="O87" s="24"/>
+      <c r="P87" s="24"/>
+      <c r="Q87" s="24"/>
+      <c r="R87" s="24"/>
+      <c r="S87" s="24"/>
+      <c r="T87" s="5"/>
+    </row>
+    <row r="88" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B88" s="4"/>
+      <c r="C88" s="24"/>
+      <c r="D88" s="24"/>
+      <c r="E88" s="24"/>
+      <c r="F88" s="24"/>
+      <c r="G88" s="24"/>
+      <c r="H88" s="24"/>
+      <c r="I88" s="24"/>
+      <c r="J88" s="24"/>
+      <c r="K88" s="24"/>
+      <c r="L88" s="24"/>
+      <c r="M88" s="24"/>
+      <c r="N88" s="24"/>
+      <c r="O88" s="24"/>
+      <c r="P88" s="24"/>
+      <c r="Q88" s="24"/>
+      <c r="R88" s="24"/>
+      <c r="S88" s="24"/>
+      <c r="T88" s="5"/>
+    </row>
+    <row r="89" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B89" s="4"/>
+      <c r="C89" s="24"/>
+      <c r="D89" s="24"/>
+      <c r="E89" s="24"/>
+      <c r="F89" s="24"/>
+      <c r="G89" s="24"/>
+      <c r="H89" s="24"/>
+      <c r="I89" s="24"/>
+      <c r="J89" s="24"/>
+      <c r="K89" s="24"/>
+      <c r="L89" s="24"/>
+      <c r="M89" s="24"/>
+      <c r="N89" s="24"/>
+      <c r="O89" s="24"/>
+      <c r="P89" s="24"/>
+      <c r="Q89" s="24"/>
+      <c r="R89" s="24"/>
+      <c r="S89" s="24"/>
+      <c r="T89" s="5"/>
+    </row>
+    <row r="90" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B90" s="4"/>
+      <c r="C90" s="24"/>
+      <c r="D90" s="24"/>
+      <c r="E90" s="24"/>
+      <c r="F90" s="24"/>
+      <c r="G90" s="24"/>
+      <c r="H90" s="24"/>
+      <c r="I90" s="24"/>
+      <c r="J90" s="24"/>
+      <c r="K90" s="24"/>
+      <c r="L90" s="24"/>
+      <c r="M90" s="24"/>
+      <c r="N90" s="24"/>
+      <c r="O90" s="24"/>
+      <c r="P90" s="24"/>
+      <c r="Q90" s="24"/>
+      <c r="R90" s="24"/>
+      <c r="S90" s="24"/>
+      <c r="T90" s="5"/>
+    </row>
+    <row r="91" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B91" s="4"/>
+      <c r="C91" s="24"/>
+      <c r="D91" s="24"/>
+      <c r="E91" s="24"/>
+      <c r="F91" s="24"/>
+      <c r="G91" s="24"/>
+      <c r="H91" s="24"/>
+      <c r="I91" s="24"/>
+      <c r="J91" s="24"/>
+      <c r="K91" s="24"/>
+      <c r="L91" s="24"/>
+      <c r="M91" s="24"/>
+      <c r="N91" s="24"/>
+      <c r="O91" s="24"/>
+      <c r="P91" s="24"/>
+      <c r="Q91" s="24"/>
+      <c r="R91" s="24"/>
+      <c r="S91" s="24"/>
+      <c r="T91" s="5"/>
+    </row>
+    <row r="92" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B92" s="4"/>
+      <c r="C92" s="24"/>
+      <c r="D92" s="24"/>
+      <c r="E92" s="24"/>
+      <c r="F92" s="24"/>
+      <c r="G92" s="24"/>
+      <c r="H92" s="24"/>
+      <c r="I92" s="24"/>
+      <c r="J92" s="24"/>
+      <c r="K92" s="24"/>
+      <c r="L92" s="24"/>
+      <c r="M92" s="24"/>
+      <c r="N92" s="24"/>
+      <c r="O92" s="24"/>
+      <c r="P92" s="24"/>
+      <c r="Q92" s="24"/>
+      <c r="R92" s="24"/>
+      <c r="S92" s="24"/>
+      <c r="T92" s="5"/>
+    </row>
+    <row r="93" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B93" s="4"/>
+      <c r="C93" s="24"/>
+      <c r="D93" s="24"/>
+      <c r="E93" s="24"/>
+      <c r="F93" s="24"/>
+      <c r="G93" s="24"/>
+      <c r="H93" s="24"/>
+      <c r="I93" s="24"/>
+      <c r="J93" s="24"/>
+      <c r="K93" s="24"/>
+      <c r="L93" s="24"/>
+      <c r="M93" s="24"/>
+      <c r="N93" s="24"/>
+      <c r="O93" s="24"/>
+      <c r="P93" s="24"/>
+      <c r="Q93" s="24"/>
+      <c r="R93" s="24"/>
+      <c r="S93" s="24"/>
+      <c r="T93" s="5"/>
+    </row>
+    <row r="94" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B94" s="4"/>
+      <c r="C94" s="24"/>
+      <c r="D94" s="24"/>
+      <c r="E94" s="24"/>
+      <c r="F94" s="24"/>
+      <c r="G94" s="24"/>
+      <c r="H94" s="24"/>
+      <c r="I94" s="24"/>
+      <c r="J94" s="24"/>
+      <c r="K94" s="24"/>
+      <c r="L94" s="24"/>
+      <c r="M94" s="24"/>
+      <c r="N94" s="24"/>
+      <c r="O94" s="24"/>
+      <c r="P94" s="24"/>
+      <c r="Q94" s="24"/>
+      <c r="R94" s="24"/>
+      <c r="S94" s="24"/>
+      <c r="T94" s="5"/>
+    </row>
+    <row r="95" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B95" s="4"/>
+      <c r="C95" s="24"/>
+      <c r="D95" s="24"/>
+      <c r="E95" s="24"/>
+      <c r="F95" s="24"/>
+      <c r="G95" s="24"/>
+      <c r="H95" s="24"/>
+      <c r="I95" s="24"/>
+      <c r="J95" s="24"/>
+      <c r="K95" s="24"/>
+      <c r="L95" s="24"/>
+      <c r="M95" s="24"/>
+      <c r="N95" s="24"/>
+      <c r="O95" s="24"/>
+      <c r="P95" s="24"/>
+      <c r="Q95" s="24"/>
+      <c r="R95" s="24"/>
+      <c r="S95" s="24"/>
+      <c r="T95" s="5"/>
+    </row>
+    <row r="96" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B96" s="4"/>
+      <c r="C96" s="24"/>
+      <c r="D96" s="24"/>
+      <c r="E96" s="24"/>
+      <c r="F96" s="24"/>
+      <c r="G96" s="24"/>
+      <c r="H96" s="24"/>
+      <c r="I96" s="24"/>
+      <c r="J96" s="24"/>
+      <c r="K96" s="24"/>
+      <c r="L96" s="24"/>
+      <c r="M96" s="24"/>
+      <c r="N96" s="24"/>
+      <c r="O96" s="24"/>
+      <c r="P96" s="24"/>
+      <c r="Q96" s="24"/>
+      <c r="R96" s="24"/>
+      <c r="S96" s="24"/>
+      <c r="T96" s="5"/>
+    </row>
+    <row r="97" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B97" s="4"/>
+      <c r="C97" s="24"/>
+      <c r="D97" s="24"/>
+      <c r="E97" s="24"/>
+      <c r="F97" s="24"/>
+      <c r="G97" s="24"/>
+      <c r="H97" s="24"/>
+      <c r="I97" s="24"/>
+      <c r="J97" s="24"/>
+      <c r="K97" s="24"/>
+      <c r="L97" s="24"/>
+      <c r="M97" s="24"/>
+      <c r="N97" s="24"/>
+      <c r="O97" s="24"/>
+      <c r="P97" s="24"/>
+      <c r="Q97" s="24"/>
+      <c r="R97" s="24"/>
+      <c r="S97" s="24"/>
+      <c r="T97" s="5"/>
+    </row>
+    <row r="98" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B98" s="4"/>
+      <c r="C98" s="24"/>
+      <c r="D98" s="24"/>
+      <c r="E98" s="24"/>
+      <c r="F98" s="24"/>
+      <c r="G98" s="24"/>
+      <c r="H98" s="24"/>
+      <c r="I98" s="24"/>
+      <c r="J98" s="24"/>
+      <c r="K98" s="24"/>
+      <c r="L98" s="24"/>
+      <c r="M98" s="24"/>
+      <c r="N98" s="24"/>
+      <c r="O98" s="24"/>
+      <c r="P98" s="24"/>
+      <c r="Q98" s="24"/>
+      <c r="R98" s="24"/>
+      <c r="S98" s="24"/>
+      <c r="T98" s="5"/>
+    </row>
+    <row r="99" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B99" s="4"/>
+      <c r="C99" s="24"/>
+      <c r="D99" s="24"/>
+      <c r="E99" s="24"/>
+      <c r="F99" s="24"/>
+      <c r="G99" s="24"/>
+      <c r="H99" s="24"/>
+      <c r="I99" s="24"/>
+      <c r="J99" s="24"/>
+      <c r="K99" s="24"/>
+      <c r="L99" s="24"/>
+      <c r="M99" s="24"/>
+      <c r="N99" s="24"/>
+      <c r="O99" s="24"/>
+      <c r="P99" s="24"/>
+      <c r="Q99" s="24"/>
+      <c r="R99" s="24"/>
+      <c r="S99" s="24"/>
+      <c r="T99" s="5"/>
+    </row>
+    <row r="100" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B100" s="4"/>
+      <c r="C100" s="24"/>
+      <c r="D100" s="24"/>
+      <c r="E100" s="24"/>
+      <c r="F100" s="24"/>
+      <c r="G100" s="24"/>
+      <c r="H100" s="24"/>
+      <c r="I100" s="24"/>
+      <c r="J100" s="24"/>
+      <c r="K100" s="24"/>
+      <c r="L100" s="24"/>
+      <c r="M100" s="24"/>
+      <c r="N100" s="24"/>
+      <c r="O100" s="24"/>
+      <c r="P100" s="24"/>
+      <c r="Q100" s="24"/>
+      <c r="R100" s="24"/>
+      <c r="S100" s="24"/>
+      <c r="T100" s="5"/>
+    </row>
+    <row r="101" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B101" s="4"/>
+      <c r="C101" s="24"/>
+      <c r="D101" s="24"/>
+      <c r="E101" s="24"/>
+      <c r="F101" s="24"/>
+      <c r="G101" s="24"/>
+      <c r="H101" s="24"/>
+      <c r="I101" s="24"/>
+      <c r="J101" s="24"/>
+      <c r="K101" s="24"/>
+      <c r="L101" s="24"/>
+      <c r="M101" s="24"/>
+      <c r="N101" s="24"/>
+      <c r="O101" s="24"/>
+      <c r="P101" s="24"/>
+      <c r="Q101" s="24"/>
+      <c r="R101" s="24"/>
+      <c r="S101" s="24"/>
+      <c r="T101" s="5"/>
+    </row>
+    <row r="102" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B102" s="4"/>
+      <c r="C102" s="24"/>
+      <c r="D102" s="24"/>
+      <c r="E102" s="24"/>
+      <c r="F102" s="24"/>
+      <c r="G102" s="24"/>
+      <c r="H102" s="24"/>
+      <c r="I102" s="24"/>
+      <c r="J102" s="24"/>
+      <c r="K102" s="24"/>
+      <c r="L102" s="24"/>
+      <c r="M102" s="24"/>
+      <c r="N102" s="24"/>
+      <c r="O102" s="24"/>
+      <c r="P102" s="24"/>
+      <c r="Q102" s="24"/>
+      <c r="R102" s="24"/>
+      <c r="S102" s="24"/>
+      <c r="T102" s="5"/>
+    </row>
+    <row r="103" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B103" s="6"/>
+      <c r="C103" s="7"/>
+      <c r="D103" s="7"/>
+      <c r="E103" s="7"/>
+      <c r="F103" s="7"/>
+      <c r="G103" s="7"/>
+      <c r="H103" s="7"/>
+      <c r="I103" s="7"/>
+      <c r="J103" s="7"/>
+      <c r="K103" s="7"/>
+      <c r="L103" s="7"/>
+      <c r="M103" s="7"/>
+      <c r="N103" s="7"/>
+      <c r="O103" s="7"/>
+      <c r="P103" s="7"/>
+      <c r="Q103" s="7"/>
+      <c r="R103" s="7"/>
+      <c r="S103" s="7"/>
+      <c r="T103" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me/2.Apex-Fundamentals.xlsx
+++ b/me/2.Apex-Fundamentals.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\salesforce\me\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1018B3EC-FC3D-4DD8-B670-046A6AB1A3BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DDFEA3D-3069-4FA7-BA1F-C69CAB557A5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hello World" sheetId="1" r:id="rId1"/>
     <sheet name="Primitive Data Types" sheetId="2" r:id="rId2"/>
     <sheet name="String Class Methods" sheetId="3" r:id="rId3"/>
+    <sheet name="Escape Character" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="81">
   <si>
     <t>Mở Developer Console trên tab mới</t>
   </si>
@@ -321,6 +322,18 @@
       </rPr>
       <t xml:space="preserve"> am a string variable</t>
     </r>
+  </si>
+  <si>
+    <t>4.string-escape-character.txt</t>
+  </si>
+  <si>
+    <t>salesforce\2.Apex-Fundamentals\4.string-escape-character.txt</t>
+  </si>
+  <si>
+    <t>String str = 'My team\'s name is \'SFDCFacts Academy\'. \n We work on apex.';</t>
+  </si>
+  <si>
+    <t>System.debug(str);</t>
   </si>
 </sst>
 </file>
@@ -449,7 +462,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -470,17 +483,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2065,6 +2070,152 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>90775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB7574AD-7B65-898A-FAD7-F0EB72784EC4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="704850" y="3581401"/>
+          <a:ext cx="11325225" cy="5272374"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>55971</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A65C2DE2-7A50-8F74-24EF-294CCAA2DF9B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="714375" y="9077325"/>
+          <a:ext cx="11391900" cy="5266146"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D152A603-73E1-756D-90E7-8F0AECE271F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2447925" y="10963275"/>
+          <a:ext cx="180975" cy="1971675"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4645,79 +4796,60 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{955A85CC-5A2A-4587-B69E-7817EC3A7E85}">
   <dimension ref="A3:T103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="18"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="15" t="s">
+      <c r="B5" s="4"/>
+      <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="20"/>
+      <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15" t="s">
+      <c r="B6" s="4"/>
+      <c r="D6" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="20"/>
+      <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15" t="s">
+      <c r="B7" s="4"/>
+      <c r="D7" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="20"/>
+      <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="15"/>
+      <c r="B8" s="4"/>
       <c r="D8" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="20"/>
+      <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="23"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="8"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -4742,54 +4874,22 @@
       <c r="B14" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
       <c r="K14" s="5"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15" s="4"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
       <c r="K15" s="5"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
       <c r="K16" s="5"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
       <c r="K17" s="5"/>
       <c r="L17" t="s">
         <v>17</v>
@@ -4800,14 +4900,6 @@
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="4"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
       <c r="K18" s="5"/>
       <c r="M18" t="s">
         <v>76</v>
@@ -4817,298 +4909,122 @@
       <c r="B19" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
       <c r="K19" s="5"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
       <c r="K20" s="5"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="4"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
       <c r="K21" s="5"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
       <c r="K22" s="5"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
       <c r="K23" s="5"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
       <c r="K24" s="5"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
       <c r="K25" s="5"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="4"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
       <c r="K26" s="5"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
       <c r="K27" s="5"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
       <c r="K28" s="5"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="24"/>
       <c r="K29" s="5"/>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="24"/>
       <c r="K30" s="5"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
       <c r="K31" s="5"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="24"/>
-      <c r="J32" s="24"/>
       <c r="K32" s="5"/>
     </row>
     <row r="33" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B33" s="4"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="24"/>
-      <c r="J33" s="24"/>
       <c r="K33" s="5"/>
     </row>
     <row r="34" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B34" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="24"/>
-      <c r="J34" s="24"/>
       <c r="K34" s="5"/>
     </row>
     <row r="35" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B35" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="24"/>
-      <c r="I35" s="24"/>
-      <c r="J35" s="24"/>
       <c r="K35" s="5"/>
     </row>
     <row r="36" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B36" s="4"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="24"/>
-      <c r="I36" s="24"/>
-      <c r="J36" s="24"/>
       <c r="K36" s="5"/>
     </row>
     <row r="37" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B37" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="24"/>
-      <c r="J37" s="24"/>
       <c r="K37" s="5"/>
     </row>
     <row r="38" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B38" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="24"/>
-      <c r="J38" s="24"/>
       <c r="K38" s="5"/>
     </row>
     <row r="39" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B39" s="4"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="24"/>
-      <c r="I39" s="24"/>
-      <c r="J39" s="24"/>
       <c r="K39" s="5"/>
     </row>
     <row r="40" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B40" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="24"/>
-      <c r="I40" s="24"/>
-      <c r="J40" s="24"/>
       <c r="K40" s="5"/>
     </row>
     <row r="41" spans="2:20" x14ac:dyDescent="0.25">
@@ -5151,1220 +5067,234 @@
     </row>
     <row r="45" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B45" s="4"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="24"/>
-      <c r="H45" s="24"/>
-      <c r="I45" s="24"/>
-      <c r="J45" s="24"/>
-      <c r="K45" s="24"/>
-      <c r="L45" s="24"/>
-      <c r="M45" s="24"/>
-      <c r="N45" s="24"/>
-      <c r="O45" s="24"/>
-      <c r="P45" s="24"/>
-      <c r="Q45" s="24"/>
-      <c r="R45" s="24"/>
-      <c r="S45" s="24"/>
       <c r="T45" s="5"/>
     </row>
     <row r="46" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B46" s="4"/>
-      <c r="C46" s="24"/>
-      <c r="D46" s="24"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="24"/>
-      <c r="H46" s="24"/>
-      <c r="I46" s="24"/>
-      <c r="J46" s="24"/>
-      <c r="K46" s="24"/>
-      <c r="L46" s="24"/>
-      <c r="M46" s="24"/>
-      <c r="N46" s="24"/>
-      <c r="O46" s="24"/>
-      <c r="P46" s="24"/>
-      <c r="Q46" s="24"/>
-      <c r="R46" s="24"/>
-      <c r="S46" s="24"/>
       <c r="T46" s="5"/>
     </row>
     <row r="47" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B47" s="4"/>
-      <c r="C47" s="24"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="24"/>
-      <c r="H47" s="24"/>
-      <c r="I47" s="24"/>
-      <c r="J47" s="24"/>
-      <c r="K47" s="24"/>
-      <c r="L47" s="24"/>
-      <c r="M47" s="24"/>
-      <c r="N47" s="24"/>
-      <c r="O47" s="24"/>
-      <c r="P47" s="24"/>
-      <c r="Q47" s="24"/>
-      <c r="R47" s="24"/>
-      <c r="S47" s="24"/>
       <c r="T47" s="5"/>
     </row>
     <row r="48" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B48" s="4"/>
-      <c r="C48" s="24"/>
-      <c r="D48" s="24"/>
-      <c r="E48" s="24"/>
-      <c r="F48" s="24"/>
-      <c r="G48" s="24"/>
-      <c r="H48" s="24"/>
-      <c r="I48" s="24"/>
-      <c r="J48" s="24"/>
-      <c r="K48" s="24"/>
-      <c r="L48" s="24"/>
-      <c r="M48" s="24"/>
-      <c r="N48" s="24"/>
-      <c r="O48" s="24"/>
-      <c r="P48" s="24"/>
-      <c r="Q48" s="24"/>
-      <c r="R48" s="24"/>
-      <c r="S48" s="24"/>
       <c r="T48" s="5"/>
     </row>
     <row r="49" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B49" s="4"/>
-      <c r="C49" s="24"/>
-      <c r="D49" s="24"/>
-      <c r="E49" s="24"/>
-      <c r="F49" s="24"/>
-      <c r="G49" s="24"/>
-      <c r="H49" s="24"/>
-      <c r="I49" s="24"/>
-      <c r="J49" s="24"/>
-      <c r="K49" s="24"/>
-      <c r="L49" s="24"/>
-      <c r="M49" s="24"/>
-      <c r="N49" s="24"/>
-      <c r="O49" s="24"/>
-      <c r="P49" s="24"/>
-      <c r="Q49" s="24"/>
-      <c r="R49" s="24"/>
-      <c r="S49" s="24"/>
       <c r="T49" s="5"/>
     </row>
     <row r="50" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B50" s="4"/>
-      <c r="C50" s="24"/>
-      <c r="D50" s="24"/>
-      <c r="E50" s="24"/>
-      <c r="F50" s="24"/>
-      <c r="G50" s="24"/>
-      <c r="H50" s="24"/>
-      <c r="I50" s="24"/>
-      <c r="J50" s="24"/>
-      <c r="K50" s="24"/>
-      <c r="L50" s="24"/>
-      <c r="M50" s="24"/>
-      <c r="N50" s="24"/>
-      <c r="O50" s="24"/>
-      <c r="P50" s="24"/>
-      <c r="Q50" s="24"/>
-      <c r="R50" s="24"/>
-      <c r="S50" s="24"/>
       <c r="T50" s="5"/>
     </row>
     <row r="51" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B51" s="4"/>
-      <c r="C51" s="24"/>
-      <c r="D51" s="24"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="24"/>
-      <c r="G51" s="24"/>
-      <c r="H51" s="24"/>
-      <c r="I51" s="24"/>
-      <c r="J51" s="24"/>
-      <c r="K51" s="24"/>
-      <c r="L51" s="24"/>
-      <c r="M51" s="24"/>
-      <c r="N51" s="24"/>
-      <c r="O51" s="24"/>
-      <c r="P51" s="24"/>
-      <c r="Q51" s="24"/>
-      <c r="R51" s="24"/>
-      <c r="S51" s="24"/>
       <c r="T51" s="5"/>
     </row>
     <row r="52" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B52" s="4"/>
-      <c r="C52" s="24"/>
-      <c r="D52" s="24"/>
-      <c r="E52" s="24"/>
-      <c r="F52" s="24"/>
-      <c r="G52" s="24"/>
-      <c r="H52" s="24"/>
-      <c r="I52" s="24"/>
-      <c r="J52" s="24"/>
-      <c r="K52" s="24"/>
-      <c r="L52" s="24"/>
-      <c r="M52" s="24"/>
-      <c r="N52" s="24"/>
-      <c r="O52" s="24"/>
-      <c r="P52" s="24"/>
-      <c r="Q52" s="24"/>
-      <c r="R52" s="24"/>
-      <c r="S52" s="24"/>
       <c r="T52" s="5"/>
     </row>
     <row r="53" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B53" s="4"/>
-      <c r="C53" s="24"/>
-      <c r="D53" s="24"/>
-      <c r="E53" s="24"/>
-      <c r="F53" s="24"/>
-      <c r="G53" s="24"/>
-      <c r="H53" s="24"/>
-      <c r="I53" s="24"/>
-      <c r="J53" s="24"/>
-      <c r="K53" s="24"/>
-      <c r="L53" s="24"/>
-      <c r="M53" s="24"/>
-      <c r="N53" s="24"/>
-      <c r="O53" s="24"/>
-      <c r="P53" s="24"/>
-      <c r="Q53" s="24"/>
-      <c r="R53" s="24"/>
-      <c r="S53" s="24"/>
       <c r="T53" s="5"/>
     </row>
     <row r="54" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B54" s="4"/>
-      <c r="C54" s="24"/>
-      <c r="D54" s="24"/>
-      <c r="E54" s="24"/>
-      <c r="F54" s="24"/>
-      <c r="G54" s="24"/>
-      <c r="H54" s="24"/>
-      <c r="I54" s="24"/>
-      <c r="J54" s="24"/>
-      <c r="K54" s="24"/>
-      <c r="L54" s="24"/>
-      <c r="M54" s="24"/>
-      <c r="N54" s="24"/>
-      <c r="O54" s="24"/>
-      <c r="P54" s="24"/>
-      <c r="Q54" s="24"/>
-      <c r="R54" s="24"/>
-      <c r="S54" s="24"/>
       <c r="T54" s="5"/>
     </row>
     <row r="55" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B55" s="4"/>
-      <c r="C55" s="24"/>
-      <c r="D55" s="24"/>
-      <c r="E55" s="24"/>
-      <c r="F55" s="24"/>
-      <c r="G55" s="24"/>
-      <c r="H55" s="24"/>
-      <c r="I55" s="24"/>
-      <c r="J55" s="24"/>
-      <c r="K55" s="24"/>
-      <c r="L55" s="24"/>
-      <c r="M55" s="24"/>
-      <c r="N55" s="24"/>
-      <c r="O55" s="24"/>
-      <c r="P55" s="24"/>
-      <c r="Q55" s="24"/>
-      <c r="R55" s="24"/>
-      <c r="S55" s="24"/>
       <c r="T55" s="5"/>
     </row>
     <row r="56" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B56" s="4"/>
-      <c r="C56" s="24"/>
-      <c r="D56" s="24"/>
-      <c r="E56" s="24"/>
-      <c r="F56" s="24"/>
-      <c r="G56" s="24"/>
-      <c r="H56" s="24"/>
-      <c r="I56" s="24"/>
-      <c r="J56" s="24"/>
-      <c r="K56" s="24"/>
-      <c r="L56" s="24"/>
-      <c r="M56" s="24"/>
-      <c r="N56" s="24"/>
-      <c r="O56" s="24"/>
-      <c r="P56" s="24"/>
-      <c r="Q56" s="24"/>
-      <c r="R56" s="24"/>
-      <c r="S56" s="24"/>
       <c r="T56" s="5"/>
     </row>
     <row r="57" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B57" s="4"/>
-      <c r="C57" s="24"/>
-      <c r="D57" s="24"/>
-      <c r="E57" s="24"/>
-      <c r="F57" s="24"/>
-      <c r="G57" s="24"/>
-      <c r="H57" s="24"/>
-      <c r="I57" s="24"/>
-      <c r="J57" s="24"/>
-      <c r="K57" s="24"/>
-      <c r="L57" s="24"/>
-      <c r="M57" s="24"/>
-      <c r="N57" s="24"/>
-      <c r="O57" s="24"/>
-      <c r="P57" s="24"/>
-      <c r="Q57" s="24"/>
-      <c r="R57" s="24"/>
-      <c r="S57" s="24"/>
       <c r="T57" s="5"/>
     </row>
     <row r="58" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B58" s="4"/>
-      <c r="C58" s="24"/>
-      <c r="D58" s="24"/>
-      <c r="E58" s="24"/>
-      <c r="F58" s="24"/>
-      <c r="G58" s="24"/>
-      <c r="H58" s="24"/>
-      <c r="I58" s="24"/>
-      <c r="J58" s="24"/>
-      <c r="K58" s="24"/>
-      <c r="L58" s="24"/>
-      <c r="M58" s="24"/>
-      <c r="N58" s="24"/>
-      <c r="O58" s="24"/>
-      <c r="P58" s="24"/>
-      <c r="Q58" s="24"/>
-      <c r="R58" s="24"/>
-      <c r="S58" s="24"/>
       <c r="T58" s="5"/>
     </row>
     <row r="59" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B59" s="4"/>
-      <c r="C59" s="24"/>
-      <c r="D59" s="24"/>
-      <c r="E59" s="24"/>
-      <c r="F59" s="24"/>
-      <c r="G59" s="24"/>
-      <c r="H59" s="24"/>
-      <c r="I59" s="24"/>
-      <c r="J59" s="24"/>
-      <c r="K59" s="24"/>
-      <c r="L59" s="24"/>
-      <c r="M59" s="24"/>
-      <c r="N59" s="24"/>
-      <c r="O59" s="24"/>
-      <c r="P59" s="24"/>
-      <c r="Q59" s="24"/>
-      <c r="R59" s="24"/>
-      <c r="S59" s="24"/>
       <c r="T59" s="5"/>
     </row>
     <row r="60" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B60" s="4"/>
-      <c r="C60" s="24"/>
-      <c r="D60" s="24"/>
-      <c r="E60" s="24"/>
-      <c r="F60" s="24"/>
-      <c r="G60" s="24"/>
-      <c r="H60" s="24"/>
-      <c r="I60" s="24"/>
-      <c r="J60" s="24"/>
-      <c r="K60" s="24"/>
-      <c r="L60" s="24"/>
-      <c r="M60" s="24"/>
-      <c r="N60" s="24"/>
-      <c r="O60" s="24"/>
-      <c r="P60" s="24"/>
-      <c r="Q60" s="24"/>
-      <c r="R60" s="24"/>
-      <c r="S60" s="24"/>
       <c r="T60" s="5"/>
     </row>
     <row r="61" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B61" s="4"/>
-      <c r="C61" s="24"/>
-      <c r="D61" s="24"/>
-      <c r="E61" s="24"/>
-      <c r="F61" s="24"/>
-      <c r="G61" s="24"/>
-      <c r="H61" s="24"/>
-      <c r="I61" s="24"/>
-      <c r="J61" s="24"/>
-      <c r="K61" s="24"/>
-      <c r="L61" s="24"/>
-      <c r="M61" s="24"/>
-      <c r="N61" s="24"/>
-      <c r="O61" s="24"/>
-      <c r="P61" s="24"/>
-      <c r="Q61" s="24"/>
-      <c r="R61" s="24"/>
-      <c r="S61" s="24"/>
       <c r="T61" s="5"/>
     </row>
     <row r="62" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B62" s="4"/>
-      <c r="C62" s="24"/>
-      <c r="D62" s="24"/>
-      <c r="E62" s="24"/>
-      <c r="F62" s="24"/>
-      <c r="G62" s="24"/>
-      <c r="H62" s="24"/>
-      <c r="I62" s="24"/>
-      <c r="J62" s="24"/>
-      <c r="K62" s="24"/>
-      <c r="L62" s="24"/>
-      <c r="M62" s="24"/>
-      <c r="N62" s="24"/>
-      <c r="O62" s="24"/>
-      <c r="P62" s="24"/>
-      <c r="Q62" s="24"/>
-      <c r="R62" s="24"/>
-      <c r="S62" s="24"/>
       <c r="T62" s="5"/>
     </row>
     <row r="63" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B63" s="4"/>
-      <c r="C63" s="24"/>
-      <c r="D63" s="24"/>
-      <c r="E63" s="24"/>
-      <c r="F63" s="24"/>
-      <c r="G63" s="24"/>
-      <c r="H63" s="24"/>
-      <c r="I63" s="24"/>
-      <c r="J63" s="24"/>
-      <c r="K63" s="24"/>
-      <c r="L63" s="24"/>
-      <c r="M63" s="24"/>
-      <c r="N63" s="24"/>
-      <c r="O63" s="24"/>
-      <c r="P63" s="24"/>
-      <c r="Q63" s="24"/>
-      <c r="R63" s="24"/>
-      <c r="S63" s="24"/>
       <c r="T63" s="5"/>
     </row>
     <row r="64" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B64" s="4"/>
-      <c r="C64" s="24"/>
-      <c r="D64" s="24"/>
-      <c r="E64" s="24"/>
-      <c r="F64" s="24"/>
-      <c r="G64" s="24"/>
-      <c r="H64" s="24"/>
-      <c r="I64" s="24"/>
-      <c r="J64" s="24"/>
-      <c r="K64" s="24"/>
-      <c r="L64" s="24"/>
-      <c r="M64" s="24"/>
-      <c r="N64" s="24"/>
-      <c r="O64" s="24"/>
-      <c r="P64" s="24"/>
-      <c r="Q64" s="24"/>
-      <c r="R64" s="24"/>
-      <c r="S64" s="24"/>
       <c r="T64" s="5"/>
     </row>
     <row r="65" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B65" s="4"/>
-      <c r="C65" s="24"/>
-      <c r="D65" s="24"/>
-      <c r="E65" s="24"/>
-      <c r="F65" s="24"/>
-      <c r="G65" s="24"/>
-      <c r="H65" s="24"/>
-      <c r="I65" s="24"/>
-      <c r="J65" s="24"/>
-      <c r="K65" s="24"/>
-      <c r="L65" s="24"/>
-      <c r="M65" s="24"/>
-      <c r="N65" s="24"/>
-      <c r="O65" s="24"/>
-      <c r="P65" s="24"/>
-      <c r="Q65" s="24"/>
-      <c r="R65" s="24"/>
-      <c r="S65" s="24"/>
       <c r="T65" s="5"/>
     </row>
     <row r="66" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B66" s="4"/>
-      <c r="C66" s="24"/>
-      <c r="D66" s="24"/>
-      <c r="E66" s="24"/>
-      <c r="F66" s="24"/>
-      <c r="G66" s="24"/>
-      <c r="H66" s="24"/>
-      <c r="I66" s="24"/>
-      <c r="J66" s="24"/>
-      <c r="K66" s="24"/>
-      <c r="L66" s="24"/>
-      <c r="M66" s="24"/>
-      <c r="N66" s="24"/>
-      <c r="O66" s="24"/>
-      <c r="P66" s="24"/>
-      <c r="Q66" s="24"/>
-      <c r="R66" s="24"/>
-      <c r="S66" s="24"/>
       <c r="T66" s="5"/>
     </row>
     <row r="67" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B67" s="4"/>
-      <c r="C67" s="24"/>
-      <c r="D67" s="24"/>
-      <c r="E67" s="24"/>
-      <c r="F67" s="24"/>
-      <c r="G67" s="24"/>
-      <c r="H67" s="24"/>
-      <c r="I67" s="24"/>
-      <c r="J67" s="24"/>
-      <c r="K67" s="24"/>
-      <c r="L67" s="24"/>
-      <c r="M67" s="24"/>
-      <c r="N67" s="24"/>
-      <c r="O67" s="24"/>
-      <c r="P67" s="24"/>
-      <c r="Q67" s="24"/>
-      <c r="R67" s="24"/>
-      <c r="S67" s="24"/>
       <c r="T67" s="5"/>
     </row>
     <row r="68" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B68" s="4"/>
-      <c r="C68" s="24"/>
-      <c r="D68" s="24"/>
-      <c r="E68" s="24"/>
-      <c r="F68" s="24"/>
-      <c r="G68" s="24"/>
-      <c r="H68" s="24"/>
-      <c r="I68" s="24"/>
-      <c r="J68" s="24"/>
-      <c r="K68" s="24"/>
-      <c r="L68" s="24"/>
-      <c r="M68" s="24"/>
-      <c r="N68" s="24"/>
-      <c r="O68" s="24"/>
-      <c r="P68" s="24"/>
-      <c r="Q68" s="24"/>
-      <c r="R68" s="24"/>
-      <c r="S68" s="24"/>
       <c r="T68" s="5"/>
     </row>
     <row r="69" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B69" s="4"/>
-      <c r="C69" s="24"/>
-      <c r="D69" s="24"/>
-      <c r="E69" s="24"/>
-      <c r="F69" s="24"/>
-      <c r="G69" s="24"/>
-      <c r="H69" s="24"/>
-      <c r="I69" s="24"/>
-      <c r="J69" s="24"/>
-      <c r="K69" s="24"/>
-      <c r="L69" s="24"/>
-      <c r="M69" s="24"/>
-      <c r="N69" s="24"/>
-      <c r="O69" s="24"/>
-      <c r="P69" s="24"/>
-      <c r="Q69" s="24"/>
-      <c r="R69" s="24"/>
-      <c r="S69" s="24"/>
       <c r="T69" s="5"/>
     </row>
     <row r="70" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B70" s="4"/>
-      <c r="C70" s="24"/>
-      <c r="D70" s="24"/>
-      <c r="E70" s="24"/>
-      <c r="F70" s="24"/>
-      <c r="G70" s="24"/>
-      <c r="H70" s="24"/>
-      <c r="I70" s="24"/>
-      <c r="J70" s="24"/>
-      <c r="K70" s="24"/>
-      <c r="L70" s="24"/>
-      <c r="M70" s="24"/>
-      <c r="N70" s="24"/>
-      <c r="O70" s="24"/>
-      <c r="P70" s="24"/>
-      <c r="Q70" s="24"/>
-      <c r="R70" s="24"/>
-      <c r="S70" s="24"/>
       <c r="T70" s="5"/>
     </row>
     <row r="71" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B71" s="4"/>
-      <c r="C71" s="24"/>
-      <c r="D71" s="24"/>
-      <c r="E71" s="24"/>
-      <c r="F71" s="24"/>
-      <c r="G71" s="24"/>
-      <c r="H71" s="24"/>
-      <c r="I71" s="24"/>
-      <c r="J71" s="24"/>
-      <c r="K71" s="24"/>
-      <c r="L71" s="24"/>
-      <c r="M71" s="24"/>
-      <c r="N71" s="24"/>
-      <c r="O71" s="24"/>
-      <c r="P71" s="24"/>
-      <c r="Q71" s="24"/>
-      <c r="R71" s="24"/>
-      <c r="S71" s="24"/>
       <c r="T71" s="5"/>
     </row>
     <row r="72" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B72" s="4"/>
-      <c r="C72" s="24"/>
-      <c r="D72" s="24"/>
-      <c r="E72" s="24"/>
-      <c r="F72" s="24"/>
-      <c r="G72" s="24"/>
-      <c r="H72" s="24"/>
-      <c r="I72" s="24"/>
-      <c r="J72" s="24"/>
-      <c r="K72" s="24"/>
-      <c r="L72" s="24"/>
-      <c r="M72" s="24"/>
-      <c r="N72" s="24"/>
-      <c r="O72" s="24"/>
-      <c r="P72" s="24"/>
-      <c r="Q72" s="24"/>
-      <c r="R72" s="24"/>
-      <c r="S72" s="24"/>
       <c r="T72" s="5"/>
     </row>
     <row r="73" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B73" s="4"/>
-      <c r="C73" s="24"/>
-      <c r="D73" s="24"/>
-      <c r="E73" s="24"/>
-      <c r="F73" s="24"/>
-      <c r="G73" s="24"/>
-      <c r="H73" s="24"/>
-      <c r="I73" s="24"/>
-      <c r="J73" s="24"/>
-      <c r="K73" s="24"/>
-      <c r="L73" s="24"/>
-      <c r="M73" s="24"/>
-      <c r="N73" s="24"/>
-      <c r="O73" s="24"/>
-      <c r="P73" s="24"/>
-      <c r="Q73" s="24"/>
-      <c r="R73" s="24"/>
-      <c r="S73" s="24"/>
       <c r="T73" s="5"/>
     </row>
     <row r="74" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B74" s="4"/>
-      <c r="C74" s="24"/>
-      <c r="D74" s="24"/>
-      <c r="E74" s="24"/>
-      <c r="F74" s="24"/>
-      <c r="G74" s="24"/>
-      <c r="H74" s="24"/>
-      <c r="I74" s="24"/>
-      <c r="J74" s="24"/>
-      <c r="K74" s="24"/>
-      <c r="L74" s="24"/>
-      <c r="M74" s="24"/>
-      <c r="N74" s="24"/>
-      <c r="O74" s="24"/>
-      <c r="P74" s="24"/>
-      <c r="Q74" s="24"/>
-      <c r="R74" s="24"/>
-      <c r="S74" s="24"/>
       <c r="T74" s="5"/>
     </row>
     <row r="75" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B75" s="4"/>
-      <c r="C75" s="24"/>
-      <c r="D75" s="24"/>
-      <c r="E75" s="24"/>
-      <c r="F75" s="24"/>
-      <c r="G75" s="24"/>
-      <c r="H75" s="24"/>
-      <c r="I75" s="24"/>
-      <c r="J75" s="24"/>
-      <c r="K75" s="24"/>
-      <c r="L75" s="24"/>
-      <c r="M75" s="24"/>
-      <c r="N75" s="24"/>
-      <c r="O75" s="24"/>
-      <c r="P75" s="24"/>
-      <c r="Q75" s="24"/>
-      <c r="R75" s="24"/>
-      <c r="S75" s="24"/>
       <c r="T75" s="5"/>
     </row>
     <row r="76" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B76" s="4"/>
-      <c r="C76" s="24"/>
-      <c r="D76" s="24"/>
-      <c r="E76" s="24"/>
-      <c r="F76" s="24"/>
-      <c r="G76" s="24"/>
-      <c r="H76" s="24"/>
-      <c r="I76" s="24"/>
-      <c r="J76" s="24"/>
-      <c r="K76" s="24"/>
-      <c r="L76" s="24"/>
-      <c r="M76" s="24"/>
-      <c r="N76" s="24"/>
-      <c r="O76" s="24"/>
-      <c r="P76" s="24"/>
-      <c r="Q76" s="24"/>
-      <c r="R76" s="24"/>
-      <c r="S76" s="24"/>
       <c r="T76" s="5"/>
     </row>
     <row r="77" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B77" s="4"/>
-      <c r="C77" s="24"/>
-      <c r="D77" s="24"/>
-      <c r="E77" s="24"/>
-      <c r="F77" s="24"/>
-      <c r="G77" s="24"/>
-      <c r="H77" s="24"/>
-      <c r="I77" s="24"/>
-      <c r="J77" s="24"/>
-      <c r="K77" s="24"/>
-      <c r="L77" s="24"/>
-      <c r="M77" s="24"/>
-      <c r="N77" s="24"/>
-      <c r="O77" s="24"/>
-      <c r="P77" s="24"/>
-      <c r="Q77" s="24"/>
-      <c r="R77" s="24"/>
-      <c r="S77" s="24"/>
       <c r="T77" s="5"/>
     </row>
     <row r="78" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B78" s="4"/>
-      <c r="C78" s="24"/>
-      <c r="D78" s="24"/>
-      <c r="E78" s="24"/>
-      <c r="F78" s="24"/>
-      <c r="G78" s="24"/>
-      <c r="H78" s="24"/>
-      <c r="I78" s="24"/>
-      <c r="J78" s="24"/>
-      <c r="K78" s="24"/>
-      <c r="L78" s="24"/>
-      <c r="M78" s="24"/>
-      <c r="N78" s="24"/>
-      <c r="O78" s="24"/>
-      <c r="P78" s="24"/>
-      <c r="Q78" s="24"/>
-      <c r="R78" s="24"/>
-      <c r="S78" s="24"/>
       <c r="T78" s="5"/>
     </row>
     <row r="79" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B79" s="4"/>
-      <c r="C79" s="24"/>
-      <c r="D79" s="24"/>
-      <c r="E79" s="24"/>
-      <c r="F79" s="24"/>
-      <c r="G79" s="24"/>
-      <c r="H79" s="24"/>
-      <c r="I79" s="24"/>
-      <c r="J79" s="24"/>
-      <c r="K79" s="24"/>
-      <c r="L79" s="24"/>
-      <c r="M79" s="24"/>
-      <c r="N79" s="24"/>
-      <c r="O79" s="24"/>
-      <c r="P79" s="24"/>
-      <c r="Q79" s="24"/>
-      <c r="R79" s="24"/>
-      <c r="S79" s="24"/>
       <c r="T79" s="5"/>
     </row>
     <row r="80" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B80" s="4"/>
-      <c r="C80" s="24"/>
-      <c r="D80" s="24"/>
-      <c r="E80" s="24"/>
-      <c r="F80" s="24"/>
-      <c r="G80" s="24"/>
-      <c r="H80" s="24"/>
-      <c r="I80" s="24"/>
-      <c r="J80" s="24"/>
-      <c r="K80" s="24"/>
-      <c r="L80" s="24"/>
-      <c r="M80" s="24"/>
-      <c r="N80" s="24"/>
-      <c r="O80" s="24"/>
-      <c r="P80" s="24"/>
-      <c r="Q80" s="24"/>
-      <c r="R80" s="24"/>
-      <c r="S80" s="24"/>
       <c r="T80" s="5"/>
     </row>
     <row r="81" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B81" s="4"/>
-      <c r="C81" s="24"/>
-      <c r="D81" s="24"/>
-      <c r="E81" s="24"/>
-      <c r="F81" s="24"/>
-      <c r="G81" s="24"/>
-      <c r="H81" s="24"/>
-      <c r="I81" s="24"/>
-      <c r="J81" s="24"/>
-      <c r="K81" s="24"/>
-      <c r="L81" s="24"/>
-      <c r="M81" s="24"/>
-      <c r="N81" s="24"/>
-      <c r="O81" s="24"/>
-      <c r="P81" s="24"/>
-      <c r="Q81" s="24"/>
-      <c r="R81" s="24"/>
-      <c r="S81" s="24"/>
       <c r="T81" s="5"/>
     </row>
     <row r="82" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B82" s="4"/>
-      <c r="C82" s="24"/>
-      <c r="D82" s="24"/>
-      <c r="E82" s="24"/>
-      <c r="F82" s="24"/>
-      <c r="G82" s="24"/>
-      <c r="H82" s="24"/>
-      <c r="I82" s="24"/>
-      <c r="J82" s="24"/>
-      <c r="K82" s="24"/>
-      <c r="L82" s="24"/>
-      <c r="M82" s="24"/>
-      <c r="N82" s="24"/>
-      <c r="O82" s="24"/>
-      <c r="P82" s="24"/>
-      <c r="Q82" s="24"/>
-      <c r="R82" s="24"/>
-      <c r="S82" s="24"/>
       <c r="T82" s="5"/>
     </row>
     <row r="83" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B83" s="4"/>
-      <c r="C83" s="24"/>
-      <c r="D83" s="24"/>
-      <c r="E83" s="24"/>
-      <c r="F83" s="24"/>
-      <c r="G83" s="24"/>
-      <c r="H83" s="24"/>
-      <c r="I83" s="24"/>
-      <c r="J83" s="24"/>
-      <c r="K83" s="24"/>
-      <c r="L83" s="24"/>
-      <c r="M83" s="24"/>
-      <c r="N83" s="24"/>
-      <c r="O83" s="24"/>
-      <c r="P83" s="24"/>
-      <c r="Q83" s="24"/>
-      <c r="R83" s="24"/>
-      <c r="S83" s="24"/>
       <c r="T83" s="5"/>
     </row>
     <row r="84" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B84" s="4"/>
-      <c r="C84" s="24"/>
-      <c r="D84" s="24"/>
-      <c r="E84" s="24"/>
-      <c r="F84" s="24"/>
-      <c r="G84" s="24"/>
-      <c r="H84" s="24"/>
-      <c r="I84" s="24"/>
-      <c r="J84" s="24"/>
-      <c r="K84" s="24"/>
-      <c r="L84" s="24"/>
-      <c r="M84" s="24"/>
-      <c r="N84" s="24"/>
-      <c r="O84" s="24"/>
-      <c r="P84" s="24"/>
-      <c r="Q84" s="24"/>
-      <c r="R84" s="24"/>
-      <c r="S84" s="24"/>
       <c r="T84" s="5"/>
     </row>
     <row r="85" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B85" s="4"/>
-      <c r="C85" s="24"/>
-      <c r="D85" s="24"/>
-      <c r="E85" s="24"/>
-      <c r="F85" s="24"/>
-      <c r="G85" s="24"/>
-      <c r="H85" s="24"/>
-      <c r="I85" s="24"/>
-      <c r="J85" s="24"/>
-      <c r="K85" s="24"/>
-      <c r="L85" s="24"/>
-      <c r="M85" s="24"/>
-      <c r="N85" s="24"/>
-      <c r="O85" s="24"/>
-      <c r="P85" s="24"/>
-      <c r="Q85" s="24"/>
-      <c r="R85" s="24"/>
-      <c r="S85" s="24"/>
       <c r="T85" s="5"/>
     </row>
     <row r="86" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B86" s="4"/>
-      <c r="C86" s="24"/>
-      <c r="D86" s="24"/>
-      <c r="E86" s="24"/>
-      <c r="F86" s="24"/>
-      <c r="G86" s="24"/>
-      <c r="H86" s="24"/>
-      <c r="I86" s="24"/>
-      <c r="J86" s="24"/>
-      <c r="K86" s="24"/>
-      <c r="L86" s="24"/>
-      <c r="M86" s="24"/>
-      <c r="N86" s="24"/>
-      <c r="O86" s="24"/>
-      <c r="P86" s="24"/>
-      <c r="Q86" s="24"/>
-      <c r="R86" s="24"/>
-      <c r="S86" s="24"/>
       <c r="T86" s="5"/>
     </row>
     <row r="87" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B87" s="4"/>
-      <c r="C87" s="24"/>
-      <c r="D87" s="24"/>
-      <c r="E87" s="24"/>
-      <c r="F87" s="24"/>
-      <c r="G87" s="24"/>
-      <c r="H87" s="24"/>
-      <c r="I87" s="24"/>
-      <c r="J87" s="24"/>
-      <c r="K87" s="24"/>
-      <c r="L87" s="24"/>
-      <c r="M87" s="24"/>
-      <c r="N87" s="24"/>
-      <c r="O87" s="24"/>
-      <c r="P87" s="24"/>
-      <c r="Q87" s="24"/>
-      <c r="R87" s="24"/>
-      <c r="S87" s="24"/>
       <c r="T87" s="5"/>
     </row>
     <row r="88" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B88" s="4"/>
-      <c r="C88" s="24"/>
-      <c r="D88" s="24"/>
-      <c r="E88" s="24"/>
-      <c r="F88" s="24"/>
-      <c r="G88" s="24"/>
-      <c r="H88" s="24"/>
-      <c r="I88" s="24"/>
-      <c r="J88" s="24"/>
-      <c r="K88" s="24"/>
-      <c r="L88" s="24"/>
-      <c r="M88" s="24"/>
-      <c r="N88" s="24"/>
-      <c r="O88" s="24"/>
-      <c r="P88" s="24"/>
-      <c r="Q88" s="24"/>
-      <c r="R88" s="24"/>
-      <c r="S88" s="24"/>
       <c r="T88" s="5"/>
     </row>
     <row r="89" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B89" s="4"/>
-      <c r="C89" s="24"/>
-      <c r="D89" s="24"/>
-      <c r="E89" s="24"/>
-      <c r="F89" s="24"/>
-      <c r="G89" s="24"/>
-      <c r="H89" s="24"/>
-      <c r="I89" s="24"/>
-      <c r="J89" s="24"/>
-      <c r="K89" s="24"/>
-      <c r="L89" s="24"/>
-      <c r="M89" s="24"/>
-      <c r="N89" s="24"/>
-      <c r="O89" s="24"/>
-      <c r="P89" s="24"/>
-      <c r="Q89" s="24"/>
-      <c r="R89" s="24"/>
-      <c r="S89" s="24"/>
       <c r="T89" s="5"/>
     </row>
     <row r="90" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B90" s="4"/>
-      <c r="C90" s="24"/>
-      <c r="D90" s="24"/>
-      <c r="E90" s="24"/>
-      <c r="F90" s="24"/>
-      <c r="G90" s="24"/>
-      <c r="H90" s="24"/>
-      <c r="I90" s="24"/>
-      <c r="J90" s="24"/>
-      <c r="K90" s="24"/>
-      <c r="L90" s="24"/>
-      <c r="M90" s="24"/>
-      <c r="N90" s="24"/>
-      <c r="O90" s="24"/>
-      <c r="P90" s="24"/>
-      <c r="Q90" s="24"/>
-      <c r="R90" s="24"/>
-      <c r="S90" s="24"/>
       <c r="T90" s="5"/>
     </row>
     <row r="91" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B91" s="4"/>
-      <c r="C91" s="24"/>
-      <c r="D91" s="24"/>
-      <c r="E91" s="24"/>
-      <c r="F91" s="24"/>
-      <c r="G91" s="24"/>
-      <c r="H91" s="24"/>
-      <c r="I91" s="24"/>
-      <c r="J91" s="24"/>
-      <c r="K91" s="24"/>
-      <c r="L91" s="24"/>
-      <c r="M91" s="24"/>
-      <c r="N91" s="24"/>
-      <c r="O91" s="24"/>
-      <c r="P91" s="24"/>
-      <c r="Q91" s="24"/>
-      <c r="R91" s="24"/>
-      <c r="S91" s="24"/>
       <c r="T91" s="5"/>
     </row>
     <row r="92" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B92" s="4"/>
-      <c r="C92" s="24"/>
-      <c r="D92" s="24"/>
-      <c r="E92" s="24"/>
-      <c r="F92" s="24"/>
-      <c r="G92" s="24"/>
-      <c r="H92" s="24"/>
-      <c r="I92" s="24"/>
-      <c r="J92" s="24"/>
-      <c r="K92" s="24"/>
-      <c r="L92" s="24"/>
-      <c r="M92" s="24"/>
-      <c r="N92" s="24"/>
-      <c r="O92" s="24"/>
-      <c r="P92" s="24"/>
-      <c r="Q92" s="24"/>
-      <c r="R92" s="24"/>
-      <c r="S92" s="24"/>
       <c r="T92" s="5"/>
     </row>
     <row r="93" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B93" s="4"/>
-      <c r="C93" s="24"/>
-      <c r="D93" s="24"/>
-      <c r="E93" s="24"/>
-      <c r="F93" s="24"/>
-      <c r="G93" s="24"/>
-      <c r="H93" s="24"/>
-      <c r="I93" s="24"/>
-      <c r="J93" s="24"/>
-      <c r="K93" s="24"/>
-      <c r="L93" s="24"/>
-      <c r="M93" s="24"/>
-      <c r="N93" s="24"/>
-      <c r="O93" s="24"/>
-      <c r="P93" s="24"/>
-      <c r="Q93" s="24"/>
-      <c r="R93" s="24"/>
-      <c r="S93" s="24"/>
       <c r="T93" s="5"/>
     </row>
     <row r="94" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B94" s="4"/>
-      <c r="C94" s="24"/>
-      <c r="D94" s="24"/>
-      <c r="E94" s="24"/>
-      <c r="F94" s="24"/>
-      <c r="G94" s="24"/>
-      <c r="H94" s="24"/>
-      <c r="I94" s="24"/>
-      <c r="J94" s="24"/>
-      <c r="K94" s="24"/>
-      <c r="L94" s="24"/>
-      <c r="M94" s="24"/>
-      <c r="N94" s="24"/>
-      <c r="O94" s="24"/>
-      <c r="P94" s="24"/>
-      <c r="Q94" s="24"/>
-      <c r="R94" s="24"/>
-      <c r="S94" s="24"/>
       <c r="T94" s="5"/>
     </row>
     <row r="95" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B95" s="4"/>
-      <c r="C95" s="24"/>
-      <c r="D95" s="24"/>
-      <c r="E95" s="24"/>
-      <c r="F95" s="24"/>
-      <c r="G95" s="24"/>
-      <c r="H95" s="24"/>
-      <c r="I95" s="24"/>
-      <c r="J95" s="24"/>
-      <c r="K95" s="24"/>
-      <c r="L95" s="24"/>
-      <c r="M95" s="24"/>
-      <c r="N95" s="24"/>
-      <c r="O95" s="24"/>
-      <c r="P95" s="24"/>
-      <c r="Q95" s="24"/>
-      <c r="R95" s="24"/>
-      <c r="S95" s="24"/>
       <c r="T95" s="5"/>
     </row>
     <row r="96" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B96" s="4"/>
-      <c r="C96" s="24"/>
-      <c r="D96" s="24"/>
-      <c r="E96" s="24"/>
-      <c r="F96" s="24"/>
-      <c r="G96" s="24"/>
-      <c r="H96" s="24"/>
-      <c r="I96" s="24"/>
-      <c r="J96" s="24"/>
-      <c r="K96" s="24"/>
-      <c r="L96" s="24"/>
-      <c r="M96" s="24"/>
-      <c r="N96" s="24"/>
-      <c r="O96" s="24"/>
-      <c r="P96" s="24"/>
-      <c r="Q96" s="24"/>
-      <c r="R96" s="24"/>
-      <c r="S96" s="24"/>
       <c r="T96" s="5"/>
     </row>
     <row r="97" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B97" s="4"/>
-      <c r="C97" s="24"/>
-      <c r="D97" s="24"/>
-      <c r="E97" s="24"/>
-      <c r="F97" s="24"/>
-      <c r="G97" s="24"/>
-      <c r="H97" s="24"/>
-      <c r="I97" s="24"/>
-      <c r="J97" s="24"/>
-      <c r="K97" s="24"/>
-      <c r="L97" s="24"/>
-      <c r="M97" s="24"/>
-      <c r="N97" s="24"/>
-      <c r="O97" s="24"/>
-      <c r="P97" s="24"/>
-      <c r="Q97" s="24"/>
-      <c r="R97" s="24"/>
-      <c r="S97" s="24"/>
       <c r="T97" s="5"/>
     </row>
     <row r="98" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B98" s="4"/>
-      <c r="C98" s="24"/>
-      <c r="D98" s="24"/>
-      <c r="E98" s="24"/>
-      <c r="F98" s="24"/>
-      <c r="G98" s="24"/>
-      <c r="H98" s="24"/>
-      <c r="I98" s="24"/>
-      <c r="J98" s="24"/>
-      <c r="K98" s="24"/>
-      <c r="L98" s="24"/>
-      <c r="M98" s="24"/>
-      <c r="N98" s="24"/>
-      <c r="O98" s="24"/>
-      <c r="P98" s="24"/>
-      <c r="Q98" s="24"/>
-      <c r="R98" s="24"/>
-      <c r="S98" s="24"/>
       <c r="T98" s="5"/>
     </row>
     <row r="99" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B99" s="4"/>
-      <c r="C99" s="24"/>
-      <c r="D99" s="24"/>
-      <c r="E99" s="24"/>
-      <c r="F99" s="24"/>
-      <c r="G99" s="24"/>
-      <c r="H99" s="24"/>
-      <c r="I99" s="24"/>
-      <c r="J99" s="24"/>
-      <c r="K99" s="24"/>
-      <c r="L99" s="24"/>
-      <c r="M99" s="24"/>
-      <c r="N99" s="24"/>
-      <c r="O99" s="24"/>
-      <c r="P99" s="24"/>
-      <c r="Q99" s="24"/>
-      <c r="R99" s="24"/>
-      <c r="S99" s="24"/>
       <c r="T99" s="5"/>
     </row>
     <row r="100" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B100" s="4"/>
-      <c r="C100" s="24"/>
-      <c r="D100" s="24"/>
-      <c r="E100" s="24"/>
-      <c r="F100" s="24"/>
-      <c r="G100" s="24"/>
-      <c r="H100" s="24"/>
-      <c r="I100" s="24"/>
-      <c r="J100" s="24"/>
-      <c r="K100" s="24"/>
-      <c r="L100" s="24"/>
-      <c r="M100" s="24"/>
-      <c r="N100" s="24"/>
-      <c r="O100" s="24"/>
-      <c r="P100" s="24"/>
-      <c r="Q100" s="24"/>
-      <c r="R100" s="24"/>
-      <c r="S100" s="24"/>
       <c r="T100" s="5"/>
     </row>
     <row r="101" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B101" s="4"/>
-      <c r="C101" s="24"/>
-      <c r="D101" s="24"/>
-      <c r="E101" s="24"/>
-      <c r="F101" s="24"/>
-      <c r="G101" s="24"/>
-      <c r="H101" s="24"/>
-      <c r="I101" s="24"/>
-      <c r="J101" s="24"/>
-      <c r="K101" s="24"/>
-      <c r="L101" s="24"/>
-      <c r="M101" s="24"/>
-      <c r="N101" s="24"/>
-      <c r="O101" s="24"/>
-      <c r="P101" s="24"/>
-      <c r="Q101" s="24"/>
-      <c r="R101" s="24"/>
-      <c r="S101" s="24"/>
       <c r="T101" s="5"/>
     </row>
     <row r="102" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B102" s="4"/>
-      <c r="C102" s="24"/>
-      <c r="D102" s="24"/>
-      <c r="E102" s="24"/>
-      <c r="F102" s="24"/>
-      <c r="G102" s="24"/>
-      <c r="H102" s="24"/>
-      <c r="I102" s="24"/>
-      <c r="J102" s="24"/>
-      <c r="K102" s="24"/>
-      <c r="L102" s="24"/>
-      <c r="M102" s="24"/>
-      <c r="N102" s="24"/>
-      <c r="O102" s="24"/>
-      <c r="P102" s="24"/>
-      <c r="Q102" s="24"/>
-      <c r="R102" s="24"/>
-      <c r="S102" s="24"/>
       <c r="T102" s="5"/>
     </row>
     <row r="103" spans="2:20" x14ac:dyDescent="0.25">
@@ -6392,4 +5322,1343 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6F5C844-989B-4063-8984-7E05E0019EFA}">
+  <dimension ref="A3:T76"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="4"/>
+      <c r="C5" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="4"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="14"/>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="4"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="14"/>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="4"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="14"/>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="4"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" s="14"/>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="6"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="6"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="8"/>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B19" s="1"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B20" s="4"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="5"/>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B21" s="4"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="14"/>
+      <c r="T21" s="5"/>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B22" s="4"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="14"/>
+      <c r="S22" s="14"/>
+      <c r="T22" s="5"/>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B23" s="4"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="14"/>
+      <c r="T23" s="5"/>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B24" s="4"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="14"/>
+      <c r="T24" s="5"/>
+    </row>
+    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B25" s="4"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="14"/>
+      <c r="S25" s="14"/>
+      <c r="T25" s="5"/>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B26" s="4"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="14"/>
+      <c r="S26" s="14"/>
+      <c r="T26" s="5"/>
+    </row>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B27" s="4"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="14"/>
+      <c r="S27" s="14"/>
+      <c r="T27" s="5"/>
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B28" s="4"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
+      <c r="S28" s="14"/>
+      <c r="T28" s="5"/>
+    </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B29" s="4"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="14"/>
+      <c r="R29" s="14"/>
+      <c r="S29" s="14"/>
+      <c r="T29" s="5"/>
+    </row>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B30" s="4"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="14"/>
+      <c r="R30" s="14"/>
+      <c r="S30" s="14"/>
+      <c r="T30" s="5"/>
+    </row>
+    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B31" s="4"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="14"/>
+      <c r="Q31" s="14"/>
+      <c r="R31" s="14"/>
+      <c r="S31" s="14"/>
+      <c r="T31" s="5"/>
+    </row>
+    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B32" s="4"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="14"/>
+      <c r="P32" s="14"/>
+      <c r="Q32" s="14"/>
+      <c r="R32" s="14"/>
+      <c r="S32" s="14"/>
+      <c r="T32" s="5"/>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B33" s="4"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="14"/>
+      <c r="O33" s="14"/>
+      <c r="P33" s="14"/>
+      <c r="Q33" s="14"/>
+      <c r="R33" s="14"/>
+      <c r="S33" s="14"/>
+      <c r="T33" s="5"/>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B34" s="4"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="14"/>
+      <c r="O34" s="14"/>
+      <c r="P34" s="14"/>
+      <c r="Q34" s="14"/>
+      <c r="R34" s="14"/>
+      <c r="S34" s="14"/>
+      <c r="T34" s="5"/>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B35" s="4"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="14"/>
+      <c r="N35" s="14"/>
+      <c r="O35" s="14"/>
+      <c r="P35" s="14"/>
+      <c r="Q35" s="14"/>
+      <c r="R35" s="14"/>
+      <c r="S35" s="14"/>
+      <c r="T35" s="5"/>
+    </row>
+    <row r="36" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B36" s="4"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="14"/>
+      <c r="O36" s="14"/>
+      <c r="P36" s="14"/>
+      <c r="Q36" s="14"/>
+      <c r="R36" s="14"/>
+      <c r="S36" s="14"/>
+      <c r="T36" s="5"/>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B37" s="4"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="14"/>
+      <c r="N37" s="14"/>
+      <c r="O37" s="14"/>
+      <c r="P37" s="14"/>
+      <c r="Q37" s="14"/>
+      <c r="R37" s="14"/>
+      <c r="S37" s="14"/>
+      <c r="T37" s="5"/>
+    </row>
+    <row r="38" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B38" s="4"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="14"/>
+      <c r="P38" s="14"/>
+      <c r="Q38" s="14"/>
+      <c r="R38" s="14"/>
+      <c r="S38" s="14"/>
+      <c r="T38" s="5"/>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B39" s="4"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="14"/>
+      <c r="O39" s="14"/>
+      <c r="P39" s="14"/>
+      <c r="Q39" s="14"/>
+      <c r="R39" s="14"/>
+      <c r="S39" s="14"/>
+      <c r="T39" s="5"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B40" s="4"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="14"/>
+      <c r="N40" s="14"/>
+      <c r="O40" s="14"/>
+      <c r="P40" s="14"/>
+      <c r="Q40" s="14"/>
+      <c r="R40" s="14"/>
+      <c r="S40" s="14"/>
+      <c r="T40" s="5"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B41" s="4"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="14"/>
+      <c r="M41" s="14"/>
+      <c r="N41" s="14"/>
+      <c r="O41" s="14"/>
+      <c r="P41" s="14"/>
+      <c r="Q41" s="14"/>
+      <c r="R41" s="14"/>
+      <c r="S41" s="14"/>
+      <c r="T41" s="5"/>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B42" s="4"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="14"/>
+      <c r="N42" s="14"/>
+      <c r="O42" s="14"/>
+      <c r="P42" s="14"/>
+      <c r="Q42" s="14"/>
+      <c r="R42" s="14"/>
+      <c r="S42" s="14"/>
+      <c r="T42" s="5"/>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B43" s="4"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="14"/>
+      <c r="K43" s="14"/>
+      <c r="L43" s="14"/>
+      <c r="M43" s="14"/>
+      <c r="N43" s="14"/>
+      <c r="O43" s="14"/>
+      <c r="P43" s="14"/>
+      <c r="Q43" s="14"/>
+      <c r="R43" s="14"/>
+      <c r="S43" s="14"/>
+      <c r="T43" s="5"/>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B44" s="4"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="14"/>
+      <c r="K44" s="14"/>
+      <c r="L44" s="14"/>
+      <c r="M44" s="14"/>
+      <c r="N44" s="14"/>
+      <c r="O44" s="14"/>
+      <c r="P44" s="14"/>
+      <c r="Q44" s="14"/>
+      <c r="R44" s="14"/>
+      <c r="S44" s="14"/>
+      <c r="T44" s="5"/>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B45" s="4"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="14"/>
+      <c r="J45" s="14"/>
+      <c r="K45" s="14"/>
+      <c r="L45" s="14"/>
+      <c r="M45" s="14"/>
+      <c r="N45" s="14"/>
+      <c r="O45" s="14"/>
+      <c r="P45" s="14"/>
+      <c r="Q45" s="14"/>
+      <c r="R45" s="14"/>
+      <c r="S45" s="14"/>
+      <c r="T45" s="5"/>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B46" s="4"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="14"/>
+      <c r="J46" s="14"/>
+      <c r="K46" s="14"/>
+      <c r="L46" s="14"/>
+      <c r="M46" s="14"/>
+      <c r="N46" s="14"/>
+      <c r="O46" s="14"/>
+      <c r="P46" s="14"/>
+      <c r="Q46" s="14"/>
+      <c r="R46" s="14"/>
+      <c r="S46" s="14"/>
+      <c r="T46" s="5"/>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B47" s="4"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="14"/>
+      <c r="K47" s="14"/>
+      <c r="L47" s="14"/>
+      <c r="M47" s="14"/>
+      <c r="N47" s="14"/>
+      <c r="O47" s="14"/>
+      <c r="P47" s="14"/>
+      <c r="Q47" s="14"/>
+      <c r="R47" s="14"/>
+      <c r="S47" s="14"/>
+      <c r="T47" s="5"/>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B48" s="4"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="14"/>
+      <c r="J48" s="14"/>
+      <c r="K48" s="14"/>
+      <c r="L48" s="14"/>
+      <c r="M48" s="14"/>
+      <c r="N48" s="14"/>
+      <c r="O48" s="14"/>
+      <c r="P48" s="14"/>
+      <c r="Q48" s="14"/>
+      <c r="R48" s="14"/>
+      <c r="S48" s="14"/>
+      <c r="T48" s="5"/>
+    </row>
+    <row r="49" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B49" s="4"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="14"/>
+      <c r="J49" s="14"/>
+      <c r="K49" s="14"/>
+      <c r="L49" s="14"/>
+      <c r="M49" s="14"/>
+      <c r="N49" s="14"/>
+      <c r="O49" s="14"/>
+      <c r="P49" s="14"/>
+      <c r="Q49" s="14"/>
+      <c r="R49" s="14"/>
+      <c r="S49" s="14"/>
+      <c r="T49" s="5"/>
+    </row>
+    <row r="50" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B50" s="4"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="14"/>
+      <c r="J50" s="14"/>
+      <c r="K50" s="14"/>
+      <c r="L50" s="14"/>
+      <c r="M50" s="14"/>
+      <c r="N50" s="14"/>
+      <c r="O50" s="14"/>
+      <c r="P50" s="14"/>
+      <c r="Q50" s="14"/>
+      <c r="R50" s="14"/>
+      <c r="S50" s="14"/>
+      <c r="T50" s="5"/>
+    </row>
+    <row r="51" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B51" s="4"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="14"/>
+      <c r="J51" s="14"/>
+      <c r="K51" s="14"/>
+      <c r="L51" s="14"/>
+      <c r="M51" s="14"/>
+      <c r="N51" s="14"/>
+      <c r="O51" s="14"/>
+      <c r="P51" s="14"/>
+      <c r="Q51" s="14"/>
+      <c r="R51" s="14"/>
+      <c r="S51" s="14"/>
+      <c r="T51" s="5"/>
+    </row>
+    <row r="52" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B52" s="4"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="14"/>
+      <c r="H52" s="14"/>
+      <c r="I52" s="14"/>
+      <c r="J52" s="14"/>
+      <c r="K52" s="14"/>
+      <c r="L52" s="14"/>
+      <c r="M52" s="14"/>
+      <c r="N52" s="14"/>
+      <c r="O52" s="14"/>
+      <c r="P52" s="14"/>
+      <c r="Q52" s="14"/>
+      <c r="R52" s="14"/>
+      <c r="S52" s="14"/>
+      <c r="T52" s="5"/>
+    </row>
+    <row r="53" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B53" s="4"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="14"/>
+      <c r="J53" s="14"/>
+      <c r="K53" s="14"/>
+      <c r="L53" s="14"/>
+      <c r="M53" s="14"/>
+      <c r="N53" s="14"/>
+      <c r="O53" s="14"/>
+      <c r="P53" s="14"/>
+      <c r="Q53" s="14"/>
+      <c r="R53" s="14"/>
+      <c r="S53" s="14"/>
+      <c r="T53" s="5"/>
+    </row>
+    <row r="54" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B54" s="4"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="14"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="14"/>
+      <c r="J54" s="14"/>
+      <c r="K54" s="14"/>
+      <c r="L54" s="14"/>
+      <c r="M54" s="14"/>
+      <c r="N54" s="14"/>
+      <c r="O54" s="14"/>
+      <c r="P54" s="14"/>
+      <c r="Q54" s="14"/>
+      <c r="R54" s="14"/>
+      <c r="S54" s="14"/>
+      <c r="T54" s="5"/>
+    </row>
+    <row r="55" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B55" s="4"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="14"/>
+      <c r="H55" s="14"/>
+      <c r="I55" s="14"/>
+      <c r="J55" s="14"/>
+      <c r="K55" s="14"/>
+      <c r="L55" s="14"/>
+      <c r="M55" s="14"/>
+      <c r="N55" s="14"/>
+      <c r="O55" s="14"/>
+      <c r="P55" s="14"/>
+      <c r="Q55" s="14"/>
+      <c r="R55" s="14"/>
+      <c r="S55" s="14"/>
+      <c r="T55" s="5"/>
+    </row>
+    <row r="56" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B56" s="4"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="14"/>
+      <c r="H56" s="14"/>
+      <c r="I56" s="14"/>
+      <c r="J56" s="14"/>
+      <c r="K56" s="14"/>
+      <c r="L56" s="14"/>
+      <c r="M56" s="14"/>
+      <c r="N56" s="14"/>
+      <c r="O56" s="14"/>
+      <c r="P56" s="14"/>
+      <c r="Q56" s="14"/>
+      <c r="R56" s="14"/>
+      <c r="S56" s="14"/>
+      <c r="T56" s="5"/>
+    </row>
+    <row r="57" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B57" s="4"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="14"/>
+      <c r="H57" s="14"/>
+      <c r="I57" s="14"/>
+      <c r="J57" s="14"/>
+      <c r="K57" s="14"/>
+      <c r="L57" s="14"/>
+      <c r="M57" s="14"/>
+      <c r="N57" s="14"/>
+      <c r="O57" s="14"/>
+      <c r="P57" s="14"/>
+      <c r="Q57" s="14"/>
+      <c r="R57" s="14"/>
+      <c r="S57" s="14"/>
+      <c r="T57" s="5"/>
+    </row>
+    <row r="58" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B58" s="4"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
+      <c r="G58" s="14"/>
+      <c r="H58" s="14"/>
+      <c r="I58" s="14"/>
+      <c r="J58" s="14"/>
+      <c r="K58" s="14"/>
+      <c r="L58" s="14"/>
+      <c r="M58" s="14"/>
+      <c r="N58" s="14"/>
+      <c r="O58" s="14"/>
+      <c r="P58" s="14"/>
+      <c r="Q58" s="14"/>
+      <c r="R58" s="14"/>
+      <c r="S58" s="14"/>
+      <c r="T58" s="5"/>
+    </row>
+    <row r="59" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B59" s="4"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
+      <c r="G59" s="14"/>
+      <c r="H59" s="14"/>
+      <c r="I59" s="14"/>
+      <c r="J59" s="14"/>
+      <c r="K59" s="14"/>
+      <c r="L59" s="14"/>
+      <c r="M59" s="14"/>
+      <c r="N59" s="14"/>
+      <c r="O59" s="14"/>
+      <c r="P59" s="14"/>
+      <c r="Q59" s="14"/>
+      <c r="R59" s="14"/>
+      <c r="S59" s="14"/>
+      <c r="T59" s="5"/>
+    </row>
+    <row r="60" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B60" s="4"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+      <c r="G60" s="14"/>
+      <c r="H60" s="14"/>
+      <c r="I60" s="14"/>
+      <c r="J60" s="14"/>
+      <c r="K60" s="14"/>
+      <c r="L60" s="14"/>
+      <c r="M60" s="14"/>
+      <c r="N60" s="14"/>
+      <c r="O60" s="14"/>
+      <c r="P60" s="14"/>
+      <c r="Q60" s="14"/>
+      <c r="R60" s="14"/>
+      <c r="S60" s="14"/>
+      <c r="T60" s="5"/>
+    </row>
+    <row r="61" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B61" s="4"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+      <c r="G61" s="14"/>
+      <c r="H61" s="14"/>
+      <c r="I61" s="14"/>
+      <c r="J61" s="14"/>
+      <c r="K61" s="14"/>
+      <c r="L61" s="14"/>
+      <c r="M61" s="14"/>
+      <c r="N61" s="14"/>
+      <c r="O61" s="14"/>
+      <c r="P61" s="14"/>
+      <c r="Q61" s="14"/>
+      <c r="R61" s="14"/>
+      <c r="S61" s="14"/>
+      <c r="T61" s="5"/>
+    </row>
+    <row r="62" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B62" s="4"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+      <c r="G62" s="14"/>
+      <c r="H62" s="14"/>
+      <c r="I62" s="14"/>
+      <c r="J62" s="14"/>
+      <c r="K62" s="14"/>
+      <c r="L62" s="14"/>
+      <c r="M62" s="14"/>
+      <c r="N62" s="14"/>
+      <c r="O62" s="14"/>
+      <c r="P62" s="14"/>
+      <c r="Q62" s="14"/>
+      <c r="R62" s="14"/>
+      <c r="S62" s="14"/>
+      <c r="T62" s="5"/>
+    </row>
+    <row r="63" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B63" s="4"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c r="G63" s="14"/>
+      <c r="H63" s="14"/>
+      <c r="I63" s="14"/>
+      <c r="J63" s="14"/>
+      <c r="K63" s="14"/>
+      <c r="L63" s="14"/>
+      <c r="M63" s="14"/>
+      <c r="N63" s="14"/>
+      <c r="O63" s="14"/>
+      <c r="P63" s="14"/>
+      <c r="Q63" s="14"/>
+      <c r="R63" s="14"/>
+      <c r="S63" s="14"/>
+      <c r="T63" s="5"/>
+    </row>
+    <row r="64" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B64" s="4"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c r="G64" s="14"/>
+      <c r="H64" s="14"/>
+      <c r="I64" s="14"/>
+      <c r="J64" s="14"/>
+      <c r="K64" s="14"/>
+      <c r="L64" s="14"/>
+      <c r="M64" s="14"/>
+      <c r="N64" s="14"/>
+      <c r="O64" s="14"/>
+      <c r="P64" s="14"/>
+      <c r="Q64" s="14"/>
+      <c r="R64" s="14"/>
+      <c r="S64" s="14"/>
+      <c r="T64" s="5"/>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B65" s="4"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c r="G65" s="14"/>
+      <c r="H65" s="14"/>
+      <c r="I65" s="14"/>
+      <c r="J65" s="14"/>
+      <c r="K65" s="14"/>
+      <c r="L65" s="14"/>
+      <c r="M65" s="14"/>
+      <c r="N65" s="14"/>
+      <c r="O65" s="14"/>
+      <c r="P65" s="14"/>
+      <c r="Q65" s="14"/>
+      <c r="R65" s="14"/>
+      <c r="S65" s="14"/>
+      <c r="T65" s="5"/>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B66" s="4"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+      <c r="G66" s="14"/>
+      <c r="H66" s="14"/>
+      <c r="I66" s="14"/>
+      <c r="J66" s="14"/>
+      <c r="K66" s="14"/>
+      <c r="L66" s="14"/>
+      <c r="M66" s="14"/>
+      <c r="N66" s="14"/>
+      <c r="O66" s="14"/>
+      <c r="P66" s="14"/>
+      <c r="Q66" s="14"/>
+      <c r="R66" s="14"/>
+      <c r="S66" s="14"/>
+      <c r="T66" s="5"/>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B67" s="4"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+      <c r="G67" s="14"/>
+      <c r="H67" s="14"/>
+      <c r="I67" s="14"/>
+      <c r="J67" s="14"/>
+      <c r="K67" s="14"/>
+      <c r="L67" s="14"/>
+      <c r="M67" s="14"/>
+      <c r="N67" s="14"/>
+      <c r="O67" s="14"/>
+      <c r="P67" s="14"/>
+      <c r="Q67" s="14"/>
+      <c r="R67" s="14"/>
+      <c r="S67" s="14"/>
+      <c r="T67" s="5"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B68" s="4"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c r="G68" s="14"/>
+      <c r="H68" s="14"/>
+      <c r="I68" s="14"/>
+      <c r="J68" s="14"/>
+      <c r="K68" s="14"/>
+      <c r="L68" s="14"/>
+      <c r="M68" s="14"/>
+      <c r="N68" s="14"/>
+      <c r="O68" s="14"/>
+      <c r="P68" s="14"/>
+      <c r="Q68" s="14"/>
+      <c r="R68" s="14"/>
+      <c r="S68" s="14"/>
+      <c r="T68" s="5"/>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B69" s="4"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="14"/>
+      <c r="G69" s="14"/>
+      <c r="H69" s="14"/>
+      <c r="I69" s="14"/>
+      <c r="J69" s="14"/>
+      <c r="K69" s="14"/>
+      <c r="L69" s="14"/>
+      <c r="M69" s="14"/>
+      <c r="N69" s="14"/>
+      <c r="O69" s="14"/>
+      <c r="P69" s="14"/>
+      <c r="Q69" s="14"/>
+      <c r="R69" s="14"/>
+      <c r="S69" s="14"/>
+      <c r="T69" s="5"/>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B70" s="4"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c r="G70" s="14"/>
+      <c r="H70" s="14"/>
+      <c r="I70" s="14"/>
+      <c r="J70" s="14"/>
+      <c r="K70" s="14"/>
+      <c r="L70" s="14"/>
+      <c r="M70" s="14"/>
+      <c r="N70" s="14"/>
+      <c r="O70" s="14"/>
+      <c r="P70" s="14"/>
+      <c r="Q70" s="14"/>
+      <c r="R70" s="14"/>
+      <c r="S70" s="14"/>
+      <c r="T70" s="5"/>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B71" s="4"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+      <c r="G71" s="14"/>
+      <c r="H71" s="14"/>
+      <c r="I71" s="14"/>
+      <c r="J71" s="14"/>
+      <c r="K71" s="14"/>
+      <c r="L71" s="14"/>
+      <c r="M71" s="14"/>
+      <c r="N71" s="14"/>
+      <c r="O71" s="14"/>
+      <c r="P71" s="14"/>
+      <c r="Q71" s="14"/>
+      <c r="R71" s="14"/>
+      <c r="S71" s="14"/>
+      <c r="T71" s="5"/>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B72" s="4"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
+      <c r="G72" s="14"/>
+      <c r="H72" s="14"/>
+      <c r="I72" s="14"/>
+      <c r="J72" s="14"/>
+      <c r="K72" s="14"/>
+      <c r="L72" s="14"/>
+      <c r="M72" s="14"/>
+      <c r="N72" s="14"/>
+      <c r="O72" s="14"/>
+      <c r="P72" s="14"/>
+      <c r="Q72" s="14"/>
+      <c r="R72" s="14"/>
+      <c r="S72" s="14"/>
+      <c r="T72" s="5"/>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B73" s="4"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="14"/>
+      <c r="G73" s="14"/>
+      <c r="H73" s="14"/>
+      <c r="I73" s="14"/>
+      <c r="J73" s="14"/>
+      <c r="K73" s="14"/>
+      <c r="L73" s="14"/>
+      <c r="M73" s="14"/>
+      <c r="N73" s="14"/>
+      <c r="O73" s="14"/>
+      <c r="P73" s="14"/>
+      <c r="Q73" s="14"/>
+      <c r="R73" s="14"/>
+      <c r="S73" s="14"/>
+      <c r="T73" s="5"/>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B74" s="4"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="14"/>
+      <c r="F74" s="14"/>
+      <c r="G74" s="14"/>
+      <c r="H74" s="14"/>
+      <c r="I74" s="14"/>
+      <c r="J74" s="14"/>
+      <c r="K74" s="14"/>
+      <c r="L74" s="14"/>
+      <c r="M74" s="14"/>
+      <c r="N74" s="14"/>
+      <c r="O74" s="14"/>
+      <c r="P74" s="14"/>
+      <c r="Q74" s="14"/>
+      <c r="R74" s="14"/>
+      <c r="S74" s="14"/>
+      <c r="T74" s="5"/>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B75" s="4"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="14"/>
+      <c r="F75" s="14"/>
+      <c r="G75" s="14"/>
+      <c r="H75" s="14"/>
+      <c r="I75" s="14"/>
+      <c r="J75" s="14"/>
+      <c r="K75" s="14"/>
+      <c r="L75" s="14"/>
+      <c r="M75" s="14"/>
+      <c r="N75" s="14"/>
+      <c r="O75" s="14"/>
+      <c r="P75" s="14"/>
+      <c r="Q75" s="14"/>
+      <c r="R75" s="14"/>
+      <c r="S75" s="14"/>
+      <c r="T75" s="5"/>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B76" s="6"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="7"/>
+      <c r="I76" s="7"/>
+      <c r="J76" s="7"/>
+      <c r="K76" s="7"/>
+      <c r="L76" s="7"/>
+      <c r="M76" s="7"/>
+      <c r="N76" s="7"/>
+      <c r="O76" s="7"/>
+      <c r="P76" s="7"/>
+      <c r="Q76" s="7"/>
+      <c r="R76" s="7"/>
+      <c r="S76" s="7"/>
+      <c r="T76" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me/2.Apex-Fundamentals.xlsx
+++ b/me/2.Apex-Fundamentals.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\salesforce\me\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DDFEA3D-3069-4FA7-BA1F-C69CAB557A5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{123926AF-2D6F-4BFE-B277-BDBC178B353E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hello World" sheetId="1" r:id="rId1"/>
     <sheet name="Primitive Data Types" sheetId="2" r:id="rId2"/>
     <sheet name="String Class Methods" sheetId="3" r:id="rId3"/>
     <sheet name="Escape Character" sheetId="4" r:id="rId4"/>
+    <sheet name="Adding Comments" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="91">
   <si>
     <t>Mở Developer Console trên tab mới</t>
   </si>
@@ -334,6 +335,60 @@
   </si>
   <si>
     <t>System.debug(str);</t>
+  </si>
+  <si>
+    <t>5.adding-comments.txt</t>
+  </si>
+  <si>
+    <t>salesforce\2.Apex-Fundamentals\5.adding-comments.txt</t>
+  </si>
+  <si>
+    <t>/* Adding multi-line comment</t>
+  </si>
+  <si>
+    <t>Long worldPopulation = 7000000000L;</t>
+  </si>
+  <si>
+    <t>Time currentTime = Time.newInstance(3, 25, 0, 0);</t>
+  </si>
+  <si>
+    <t>// get current date and time</t>
+  </si>
+  <si>
+    <t>*/</t>
+  </si>
+  <si>
+    <t>//adding single line comment</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Comment 1 dòng: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>//</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Comment nhiều dòng: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/* */</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -462,7 +517,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -483,9 +538,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2216,6 +2279,152 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>129181</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5DD8278-D4EC-A777-8160-B86F9459995F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="666750" y="8820150"/>
+          <a:ext cx="11382375" cy="5215531"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>112826</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68801B13-3A4B-1FD8-C9E0-828780BA06AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="695325" y="14239875"/>
+          <a:ext cx="11372850" cy="4922951"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1C2983F-672B-98B1-939C-3107B6467915}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2352675" y="15849600"/>
+          <a:ext cx="457200" cy="2247900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5328,8 +5537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6F5C844-989B-4063-8984-7E05E0019EFA}">
   <dimension ref="A3:T76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5350,47 +5559,37 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" s="4"/>
-      <c r="C5" s="14" t="s">
+      <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" s="4"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14" t="s">
+      <c r="D6" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="14"/>
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="4"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14" t="s">
+      <c r="D7" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="14"/>
       <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="4"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="16" t="s">
+      <c r="D8" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="14"/>
       <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="E9" s="14"/>
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -5421,12 +5620,6 @@
       <c r="B15" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
       <c r="I15" s="5"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -5462,1178 +5655,226 @@
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B20" s="4"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="14"/>
-      <c r="S20" s="14"/>
       <c r="T20" s="5"/>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B21" s="4"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="14"/>
-      <c r="S21" s="14"/>
       <c r="T21" s="5"/>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B22" s="4"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="14"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="14"/>
-      <c r="Q22" s="14"/>
-      <c r="R22" s="14"/>
-      <c r="S22" s="14"/>
       <c r="T22" s="5"/>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B23" s="4"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="14"/>
-      <c r="P23" s="14"/>
-      <c r="Q23" s="14"/>
-      <c r="R23" s="14"/>
-      <c r="S23" s="14"/>
       <c r="T23" s="5"/>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B24" s="4"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="14"/>
-      <c r="O24" s="14"/>
-      <c r="P24" s="14"/>
-      <c r="Q24" s="14"/>
-      <c r="R24" s="14"/>
-      <c r="S24" s="14"/>
       <c r="T24" s="5"/>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B25" s="4"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="14"/>
-      <c r="O25" s="14"/>
-      <c r="P25" s="14"/>
-      <c r="Q25" s="14"/>
-      <c r="R25" s="14"/>
-      <c r="S25" s="14"/>
       <c r="T25" s="5"/>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B26" s="4"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="14"/>
-      <c r="O26" s="14"/>
-      <c r="P26" s="14"/>
-      <c r="Q26" s="14"/>
-      <c r="R26" s="14"/>
-      <c r="S26" s="14"/>
       <c r="T26" s="5"/>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B27" s="4"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="14"/>
-      <c r="N27" s="14"/>
-      <c r="O27" s="14"/>
-      <c r="P27" s="14"/>
-      <c r="Q27" s="14"/>
-      <c r="R27" s="14"/>
-      <c r="S27" s="14"/>
       <c r="T27" s="5"/>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B28" s="4"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="14"/>
-      <c r="N28" s="14"/>
-      <c r="O28" s="14"/>
-      <c r="P28" s="14"/>
-      <c r="Q28" s="14"/>
-      <c r="R28" s="14"/>
-      <c r="S28" s="14"/>
       <c r="T28" s="5"/>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B29" s="4"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="14"/>
-      <c r="N29" s="14"/>
-      <c r="O29" s="14"/>
-      <c r="P29" s="14"/>
-      <c r="Q29" s="14"/>
-      <c r="R29" s="14"/>
-      <c r="S29" s="14"/>
       <c r="T29" s="5"/>
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B30" s="4"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="14"/>
-      <c r="M30" s="14"/>
-      <c r="N30" s="14"/>
-      <c r="O30" s="14"/>
-      <c r="P30" s="14"/>
-      <c r="Q30" s="14"/>
-      <c r="R30" s="14"/>
-      <c r="S30" s="14"/>
       <c r="T30" s="5"/>
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B31" s="4"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="14"/>
-      <c r="N31" s="14"/>
-      <c r="O31" s="14"/>
-      <c r="P31" s="14"/>
-      <c r="Q31" s="14"/>
-      <c r="R31" s="14"/>
-      <c r="S31" s="14"/>
       <c r="T31" s="5"/>
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B32" s="4"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="14"/>
-      <c r="N32" s="14"/>
-      <c r="O32" s="14"/>
-      <c r="P32" s="14"/>
-      <c r="Q32" s="14"/>
-      <c r="R32" s="14"/>
-      <c r="S32" s="14"/>
       <c r="T32" s="5"/>
     </row>
     <row r="33" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B33" s="4"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="14"/>
-      <c r="L33" s="14"/>
-      <c r="M33" s="14"/>
-      <c r="N33" s="14"/>
-      <c r="O33" s="14"/>
-      <c r="P33" s="14"/>
-      <c r="Q33" s="14"/>
-      <c r="R33" s="14"/>
-      <c r="S33" s="14"/>
       <c r="T33" s="5"/>
     </row>
     <row r="34" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B34" s="4"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="14"/>
-      <c r="L34" s="14"/>
-      <c r="M34" s="14"/>
-      <c r="N34" s="14"/>
-      <c r="O34" s="14"/>
-      <c r="P34" s="14"/>
-      <c r="Q34" s="14"/>
-      <c r="R34" s="14"/>
-      <c r="S34" s="14"/>
       <c r="T34" s="5"/>
     </row>
     <row r="35" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B35" s="4"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="14"/>
-      <c r="K35" s="14"/>
-      <c r="L35" s="14"/>
-      <c r="M35" s="14"/>
-      <c r="N35" s="14"/>
-      <c r="O35" s="14"/>
-      <c r="P35" s="14"/>
-      <c r="Q35" s="14"/>
-      <c r="R35" s="14"/>
-      <c r="S35" s="14"/>
       <c r="T35" s="5"/>
     </row>
     <row r="36" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B36" s="4"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="14"/>
-      <c r="K36" s="14"/>
-      <c r="L36" s="14"/>
-      <c r="M36" s="14"/>
-      <c r="N36" s="14"/>
-      <c r="O36" s="14"/>
-      <c r="P36" s="14"/>
-      <c r="Q36" s="14"/>
-      <c r="R36" s="14"/>
-      <c r="S36" s="14"/>
       <c r="T36" s="5"/>
     </row>
     <row r="37" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B37" s="4"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="14"/>
-      <c r="K37" s="14"/>
-      <c r="L37" s="14"/>
-      <c r="M37" s="14"/>
-      <c r="N37" s="14"/>
-      <c r="O37" s="14"/>
-      <c r="P37" s="14"/>
-      <c r="Q37" s="14"/>
-      <c r="R37" s="14"/>
-      <c r="S37" s="14"/>
       <c r="T37" s="5"/>
     </row>
     <row r="38" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B38" s="4"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="14"/>
-      <c r="K38" s="14"/>
-      <c r="L38" s="14"/>
-      <c r="M38" s="14"/>
-      <c r="N38" s="14"/>
-      <c r="O38" s="14"/>
-      <c r="P38" s="14"/>
-      <c r="Q38" s="14"/>
-      <c r="R38" s="14"/>
-      <c r="S38" s="14"/>
       <c r="T38" s="5"/>
     </row>
     <row r="39" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B39" s="4"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="14"/>
-      <c r="J39" s="14"/>
-      <c r="K39" s="14"/>
-      <c r="L39" s="14"/>
-      <c r="M39" s="14"/>
-      <c r="N39" s="14"/>
-      <c r="O39" s="14"/>
-      <c r="P39" s="14"/>
-      <c r="Q39" s="14"/>
-      <c r="R39" s="14"/>
-      <c r="S39" s="14"/>
       <c r="T39" s="5"/>
     </row>
     <row r="40" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B40" s="4"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="14"/>
-      <c r="K40" s="14"/>
-      <c r="L40" s="14"/>
-      <c r="M40" s="14"/>
-      <c r="N40" s="14"/>
-      <c r="O40" s="14"/>
-      <c r="P40" s="14"/>
-      <c r="Q40" s="14"/>
-      <c r="R40" s="14"/>
-      <c r="S40" s="14"/>
       <c r="T40" s="5"/>
     </row>
     <row r="41" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B41" s="4"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="14"/>
-      <c r="J41" s="14"/>
-      <c r="K41" s="14"/>
-      <c r="L41" s="14"/>
-      <c r="M41" s="14"/>
-      <c r="N41" s="14"/>
-      <c r="O41" s="14"/>
-      <c r="P41" s="14"/>
-      <c r="Q41" s="14"/>
-      <c r="R41" s="14"/>
-      <c r="S41" s="14"/>
       <c r="T41" s="5"/>
     </row>
     <row r="42" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B42" s="4"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
-      <c r="H42" s="14"/>
-      <c r="I42" s="14"/>
-      <c r="J42" s="14"/>
-      <c r="K42" s="14"/>
-      <c r="L42" s="14"/>
-      <c r="M42" s="14"/>
-      <c r="N42" s="14"/>
-      <c r="O42" s="14"/>
-      <c r="P42" s="14"/>
-      <c r="Q42" s="14"/>
-      <c r="R42" s="14"/>
-      <c r="S42" s="14"/>
       <c r="T42" s="5"/>
     </row>
     <row r="43" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B43" s="4"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="14"/>
-      <c r="J43" s="14"/>
-      <c r="K43" s="14"/>
-      <c r="L43" s="14"/>
-      <c r="M43" s="14"/>
-      <c r="N43" s="14"/>
-      <c r="O43" s="14"/>
-      <c r="P43" s="14"/>
-      <c r="Q43" s="14"/>
-      <c r="R43" s="14"/>
-      <c r="S43" s="14"/>
       <c r="T43" s="5"/>
     </row>
     <row r="44" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B44" s="4"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14"/>
-      <c r="H44" s="14"/>
-      <c r="I44" s="14"/>
-      <c r="J44" s="14"/>
-      <c r="K44" s="14"/>
-      <c r="L44" s="14"/>
-      <c r="M44" s="14"/>
-      <c r="N44" s="14"/>
-      <c r="O44" s="14"/>
-      <c r="P44" s="14"/>
-      <c r="Q44" s="14"/>
-      <c r="R44" s="14"/>
-      <c r="S44" s="14"/>
       <c r="T44" s="5"/>
     </row>
     <row r="45" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B45" s="4"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="14"/>
-      <c r="H45" s="14"/>
-      <c r="I45" s="14"/>
-      <c r="J45" s="14"/>
-      <c r="K45" s="14"/>
-      <c r="L45" s="14"/>
-      <c r="M45" s="14"/>
-      <c r="N45" s="14"/>
-      <c r="O45" s="14"/>
-      <c r="P45" s="14"/>
-      <c r="Q45" s="14"/>
-      <c r="R45" s="14"/>
-      <c r="S45" s="14"/>
       <c r="T45" s="5"/>
     </row>
     <row r="46" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B46" s="4"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="14"/>
-      <c r="H46" s="14"/>
-      <c r="I46" s="14"/>
-      <c r="J46" s="14"/>
-      <c r="K46" s="14"/>
-      <c r="L46" s="14"/>
-      <c r="M46" s="14"/>
-      <c r="N46" s="14"/>
-      <c r="O46" s="14"/>
-      <c r="P46" s="14"/>
-      <c r="Q46" s="14"/>
-      <c r="R46" s="14"/>
-      <c r="S46" s="14"/>
       <c r="T46" s="5"/>
     </row>
     <row r="47" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B47" s="4"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="14"/>
-      <c r="H47" s="14"/>
-      <c r="I47" s="14"/>
-      <c r="J47" s="14"/>
-      <c r="K47" s="14"/>
-      <c r="L47" s="14"/>
-      <c r="M47" s="14"/>
-      <c r="N47" s="14"/>
-      <c r="O47" s="14"/>
-      <c r="P47" s="14"/>
-      <c r="Q47" s="14"/>
-      <c r="R47" s="14"/>
-      <c r="S47" s="14"/>
       <c r="T47" s="5"/>
     </row>
     <row r="48" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B48" s="4"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="14"/>
-      <c r="H48" s="14"/>
-      <c r="I48" s="14"/>
-      <c r="J48" s="14"/>
-      <c r="K48" s="14"/>
-      <c r="L48" s="14"/>
-      <c r="M48" s="14"/>
-      <c r="N48" s="14"/>
-      <c r="O48" s="14"/>
-      <c r="P48" s="14"/>
-      <c r="Q48" s="14"/>
-      <c r="R48" s="14"/>
-      <c r="S48" s="14"/>
       <c r="T48" s="5"/>
     </row>
     <row r="49" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B49" s="4"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
-      <c r="H49" s="14"/>
-      <c r="I49" s="14"/>
-      <c r="J49" s="14"/>
-      <c r="K49" s="14"/>
-      <c r="L49" s="14"/>
-      <c r="M49" s="14"/>
-      <c r="N49" s="14"/>
-      <c r="O49" s="14"/>
-      <c r="P49" s="14"/>
-      <c r="Q49" s="14"/>
-      <c r="R49" s="14"/>
-      <c r="S49" s="14"/>
       <c r="T49" s="5"/>
     </row>
     <row r="50" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B50" s="4"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
-      <c r="H50" s="14"/>
-      <c r="I50" s="14"/>
-      <c r="J50" s="14"/>
-      <c r="K50" s="14"/>
-      <c r="L50" s="14"/>
-      <c r="M50" s="14"/>
-      <c r="N50" s="14"/>
-      <c r="O50" s="14"/>
-      <c r="P50" s="14"/>
-      <c r="Q50" s="14"/>
-      <c r="R50" s="14"/>
-      <c r="S50" s="14"/>
       <c r="T50" s="5"/>
     </row>
     <row r="51" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B51" s="4"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c r="G51" s="14"/>
-      <c r="H51" s="14"/>
-      <c r="I51" s="14"/>
-      <c r="J51" s="14"/>
-      <c r="K51" s="14"/>
-      <c r="L51" s="14"/>
-      <c r="M51" s="14"/>
-      <c r="N51" s="14"/>
-      <c r="O51" s="14"/>
-      <c r="P51" s="14"/>
-      <c r="Q51" s="14"/>
-      <c r="R51" s="14"/>
-      <c r="S51" s="14"/>
       <c r="T51" s="5"/>
     </row>
     <row r="52" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B52" s="4"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="14"/>
-      <c r="H52" s="14"/>
-      <c r="I52" s="14"/>
-      <c r="J52" s="14"/>
-      <c r="K52" s="14"/>
-      <c r="L52" s="14"/>
-      <c r="M52" s="14"/>
-      <c r="N52" s="14"/>
-      <c r="O52" s="14"/>
-      <c r="P52" s="14"/>
-      <c r="Q52" s="14"/>
-      <c r="R52" s="14"/>
-      <c r="S52" s="14"/>
       <c r="T52" s="5"/>
     </row>
     <row r="53" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B53" s="4"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="14"/>
-      <c r="H53" s="14"/>
-      <c r="I53" s="14"/>
-      <c r="J53" s="14"/>
-      <c r="K53" s="14"/>
-      <c r="L53" s="14"/>
-      <c r="M53" s="14"/>
-      <c r="N53" s="14"/>
-      <c r="O53" s="14"/>
-      <c r="P53" s="14"/>
-      <c r="Q53" s="14"/>
-      <c r="R53" s="14"/>
-      <c r="S53" s="14"/>
       <c r="T53" s="5"/>
     </row>
     <row r="54" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B54" s="4"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="14"/>
-      <c r="H54" s="14"/>
-      <c r="I54" s="14"/>
-      <c r="J54" s="14"/>
-      <c r="K54" s="14"/>
-      <c r="L54" s="14"/>
-      <c r="M54" s="14"/>
-      <c r="N54" s="14"/>
-      <c r="O54" s="14"/>
-      <c r="P54" s="14"/>
-      <c r="Q54" s="14"/>
-      <c r="R54" s="14"/>
-      <c r="S54" s="14"/>
       <c r="T54" s="5"/>
     </row>
     <row r="55" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B55" s="4"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c r="G55" s="14"/>
-      <c r="H55" s="14"/>
-      <c r="I55" s="14"/>
-      <c r="J55" s="14"/>
-      <c r="K55" s="14"/>
-      <c r="L55" s="14"/>
-      <c r="M55" s="14"/>
-      <c r="N55" s="14"/>
-      <c r="O55" s="14"/>
-      <c r="P55" s="14"/>
-      <c r="Q55" s="14"/>
-      <c r="R55" s="14"/>
-      <c r="S55" s="14"/>
       <c r="T55" s="5"/>
     </row>
     <row r="56" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B56" s="4"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c r="G56" s="14"/>
-      <c r="H56" s="14"/>
-      <c r="I56" s="14"/>
-      <c r="J56" s="14"/>
-      <c r="K56" s="14"/>
-      <c r="L56" s="14"/>
-      <c r="M56" s="14"/>
-      <c r="N56" s="14"/>
-      <c r="O56" s="14"/>
-      <c r="P56" s="14"/>
-      <c r="Q56" s="14"/>
-      <c r="R56" s="14"/>
-      <c r="S56" s="14"/>
       <c r="T56" s="5"/>
     </row>
     <row r="57" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B57" s="4"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c r="G57" s="14"/>
-      <c r="H57" s="14"/>
-      <c r="I57" s="14"/>
-      <c r="J57" s="14"/>
-      <c r="K57" s="14"/>
-      <c r="L57" s="14"/>
-      <c r="M57" s="14"/>
-      <c r="N57" s="14"/>
-      <c r="O57" s="14"/>
-      <c r="P57" s="14"/>
-      <c r="Q57" s="14"/>
-      <c r="R57" s="14"/>
-      <c r="S57" s="14"/>
       <c r="T57" s="5"/>
     </row>
     <row r="58" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B58" s="4"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
-      <c r="G58" s="14"/>
-      <c r="H58" s="14"/>
-      <c r="I58" s="14"/>
-      <c r="J58" s="14"/>
-      <c r="K58" s="14"/>
-      <c r="L58" s="14"/>
-      <c r="M58" s="14"/>
-      <c r="N58" s="14"/>
-      <c r="O58" s="14"/>
-      <c r="P58" s="14"/>
-      <c r="Q58" s="14"/>
-      <c r="R58" s="14"/>
-      <c r="S58" s="14"/>
       <c r="T58" s="5"/>
     </row>
     <row r="59" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B59" s="4"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-      <c r="G59" s="14"/>
-      <c r="H59" s="14"/>
-      <c r="I59" s="14"/>
-      <c r="J59" s="14"/>
-      <c r="K59" s="14"/>
-      <c r="L59" s="14"/>
-      <c r="M59" s="14"/>
-      <c r="N59" s="14"/>
-      <c r="O59" s="14"/>
-      <c r="P59" s="14"/>
-      <c r="Q59" s="14"/>
-      <c r="R59" s="14"/>
-      <c r="S59" s="14"/>
       <c r="T59" s="5"/>
     </row>
     <row r="60" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B60" s="4"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
-      <c r="G60" s="14"/>
-      <c r="H60" s="14"/>
-      <c r="I60" s="14"/>
-      <c r="J60" s="14"/>
-      <c r="K60" s="14"/>
-      <c r="L60" s="14"/>
-      <c r="M60" s="14"/>
-      <c r="N60" s="14"/>
-      <c r="O60" s="14"/>
-      <c r="P60" s="14"/>
-      <c r="Q60" s="14"/>
-      <c r="R60" s="14"/>
-      <c r="S60" s="14"/>
       <c r="T60" s="5"/>
     </row>
     <row r="61" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B61" s="4"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
-      <c r="G61" s="14"/>
-      <c r="H61" s="14"/>
-      <c r="I61" s="14"/>
-      <c r="J61" s="14"/>
-      <c r="K61" s="14"/>
-      <c r="L61" s="14"/>
-      <c r="M61" s="14"/>
-      <c r="N61" s="14"/>
-      <c r="O61" s="14"/>
-      <c r="P61" s="14"/>
-      <c r="Q61" s="14"/>
-      <c r="R61" s="14"/>
-      <c r="S61" s="14"/>
       <c r="T61" s="5"/>
     </row>
     <row r="62" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B62" s="4"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
-      <c r="G62" s="14"/>
-      <c r="H62" s="14"/>
-      <c r="I62" s="14"/>
-      <c r="J62" s="14"/>
-      <c r="K62" s="14"/>
-      <c r="L62" s="14"/>
-      <c r="M62" s="14"/>
-      <c r="N62" s="14"/>
-      <c r="O62" s="14"/>
-      <c r="P62" s="14"/>
-      <c r="Q62" s="14"/>
-      <c r="R62" s="14"/>
-      <c r="S62" s="14"/>
       <c r="T62" s="5"/>
     </row>
     <row r="63" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B63" s="4"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-      <c r="G63" s="14"/>
-      <c r="H63" s="14"/>
-      <c r="I63" s="14"/>
-      <c r="J63" s="14"/>
-      <c r="K63" s="14"/>
-      <c r="L63" s="14"/>
-      <c r="M63" s="14"/>
-      <c r="N63" s="14"/>
-      <c r="O63" s="14"/>
-      <c r="P63" s="14"/>
-      <c r="Q63" s="14"/>
-      <c r="R63" s="14"/>
-      <c r="S63" s="14"/>
       <c r="T63" s="5"/>
     </row>
     <row r="64" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B64" s="4"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-      <c r="G64" s="14"/>
-      <c r="H64" s="14"/>
-      <c r="I64" s="14"/>
-      <c r="J64" s="14"/>
-      <c r="K64" s="14"/>
-      <c r="L64" s="14"/>
-      <c r="M64" s="14"/>
-      <c r="N64" s="14"/>
-      <c r="O64" s="14"/>
-      <c r="P64" s="14"/>
-      <c r="Q64" s="14"/>
-      <c r="R64" s="14"/>
-      <c r="S64" s="14"/>
       <c r="T64" s="5"/>
     </row>
     <row r="65" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B65" s="4"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
-      <c r="G65" s="14"/>
-      <c r="H65" s="14"/>
-      <c r="I65" s="14"/>
-      <c r="J65" s="14"/>
-      <c r="K65" s="14"/>
-      <c r="L65" s="14"/>
-      <c r="M65" s="14"/>
-      <c r="N65" s="14"/>
-      <c r="O65" s="14"/>
-      <c r="P65" s="14"/>
-      <c r="Q65" s="14"/>
-      <c r="R65" s="14"/>
-      <c r="S65" s="14"/>
       <c r="T65" s="5"/>
     </row>
     <row r="66" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B66" s="4"/>
-      <c r="C66" s="14"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
-      <c r="G66" s="14"/>
-      <c r="H66" s="14"/>
-      <c r="I66" s="14"/>
-      <c r="J66" s="14"/>
-      <c r="K66" s="14"/>
-      <c r="L66" s="14"/>
-      <c r="M66" s="14"/>
-      <c r="N66" s="14"/>
-      <c r="O66" s="14"/>
-      <c r="P66" s="14"/>
-      <c r="Q66" s="14"/>
-      <c r="R66" s="14"/>
-      <c r="S66" s="14"/>
       <c r="T66" s="5"/>
     </row>
     <row r="67" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B67" s="4"/>
-      <c r="C67" s="14"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
-      <c r="G67" s="14"/>
-      <c r="H67" s="14"/>
-      <c r="I67" s="14"/>
-      <c r="J67" s="14"/>
-      <c r="K67" s="14"/>
-      <c r="L67" s="14"/>
-      <c r="M67" s="14"/>
-      <c r="N67" s="14"/>
-      <c r="O67" s="14"/>
-      <c r="P67" s="14"/>
-      <c r="Q67" s="14"/>
-      <c r="R67" s="14"/>
-      <c r="S67" s="14"/>
       <c r="T67" s="5"/>
     </row>
     <row r="68" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B68" s="4"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
-      <c r="G68" s="14"/>
-      <c r="H68" s="14"/>
-      <c r="I68" s="14"/>
-      <c r="J68" s="14"/>
-      <c r="K68" s="14"/>
-      <c r="L68" s="14"/>
-      <c r="M68" s="14"/>
-      <c r="N68" s="14"/>
-      <c r="O68" s="14"/>
-      <c r="P68" s="14"/>
-      <c r="Q68" s="14"/>
-      <c r="R68" s="14"/>
-      <c r="S68" s="14"/>
       <c r="T68" s="5"/>
     </row>
     <row r="69" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B69" s="4"/>
-      <c r="C69" s="14"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14"/>
-      <c r="G69" s="14"/>
-      <c r="H69" s="14"/>
-      <c r="I69" s="14"/>
-      <c r="J69" s="14"/>
-      <c r="K69" s="14"/>
-      <c r="L69" s="14"/>
-      <c r="M69" s="14"/>
-      <c r="N69" s="14"/>
-      <c r="O69" s="14"/>
-      <c r="P69" s="14"/>
-      <c r="Q69" s="14"/>
-      <c r="R69" s="14"/>
-      <c r="S69" s="14"/>
       <c r="T69" s="5"/>
     </row>
     <row r="70" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B70" s="4"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
-      <c r="G70" s="14"/>
-      <c r="H70" s="14"/>
-      <c r="I70" s="14"/>
-      <c r="J70" s="14"/>
-      <c r="K70" s="14"/>
-      <c r="L70" s="14"/>
-      <c r="M70" s="14"/>
-      <c r="N70" s="14"/>
-      <c r="O70" s="14"/>
-      <c r="P70" s="14"/>
-      <c r="Q70" s="14"/>
-      <c r="R70" s="14"/>
-      <c r="S70" s="14"/>
       <c r="T70" s="5"/>
     </row>
     <row r="71" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B71" s="4"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
-      <c r="G71" s="14"/>
-      <c r="H71" s="14"/>
-      <c r="I71" s="14"/>
-      <c r="J71" s="14"/>
-      <c r="K71" s="14"/>
-      <c r="L71" s="14"/>
-      <c r="M71" s="14"/>
-      <c r="N71" s="14"/>
-      <c r="O71" s="14"/>
-      <c r="P71" s="14"/>
-      <c r="Q71" s="14"/>
-      <c r="R71" s="14"/>
-      <c r="S71" s="14"/>
       <c r="T71" s="5"/>
     </row>
     <row r="72" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B72" s="4"/>
-      <c r="C72" s="14"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14"/>
-      <c r="G72" s="14"/>
-      <c r="H72" s="14"/>
-      <c r="I72" s="14"/>
-      <c r="J72" s="14"/>
-      <c r="K72" s="14"/>
-      <c r="L72" s="14"/>
-      <c r="M72" s="14"/>
-      <c r="N72" s="14"/>
-      <c r="O72" s="14"/>
-      <c r="P72" s="14"/>
-      <c r="Q72" s="14"/>
-      <c r="R72" s="14"/>
-      <c r="S72" s="14"/>
       <c r="T72" s="5"/>
     </row>
     <row r="73" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B73" s="4"/>
-      <c r="C73" s="14"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14"/>
-      <c r="G73" s="14"/>
-      <c r="H73" s="14"/>
-      <c r="I73" s="14"/>
-      <c r="J73" s="14"/>
-      <c r="K73" s="14"/>
-      <c r="L73" s="14"/>
-      <c r="M73" s="14"/>
-      <c r="N73" s="14"/>
-      <c r="O73" s="14"/>
-      <c r="P73" s="14"/>
-      <c r="Q73" s="14"/>
-      <c r="R73" s="14"/>
-      <c r="S73" s="14"/>
       <c r="T73" s="5"/>
     </row>
     <row r="74" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B74" s="4"/>
-      <c r="C74" s="14"/>
-      <c r="D74" s="14"/>
-      <c r="E74" s="14"/>
-      <c r="F74" s="14"/>
-      <c r="G74" s="14"/>
-      <c r="H74" s="14"/>
-      <c r="I74" s="14"/>
-      <c r="J74" s="14"/>
-      <c r="K74" s="14"/>
-      <c r="L74" s="14"/>
-      <c r="M74" s="14"/>
-      <c r="N74" s="14"/>
-      <c r="O74" s="14"/>
-      <c r="P74" s="14"/>
-      <c r="Q74" s="14"/>
-      <c r="R74" s="14"/>
-      <c r="S74" s="14"/>
       <c r="T74" s="5"/>
     </row>
     <row r="75" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B75" s="4"/>
-      <c r="C75" s="14"/>
-      <c r="D75" s="14"/>
-      <c r="E75" s="14"/>
-      <c r="F75" s="14"/>
-      <c r="G75" s="14"/>
-      <c r="H75" s="14"/>
-      <c r="I75" s="14"/>
-      <c r="J75" s="14"/>
-      <c r="K75" s="14"/>
-      <c r="L75" s="14"/>
-      <c r="M75" s="14"/>
-      <c r="N75" s="14"/>
-      <c r="O75" s="14"/>
-      <c r="P75" s="14"/>
-      <c r="Q75" s="14"/>
-      <c r="R75" s="14"/>
-      <c r="S75" s="14"/>
       <c r="T75" s="5"/>
     </row>
     <row r="76" spans="2:20" x14ac:dyDescent="0.25">
@@ -6661,4 +5902,1677 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33BB3148-3A03-489F-B349-9C98BD9F098C}">
+  <dimension ref="A2:T103"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="15"/>
+      <c r="B6" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="18"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="15"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="20"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="15"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="15"/>
+      <c r="F8" s="20"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="15"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="15"/>
+      <c r="F9" s="20"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="15"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="15"/>
+      <c r="F10" s="20"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="15"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" s="15"/>
+      <c r="F11" s="20"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="15"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" s="15"/>
+      <c r="F12" s="20"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="15"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="23"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="5"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="5"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="4"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="5"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="5"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="5"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="4"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="5"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="5"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="5"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="4"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="5"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="5"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="4"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="5"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="5"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="4"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="5"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="5"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="5"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="4"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="5"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="5"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B37" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="5"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B38" s="4"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="5"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B39" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="5"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="5"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="5"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B42" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="5"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B43" s="4"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="5"/>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B44" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="5"/>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B45" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="24"/>
+      <c r="I45" s="5"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B46" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="8"/>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+      <c r="P49" s="2"/>
+      <c r="Q49" s="2"/>
+      <c r="R49" s="2"/>
+      <c r="S49" s="2"/>
+      <c r="T49" s="3"/>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A50" s="4"/>
+      <c r="B50" s="24"/>
+      <c r="C50" s="24"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="24"/>
+      <c r="H50" s="24"/>
+      <c r="I50" s="24"/>
+      <c r="J50" s="24"/>
+      <c r="K50" s="24"/>
+      <c r="L50" s="24"/>
+      <c r="M50" s="24"/>
+      <c r="N50" s="24"/>
+      <c r="O50" s="24"/>
+      <c r="P50" s="24"/>
+      <c r="Q50" s="24"/>
+      <c r="R50" s="24"/>
+      <c r="S50" s="24"/>
+      <c r="T50" s="5"/>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A51" s="4"/>
+      <c r="B51" s="24"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="24"/>
+      <c r="H51" s="24"/>
+      <c r="I51" s="24"/>
+      <c r="J51" s="24"/>
+      <c r="K51" s="24"/>
+      <c r="L51" s="24"/>
+      <c r="M51" s="24"/>
+      <c r="N51" s="24"/>
+      <c r="O51" s="24"/>
+      <c r="P51" s="24"/>
+      <c r="Q51" s="24"/>
+      <c r="R51" s="24"/>
+      <c r="S51" s="24"/>
+      <c r="T51" s="5"/>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A52" s="4"/>
+      <c r="B52" s="24"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="24"/>
+      <c r="F52" s="24"/>
+      <c r="G52" s="24"/>
+      <c r="H52" s="24"/>
+      <c r="I52" s="24"/>
+      <c r="J52" s="24"/>
+      <c r="K52" s="24"/>
+      <c r="L52" s="24"/>
+      <c r="M52" s="24"/>
+      <c r="N52" s="24"/>
+      <c r="O52" s="24"/>
+      <c r="P52" s="24"/>
+      <c r="Q52" s="24"/>
+      <c r="R52" s="24"/>
+      <c r="S52" s="24"/>
+      <c r="T52" s="5"/>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A53" s="4"/>
+      <c r="B53" s="24"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="24"/>
+      <c r="F53" s="24"/>
+      <c r="G53" s="24"/>
+      <c r="H53" s="24"/>
+      <c r="I53" s="24"/>
+      <c r="J53" s="24"/>
+      <c r="K53" s="24"/>
+      <c r="L53" s="24"/>
+      <c r="M53" s="24"/>
+      <c r="N53" s="24"/>
+      <c r="O53" s="24"/>
+      <c r="P53" s="24"/>
+      <c r="Q53" s="24"/>
+      <c r="R53" s="24"/>
+      <c r="S53" s="24"/>
+      <c r="T53" s="5"/>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A54" s="4"/>
+      <c r="B54" s="24"/>
+      <c r="C54" s="24"/>
+      <c r="D54" s="24"/>
+      <c r="E54" s="24"/>
+      <c r="F54" s="24"/>
+      <c r="G54" s="24"/>
+      <c r="H54" s="24"/>
+      <c r="I54" s="24"/>
+      <c r="J54" s="24"/>
+      <c r="K54" s="24"/>
+      <c r="L54" s="24"/>
+      <c r="M54" s="24"/>
+      <c r="N54" s="24"/>
+      <c r="O54" s="24"/>
+      <c r="P54" s="24"/>
+      <c r="Q54" s="24"/>
+      <c r="R54" s="24"/>
+      <c r="S54" s="24"/>
+      <c r="T54" s="5"/>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A55" s="4"/>
+      <c r="B55" s="24"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="24"/>
+      <c r="G55" s="24"/>
+      <c r="H55" s="24"/>
+      <c r="I55" s="24"/>
+      <c r="J55" s="24"/>
+      <c r="K55" s="24"/>
+      <c r="L55" s="24"/>
+      <c r="M55" s="24"/>
+      <c r="N55" s="24"/>
+      <c r="O55" s="24"/>
+      <c r="P55" s="24"/>
+      <c r="Q55" s="24"/>
+      <c r="R55" s="24"/>
+      <c r="S55" s="24"/>
+      <c r="T55" s="5"/>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A56" s="4"/>
+      <c r="B56" s="24"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="24"/>
+      <c r="F56" s="24"/>
+      <c r="G56" s="24"/>
+      <c r="H56" s="24"/>
+      <c r="I56" s="24"/>
+      <c r="J56" s="24"/>
+      <c r="K56" s="24"/>
+      <c r="L56" s="24"/>
+      <c r="M56" s="24"/>
+      <c r="N56" s="24"/>
+      <c r="O56" s="24"/>
+      <c r="P56" s="24"/>
+      <c r="Q56" s="24"/>
+      <c r="R56" s="24"/>
+      <c r="S56" s="24"/>
+      <c r="T56" s="5"/>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A57" s="4"/>
+      <c r="B57" s="24"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="24"/>
+      <c r="E57" s="24"/>
+      <c r="F57" s="24"/>
+      <c r="G57" s="24"/>
+      <c r="H57" s="24"/>
+      <c r="I57" s="24"/>
+      <c r="J57" s="24"/>
+      <c r="K57" s="24"/>
+      <c r="L57" s="24"/>
+      <c r="M57" s="24"/>
+      <c r="N57" s="24"/>
+      <c r="O57" s="24"/>
+      <c r="P57" s="24"/>
+      <c r="Q57" s="24"/>
+      <c r="R57" s="24"/>
+      <c r="S57" s="24"/>
+      <c r="T57" s="5"/>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A58" s="4"/>
+      <c r="B58" s="24"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="24"/>
+      <c r="E58" s="24"/>
+      <c r="F58" s="24"/>
+      <c r="G58" s="24"/>
+      <c r="H58" s="24"/>
+      <c r="I58" s="24"/>
+      <c r="J58" s="24"/>
+      <c r="K58" s="24"/>
+      <c r="L58" s="24"/>
+      <c r="M58" s="24"/>
+      <c r="N58" s="24"/>
+      <c r="O58" s="24"/>
+      <c r="P58" s="24"/>
+      <c r="Q58" s="24"/>
+      <c r="R58" s="24"/>
+      <c r="S58" s="24"/>
+      <c r="T58" s="5"/>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A59" s="4"/>
+      <c r="B59" s="24"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="24"/>
+      <c r="E59" s="24"/>
+      <c r="F59" s="24"/>
+      <c r="G59" s="24"/>
+      <c r="H59" s="24"/>
+      <c r="I59" s="24"/>
+      <c r="J59" s="24"/>
+      <c r="K59" s="24"/>
+      <c r="L59" s="24"/>
+      <c r="M59" s="24"/>
+      <c r="N59" s="24"/>
+      <c r="O59" s="24"/>
+      <c r="P59" s="24"/>
+      <c r="Q59" s="24"/>
+      <c r="R59" s="24"/>
+      <c r="S59" s="24"/>
+      <c r="T59" s="5"/>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A60" s="4"/>
+      <c r="B60" s="24"/>
+      <c r="C60" s="24"/>
+      <c r="D60" s="24"/>
+      <c r="E60" s="24"/>
+      <c r="F60" s="24"/>
+      <c r="G60" s="24"/>
+      <c r="H60" s="24"/>
+      <c r="I60" s="24"/>
+      <c r="J60" s="24"/>
+      <c r="K60" s="24"/>
+      <c r="L60" s="24"/>
+      <c r="M60" s="24"/>
+      <c r="N60" s="24"/>
+      <c r="O60" s="24"/>
+      <c r="P60" s="24"/>
+      <c r="Q60" s="24"/>
+      <c r="R60" s="24"/>
+      <c r="S60" s="24"/>
+      <c r="T60" s="5"/>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A61" s="4"/>
+      <c r="B61" s="24"/>
+      <c r="C61" s="24"/>
+      <c r="D61" s="24"/>
+      <c r="E61" s="24"/>
+      <c r="F61" s="24"/>
+      <c r="G61" s="24"/>
+      <c r="H61" s="24"/>
+      <c r="I61" s="24"/>
+      <c r="J61" s="24"/>
+      <c r="K61" s="24"/>
+      <c r="L61" s="24"/>
+      <c r="M61" s="24"/>
+      <c r="N61" s="24"/>
+      <c r="O61" s="24"/>
+      <c r="P61" s="24"/>
+      <c r="Q61" s="24"/>
+      <c r="R61" s="24"/>
+      <c r="S61" s="24"/>
+      <c r="T61" s="5"/>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A62" s="4"/>
+      <c r="B62" s="24"/>
+      <c r="C62" s="24"/>
+      <c r="D62" s="24"/>
+      <c r="E62" s="24"/>
+      <c r="F62" s="24"/>
+      <c r="G62" s="24"/>
+      <c r="H62" s="24"/>
+      <c r="I62" s="24"/>
+      <c r="J62" s="24"/>
+      <c r="K62" s="24"/>
+      <c r="L62" s="24"/>
+      <c r="M62" s="24"/>
+      <c r="N62" s="24"/>
+      <c r="O62" s="24"/>
+      <c r="P62" s="24"/>
+      <c r="Q62" s="24"/>
+      <c r="R62" s="24"/>
+      <c r="S62" s="24"/>
+      <c r="T62" s="5"/>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A63" s="4"/>
+      <c r="B63" s="24"/>
+      <c r="C63" s="24"/>
+      <c r="D63" s="24"/>
+      <c r="E63" s="24"/>
+      <c r="F63" s="24"/>
+      <c r="G63" s="24"/>
+      <c r="H63" s="24"/>
+      <c r="I63" s="24"/>
+      <c r="J63" s="24"/>
+      <c r="K63" s="24"/>
+      <c r="L63" s="24"/>
+      <c r="M63" s="24"/>
+      <c r="N63" s="24"/>
+      <c r="O63" s="24"/>
+      <c r="P63" s="24"/>
+      <c r="Q63" s="24"/>
+      <c r="R63" s="24"/>
+      <c r="S63" s="24"/>
+      <c r="T63" s="5"/>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A64" s="4"/>
+      <c r="B64" s="24"/>
+      <c r="C64" s="24"/>
+      <c r="D64" s="24"/>
+      <c r="E64" s="24"/>
+      <c r="F64" s="24"/>
+      <c r="G64" s="24"/>
+      <c r="H64" s="24"/>
+      <c r="I64" s="24"/>
+      <c r="J64" s="24"/>
+      <c r="K64" s="24"/>
+      <c r="L64" s="24"/>
+      <c r="M64" s="24"/>
+      <c r="N64" s="24"/>
+      <c r="O64" s="24"/>
+      <c r="P64" s="24"/>
+      <c r="Q64" s="24"/>
+      <c r="R64" s="24"/>
+      <c r="S64" s="24"/>
+      <c r="T64" s="5"/>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A65" s="4"/>
+      <c r="B65" s="24"/>
+      <c r="C65" s="24"/>
+      <c r="D65" s="24"/>
+      <c r="E65" s="24"/>
+      <c r="F65" s="24"/>
+      <c r="G65" s="24"/>
+      <c r="H65" s="24"/>
+      <c r="I65" s="24"/>
+      <c r="J65" s="24"/>
+      <c r="K65" s="24"/>
+      <c r="L65" s="24"/>
+      <c r="M65" s="24"/>
+      <c r="N65" s="24"/>
+      <c r="O65" s="24"/>
+      <c r="P65" s="24"/>
+      <c r="Q65" s="24"/>
+      <c r="R65" s="24"/>
+      <c r="S65" s="24"/>
+      <c r="T65" s="5"/>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A66" s="4"/>
+      <c r="B66" s="24"/>
+      <c r="C66" s="24"/>
+      <c r="D66" s="24"/>
+      <c r="E66" s="24"/>
+      <c r="F66" s="24"/>
+      <c r="G66" s="24"/>
+      <c r="H66" s="24"/>
+      <c r="I66" s="24"/>
+      <c r="J66" s="24"/>
+      <c r="K66" s="24"/>
+      <c r="L66" s="24"/>
+      <c r="M66" s="24"/>
+      <c r="N66" s="24"/>
+      <c r="O66" s="24"/>
+      <c r="P66" s="24"/>
+      <c r="Q66" s="24"/>
+      <c r="R66" s="24"/>
+      <c r="S66" s="24"/>
+      <c r="T66" s="5"/>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A67" s="4"/>
+      <c r="B67" s="24"/>
+      <c r="C67" s="24"/>
+      <c r="D67" s="24"/>
+      <c r="E67" s="24"/>
+      <c r="F67" s="24"/>
+      <c r="G67" s="24"/>
+      <c r="H67" s="24"/>
+      <c r="I67" s="24"/>
+      <c r="J67" s="24"/>
+      <c r="K67" s="24"/>
+      <c r="L67" s="24"/>
+      <c r="M67" s="24"/>
+      <c r="N67" s="24"/>
+      <c r="O67" s="24"/>
+      <c r="P67" s="24"/>
+      <c r="Q67" s="24"/>
+      <c r="R67" s="24"/>
+      <c r="S67" s="24"/>
+      <c r="T67" s="5"/>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A68" s="4"/>
+      <c r="B68" s="24"/>
+      <c r="C68" s="24"/>
+      <c r="D68" s="24"/>
+      <c r="E68" s="24"/>
+      <c r="F68" s="24"/>
+      <c r="G68" s="24"/>
+      <c r="H68" s="24"/>
+      <c r="I68" s="24"/>
+      <c r="J68" s="24"/>
+      <c r="K68" s="24"/>
+      <c r="L68" s="24"/>
+      <c r="M68" s="24"/>
+      <c r="N68" s="24"/>
+      <c r="O68" s="24"/>
+      <c r="P68" s="24"/>
+      <c r="Q68" s="24"/>
+      <c r="R68" s="24"/>
+      <c r="S68" s="24"/>
+      <c r="T68" s="5"/>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A69" s="4"/>
+      <c r="B69" s="24"/>
+      <c r="C69" s="24"/>
+      <c r="D69" s="24"/>
+      <c r="E69" s="24"/>
+      <c r="F69" s="24"/>
+      <c r="G69" s="24"/>
+      <c r="H69" s="24"/>
+      <c r="I69" s="24"/>
+      <c r="J69" s="24"/>
+      <c r="K69" s="24"/>
+      <c r="L69" s="24"/>
+      <c r="M69" s="24"/>
+      <c r="N69" s="24"/>
+      <c r="O69" s="24"/>
+      <c r="P69" s="24"/>
+      <c r="Q69" s="24"/>
+      <c r="R69" s="24"/>
+      <c r="S69" s="24"/>
+      <c r="T69" s="5"/>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A70" s="4"/>
+      <c r="B70" s="24"/>
+      <c r="C70" s="24"/>
+      <c r="D70" s="24"/>
+      <c r="E70" s="24"/>
+      <c r="F70" s="24"/>
+      <c r="G70" s="24"/>
+      <c r="H70" s="24"/>
+      <c r="I70" s="24"/>
+      <c r="J70" s="24"/>
+      <c r="K70" s="24"/>
+      <c r="L70" s="24"/>
+      <c r="M70" s="24"/>
+      <c r="N70" s="24"/>
+      <c r="O70" s="24"/>
+      <c r="P70" s="24"/>
+      <c r="Q70" s="24"/>
+      <c r="R70" s="24"/>
+      <c r="S70" s="24"/>
+      <c r="T70" s="5"/>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A71" s="4"/>
+      <c r="B71" s="24"/>
+      <c r="C71" s="24"/>
+      <c r="D71" s="24"/>
+      <c r="E71" s="24"/>
+      <c r="F71" s="24"/>
+      <c r="G71" s="24"/>
+      <c r="H71" s="24"/>
+      <c r="I71" s="24"/>
+      <c r="J71" s="24"/>
+      <c r="K71" s="24"/>
+      <c r="L71" s="24"/>
+      <c r="M71" s="24"/>
+      <c r="N71" s="24"/>
+      <c r="O71" s="24"/>
+      <c r="P71" s="24"/>
+      <c r="Q71" s="24"/>
+      <c r="R71" s="24"/>
+      <c r="S71" s="24"/>
+      <c r="T71" s="5"/>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A72" s="4"/>
+      <c r="B72" s="24"/>
+      <c r="C72" s="24"/>
+      <c r="D72" s="24"/>
+      <c r="E72" s="24"/>
+      <c r="F72" s="24"/>
+      <c r="G72" s="24"/>
+      <c r="H72" s="24"/>
+      <c r="I72" s="24"/>
+      <c r="J72" s="24"/>
+      <c r="K72" s="24"/>
+      <c r="L72" s="24"/>
+      <c r="M72" s="24"/>
+      <c r="N72" s="24"/>
+      <c r="O72" s="24"/>
+      <c r="P72" s="24"/>
+      <c r="Q72" s="24"/>
+      <c r="R72" s="24"/>
+      <c r="S72" s="24"/>
+      <c r="T72" s="5"/>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A73" s="4"/>
+      <c r="B73" s="24"/>
+      <c r="C73" s="24"/>
+      <c r="D73" s="24"/>
+      <c r="E73" s="24"/>
+      <c r="F73" s="24"/>
+      <c r="G73" s="24"/>
+      <c r="H73" s="24"/>
+      <c r="I73" s="24"/>
+      <c r="J73" s="24"/>
+      <c r="K73" s="24"/>
+      <c r="L73" s="24"/>
+      <c r="M73" s="24"/>
+      <c r="N73" s="24"/>
+      <c r="O73" s="24"/>
+      <c r="P73" s="24"/>
+      <c r="Q73" s="24"/>
+      <c r="R73" s="24"/>
+      <c r="S73" s="24"/>
+      <c r="T73" s="5"/>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A74" s="4"/>
+      <c r="B74" s="24"/>
+      <c r="C74" s="24"/>
+      <c r="D74" s="24"/>
+      <c r="E74" s="24"/>
+      <c r="F74" s="24"/>
+      <c r="G74" s="24"/>
+      <c r="H74" s="24"/>
+      <c r="I74" s="24"/>
+      <c r="J74" s="24"/>
+      <c r="K74" s="24"/>
+      <c r="L74" s="24"/>
+      <c r="M74" s="24"/>
+      <c r="N74" s="24"/>
+      <c r="O74" s="24"/>
+      <c r="P74" s="24"/>
+      <c r="Q74" s="24"/>
+      <c r="R74" s="24"/>
+      <c r="S74" s="24"/>
+      <c r="T74" s="5"/>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A75" s="4"/>
+      <c r="B75" s="24"/>
+      <c r="C75" s="24"/>
+      <c r="D75" s="24"/>
+      <c r="E75" s="24"/>
+      <c r="F75" s="24"/>
+      <c r="G75" s="24"/>
+      <c r="H75" s="24"/>
+      <c r="I75" s="24"/>
+      <c r="J75" s="24"/>
+      <c r="K75" s="24"/>
+      <c r="L75" s="24"/>
+      <c r="M75" s="24"/>
+      <c r="N75" s="24"/>
+      <c r="O75" s="24"/>
+      <c r="P75" s="24"/>
+      <c r="Q75" s="24"/>
+      <c r="R75" s="24"/>
+      <c r="S75" s="24"/>
+      <c r="T75" s="5"/>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A76" s="4"/>
+      <c r="B76" s="24"/>
+      <c r="C76" s="24"/>
+      <c r="D76" s="24"/>
+      <c r="E76" s="24"/>
+      <c r="F76" s="24"/>
+      <c r="G76" s="24"/>
+      <c r="H76" s="24"/>
+      <c r="I76" s="24"/>
+      <c r="J76" s="24"/>
+      <c r="K76" s="24"/>
+      <c r="L76" s="24"/>
+      <c r="M76" s="24"/>
+      <c r="N76" s="24"/>
+      <c r="O76" s="24"/>
+      <c r="P76" s="24"/>
+      <c r="Q76" s="24"/>
+      <c r="R76" s="24"/>
+      <c r="S76" s="24"/>
+      <c r="T76" s="5"/>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A77" s="4"/>
+      <c r="B77" s="24"/>
+      <c r="C77" s="24"/>
+      <c r="D77" s="24"/>
+      <c r="E77" s="24"/>
+      <c r="F77" s="24"/>
+      <c r="G77" s="24"/>
+      <c r="H77" s="24"/>
+      <c r="I77" s="24"/>
+      <c r="J77" s="24"/>
+      <c r="K77" s="24"/>
+      <c r="L77" s="24"/>
+      <c r="M77" s="24"/>
+      <c r="N77" s="24"/>
+      <c r="O77" s="24"/>
+      <c r="P77" s="24"/>
+      <c r="Q77" s="24"/>
+      <c r="R77" s="24"/>
+      <c r="S77" s="24"/>
+      <c r="T77" s="5"/>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A78" s="4"/>
+      <c r="B78" s="24"/>
+      <c r="C78" s="24"/>
+      <c r="D78" s="24"/>
+      <c r="E78" s="24"/>
+      <c r="F78" s="24"/>
+      <c r="G78" s="24"/>
+      <c r="H78" s="24"/>
+      <c r="I78" s="24"/>
+      <c r="J78" s="24"/>
+      <c r="K78" s="24"/>
+      <c r="L78" s="24"/>
+      <c r="M78" s="24"/>
+      <c r="N78" s="24"/>
+      <c r="O78" s="24"/>
+      <c r="P78" s="24"/>
+      <c r="Q78" s="24"/>
+      <c r="R78" s="24"/>
+      <c r="S78" s="24"/>
+      <c r="T78" s="5"/>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A79" s="4"/>
+      <c r="B79" s="24"/>
+      <c r="C79" s="24"/>
+      <c r="D79" s="24"/>
+      <c r="E79" s="24"/>
+      <c r="F79" s="24"/>
+      <c r="G79" s="24"/>
+      <c r="H79" s="24"/>
+      <c r="I79" s="24"/>
+      <c r="J79" s="24"/>
+      <c r="K79" s="24"/>
+      <c r="L79" s="24"/>
+      <c r="M79" s="24"/>
+      <c r="N79" s="24"/>
+      <c r="O79" s="24"/>
+      <c r="P79" s="24"/>
+      <c r="Q79" s="24"/>
+      <c r="R79" s="24"/>
+      <c r="S79" s="24"/>
+      <c r="T79" s="5"/>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A80" s="4"/>
+      <c r="B80" s="24"/>
+      <c r="C80" s="24"/>
+      <c r="D80" s="24"/>
+      <c r="E80" s="24"/>
+      <c r="F80" s="24"/>
+      <c r="G80" s="24"/>
+      <c r="H80" s="24"/>
+      <c r="I80" s="24"/>
+      <c r="J80" s="24"/>
+      <c r="K80" s="24"/>
+      <c r="L80" s="24"/>
+      <c r="M80" s="24"/>
+      <c r="N80" s="24"/>
+      <c r="O80" s="24"/>
+      <c r="P80" s="24"/>
+      <c r="Q80" s="24"/>
+      <c r="R80" s="24"/>
+      <c r="S80" s="24"/>
+      <c r="T80" s="5"/>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A81" s="4"/>
+      <c r="B81" s="24"/>
+      <c r="C81" s="24"/>
+      <c r="D81" s="24"/>
+      <c r="E81" s="24"/>
+      <c r="F81" s="24"/>
+      <c r="G81" s="24"/>
+      <c r="H81" s="24"/>
+      <c r="I81" s="24"/>
+      <c r="J81" s="24"/>
+      <c r="K81" s="24"/>
+      <c r="L81" s="24"/>
+      <c r="M81" s="24"/>
+      <c r="N81" s="24"/>
+      <c r="O81" s="24"/>
+      <c r="P81" s="24"/>
+      <c r="Q81" s="24"/>
+      <c r="R81" s="24"/>
+      <c r="S81" s="24"/>
+      <c r="T81" s="5"/>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A82" s="4"/>
+      <c r="B82" s="24"/>
+      <c r="C82" s="24"/>
+      <c r="D82" s="24"/>
+      <c r="E82" s="24"/>
+      <c r="F82" s="24"/>
+      <c r="G82" s="24"/>
+      <c r="H82" s="24"/>
+      <c r="I82" s="24"/>
+      <c r="J82" s="24"/>
+      <c r="K82" s="24"/>
+      <c r="L82" s="24"/>
+      <c r="M82" s="24"/>
+      <c r="N82" s="24"/>
+      <c r="O82" s="24"/>
+      <c r="P82" s="24"/>
+      <c r="Q82" s="24"/>
+      <c r="R82" s="24"/>
+      <c r="S82" s="24"/>
+      <c r="T82" s="5"/>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A83" s="4"/>
+      <c r="B83" s="24"/>
+      <c r="C83" s="24"/>
+      <c r="D83" s="24"/>
+      <c r="E83" s="24"/>
+      <c r="F83" s="24"/>
+      <c r="G83" s="24"/>
+      <c r="H83" s="24"/>
+      <c r="I83" s="24"/>
+      <c r="J83" s="24"/>
+      <c r="K83" s="24"/>
+      <c r="L83" s="24"/>
+      <c r="M83" s="24"/>
+      <c r="N83" s="24"/>
+      <c r="O83" s="24"/>
+      <c r="P83" s="24"/>
+      <c r="Q83" s="24"/>
+      <c r="R83" s="24"/>
+      <c r="S83" s="24"/>
+      <c r="T83" s="5"/>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A84" s="4"/>
+      <c r="B84" s="24"/>
+      <c r="C84" s="24"/>
+      <c r="D84" s="24"/>
+      <c r="E84" s="24"/>
+      <c r="F84" s="24"/>
+      <c r="G84" s="24"/>
+      <c r="H84" s="24"/>
+      <c r="I84" s="24"/>
+      <c r="J84" s="24"/>
+      <c r="K84" s="24"/>
+      <c r="L84" s="24"/>
+      <c r="M84" s="24"/>
+      <c r="N84" s="24"/>
+      <c r="O84" s="24"/>
+      <c r="P84" s="24"/>
+      <c r="Q84" s="24"/>
+      <c r="R84" s="24"/>
+      <c r="S84" s="24"/>
+      <c r="T84" s="5"/>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A85" s="4"/>
+      <c r="B85" s="24"/>
+      <c r="C85" s="24"/>
+      <c r="D85" s="24"/>
+      <c r="E85" s="24"/>
+      <c r="F85" s="24"/>
+      <c r="G85" s="24"/>
+      <c r="H85" s="24"/>
+      <c r="I85" s="24"/>
+      <c r="J85" s="24"/>
+      <c r="K85" s="24"/>
+      <c r="L85" s="24"/>
+      <c r="M85" s="24"/>
+      <c r="N85" s="24"/>
+      <c r="O85" s="24"/>
+      <c r="P85" s="24"/>
+      <c r="Q85" s="24"/>
+      <c r="R85" s="24"/>
+      <c r="S85" s="24"/>
+      <c r="T85" s="5"/>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A86" s="4"/>
+      <c r="B86" s="24"/>
+      <c r="C86" s="24"/>
+      <c r="D86" s="24"/>
+      <c r="E86" s="24"/>
+      <c r="F86" s="24"/>
+      <c r="G86" s="24"/>
+      <c r="H86" s="24"/>
+      <c r="I86" s="24"/>
+      <c r="J86" s="24"/>
+      <c r="K86" s="24"/>
+      <c r="L86" s="24"/>
+      <c r="M86" s="24"/>
+      <c r="N86" s="24"/>
+      <c r="O86" s="24"/>
+      <c r="P86" s="24"/>
+      <c r="Q86" s="24"/>
+      <c r="R86" s="24"/>
+      <c r="S86" s="24"/>
+      <c r="T86" s="5"/>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A87" s="4"/>
+      <c r="B87" s="24"/>
+      <c r="C87" s="24"/>
+      <c r="D87" s="24"/>
+      <c r="E87" s="24"/>
+      <c r="F87" s="24"/>
+      <c r="G87" s="24"/>
+      <c r="H87" s="24"/>
+      <c r="I87" s="24"/>
+      <c r="J87" s="24"/>
+      <c r="K87" s="24"/>
+      <c r="L87" s="24"/>
+      <c r="M87" s="24"/>
+      <c r="N87" s="24"/>
+      <c r="O87" s="24"/>
+      <c r="P87" s="24"/>
+      <c r="Q87" s="24"/>
+      <c r="R87" s="24"/>
+      <c r="S87" s="24"/>
+      <c r="T87" s="5"/>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A88" s="4"/>
+      <c r="B88" s="24"/>
+      <c r="C88" s="24"/>
+      <c r="D88" s="24"/>
+      <c r="E88" s="24"/>
+      <c r="F88" s="24"/>
+      <c r="G88" s="24"/>
+      <c r="H88" s="24"/>
+      <c r="I88" s="24"/>
+      <c r="J88" s="24"/>
+      <c r="K88" s="24"/>
+      <c r="L88" s="24"/>
+      <c r="M88" s="24"/>
+      <c r="N88" s="24"/>
+      <c r="O88" s="24"/>
+      <c r="P88" s="24"/>
+      <c r="Q88" s="24"/>
+      <c r="R88" s="24"/>
+      <c r="S88" s="24"/>
+      <c r="T88" s="5"/>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A89" s="4"/>
+      <c r="B89" s="24"/>
+      <c r="C89" s="24"/>
+      <c r="D89" s="24"/>
+      <c r="E89" s="24"/>
+      <c r="F89" s="24"/>
+      <c r="G89" s="24"/>
+      <c r="H89" s="24"/>
+      <c r="I89" s="24"/>
+      <c r="J89" s="24"/>
+      <c r="K89" s="24"/>
+      <c r="L89" s="24"/>
+      <c r="M89" s="24"/>
+      <c r="N89" s="24"/>
+      <c r="O89" s="24"/>
+      <c r="P89" s="24"/>
+      <c r="Q89" s="24"/>
+      <c r="R89" s="24"/>
+      <c r="S89" s="24"/>
+      <c r="T89" s="5"/>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A90" s="4"/>
+      <c r="B90" s="24"/>
+      <c r="C90" s="24"/>
+      <c r="D90" s="24"/>
+      <c r="E90" s="24"/>
+      <c r="F90" s="24"/>
+      <c r="G90" s="24"/>
+      <c r="H90" s="24"/>
+      <c r="I90" s="24"/>
+      <c r="J90" s="24"/>
+      <c r="K90" s="24"/>
+      <c r="L90" s="24"/>
+      <c r="M90" s="24"/>
+      <c r="N90" s="24"/>
+      <c r="O90" s="24"/>
+      <c r="P90" s="24"/>
+      <c r="Q90" s="24"/>
+      <c r="R90" s="24"/>
+      <c r="S90" s="24"/>
+      <c r="T90" s="5"/>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A91" s="4"/>
+      <c r="B91" s="24"/>
+      <c r="C91" s="24"/>
+      <c r="D91" s="24"/>
+      <c r="E91" s="24"/>
+      <c r="F91" s="24"/>
+      <c r="G91" s="24"/>
+      <c r="H91" s="24"/>
+      <c r="I91" s="24"/>
+      <c r="J91" s="24"/>
+      <c r="K91" s="24"/>
+      <c r="L91" s="24"/>
+      <c r="M91" s="24"/>
+      <c r="N91" s="24"/>
+      <c r="O91" s="24"/>
+      <c r="P91" s="24"/>
+      <c r="Q91" s="24"/>
+      <c r="R91" s="24"/>
+      <c r="S91" s="24"/>
+      <c r="T91" s="5"/>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A92" s="4"/>
+      <c r="B92" s="24"/>
+      <c r="C92" s="24"/>
+      <c r="D92" s="24"/>
+      <c r="E92" s="24"/>
+      <c r="F92" s="24"/>
+      <c r="G92" s="24"/>
+      <c r="H92" s="24"/>
+      <c r="I92" s="24"/>
+      <c r="J92" s="24"/>
+      <c r="K92" s="24"/>
+      <c r="L92" s="24"/>
+      <c r="M92" s="24"/>
+      <c r="N92" s="24"/>
+      <c r="O92" s="24"/>
+      <c r="P92" s="24"/>
+      <c r="Q92" s="24"/>
+      <c r="R92" s="24"/>
+      <c r="S92" s="24"/>
+      <c r="T92" s="5"/>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A93" s="4"/>
+      <c r="B93" s="24"/>
+      <c r="C93" s="24"/>
+      <c r="D93" s="24"/>
+      <c r="E93" s="24"/>
+      <c r="F93" s="24"/>
+      <c r="G93" s="24"/>
+      <c r="H93" s="24"/>
+      <c r="I93" s="24"/>
+      <c r="J93" s="24"/>
+      <c r="K93" s="24"/>
+      <c r="L93" s="24"/>
+      <c r="M93" s="24"/>
+      <c r="N93" s="24"/>
+      <c r="O93" s="24"/>
+      <c r="P93" s="24"/>
+      <c r="Q93" s="24"/>
+      <c r="R93" s="24"/>
+      <c r="S93" s="24"/>
+      <c r="T93" s="5"/>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A94" s="4"/>
+      <c r="B94" s="24"/>
+      <c r="C94" s="24"/>
+      <c r="D94" s="24"/>
+      <c r="E94" s="24"/>
+      <c r="F94" s="24"/>
+      <c r="G94" s="24"/>
+      <c r="H94" s="24"/>
+      <c r="I94" s="24"/>
+      <c r="J94" s="24"/>
+      <c r="K94" s="24"/>
+      <c r="L94" s="24"/>
+      <c r="M94" s="24"/>
+      <c r="N94" s="24"/>
+      <c r="O94" s="24"/>
+      <c r="P94" s="24"/>
+      <c r="Q94" s="24"/>
+      <c r="R94" s="24"/>
+      <c r="S94" s="24"/>
+      <c r="T94" s="5"/>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A95" s="4"/>
+      <c r="B95" s="24"/>
+      <c r="C95" s="24"/>
+      <c r="D95" s="24"/>
+      <c r="E95" s="24"/>
+      <c r="F95" s="24"/>
+      <c r="G95" s="24"/>
+      <c r="H95" s="24"/>
+      <c r="I95" s="24"/>
+      <c r="J95" s="24"/>
+      <c r="K95" s="24"/>
+      <c r="L95" s="24"/>
+      <c r="M95" s="24"/>
+      <c r="N95" s="24"/>
+      <c r="O95" s="24"/>
+      <c r="P95" s="24"/>
+      <c r="Q95" s="24"/>
+      <c r="R95" s="24"/>
+      <c r="S95" s="24"/>
+      <c r="T95" s="5"/>
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A96" s="4"/>
+      <c r="B96" s="24"/>
+      <c r="C96" s="24"/>
+      <c r="D96" s="24"/>
+      <c r="E96" s="24"/>
+      <c r="F96" s="24"/>
+      <c r="G96" s="24"/>
+      <c r="H96" s="24"/>
+      <c r="I96" s="24"/>
+      <c r="J96" s="24"/>
+      <c r="K96" s="24"/>
+      <c r="L96" s="24"/>
+      <c r="M96" s="24"/>
+      <c r="N96" s="24"/>
+      <c r="O96" s="24"/>
+      <c r="P96" s="24"/>
+      <c r="Q96" s="24"/>
+      <c r="R96" s="24"/>
+      <c r="S96" s="24"/>
+      <c r="T96" s="5"/>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A97" s="4"/>
+      <c r="B97" s="24"/>
+      <c r="C97" s="24"/>
+      <c r="D97" s="24"/>
+      <c r="E97" s="24"/>
+      <c r="F97" s="24"/>
+      <c r="G97" s="24"/>
+      <c r="H97" s="24"/>
+      <c r="I97" s="24"/>
+      <c r="J97" s="24"/>
+      <c r="K97" s="24"/>
+      <c r="L97" s="24"/>
+      <c r="M97" s="24"/>
+      <c r="N97" s="24"/>
+      <c r="O97" s="24"/>
+      <c r="P97" s="24"/>
+      <c r="Q97" s="24"/>
+      <c r="R97" s="24"/>
+      <c r="S97" s="24"/>
+      <c r="T97" s="5"/>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A98" s="4"/>
+      <c r="B98" s="24"/>
+      <c r="C98" s="24"/>
+      <c r="D98" s="24"/>
+      <c r="E98" s="24"/>
+      <c r="F98" s="24"/>
+      <c r="G98" s="24"/>
+      <c r="H98" s="24"/>
+      <c r="I98" s="24"/>
+      <c r="J98" s="24"/>
+      <c r="K98" s="24"/>
+      <c r="L98" s="24"/>
+      <c r="M98" s="24"/>
+      <c r="N98" s="24"/>
+      <c r="O98" s="24"/>
+      <c r="P98" s="24"/>
+      <c r="Q98" s="24"/>
+      <c r="R98" s="24"/>
+      <c r="S98" s="24"/>
+      <c r="T98" s="5"/>
+    </row>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A99" s="4"/>
+      <c r="B99" s="24"/>
+      <c r="C99" s="24"/>
+      <c r="D99" s="24"/>
+      <c r="E99" s="24"/>
+      <c r="F99" s="24"/>
+      <c r="G99" s="24"/>
+      <c r="H99" s="24"/>
+      <c r="I99" s="24"/>
+      <c r="J99" s="24"/>
+      <c r="K99" s="24"/>
+      <c r="L99" s="24"/>
+      <c r="M99" s="24"/>
+      <c r="N99" s="24"/>
+      <c r="O99" s="24"/>
+      <c r="P99" s="24"/>
+      <c r="Q99" s="24"/>
+      <c r="R99" s="24"/>
+      <c r="S99" s="24"/>
+      <c r="T99" s="5"/>
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A100" s="4"/>
+      <c r="B100" s="24"/>
+      <c r="C100" s="24"/>
+      <c r="D100" s="24"/>
+      <c r="E100" s="24"/>
+      <c r="F100" s="24"/>
+      <c r="G100" s="24"/>
+      <c r="H100" s="24"/>
+      <c r="I100" s="24"/>
+      <c r="J100" s="24"/>
+      <c r="K100" s="24"/>
+      <c r="L100" s="24"/>
+      <c r="M100" s="24"/>
+      <c r="N100" s="24"/>
+      <c r="O100" s="24"/>
+      <c r="P100" s="24"/>
+      <c r="Q100" s="24"/>
+      <c r="R100" s="24"/>
+      <c r="S100" s="24"/>
+      <c r="T100" s="5"/>
+    </row>
+    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A101" s="4"/>
+      <c r="B101" s="24"/>
+      <c r="C101" s="24"/>
+      <c r="D101" s="24"/>
+      <c r="E101" s="24"/>
+      <c r="F101" s="24"/>
+      <c r="G101" s="24"/>
+      <c r="H101" s="24"/>
+      <c r="I101" s="24"/>
+      <c r="J101" s="24"/>
+      <c r="K101" s="24"/>
+      <c r="L101" s="24"/>
+      <c r="M101" s="24"/>
+      <c r="N101" s="24"/>
+      <c r="O101" s="24"/>
+      <c r="P101" s="24"/>
+      <c r="Q101" s="24"/>
+      <c r="R101" s="24"/>
+      <c r="S101" s="24"/>
+      <c r="T101" s="5"/>
+    </row>
+    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A102" s="4"/>
+      <c r="B102" s="24"/>
+      <c r="C102" s="24"/>
+      <c r="D102" s="24"/>
+      <c r="E102" s="24"/>
+      <c r="F102" s="24"/>
+      <c r="G102" s="24"/>
+      <c r="H102" s="24"/>
+      <c r="I102" s="24"/>
+      <c r="J102" s="24"/>
+      <c r="K102" s="24"/>
+      <c r="L102" s="24"/>
+      <c r="M102" s="24"/>
+      <c r="N102" s="24"/>
+      <c r="O102" s="24"/>
+      <c r="P102" s="24"/>
+      <c r="Q102" s="24"/>
+      <c r="R102" s="24"/>
+      <c r="S102" s="24"/>
+      <c r="T102" s="5"/>
+    </row>
+    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A103" s="6"/>
+      <c r="B103" s="7"/>
+      <c r="C103" s="7"/>
+      <c r="D103" s="7"/>
+      <c r="E103" s="7"/>
+      <c r="F103" s="7"/>
+      <c r="G103" s="7"/>
+      <c r="H103" s="7"/>
+      <c r="I103" s="7"/>
+      <c r="J103" s="7"/>
+      <c r="K103" s="7"/>
+      <c r="L103" s="7"/>
+      <c r="M103" s="7"/>
+      <c r="N103" s="7"/>
+      <c r="O103" s="7"/>
+      <c r="P103" s="7"/>
+      <c r="Q103" s="7"/>
+      <c r="R103" s="7"/>
+      <c r="S103" s="7"/>
+      <c r="T103" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me/2.Apex-Fundamentals.xlsx
+++ b/me/2.Apex-Fundamentals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\salesforce\me\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{123926AF-2D6F-4BFE-B277-BDBC178B353E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{980E02BA-A6E9-44BE-9D4D-1DB394918296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hello World" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="String Class Methods" sheetId="3" r:id="rId3"/>
     <sheet name="Escape Character" sheetId="4" r:id="rId4"/>
     <sheet name="Adding Comments" sheetId="5" r:id="rId5"/>
+    <sheet name="List Collections Datatype" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="118">
   <si>
     <t>Mở Developer Console trên tab mới</t>
   </si>
@@ -389,6 +390,87 @@
       </rPr>
       <t>/* */</t>
     </r>
+  </si>
+  <si>
+    <t>salesforce\2.Apex-Fundamentals\6.list-collection-datatype.txt</t>
+  </si>
+  <si>
+    <t>6.list-collection-datatype.txt</t>
+  </si>
+  <si>
+    <t>List&lt;Integer&gt; rollNumbers = new List&lt;Integer&gt;{11008890, 11008100, 11007231};</t>
+  </si>
+  <si>
+    <t>System.debug(rollNumbers);</t>
+  </si>
+  <si>
+    <t>rollNumbers.add(89897767);</t>
+  </si>
+  <si>
+    <t>rollNumbers.add(89897764);</t>
+  </si>
+  <si>
+    <t>rollNumbers.add(89897765);</t>
+  </si>
+  <si>
+    <t>// get item on index 1</t>
+  </si>
+  <si>
+    <t>Integer rollNum = rollNumbers.get(1);</t>
+  </si>
+  <si>
+    <t>System.debug(rollNum);</t>
+  </si>
+  <si>
+    <t>System.debug(rollNumbers.get(1));</t>
+  </si>
+  <si>
+    <t>// add item on index 4</t>
+  </si>
+  <si>
+    <t>rollNumbers.add(4, 99990000);</t>
+  </si>
+  <si>
+    <t>// get the list size</t>
+  </si>
+  <si>
+    <t>System.debug(rollNumbers.size());</t>
+  </si>
+  <si>
+    <t>// remove the item on index 3</t>
+  </si>
+  <si>
+    <t>rollNumbers.remove(3);</t>
+  </si>
+  <si>
+    <t>// update item on index 1</t>
+  </si>
+  <si>
+    <t>rollNumbers.set(1, 44444444);</t>
+  </si>
+  <si>
+    <t>// clear the list</t>
+  </si>
+  <si>
+    <t>rollNumbers.clear();</t>
+  </si>
+  <si>
+    <t>// below line will throw an error</t>
+  </si>
+  <si>
+    <t>Thêm phần tử vào cuối List</t>
+  </si>
+  <si>
+    <t>Các index của List có giá trị lần lượt từ giá trị 0, 1, 2…</t>
+  </si>
+  <si>
+    <t>/*</t>
+  </si>
+  <si>
+    <t>https://developer.salesforce.com/docs/atlas.en-us.apexref.meta/apexref/apex_methods_system_string.htm</t>
+  </si>
+  <si>
+    <t>https://developer.salesforce.com/docs/atlas.en-us.apexref.meta/apexref/apex_methods_system_list.htm</t>
   </si>
 </sst>
 </file>
@@ -517,7 +599,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -538,17 +620,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1993,13 +2068,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>162330</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2037,13 +2112,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>67428</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2081,13 +2156,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>127</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>129</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2128,6 +2203,50 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>40095</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D4726A1-CD22-70CD-E368-222422CE575E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="666750" y="628651"/>
+          <a:ext cx="11296650" cy="5697944"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2425,6 +2544,196 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>193860</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>94130</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>468679</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>122059</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E60BE05-B69F-B184-4A34-67CFAD4EA84E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8665507" y="5999630"/>
+          <a:ext cx="11166937" cy="5171429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>168087</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>56030</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>510986</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>48555</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C57FDA3B-209E-4456-8461-9F3272EF6A61}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8639734" y="246530"/>
+          <a:ext cx="11235017" cy="5517025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>549088</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>493059</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1DAABC2-F7C2-3E19-D9FF-F9433F57DAAC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2364441" y="4101353"/>
+          <a:ext cx="11441206" cy="3081618"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>56031</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>89648</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>313766</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>107280</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{440CAE66-2F61-0E18-8205-1142B95F3972}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="661149" y="851648"/>
+          <a:ext cx="11149852" cy="5542132"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2691,7 +3000,7 @@
   <dimension ref="A2:T317"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E6"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4099,8 +4408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82B92C1D-F078-402F-9CBE-00A6C09FD094}">
   <dimension ref="A2:T181"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:F9"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5003,412 +5312,956 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{955A85CC-5A2A-4587-B69E-7817EC3A7E85}">
-  <dimension ref="A3:T103"/>
+  <dimension ref="A3:T137"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:F9"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B3" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="3"/>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B4" s="4"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="5"/>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B5" s="4"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="5"/>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B6" s="4"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="5"/>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B7" s="4"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="5"/>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B8" s="4"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="5"/>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B9" s="4"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="5"/>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B10" s="4"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="5"/>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B11" s="4"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="5"/>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B12" s="4"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="5"/>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B13" s="4"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="5"/>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B14" s="4"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="5"/>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B15" s="4"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="15"/>
+      <c r="S15" s="15"/>
+      <c r="T15" s="5"/>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B16" s="4"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="15"/>
+      <c r="S16" s="15"/>
+      <c r="T16" s="5"/>
+    </row>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B17" s="4"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="15"/>
+      <c r="T17" s="5"/>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B18" s="4"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="15"/>
+      <c r="S18" s="15"/>
+      <c r="T18" s="5"/>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B19" s="4"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="15"/>
+      <c r="S19" s="15"/>
+      <c r="T19" s="5"/>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B20" s="4"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="15"/>
+      <c r="S20" s="15"/>
+      <c r="T20" s="5"/>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B21" s="4"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="15"/>
+      <c r="S21" s="15"/>
+      <c r="T21" s="5"/>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B22" s="4"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="15"/>
+      <c r="S22" s="15"/>
+      <c r="T22" s="5"/>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B23" s="4"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="15"/>
+      <c r="S23" s="15"/>
+      <c r="T23" s="5"/>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B24" s="4"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="15"/>
+      <c r="S24" s="15"/>
+      <c r="T24" s="5"/>
+    </row>
+    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B25" s="4"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="15"/>
+      <c r="R25" s="15"/>
+      <c r="S25" s="15"/>
+      <c r="T25" s="5"/>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B26" s="4"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="15"/>
+      <c r="R26" s="15"/>
+      <c r="S26" s="15"/>
+      <c r="T26" s="5"/>
+    </row>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B27" s="4"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="15"/>
+      <c r="R27" s="15"/>
+      <c r="S27" s="15"/>
+      <c r="T27" s="5"/>
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B28" s="4"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="15"/>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="15"/>
+      <c r="R28" s="15"/>
+      <c r="S28" s="15"/>
+      <c r="T28" s="5"/>
+    </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B29" s="4"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="15"/>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="15"/>
+      <c r="R29" s="15"/>
+      <c r="S29" s="15"/>
+      <c r="T29" s="5"/>
+    </row>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B30" s="4"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="15"/>
+      <c r="O30" s="15"/>
+      <c r="P30" s="15"/>
+      <c r="Q30" s="15"/>
+      <c r="R30" s="15"/>
+      <c r="S30" s="15"/>
+      <c r="T30" s="5"/>
+    </row>
+    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B31" s="4"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="15"/>
+      <c r="P31" s="15"/>
+      <c r="Q31" s="15"/>
+      <c r="R31" s="15"/>
+      <c r="S31" s="15"/>
+      <c r="T31" s="5"/>
+    </row>
+    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B32" s="4"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="15"/>
+      <c r="O32" s="15"/>
+      <c r="P32" s="15"/>
+      <c r="Q32" s="15"/>
+      <c r="R32" s="15"/>
+      <c r="S32" s="15"/>
+      <c r="T32" s="5"/>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B33" s="4"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="15"/>
+      <c r="M33" s="15"/>
+      <c r="N33" s="15"/>
+      <c r="O33" s="15"/>
+      <c r="P33" s="15"/>
+      <c r="Q33" s="15"/>
+      <c r="R33" s="15"/>
+      <c r="S33" s="15"/>
+      <c r="T33" s="5"/>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B34" s="6"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7"/>
+      <c r="R34" s="7"/>
+      <c r="S34" s="7"/>
+      <c r="T34" s="8"/>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A37" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B38" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="4"/>
-      <c r="C5" t="s">
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="3"/>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B39" s="4"/>
+      <c r="C39" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="4"/>
-      <c r="D6" t="s">
+      <c r="F39" s="5"/>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B40" s="4"/>
+      <c r="D40" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="5"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="4"/>
-      <c r="D7" t="s">
+      <c r="F40" s="5"/>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B41" s="4"/>
+      <c r="D41" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="4"/>
-      <c r="D8" s="10" t="s">
+      <c r="F41" s="5"/>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B42" s="4"/>
+      <c r="D42" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="6"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="8"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="F42" s="5"/>
+      <c r="G42" t="s">
+        <v>17</v>
+      </c>
+      <c r="H42" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B43" s="6"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="8"/>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B47" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="4" t="s">
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="3"/>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B48" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="K14" s="5"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="4"/>
-      <c r="K15" s="5"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="4" t="s">
+      <c r="K48" s="5"/>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B49" s="4"/>
+      <c r="K49" s="5"/>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B50" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="K16" s="5"/>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="4" t="s">
+      <c r="K50" s="5"/>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B51" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K17" s="5"/>
-      <c r="L17" t="s">
+      <c r="K51" s="5"/>
+      <c r="L51" t="s">
         <v>17</v>
       </c>
-      <c r="M17" t="s">
+      <c r="M51" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="4"/>
-      <c r="K18" s="5"/>
-      <c r="M18" t="s">
+    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B52" s="4"/>
+      <c r="K52" s="5"/>
+      <c r="M52" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="4" t="s">
+    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B53" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="K19" s="5"/>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="4" t="s">
+      <c r="K53" s="5"/>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B54" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="K20" s="5"/>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B21" s="4"/>
-      <c r="K21" s="5"/>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="4" t="s">
+      <c r="K54" s="5"/>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B55" s="4"/>
+      <c r="K55" s="5"/>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B56" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="K22" s="5"/>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B23" s="4" t="s">
+      <c r="K56" s="5"/>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B57" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="K23" s="5"/>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B24" s="4" t="s">
+      <c r="K57" s="5"/>
+    </row>
+    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B58" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="K24" s="5"/>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B25" s="4" t="s">
+      <c r="K58" s="5"/>
+    </row>
+    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B59" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="K25" s="5"/>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B26" s="4"/>
-      <c r="K26" s="5"/>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B27" s="4" t="s">
+      <c r="K59" s="5"/>
+    </row>
+    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B60" s="4"/>
+      <c r="K60" s="5"/>
+    </row>
+    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B61" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="K27" s="5"/>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B28" s="4" t="s">
+      <c r="K61" s="5"/>
+    </row>
+    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B62" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="K28" s="5"/>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B29" s="4" t="s">
+      <c r="K62" s="5"/>
+    </row>
+    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B63" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="K29" s="5"/>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B30" s="4" t="s">
+      <c r="K63" s="5"/>
+    </row>
+    <row r="64" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B64" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="K30" s="5"/>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B31" s="4" t="s">
+      <c r="K64" s="5"/>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B65" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="K31" s="5"/>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B32" s="4" t="s">
+      <c r="K65" s="5"/>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B66" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="K32" s="5"/>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B33" s="4"/>
-      <c r="K33" s="5"/>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B34" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="K34" s="5"/>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B35" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="K35" s="5"/>
-    </row>
-    <row r="36" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B36" s="4"/>
-      <c r="K36" s="5"/>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B37" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="K37" s="5"/>
-    </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B38" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="K38" s="5"/>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B39" s="4"/>
-      <c r="K39" s="5"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B40" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="K40" s="5"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B41" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7"/>
-      <c r="K41" s="8"/>
-      <c r="M41" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B44" s="1"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
-      <c r="P44" s="2"/>
-      <c r="Q44" s="2"/>
-      <c r="R44" s="2"/>
-      <c r="S44" s="2"/>
-      <c r="T44" s="3"/>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B45" s="4"/>
-      <c r="T45" s="5"/>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B46" s="4"/>
-      <c r="T46" s="5"/>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B47" s="4"/>
-      <c r="T47" s="5"/>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B48" s="4"/>
-      <c r="T48" s="5"/>
-    </row>
-    <row r="49" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B49" s="4"/>
-      <c r="T49" s="5"/>
-    </row>
-    <row r="50" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B50" s="4"/>
-      <c r="T50" s="5"/>
-    </row>
-    <row r="51" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B51" s="4"/>
-      <c r="T51" s="5"/>
-    </row>
-    <row r="52" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B52" s="4"/>
-      <c r="T52" s="5"/>
-    </row>
-    <row r="53" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B53" s="4"/>
-      <c r="T53" s="5"/>
-    </row>
-    <row r="54" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B54" s="4"/>
-      <c r="T54" s="5"/>
-    </row>
-    <row r="55" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B55" s="4"/>
-      <c r="T55" s="5"/>
-    </row>
-    <row r="56" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B56" s="4"/>
-      <c r="T56" s="5"/>
-    </row>
-    <row r="57" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B57" s="4"/>
-      <c r="T57" s="5"/>
-    </row>
-    <row r="58" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B58" s="4"/>
-      <c r="T58" s="5"/>
-    </row>
-    <row r="59" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B59" s="4"/>
-      <c r="T59" s="5"/>
-    </row>
-    <row r="60" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B60" s="4"/>
-      <c r="T60" s="5"/>
-    </row>
-    <row r="61" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B61" s="4"/>
-      <c r="T61" s="5"/>
-    </row>
-    <row r="62" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B62" s="4"/>
-      <c r="T62" s="5"/>
-    </row>
-    <row r="63" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B63" s="4"/>
-      <c r="T63" s="5"/>
-    </row>
-    <row r="64" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B64" s="4"/>
-      <c r="T64" s="5"/>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B65" s="4"/>
-      <c r="T65" s="5"/>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B66" s="4"/>
-      <c r="T66" s="5"/>
+      <c r="K66" s="5"/>
     </row>
     <row r="67" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B67" s="4"/>
-      <c r="T67" s="5"/>
+      <c r="K67" s="5"/>
     </row>
     <row r="68" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B68" s="4"/>
-      <c r="T68" s="5"/>
+      <c r="B68" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K68" s="5"/>
     </row>
     <row r="69" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B69" s="4"/>
-      <c r="T69" s="5"/>
+      <c r="B69" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K69" s="5"/>
     </row>
     <row r="70" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B70" s="4"/>
-      <c r="T70" s="5"/>
+      <c r="K70" s="5"/>
     </row>
     <row r="71" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B71" s="4"/>
-      <c r="T71" s="5"/>
+      <c r="B71" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K71" s="5"/>
     </row>
     <row r="72" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B72" s="4"/>
-      <c r="T72" s="5"/>
+      <c r="B72" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="K72" s="5"/>
     </row>
     <row r="73" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B73" s="4"/>
-      <c r="T73" s="5"/>
+      <c r="K73" s="5"/>
     </row>
     <row r="74" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B74" s="4"/>
-      <c r="T74" s="5"/>
+      <c r="B74" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="K74" s="5"/>
     </row>
     <row r="75" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B75" s="4"/>
-      <c r="T75" s="5"/>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B76" s="4"/>
-      <c r="T76" s="5"/>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B77" s="4"/>
-      <c r="T77" s="5"/>
+      <c r="B75" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
+      <c r="I75" s="7"/>
+      <c r="J75" s="7"/>
+      <c r="K75" s="8"/>
+      <c r="M75" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="78" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B78" s="4"/>
-      <c r="T78" s="5"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2"/>
+      <c r="K78" s="2"/>
+      <c r="L78" s="2"/>
+      <c r="M78" s="2"/>
+      <c r="N78" s="2"/>
+      <c r="O78" s="2"/>
+      <c r="P78" s="2"/>
+      <c r="Q78" s="2"/>
+      <c r="R78" s="2"/>
+      <c r="S78" s="2"/>
+      <c r="T78" s="3"/>
     </row>
     <row r="79" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B79" s="4"/>
@@ -5507,25 +6360,161 @@
       <c r="T102" s="5"/>
     </row>
     <row r="103" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B103" s="6"/>
-      <c r="C103" s="7"/>
-      <c r="D103" s="7"/>
-      <c r="E103" s="7"/>
-      <c r="F103" s="7"/>
-      <c r="G103" s="7"/>
-      <c r="H103" s="7"/>
-      <c r="I103" s="7"/>
-      <c r="J103" s="7"/>
-      <c r="K103" s="7"/>
-      <c r="L103" s="7"/>
-      <c r="M103" s="7"/>
-      <c r="N103" s="7"/>
-      <c r="O103" s="7"/>
-      <c r="P103" s="7"/>
-      <c r="Q103" s="7"/>
-      <c r="R103" s="7"/>
-      <c r="S103" s="7"/>
-      <c r="T103" s="8"/>
+      <c r="B103" s="4"/>
+      <c r="T103" s="5"/>
+    </row>
+    <row r="104" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B104" s="4"/>
+      <c r="T104" s="5"/>
+    </row>
+    <row r="105" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B105" s="4"/>
+      <c r="T105" s="5"/>
+    </row>
+    <row r="106" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B106" s="4"/>
+      <c r="T106" s="5"/>
+    </row>
+    <row r="107" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B107" s="4"/>
+      <c r="T107" s="5"/>
+    </row>
+    <row r="108" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B108" s="4"/>
+      <c r="T108" s="5"/>
+    </row>
+    <row r="109" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B109" s="4"/>
+      <c r="T109" s="5"/>
+    </row>
+    <row r="110" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B110" s="4"/>
+      <c r="T110" s="5"/>
+    </row>
+    <row r="111" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B111" s="4"/>
+      <c r="T111" s="5"/>
+    </row>
+    <row r="112" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B112" s="4"/>
+      <c r="T112" s="5"/>
+    </row>
+    <row r="113" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B113" s="4"/>
+      <c r="T113" s="5"/>
+    </row>
+    <row r="114" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B114" s="4"/>
+      <c r="T114" s="5"/>
+    </row>
+    <row r="115" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B115" s="4"/>
+      <c r="T115" s="5"/>
+    </row>
+    <row r="116" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B116" s="4"/>
+      <c r="T116" s="5"/>
+    </row>
+    <row r="117" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B117" s="4"/>
+      <c r="T117" s="5"/>
+    </row>
+    <row r="118" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B118" s="4"/>
+      <c r="T118" s="5"/>
+    </row>
+    <row r="119" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B119" s="4"/>
+      <c r="T119" s="5"/>
+    </row>
+    <row r="120" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B120" s="4"/>
+      <c r="T120" s="5"/>
+    </row>
+    <row r="121" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B121" s="4"/>
+      <c r="T121" s="5"/>
+    </row>
+    <row r="122" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B122" s="4"/>
+      <c r="T122" s="5"/>
+    </row>
+    <row r="123" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B123" s="4"/>
+      <c r="T123" s="5"/>
+    </row>
+    <row r="124" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B124" s="4"/>
+      <c r="T124" s="5"/>
+    </row>
+    <row r="125" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B125" s="4"/>
+      <c r="T125" s="5"/>
+    </row>
+    <row r="126" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B126" s="4"/>
+      <c r="T126" s="5"/>
+    </row>
+    <row r="127" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B127" s="4"/>
+      <c r="T127" s="5"/>
+    </row>
+    <row r="128" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B128" s="4"/>
+      <c r="T128" s="5"/>
+    </row>
+    <row r="129" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B129" s="4"/>
+      <c r="T129" s="5"/>
+    </row>
+    <row r="130" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B130" s="4"/>
+      <c r="T130" s="5"/>
+    </row>
+    <row r="131" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B131" s="4"/>
+      <c r="T131" s="5"/>
+    </row>
+    <row r="132" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B132" s="4"/>
+      <c r="T132" s="5"/>
+    </row>
+    <row r="133" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B133" s="4"/>
+      <c r="T133" s="5"/>
+    </row>
+    <row r="134" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B134" s="4"/>
+      <c r="T134" s="5"/>
+    </row>
+    <row r="135" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B135" s="4"/>
+      <c r="T135" s="5"/>
+    </row>
+    <row r="136" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B136" s="4"/>
+      <c r="T136" s="5"/>
+    </row>
+    <row r="137" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B137" s="6"/>
+      <c r="C137" s="7"/>
+      <c r="D137" s="7"/>
+      <c r="E137" s="7"/>
+      <c r="F137" s="7"/>
+      <c r="G137" s="7"/>
+      <c r="H137" s="7"/>
+      <c r="I137" s="7"/>
+      <c r="J137" s="7"/>
+      <c r="K137" s="7"/>
+      <c r="L137" s="7"/>
+      <c r="M137" s="7"/>
+      <c r="N137" s="7"/>
+      <c r="O137" s="7"/>
+      <c r="P137" s="7"/>
+      <c r="Q137" s="7"/>
+      <c r="R137" s="7"/>
+      <c r="S137" s="7"/>
+      <c r="T137" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5537,8 +6526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6F5C844-989B-4063-8984-7E05E0019EFA}">
   <dimension ref="A3:T76"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:F10"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5591,6 +6580,12 @@
         <v>77</v>
       </c>
       <c r="F9" s="5"/>
+      <c r="G9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="6"/>
@@ -5908,111 +6903,92 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33BB3148-3A03-489F-B349-9C98BD9F098C}">
   <dimension ref="A2:T103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
-      <c r="B6" s="16" t="s">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="18"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="15" t="s">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="4"/>
+      <c r="C7" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="20"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15" t="s">
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="4"/>
+      <c r="D8" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="20"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15" t="s">
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="4"/>
+      <c r="D9" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="20"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15" t="s">
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="4"/>
+      <c r="D10" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="20"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15" t="s">
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="4"/>
+      <c r="D11" t="s">
         <v>77</v>
       </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="20"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="15"/>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="4"/>
       <c r="D12" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="20"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="23"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F12" s="5"/>
+      <c r="G12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="6"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>82</v>
       </c>
@@ -6033,320 +7009,152 @@
       <c r="B18" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
       <c r="I18" s="5"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
       <c r="I19" s="5"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="4"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
       <c r="I20" s="5"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
       <c r="I21" s="5"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
       <c r="I22" s="5"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="4"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
       <c r="I23" s="5"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
       <c r="I24" s="5"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
       <c r="I25" s="5"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="4"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
       <c r="I26" s="5"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
       <c r="I27" s="5"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
       <c r="I28" s="5"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="4"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
       <c r="I29" s="5"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
       <c r="I30" s="5"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
       <c r="I31" s="5"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="4"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
       <c r="I32" s="5"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
       <c r="I33" s="5"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="24"/>
       <c r="I34" s="5"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="4"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="24"/>
       <c r="I35" s="5"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="24"/>
       <c r="I36" s="5"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="24"/>
       <c r="I37" s="5"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="4"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="24"/>
       <c r="I38" s="5"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="24"/>
       <c r="I39" s="5"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="24"/>
       <c r="I40" s="5"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="24"/>
-      <c r="H41" s="24"/>
       <c r="I41" s="5"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="24"/>
-      <c r="H42" s="24"/>
       <c r="I42" s="5"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="4"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="24"/>
-      <c r="H43" s="24"/>
       <c r="I43" s="5"/>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="24"/>
-      <c r="H44" s="24"/>
       <c r="I44" s="5"/>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="24"/>
-      <c r="H45" s="24"/>
       <c r="I45" s="5"/>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
@@ -6385,1168 +7193,214 @@
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
-      <c r="B50" s="24"/>
-      <c r="C50" s="24"/>
-      <c r="D50" s="24"/>
-      <c r="E50" s="24"/>
-      <c r="F50" s="24"/>
-      <c r="G50" s="24"/>
-      <c r="H50" s="24"/>
-      <c r="I50" s="24"/>
-      <c r="J50" s="24"/>
-      <c r="K50" s="24"/>
-      <c r="L50" s="24"/>
-      <c r="M50" s="24"/>
-      <c r="N50" s="24"/>
-      <c r="O50" s="24"/>
-      <c r="P50" s="24"/>
-      <c r="Q50" s="24"/>
-      <c r="R50" s="24"/>
-      <c r="S50" s="24"/>
       <c r="T50" s="5"/>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
-      <c r="B51" s="24"/>
-      <c r="C51" s="24"/>
-      <c r="D51" s="24"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="24"/>
-      <c r="G51" s="24"/>
-      <c r="H51" s="24"/>
-      <c r="I51" s="24"/>
-      <c r="J51" s="24"/>
-      <c r="K51" s="24"/>
-      <c r="L51" s="24"/>
-      <c r="M51" s="24"/>
-      <c r="N51" s="24"/>
-      <c r="O51" s="24"/>
-      <c r="P51" s="24"/>
-      <c r="Q51" s="24"/>
-      <c r="R51" s="24"/>
-      <c r="S51" s="24"/>
       <c r="T51" s="5"/>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
-      <c r="B52" s="24"/>
-      <c r="C52" s="24"/>
-      <c r="D52" s="24"/>
-      <c r="E52" s="24"/>
-      <c r="F52" s="24"/>
-      <c r="G52" s="24"/>
-      <c r="H52" s="24"/>
-      <c r="I52" s="24"/>
-      <c r="J52" s="24"/>
-      <c r="K52" s="24"/>
-      <c r="L52" s="24"/>
-      <c r="M52" s="24"/>
-      <c r="N52" s="24"/>
-      <c r="O52" s="24"/>
-      <c r="P52" s="24"/>
-      <c r="Q52" s="24"/>
-      <c r="R52" s="24"/>
-      <c r="S52" s="24"/>
       <c r="T52" s="5"/>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
-      <c r="B53" s="24"/>
-      <c r="C53" s="24"/>
-      <c r="D53" s="24"/>
-      <c r="E53" s="24"/>
-      <c r="F53" s="24"/>
-      <c r="G53" s="24"/>
-      <c r="H53" s="24"/>
-      <c r="I53" s="24"/>
-      <c r="J53" s="24"/>
-      <c r="K53" s="24"/>
-      <c r="L53" s="24"/>
-      <c r="M53" s="24"/>
-      <c r="N53" s="24"/>
-      <c r="O53" s="24"/>
-      <c r="P53" s="24"/>
-      <c r="Q53" s="24"/>
-      <c r="R53" s="24"/>
-      <c r="S53" s="24"/>
       <c r="T53" s="5"/>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
-      <c r="B54" s="24"/>
-      <c r="C54" s="24"/>
-      <c r="D54" s="24"/>
-      <c r="E54" s="24"/>
-      <c r="F54" s="24"/>
-      <c r="G54" s="24"/>
-      <c r="H54" s="24"/>
-      <c r="I54" s="24"/>
-      <c r="J54" s="24"/>
-      <c r="K54" s="24"/>
-      <c r="L54" s="24"/>
-      <c r="M54" s="24"/>
-      <c r="N54" s="24"/>
-      <c r="O54" s="24"/>
-      <c r="P54" s="24"/>
-      <c r="Q54" s="24"/>
-      <c r="R54" s="24"/>
-      <c r="S54" s="24"/>
       <c r="T54" s="5"/>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
-      <c r="B55" s="24"/>
-      <c r="C55" s="24"/>
-      <c r="D55" s="24"/>
-      <c r="E55" s="24"/>
-      <c r="F55" s="24"/>
-      <c r="G55" s="24"/>
-      <c r="H55" s="24"/>
-      <c r="I55" s="24"/>
-      <c r="J55" s="24"/>
-      <c r="K55" s="24"/>
-      <c r="L55" s="24"/>
-      <c r="M55" s="24"/>
-      <c r="N55" s="24"/>
-      <c r="O55" s="24"/>
-      <c r="P55" s="24"/>
-      <c r="Q55" s="24"/>
-      <c r="R55" s="24"/>
-      <c r="S55" s="24"/>
       <c r="T55" s="5"/>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
-      <c r="B56" s="24"/>
-      <c r="C56" s="24"/>
-      <c r="D56" s="24"/>
-      <c r="E56" s="24"/>
-      <c r="F56" s="24"/>
-      <c r="G56" s="24"/>
-      <c r="H56" s="24"/>
-      <c r="I56" s="24"/>
-      <c r="J56" s="24"/>
-      <c r="K56" s="24"/>
-      <c r="L56" s="24"/>
-      <c r="M56" s="24"/>
-      <c r="N56" s="24"/>
-      <c r="O56" s="24"/>
-      <c r="P56" s="24"/>
-      <c r="Q56" s="24"/>
-      <c r="R56" s="24"/>
-      <c r="S56" s="24"/>
       <c r="T56" s="5"/>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
-      <c r="B57" s="24"/>
-      <c r="C57" s="24"/>
-      <c r="D57" s="24"/>
-      <c r="E57" s="24"/>
-      <c r="F57" s="24"/>
-      <c r="G57" s="24"/>
-      <c r="H57" s="24"/>
-      <c r="I57" s="24"/>
-      <c r="J57" s="24"/>
-      <c r="K57" s="24"/>
-      <c r="L57" s="24"/>
-      <c r="M57" s="24"/>
-      <c r="N57" s="24"/>
-      <c r="O57" s="24"/>
-      <c r="P57" s="24"/>
-      <c r="Q57" s="24"/>
-      <c r="R57" s="24"/>
-      <c r="S57" s="24"/>
       <c r="T57" s="5"/>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
-      <c r="B58" s="24"/>
-      <c r="C58" s="24"/>
-      <c r="D58" s="24"/>
-      <c r="E58" s="24"/>
-      <c r="F58" s="24"/>
-      <c r="G58" s="24"/>
-      <c r="H58" s="24"/>
-      <c r="I58" s="24"/>
-      <c r="J58" s="24"/>
-      <c r="K58" s="24"/>
-      <c r="L58" s="24"/>
-      <c r="M58" s="24"/>
-      <c r="N58" s="24"/>
-      <c r="O58" s="24"/>
-      <c r="P58" s="24"/>
-      <c r="Q58" s="24"/>
-      <c r="R58" s="24"/>
-      <c r="S58" s="24"/>
       <c r="T58" s="5"/>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
-      <c r="B59" s="24"/>
-      <c r="C59" s="24"/>
-      <c r="D59" s="24"/>
-      <c r="E59" s="24"/>
-      <c r="F59" s="24"/>
-      <c r="G59" s="24"/>
-      <c r="H59" s="24"/>
-      <c r="I59" s="24"/>
-      <c r="J59" s="24"/>
-      <c r="K59" s="24"/>
-      <c r="L59" s="24"/>
-      <c r="M59" s="24"/>
-      <c r="N59" s="24"/>
-      <c r="O59" s="24"/>
-      <c r="P59" s="24"/>
-      <c r="Q59" s="24"/>
-      <c r="R59" s="24"/>
-      <c r="S59" s="24"/>
       <c r="T59" s="5"/>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
-      <c r="B60" s="24"/>
-      <c r="C60" s="24"/>
-      <c r="D60" s="24"/>
-      <c r="E60" s="24"/>
-      <c r="F60" s="24"/>
-      <c r="G60" s="24"/>
-      <c r="H60" s="24"/>
-      <c r="I60" s="24"/>
-      <c r="J60" s="24"/>
-      <c r="K60" s="24"/>
-      <c r="L60" s="24"/>
-      <c r="M60" s="24"/>
-      <c r="N60" s="24"/>
-      <c r="O60" s="24"/>
-      <c r="P60" s="24"/>
-      <c r="Q60" s="24"/>
-      <c r="R60" s="24"/>
-      <c r="S60" s="24"/>
       <c r="T60" s="5"/>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
-      <c r="B61" s="24"/>
-      <c r="C61" s="24"/>
-      <c r="D61" s="24"/>
-      <c r="E61" s="24"/>
-      <c r="F61" s="24"/>
-      <c r="G61" s="24"/>
-      <c r="H61" s="24"/>
-      <c r="I61" s="24"/>
-      <c r="J61" s="24"/>
-      <c r="K61" s="24"/>
-      <c r="L61" s="24"/>
-      <c r="M61" s="24"/>
-      <c r="N61" s="24"/>
-      <c r="O61" s="24"/>
-      <c r="P61" s="24"/>
-      <c r="Q61" s="24"/>
-      <c r="R61" s="24"/>
-      <c r="S61" s="24"/>
       <c r="T61" s="5"/>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
-      <c r="B62" s="24"/>
-      <c r="C62" s="24"/>
-      <c r="D62" s="24"/>
-      <c r="E62" s="24"/>
-      <c r="F62" s="24"/>
-      <c r="G62" s="24"/>
-      <c r="H62" s="24"/>
-      <c r="I62" s="24"/>
-      <c r="J62" s="24"/>
-      <c r="K62" s="24"/>
-      <c r="L62" s="24"/>
-      <c r="M62" s="24"/>
-      <c r="N62" s="24"/>
-      <c r="O62" s="24"/>
-      <c r="P62" s="24"/>
-      <c r="Q62" s="24"/>
-      <c r="R62" s="24"/>
-      <c r="S62" s="24"/>
       <c r="T62" s="5"/>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
-      <c r="B63" s="24"/>
-      <c r="C63" s="24"/>
-      <c r="D63" s="24"/>
-      <c r="E63" s="24"/>
-      <c r="F63" s="24"/>
-      <c r="G63" s="24"/>
-      <c r="H63" s="24"/>
-      <c r="I63" s="24"/>
-      <c r="J63" s="24"/>
-      <c r="K63" s="24"/>
-      <c r="L63" s="24"/>
-      <c r="M63" s="24"/>
-      <c r="N63" s="24"/>
-      <c r="O63" s="24"/>
-      <c r="P63" s="24"/>
-      <c r="Q63" s="24"/>
-      <c r="R63" s="24"/>
-      <c r="S63" s="24"/>
       <c r="T63" s="5"/>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
-      <c r="B64" s="24"/>
-      <c r="C64" s="24"/>
-      <c r="D64" s="24"/>
-      <c r="E64" s="24"/>
-      <c r="F64" s="24"/>
-      <c r="G64" s="24"/>
-      <c r="H64" s="24"/>
-      <c r="I64" s="24"/>
-      <c r="J64" s="24"/>
-      <c r="K64" s="24"/>
-      <c r="L64" s="24"/>
-      <c r="M64" s="24"/>
-      <c r="N64" s="24"/>
-      <c r="O64" s="24"/>
-      <c r="P64" s="24"/>
-      <c r="Q64" s="24"/>
-      <c r="R64" s="24"/>
-      <c r="S64" s="24"/>
       <c r="T64" s="5"/>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
-      <c r="B65" s="24"/>
-      <c r="C65" s="24"/>
-      <c r="D65" s="24"/>
-      <c r="E65" s="24"/>
-      <c r="F65" s="24"/>
-      <c r="G65" s="24"/>
-      <c r="H65" s="24"/>
-      <c r="I65" s="24"/>
-      <c r="J65" s="24"/>
-      <c r="K65" s="24"/>
-      <c r="L65" s="24"/>
-      <c r="M65" s="24"/>
-      <c r="N65" s="24"/>
-      <c r="O65" s="24"/>
-      <c r="P65" s="24"/>
-      <c r="Q65" s="24"/>
-      <c r="R65" s="24"/>
-      <c r="S65" s="24"/>
       <c r="T65" s="5"/>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
-      <c r="B66" s="24"/>
-      <c r="C66" s="24"/>
-      <c r="D66" s="24"/>
-      <c r="E66" s="24"/>
-      <c r="F66" s="24"/>
-      <c r="G66" s="24"/>
-      <c r="H66" s="24"/>
-      <c r="I66" s="24"/>
-      <c r="J66" s="24"/>
-      <c r="K66" s="24"/>
-      <c r="L66" s="24"/>
-      <c r="M66" s="24"/>
-      <c r="N66" s="24"/>
-      <c r="O66" s="24"/>
-      <c r="P66" s="24"/>
-      <c r="Q66" s="24"/>
-      <c r="R66" s="24"/>
-      <c r="S66" s="24"/>
       <c r="T66" s="5"/>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
-      <c r="B67" s="24"/>
-      <c r="C67" s="24"/>
-      <c r="D67" s="24"/>
-      <c r="E67" s="24"/>
-      <c r="F67" s="24"/>
-      <c r="G67" s="24"/>
-      <c r="H67" s="24"/>
-      <c r="I67" s="24"/>
-      <c r="J67" s="24"/>
-      <c r="K67" s="24"/>
-      <c r="L67" s="24"/>
-      <c r="M67" s="24"/>
-      <c r="N67" s="24"/>
-      <c r="O67" s="24"/>
-      <c r="P67" s="24"/>
-      <c r="Q67" s="24"/>
-      <c r="R67" s="24"/>
-      <c r="S67" s="24"/>
       <c r="T67" s="5"/>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
-      <c r="B68" s="24"/>
-      <c r="C68" s="24"/>
-      <c r="D68" s="24"/>
-      <c r="E68" s="24"/>
-      <c r="F68" s="24"/>
-      <c r="G68" s="24"/>
-      <c r="H68" s="24"/>
-      <c r="I68" s="24"/>
-      <c r="J68" s="24"/>
-      <c r="K68" s="24"/>
-      <c r="L68" s="24"/>
-      <c r="M68" s="24"/>
-      <c r="N68" s="24"/>
-      <c r="O68" s="24"/>
-      <c r="P68" s="24"/>
-      <c r="Q68" s="24"/>
-      <c r="R68" s="24"/>
-      <c r="S68" s="24"/>
       <c r="T68" s="5"/>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
-      <c r="B69" s="24"/>
-      <c r="C69" s="24"/>
-      <c r="D69" s="24"/>
-      <c r="E69" s="24"/>
-      <c r="F69" s="24"/>
-      <c r="G69" s="24"/>
-      <c r="H69" s="24"/>
-      <c r="I69" s="24"/>
-      <c r="J69" s="24"/>
-      <c r="K69" s="24"/>
-      <c r="L69" s="24"/>
-      <c r="M69" s="24"/>
-      <c r="N69" s="24"/>
-      <c r="O69" s="24"/>
-      <c r="P69" s="24"/>
-      <c r="Q69" s="24"/>
-      <c r="R69" s="24"/>
-      <c r="S69" s="24"/>
       <c r="T69" s="5"/>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
-      <c r="B70" s="24"/>
-      <c r="C70" s="24"/>
-      <c r="D70" s="24"/>
-      <c r="E70" s="24"/>
-      <c r="F70" s="24"/>
-      <c r="G70" s="24"/>
-      <c r="H70" s="24"/>
-      <c r="I70" s="24"/>
-      <c r="J70" s="24"/>
-      <c r="K70" s="24"/>
-      <c r="L70" s="24"/>
-      <c r="M70" s="24"/>
-      <c r="N70" s="24"/>
-      <c r="O70" s="24"/>
-      <c r="P70" s="24"/>
-      <c r="Q70" s="24"/>
-      <c r="R70" s="24"/>
-      <c r="S70" s="24"/>
       <c r="T70" s="5"/>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
-      <c r="B71" s="24"/>
-      <c r="C71" s="24"/>
-      <c r="D71" s="24"/>
-      <c r="E71" s="24"/>
-      <c r="F71" s="24"/>
-      <c r="G71" s="24"/>
-      <c r="H71" s="24"/>
-      <c r="I71" s="24"/>
-      <c r="J71" s="24"/>
-      <c r="K71" s="24"/>
-      <c r="L71" s="24"/>
-      <c r="M71" s="24"/>
-      <c r="N71" s="24"/>
-      <c r="O71" s="24"/>
-      <c r="P71" s="24"/>
-      <c r="Q71" s="24"/>
-      <c r="R71" s="24"/>
-      <c r="S71" s="24"/>
       <c r="T71" s="5"/>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
-      <c r="B72" s="24"/>
-      <c r="C72" s="24"/>
-      <c r="D72" s="24"/>
-      <c r="E72" s="24"/>
-      <c r="F72" s="24"/>
-      <c r="G72" s="24"/>
-      <c r="H72" s="24"/>
-      <c r="I72" s="24"/>
-      <c r="J72" s="24"/>
-      <c r="K72" s="24"/>
-      <c r="L72" s="24"/>
-      <c r="M72" s="24"/>
-      <c r="N72" s="24"/>
-      <c r="O72" s="24"/>
-      <c r="P72" s="24"/>
-      <c r="Q72" s="24"/>
-      <c r="R72" s="24"/>
-      <c r="S72" s="24"/>
       <c r="T72" s="5"/>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
-      <c r="B73" s="24"/>
-      <c r="C73" s="24"/>
-      <c r="D73" s="24"/>
-      <c r="E73" s="24"/>
-      <c r="F73" s="24"/>
-      <c r="G73" s="24"/>
-      <c r="H73" s="24"/>
-      <c r="I73" s="24"/>
-      <c r="J73" s="24"/>
-      <c r="K73" s="24"/>
-      <c r="L73" s="24"/>
-      <c r="M73" s="24"/>
-      <c r="N73" s="24"/>
-      <c r="O73" s="24"/>
-      <c r="P73" s="24"/>
-      <c r="Q73" s="24"/>
-      <c r="R73" s="24"/>
-      <c r="S73" s="24"/>
       <c r="T73" s="5"/>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
-      <c r="B74" s="24"/>
-      <c r="C74" s="24"/>
-      <c r="D74" s="24"/>
-      <c r="E74" s="24"/>
-      <c r="F74" s="24"/>
-      <c r="G74" s="24"/>
-      <c r="H74" s="24"/>
-      <c r="I74" s="24"/>
-      <c r="J74" s="24"/>
-      <c r="K74" s="24"/>
-      <c r="L74" s="24"/>
-      <c r="M74" s="24"/>
-      <c r="N74" s="24"/>
-      <c r="O74" s="24"/>
-      <c r="P74" s="24"/>
-      <c r="Q74" s="24"/>
-      <c r="R74" s="24"/>
-      <c r="S74" s="24"/>
       <c r="T74" s="5"/>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
-      <c r="B75" s="24"/>
-      <c r="C75" s="24"/>
-      <c r="D75" s="24"/>
-      <c r="E75" s="24"/>
-      <c r="F75" s="24"/>
-      <c r="G75" s="24"/>
-      <c r="H75" s="24"/>
-      <c r="I75" s="24"/>
-      <c r="J75" s="24"/>
-      <c r="K75" s="24"/>
-      <c r="L75" s="24"/>
-      <c r="M75" s="24"/>
-      <c r="N75" s="24"/>
-      <c r="O75" s="24"/>
-      <c r="P75" s="24"/>
-      <c r="Q75" s="24"/>
-      <c r="R75" s="24"/>
-      <c r="S75" s="24"/>
       <c r="T75" s="5"/>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
-      <c r="B76" s="24"/>
-      <c r="C76" s="24"/>
-      <c r="D76" s="24"/>
-      <c r="E76" s="24"/>
-      <c r="F76" s="24"/>
-      <c r="G76" s="24"/>
-      <c r="H76" s="24"/>
-      <c r="I76" s="24"/>
-      <c r="J76" s="24"/>
-      <c r="K76" s="24"/>
-      <c r="L76" s="24"/>
-      <c r="M76" s="24"/>
-      <c r="N76" s="24"/>
-      <c r="O76" s="24"/>
-      <c r="P76" s="24"/>
-      <c r="Q76" s="24"/>
-      <c r="R76" s="24"/>
-      <c r="S76" s="24"/>
       <c r="T76" s="5"/>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
-      <c r="B77" s="24"/>
-      <c r="C77" s="24"/>
-      <c r="D77" s="24"/>
-      <c r="E77" s="24"/>
-      <c r="F77" s="24"/>
-      <c r="G77" s="24"/>
-      <c r="H77" s="24"/>
-      <c r="I77" s="24"/>
-      <c r="J77" s="24"/>
-      <c r="K77" s="24"/>
-      <c r="L77" s="24"/>
-      <c r="M77" s="24"/>
-      <c r="N77" s="24"/>
-      <c r="O77" s="24"/>
-      <c r="P77" s="24"/>
-      <c r="Q77" s="24"/>
-      <c r="R77" s="24"/>
-      <c r="S77" s="24"/>
       <c r="T77" s="5"/>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
-      <c r="B78" s="24"/>
-      <c r="C78" s="24"/>
-      <c r="D78" s="24"/>
-      <c r="E78" s="24"/>
-      <c r="F78" s="24"/>
-      <c r="G78" s="24"/>
-      <c r="H78" s="24"/>
-      <c r="I78" s="24"/>
-      <c r="J78" s="24"/>
-      <c r="K78" s="24"/>
-      <c r="L78" s="24"/>
-      <c r="M78" s="24"/>
-      <c r="N78" s="24"/>
-      <c r="O78" s="24"/>
-      <c r="P78" s="24"/>
-      <c r="Q78" s="24"/>
-      <c r="R78" s="24"/>
-      <c r="S78" s="24"/>
       <c r="T78" s="5"/>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
-      <c r="B79" s="24"/>
-      <c r="C79" s="24"/>
-      <c r="D79" s="24"/>
-      <c r="E79" s="24"/>
-      <c r="F79" s="24"/>
-      <c r="G79" s="24"/>
-      <c r="H79" s="24"/>
-      <c r="I79" s="24"/>
-      <c r="J79" s="24"/>
-      <c r="K79" s="24"/>
-      <c r="L79" s="24"/>
-      <c r="M79" s="24"/>
-      <c r="N79" s="24"/>
-      <c r="O79" s="24"/>
-      <c r="P79" s="24"/>
-      <c r="Q79" s="24"/>
-      <c r="R79" s="24"/>
-      <c r="S79" s="24"/>
       <c r="T79" s="5"/>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
-      <c r="B80" s="24"/>
-      <c r="C80" s="24"/>
-      <c r="D80" s="24"/>
-      <c r="E80" s="24"/>
-      <c r="F80" s="24"/>
-      <c r="G80" s="24"/>
-      <c r="H80" s="24"/>
-      <c r="I80" s="24"/>
-      <c r="J80" s="24"/>
-      <c r="K80" s="24"/>
-      <c r="L80" s="24"/>
-      <c r="M80" s="24"/>
-      <c r="N80" s="24"/>
-      <c r="O80" s="24"/>
-      <c r="P80" s="24"/>
-      <c r="Q80" s="24"/>
-      <c r="R80" s="24"/>
-      <c r="S80" s="24"/>
       <c r="T80" s="5"/>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
-      <c r="B81" s="24"/>
-      <c r="C81" s="24"/>
-      <c r="D81" s="24"/>
-      <c r="E81" s="24"/>
-      <c r="F81" s="24"/>
-      <c r="G81" s="24"/>
-      <c r="H81" s="24"/>
-      <c r="I81" s="24"/>
-      <c r="J81" s="24"/>
-      <c r="K81" s="24"/>
-      <c r="L81" s="24"/>
-      <c r="M81" s="24"/>
-      <c r="N81" s="24"/>
-      <c r="O81" s="24"/>
-      <c r="P81" s="24"/>
-      <c r="Q81" s="24"/>
-      <c r="R81" s="24"/>
-      <c r="S81" s="24"/>
       <c r="T81" s="5"/>
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
-      <c r="B82" s="24"/>
-      <c r="C82" s="24"/>
-      <c r="D82" s="24"/>
-      <c r="E82" s="24"/>
-      <c r="F82" s="24"/>
-      <c r="G82" s="24"/>
-      <c r="H82" s="24"/>
-      <c r="I82" s="24"/>
-      <c r="J82" s="24"/>
-      <c r="K82" s="24"/>
-      <c r="L82" s="24"/>
-      <c r="M82" s="24"/>
-      <c r="N82" s="24"/>
-      <c r="O82" s="24"/>
-      <c r="P82" s="24"/>
-      <c r="Q82" s="24"/>
-      <c r="R82" s="24"/>
-      <c r="S82" s="24"/>
       <c r="T82" s="5"/>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
-      <c r="B83" s="24"/>
-      <c r="C83" s="24"/>
-      <c r="D83" s="24"/>
-      <c r="E83" s="24"/>
-      <c r="F83" s="24"/>
-      <c r="G83" s="24"/>
-      <c r="H83" s="24"/>
-      <c r="I83" s="24"/>
-      <c r="J83" s="24"/>
-      <c r="K83" s="24"/>
-      <c r="L83" s="24"/>
-      <c r="M83" s="24"/>
-      <c r="N83" s="24"/>
-      <c r="O83" s="24"/>
-      <c r="P83" s="24"/>
-      <c r="Q83" s="24"/>
-      <c r="R83" s="24"/>
-      <c r="S83" s="24"/>
       <c r="T83" s="5"/>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
-      <c r="B84" s="24"/>
-      <c r="C84" s="24"/>
-      <c r="D84" s="24"/>
-      <c r="E84" s="24"/>
-      <c r="F84" s="24"/>
-      <c r="G84" s="24"/>
-      <c r="H84" s="24"/>
-      <c r="I84" s="24"/>
-      <c r="J84" s="24"/>
-      <c r="K84" s="24"/>
-      <c r="L84" s="24"/>
-      <c r="M84" s="24"/>
-      <c r="N84" s="24"/>
-      <c r="O84" s="24"/>
-      <c r="P84" s="24"/>
-      <c r="Q84" s="24"/>
-      <c r="R84" s="24"/>
-      <c r="S84" s="24"/>
       <c r="T84" s="5"/>
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
-      <c r="B85" s="24"/>
-      <c r="C85" s="24"/>
-      <c r="D85" s="24"/>
-      <c r="E85" s="24"/>
-      <c r="F85" s="24"/>
-      <c r="G85" s="24"/>
-      <c r="H85" s="24"/>
-      <c r="I85" s="24"/>
-      <c r="J85" s="24"/>
-      <c r="K85" s="24"/>
-      <c r="L85" s="24"/>
-      <c r="M85" s="24"/>
-      <c r="N85" s="24"/>
-      <c r="O85" s="24"/>
-      <c r="P85" s="24"/>
-      <c r="Q85" s="24"/>
-      <c r="R85" s="24"/>
-      <c r="S85" s="24"/>
       <c r="T85" s="5"/>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A86" s="4"/>
-      <c r="B86" s="24"/>
-      <c r="C86" s="24"/>
-      <c r="D86" s="24"/>
-      <c r="E86" s="24"/>
-      <c r="F86" s="24"/>
-      <c r="G86" s="24"/>
-      <c r="H86" s="24"/>
-      <c r="I86" s="24"/>
-      <c r="J86" s="24"/>
-      <c r="K86" s="24"/>
-      <c r="L86" s="24"/>
-      <c r="M86" s="24"/>
-      <c r="N86" s="24"/>
-      <c r="O86" s="24"/>
-      <c r="P86" s="24"/>
-      <c r="Q86" s="24"/>
-      <c r="R86" s="24"/>
-      <c r="S86" s="24"/>
       <c r="T86" s="5"/>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
-      <c r="B87" s="24"/>
-      <c r="C87" s="24"/>
-      <c r="D87" s="24"/>
-      <c r="E87" s="24"/>
-      <c r="F87" s="24"/>
-      <c r="G87" s="24"/>
-      <c r="H87" s="24"/>
-      <c r="I87" s="24"/>
-      <c r="J87" s="24"/>
-      <c r="K87" s="24"/>
-      <c r="L87" s="24"/>
-      <c r="M87" s="24"/>
-      <c r="N87" s="24"/>
-      <c r="O87" s="24"/>
-      <c r="P87" s="24"/>
-      <c r="Q87" s="24"/>
-      <c r="R87" s="24"/>
-      <c r="S87" s="24"/>
       <c r="T87" s="5"/>
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
-      <c r="B88" s="24"/>
-      <c r="C88" s="24"/>
-      <c r="D88" s="24"/>
-      <c r="E88" s="24"/>
-      <c r="F88" s="24"/>
-      <c r="G88" s="24"/>
-      <c r="H88" s="24"/>
-      <c r="I88" s="24"/>
-      <c r="J88" s="24"/>
-      <c r="K88" s="24"/>
-      <c r="L88" s="24"/>
-      <c r="M88" s="24"/>
-      <c r="N88" s="24"/>
-      <c r="O88" s="24"/>
-      <c r="P88" s="24"/>
-      <c r="Q88" s="24"/>
-      <c r="R88" s="24"/>
-      <c r="S88" s="24"/>
       <c r="T88" s="5"/>
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A89" s="4"/>
-      <c r="B89" s="24"/>
-      <c r="C89" s="24"/>
-      <c r="D89" s="24"/>
-      <c r="E89" s="24"/>
-      <c r="F89" s="24"/>
-      <c r="G89" s="24"/>
-      <c r="H89" s="24"/>
-      <c r="I89" s="24"/>
-      <c r="J89" s="24"/>
-      <c r="K89" s="24"/>
-      <c r="L89" s="24"/>
-      <c r="M89" s="24"/>
-      <c r="N89" s="24"/>
-      <c r="O89" s="24"/>
-      <c r="P89" s="24"/>
-      <c r="Q89" s="24"/>
-      <c r="R89" s="24"/>
-      <c r="S89" s="24"/>
       <c r="T89" s="5"/>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
-      <c r="B90" s="24"/>
-      <c r="C90" s="24"/>
-      <c r="D90" s="24"/>
-      <c r="E90" s="24"/>
-      <c r="F90" s="24"/>
-      <c r="G90" s="24"/>
-      <c r="H90" s="24"/>
-      <c r="I90" s="24"/>
-      <c r="J90" s="24"/>
-      <c r="K90" s="24"/>
-      <c r="L90" s="24"/>
-      <c r="M90" s="24"/>
-      <c r="N90" s="24"/>
-      <c r="O90" s="24"/>
-      <c r="P90" s="24"/>
-      <c r="Q90" s="24"/>
-      <c r="R90" s="24"/>
-      <c r="S90" s="24"/>
       <c r="T90" s="5"/>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
-      <c r="B91" s="24"/>
-      <c r="C91" s="24"/>
-      <c r="D91" s="24"/>
-      <c r="E91" s="24"/>
-      <c r="F91" s="24"/>
-      <c r="G91" s="24"/>
-      <c r="H91" s="24"/>
-      <c r="I91" s="24"/>
-      <c r="J91" s="24"/>
-      <c r="K91" s="24"/>
-      <c r="L91" s="24"/>
-      <c r="M91" s="24"/>
-      <c r="N91" s="24"/>
-      <c r="O91" s="24"/>
-      <c r="P91" s="24"/>
-      <c r="Q91" s="24"/>
-      <c r="R91" s="24"/>
-      <c r="S91" s="24"/>
       <c r="T91" s="5"/>
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
-      <c r="B92" s="24"/>
-      <c r="C92" s="24"/>
-      <c r="D92" s="24"/>
-      <c r="E92" s="24"/>
-      <c r="F92" s="24"/>
-      <c r="G92" s="24"/>
-      <c r="H92" s="24"/>
-      <c r="I92" s="24"/>
-      <c r="J92" s="24"/>
-      <c r="K92" s="24"/>
-      <c r="L92" s="24"/>
-      <c r="M92" s="24"/>
-      <c r="N92" s="24"/>
-      <c r="O92" s="24"/>
-      <c r="P92" s="24"/>
-      <c r="Q92" s="24"/>
-      <c r="R92" s="24"/>
-      <c r="S92" s="24"/>
       <c r="T92" s="5"/>
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
-      <c r="B93" s="24"/>
-      <c r="C93" s="24"/>
-      <c r="D93" s="24"/>
-      <c r="E93" s="24"/>
-      <c r="F93" s="24"/>
-      <c r="G93" s="24"/>
-      <c r="H93" s="24"/>
-      <c r="I93" s="24"/>
-      <c r="J93" s="24"/>
-      <c r="K93" s="24"/>
-      <c r="L93" s="24"/>
-      <c r="M93" s="24"/>
-      <c r="N93" s="24"/>
-      <c r="O93" s="24"/>
-      <c r="P93" s="24"/>
-      <c r="Q93" s="24"/>
-      <c r="R93" s="24"/>
-      <c r="S93" s="24"/>
       <c r="T93" s="5"/>
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A94" s="4"/>
-      <c r="B94" s="24"/>
-      <c r="C94" s="24"/>
-      <c r="D94" s="24"/>
-      <c r="E94" s="24"/>
-      <c r="F94" s="24"/>
-      <c r="G94" s="24"/>
-      <c r="H94" s="24"/>
-      <c r="I94" s="24"/>
-      <c r="J94" s="24"/>
-      <c r="K94" s="24"/>
-      <c r="L94" s="24"/>
-      <c r="M94" s="24"/>
-      <c r="N94" s="24"/>
-      <c r="O94" s="24"/>
-      <c r="P94" s="24"/>
-      <c r="Q94" s="24"/>
-      <c r="R94" s="24"/>
-      <c r="S94" s="24"/>
       <c r="T94" s="5"/>
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A95" s="4"/>
-      <c r="B95" s="24"/>
-      <c r="C95" s="24"/>
-      <c r="D95" s="24"/>
-      <c r="E95" s="24"/>
-      <c r="F95" s="24"/>
-      <c r="G95" s="24"/>
-      <c r="H95" s="24"/>
-      <c r="I95" s="24"/>
-      <c r="J95" s="24"/>
-      <c r="K95" s="24"/>
-      <c r="L95" s="24"/>
-      <c r="M95" s="24"/>
-      <c r="N95" s="24"/>
-      <c r="O95" s="24"/>
-      <c r="P95" s="24"/>
-      <c r="Q95" s="24"/>
-      <c r="R95" s="24"/>
-      <c r="S95" s="24"/>
       <c r="T95" s="5"/>
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A96" s="4"/>
-      <c r="B96" s="24"/>
-      <c r="C96" s="24"/>
-      <c r="D96" s="24"/>
-      <c r="E96" s="24"/>
-      <c r="F96" s="24"/>
-      <c r="G96" s="24"/>
-      <c r="H96" s="24"/>
-      <c r="I96" s="24"/>
-      <c r="J96" s="24"/>
-      <c r="K96" s="24"/>
-      <c r="L96" s="24"/>
-      <c r="M96" s="24"/>
-      <c r="N96" s="24"/>
-      <c r="O96" s="24"/>
-      <c r="P96" s="24"/>
-      <c r="Q96" s="24"/>
-      <c r="R96" s="24"/>
-      <c r="S96" s="24"/>
       <c r="T96" s="5"/>
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A97" s="4"/>
-      <c r="B97" s="24"/>
-      <c r="C97" s="24"/>
-      <c r="D97" s="24"/>
-      <c r="E97" s="24"/>
-      <c r="F97" s="24"/>
-      <c r="G97" s="24"/>
-      <c r="H97" s="24"/>
-      <c r="I97" s="24"/>
-      <c r="J97" s="24"/>
-      <c r="K97" s="24"/>
-      <c r="L97" s="24"/>
-      <c r="M97" s="24"/>
-      <c r="N97" s="24"/>
-      <c r="O97" s="24"/>
-      <c r="P97" s="24"/>
-      <c r="Q97" s="24"/>
-      <c r="R97" s="24"/>
-      <c r="S97" s="24"/>
       <c r="T97" s="5"/>
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A98" s="4"/>
-      <c r="B98" s="24"/>
-      <c r="C98" s="24"/>
-      <c r="D98" s="24"/>
-      <c r="E98" s="24"/>
-      <c r="F98" s="24"/>
-      <c r="G98" s="24"/>
-      <c r="H98" s="24"/>
-      <c r="I98" s="24"/>
-      <c r="J98" s="24"/>
-      <c r="K98" s="24"/>
-      <c r="L98" s="24"/>
-      <c r="M98" s="24"/>
-      <c r="N98" s="24"/>
-      <c r="O98" s="24"/>
-      <c r="P98" s="24"/>
-      <c r="Q98" s="24"/>
-      <c r="R98" s="24"/>
-      <c r="S98" s="24"/>
       <c r="T98" s="5"/>
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A99" s="4"/>
-      <c r="B99" s="24"/>
-      <c r="C99" s="24"/>
-      <c r="D99" s="24"/>
-      <c r="E99" s="24"/>
-      <c r="F99" s="24"/>
-      <c r="G99" s="24"/>
-      <c r="H99" s="24"/>
-      <c r="I99" s="24"/>
-      <c r="J99" s="24"/>
-      <c r="K99" s="24"/>
-      <c r="L99" s="24"/>
-      <c r="M99" s="24"/>
-      <c r="N99" s="24"/>
-      <c r="O99" s="24"/>
-      <c r="P99" s="24"/>
-      <c r="Q99" s="24"/>
-      <c r="R99" s="24"/>
-      <c r="S99" s="24"/>
       <c r="T99" s="5"/>
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A100" s="4"/>
-      <c r="B100" s="24"/>
-      <c r="C100" s="24"/>
-      <c r="D100" s="24"/>
-      <c r="E100" s="24"/>
-      <c r="F100" s="24"/>
-      <c r="G100" s="24"/>
-      <c r="H100" s="24"/>
-      <c r="I100" s="24"/>
-      <c r="J100" s="24"/>
-      <c r="K100" s="24"/>
-      <c r="L100" s="24"/>
-      <c r="M100" s="24"/>
-      <c r="N100" s="24"/>
-      <c r="O100" s="24"/>
-      <c r="P100" s="24"/>
-      <c r="Q100" s="24"/>
-      <c r="R100" s="24"/>
-      <c r="S100" s="24"/>
       <c r="T100" s="5"/>
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A101" s="4"/>
-      <c r="B101" s="24"/>
-      <c r="C101" s="24"/>
-      <c r="D101" s="24"/>
-      <c r="E101" s="24"/>
-      <c r="F101" s="24"/>
-      <c r="G101" s="24"/>
-      <c r="H101" s="24"/>
-      <c r="I101" s="24"/>
-      <c r="J101" s="24"/>
-      <c r="K101" s="24"/>
-      <c r="L101" s="24"/>
-      <c r="M101" s="24"/>
-      <c r="N101" s="24"/>
-      <c r="O101" s="24"/>
-      <c r="P101" s="24"/>
-      <c r="Q101" s="24"/>
-      <c r="R101" s="24"/>
-      <c r="S101" s="24"/>
       <c r="T101" s="5"/>
     </row>
     <row r="102" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A102" s="4"/>
-      <c r="B102" s="24"/>
-      <c r="C102" s="24"/>
-      <c r="D102" s="24"/>
-      <c r="E102" s="24"/>
-      <c r="F102" s="24"/>
-      <c r="G102" s="24"/>
-      <c r="H102" s="24"/>
-      <c r="I102" s="24"/>
-      <c r="J102" s="24"/>
-      <c r="K102" s="24"/>
-      <c r="L102" s="24"/>
-      <c r="M102" s="24"/>
-      <c r="N102" s="24"/>
-      <c r="O102" s="24"/>
-      <c r="P102" s="24"/>
-      <c r="Q102" s="24"/>
-      <c r="R102" s="24"/>
-      <c r="S102" s="24"/>
       <c r="T102" s="5"/>
     </row>
     <row r="103" spans="1:20" x14ac:dyDescent="0.25">
@@ -7575,4 +7429,1695 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CC5A17F-325A-41A3-9954-AF1931AC7357}">
+  <dimension ref="A2:AG95"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V31" sqref="V31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="O38" s="1"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
+      <c r="W38" s="2"/>
+      <c r="X38" s="2"/>
+      <c r="Y38" s="2"/>
+      <c r="Z38" s="2"/>
+      <c r="AA38" s="2"/>
+      <c r="AB38" s="2"/>
+      <c r="AC38" s="2"/>
+      <c r="AD38" s="2"/>
+      <c r="AE38" s="2"/>
+      <c r="AF38" s="2"/>
+      <c r="AG38" s="3"/>
+    </row>
+    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="O39" s="4"/>
+      <c r="P39" s="15"/>
+      <c r="Q39" s="15"/>
+      <c r="R39" s="15"/>
+      <c r="S39" s="15"/>
+      <c r="T39" s="15"/>
+      <c r="U39" s="15"/>
+      <c r="V39" s="15"/>
+      <c r="W39" s="15"/>
+      <c r="X39" s="15"/>
+      <c r="Y39" s="15"/>
+      <c r="Z39" s="15"/>
+      <c r="AA39" s="15"/>
+      <c r="AB39" s="15"/>
+      <c r="AC39" s="15"/>
+      <c r="AD39" s="15"/>
+      <c r="AE39" s="15"/>
+      <c r="AF39" s="15"/>
+      <c r="AG39" s="5"/>
+    </row>
+    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A40" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="O40" s="4"/>
+      <c r="P40" s="15"/>
+      <c r="Q40" s="15"/>
+      <c r="R40" s="15"/>
+      <c r="S40" s="15"/>
+      <c r="T40" s="15"/>
+      <c r="U40" s="15"/>
+      <c r="V40" s="15"/>
+      <c r="W40" s="15"/>
+      <c r="X40" s="15"/>
+      <c r="Y40" s="15"/>
+      <c r="Z40" s="15"/>
+      <c r="AA40" s="15"/>
+      <c r="AB40" s="15"/>
+      <c r="AC40" s="15"/>
+      <c r="AD40" s="15"/>
+      <c r="AE40" s="15"/>
+      <c r="AF40" s="15"/>
+      <c r="AG40" s="5"/>
+    </row>
+    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="3"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="15"/>
+      <c r="Q41" s="15"/>
+      <c r="R41" s="15"/>
+      <c r="S41" s="15"/>
+      <c r="T41" s="15"/>
+      <c r="U41" s="15"/>
+      <c r="V41" s="15"/>
+      <c r="W41" s="15"/>
+      <c r="X41" s="15"/>
+      <c r="Y41" s="15"/>
+      <c r="Z41" s="15"/>
+      <c r="AA41" s="15"/>
+      <c r="AB41" s="15"/>
+      <c r="AC41" s="15"/>
+      <c r="AD41" s="15"/>
+      <c r="AE41" s="15"/>
+      <c r="AF41" s="15"/>
+      <c r="AG41" s="5"/>
+    </row>
+    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B42" s="4"/>
+      <c r="C42" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" s="5"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="15"/>
+      <c r="Q42" s="15"/>
+      <c r="R42" s="15"/>
+      <c r="S42" s="15"/>
+      <c r="T42" s="15"/>
+      <c r="U42" s="15"/>
+      <c r="V42" s="15"/>
+      <c r="W42" s="15"/>
+      <c r="X42" s="15"/>
+      <c r="Y42" s="15"/>
+      <c r="Z42" s="15"/>
+      <c r="AA42" s="15"/>
+      <c r="AB42" s="15"/>
+      <c r="AC42" s="15"/>
+      <c r="AD42" s="15"/>
+      <c r="AE42" s="15"/>
+      <c r="AF42" s="15"/>
+      <c r="AG42" s="5"/>
+    </row>
+    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B43" s="4"/>
+      <c r="D43" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" s="5"/>
+      <c r="O43" s="4"/>
+      <c r="P43" s="15"/>
+      <c r="Q43" s="15"/>
+      <c r="R43" s="15"/>
+      <c r="S43" s="15"/>
+      <c r="T43" s="15"/>
+      <c r="U43" s="15"/>
+      <c r="V43" s="15"/>
+      <c r="W43" s="15"/>
+      <c r="X43" s="15"/>
+      <c r="Y43" s="15"/>
+      <c r="Z43" s="15"/>
+      <c r="AA43" s="15"/>
+      <c r="AB43" s="15"/>
+      <c r="AC43" s="15"/>
+      <c r="AD43" s="15"/>
+      <c r="AE43" s="15"/>
+      <c r="AF43" s="15"/>
+      <c r="AG43" s="5"/>
+    </row>
+    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B44" s="4"/>
+      <c r="D44" t="s">
+        <v>18</v>
+      </c>
+      <c r="F44" s="5"/>
+      <c r="O44" s="4"/>
+      <c r="P44" s="15"/>
+      <c r="Q44" s="15"/>
+      <c r="R44" s="15"/>
+      <c r="S44" s="15"/>
+      <c r="T44" s="15"/>
+      <c r="U44" s="15"/>
+      <c r="V44" s="15"/>
+      <c r="W44" s="15"/>
+      <c r="X44" s="15"/>
+      <c r="Y44" s="15"/>
+      <c r="Z44" s="15"/>
+      <c r="AA44" s="15"/>
+      <c r="AB44" s="15"/>
+      <c r="AC44" s="15"/>
+      <c r="AD44" s="15"/>
+      <c r="AE44" s="15"/>
+      <c r="AF44" s="15"/>
+      <c r="AG44" s="5"/>
+    </row>
+    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B45" s="4"/>
+      <c r="D45" t="s">
+        <v>50</v>
+      </c>
+      <c r="F45" s="5"/>
+      <c r="O45" s="4"/>
+      <c r="P45" s="15"/>
+      <c r="Q45" s="15"/>
+      <c r="R45" s="15"/>
+      <c r="S45" s="15"/>
+      <c r="T45" s="15"/>
+      <c r="U45" s="15"/>
+      <c r="V45" s="15"/>
+      <c r="W45" s="15"/>
+      <c r="X45" s="15"/>
+      <c r="Y45" s="15"/>
+      <c r="Z45" s="15"/>
+      <c r="AA45" s="15"/>
+      <c r="AB45" s="15"/>
+      <c r="AC45" s="15"/>
+      <c r="AD45" s="15"/>
+      <c r="AE45" s="15"/>
+      <c r="AF45" s="15"/>
+      <c r="AG45" s="5"/>
+    </row>
+    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B46" s="4"/>
+      <c r="D46" t="s">
+        <v>77</v>
+      </c>
+      <c r="F46" s="5"/>
+      <c r="O46" s="4"/>
+      <c r="P46" s="15"/>
+      <c r="Q46" s="15"/>
+      <c r="R46" s="15"/>
+      <c r="S46" s="15"/>
+      <c r="T46" s="15"/>
+      <c r="U46" s="15"/>
+      <c r="V46" s="15"/>
+      <c r="W46" s="15"/>
+      <c r="X46" s="15"/>
+      <c r="Y46" s="15"/>
+      <c r="Z46" s="15"/>
+      <c r="AA46" s="15"/>
+      <c r="AB46" s="15"/>
+      <c r="AC46" s="15"/>
+      <c r="AD46" s="15"/>
+      <c r="AE46" s="15"/>
+      <c r="AF46" s="15"/>
+      <c r="AG46" s="5"/>
+    </row>
+    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B47" s="4"/>
+      <c r="D47" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="F47" s="5"/>
+      <c r="O47" s="4"/>
+      <c r="P47" s="15"/>
+      <c r="Q47" s="15"/>
+      <c r="R47" s="15"/>
+      <c r="S47" s="15"/>
+      <c r="T47" s="15"/>
+      <c r="U47" s="15"/>
+      <c r="V47" s="15"/>
+      <c r="W47" s="15"/>
+      <c r="X47" s="15"/>
+      <c r="Y47" s="15"/>
+      <c r="Z47" s="15"/>
+      <c r="AA47" s="15"/>
+      <c r="AB47" s="15"/>
+      <c r="AC47" s="15"/>
+      <c r="AD47" s="15"/>
+      <c r="AE47" s="15"/>
+      <c r="AF47" s="15"/>
+      <c r="AG47" s="5"/>
+    </row>
+    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B48" s="4"/>
+      <c r="D48" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="F48" s="5"/>
+      <c r="G48" t="s">
+        <v>17</v>
+      </c>
+      <c r="H48" t="s">
+        <v>16</v>
+      </c>
+      <c r="O48" s="4"/>
+      <c r="P48" s="15"/>
+      <c r="Q48" s="15"/>
+      <c r="R48" s="15"/>
+      <c r="S48" s="15"/>
+      <c r="T48" s="15"/>
+      <c r="U48" s="15"/>
+      <c r="V48" s="15"/>
+      <c r="W48" s="15"/>
+      <c r="X48" s="15"/>
+      <c r="Y48" s="15"/>
+      <c r="Z48" s="15"/>
+      <c r="AA48" s="15"/>
+      <c r="AB48" s="15"/>
+      <c r="AC48" s="15"/>
+      <c r="AD48" s="15"/>
+      <c r="AE48" s="15"/>
+      <c r="AF48" s="15"/>
+      <c r="AG48" s="5"/>
+    </row>
+    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B49" s="6"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="8"/>
+      <c r="O49" s="4"/>
+      <c r="P49" s="15"/>
+      <c r="Q49" s="15"/>
+      <c r="R49" s="15"/>
+      <c r="S49" s="15"/>
+      <c r="T49" s="15"/>
+      <c r="U49" s="15"/>
+      <c r="V49" s="15"/>
+      <c r="W49" s="15"/>
+      <c r="X49" s="15"/>
+      <c r="Y49" s="15"/>
+      <c r="Z49" s="15"/>
+      <c r="AA49" s="15"/>
+      <c r="AB49" s="15"/>
+      <c r="AC49" s="15"/>
+      <c r="AD49" s="15"/>
+      <c r="AE49" s="15"/>
+      <c r="AF49" s="15"/>
+      <c r="AG49" s="5"/>
+    </row>
+    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="O50" s="4"/>
+      <c r="P50" s="15"/>
+      <c r="Q50" s="15"/>
+      <c r="R50" s="15"/>
+      <c r="S50" s="15"/>
+      <c r="T50" s="15"/>
+      <c r="U50" s="15"/>
+      <c r="V50" s="15"/>
+      <c r="W50" s="15"/>
+      <c r="X50" s="15"/>
+      <c r="Y50" s="15"/>
+      <c r="Z50" s="15"/>
+      <c r="AA50" s="15"/>
+      <c r="AB50" s="15"/>
+      <c r="AC50" s="15"/>
+      <c r="AD50" s="15"/>
+      <c r="AE50" s="15"/>
+      <c r="AF50" s="15"/>
+      <c r="AG50" s="5"/>
+    </row>
+    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="O51" s="4"/>
+      <c r="P51" s="15"/>
+      <c r="Q51" s="15"/>
+      <c r="R51" s="15"/>
+      <c r="S51" s="15"/>
+      <c r="T51" s="15"/>
+      <c r="U51" s="15"/>
+      <c r="V51" s="15"/>
+      <c r="W51" s="15"/>
+      <c r="X51" s="15"/>
+      <c r="Y51" s="15"/>
+      <c r="Z51" s="15"/>
+      <c r="AA51" s="15"/>
+      <c r="AB51" s="15"/>
+      <c r="AC51" s="15"/>
+      <c r="AD51" s="15"/>
+      <c r="AE51" s="15"/>
+      <c r="AF51" s="15"/>
+      <c r="AG51" s="5"/>
+    </row>
+    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>91</v>
+      </c>
+      <c r="O52" s="4"/>
+      <c r="P52" s="15"/>
+      <c r="Q52" s="15"/>
+      <c r="R52" s="15"/>
+      <c r="S52" s="15"/>
+      <c r="T52" s="15"/>
+      <c r="U52" s="15"/>
+      <c r="V52" s="15"/>
+      <c r="W52" s="15"/>
+      <c r="X52" s="15"/>
+      <c r="Y52" s="15"/>
+      <c r="Z52" s="15"/>
+      <c r="AA52" s="15"/>
+      <c r="AB52" s="15"/>
+      <c r="AC52" s="15"/>
+      <c r="AD52" s="15"/>
+      <c r="AE52" s="15"/>
+      <c r="AF52" s="15"/>
+      <c r="AG52" s="5"/>
+    </row>
+    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B53" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="3"/>
+      <c r="O53" s="4"/>
+      <c r="P53" s="15"/>
+      <c r="Q53" s="15"/>
+      <c r="R53" s="15"/>
+      <c r="S53" s="15"/>
+      <c r="T53" s="15"/>
+      <c r="U53" s="15"/>
+      <c r="V53" s="15"/>
+      <c r="W53" s="15"/>
+      <c r="X53" s="15"/>
+      <c r="Y53" s="15"/>
+      <c r="Z53" s="15"/>
+      <c r="AA53" s="15"/>
+      <c r="AB53" s="15"/>
+      <c r="AC53" s="15"/>
+      <c r="AD53" s="15"/>
+      <c r="AE53" s="15"/>
+      <c r="AF53" s="15"/>
+      <c r="AG53" s="5"/>
+    </row>
+    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B54" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="15"/>
+      <c r="I54" s="5"/>
+      <c r="O54" s="4"/>
+      <c r="P54" s="15"/>
+      <c r="Q54" s="15"/>
+      <c r="R54" s="15"/>
+      <c r="S54" s="15"/>
+      <c r="T54" s="15"/>
+      <c r="U54" s="15"/>
+      <c r="V54" s="15"/>
+      <c r="W54" s="15"/>
+      <c r="X54" s="15"/>
+      <c r="Y54" s="15"/>
+      <c r="Z54" s="15"/>
+      <c r="AA54" s="15"/>
+      <c r="AB54" s="15"/>
+      <c r="AC54" s="15"/>
+      <c r="AD54" s="15"/>
+      <c r="AE54" s="15"/>
+      <c r="AF54" s="15"/>
+      <c r="AG54" s="5"/>
+    </row>
+    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B55" s="4"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="15"/>
+      <c r="H55" s="15"/>
+      <c r="I55" s="5"/>
+      <c r="O55" s="4"/>
+      <c r="P55" s="15"/>
+      <c r="Q55" s="15"/>
+      <c r="R55" s="15"/>
+      <c r="S55" s="15"/>
+      <c r="T55" s="15"/>
+      <c r="U55" s="15"/>
+      <c r="V55" s="15"/>
+      <c r="W55" s="15"/>
+      <c r="X55" s="15"/>
+      <c r="Y55" s="15"/>
+      <c r="Z55" s="15"/>
+      <c r="AA55" s="15"/>
+      <c r="AB55" s="15"/>
+      <c r="AC55" s="15"/>
+      <c r="AD55" s="15"/>
+      <c r="AE55" s="15"/>
+      <c r="AF55" s="15"/>
+      <c r="AG55" s="5"/>
+    </row>
+    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B56" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C56" s="15"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="15"/>
+      <c r="H56" s="15"/>
+      <c r="I56" s="5"/>
+      <c r="J56" t="s">
+        <v>17</v>
+      </c>
+      <c r="K56" t="s">
+        <v>113</v>
+      </c>
+      <c r="O56" s="4"/>
+      <c r="P56" s="15"/>
+      <c r="Q56" s="15"/>
+      <c r="R56" s="15"/>
+      <c r="S56" s="15"/>
+      <c r="T56" s="15"/>
+      <c r="U56" s="15"/>
+      <c r="V56" s="15"/>
+      <c r="W56" s="15"/>
+      <c r="X56" s="15"/>
+      <c r="Y56" s="15"/>
+      <c r="Z56" s="15"/>
+      <c r="AA56" s="15"/>
+      <c r="AB56" s="15"/>
+      <c r="AC56" s="15"/>
+      <c r="AD56" s="15"/>
+      <c r="AE56" s="15"/>
+      <c r="AF56" s="15"/>
+      <c r="AG56" s="5"/>
+    </row>
+    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B57" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C57" s="15"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="15"/>
+      <c r="I57" s="5"/>
+      <c r="O57" s="4"/>
+      <c r="P57" s="15"/>
+      <c r="Q57" s="15"/>
+      <c r="R57" s="15"/>
+      <c r="S57" s="15"/>
+      <c r="T57" s="15"/>
+      <c r="U57" s="15"/>
+      <c r="V57" s="15"/>
+      <c r="W57" s="15"/>
+      <c r="X57" s="15"/>
+      <c r="Y57" s="15"/>
+      <c r="Z57" s="15"/>
+      <c r="AA57" s="15"/>
+      <c r="AB57" s="15"/>
+      <c r="AC57" s="15"/>
+      <c r="AD57" s="15"/>
+      <c r="AE57" s="15"/>
+      <c r="AF57" s="15"/>
+      <c r="AG57" s="5"/>
+    </row>
+    <row r="58" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B58" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C58" s="15"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="15"/>
+      <c r="I58" s="5"/>
+      <c r="O58" s="4"/>
+      <c r="P58" s="15"/>
+      <c r="Q58" s="15"/>
+      <c r="R58" s="15"/>
+      <c r="S58" s="15"/>
+      <c r="T58" s="15"/>
+      <c r="U58" s="15"/>
+      <c r="V58" s="15"/>
+      <c r="W58" s="15"/>
+      <c r="X58" s="15"/>
+      <c r="Y58" s="15"/>
+      <c r="Z58" s="15"/>
+      <c r="AA58" s="15"/>
+      <c r="AB58" s="15"/>
+      <c r="AC58" s="15"/>
+      <c r="AD58" s="15"/>
+      <c r="AE58" s="15"/>
+      <c r="AF58" s="15"/>
+      <c r="AG58" s="5"/>
+    </row>
+    <row r="59" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B59" s="4"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="15"/>
+      <c r="H59" s="15"/>
+      <c r="I59" s="5"/>
+      <c r="O59" s="4"/>
+      <c r="P59" s="15"/>
+      <c r="Q59" s="15"/>
+      <c r="R59" s="15"/>
+      <c r="S59" s="15"/>
+      <c r="T59" s="15"/>
+      <c r="U59" s="15"/>
+      <c r="V59" s="15"/>
+      <c r="W59" s="15"/>
+      <c r="X59" s="15"/>
+      <c r="Y59" s="15"/>
+      <c r="Z59" s="15"/>
+      <c r="AA59" s="15"/>
+      <c r="AB59" s="15"/>
+      <c r="AC59" s="15"/>
+      <c r="AD59" s="15"/>
+      <c r="AE59" s="15"/>
+      <c r="AF59" s="15"/>
+      <c r="AG59" s="5"/>
+    </row>
+    <row r="60" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B60" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C60" s="15"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="15"/>
+      <c r="G60" s="15"/>
+      <c r="H60" s="15"/>
+      <c r="I60" s="5"/>
+      <c r="O60" s="4"/>
+      <c r="P60" s="15"/>
+      <c r="Q60" s="15"/>
+      <c r="R60" s="15"/>
+      <c r="S60" s="15"/>
+      <c r="T60" s="15"/>
+      <c r="U60" s="15"/>
+      <c r="V60" s="15"/>
+      <c r="W60" s="15"/>
+      <c r="X60" s="15"/>
+      <c r="Y60" s="15"/>
+      <c r="Z60" s="15"/>
+      <c r="AA60" s="15"/>
+      <c r="AB60" s="15"/>
+      <c r="AC60" s="15"/>
+      <c r="AD60" s="15"/>
+      <c r="AE60" s="15"/>
+      <c r="AF60" s="15"/>
+      <c r="AG60" s="5"/>
+    </row>
+    <row r="61" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B61" s="4"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="15"/>
+      <c r="H61" s="15"/>
+      <c r="I61" s="5"/>
+      <c r="O61" s="4"/>
+      <c r="P61" s="15"/>
+      <c r="Q61" s="15"/>
+      <c r="R61" s="15"/>
+      <c r="S61" s="15"/>
+      <c r="T61" s="15"/>
+      <c r="U61" s="15"/>
+      <c r="V61" s="15"/>
+      <c r="W61" s="15"/>
+      <c r="X61" s="15"/>
+      <c r="Y61" s="15"/>
+      <c r="Z61" s="15"/>
+      <c r="AA61" s="15"/>
+      <c r="AB61" s="15"/>
+      <c r="AC61" s="15"/>
+      <c r="AD61" s="15"/>
+      <c r="AE61" s="15"/>
+      <c r="AF61" s="15"/>
+      <c r="AG61" s="5"/>
+    </row>
+    <row r="62" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B62" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C62" s="15"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="15"/>
+      <c r="G62" s="15"/>
+      <c r="H62" s="15"/>
+      <c r="I62" s="5"/>
+      <c r="O62" s="4"/>
+      <c r="P62" s="15"/>
+      <c r="Q62" s="15"/>
+      <c r="R62" s="15"/>
+      <c r="S62" s="15"/>
+      <c r="T62" s="15"/>
+      <c r="U62" s="15"/>
+      <c r="V62" s="15"/>
+      <c r="W62" s="15"/>
+      <c r="X62" s="15"/>
+      <c r="Y62" s="15"/>
+      <c r="Z62" s="15"/>
+      <c r="AA62" s="15"/>
+      <c r="AB62" s="15"/>
+      <c r="AC62" s="15"/>
+      <c r="AD62" s="15"/>
+      <c r="AE62" s="15"/>
+      <c r="AF62" s="15"/>
+      <c r="AG62" s="5"/>
+    </row>
+    <row r="63" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B63" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C63" s="15"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="15"/>
+      <c r="F63" s="15"/>
+      <c r="G63" s="15"/>
+      <c r="H63" s="15"/>
+      <c r="I63" s="5"/>
+      <c r="O63" s="4"/>
+      <c r="P63" s="15"/>
+      <c r="Q63" s="15"/>
+      <c r="R63" s="15"/>
+      <c r="S63" s="15"/>
+      <c r="T63" s="15"/>
+      <c r="U63" s="15"/>
+      <c r="V63" s="15"/>
+      <c r="W63" s="15"/>
+      <c r="X63" s="15"/>
+      <c r="Y63" s="15"/>
+      <c r="Z63" s="15"/>
+      <c r="AA63" s="15"/>
+      <c r="AB63" s="15"/>
+      <c r="AC63" s="15"/>
+      <c r="AD63" s="15"/>
+      <c r="AE63" s="15"/>
+      <c r="AF63" s="15"/>
+      <c r="AG63" s="5"/>
+    </row>
+    <row r="64" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B64" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C64" s="15"/>
+      <c r="D64" s="15"/>
+      <c r="E64" s="15"/>
+      <c r="F64" s="15"/>
+      <c r="G64" s="15"/>
+      <c r="H64" s="15"/>
+      <c r="I64" s="5"/>
+      <c r="O64" s="4"/>
+      <c r="P64" s="15"/>
+      <c r="Q64" s="15"/>
+      <c r="R64" s="15"/>
+      <c r="S64" s="15"/>
+      <c r="T64" s="15"/>
+      <c r="U64" s="15"/>
+      <c r="V64" s="15"/>
+      <c r="W64" s="15"/>
+      <c r="X64" s="15"/>
+      <c r="Y64" s="15"/>
+      <c r="Z64" s="15"/>
+      <c r="AA64" s="15"/>
+      <c r="AB64" s="15"/>
+      <c r="AC64" s="15"/>
+      <c r="AD64" s="15"/>
+      <c r="AE64" s="15"/>
+      <c r="AF64" s="15"/>
+      <c r="AG64" s="5"/>
+    </row>
+    <row r="65" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B65" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C65" s="15"/>
+      <c r="D65" s="15"/>
+      <c r="E65" s="15"/>
+      <c r="F65" s="15"/>
+      <c r="G65" s="15"/>
+      <c r="H65" s="15"/>
+      <c r="I65" s="5"/>
+      <c r="O65" s="4"/>
+      <c r="P65" s="15"/>
+      <c r="Q65" s="15"/>
+      <c r="R65" s="15"/>
+      <c r="S65" s="15"/>
+      <c r="T65" s="15"/>
+      <c r="U65" s="15"/>
+      <c r="V65" s="15"/>
+      <c r="W65" s="15"/>
+      <c r="X65" s="15"/>
+      <c r="Y65" s="15"/>
+      <c r="Z65" s="15"/>
+      <c r="AA65" s="15"/>
+      <c r="AB65" s="15"/>
+      <c r="AC65" s="15"/>
+      <c r="AD65" s="15"/>
+      <c r="AE65" s="15"/>
+      <c r="AF65" s="15"/>
+      <c r="AG65" s="5"/>
+    </row>
+    <row r="66" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B66" s="4"/>
+      <c r="C66" s="15"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="15"/>
+      <c r="F66" s="15"/>
+      <c r="G66" s="15"/>
+      <c r="H66" s="15"/>
+      <c r="I66" s="5"/>
+      <c r="O66" s="4"/>
+      <c r="P66" s="15"/>
+      <c r="Q66" s="15"/>
+      <c r="R66" s="15"/>
+      <c r="S66" s="15"/>
+      <c r="T66" s="15"/>
+      <c r="U66" s="15"/>
+      <c r="V66" s="15"/>
+      <c r="W66" s="15"/>
+      <c r="X66" s="15"/>
+      <c r="Y66" s="15"/>
+      <c r="Z66" s="15"/>
+      <c r="AA66" s="15"/>
+      <c r="AB66" s="15"/>
+      <c r="AC66" s="15"/>
+      <c r="AD66" s="15"/>
+      <c r="AE66" s="15"/>
+      <c r="AF66" s="15"/>
+      <c r="AG66" s="5"/>
+    </row>
+    <row r="67" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B67" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C67" s="15"/>
+      <c r="D67" s="15"/>
+      <c r="E67" s="15"/>
+      <c r="F67" s="15"/>
+      <c r="G67" s="15"/>
+      <c r="H67" s="15"/>
+      <c r="I67" s="5"/>
+      <c r="O67" s="4"/>
+      <c r="P67" s="15"/>
+      <c r="Q67" s="15"/>
+      <c r="R67" s="15"/>
+      <c r="S67" s="15"/>
+      <c r="T67" s="15"/>
+      <c r="U67" s="15"/>
+      <c r="V67" s="15"/>
+      <c r="W67" s="15"/>
+      <c r="X67" s="15"/>
+      <c r="Y67" s="15"/>
+      <c r="Z67" s="15"/>
+      <c r="AA67" s="15"/>
+      <c r="AB67" s="15"/>
+      <c r="AC67" s="15"/>
+      <c r="AD67" s="15"/>
+      <c r="AE67" s="15"/>
+      <c r="AF67" s="15"/>
+      <c r="AG67" s="5"/>
+    </row>
+    <row r="68" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B68" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C68" s="15"/>
+      <c r="D68" s="15"/>
+      <c r="E68" s="15"/>
+      <c r="F68" s="15"/>
+      <c r="G68" s="15"/>
+      <c r="H68" s="15"/>
+      <c r="I68" s="5"/>
+      <c r="O68" s="4"/>
+      <c r="P68" s="15"/>
+      <c r="Q68" s="15"/>
+      <c r="R68" s="15"/>
+      <c r="S68" s="15"/>
+      <c r="T68" s="15"/>
+      <c r="U68" s="15"/>
+      <c r="V68" s="15"/>
+      <c r="W68" s="15"/>
+      <c r="X68" s="15"/>
+      <c r="Y68" s="15"/>
+      <c r="Z68" s="15"/>
+      <c r="AA68" s="15"/>
+      <c r="AB68" s="15"/>
+      <c r="AC68" s="15"/>
+      <c r="AD68" s="15"/>
+      <c r="AE68" s="15"/>
+      <c r="AF68" s="15"/>
+      <c r="AG68" s="5"/>
+    </row>
+    <row r="69" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B69" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69" s="15"/>
+      <c r="D69" s="15"/>
+      <c r="E69" s="15"/>
+      <c r="F69" s="15"/>
+      <c r="G69" s="15"/>
+      <c r="H69" s="15"/>
+      <c r="I69" s="5"/>
+      <c r="O69" s="4"/>
+      <c r="P69" s="15"/>
+      <c r="Q69" s="15"/>
+      <c r="R69" s="15"/>
+      <c r="S69" s="15"/>
+      <c r="T69" s="15"/>
+      <c r="U69" s="15"/>
+      <c r="V69" s="15"/>
+      <c r="W69" s="15"/>
+      <c r="X69" s="15"/>
+      <c r="Y69" s="15"/>
+      <c r="Z69" s="15"/>
+      <c r="AA69" s="15"/>
+      <c r="AB69" s="15"/>
+      <c r="AC69" s="15"/>
+      <c r="AD69" s="15"/>
+      <c r="AE69" s="15"/>
+      <c r="AF69" s="15"/>
+      <c r="AG69" s="5"/>
+    </row>
+    <row r="70" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B70" s="4"/>
+      <c r="C70" s="15"/>
+      <c r="D70" s="15"/>
+      <c r="E70" s="15"/>
+      <c r="F70" s="15"/>
+      <c r="G70" s="15"/>
+      <c r="H70" s="15"/>
+      <c r="I70" s="5"/>
+      <c r="O70" s="4"/>
+      <c r="P70" s="15"/>
+      <c r="Q70" s="15"/>
+      <c r="R70" s="15"/>
+      <c r="S70" s="15"/>
+      <c r="T70" s="15"/>
+      <c r="U70" s="15"/>
+      <c r="V70" s="15"/>
+      <c r="W70" s="15"/>
+      <c r="X70" s="15"/>
+      <c r="Y70" s="15"/>
+      <c r="Z70" s="15"/>
+      <c r="AA70" s="15"/>
+      <c r="AB70" s="15"/>
+      <c r="AC70" s="15"/>
+      <c r="AD70" s="15"/>
+      <c r="AE70" s="15"/>
+      <c r="AF70" s="15"/>
+      <c r="AG70" s="5"/>
+    </row>
+    <row r="71" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B71" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C71" s="15"/>
+      <c r="D71" s="15"/>
+      <c r="E71" s="15"/>
+      <c r="F71" s="15"/>
+      <c r="G71" s="15"/>
+      <c r="H71" s="15"/>
+      <c r="I71" s="5"/>
+      <c r="O71" s="4"/>
+      <c r="P71" s="15"/>
+      <c r="Q71" s="15"/>
+      <c r="R71" s="15"/>
+      <c r="S71" s="15"/>
+      <c r="T71" s="15"/>
+      <c r="U71" s="15"/>
+      <c r="V71" s="15"/>
+      <c r="W71" s="15"/>
+      <c r="X71" s="15"/>
+      <c r="Y71" s="15"/>
+      <c r="Z71" s="15"/>
+      <c r="AA71" s="15"/>
+      <c r="AB71" s="15"/>
+      <c r="AC71" s="15"/>
+      <c r="AD71" s="15"/>
+      <c r="AE71" s="15"/>
+      <c r="AF71" s="15"/>
+      <c r="AG71" s="5"/>
+    </row>
+    <row r="72" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B72" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C72" s="15"/>
+      <c r="D72" s="15"/>
+      <c r="E72" s="15"/>
+      <c r="F72" s="15"/>
+      <c r="G72" s="15"/>
+      <c r="H72" s="15"/>
+      <c r="I72" s="5"/>
+      <c r="O72" s="4"/>
+      <c r="P72" s="15"/>
+      <c r="Q72" s="15"/>
+      <c r="R72" s="15"/>
+      <c r="S72" s="15"/>
+      <c r="T72" s="15"/>
+      <c r="U72" s="15"/>
+      <c r="V72" s="15"/>
+      <c r="W72" s="15"/>
+      <c r="X72" s="15"/>
+      <c r="Y72" s="15"/>
+      <c r="Z72" s="15"/>
+      <c r="AA72" s="15"/>
+      <c r="AB72" s="15"/>
+      <c r="AC72" s="15"/>
+      <c r="AD72" s="15"/>
+      <c r="AE72" s="15"/>
+      <c r="AF72" s="15"/>
+      <c r="AG72" s="5"/>
+    </row>
+    <row r="73" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B73" s="4"/>
+      <c r="C73" s="15"/>
+      <c r="D73" s="15"/>
+      <c r="E73" s="15"/>
+      <c r="F73" s="15"/>
+      <c r="G73" s="15"/>
+      <c r="H73" s="15"/>
+      <c r="I73" s="5"/>
+      <c r="O73" s="4"/>
+      <c r="P73" s="15"/>
+      <c r="Q73" s="15"/>
+      <c r="R73" s="15"/>
+      <c r="S73" s="15"/>
+      <c r="T73" s="15"/>
+      <c r="U73" s="15"/>
+      <c r="V73" s="15"/>
+      <c r="W73" s="15"/>
+      <c r="X73" s="15"/>
+      <c r="Y73" s="15"/>
+      <c r="Z73" s="15"/>
+      <c r="AA73" s="15"/>
+      <c r="AB73" s="15"/>
+      <c r="AC73" s="15"/>
+      <c r="AD73" s="15"/>
+      <c r="AE73" s="15"/>
+      <c r="AF73" s="15"/>
+      <c r="AG73" s="5"/>
+    </row>
+    <row r="74" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B74" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C74" s="15"/>
+      <c r="D74" s="15"/>
+      <c r="E74" s="15"/>
+      <c r="F74" s="15"/>
+      <c r="G74" s="15"/>
+      <c r="H74" s="15"/>
+      <c r="I74" s="5"/>
+      <c r="O74" s="4"/>
+      <c r="P74" s="15"/>
+      <c r="Q74" s="15"/>
+      <c r="R74" s="15"/>
+      <c r="S74" s="15"/>
+      <c r="T74" s="15"/>
+      <c r="U74" s="15"/>
+      <c r="V74" s="15"/>
+      <c r="W74" s="15"/>
+      <c r="X74" s="15"/>
+      <c r="Y74" s="15"/>
+      <c r="Z74" s="15"/>
+      <c r="AA74" s="15"/>
+      <c r="AB74" s="15"/>
+      <c r="AC74" s="15"/>
+      <c r="AD74" s="15"/>
+      <c r="AE74" s="15"/>
+      <c r="AF74" s="15"/>
+      <c r="AG74" s="5"/>
+    </row>
+    <row r="75" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B75" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C75" s="15"/>
+      <c r="D75" s="15"/>
+      <c r="E75" s="15"/>
+      <c r="F75" s="15"/>
+      <c r="G75" s="15"/>
+      <c r="H75" s="15"/>
+      <c r="I75" s="5"/>
+      <c r="O75" s="4"/>
+      <c r="P75" s="15"/>
+      <c r="Q75" s="15"/>
+      <c r="R75" s="15"/>
+      <c r="S75" s="15"/>
+      <c r="T75" s="15"/>
+      <c r="U75" s="15"/>
+      <c r="V75" s="15"/>
+      <c r="W75" s="15"/>
+      <c r="X75" s="15"/>
+      <c r="Y75" s="15"/>
+      <c r="Z75" s="15"/>
+      <c r="AA75" s="15"/>
+      <c r="AB75" s="15"/>
+      <c r="AC75" s="15"/>
+      <c r="AD75" s="15"/>
+      <c r="AE75" s="15"/>
+      <c r="AF75" s="15"/>
+      <c r="AG75" s="5"/>
+    </row>
+    <row r="76" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B76" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C76" s="15"/>
+      <c r="D76" s="15"/>
+      <c r="E76" s="15"/>
+      <c r="F76" s="15"/>
+      <c r="G76" s="15"/>
+      <c r="H76" s="15"/>
+      <c r="I76" s="5"/>
+      <c r="O76" s="4"/>
+      <c r="P76" s="15"/>
+      <c r="Q76" s="15"/>
+      <c r="R76" s="15"/>
+      <c r="S76" s="15"/>
+      <c r="T76" s="15"/>
+      <c r="U76" s="15"/>
+      <c r="V76" s="15"/>
+      <c r="W76" s="15"/>
+      <c r="X76" s="15"/>
+      <c r="Y76" s="15"/>
+      <c r="Z76" s="15"/>
+      <c r="AA76" s="15"/>
+      <c r="AB76" s="15"/>
+      <c r="AC76" s="15"/>
+      <c r="AD76" s="15"/>
+      <c r="AE76" s="15"/>
+      <c r="AF76" s="15"/>
+      <c r="AG76" s="5"/>
+    </row>
+    <row r="77" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B77" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C77" s="15"/>
+      <c r="D77" s="15"/>
+      <c r="E77" s="15"/>
+      <c r="F77" s="15"/>
+      <c r="G77" s="15"/>
+      <c r="H77" s="15"/>
+      <c r="I77" s="5"/>
+      <c r="O77" s="4"/>
+      <c r="P77" s="15"/>
+      <c r="Q77" s="15"/>
+      <c r="R77" s="15"/>
+      <c r="S77" s="15"/>
+      <c r="T77" s="15"/>
+      <c r="U77" s="15"/>
+      <c r="V77" s="15"/>
+      <c r="W77" s="15"/>
+      <c r="X77" s="15"/>
+      <c r="Y77" s="15"/>
+      <c r="Z77" s="15"/>
+      <c r="AA77" s="15"/>
+      <c r="AB77" s="15"/>
+      <c r="AC77" s="15"/>
+      <c r="AD77" s="15"/>
+      <c r="AE77" s="15"/>
+      <c r="AF77" s="15"/>
+      <c r="AG77" s="5"/>
+    </row>
+    <row r="78" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B78" s="4"/>
+      <c r="C78" s="15"/>
+      <c r="D78" s="15"/>
+      <c r="E78" s="15"/>
+      <c r="F78" s="15"/>
+      <c r="G78" s="15"/>
+      <c r="H78" s="15"/>
+      <c r="I78" s="5"/>
+      <c r="O78" s="4"/>
+      <c r="P78" s="15"/>
+      <c r="Q78" s="15"/>
+      <c r="R78" s="15"/>
+      <c r="S78" s="15"/>
+      <c r="T78" s="15"/>
+      <c r="U78" s="15"/>
+      <c r="V78" s="15"/>
+      <c r="W78" s="15"/>
+      <c r="X78" s="15"/>
+      <c r="Y78" s="15"/>
+      <c r="Z78" s="15"/>
+      <c r="AA78" s="15"/>
+      <c r="AB78" s="15"/>
+      <c r="AC78" s="15"/>
+      <c r="AD78" s="15"/>
+      <c r="AE78" s="15"/>
+      <c r="AF78" s="15"/>
+      <c r="AG78" s="5"/>
+    </row>
+    <row r="79" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B79" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C79" s="15"/>
+      <c r="D79" s="15"/>
+      <c r="E79" s="15"/>
+      <c r="F79" s="15"/>
+      <c r="G79" s="15"/>
+      <c r="H79" s="15"/>
+      <c r="I79" s="5"/>
+      <c r="O79" s="4"/>
+      <c r="P79" s="15"/>
+      <c r="Q79" s="15"/>
+      <c r="R79" s="15"/>
+      <c r="S79" s="15"/>
+      <c r="T79" s="15"/>
+      <c r="U79" s="15"/>
+      <c r="V79" s="15"/>
+      <c r="W79" s="15"/>
+      <c r="X79" s="15"/>
+      <c r="Y79" s="15"/>
+      <c r="Z79" s="15"/>
+      <c r="AA79" s="15"/>
+      <c r="AB79" s="15"/>
+      <c r="AC79" s="15"/>
+      <c r="AD79" s="15"/>
+      <c r="AE79" s="15"/>
+      <c r="AF79" s="15"/>
+      <c r="AG79" s="5"/>
+    </row>
+    <row r="80" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B80" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C80" s="15"/>
+      <c r="D80" s="15"/>
+      <c r="E80" s="15"/>
+      <c r="F80" s="15"/>
+      <c r="G80" s="15"/>
+      <c r="H80" s="15"/>
+      <c r="I80" s="5"/>
+      <c r="O80" s="4"/>
+      <c r="P80" s="15"/>
+      <c r="Q80" s="15"/>
+      <c r="R80" s="15"/>
+      <c r="S80" s="15"/>
+      <c r="T80" s="15"/>
+      <c r="U80" s="15"/>
+      <c r="V80" s="15"/>
+      <c r="W80" s="15"/>
+      <c r="X80" s="15"/>
+      <c r="Y80" s="15"/>
+      <c r="Z80" s="15"/>
+      <c r="AA80" s="15"/>
+      <c r="AB80" s="15"/>
+      <c r="AC80" s="15"/>
+      <c r="AD80" s="15"/>
+      <c r="AE80" s="15"/>
+      <c r="AF80" s="15"/>
+      <c r="AG80" s="5"/>
+    </row>
+    <row r="81" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B81" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C81" s="15"/>
+      <c r="D81" s="15"/>
+      <c r="E81" s="15"/>
+      <c r="F81" s="15"/>
+      <c r="G81" s="15"/>
+      <c r="H81" s="15"/>
+      <c r="I81" s="5"/>
+      <c r="O81" s="4"/>
+      <c r="P81" s="15"/>
+      <c r="Q81" s="15"/>
+      <c r="R81" s="15"/>
+      <c r="S81" s="15"/>
+      <c r="T81" s="15"/>
+      <c r="U81" s="15"/>
+      <c r="V81" s="15"/>
+      <c r="W81" s="15"/>
+      <c r="X81" s="15"/>
+      <c r="Y81" s="15"/>
+      <c r="Z81" s="15"/>
+      <c r="AA81" s="15"/>
+      <c r="AB81" s="15"/>
+      <c r="AC81" s="15"/>
+      <c r="AD81" s="15"/>
+      <c r="AE81" s="15"/>
+      <c r="AF81" s="15"/>
+      <c r="AG81" s="5"/>
+    </row>
+    <row r="82" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B82" s="4"/>
+      <c r="C82" s="15"/>
+      <c r="D82" s="15"/>
+      <c r="E82" s="15"/>
+      <c r="F82" s="15"/>
+      <c r="G82" s="15"/>
+      <c r="H82" s="15"/>
+      <c r="I82" s="5"/>
+      <c r="O82" s="4"/>
+      <c r="P82" s="15"/>
+      <c r="Q82" s="15"/>
+      <c r="R82" s="15"/>
+      <c r="S82" s="15"/>
+      <c r="T82" s="15"/>
+      <c r="U82" s="15"/>
+      <c r="V82" s="15"/>
+      <c r="W82" s="15"/>
+      <c r="X82" s="15"/>
+      <c r="Y82" s="15"/>
+      <c r="Z82" s="15"/>
+      <c r="AA82" s="15"/>
+      <c r="AB82" s="15"/>
+      <c r="AC82" s="15"/>
+      <c r="AD82" s="15"/>
+      <c r="AE82" s="15"/>
+      <c r="AF82" s="15"/>
+      <c r="AG82" s="5"/>
+    </row>
+    <row r="83" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B83" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C83" s="15"/>
+      <c r="D83" s="15"/>
+      <c r="E83" s="15"/>
+      <c r="F83" s="15"/>
+      <c r="G83" s="15"/>
+      <c r="H83" s="15"/>
+      <c r="I83" s="5"/>
+      <c r="O83" s="4"/>
+      <c r="P83" s="15"/>
+      <c r="Q83" s="15"/>
+      <c r="R83" s="15"/>
+      <c r="S83" s="15"/>
+      <c r="T83" s="15"/>
+      <c r="U83" s="15"/>
+      <c r="V83" s="15"/>
+      <c r="W83" s="15"/>
+      <c r="X83" s="15"/>
+      <c r="Y83" s="15"/>
+      <c r="Z83" s="15"/>
+      <c r="AA83" s="15"/>
+      <c r="AB83" s="15"/>
+      <c r="AC83" s="15"/>
+      <c r="AD83" s="15"/>
+      <c r="AE83" s="15"/>
+      <c r="AF83" s="15"/>
+      <c r="AG83" s="5"/>
+    </row>
+    <row r="84" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B84" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C84" s="15"/>
+      <c r="D84" s="15"/>
+      <c r="E84" s="15"/>
+      <c r="F84" s="15"/>
+      <c r="G84" s="15"/>
+      <c r="H84" s="15"/>
+      <c r="I84" s="5"/>
+      <c r="O84" s="4"/>
+      <c r="P84" s="15"/>
+      <c r="Q84" s="15"/>
+      <c r="R84" s="15"/>
+      <c r="S84" s="15"/>
+      <c r="T84" s="15"/>
+      <c r="U84" s="15"/>
+      <c r="V84" s="15"/>
+      <c r="W84" s="15"/>
+      <c r="X84" s="15"/>
+      <c r="Y84" s="15"/>
+      <c r="Z84" s="15"/>
+      <c r="AA84" s="15"/>
+      <c r="AB84" s="15"/>
+      <c r="AC84" s="15"/>
+      <c r="AD84" s="15"/>
+      <c r="AE84" s="15"/>
+      <c r="AF84" s="15"/>
+      <c r="AG84" s="5"/>
+    </row>
+    <row r="85" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B85" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C85" s="15"/>
+      <c r="D85" s="15"/>
+      <c r="E85" s="15"/>
+      <c r="F85" s="15"/>
+      <c r="G85" s="15"/>
+      <c r="H85" s="15"/>
+      <c r="I85" s="5"/>
+      <c r="O85" s="4"/>
+      <c r="P85" s="15"/>
+      <c r="Q85" s="15"/>
+      <c r="R85" s="15"/>
+      <c r="S85" s="15"/>
+      <c r="T85" s="15"/>
+      <c r="U85" s="15"/>
+      <c r="V85" s="15"/>
+      <c r="W85" s="15"/>
+      <c r="X85" s="15"/>
+      <c r="Y85" s="15"/>
+      <c r="Z85" s="15"/>
+      <c r="AA85" s="15"/>
+      <c r="AB85" s="15"/>
+      <c r="AC85" s="15"/>
+      <c r="AD85" s="15"/>
+      <c r="AE85" s="15"/>
+      <c r="AF85" s="15"/>
+      <c r="AG85" s="5"/>
+    </row>
+    <row r="86" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B86" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C86" s="15"/>
+      <c r="D86" s="15"/>
+      <c r="E86" s="15"/>
+      <c r="F86" s="15"/>
+      <c r="G86" s="15"/>
+      <c r="H86" s="15"/>
+      <c r="I86" s="5"/>
+      <c r="O86" s="4"/>
+      <c r="P86" s="15"/>
+      <c r="Q86" s="15"/>
+      <c r="R86" s="15"/>
+      <c r="S86" s="15"/>
+      <c r="T86" s="15"/>
+      <c r="U86" s="15"/>
+      <c r="V86" s="15"/>
+      <c r="W86" s="15"/>
+      <c r="X86" s="15"/>
+      <c r="Y86" s="15"/>
+      <c r="Z86" s="15"/>
+      <c r="AA86" s="15"/>
+      <c r="AB86" s="15"/>
+      <c r="AC86" s="15"/>
+      <c r="AD86" s="15"/>
+      <c r="AE86" s="15"/>
+      <c r="AF86" s="15"/>
+      <c r="AG86" s="5"/>
+    </row>
+    <row r="87" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B87" s="4"/>
+      <c r="C87" s="15"/>
+      <c r="D87" s="15"/>
+      <c r="E87" s="15"/>
+      <c r="F87" s="15"/>
+      <c r="G87" s="15"/>
+      <c r="H87" s="15"/>
+      <c r="I87" s="5"/>
+      <c r="O87" s="4"/>
+      <c r="P87" s="15"/>
+      <c r="Q87" s="15"/>
+      <c r="R87" s="15"/>
+      <c r="S87" s="15"/>
+      <c r="T87" s="15"/>
+      <c r="U87" s="15"/>
+      <c r="V87" s="15"/>
+      <c r="W87" s="15"/>
+      <c r="X87" s="15"/>
+      <c r="Y87" s="15"/>
+      <c r="Z87" s="15"/>
+      <c r="AA87" s="15"/>
+      <c r="AB87" s="15"/>
+      <c r="AC87" s="15"/>
+      <c r="AD87" s="15"/>
+      <c r="AE87" s="15"/>
+      <c r="AF87" s="15"/>
+      <c r="AG87" s="5"/>
+    </row>
+    <row r="88" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B88" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C88" s="15"/>
+      <c r="D88" s="15"/>
+      <c r="E88" s="15"/>
+      <c r="F88" s="15"/>
+      <c r="G88" s="15"/>
+      <c r="H88" s="15"/>
+      <c r="I88" s="5"/>
+      <c r="O88" s="4"/>
+      <c r="P88" s="15"/>
+      <c r="Q88" s="15"/>
+      <c r="R88" s="15"/>
+      <c r="S88" s="15"/>
+      <c r="T88" s="15"/>
+      <c r="U88" s="15"/>
+      <c r="V88" s="15"/>
+      <c r="W88" s="15"/>
+      <c r="X88" s="15"/>
+      <c r="Y88" s="15"/>
+      <c r="Z88" s="15"/>
+      <c r="AA88" s="15"/>
+      <c r="AB88" s="15"/>
+      <c r="AC88" s="15"/>
+      <c r="AD88" s="15"/>
+      <c r="AE88" s="15"/>
+      <c r="AF88" s="15"/>
+      <c r="AG88" s="5"/>
+    </row>
+    <row r="89" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B89" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C89" s="15"/>
+      <c r="D89" s="15"/>
+      <c r="E89" s="15"/>
+      <c r="F89" s="15"/>
+      <c r="G89" s="15"/>
+      <c r="H89" s="15"/>
+      <c r="I89" s="5"/>
+      <c r="O89" s="4"/>
+      <c r="P89" s="15"/>
+      <c r="Q89" s="15"/>
+      <c r="R89" s="15"/>
+      <c r="S89" s="15"/>
+      <c r="T89" s="15"/>
+      <c r="U89" s="15"/>
+      <c r="V89" s="15"/>
+      <c r="W89" s="15"/>
+      <c r="X89" s="15"/>
+      <c r="Y89" s="15"/>
+      <c r="Z89" s="15"/>
+      <c r="AA89" s="15"/>
+      <c r="AB89" s="15"/>
+      <c r="AC89" s="15"/>
+      <c r="AD89" s="15"/>
+      <c r="AE89" s="15"/>
+      <c r="AF89" s="15"/>
+      <c r="AG89" s="5"/>
+    </row>
+    <row r="90" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B90" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C90" s="15"/>
+      <c r="D90" s="15"/>
+      <c r="E90" s="15"/>
+      <c r="F90" s="15"/>
+      <c r="G90" s="15"/>
+      <c r="H90" s="15"/>
+      <c r="I90" s="5"/>
+      <c r="O90" s="4"/>
+      <c r="P90" s="15"/>
+      <c r="Q90" s="15"/>
+      <c r="R90" s="15"/>
+      <c r="S90" s="15"/>
+      <c r="T90" s="15"/>
+      <c r="U90" s="15"/>
+      <c r="V90" s="15"/>
+      <c r="W90" s="15"/>
+      <c r="X90" s="15"/>
+      <c r="Y90" s="15"/>
+      <c r="Z90" s="15"/>
+      <c r="AA90" s="15"/>
+      <c r="AB90" s="15"/>
+      <c r="AC90" s="15"/>
+      <c r="AD90" s="15"/>
+      <c r="AE90" s="15"/>
+      <c r="AF90" s="15"/>
+      <c r="AG90" s="5"/>
+    </row>
+    <row r="91" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B91" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C91" s="15"/>
+      <c r="D91" s="15"/>
+      <c r="E91" s="15"/>
+      <c r="F91" s="15"/>
+      <c r="G91" s="15"/>
+      <c r="H91" s="15"/>
+      <c r="I91" s="5"/>
+      <c r="O91" s="4"/>
+      <c r="P91" s="15"/>
+      <c r="Q91" s="15"/>
+      <c r="R91" s="15"/>
+      <c r="S91" s="15"/>
+      <c r="T91" s="15"/>
+      <c r="U91" s="15"/>
+      <c r="V91" s="15"/>
+      <c r="W91" s="15"/>
+      <c r="X91" s="15"/>
+      <c r="Y91" s="15"/>
+      <c r="Z91" s="15"/>
+      <c r="AA91" s="15"/>
+      <c r="AB91" s="15"/>
+      <c r="AC91" s="15"/>
+      <c r="AD91" s="15"/>
+      <c r="AE91" s="15"/>
+      <c r="AF91" s="15"/>
+      <c r="AG91" s="5"/>
+    </row>
+    <row r="92" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B92" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C92" s="7"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="7"/>
+      <c r="F92" s="7"/>
+      <c r="G92" s="7"/>
+      <c r="H92" s="7"/>
+      <c r="I92" s="8"/>
+      <c r="O92" s="4"/>
+      <c r="P92" s="15"/>
+      <c r="Q92" s="15"/>
+      <c r="R92" s="15"/>
+      <c r="S92" s="15"/>
+      <c r="T92" s="15"/>
+      <c r="U92" s="15"/>
+      <c r="V92" s="15"/>
+      <c r="W92" s="15"/>
+      <c r="X92" s="15"/>
+      <c r="Y92" s="15"/>
+      <c r="Z92" s="15"/>
+      <c r="AA92" s="15"/>
+      <c r="AB92" s="15"/>
+      <c r="AC92" s="15"/>
+      <c r="AD92" s="15"/>
+      <c r="AE92" s="15"/>
+      <c r="AF92" s="15"/>
+      <c r="AG92" s="5"/>
+    </row>
+    <row r="93" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="O93" s="4"/>
+      <c r="P93" s="15"/>
+      <c r="Q93" s="15"/>
+      <c r="R93" s="15"/>
+      <c r="S93" s="15"/>
+      <c r="T93" s="15"/>
+      <c r="U93" s="15"/>
+      <c r="V93" s="15"/>
+      <c r="W93" s="15"/>
+      <c r="X93" s="15"/>
+      <c r="Y93" s="15"/>
+      <c r="Z93" s="15"/>
+      <c r="AA93" s="15"/>
+      <c r="AB93" s="15"/>
+      <c r="AC93" s="15"/>
+      <c r="AD93" s="15"/>
+      <c r="AE93" s="15"/>
+      <c r="AF93" s="15"/>
+      <c r="AG93" s="5"/>
+    </row>
+    <row r="94" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="O94" s="4"/>
+      <c r="P94" s="15"/>
+      <c r="Q94" s="15"/>
+      <c r="R94" s="15"/>
+      <c r="S94" s="15"/>
+      <c r="T94" s="15"/>
+      <c r="U94" s="15"/>
+      <c r="V94" s="15"/>
+      <c r="W94" s="15"/>
+      <c r="X94" s="15"/>
+      <c r="Y94" s="15"/>
+      <c r="Z94" s="15"/>
+      <c r="AA94" s="15"/>
+      <c r="AB94" s="15"/>
+      <c r="AC94" s="15"/>
+      <c r="AD94" s="15"/>
+      <c r="AE94" s="15"/>
+      <c r="AF94" s="15"/>
+      <c r="AG94" s="5"/>
+    </row>
+    <row r="95" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="O95" s="6"/>
+      <c r="P95" s="7"/>
+      <c r="Q95" s="7"/>
+      <c r="R95" s="7"/>
+      <c r="S95" s="7"/>
+      <c r="T95" s="7"/>
+      <c r="U95" s="7"/>
+      <c r="V95" s="7"/>
+      <c r="W95" s="7"/>
+      <c r="X95" s="7"/>
+      <c r="Y95" s="7"/>
+      <c r="Z95" s="7"/>
+      <c r="AA95" s="7"/>
+      <c r="AB95" s="7"/>
+      <c r="AC95" s="7"/>
+      <c r="AD95" s="7"/>
+      <c r="AE95" s="7"/>
+      <c r="AF95" s="7"/>
+      <c r="AG95" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me/2.Apex-Fundamentals.xlsx
+++ b/me/2.Apex-Fundamentals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\salesforce\me\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{980E02BA-A6E9-44BE-9D4D-1DB394918296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05CD1B98-A41A-49CD-A1DB-146229C39C48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hello World" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Escape Character" sheetId="4" r:id="rId4"/>
     <sheet name="Adding Comments" sheetId="5" r:id="rId5"/>
     <sheet name="List Collections Datatype" sheetId="6" r:id="rId6"/>
+    <sheet name="Set Collections Datatype" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="140">
   <si>
     <t>Mở Developer Console trên tab mới</t>
   </si>
@@ -471,6 +472,72 @@
   </si>
   <si>
     <t>https://developer.salesforce.com/docs/atlas.en-us.apexref.meta/apexref/apex_methods_system_list.htm</t>
+  </si>
+  <si>
+    <t>List dùng để lưu các item có cùng kiểu dữ liệu</t>
+  </si>
+  <si>
+    <t>Set dùng để lưu các item có cùng kiểu dữ liệu</t>
+  </si>
+  <si>
+    <t>Thêm phần tử vào vị trí thứ 4, khi đó các</t>
+  </si>
+  <si>
+    <t xml:space="preserve">item từ giá trị 89897764 sẽ được dịch </t>
+  </si>
+  <si>
+    <t>chuyển đến vị trí tiếp theo của vị trí cũ</t>
+  </si>
+  <si>
+    <t>Khác với List, Set lưu các item ko có thứ tự(Set ko dùng index nên nó được gọi là unordered)</t>
+  </si>
+  <si>
+    <t>Khác với List thì Set ko cho phép duplicate value</t>
+  </si>
+  <si>
+    <t>7.set-collection-datatype.txt</t>
+  </si>
+  <si>
+    <t>salesforce\2.Apex-Fundamentals\7.set-collection-datatype.txt</t>
+  </si>
+  <si>
+    <t>Set&lt;Integer&gt; rollNumbers = new Set&lt;Integer&gt;{11008890, 11008100, 11007231};</t>
+  </si>
+  <si>
+    <t>// adding duplicate values - NOT ALLOWED</t>
+  </si>
+  <si>
+    <t>// check if set has an item</t>
+  </si>
+  <si>
+    <t>System.debug(rollNumbers.contains(89897764));</t>
+  </si>
+  <si>
+    <t>System.debug(rollNumbers.contains(345345));</t>
+  </si>
+  <si>
+    <t>// delete an item</t>
+  </si>
+  <si>
+    <t>rollNumbers.remove(89897765);</t>
+  </si>
+  <si>
+    <t>// get set size</t>
+  </si>
+  <si>
+    <t>// check if set is empty</t>
+  </si>
+  <si>
+    <t>System.debug(rollNumbers.isEmpty());</t>
+  </si>
+  <si>
+    <t>// remove all items</t>
+  </si>
+  <si>
+    <t>Giá trị 89897767 đã tồn tại nên sẽ ko được thêm vào</t>
+  </si>
+  <si>
+    <t>Xóa 1 item nên còn 5 item</t>
   </si>
 </sst>
 </file>
@@ -620,10 +687,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2550,13 +2617,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>193860</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>94130</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>468679</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>122059</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2594,13 +2661,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>168087</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>56030</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>510986</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>48555</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2638,13 +2705,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>549088</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>100853</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>493059</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>134471</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2691,13 +2758,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>56031</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>89648</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>313766</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>107280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2729,6 +2796,320 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>56029</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>56030</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE434A00-D99C-51EB-5077-3A2AEE520C67}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2476500" y="13054853"/>
+          <a:ext cx="10892118" cy="1792941"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>246529</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>22412</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17B76D88-5F9F-1ADE-9604-79B5B5038C9B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7507941" y="13290176"/>
+          <a:ext cx="6432177" cy="1535206"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>303174</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>132644</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAE9F204-56C8-EA44-D24C-EBE2DCCDA558}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9239250" y="3819525"/>
+          <a:ext cx="13009524" cy="5647619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48460A3C-461B-2D32-C1CD-0E4F13CD89DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1809750" y="4543425"/>
+          <a:ext cx="9525" cy="1228725"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E448705C-734B-60FA-7DD1-8DF70D3CBC4F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7315200" y="6819900"/>
+          <a:ext cx="3962400" cy="1228725"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{675D99D0-0578-F9A1-7E1A-935C70B1DCBC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1524000" y="7381875"/>
+          <a:ext cx="809625" cy="657225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5321,7 +5702,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="15" t="s">
         <v>116</v>
       </c>
       <c r="C3" s="2"/>
@@ -5345,632 +5726,122 @@
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B4" s="4"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
       <c r="T4" s="5"/>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B5" s="4"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
       <c r="T5" s="5"/>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B6" s="4"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15"/>
       <c r="T6" s="5"/>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B7" s="4"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="15"/>
-      <c r="S7" s="15"/>
       <c r="T7" s="5"/>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B8" s="4"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="15"/>
-      <c r="S8" s="15"/>
       <c r="T8" s="5"/>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="15"/>
-      <c r="S9" s="15"/>
       <c r="T9" s="5"/>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="15"/>
-      <c r="S10" s="15"/>
       <c r="T10" s="5"/>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B11" s="4"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="15"/>
-      <c r="S11" s="15"/>
       <c r="T11" s="5"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B12" s="4"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="15"/>
-      <c r="S12" s="15"/>
       <c r="T12" s="5"/>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B13" s="4"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="15"/>
-      <c r="S13" s="15"/>
       <c r="T13" s="5"/>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B14" s="4"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="15"/>
-      <c r="S14" s="15"/>
       <c r="T14" s="5"/>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B15" s="4"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="15"/>
-      <c r="R15" s="15"/>
-      <c r="S15" s="15"/>
       <c r="T15" s="5"/>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B16" s="4"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="15"/>
-      <c r="R16" s="15"/>
-      <c r="S16" s="15"/>
       <c r="T16" s="5"/>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B17" s="4"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="15"/>
-      <c r="S17" s="15"/>
       <c r="T17" s="5"/>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B18" s="4"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="15"/>
-      <c r="R18" s="15"/>
-      <c r="S18" s="15"/>
       <c r="T18" s="5"/>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B19" s="4"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="15"/>
-      <c r="R19" s="15"/>
-      <c r="S19" s="15"/>
       <c r="T19" s="5"/>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B20" s="4"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="15"/>
-      <c r="R20" s="15"/>
-      <c r="S20" s="15"/>
       <c r="T20" s="5"/>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B21" s="4"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="15"/>
-      <c r="Q21" s="15"/>
-      <c r="R21" s="15"/>
-      <c r="S21" s="15"/>
       <c r="T21" s="5"/>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B22" s="4"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="15"/>
-      <c r="P22" s="15"/>
-      <c r="Q22" s="15"/>
-      <c r="R22" s="15"/>
-      <c r="S22" s="15"/>
       <c r="T22" s="5"/>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B23" s="4"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="15"/>
-      <c r="O23" s="15"/>
-      <c r="P23" s="15"/>
-      <c r="Q23" s="15"/>
-      <c r="R23" s="15"/>
-      <c r="S23" s="15"/>
       <c r="T23" s="5"/>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B24" s="4"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="15"/>
-      <c r="O24" s="15"/>
-      <c r="P24" s="15"/>
-      <c r="Q24" s="15"/>
-      <c r="R24" s="15"/>
-      <c r="S24" s="15"/>
       <c r="T24" s="5"/>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B25" s="4"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="15"/>
-      <c r="O25" s="15"/>
-      <c r="P25" s="15"/>
-      <c r="Q25" s="15"/>
-      <c r="R25" s="15"/>
-      <c r="S25" s="15"/>
       <c r="T25" s="5"/>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B26" s="4"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="15"/>
-      <c r="O26" s="15"/>
-      <c r="P26" s="15"/>
-      <c r="Q26" s="15"/>
-      <c r="R26" s="15"/>
-      <c r="S26" s="15"/>
       <c r="T26" s="5"/>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B27" s="4"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="15"/>
-      <c r="O27" s="15"/>
-      <c r="P27" s="15"/>
-      <c r="Q27" s="15"/>
-      <c r="R27" s="15"/>
-      <c r="S27" s="15"/>
       <c r="T27" s="5"/>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B28" s="4"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="15"/>
-      <c r="O28" s="15"/>
-      <c r="P28" s="15"/>
-      <c r="Q28" s="15"/>
-      <c r="R28" s="15"/>
-      <c r="S28" s="15"/>
       <c r="T28" s="5"/>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B29" s="4"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="15"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="15"/>
-      <c r="O29" s="15"/>
-      <c r="P29" s="15"/>
-      <c r="Q29" s="15"/>
-      <c r="R29" s="15"/>
-      <c r="S29" s="15"/>
       <c r="T29" s="5"/>
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B30" s="4"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="15"/>
-      <c r="M30" s="15"/>
-      <c r="N30" s="15"/>
-      <c r="O30" s="15"/>
-      <c r="P30" s="15"/>
-      <c r="Q30" s="15"/>
-      <c r="R30" s="15"/>
-      <c r="S30" s="15"/>
       <c r="T30" s="5"/>
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B31" s="4"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="15"/>
-      <c r="M31" s="15"/>
-      <c r="N31" s="15"/>
-      <c r="O31" s="15"/>
-      <c r="P31" s="15"/>
-      <c r="Q31" s="15"/>
-      <c r="R31" s="15"/>
-      <c r="S31" s="15"/>
       <c r="T31" s="5"/>
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B32" s="4"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="15"/>
-      <c r="M32" s="15"/>
-      <c r="N32" s="15"/>
-      <c r="O32" s="15"/>
-      <c r="P32" s="15"/>
-      <c r="Q32" s="15"/>
-      <c r="R32" s="15"/>
-      <c r="S32" s="15"/>
       <c r="T32" s="5"/>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B33" s="4"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="15"/>
-      <c r="L33" s="15"/>
-      <c r="M33" s="15"/>
-      <c r="N33" s="15"/>
-      <c r="O33" s="15"/>
-      <c r="P33" s="15"/>
-      <c r="Q33" s="15"/>
-      <c r="R33" s="15"/>
-      <c r="S33" s="15"/>
       <c r="T33" s="5"/>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
@@ -7433,1688 +7304,1000 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CC5A17F-325A-41A3-9954-AF1931AC7357}">
-  <dimension ref="A2:AG95"/>
+  <dimension ref="A2:AG96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V31" sqref="V31"/>
+    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L47" sqref="L47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="16" t="s">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="14" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="O38" s="1"/>
-      <c r="P38" s="2"/>
-      <c r="Q38" s="2"/>
-      <c r="R38" s="2"/>
-      <c r="S38" s="2"/>
-      <c r="T38" s="2"/>
-      <c r="U38" s="2"/>
-      <c r="V38" s="2"/>
-      <c r="W38" s="2"/>
-      <c r="X38" s="2"/>
-      <c r="Y38" s="2"/>
-      <c r="Z38" s="2"/>
-      <c r="AA38" s="2"/>
-      <c r="AB38" s="2"/>
-      <c r="AC38" s="2"/>
-      <c r="AD38" s="2"/>
-      <c r="AE38" s="2"/>
-      <c r="AF38" s="2"/>
-      <c r="AG38" s="3"/>
-    </row>
     <row r="39" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="O39" s="4"/>
-      <c r="P39" s="15"/>
-      <c r="Q39" s="15"/>
-      <c r="R39" s="15"/>
-      <c r="S39" s="15"/>
-      <c r="T39" s="15"/>
-      <c r="U39" s="15"/>
-      <c r="V39" s="15"/>
-      <c r="W39" s="15"/>
-      <c r="X39" s="15"/>
-      <c r="Y39" s="15"/>
-      <c r="Z39" s="15"/>
-      <c r="AA39" s="15"/>
-      <c r="AB39" s="15"/>
-      <c r="AC39" s="15"/>
-      <c r="AD39" s="15"/>
-      <c r="AE39" s="15"/>
-      <c r="AF39" s="15"/>
-      <c r="AG39" s="5"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="2"/>
+      <c r="T39" s="2"/>
+      <c r="U39" s="2"/>
+      <c r="V39" s="2"/>
+      <c r="W39" s="2"/>
+      <c r="X39" s="2"/>
+      <c r="Y39" s="2"/>
+      <c r="Z39" s="2"/>
+      <c r="AA39" s="2"/>
+      <c r="AB39" s="2"/>
+      <c r="AC39" s="2"/>
+      <c r="AD39" s="2"/>
+      <c r="AE39" s="2"/>
+      <c r="AF39" s="2"/>
+      <c r="AG39" s="3"/>
     </row>
     <row r="40" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A40" s="9" t="s">
+      <c r="O40" s="4"/>
+      <c r="AG40" s="5"/>
+    </row>
+    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A41" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="O40" s="4"/>
-      <c r="P40" s="15"/>
-      <c r="Q40" s="15"/>
-      <c r="R40" s="15"/>
-      <c r="S40" s="15"/>
-      <c r="T40" s="15"/>
-      <c r="U40" s="15"/>
-      <c r="V40" s="15"/>
-      <c r="W40" s="15"/>
-      <c r="X40" s="15"/>
-      <c r="Y40" s="15"/>
-      <c r="Z40" s="15"/>
-      <c r="AA40" s="15"/>
-      <c r="AB40" s="15"/>
-      <c r="AC40" s="15"/>
-      <c r="AD40" s="15"/>
-      <c r="AE40" s="15"/>
-      <c r="AF40" s="15"/>
-      <c r="AG40" s="5"/>
-    </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B41" s="1" t="s">
+      <c r="O41" s="4"/>
+      <c r="AG41" s="5"/>
+    </row>
+    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B42" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="3"/>
-      <c r="O41" s="4"/>
-      <c r="P41" s="15"/>
-      <c r="Q41" s="15"/>
-      <c r="R41" s="15"/>
-      <c r="S41" s="15"/>
-      <c r="T41" s="15"/>
-      <c r="U41" s="15"/>
-      <c r="V41" s="15"/>
-      <c r="W41" s="15"/>
-      <c r="X41" s="15"/>
-      <c r="Y41" s="15"/>
-      <c r="Z41" s="15"/>
-      <c r="AA41" s="15"/>
-      <c r="AB41" s="15"/>
-      <c r="AC41" s="15"/>
-      <c r="AD41" s="15"/>
-      <c r="AE41" s="15"/>
-      <c r="AF41" s="15"/>
-      <c r="AG41" s="5"/>
-    </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B42" s="4"/>
-      <c r="C42" t="s">
-        <v>11</v>
-      </c>
-      <c r="F42" s="5"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="3"/>
       <c r="O42" s="4"/>
-      <c r="P42" s="15"/>
-      <c r="Q42" s="15"/>
-      <c r="R42" s="15"/>
-      <c r="S42" s="15"/>
-      <c r="T42" s="15"/>
-      <c r="U42" s="15"/>
-      <c r="V42" s="15"/>
-      <c r="W42" s="15"/>
-      <c r="X42" s="15"/>
-      <c r="Y42" s="15"/>
-      <c r="Z42" s="15"/>
-      <c r="AA42" s="15"/>
-      <c r="AB42" s="15"/>
-      <c r="AC42" s="15"/>
-      <c r="AD42" s="15"/>
-      <c r="AE42" s="15"/>
-      <c r="AF42" s="15"/>
       <c r="AG42" s="5"/>
     </row>
     <row r="43" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B43" s="4"/>
-      <c r="D43" t="s">
-        <v>12</v>
+      <c r="C43" t="s">
+        <v>11</v>
       </c>
       <c r="F43" s="5"/>
       <c r="O43" s="4"/>
-      <c r="P43" s="15"/>
-      <c r="Q43" s="15"/>
-      <c r="R43" s="15"/>
-      <c r="S43" s="15"/>
-      <c r="T43" s="15"/>
-      <c r="U43" s="15"/>
-      <c r="V43" s="15"/>
-      <c r="W43" s="15"/>
-      <c r="X43" s="15"/>
-      <c r="Y43" s="15"/>
-      <c r="Z43" s="15"/>
-      <c r="AA43" s="15"/>
-      <c r="AB43" s="15"/>
-      <c r="AC43" s="15"/>
-      <c r="AD43" s="15"/>
-      <c r="AE43" s="15"/>
-      <c r="AF43" s="15"/>
       <c r="AG43" s="5"/>
     </row>
     <row r="44" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B44" s="4"/>
       <c r="D44" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F44" s="5"/>
       <c r="O44" s="4"/>
-      <c r="P44" s="15"/>
-      <c r="Q44" s="15"/>
-      <c r="R44" s="15"/>
-      <c r="S44" s="15"/>
-      <c r="T44" s="15"/>
-      <c r="U44" s="15"/>
-      <c r="V44" s="15"/>
-      <c r="W44" s="15"/>
-      <c r="X44" s="15"/>
-      <c r="Y44" s="15"/>
-      <c r="Z44" s="15"/>
-      <c r="AA44" s="15"/>
-      <c r="AB44" s="15"/>
-      <c r="AC44" s="15"/>
-      <c r="AD44" s="15"/>
-      <c r="AE44" s="15"/>
-      <c r="AF44" s="15"/>
       <c r="AG44" s="5"/>
     </row>
     <row r="45" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B45" s="4"/>
       <c r="D45" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="F45" s="5"/>
       <c r="O45" s="4"/>
-      <c r="P45" s="15"/>
-      <c r="Q45" s="15"/>
-      <c r="R45" s="15"/>
-      <c r="S45" s="15"/>
-      <c r="T45" s="15"/>
-      <c r="U45" s="15"/>
-      <c r="V45" s="15"/>
-      <c r="W45" s="15"/>
-      <c r="X45" s="15"/>
-      <c r="Y45" s="15"/>
-      <c r="Z45" s="15"/>
-      <c r="AA45" s="15"/>
-      <c r="AB45" s="15"/>
-      <c r="AC45" s="15"/>
-      <c r="AD45" s="15"/>
-      <c r="AE45" s="15"/>
-      <c r="AF45" s="15"/>
       <c r="AG45" s="5"/>
     </row>
     <row r="46" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B46" s="4"/>
       <c r="D46" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="F46" s="5"/>
       <c r="O46" s="4"/>
-      <c r="P46" s="15"/>
-      <c r="Q46" s="15"/>
-      <c r="R46" s="15"/>
-      <c r="S46" s="15"/>
-      <c r="T46" s="15"/>
-      <c r="U46" s="15"/>
-      <c r="V46" s="15"/>
-      <c r="W46" s="15"/>
-      <c r="X46" s="15"/>
-      <c r="Y46" s="15"/>
-      <c r="Z46" s="15"/>
-      <c r="AA46" s="15"/>
-      <c r="AB46" s="15"/>
-      <c r="AC46" s="15"/>
-      <c r="AD46" s="15"/>
-      <c r="AE46" s="15"/>
-      <c r="AF46" s="15"/>
       <c r="AG46" s="5"/>
     </row>
     <row r="47" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B47" s="4"/>
-      <c r="D47" s="14" t="s">
-        <v>81</v>
+      <c r="D47" t="s">
+        <v>77</v>
       </c>
       <c r="F47" s="5"/>
       <c r="O47" s="4"/>
-      <c r="P47" s="15"/>
-      <c r="Q47" s="15"/>
-      <c r="R47" s="15"/>
-      <c r="S47" s="15"/>
-      <c r="T47" s="15"/>
-      <c r="U47" s="15"/>
-      <c r="V47" s="15"/>
-      <c r="W47" s="15"/>
-      <c r="X47" s="15"/>
-      <c r="Y47" s="15"/>
-      <c r="Z47" s="15"/>
-      <c r="AA47" s="15"/>
-      <c r="AB47" s="15"/>
-      <c r="AC47" s="15"/>
-      <c r="AD47" s="15"/>
-      <c r="AE47" s="15"/>
-      <c r="AF47" s="15"/>
       <c r="AG47" s="5"/>
     </row>
     <row r="48" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B48" s="4"/>
-      <c r="D48" s="10" t="s">
+      <c r="D48" t="s">
+        <v>81</v>
+      </c>
+      <c r="F48" s="5"/>
+      <c r="O48" s="4"/>
+      <c r="AG48" s="5"/>
+    </row>
+    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B49" s="4"/>
+      <c r="D49" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="F48" s="5"/>
-      <c r="G48" t="s">
+      <c r="F49" s="5"/>
+      <c r="G49" t="s">
         <v>17</v>
       </c>
-      <c r="H48" t="s">
+      <c r="H49" t="s">
         <v>16</v>
       </c>
-      <c r="O48" s="4"/>
-      <c r="P48" s="15"/>
-      <c r="Q48" s="15"/>
-      <c r="R48" s="15"/>
-      <c r="S48" s="15"/>
-      <c r="T48" s="15"/>
-      <c r="U48" s="15"/>
-      <c r="V48" s="15"/>
-      <c r="W48" s="15"/>
-      <c r="X48" s="15"/>
-      <c r="Y48" s="15"/>
-      <c r="Z48" s="15"/>
-      <c r="AA48" s="15"/>
-      <c r="AB48" s="15"/>
-      <c r="AC48" s="15"/>
-      <c r="AD48" s="15"/>
-      <c r="AE48" s="15"/>
-      <c r="AF48" s="15"/>
-      <c r="AG48" s="5"/>
-    </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B49" s="6"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="8"/>
       <c r="O49" s="4"/>
-      <c r="P49" s="15"/>
-      <c r="Q49" s="15"/>
-      <c r="R49" s="15"/>
-      <c r="S49" s="15"/>
-      <c r="T49" s="15"/>
-      <c r="U49" s="15"/>
-      <c r="V49" s="15"/>
-      <c r="W49" s="15"/>
-      <c r="X49" s="15"/>
-      <c r="Y49" s="15"/>
-      <c r="Z49" s="15"/>
-      <c r="AA49" s="15"/>
-      <c r="AB49" s="15"/>
-      <c r="AC49" s="15"/>
-      <c r="AD49" s="15"/>
-      <c r="AE49" s="15"/>
-      <c r="AF49" s="15"/>
       <c r="AG49" s="5"/>
     </row>
     <row r="50" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B50" s="6"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="8"/>
       <c r="O50" s="4"/>
-      <c r="P50" s="15"/>
-      <c r="Q50" s="15"/>
-      <c r="R50" s="15"/>
-      <c r="S50" s="15"/>
-      <c r="T50" s="15"/>
-      <c r="U50" s="15"/>
-      <c r="V50" s="15"/>
-      <c r="W50" s="15"/>
-      <c r="X50" s="15"/>
-      <c r="Y50" s="15"/>
-      <c r="Z50" s="15"/>
-      <c r="AA50" s="15"/>
-      <c r="AB50" s="15"/>
-      <c r="AC50" s="15"/>
-      <c r="AD50" s="15"/>
-      <c r="AE50" s="15"/>
-      <c r="AF50" s="15"/>
       <c r="AG50" s="5"/>
     </row>
     <row r="51" spans="1:33" x14ac:dyDescent="0.25">
       <c r="O51" s="4"/>
-      <c r="P51" s="15"/>
-      <c r="Q51" s="15"/>
-      <c r="R51" s="15"/>
-      <c r="S51" s="15"/>
-      <c r="T51" s="15"/>
-      <c r="U51" s="15"/>
-      <c r="V51" s="15"/>
-      <c r="W51" s="15"/>
-      <c r="X51" s="15"/>
-      <c r="Y51" s="15"/>
-      <c r="Z51" s="15"/>
-      <c r="AA51" s="15"/>
-      <c r="AB51" s="15"/>
-      <c r="AC51" s="15"/>
-      <c r="AD51" s="15"/>
-      <c r="AE51" s="15"/>
-      <c r="AF51" s="15"/>
       <c r="AG51" s="5"/>
     </row>
     <row r="52" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="O52" s="4"/>
+      <c r="AG52" s="5"/>
+    </row>
+    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>91</v>
       </c>
-      <c r="O52" s="4"/>
-      <c r="P52" s="15"/>
-      <c r="Q52" s="15"/>
-      <c r="R52" s="15"/>
-      <c r="S52" s="15"/>
-      <c r="T52" s="15"/>
-      <c r="U52" s="15"/>
-      <c r="V52" s="15"/>
-      <c r="W52" s="15"/>
-      <c r="X52" s="15"/>
-      <c r="Y52" s="15"/>
-      <c r="Z52" s="15"/>
-      <c r="AA52" s="15"/>
-      <c r="AB52" s="15"/>
-      <c r="AC52" s="15"/>
-      <c r="AD52" s="15"/>
-      <c r="AE52" s="15"/>
-      <c r="AF52" s="15"/>
-      <c r="AG52" s="5"/>
-    </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B53" s="1" t="s">
+      <c r="O53" s="4"/>
+      <c r="AG53" s="5"/>
+    </row>
+    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B54" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="3"/>
-      <c r="O53" s="4"/>
-      <c r="P53" s="15"/>
-      <c r="Q53" s="15"/>
-      <c r="R53" s="15"/>
-      <c r="S53" s="15"/>
-      <c r="T53" s="15"/>
-      <c r="U53" s="15"/>
-      <c r="V53" s="15"/>
-      <c r="W53" s="15"/>
-      <c r="X53" s="15"/>
-      <c r="Y53" s="15"/>
-      <c r="Z53" s="15"/>
-      <c r="AA53" s="15"/>
-      <c r="AB53" s="15"/>
-      <c r="AC53" s="15"/>
-      <c r="AD53" s="15"/>
-      <c r="AE53" s="15"/>
-      <c r="AF53" s="15"/>
-      <c r="AG53" s="5"/>
-    </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B54" s="4" t="s">
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="3"/>
+      <c r="O54" s="4"/>
+      <c r="AG54" s="5"/>
+    </row>
+    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B55" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C54" s="15"/>
-      <c r="D54" s="15"/>
-      <c r="E54" s="15"/>
-      <c r="F54" s="15"/>
-      <c r="G54" s="15"/>
-      <c r="H54" s="15"/>
-      <c r="I54" s="5"/>
-      <c r="O54" s="4"/>
-      <c r="P54" s="15"/>
-      <c r="Q54" s="15"/>
-      <c r="R54" s="15"/>
-      <c r="S54" s="15"/>
-      <c r="T54" s="15"/>
-      <c r="U54" s="15"/>
-      <c r="V54" s="15"/>
-      <c r="W54" s="15"/>
-      <c r="X54" s="15"/>
-      <c r="Y54" s="15"/>
-      <c r="Z54" s="15"/>
-      <c r="AA54" s="15"/>
-      <c r="AB54" s="15"/>
-      <c r="AC54" s="15"/>
-      <c r="AD54" s="15"/>
-      <c r="AE54" s="15"/>
-      <c r="AF54" s="15"/>
-      <c r="AG54" s="5"/>
-    </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B55" s="4"/>
-      <c r="C55" s="15"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="15"/>
-      <c r="F55" s="15"/>
-      <c r="G55" s="15"/>
-      <c r="H55" s="15"/>
       <c r="I55" s="5"/>
       <c r="O55" s="4"/>
-      <c r="P55" s="15"/>
-      <c r="Q55" s="15"/>
-      <c r="R55" s="15"/>
-      <c r="S55" s="15"/>
-      <c r="T55" s="15"/>
-      <c r="U55" s="15"/>
-      <c r="V55" s="15"/>
-      <c r="W55" s="15"/>
-      <c r="X55" s="15"/>
-      <c r="Y55" s="15"/>
-      <c r="Z55" s="15"/>
-      <c r="AA55" s="15"/>
-      <c r="AB55" s="15"/>
-      <c r="AC55" s="15"/>
-      <c r="AD55" s="15"/>
-      <c r="AE55" s="15"/>
-      <c r="AF55" s="15"/>
       <c r="AG55" s="5"/>
     </row>
     <row r="56" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B56" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C56" s="15"/>
-      <c r="D56" s="15"/>
-      <c r="E56" s="15"/>
-      <c r="F56" s="15"/>
-      <c r="G56" s="15"/>
-      <c r="H56" s="15"/>
+      <c r="B56" s="4"/>
       <c r="I56" s="5"/>
-      <c r="J56" t="s">
-        <v>17</v>
-      </c>
-      <c r="K56" t="s">
-        <v>113</v>
-      </c>
       <c r="O56" s="4"/>
-      <c r="P56" s="15"/>
-      <c r="Q56" s="15"/>
-      <c r="R56" s="15"/>
-      <c r="S56" s="15"/>
-      <c r="T56" s="15"/>
-      <c r="U56" s="15"/>
-      <c r="V56" s="15"/>
-      <c r="W56" s="15"/>
-      <c r="X56" s="15"/>
-      <c r="Y56" s="15"/>
-      <c r="Z56" s="15"/>
-      <c r="AA56" s="15"/>
-      <c r="AB56" s="15"/>
-      <c r="AC56" s="15"/>
-      <c r="AD56" s="15"/>
-      <c r="AE56" s="15"/>
-      <c r="AF56" s="15"/>
       <c r="AG56" s="5"/>
     </row>
     <row r="57" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B57" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C57" s="15"/>
-      <c r="D57" s="15"/>
-      <c r="E57" s="15"/>
-      <c r="F57" s="15"/>
-      <c r="G57" s="15"/>
-      <c r="H57" s="15"/>
+        <v>95</v>
+      </c>
       <c r="I57" s="5"/>
+      <c r="J57" t="s">
+        <v>17</v>
+      </c>
+      <c r="K57" t="s">
+        <v>113</v>
+      </c>
       <c r="O57" s="4"/>
-      <c r="P57" s="15"/>
-      <c r="Q57" s="15"/>
-      <c r="R57" s="15"/>
-      <c r="S57" s="15"/>
-      <c r="T57" s="15"/>
-      <c r="U57" s="15"/>
-      <c r="V57" s="15"/>
-      <c r="W57" s="15"/>
-      <c r="X57" s="15"/>
-      <c r="Y57" s="15"/>
-      <c r="Z57" s="15"/>
-      <c r="AA57" s="15"/>
-      <c r="AB57" s="15"/>
-      <c r="AC57" s="15"/>
-      <c r="AD57" s="15"/>
-      <c r="AE57" s="15"/>
-      <c r="AF57" s="15"/>
       <c r="AG57" s="5"/>
     </row>
     <row r="58" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B58" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C58" s="15"/>
-      <c r="D58" s="15"/>
-      <c r="E58" s="15"/>
-      <c r="F58" s="15"/>
-      <c r="G58" s="15"/>
-      <c r="H58" s="15"/>
+        <v>96</v>
+      </c>
       <c r="I58" s="5"/>
       <c r="O58" s="4"/>
-      <c r="P58" s="15"/>
-      <c r="Q58" s="15"/>
-      <c r="R58" s="15"/>
-      <c r="S58" s="15"/>
-      <c r="T58" s="15"/>
-      <c r="U58" s="15"/>
-      <c r="V58" s="15"/>
-      <c r="W58" s="15"/>
-      <c r="X58" s="15"/>
-      <c r="Y58" s="15"/>
-      <c r="Z58" s="15"/>
-      <c r="AA58" s="15"/>
-      <c r="AB58" s="15"/>
-      <c r="AC58" s="15"/>
-      <c r="AD58" s="15"/>
-      <c r="AE58" s="15"/>
-      <c r="AF58" s="15"/>
       <c r="AG58" s="5"/>
     </row>
     <row r="59" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B59" s="4"/>
-      <c r="C59" s="15"/>
-      <c r="D59" s="15"/>
-      <c r="E59" s="15"/>
-      <c r="F59" s="15"/>
-      <c r="G59" s="15"/>
-      <c r="H59" s="15"/>
+      <c r="B59" s="4" t="s">
+        <v>97</v>
+      </c>
       <c r="I59" s="5"/>
       <c r="O59" s="4"/>
-      <c r="P59" s="15"/>
-      <c r="Q59" s="15"/>
-      <c r="R59" s="15"/>
-      <c r="S59" s="15"/>
-      <c r="T59" s="15"/>
-      <c r="U59" s="15"/>
-      <c r="V59" s="15"/>
-      <c r="W59" s="15"/>
-      <c r="X59" s="15"/>
-      <c r="Y59" s="15"/>
-      <c r="Z59" s="15"/>
-      <c r="AA59" s="15"/>
-      <c r="AB59" s="15"/>
-      <c r="AC59" s="15"/>
-      <c r="AD59" s="15"/>
-      <c r="AE59" s="15"/>
-      <c r="AF59" s="15"/>
       <c r="AG59" s="5"/>
     </row>
     <row r="60" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B60" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C60" s="15"/>
-      <c r="D60" s="15"/>
-      <c r="E60" s="15"/>
-      <c r="F60" s="15"/>
-      <c r="G60" s="15"/>
-      <c r="H60" s="15"/>
+      <c r="B60" s="4"/>
       <c r="I60" s="5"/>
       <c r="O60" s="4"/>
-      <c r="P60" s="15"/>
-      <c r="Q60" s="15"/>
-      <c r="R60" s="15"/>
-      <c r="S60" s="15"/>
-      <c r="T60" s="15"/>
-      <c r="U60" s="15"/>
-      <c r="V60" s="15"/>
-      <c r="W60" s="15"/>
-      <c r="X60" s="15"/>
-      <c r="Y60" s="15"/>
-      <c r="Z60" s="15"/>
-      <c r="AA60" s="15"/>
-      <c r="AB60" s="15"/>
-      <c r="AC60" s="15"/>
-      <c r="AD60" s="15"/>
-      <c r="AE60" s="15"/>
-      <c r="AF60" s="15"/>
       <c r="AG60" s="5"/>
     </row>
     <row r="61" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B61" s="4"/>
-      <c r="C61" s="15"/>
-      <c r="D61" s="15"/>
-      <c r="E61" s="15"/>
-      <c r="F61" s="15"/>
-      <c r="G61" s="15"/>
-      <c r="H61" s="15"/>
+      <c r="B61" s="4" t="s">
+        <v>94</v>
+      </c>
       <c r="I61" s="5"/>
       <c r="O61" s="4"/>
-      <c r="P61" s="15"/>
-      <c r="Q61" s="15"/>
-      <c r="R61" s="15"/>
-      <c r="S61" s="15"/>
-      <c r="T61" s="15"/>
-      <c r="U61" s="15"/>
-      <c r="V61" s="15"/>
-      <c r="W61" s="15"/>
-      <c r="X61" s="15"/>
-      <c r="Y61" s="15"/>
-      <c r="Z61" s="15"/>
-      <c r="AA61" s="15"/>
-      <c r="AB61" s="15"/>
-      <c r="AC61" s="15"/>
-      <c r="AD61" s="15"/>
-      <c r="AE61" s="15"/>
-      <c r="AF61" s="15"/>
       <c r="AG61" s="5"/>
     </row>
     <row r="62" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B62" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C62" s="15"/>
-      <c r="D62" s="15"/>
-      <c r="E62" s="15"/>
-      <c r="F62" s="15"/>
-      <c r="G62" s="15"/>
-      <c r="H62" s="15"/>
+      <c r="B62" s="4"/>
       <c r="I62" s="5"/>
       <c r="O62" s="4"/>
-      <c r="P62" s="15"/>
-      <c r="Q62" s="15"/>
-      <c r="R62" s="15"/>
-      <c r="S62" s="15"/>
-      <c r="T62" s="15"/>
-      <c r="U62" s="15"/>
-      <c r="V62" s="15"/>
-      <c r="W62" s="15"/>
-      <c r="X62" s="15"/>
-      <c r="Y62" s="15"/>
-      <c r="Z62" s="15"/>
-      <c r="AA62" s="15"/>
-      <c r="AB62" s="15"/>
-      <c r="AC62" s="15"/>
-      <c r="AD62" s="15"/>
-      <c r="AE62" s="15"/>
-      <c r="AF62" s="15"/>
       <c r="AG62" s="5"/>
     </row>
     <row r="63" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B63" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C63" s="15"/>
-      <c r="D63" s="15"/>
-      <c r="E63" s="15"/>
-      <c r="F63" s="15"/>
-      <c r="G63" s="15"/>
-      <c r="H63" s="15"/>
+        <v>98</v>
+      </c>
       <c r="I63" s="5"/>
       <c r="O63" s="4"/>
-      <c r="P63" s="15"/>
-      <c r="Q63" s="15"/>
-      <c r="R63" s="15"/>
-      <c r="S63" s="15"/>
-      <c r="T63" s="15"/>
-      <c r="U63" s="15"/>
-      <c r="V63" s="15"/>
-      <c r="W63" s="15"/>
-      <c r="X63" s="15"/>
-      <c r="Y63" s="15"/>
-      <c r="Z63" s="15"/>
-      <c r="AA63" s="15"/>
-      <c r="AB63" s="15"/>
-      <c r="AC63" s="15"/>
-      <c r="AD63" s="15"/>
-      <c r="AE63" s="15"/>
-      <c r="AF63" s="15"/>
       <c r="AG63" s="5"/>
     </row>
     <row r="64" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B64" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C64" s="15"/>
-      <c r="D64" s="15"/>
-      <c r="E64" s="15"/>
-      <c r="F64" s="15"/>
-      <c r="G64" s="15"/>
-      <c r="H64" s="15"/>
+        <v>99</v>
+      </c>
       <c r="I64" s="5"/>
       <c r="O64" s="4"/>
-      <c r="P64" s="15"/>
-      <c r="Q64" s="15"/>
-      <c r="R64" s="15"/>
-      <c r="S64" s="15"/>
-      <c r="T64" s="15"/>
-      <c r="U64" s="15"/>
-      <c r="V64" s="15"/>
-      <c r="W64" s="15"/>
-      <c r="X64" s="15"/>
-      <c r="Y64" s="15"/>
-      <c r="Z64" s="15"/>
-      <c r="AA64" s="15"/>
-      <c r="AB64" s="15"/>
-      <c r="AC64" s="15"/>
-      <c r="AD64" s="15"/>
-      <c r="AE64" s="15"/>
-      <c r="AF64" s="15"/>
       <c r="AG64" s="5"/>
     </row>
     <row r="65" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B65" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C65" s="15"/>
-      <c r="D65" s="15"/>
-      <c r="E65" s="15"/>
-      <c r="F65" s="15"/>
-      <c r="G65" s="15"/>
-      <c r="H65" s="15"/>
+        <v>100</v>
+      </c>
       <c r="I65" s="5"/>
       <c r="O65" s="4"/>
-      <c r="P65" s="15"/>
-      <c r="Q65" s="15"/>
-      <c r="R65" s="15"/>
-      <c r="S65" s="15"/>
-      <c r="T65" s="15"/>
-      <c r="U65" s="15"/>
-      <c r="V65" s="15"/>
-      <c r="W65" s="15"/>
-      <c r="X65" s="15"/>
-      <c r="Y65" s="15"/>
-      <c r="Z65" s="15"/>
-      <c r="AA65" s="15"/>
-      <c r="AB65" s="15"/>
-      <c r="AC65" s="15"/>
-      <c r="AD65" s="15"/>
-      <c r="AE65" s="15"/>
-      <c r="AF65" s="15"/>
       <c r="AG65" s="5"/>
     </row>
     <row r="66" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B66" s="4"/>
-      <c r="C66" s="15"/>
-      <c r="D66" s="15"/>
-      <c r="E66" s="15"/>
-      <c r="F66" s="15"/>
-      <c r="G66" s="15"/>
-      <c r="H66" s="15"/>
+      <c r="B66" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="I66" s="5"/>
       <c r="O66" s="4"/>
-      <c r="P66" s="15"/>
-      <c r="Q66" s="15"/>
-      <c r="R66" s="15"/>
-      <c r="S66" s="15"/>
-      <c r="T66" s="15"/>
-      <c r="U66" s="15"/>
-      <c r="V66" s="15"/>
-      <c r="W66" s="15"/>
-      <c r="X66" s="15"/>
-      <c r="Y66" s="15"/>
-      <c r="Z66" s="15"/>
-      <c r="AA66" s="15"/>
-      <c r="AB66" s="15"/>
-      <c r="AC66" s="15"/>
-      <c r="AD66" s="15"/>
-      <c r="AE66" s="15"/>
-      <c r="AF66" s="15"/>
       <c r="AG66" s="5"/>
     </row>
     <row r="67" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B67" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C67" s="15"/>
-      <c r="D67" s="15"/>
-      <c r="E67" s="15"/>
-      <c r="F67" s="15"/>
-      <c r="G67" s="15"/>
-      <c r="H67" s="15"/>
+      <c r="B67" s="4"/>
       <c r="I67" s="5"/>
       <c r="O67" s="4"/>
-      <c r="P67" s="15"/>
-      <c r="Q67" s="15"/>
-      <c r="R67" s="15"/>
-      <c r="S67" s="15"/>
-      <c r="T67" s="15"/>
-      <c r="U67" s="15"/>
-      <c r="V67" s="15"/>
-      <c r="W67" s="15"/>
-      <c r="X67" s="15"/>
-      <c r="Y67" s="15"/>
-      <c r="Z67" s="15"/>
-      <c r="AA67" s="15"/>
-      <c r="AB67" s="15"/>
-      <c r="AC67" s="15"/>
-      <c r="AD67" s="15"/>
-      <c r="AE67" s="15"/>
-      <c r="AF67" s="15"/>
       <c r="AG67" s="5"/>
     </row>
     <row r="68" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B68" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C68" s="15"/>
-      <c r="D68" s="15"/>
-      <c r="E68" s="15"/>
-      <c r="F68" s="15"/>
-      <c r="G68" s="15"/>
-      <c r="H68" s="15"/>
+        <v>102</v>
+      </c>
       <c r="I68" s="5"/>
       <c r="O68" s="4"/>
-      <c r="P68" s="15"/>
-      <c r="Q68" s="15"/>
-      <c r="R68" s="15"/>
-      <c r="S68" s="15"/>
-      <c r="T68" s="15"/>
-      <c r="U68" s="15"/>
-      <c r="V68" s="15"/>
-      <c r="W68" s="15"/>
-      <c r="X68" s="15"/>
-      <c r="Y68" s="15"/>
-      <c r="Z68" s="15"/>
-      <c r="AA68" s="15"/>
-      <c r="AB68" s="15"/>
-      <c r="AC68" s="15"/>
-      <c r="AD68" s="15"/>
-      <c r="AE68" s="15"/>
-      <c r="AF68" s="15"/>
       <c r="AG68" s="5"/>
     </row>
     <row r="69" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B69" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="I69" s="5"/>
+      <c r="J69" t="s">
+        <v>17</v>
+      </c>
+      <c r="K69" t="s">
+        <v>120</v>
+      </c>
+      <c r="O69" s="4"/>
+      <c r="AG69" s="5"/>
+    </row>
+    <row r="70" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B70" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C69" s="15"/>
-      <c r="D69" s="15"/>
-      <c r="E69" s="15"/>
-      <c r="F69" s="15"/>
-      <c r="G69" s="15"/>
-      <c r="H69" s="15"/>
-      <c r="I69" s="5"/>
-      <c r="O69" s="4"/>
-      <c r="P69" s="15"/>
-      <c r="Q69" s="15"/>
-      <c r="R69" s="15"/>
-      <c r="S69" s="15"/>
-      <c r="T69" s="15"/>
-      <c r="U69" s="15"/>
-      <c r="V69" s="15"/>
-      <c r="W69" s="15"/>
-      <c r="X69" s="15"/>
-      <c r="Y69" s="15"/>
-      <c r="Z69" s="15"/>
-      <c r="AA69" s="15"/>
-      <c r="AB69" s="15"/>
-      <c r="AC69" s="15"/>
-      <c r="AD69" s="15"/>
-      <c r="AE69" s="15"/>
-      <c r="AF69" s="15"/>
-      <c r="AG69" s="5"/>
-    </row>
-    <row r="70" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B70" s="4"/>
-      <c r="C70" s="15"/>
-      <c r="D70" s="15"/>
-      <c r="E70" s="15"/>
-      <c r="F70" s="15"/>
-      <c r="G70" s="15"/>
-      <c r="H70" s="15"/>
       <c r="I70" s="5"/>
+      <c r="K70" t="s">
+        <v>121</v>
+      </c>
       <c r="O70" s="4"/>
-      <c r="P70" s="15"/>
-      <c r="Q70" s="15"/>
-      <c r="R70" s="15"/>
-      <c r="S70" s="15"/>
-      <c r="T70" s="15"/>
-      <c r="U70" s="15"/>
-      <c r="V70" s="15"/>
-      <c r="W70" s="15"/>
-      <c r="X70" s="15"/>
-      <c r="Y70" s="15"/>
-      <c r="Z70" s="15"/>
-      <c r="AA70" s="15"/>
-      <c r="AB70" s="15"/>
-      <c r="AC70" s="15"/>
-      <c r="AD70" s="15"/>
-      <c r="AE70" s="15"/>
-      <c r="AF70" s="15"/>
       <c r="AG70" s="5"/>
     </row>
     <row r="71" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B71" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C71" s="15"/>
-      <c r="D71" s="15"/>
-      <c r="E71" s="15"/>
-      <c r="F71" s="15"/>
-      <c r="G71" s="15"/>
-      <c r="H71" s="15"/>
+      <c r="B71" s="4"/>
       <c r="I71" s="5"/>
+      <c r="K71" t="s">
+        <v>122</v>
+      </c>
       <c r="O71" s="4"/>
-      <c r="P71" s="15"/>
-      <c r="Q71" s="15"/>
-      <c r="R71" s="15"/>
-      <c r="S71" s="15"/>
-      <c r="T71" s="15"/>
-      <c r="U71" s="15"/>
-      <c r="V71" s="15"/>
-      <c r="W71" s="15"/>
-      <c r="X71" s="15"/>
-      <c r="Y71" s="15"/>
-      <c r="Z71" s="15"/>
-      <c r="AA71" s="15"/>
-      <c r="AB71" s="15"/>
-      <c r="AC71" s="15"/>
-      <c r="AD71" s="15"/>
-      <c r="AE71" s="15"/>
-      <c r="AF71" s="15"/>
       <c r="AG71" s="5"/>
     </row>
     <row r="72" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B72" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C72" s="15"/>
-      <c r="D72" s="15"/>
-      <c r="E72" s="15"/>
-      <c r="F72" s="15"/>
-      <c r="G72" s="15"/>
-      <c r="H72" s="15"/>
+        <v>104</v>
+      </c>
       <c r="I72" s="5"/>
       <c r="O72" s="4"/>
-      <c r="P72" s="15"/>
-      <c r="Q72" s="15"/>
-      <c r="R72" s="15"/>
-      <c r="S72" s="15"/>
-      <c r="T72" s="15"/>
-      <c r="U72" s="15"/>
-      <c r="V72" s="15"/>
-      <c r="W72" s="15"/>
-      <c r="X72" s="15"/>
-      <c r="Y72" s="15"/>
-      <c r="Z72" s="15"/>
-      <c r="AA72" s="15"/>
-      <c r="AB72" s="15"/>
-      <c r="AC72" s="15"/>
-      <c r="AD72" s="15"/>
-      <c r="AE72" s="15"/>
-      <c r="AF72" s="15"/>
       <c r="AG72" s="5"/>
     </row>
     <row r="73" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B73" s="4"/>
-      <c r="C73" s="15"/>
-      <c r="D73" s="15"/>
-      <c r="E73" s="15"/>
-      <c r="F73" s="15"/>
-      <c r="G73" s="15"/>
-      <c r="H73" s="15"/>
+      <c r="B73" s="4" t="s">
+        <v>105</v>
+      </c>
       <c r="I73" s="5"/>
       <c r="O73" s="4"/>
-      <c r="P73" s="15"/>
-      <c r="Q73" s="15"/>
-      <c r="R73" s="15"/>
-      <c r="S73" s="15"/>
-      <c r="T73" s="15"/>
-      <c r="U73" s="15"/>
-      <c r="V73" s="15"/>
-      <c r="W73" s="15"/>
-      <c r="X73" s="15"/>
-      <c r="Y73" s="15"/>
-      <c r="Z73" s="15"/>
-      <c r="AA73" s="15"/>
-      <c r="AB73" s="15"/>
-      <c r="AC73" s="15"/>
-      <c r="AD73" s="15"/>
-      <c r="AE73" s="15"/>
-      <c r="AF73" s="15"/>
       <c r="AG73" s="5"/>
     </row>
     <row r="74" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B74" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C74" s="15"/>
-      <c r="D74" s="15"/>
-      <c r="E74" s="15"/>
-      <c r="F74" s="15"/>
-      <c r="G74" s="15"/>
-      <c r="H74" s="15"/>
+      <c r="B74" s="4"/>
       <c r="I74" s="5"/>
       <c r="O74" s="4"/>
-      <c r="P74" s="15"/>
-      <c r="Q74" s="15"/>
-      <c r="R74" s="15"/>
-      <c r="S74" s="15"/>
-      <c r="T74" s="15"/>
-      <c r="U74" s="15"/>
-      <c r="V74" s="15"/>
-      <c r="W74" s="15"/>
-      <c r="X74" s="15"/>
-      <c r="Y74" s="15"/>
-      <c r="Z74" s="15"/>
-      <c r="AA74" s="15"/>
-      <c r="AB74" s="15"/>
-      <c r="AC74" s="15"/>
-      <c r="AD74" s="15"/>
-      <c r="AE74" s="15"/>
-      <c r="AF74" s="15"/>
       <c r="AG74" s="5"/>
     </row>
     <row r="75" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B75" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C75" s="15"/>
-      <c r="D75" s="15"/>
-      <c r="E75" s="15"/>
-      <c r="F75" s="15"/>
-      <c r="G75" s="15"/>
-      <c r="H75" s="15"/>
+        <v>106</v>
+      </c>
       <c r="I75" s="5"/>
       <c r="O75" s="4"/>
-      <c r="P75" s="15"/>
-      <c r="Q75" s="15"/>
-      <c r="R75" s="15"/>
-      <c r="S75" s="15"/>
-      <c r="T75" s="15"/>
-      <c r="U75" s="15"/>
-      <c r="V75" s="15"/>
-      <c r="W75" s="15"/>
-      <c r="X75" s="15"/>
-      <c r="Y75" s="15"/>
-      <c r="Z75" s="15"/>
-      <c r="AA75" s="15"/>
-      <c r="AB75" s="15"/>
-      <c r="AC75" s="15"/>
-      <c r="AD75" s="15"/>
-      <c r="AE75" s="15"/>
-      <c r="AF75" s="15"/>
       <c r="AG75" s="5"/>
     </row>
     <row r="76" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B76" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C76" s="15"/>
-      <c r="D76" s="15"/>
-      <c r="E76" s="15"/>
-      <c r="F76" s="15"/>
-      <c r="G76" s="15"/>
-      <c r="H76" s="15"/>
+        <v>107</v>
+      </c>
       <c r="I76" s="5"/>
       <c r="O76" s="4"/>
-      <c r="P76" s="15"/>
-      <c r="Q76" s="15"/>
-      <c r="R76" s="15"/>
-      <c r="S76" s="15"/>
-      <c r="T76" s="15"/>
-      <c r="U76" s="15"/>
-      <c r="V76" s="15"/>
-      <c r="W76" s="15"/>
-      <c r="X76" s="15"/>
-      <c r="Y76" s="15"/>
-      <c r="Z76" s="15"/>
-      <c r="AA76" s="15"/>
-      <c r="AB76" s="15"/>
-      <c r="AC76" s="15"/>
-      <c r="AD76" s="15"/>
-      <c r="AE76" s="15"/>
-      <c r="AF76" s="15"/>
       <c r="AG76" s="5"/>
     </row>
     <row r="77" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B77" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C77" s="15"/>
-      <c r="D77" s="15"/>
-      <c r="E77" s="15"/>
-      <c r="F77" s="15"/>
-      <c r="G77" s="15"/>
-      <c r="H77" s="15"/>
+        <v>94</v>
+      </c>
       <c r="I77" s="5"/>
       <c r="O77" s="4"/>
-      <c r="P77" s="15"/>
-      <c r="Q77" s="15"/>
-      <c r="R77" s="15"/>
-      <c r="S77" s="15"/>
-      <c r="T77" s="15"/>
-      <c r="U77" s="15"/>
-      <c r="V77" s="15"/>
-      <c r="W77" s="15"/>
-      <c r="X77" s="15"/>
-      <c r="Y77" s="15"/>
-      <c r="Z77" s="15"/>
-      <c r="AA77" s="15"/>
-      <c r="AB77" s="15"/>
-      <c r="AC77" s="15"/>
-      <c r="AD77" s="15"/>
-      <c r="AE77" s="15"/>
-      <c r="AF77" s="15"/>
       <c r="AG77" s="5"/>
     </row>
     <row r="78" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B78" s="4"/>
-      <c r="C78" s="15"/>
-      <c r="D78" s="15"/>
-      <c r="E78" s="15"/>
-      <c r="F78" s="15"/>
-      <c r="G78" s="15"/>
-      <c r="H78" s="15"/>
+      <c r="B78" s="4" t="s">
+        <v>105</v>
+      </c>
       <c r="I78" s="5"/>
       <c r="O78" s="4"/>
-      <c r="P78" s="15"/>
-      <c r="Q78" s="15"/>
-      <c r="R78" s="15"/>
-      <c r="S78" s="15"/>
-      <c r="T78" s="15"/>
-      <c r="U78" s="15"/>
-      <c r="V78" s="15"/>
-      <c r="W78" s="15"/>
-      <c r="X78" s="15"/>
-      <c r="Y78" s="15"/>
-      <c r="Z78" s="15"/>
-      <c r="AA78" s="15"/>
-      <c r="AB78" s="15"/>
-      <c r="AC78" s="15"/>
-      <c r="AD78" s="15"/>
-      <c r="AE78" s="15"/>
-      <c r="AF78" s="15"/>
       <c r="AG78" s="5"/>
     </row>
     <row r="79" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B79" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C79" s="15"/>
-      <c r="D79" s="15"/>
-      <c r="E79" s="15"/>
-      <c r="F79" s="15"/>
-      <c r="G79" s="15"/>
-      <c r="H79" s="15"/>
+      <c r="B79" s="4"/>
       <c r="I79" s="5"/>
       <c r="O79" s="4"/>
-      <c r="P79" s="15"/>
-      <c r="Q79" s="15"/>
-      <c r="R79" s="15"/>
-      <c r="S79" s="15"/>
-      <c r="T79" s="15"/>
-      <c r="U79" s="15"/>
-      <c r="V79" s="15"/>
-      <c r="W79" s="15"/>
-      <c r="X79" s="15"/>
-      <c r="Y79" s="15"/>
-      <c r="Z79" s="15"/>
-      <c r="AA79" s="15"/>
-      <c r="AB79" s="15"/>
-      <c r="AC79" s="15"/>
-      <c r="AD79" s="15"/>
-      <c r="AE79" s="15"/>
-      <c r="AF79" s="15"/>
       <c r="AG79" s="5"/>
     </row>
     <row r="80" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B80" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C80" s="15"/>
-      <c r="D80" s="15"/>
-      <c r="E80" s="15"/>
-      <c r="F80" s="15"/>
-      <c r="G80" s="15"/>
-      <c r="H80" s="15"/>
+        <v>108</v>
+      </c>
       <c r="I80" s="5"/>
       <c r="O80" s="4"/>
-      <c r="P80" s="15"/>
-      <c r="Q80" s="15"/>
-      <c r="R80" s="15"/>
-      <c r="S80" s="15"/>
-      <c r="T80" s="15"/>
-      <c r="U80" s="15"/>
-      <c r="V80" s="15"/>
-      <c r="W80" s="15"/>
-      <c r="X80" s="15"/>
-      <c r="Y80" s="15"/>
-      <c r="Z80" s="15"/>
-      <c r="AA80" s="15"/>
-      <c r="AB80" s="15"/>
-      <c r="AC80" s="15"/>
-      <c r="AD80" s="15"/>
-      <c r="AE80" s="15"/>
-      <c r="AF80" s="15"/>
       <c r="AG80" s="5"/>
     </row>
     <row r="81" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B81" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C81" s="15"/>
-      <c r="D81" s="15"/>
-      <c r="E81" s="15"/>
-      <c r="F81" s="15"/>
-      <c r="G81" s="15"/>
-      <c r="H81" s="15"/>
+        <v>109</v>
+      </c>
       <c r="I81" s="5"/>
       <c r="O81" s="4"/>
-      <c r="P81" s="15"/>
-      <c r="Q81" s="15"/>
-      <c r="R81" s="15"/>
-      <c r="S81" s="15"/>
-      <c r="T81" s="15"/>
-      <c r="U81" s="15"/>
-      <c r="V81" s="15"/>
-      <c r="W81" s="15"/>
-      <c r="X81" s="15"/>
-      <c r="Y81" s="15"/>
-      <c r="Z81" s="15"/>
-      <c r="AA81" s="15"/>
-      <c r="AB81" s="15"/>
-      <c r="AC81" s="15"/>
-      <c r="AD81" s="15"/>
-      <c r="AE81" s="15"/>
-      <c r="AF81" s="15"/>
       <c r="AG81" s="5"/>
     </row>
     <row r="82" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B82" s="4"/>
-      <c r="C82" s="15"/>
-      <c r="D82" s="15"/>
-      <c r="E82" s="15"/>
-      <c r="F82" s="15"/>
-      <c r="G82" s="15"/>
-      <c r="H82" s="15"/>
+      <c r="B82" s="4" t="s">
+        <v>94</v>
+      </c>
       <c r="I82" s="5"/>
       <c r="O82" s="4"/>
-      <c r="P82" s="15"/>
-      <c r="Q82" s="15"/>
-      <c r="R82" s="15"/>
-      <c r="S82" s="15"/>
-      <c r="T82" s="15"/>
-      <c r="U82" s="15"/>
-      <c r="V82" s="15"/>
-      <c r="W82" s="15"/>
-      <c r="X82" s="15"/>
-      <c r="Y82" s="15"/>
-      <c r="Z82" s="15"/>
-      <c r="AA82" s="15"/>
-      <c r="AB82" s="15"/>
-      <c r="AC82" s="15"/>
-      <c r="AD82" s="15"/>
-      <c r="AE82" s="15"/>
-      <c r="AF82" s="15"/>
       <c r="AG82" s="5"/>
     </row>
     <row r="83" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B83" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C83" s="15"/>
-      <c r="D83" s="15"/>
-      <c r="E83" s="15"/>
-      <c r="F83" s="15"/>
-      <c r="G83" s="15"/>
-      <c r="H83" s="15"/>
+      <c r="B83" s="4"/>
       <c r="I83" s="5"/>
       <c r="O83" s="4"/>
-      <c r="P83" s="15"/>
-      <c r="Q83" s="15"/>
-      <c r="R83" s="15"/>
-      <c r="S83" s="15"/>
-      <c r="T83" s="15"/>
-      <c r="U83" s="15"/>
-      <c r="V83" s="15"/>
-      <c r="W83" s="15"/>
-      <c r="X83" s="15"/>
-      <c r="Y83" s="15"/>
-      <c r="Z83" s="15"/>
-      <c r="AA83" s="15"/>
-      <c r="AB83" s="15"/>
-      <c r="AC83" s="15"/>
-      <c r="AD83" s="15"/>
-      <c r="AE83" s="15"/>
-      <c r="AF83" s="15"/>
       <c r="AG83" s="5"/>
     </row>
     <row r="84" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B84" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C84" s="15"/>
-      <c r="D84" s="15"/>
-      <c r="E84" s="15"/>
-      <c r="F84" s="15"/>
-      <c r="G84" s="15"/>
-      <c r="H84" s="15"/>
+        <v>110</v>
+      </c>
       <c r="I84" s="5"/>
       <c r="O84" s="4"/>
-      <c r="P84" s="15"/>
-      <c r="Q84" s="15"/>
-      <c r="R84" s="15"/>
-      <c r="S84" s="15"/>
-      <c r="T84" s="15"/>
-      <c r="U84" s="15"/>
-      <c r="V84" s="15"/>
-      <c r="W84" s="15"/>
-      <c r="X84" s="15"/>
-      <c r="Y84" s="15"/>
-      <c r="Z84" s="15"/>
-      <c r="AA84" s="15"/>
-      <c r="AB84" s="15"/>
-      <c r="AC84" s="15"/>
-      <c r="AD84" s="15"/>
-      <c r="AE84" s="15"/>
-      <c r="AF84" s="15"/>
       <c r="AG84" s="5"/>
     </row>
     <row r="85" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B85" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C85" s="15"/>
-      <c r="D85" s="15"/>
-      <c r="E85" s="15"/>
-      <c r="F85" s="15"/>
-      <c r="G85" s="15"/>
-      <c r="H85" s="15"/>
+        <v>111</v>
+      </c>
       <c r="I85" s="5"/>
       <c r="O85" s="4"/>
-      <c r="P85" s="15"/>
-      <c r="Q85" s="15"/>
-      <c r="R85" s="15"/>
-      <c r="S85" s="15"/>
-      <c r="T85" s="15"/>
-      <c r="U85" s="15"/>
-      <c r="V85" s="15"/>
-      <c r="W85" s="15"/>
-      <c r="X85" s="15"/>
-      <c r="Y85" s="15"/>
-      <c r="Z85" s="15"/>
-      <c r="AA85" s="15"/>
-      <c r="AB85" s="15"/>
-      <c r="AC85" s="15"/>
-      <c r="AD85" s="15"/>
-      <c r="AE85" s="15"/>
-      <c r="AF85" s="15"/>
       <c r="AG85" s="5"/>
     </row>
     <row r="86" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B86" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C86" s="15"/>
-      <c r="D86" s="15"/>
-      <c r="E86" s="15"/>
-      <c r="F86" s="15"/>
-      <c r="G86" s="15"/>
-      <c r="H86" s="15"/>
+        <v>94</v>
+      </c>
       <c r="I86" s="5"/>
       <c r="O86" s="4"/>
-      <c r="P86" s="15"/>
-      <c r="Q86" s="15"/>
-      <c r="R86" s="15"/>
-      <c r="S86" s="15"/>
-      <c r="T86" s="15"/>
-      <c r="U86" s="15"/>
-      <c r="V86" s="15"/>
-      <c r="W86" s="15"/>
-      <c r="X86" s="15"/>
-      <c r="Y86" s="15"/>
-      <c r="Z86" s="15"/>
-      <c r="AA86" s="15"/>
-      <c r="AB86" s="15"/>
-      <c r="AC86" s="15"/>
-      <c r="AD86" s="15"/>
-      <c r="AE86" s="15"/>
-      <c r="AF86" s="15"/>
       <c r="AG86" s="5"/>
     </row>
     <row r="87" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B87" s="4"/>
-      <c r="C87" s="15"/>
-      <c r="D87" s="15"/>
-      <c r="E87" s="15"/>
-      <c r="F87" s="15"/>
-      <c r="G87" s="15"/>
-      <c r="H87" s="15"/>
+      <c r="B87" s="4" t="s">
+        <v>105</v>
+      </c>
       <c r="I87" s="5"/>
       <c r="O87" s="4"/>
-      <c r="P87" s="15"/>
-      <c r="Q87" s="15"/>
-      <c r="R87" s="15"/>
-      <c r="S87" s="15"/>
-      <c r="T87" s="15"/>
-      <c r="U87" s="15"/>
-      <c r="V87" s="15"/>
-      <c r="W87" s="15"/>
-      <c r="X87" s="15"/>
-      <c r="Y87" s="15"/>
-      <c r="Z87" s="15"/>
-      <c r="AA87" s="15"/>
-      <c r="AB87" s="15"/>
-      <c r="AC87" s="15"/>
-      <c r="AD87" s="15"/>
-      <c r="AE87" s="15"/>
-      <c r="AF87" s="15"/>
       <c r="AG87" s="5"/>
     </row>
     <row r="88" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B88" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C88" s="15"/>
-      <c r="D88" s="15"/>
-      <c r="E88" s="15"/>
-      <c r="F88" s="15"/>
-      <c r="G88" s="15"/>
-      <c r="H88" s="15"/>
+      <c r="B88" s="4"/>
       <c r="I88" s="5"/>
       <c r="O88" s="4"/>
-      <c r="P88" s="15"/>
-      <c r="Q88" s="15"/>
-      <c r="R88" s="15"/>
-      <c r="S88" s="15"/>
-      <c r="T88" s="15"/>
-      <c r="U88" s="15"/>
-      <c r="V88" s="15"/>
-      <c r="W88" s="15"/>
-      <c r="X88" s="15"/>
-      <c r="Y88" s="15"/>
-      <c r="Z88" s="15"/>
-      <c r="AA88" s="15"/>
-      <c r="AB88" s="15"/>
-      <c r="AC88" s="15"/>
-      <c r="AD88" s="15"/>
-      <c r="AE88" s="15"/>
-      <c r="AF88" s="15"/>
       <c r="AG88" s="5"/>
     </row>
     <row r="89" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B89" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C89" s="15"/>
-      <c r="D89" s="15"/>
-      <c r="E89" s="15"/>
-      <c r="F89" s="15"/>
-      <c r="G89" s="15"/>
-      <c r="H89" s="15"/>
+        <v>112</v>
+      </c>
       <c r="I89" s="5"/>
       <c r="O89" s="4"/>
-      <c r="P89" s="15"/>
-      <c r="Q89" s="15"/>
-      <c r="R89" s="15"/>
-      <c r="S89" s="15"/>
-      <c r="T89" s="15"/>
-      <c r="U89" s="15"/>
-      <c r="V89" s="15"/>
-      <c r="W89" s="15"/>
-      <c r="X89" s="15"/>
-      <c r="Y89" s="15"/>
-      <c r="Z89" s="15"/>
-      <c r="AA89" s="15"/>
-      <c r="AB89" s="15"/>
-      <c r="AC89" s="15"/>
-      <c r="AD89" s="15"/>
-      <c r="AE89" s="15"/>
-      <c r="AF89" s="15"/>
       <c r="AG89" s="5"/>
     </row>
     <row r="90" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B90" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C90" s="15"/>
-      <c r="D90" s="15"/>
-      <c r="E90" s="15"/>
-      <c r="F90" s="15"/>
-      <c r="G90" s="15"/>
-      <c r="H90" s="15"/>
+        <v>115</v>
+      </c>
       <c r="I90" s="5"/>
       <c r="O90" s="4"/>
-      <c r="P90" s="15"/>
-      <c r="Q90" s="15"/>
-      <c r="R90" s="15"/>
-      <c r="S90" s="15"/>
-      <c r="T90" s="15"/>
-      <c r="U90" s="15"/>
-      <c r="V90" s="15"/>
-      <c r="W90" s="15"/>
-      <c r="X90" s="15"/>
-      <c r="Y90" s="15"/>
-      <c r="Z90" s="15"/>
-      <c r="AA90" s="15"/>
-      <c r="AB90" s="15"/>
-      <c r="AC90" s="15"/>
-      <c r="AD90" s="15"/>
-      <c r="AE90" s="15"/>
-      <c r="AF90" s="15"/>
       <c r="AG90" s="5"/>
     </row>
     <row r="91" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B91" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C91" s="15"/>
-      <c r="D91" s="15"/>
-      <c r="E91" s="15"/>
-      <c r="F91" s="15"/>
-      <c r="G91" s="15"/>
-      <c r="H91" s="15"/>
+        <v>109</v>
+      </c>
       <c r="I91" s="5"/>
       <c r="O91" s="4"/>
-      <c r="P91" s="15"/>
-      <c r="Q91" s="15"/>
-      <c r="R91" s="15"/>
-      <c r="S91" s="15"/>
-      <c r="T91" s="15"/>
-      <c r="U91" s="15"/>
-      <c r="V91" s="15"/>
-      <c r="W91" s="15"/>
-      <c r="X91" s="15"/>
-      <c r="Y91" s="15"/>
-      <c r="Z91" s="15"/>
-      <c r="AA91" s="15"/>
-      <c r="AB91" s="15"/>
-      <c r="AC91" s="15"/>
-      <c r="AD91" s="15"/>
-      <c r="AE91" s="15"/>
-      <c r="AF91" s="15"/>
       <c r="AG91" s="5"/>
     </row>
     <row r="92" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B92" s="6" t="s">
+      <c r="B92" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="I92" s="5"/>
+      <c r="O92" s="4"/>
+      <c r="AG92" s="5"/>
+    </row>
+    <row r="93" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B93" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C92" s="7"/>
-      <c r="D92" s="7"/>
-      <c r="E92" s="7"/>
-      <c r="F92" s="7"/>
-      <c r="G92" s="7"/>
-      <c r="H92" s="7"/>
-      <c r="I92" s="8"/>
-      <c r="O92" s="4"/>
-      <c r="P92" s="15"/>
-      <c r="Q92" s="15"/>
-      <c r="R92" s="15"/>
-      <c r="S92" s="15"/>
-      <c r="T92" s="15"/>
-      <c r="U92" s="15"/>
-      <c r="V92" s="15"/>
-      <c r="W92" s="15"/>
-      <c r="X92" s="15"/>
-      <c r="Y92" s="15"/>
-      <c r="Z92" s="15"/>
-      <c r="AA92" s="15"/>
-      <c r="AB92" s="15"/>
-      <c r="AC92" s="15"/>
-      <c r="AD92" s="15"/>
-      <c r="AE92" s="15"/>
-      <c r="AF92" s="15"/>
-      <c r="AG92" s="5"/>
-    </row>
-    <row r="93" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="7"/>
+      <c r="G93" s="7"/>
+      <c r="H93" s="7"/>
+      <c r="I93" s="8"/>
       <c r="O93" s="4"/>
-      <c r="P93" s="15"/>
-      <c r="Q93" s="15"/>
-      <c r="R93" s="15"/>
-      <c r="S93" s="15"/>
-      <c r="T93" s="15"/>
-      <c r="U93" s="15"/>
-      <c r="V93" s="15"/>
-      <c r="W93" s="15"/>
-      <c r="X93" s="15"/>
-      <c r="Y93" s="15"/>
-      <c r="Z93" s="15"/>
-      <c r="AA93" s="15"/>
-      <c r="AB93" s="15"/>
-      <c r="AC93" s="15"/>
-      <c r="AD93" s="15"/>
-      <c r="AE93" s="15"/>
-      <c r="AF93" s="15"/>
       <c r="AG93" s="5"/>
     </row>
     <row r="94" spans="2:33" x14ac:dyDescent="0.25">
       <c r="O94" s="4"/>
-      <c r="P94" s="15"/>
-      <c r="Q94" s="15"/>
-      <c r="R94" s="15"/>
-      <c r="S94" s="15"/>
-      <c r="T94" s="15"/>
-      <c r="U94" s="15"/>
-      <c r="V94" s="15"/>
-      <c r="W94" s="15"/>
-      <c r="X94" s="15"/>
-      <c r="Y94" s="15"/>
-      <c r="Z94" s="15"/>
-      <c r="AA94" s="15"/>
-      <c r="AB94" s="15"/>
-      <c r="AC94" s="15"/>
-      <c r="AD94" s="15"/>
-      <c r="AE94" s="15"/>
-      <c r="AF94" s="15"/>
       <c r="AG94" s="5"/>
     </row>
     <row r="95" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="O95" s="6"/>
-      <c r="P95" s="7"/>
-      <c r="Q95" s="7"/>
-      <c r="R95" s="7"/>
-      <c r="S95" s="7"/>
-      <c r="T95" s="7"/>
-      <c r="U95" s="7"/>
-      <c r="V95" s="7"/>
-      <c r="W95" s="7"/>
-      <c r="X95" s="7"/>
-      <c r="Y95" s="7"/>
-      <c r="Z95" s="7"/>
-      <c r="AA95" s="7"/>
-      <c r="AB95" s="7"/>
-      <c r="AC95" s="7"/>
-      <c r="AD95" s="7"/>
-      <c r="AE95" s="7"/>
-      <c r="AF95" s="7"/>
-      <c r="AG95" s="8"/>
+      <c r="O95" s="4"/>
+      <c r="AG95" s="5"/>
+    </row>
+    <row r="96" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="O96" s="6"/>
+      <c r="P96" s="7"/>
+      <c r="Q96" s="7"/>
+      <c r="R96" s="7"/>
+      <c r="S96" s="7"/>
+      <c r="T96" s="7"/>
+      <c r="U96" s="7"/>
+      <c r="V96" s="7"/>
+      <c r="W96" s="7"/>
+      <c r="X96" s="7"/>
+      <c r="Y96" s="7"/>
+      <c r="Z96" s="7"/>
+      <c r="AA96" s="7"/>
+      <c r="AB96" s="7"/>
+      <c r="AC96" s="7"/>
+      <c r="AD96" s="7"/>
+      <c r="AE96" s="7"/>
+      <c r="AF96" s="7"/>
+      <c r="AG96" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6398F4F3-3A93-4EE8-9246-C0D41AE3E1CB}">
+  <dimension ref="A2:K50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="L33" sqref="L33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="4"/>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="4"/>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="4"/>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="4"/>
+      <c r="D12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="4"/>
+      <c r="D13" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="4"/>
+      <c r="D14" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="4"/>
+      <c r="D15" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="4"/>
+      <c r="D16" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="6"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="8"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="5"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="4"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="5"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="5"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="5"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B26" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B27" s="4"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="5"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B28" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="5"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B29" s="4"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="5"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B30" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B31" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="5"/>
+      <c r="J31" t="s">
+        <v>17</v>
+      </c>
+      <c r="K31" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B32" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="5"/>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B33" s="4"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="5"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B34" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="5"/>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B35" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="5"/>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B36" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="5"/>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B37" s="4"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="5"/>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B38" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="5"/>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B39" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="5"/>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B40" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="5"/>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B41" s="4"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="5"/>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B42" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="5"/>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B43" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="5"/>
+      <c r="J43" t="s">
+        <v>17</v>
+      </c>
+      <c r="K43" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B44" s="4"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="5"/>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B45" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="17"/>
+      <c r="I45" s="5"/>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B46" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="5"/>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B47" s="4"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="5"/>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B48" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="17"/>
+      <c r="I48" s="5"/>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B49" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="17"/>
+      <c r="I49" s="5"/>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B50" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/me/2.Apex-Fundamentals.xlsx
+++ b/me/2.Apex-Fundamentals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\salesforce\me\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05CD1B98-A41A-49CD-A1DB-146229C39C48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{441836D8-5030-4529-857D-C9537D5516D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hello World" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Adding Comments" sheetId="5" r:id="rId5"/>
     <sheet name="List Collections Datatype" sheetId="6" r:id="rId6"/>
     <sheet name="Set Collections Datatype" sheetId="7" r:id="rId7"/>
+    <sheet name="Map Collections Datatype" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="174">
   <si>
     <t>Mở Developer Console trên tab mới</t>
   </si>
@@ -538,6 +539,108 @@
   </si>
   <si>
     <t>Xóa 1 item nên còn 5 item</t>
+  </si>
+  <si>
+    <t>8.map-collection-datatype.txt</t>
+  </si>
+  <si>
+    <t>salesforce\2.Apex-Fundamentals\8.map-collection-datatype.txt</t>
+  </si>
+  <si>
+    <t>Map&lt;Integer, String&gt; class2020 = new Map&lt;Integer, String&gt;();</t>
+  </si>
+  <si>
+    <t>// add a new student/item</t>
+  </si>
+  <si>
+    <t>class2020.put(11008890, 'Manish');</t>
+  </si>
+  <si>
+    <t>System.debug(class2020);</t>
+  </si>
+  <si>
+    <t>class2020.put(11008891, 'Harry');</t>
+  </si>
+  <si>
+    <t>class2020.put(11008892, 'Rick');</t>
+  </si>
+  <si>
+    <t>class2020.put(11008893, 'Bill');</t>
+  </si>
+  <si>
+    <t>class2020.put(11008894, 'Bill');</t>
+  </si>
+  <si>
+    <t>//update/override value</t>
+  </si>
+  <si>
+    <t>class2020.put(11008894, 'Skywalker');</t>
+  </si>
+  <si>
+    <t>// get a value</t>
+  </si>
+  <si>
+    <t>System.debug(class2020.get(11008892));</t>
+  </si>
+  <si>
+    <t>// remove an item from map</t>
+  </si>
+  <si>
+    <t>class2020.remove(11008893);</t>
+  </si>
+  <si>
+    <t>// get all the keys</t>
+  </si>
+  <si>
+    <t>Set&lt;Integer&gt; rollNumber = class2020.keySet();</t>
+  </si>
+  <si>
+    <t>// get all the values</t>
+  </si>
+  <si>
+    <t>List&lt;String&gt; students = class2020.values();</t>
+  </si>
+  <si>
+    <t>System.debug(students);</t>
+  </si>
+  <si>
+    <t>// check if map has the key</t>
+  </si>
+  <si>
+    <t>System.debug(class2020.containsKey(11008892));</t>
+  </si>
+  <si>
+    <t>System.debug(class2020.containsKey(11008893));</t>
+  </si>
+  <si>
+    <t>Cũng giống với List và Set thì Map cũng lưu các giá trị Collection nhưng Map lưu data ở dạng key và value</t>
+  </si>
+  <si>
+    <t>Phần tử có key là 11008893 đã được xóa nên ko còn tồn tại</t>
+  </si>
+  <si>
+    <t>value Bill được update thành Skywalker</t>
+  </si>
+  <si>
+    <t>Cũng giống như Set thì Map cũng ko dùng index mà Map dùng key và value</t>
+  </si>
+  <si>
+    <t>Về cấu trúc dữ liệu của keySet() trả về</t>
+  </si>
+  <si>
+    <t>cũng là kiểu Set(ko duplicate value và</t>
+  </si>
+  <si>
+    <t>unordered)</t>
+  </si>
+  <si>
+    <t>values của Map được lưu dạng List(value</t>
+  </si>
+  <si>
+    <t>có thể duplicate)</t>
+  </si>
+  <si>
+    <t>value thì có thể duplicate nhưng key thì ko thể duplicate(key đóng vai trò giống như mã số sinh viên, value đóng vai trò là name của sv)</t>
   </si>
 </sst>
 </file>
@@ -666,7 +769,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -687,7 +790,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -2617,13 +2719,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>193860</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>94130</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>468679</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>122059</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2661,13 +2763,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>168087</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>56030</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>510986</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>48555</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2705,13 +2807,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>549088</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>100853</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>493059</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>134471</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2758,13 +2860,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>56031</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>89648</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>313766</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>107280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2802,13 +2904,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>56029</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>100853</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>56030</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>179294</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2855,13 +2957,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>246529</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>145676</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>22412</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>156882</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3087,6 +3189,779 @@
         <a:xfrm>
           <a:off x="1524000" y="7381875"/>
           <a:ext cx="809625" cy="657225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>274602</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>104057</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7C8E0E4-031B-989D-049B-DBE4DF9F3CDB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8020050" y="3886200"/>
+          <a:ext cx="12980952" cy="5742857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6934F90-9796-6222-E906-1852924CAE15}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1524000" y="6457950"/>
+          <a:ext cx="9525" cy="657225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCDCEB14-06AA-AC99-F00B-F4836AB6F359}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2733675" y="6229350"/>
+          <a:ext cx="11772900" cy="904875"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B280BC68-3AF9-75CD-3D51-4C38D1D6A897}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1619250" y="5486400"/>
+          <a:ext cx="1038225" cy="2409825"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18397C98-E6BE-3536-9838-F408EEA4D5E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3009900" y="6419850"/>
+          <a:ext cx="7610475" cy="1495425"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D79448E5-1DA9-A36D-22A3-EDA4D67CF573}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1781175" y="8534400"/>
+          <a:ext cx="1123950" cy="2428875"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Straight Arrow Connector 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8C19E43-82C0-237B-D7F9-2E72E0C8316A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3533775" y="7477125"/>
+          <a:ext cx="7134225" cy="3495675"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>46343</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>123463</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5BED7FA-D39C-5B65-C8EC-9EDC1013E2A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="2943225"/>
+          <a:ext cx="10257143" cy="2895238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Straight Arrow Connector 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92D1764B-D34E-B54A-1BB1-83688817A20D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="847725" y="12715875"/>
+          <a:ext cx="5362575" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Straight Arrow Connector 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB855A1F-11C9-367E-1942-FF934EF30B5D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2305050" y="10248900"/>
+          <a:ext cx="8324850" cy="2600325"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{846C4275-CE4C-1DC5-6C5F-A25E4610B12E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="857250" y="13506450"/>
+          <a:ext cx="6477000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Straight Arrow Connector 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02609242-FB7D-5C7F-AF61-96D26AA915CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2133600" y="10439400"/>
+          <a:ext cx="8486775" cy="3200400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>503642</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>114113</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Picture 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD10571C-29AF-A5FB-A6BF-891F38162281}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="790575" y="1095375"/>
+          <a:ext cx="9466667" cy="1495238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="Straight Arrow Connector 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DB80CA1-CBD5-D28F-035C-E3D682A556FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1343025" y="561975"/>
+          <a:ext cx="4267200" cy="876300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="Straight Arrow Connector 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE3C2777-3F73-7C7E-8C00-EF1EC8530C87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2105025" y="542925"/>
+          <a:ext cx="5734050" cy="1524000"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5702,7 +6577,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>116</v>
       </c>
       <c r="C3" s="2"/>
@@ -7304,85 +8179,724 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CC5A17F-325A-41A3-9954-AF1931AC7357}">
-  <dimension ref="A2:AG96"/>
+  <dimension ref="A2:AG97"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L47" sqref="L47"/>
+    <sheetView topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B5" s="14" t="s">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B6" s="14" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="O39" s="1"/>
-      <c r="P39" s="2"/>
-      <c r="Q39" s="2"/>
-      <c r="R39" s="2"/>
-      <c r="S39" s="2"/>
-      <c r="T39" s="2"/>
-      <c r="U39" s="2"/>
-      <c r="V39" s="2"/>
-      <c r="W39" s="2"/>
-      <c r="X39" s="2"/>
-      <c r="Y39" s="2"/>
-      <c r="Z39" s="2"/>
-      <c r="AA39" s="2"/>
-      <c r="AB39" s="2"/>
-      <c r="AC39" s="2"/>
-      <c r="AD39" s="2"/>
-      <c r="AE39" s="2"/>
-      <c r="AF39" s="2"/>
-      <c r="AG39" s="3"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="3"/>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B7" s="4"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="5"/>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B8" s="4"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="16"/>
+      <c r="T8" s="5"/>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B9" s="4"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="5"/>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B10" s="4"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="16"/>
+      <c r="T10" s="5"/>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B11" s="4"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="16"/>
+      <c r="T11" s="5"/>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B12" s="4"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="16"/>
+      <c r="T12" s="5"/>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B13" s="4"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="16"/>
+      <c r="T13" s="5"/>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B14" s="4"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="16"/>
+      <c r="S14" s="16"/>
+      <c r="T14" s="5"/>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B15" s="4"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="16"/>
+      <c r="S15" s="16"/>
+      <c r="T15" s="5"/>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B16" s="4"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="16"/>
+      <c r="S16" s="16"/>
+      <c r="T16" s="5"/>
+    </row>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B17" s="4"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="16"/>
+      <c r="S17" s="16"/>
+      <c r="T17" s="5"/>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B18" s="4"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="16"/>
+      <c r="S18" s="16"/>
+      <c r="T18" s="5"/>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B19" s="4"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="16"/>
+      <c r="S19" s="16"/>
+      <c r="T19" s="5"/>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B20" s="4"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="16"/>
+      <c r="S20" s="16"/>
+      <c r="T20" s="5"/>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B21" s="4"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="16"/>
+      <c r="S21" s="16"/>
+      <c r="T21" s="5"/>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B22" s="4"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="16"/>
+      <c r="R22" s="16"/>
+      <c r="S22" s="16"/>
+      <c r="T22" s="5"/>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B23" s="4"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="16"/>
+      <c r="R23" s="16"/>
+      <c r="S23" s="16"/>
+      <c r="T23" s="5"/>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B24" s="4"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="16"/>
+      <c r="R24" s="16"/>
+      <c r="S24" s="16"/>
+      <c r="T24" s="5"/>
+    </row>
+    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B25" s="4"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="16"/>
+      <c r="R25" s="16"/>
+      <c r="S25" s="16"/>
+      <c r="T25" s="5"/>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B26" s="4"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="16"/>
+      <c r="R26" s="16"/>
+      <c r="S26" s="16"/>
+      <c r="T26" s="5"/>
+    </row>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B27" s="4"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="16"/>
+      <c r="O27" s="16"/>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="16"/>
+      <c r="R27" s="16"/>
+      <c r="S27" s="16"/>
+      <c r="T27" s="5"/>
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B28" s="4"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="16"/>
+      <c r="O28" s="16"/>
+      <c r="P28" s="16"/>
+      <c r="Q28" s="16"/>
+      <c r="R28" s="16"/>
+      <c r="S28" s="16"/>
+      <c r="T28" s="5"/>
+    </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B29" s="4"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="16"/>
+      <c r="O29" s="16"/>
+      <c r="P29" s="16"/>
+      <c r="Q29" s="16"/>
+      <c r="R29" s="16"/>
+      <c r="S29" s="16"/>
+      <c r="T29" s="5"/>
+    </row>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B30" s="4"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="16"/>
+      <c r="O30" s="16"/>
+      <c r="P30" s="16"/>
+      <c r="Q30" s="16"/>
+      <c r="R30" s="16"/>
+      <c r="S30" s="16"/>
+      <c r="T30" s="5"/>
+    </row>
+    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B31" s="4"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="16"/>
+      <c r="P31" s="16"/>
+      <c r="Q31" s="16"/>
+      <c r="R31" s="16"/>
+      <c r="S31" s="16"/>
+      <c r="T31" s="5"/>
+    </row>
+    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B32" s="4"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="16"/>
+      <c r="O32" s="16"/>
+      <c r="P32" s="16"/>
+      <c r="Q32" s="16"/>
+      <c r="R32" s="16"/>
+      <c r="S32" s="16"/>
+      <c r="T32" s="5"/>
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B33" s="4"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="16"/>
+      <c r="O33" s="16"/>
+      <c r="P33" s="16"/>
+      <c r="Q33" s="16"/>
+      <c r="R33" s="16"/>
+      <c r="S33" s="16"/>
+      <c r="T33" s="5"/>
+    </row>
+    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B34" s="4"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="16"/>
+      <c r="N34" s="16"/>
+      <c r="O34" s="16"/>
+      <c r="P34" s="16"/>
+      <c r="Q34" s="16"/>
+      <c r="R34" s="16"/>
+      <c r="S34" s="16"/>
+      <c r="T34" s="5"/>
+    </row>
+    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B35" s="4"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="16"/>
+      <c r="N35" s="16"/>
+      <c r="O35" s="16"/>
+      <c r="P35" s="16"/>
+      <c r="Q35" s="16"/>
+      <c r="R35" s="16"/>
+      <c r="S35" s="16"/>
+      <c r="T35" s="5"/>
+    </row>
+    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B36" s="6"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="7"/>
+      <c r="R36" s="7"/>
+      <c r="S36" s="7"/>
+      <c r="T36" s="8"/>
     </row>
     <row r="40" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="O40" s="4"/>
-      <c r="AG40" s="5"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="2"/>
+      <c r="T40" s="2"/>
+      <c r="U40" s="2"/>
+      <c r="V40" s="2"/>
+      <c r="W40" s="2"/>
+      <c r="X40" s="2"/>
+      <c r="Y40" s="2"/>
+      <c r="Z40" s="2"/>
+      <c r="AA40" s="2"/>
+      <c r="AB40" s="2"/>
+      <c r="AC40" s="2"/>
+      <c r="AD40" s="2"/>
+      <c r="AE40" s="2"/>
+      <c r="AF40" s="2"/>
+      <c r="AG40" s="3"/>
     </row>
     <row r="41" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A41" s="9" t="s">
-        <v>9</v>
-      </c>
       <c r="O41" s="4"/>
       <c r="AG41" s="5"/>
     </row>
     <row r="42" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B42" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="3"/>
+      <c r="A42" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="O42" s="4"/>
       <c r="AG42" s="5"/>
     </row>
     <row r="43" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B43" s="4"/>
-      <c r="C43" t="s">
-        <v>11</v>
-      </c>
-      <c r="F43" s="5"/>
+      <c r="B43" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="3"/>
       <c r="O43" s="4"/>
       <c r="AG43" s="5"/>
     </row>
     <row r="44" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B44" s="4"/>
-      <c r="D44" t="s">
-        <v>12</v>
+      <c r="C44" t="s">
+        <v>11</v>
       </c>
       <c r="F44" s="5"/>
       <c r="O44" s="4"/>
@@ -7391,7 +8905,7 @@
     <row r="45" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B45" s="4"/>
       <c r="D45" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F45" s="5"/>
       <c r="O45" s="4"/>
@@ -7400,7 +8914,7 @@
     <row r="46" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B46" s="4"/>
       <c r="D46" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="F46" s="5"/>
       <c r="O46" s="4"/>
@@ -7409,7 +8923,7 @@
     <row r="47" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B47" s="4"/>
       <c r="D47" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="F47" s="5"/>
       <c r="O47" s="4"/>
@@ -7418,7 +8932,7 @@
     <row r="48" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B48" s="4"/>
       <c r="D48" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F48" s="5"/>
       <c r="O48" s="4"/>
@@ -7426,29 +8940,34 @@
     </row>
     <row r="49" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B49" s="4"/>
-      <c r="D49" s="10" t="s">
-        <v>92</v>
+      <c r="D49" t="s">
+        <v>81</v>
       </c>
       <c r="F49" s="5"/>
-      <c r="G49" t="s">
-        <v>17</v>
-      </c>
-      <c r="H49" t="s">
-        <v>16</v>
-      </c>
       <c r="O49" s="4"/>
       <c r="AG49" s="5"/>
     </row>
     <row r="50" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B50" s="6"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="8"/>
+      <c r="B50" s="4"/>
+      <c r="D50" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="F50" s="5"/>
+      <c r="G50" t="s">
+        <v>17</v>
+      </c>
+      <c r="H50" t="s">
+        <v>16</v>
+      </c>
       <c r="O50" s="4"/>
       <c r="AG50" s="5"/>
     </row>
     <row r="51" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B51" s="6"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="8"/>
       <c r="O51" s="4"/>
       <c r="AG51" s="5"/>
     </row>
@@ -7457,101 +8976,97 @@
       <c r="AG52" s="5"/>
     </row>
     <row r="53" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>91</v>
-      </c>
       <c r="O53" s="4"/>
       <c r="AG53" s="5"/>
     </row>
     <row r="54" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B54" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="3"/>
+      <c r="A54" t="s">
+        <v>91</v>
+      </c>
       <c r="O54" s="4"/>
       <c r="AG54" s="5"/>
     </row>
     <row r="55" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B55" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="I55" s="5"/>
+      <c r="B55" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="3"/>
       <c r="O55" s="4"/>
       <c r="AG55" s="5"/>
     </row>
     <row r="56" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B56" s="4"/>
+      <c r="B56" s="4" t="s">
+        <v>94</v>
+      </c>
       <c r="I56" s="5"/>
       <c r="O56" s="4"/>
       <c r="AG56" s="5"/>
     </row>
     <row r="57" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B57" s="4" t="s">
-        <v>95</v>
-      </c>
+      <c r="B57" s="4"/>
       <c r="I57" s="5"/>
-      <c r="J57" t="s">
-        <v>17</v>
-      </c>
-      <c r="K57" t="s">
-        <v>113</v>
-      </c>
       <c r="O57" s="4"/>
       <c r="AG57" s="5"/>
     </row>
     <row r="58" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B58" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I58" s="5"/>
+      <c r="J58" t="s">
+        <v>17</v>
+      </c>
+      <c r="K58" t="s">
+        <v>113</v>
+      </c>
       <c r="O58" s="4"/>
       <c r="AG58" s="5"/>
     </row>
     <row r="59" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B59" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I59" s="5"/>
       <c r="O59" s="4"/>
       <c r="AG59" s="5"/>
     </row>
     <row r="60" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B60" s="4"/>
+      <c r="B60" s="4" t="s">
+        <v>97</v>
+      </c>
       <c r="I60" s="5"/>
       <c r="O60" s="4"/>
       <c r="AG60" s="5"/>
     </row>
     <row r="61" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B61" s="4" t="s">
-        <v>94</v>
-      </c>
+      <c r="B61" s="4"/>
       <c r="I61" s="5"/>
       <c r="O61" s="4"/>
       <c r="AG61" s="5"/>
     </row>
     <row r="62" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B62" s="4"/>
+      <c r="B62" s="4" t="s">
+        <v>94</v>
+      </c>
       <c r="I62" s="5"/>
       <c r="O62" s="4"/>
       <c r="AG62" s="5"/>
     </row>
     <row r="63" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B63" s="4" t="s">
-        <v>98</v>
-      </c>
+      <c r="B63" s="4"/>
       <c r="I63" s="5"/>
       <c r="O63" s="4"/>
       <c r="AG63" s="5"/>
     </row>
     <row r="64" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B64" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I64" s="5"/>
       <c r="O64" s="4"/>
@@ -7559,7 +9074,7 @@
     </row>
     <row r="65" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B65" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I65" s="5"/>
       <c r="O65" s="4"/>
@@ -7567,93 +9082,93 @@
     </row>
     <row r="66" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B66" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I66" s="5"/>
       <c r="O66" s="4"/>
       <c r="AG66" s="5"/>
     </row>
     <row r="67" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B67" s="4"/>
+      <c r="B67" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="I67" s="5"/>
       <c r="O67" s="4"/>
       <c r="AG67" s="5"/>
     </row>
     <row r="68" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B68" s="4" t="s">
-        <v>102</v>
-      </c>
+      <c r="B68" s="4"/>
       <c r="I68" s="5"/>
       <c r="O68" s="4"/>
       <c r="AG68" s="5"/>
     </row>
     <row r="69" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B69" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I69" s="5"/>
-      <c r="J69" t="s">
-        <v>17</v>
-      </c>
-      <c r="K69" t="s">
-        <v>120</v>
-      </c>
       <c r="O69" s="4"/>
       <c r="AG69" s="5"/>
     </row>
     <row r="70" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B70" s="4" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="I70" s="5"/>
+      <c r="J70" t="s">
+        <v>17</v>
+      </c>
       <c r="K70" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O70" s="4"/>
       <c r="AG70" s="5"/>
     </row>
     <row r="71" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B71" s="4"/>
+      <c r="B71" s="4" t="s">
+        <v>94</v>
+      </c>
       <c r="I71" s="5"/>
       <c r="K71" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O71" s="4"/>
       <c r="AG71" s="5"/>
     </row>
     <row r="72" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B72" s="4" t="s">
-        <v>104</v>
-      </c>
+      <c r="B72" s="4"/>
       <c r="I72" s="5"/>
+      <c r="K72" t="s">
+        <v>122</v>
+      </c>
       <c r="O72" s="4"/>
       <c r="AG72" s="5"/>
     </row>
     <row r="73" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B73" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I73" s="5"/>
       <c r="O73" s="4"/>
       <c r="AG73" s="5"/>
     </row>
     <row r="74" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B74" s="4"/>
+      <c r="B74" s="4" t="s">
+        <v>105</v>
+      </c>
       <c r="I74" s="5"/>
       <c r="O74" s="4"/>
       <c r="AG74" s="5"/>
     </row>
     <row r="75" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B75" s="4" t="s">
-        <v>106</v>
-      </c>
+      <c r="B75" s="4"/>
       <c r="I75" s="5"/>
       <c r="O75" s="4"/>
       <c r="AG75" s="5"/>
     </row>
     <row r="76" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B76" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I76" s="5"/>
       <c r="O76" s="4"/>
@@ -7661,7 +9176,7 @@
     </row>
     <row r="77" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B77" s="4" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="I77" s="5"/>
       <c r="O77" s="4"/>
@@ -7669,29 +9184,29 @@
     </row>
     <row r="78" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B78" s="4" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="I78" s="5"/>
       <c r="O78" s="4"/>
       <c r="AG78" s="5"/>
     </row>
     <row r="79" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B79" s="4"/>
+      <c r="B79" s="4" t="s">
+        <v>105</v>
+      </c>
       <c r="I79" s="5"/>
       <c r="O79" s="4"/>
       <c r="AG79" s="5"/>
     </row>
     <row r="80" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B80" s="4" t="s">
-        <v>108</v>
-      </c>
+      <c r="B80" s="4"/>
       <c r="I80" s="5"/>
       <c r="O80" s="4"/>
       <c r="AG80" s="5"/>
     </row>
     <row r="81" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B81" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I81" s="5"/>
       <c r="O81" s="4"/>
@@ -7699,29 +9214,29 @@
     </row>
     <row r="82" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B82" s="4" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="I82" s="5"/>
       <c r="O82" s="4"/>
       <c r="AG82" s="5"/>
     </row>
     <row r="83" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B83" s="4"/>
+      <c r="B83" s="4" t="s">
+        <v>94</v>
+      </c>
       <c r="I83" s="5"/>
       <c r="O83" s="4"/>
       <c r="AG83" s="5"/>
     </row>
     <row r="84" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B84" s="4" t="s">
-        <v>110</v>
-      </c>
+      <c r="B84" s="4"/>
       <c r="I84" s="5"/>
       <c r="O84" s="4"/>
       <c r="AG84" s="5"/>
     </row>
     <row r="85" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B85" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I85" s="5"/>
       <c r="O85" s="4"/>
@@ -7729,7 +9244,7 @@
     </row>
     <row r="86" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B86" s="4" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="I86" s="5"/>
       <c r="O86" s="4"/>
@@ -7737,29 +9252,29 @@
     </row>
     <row r="87" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B87" s="4" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="I87" s="5"/>
       <c r="O87" s="4"/>
       <c r="AG87" s="5"/>
     </row>
     <row r="88" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B88" s="4"/>
+      <c r="B88" s="4" t="s">
+        <v>105</v>
+      </c>
       <c r="I88" s="5"/>
       <c r="O88" s="4"/>
       <c r="AG88" s="5"/>
     </row>
     <row r="89" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B89" s="4" t="s">
-        <v>112</v>
-      </c>
+      <c r="B89" s="4"/>
       <c r="I89" s="5"/>
       <c r="O89" s="4"/>
       <c r="AG89" s="5"/>
     </row>
     <row r="90" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B90" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="I90" s="5"/>
       <c r="O90" s="4"/>
@@ -7767,7 +9282,7 @@
     </row>
     <row r="91" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B91" s="4" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="I91" s="5"/>
       <c r="O91" s="4"/>
@@ -7775,27 +9290,31 @@
     </row>
     <row r="92" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B92" s="4" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="I92" s="5"/>
       <c r="O92" s="4"/>
       <c r="AG92" s="5"/>
     </row>
     <row r="93" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B93" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C93" s="7"/>
-      <c r="D93" s="7"/>
-      <c r="E93" s="7"/>
-      <c r="F93" s="7"/>
-      <c r="G93" s="7"/>
-      <c r="H93" s="7"/>
-      <c r="I93" s="8"/>
+      <c r="B93" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="I93" s="5"/>
       <c r="O93" s="4"/>
       <c r="AG93" s="5"/>
     </row>
     <row r="94" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B94" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C94" s="7"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="7"/>
+      <c r="F94" s="7"/>
+      <c r="G94" s="7"/>
+      <c r="H94" s="7"/>
+      <c r="I94" s="8"/>
       <c r="O94" s="4"/>
       <c r="AG94" s="5"/>
     </row>
@@ -7804,25 +9323,29 @@
       <c r="AG95" s="5"/>
     </row>
     <row r="96" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="O96" s="6"/>
-      <c r="P96" s="7"/>
-      <c r="Q96" s="7"/>
-      <c r="R96" s="7"/>
-      <c r="S96" s="7"/>
-      <c r="T96" s="7"/>
-      <c r="U96" s="7"/>
-      <c r="V96" s="7"/>
-      <c r="W96" s="7"/>
-      <c r="X96" s="7"/>
-      <c r="Y96" s="7"/>
-      <c r="Z96" s="7"/>
-      <c r="AA96" s="7"/>
-      <c r="AB96" s="7"/>
-      <c r="AC96" s="7"/>
-      <c r="AD96" s="7"/>
-      <c r="AE96" s="7"/>
-      <c r="AF96" s="7"/>
-      <c r="AG96" s="8"/>
+      <c r="O96" s="4"/>
+      <c r="AG96" s="5"/>
+    </row>
+    <row r="97" spans="15:33" x14ac:dyDescent="0.25">
+      <c r="O97" s="6"/>
+      <c r="P97" s="7"/>
+      <c r="Q97" s="7"/>
+      <c r="R97" s="7"/>
+      <c r="S97" s="7"/>
+      <c r="T97" s="7"/>
+      <c r="U97" s="7"/>
+      <c r="V97" s="7"/>
+      <c r="W97" s="7"/>
+      <c r="X97" s="7"/>
+      <c r="Y97" s="7"/>
+      <c r="Z97" s="7"/>
+      <c r="AA97" s="7"/>
+      <c r="AB97" s="7"/>
+      <c r="AC97" s="7"/>
+      <c r="AD97" s="7"/>
+      <c r="AE97" s="7"/>
+      <c r="AF97" s="7"/>
+      <c r="AG97" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7834,8 +9357,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6398F4F3-3A93-4EE8-9246-C0D41AE3E1CB}">
   <dimension ref="A2:K50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7913,7 +9436,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="4"/>
-      <c r="D15" s="16" t="s">
+      <c r="D15" t="s">
         <v>92</v>
       </c>
       <c r="F15" s="5"/>
@@ -7959,114 +9482,54 @@
       <c r="B22" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
       <c r="I22" s="5"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B23" s="4"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
       <c r="I23" s="5"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
       <c r="I24" s="5"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
       <c r="I25" s="5"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B26" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
       <c r="I26" s="5"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B27" s="4"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
       <c r="I27" s="5"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B28" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
       <c r="I28" s="5"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B29" s="4"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
       <c r="I29" s="5"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B30" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
       <c r="I30" s="5"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B31" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
       <c r="I31" s="5"/>
       <c r="J31" t="s">
         <v>17</v>
@@ -8079,138 +9542,66 @@
       <c r="B32" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
       <c r="I32" s="5"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B33" s="4"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
       <c r="I33" s="5"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B34" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
       <c r="I34" s="5"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B35" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
       <c r="I35" s="5"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B36" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
       <c r="I36" s="5"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B37" s="4"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
       <c r="I37" s="5"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B38" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
       <c r="I38" s="5"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B39" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
       <c r="I39" s="5"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B40" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
       <c r="I40" s="5"/>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B41" s="4"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
       <c r="I41" s="5"/>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B42" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
       <c r="I42" s="5"/>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B43" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
       <c r="I43" s="5"/>
       <c r="J43" t="s">
         <v>17</v>
@@ -8221,70 +9612,34 @@
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B44" s="4"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
       <c r="I44" s="5"/>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B45" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="17"/>
       <c r="I45" s="5"/>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B46" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="17"/>
       <c r="I46" s="5"/>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B47" s="4"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="17"/>
       <c r="I47" s="5"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B48" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="C48" s="17"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="17"/>
-      <c r="G48" s="17"/>
-      <c r="H48" s="17"/>
       <c r="I48" s="5"/>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C49" s="17"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="17"/>
-      <c r="G49" s="17"/>
-      <c r="H49" s="17"/>
       <c r="I49" s="5"/>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
@@ -8303,4 +9658,559 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{617CB9F7-276E-4C30-A5F6-F1811BB9A590}">
+  <dimension ref="A2:J86"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="U6" sqref="U6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="3"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B36" s="4"/>
+      <c r="C36" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" s="5"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B37" s="4"/>
+      <c r="D37" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" s="5"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B38" s="4"/>
+      <c r="D38" t="s">
+        <v>18</v>
+      </c>
+      <c r="F38" s="5"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B39" s="4"/>
+      <c r="D39" t="s">
+        <v>50</v>
+      </c>
+      <c r="F39" s="5"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B40" s="4"/>
+      <c r="D40" t="s">
+        <v>77</v>
+      </c>
+      <c r="F40" s="5"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B41" s="4"/>
+      <c r="D41" t="s">
+        <v>81</v>
+      </c>
+      <c r="F41" s="5"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B42" s="4"/>
+      <c r="D42" t="s">
+        <v>92</v>
+      </c>
+      <c r="F42" s="5"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B43" s="4"/>
+      <c r="D43" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="F43" s="5"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B44" s="4"/>
+      <c r="D44" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="F44" s="5"/>
+      <c r="G44" t="s">
+        <v>17</v>
+      </c>
+      <c r="H44" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B45" s="6"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="8"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B49" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="3"/>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B50" s="4"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="16"/>
+      <c r="H50" s="5"/>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B51" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C51" s="16"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="16"/>
+      <c r="H51" s="5"/>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B52" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C52" s="16"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="5"/>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B53" s="4"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="16"/>
+      <c r="H53" s="5"/>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B54" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C54" s="16"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="5"/>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B55" s="4"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="5"/>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B56" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C56" s="16"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
+      <c r="H56" s="5"/>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B57" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C57" s="16"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="16"/>
+      <c r="F57" s="16"/>
+      <c r="G57" s="16"/>
+      <c r="H57" s="5"/>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B58" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C58" s="16"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="16"/>
+      <c r="G58" s="16"/>
+      <c r="H58" s="5"/>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B59" s="4"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="16"/>
+      <c r="F59" s="16"/>
+      <c r="G59" s="16"/>
+      <c r="H59" s="5"/>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B60" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C60" s="16"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="16"/>
+      <c r="F60" s="16"/>
+      <c r="G60" s="16"/>
+      <c r="H60" s="5"/>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B61" s="4"/>
+      <c r="C61" s="16"/>
+      <c r="D61" s="16"/>
+      <c r="E61" s="16"/>
+      <c r="F61" s="16"/>
+      <c r="G61" s="16"/>
+      <c r="H61" s="5"/>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B62" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C62" s="16"/>
+      <c r="D62" s="16"/>
+      <c r="E62" s="16"/>
+      <c r="F62" s="16"/>
+      <c r="G62" s="16"/>
+      <c r="H62" s="5"/>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B63" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C63" s="16"/>
+      <c r="D63" s="16"/>
+      <c r="E63" s="16"/>
+      <c r="F63" s="16"/>
+      <c r="G63" s="16"/>
+      <c r="H63" s="5"/>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B64" s="4"/>
+      <c r="C64" s="16"/>
+      <c r="D64" s="16"/>
+      <c r="E64" s="16"/>
+      <c r="F64" s="16"/>
+      <c r="G64" s="16"/>
+      <c r="H64" s="5"/>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B65" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C65" s="16"/>
+      <c r="D65" s="16"/>
+      <c r="E65" s="16"/>
+      <c r="F65" s="16"/>
+      <c r="G65" s="16"/>
+      <c r="H65" s="5"/>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B66" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C66" s="16"/>
+      <c r="D66" s="16"/>
+      <c r="E66" s="16"/>
+      <c r="F66" s="16"/>
+      <c r="G66" s="16"/>
+      <c r="H66" s="5"/>
+      <c r="I66" t="s">
+        <v>17</v>
+      </c>
+      <c r="J66" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B67" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C67" s="16"/>
+      <c r="D67" s="16"/>
+      <c r="E67" s="16"/>
+      <c r="F67" s="16"/>
+      <c r="G67" s="16"/>
+      <c r="H67" s="5"/>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B68" s="4"/>
+      <c r="C68" s="16"/>
+      <c r="D68" s="16"/>
+      <c r="E68" s="16"/>
+      <c r="F68" s="16"/>
+      <c r="G68" s="16"/>
+      <c r="H68" s="5"/>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B69" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C69" s="16"/>
+      <c r="D69" s="16"/>
+      <c r="E69" s="16"/>
+      <c r="F69" s="16"/>
+      <c r="G69" s="16"/>
+      <c r="H69" s="5"/>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B70" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C70" s="16"/>
+      <c r="D70" s="16"/>
+      <c r="E70" s="16"/>
+      <c r="F70" s="16"/>
+      <c r="G70" s="16"/>
+      <c r="H70" s="5"/>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B71" s="4"/>
+      <c r="C71" s="16"/>
+      <c r="D71" s="16"/>
+      <c r="E71" s="16"/>
+      <c r="F71" s="16"/>
+      <c r="G71" s="16"/>
+      <c r="H71" s="5"/>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B72" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C72" s="16"/>
+      <c r="D72" s="16"/>
+      <c r="E72" s="16"/>
+      <c r="F72" s="16"/>
+      <c r="G72" s="16"/>
+      <c r="H72" s="5"/>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B73" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C73" s="16"/>
+      <c r="D73" s="16"/>
+      <c r="E73" s="16"/>
+      <c r="F73" s="16"/>
+      <c r="G73" s="16"/>
+      <c r="H73" s="5"/>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B74" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C74" s="16"/>
+      <c r="D74" s="16"/>
+      <c r="E74" s="16"/>
+      <c r="F74" s="16"/>
+      <c r="G74" s="16"/>
+      <c r="H74" s="5"/>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B75" s="4"/>
+      <c r="C75" s="16"/>
+      <c r="D75" s="16"/>
+      <c r="E75" s="16"/>
+      <c r="F75" s="16"/>
+      <c r="G75" s="16"/>
+      <c r="H75" s="5"/>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B76" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C76" s="16"/>
+      <c r="D76" s="16"/>
+      <c r="E76" s="16"/>
+      <c r="F76" s="16"/>
+      <c r="G76" s="16"/>
+      <c r="H76" s="5"/>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B77" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C77" s="16"/>
+      <c r="D77" s="16"/>
+      <c r="E77" s="16"/>
+      <c r="F77" s="16"/>
+      <c r="G77" s="16"/>
+      <c r="H77" s="5"/>
+      <c r="I77" t="s">
+        <v>17</v>
+      </c>
+      <c r="J77" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B78" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C78" s="16"/>
+      <c r="D78" s="16"/>
+      <c r="E78" s="16"/>
+      <c r="F78" s="16"/>
+      <c r="G78" s="16"/>
+      <c r="H78" s="5"/>
+      <c r="J78" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B79" s="4"/>
+      <c r="C79" s="16"/>
+      <c r="D79" s="16"/>
+      <c r="E79" s="16"/>
+      <c r="F79" s="16"/>
+      <c r="G79" s="16"/>
+      <c r="H79" s="5"/>
+      <c r="J79" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B80" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C80" s="16"/>
+      <c r="D80" s="16"/>
+      <c r="E80" s="16"/>
+      <c r="F80" s="16"/>
+      <c r="G80" s="16"/>
+      <c r="H80" s="5"/>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B81" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C81" s="16"/>
+      <c r="D81" s="16"/>
+      <c r="E81" s="16"/>
+      <c r="F81" s="16"/>
+      <c r="G81" s="16"/>
+      <c r="H81" s="5"/>
+      <c r="I81" t="s">
+        <v>17</v>
+      </c>
+      <c r="J81" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B82" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C82" s="16"/>
+      <c r="D82" s="16"/>
+      <c r="E82" s="16"/>
+      <c r="F82" s="16"/>
+      <c r="G82" s="16"/>
+      <c r="H82" s="5"/>
+      <c r="J82" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B83" s="4"/>
+      <c r="C83" s="16"/>
+      <c r="D83" s="16"/>
+      <c r="E83" s="16"/>
+      <c r="F83" s="16"/>
+      <c r="G83" s="16"/>
+      <c r="H83" s="5"/>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B84" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C84" s="16"/>
+      <c r="D84" s="16"/>
+      <c r="E84" s="16"/>
+      <c r="F84" s="16"/>
+      <c r="G84" s="16"/>
+      <c r="H84" s="5"/>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B85" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C85" s="16"/>
+      <c r="D85" s="16"/>
+      <c r="E85" s="16"/>
+      <c r="F85" s="16"/>
+      <c r="G85" s="16"/>
+      <c r="H85" s="5"/>
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B86" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="7"/>
+      <c r="H86" s="8"/>
+      <c r="I86" t="s">
+        <v>17</v>
+      </c>
+      <c r="J86" t="s">
+        <v>165</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me/2.Apex-Fundamentals.xlsx
+++ b/me/2.Apex-Fundamentals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\salesforce\me\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{441836D8-5030-4529-857D-C9537D5516D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4FFC901-2D4F-42A5-9275-639C587ADF0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hello World" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="List Collections Datatype" sheetId="6" r:id="rId6"/>
     <sheet name="Set Collections Datatype" sheetId="7" r:id="rId7"/>
     <sheet name="Map Collections Datatype" sheetId="8" r:id="rId8"/>
+    <sheet name="Challenge-VariablesAndDatatype" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="189">
   <si>
     <t>Mở Developer Console trên tab mới</t>
   </si>
@@ -641,6 +642,51 @@
   </si>
   <si>
     <t>value thì có thể duplicate nhưng key thì ko thể duplicate(key đóng vai trò giống như mã số sinh viên, value đóng vai trò là name của sv)</t>
+  </si>
+  <si>
+    <t>Challenge - Variables and Datatype</t>
+  </si>
+  <si>
+    <t>9.variable-datatype-challenge-solution.txt</t>
+  </si>
+  <si>
+    <t>salesforce\2.Apex-Fundamentals\9.variable-datatype-challenge-solution.txt</t>
+  </si>
+  <si>
+    <t>// posts for apex category</t>
+  </si>
+  <si>
+    <t>List&lt;String&gt; apexPosts = new List&lt;String&gt;{'Demystifying Apex Collections', 'Datatypes and variables in Apex'};</t>
+  </si>
+  <si>
+    <t>// posts for lightning category</t>
+  </si>
+  <si>
+    <t>List&lt;String&gt; lightningPosts = new List&lt;String&gt;{'Events in Aura framework', 'Developing reusable components'};</t>
+  </si>
+  <si>
+    <t>// map to store the categories and post lists</t>
+  </si>
+  <si>
+    <t>Map&lt;String, List&lt;String&gt;&gt; allPosts = new Map&lt;String, List&lt;String&gt;&gt;();</t>
+  </si>
+  <si>
+    <t>// insert apex posts</t>
+  </si>
+  <si>
+    <t>allPosts.put('Apex', apexPosts);</t>
+  </si>
+  <si>
+    <t>// insert lightning posts</t>
+  </si>
+  <si>
+    <t>allPosts.put('Lightning', lightningPosts);</t>
+  </si>
+  <si>
+    <t>//printing all posts along with categories</t>
+  </si>
+  <si>
+    <t>System.debug(allPosts);</t>
   </si>
 </sst>
 </file>
@@ -769,7 +815,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -791,8 +837,10 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3990,6 +4038,284 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>67361</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6486AB1-FA38-BD57-4FC7-97A5CC55ABB1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="695325" y="685800"/>
+          <a:ext cx="11363325" cy="3572561"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>141806</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>65992</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26CB20D0-9317-920E-EB9F-030312AEBF83}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="733425" y="4505325"/>
+          <a:ext cx="8552381" cy="5466667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>24734</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{238DAA7C-C643-0803-3381-F22DCB199168}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="704850" y="10201275"/>
+          <a:ext cx="11191875" cy="4110959"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>51709</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD936226-07BE-9D35-F95D-DEBA71597504}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="723900" y="21240751"/>
+          <a:ext cx="11144250" cy="5290458"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>105277</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7ABEEFF-39D9-3D5C-43C6-EE0565975D71}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="695325" y="26812875"/>
+          <a:ext cx="11277600" cy="5105902"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{517BB179-46F0-0BE4-9C8F-A5ED45D94B7C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2257425" y="28432125"/>
+          <a:ext cx="323850" cy="2247900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -8222,6 +8548,1424 @@
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B7" s="4"/>
+      <c r="T7" s="5"/>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B8" s="4"/>
+      <c r="T8" s="5"/>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B9" s="4"/>
+      <c r="T9" s="5"/>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B10" s="4"/>
+      <c r="T10" s="5"/>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B11" s="4"/>
+      <c r="T11" s="5"/>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B12" s="4"/>
+      <c r="T12" s="5"/>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B13" s="4"/>
+      <c r="T13" s="5"/>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B14" s="4"/>
+      <c r="T14" s="5"/>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B15" s="4"/>
+      <c r="T15" s="5"/>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B16" s="4"/>
+      <c r="T16" s="5"/>
+    </row>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B17" s="4"/>
+      <c r="T17" s="5"/>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B18" s="4"/>
+      <c r="T18" s="5"/>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B19" s="4"/>
+      <c r="T19" s="5"/>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B20" s="4"/>
+      <c r="T20" s="5"/>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B21" s="4"/>
+      <c r="T21" s="5"/>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B22" s="4"/>
+      <c r="T22" s="5"/>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B23" s="4"/>
+      <c r="T23" s="5"/>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B24" s="4"/>
+      <c r="T24" s="5"/>
+    </row>
+    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B25" s="4"/>
+      <c r="T25" s="5"/>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B26" s="4"/>
+      <c r="T26" s="5"/>
+    </row>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B27" s="4"/>
+      <c r="T27" s="5"/>
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B28" s="4"/>
+      <c r="T28" s="5"/>
+    </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B29" s="4"/>
+      <c r="T29" s="5"/>
+    </row>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B30" s="4"/>
+      <c r="T30" s="5"/>
+    </row>
+    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B31" s="4"/>
+      <c r="T31" s="5"/>
+    </row>
+    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B32" s="4"/>
+      <c r="T32" s="5"/>
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B33" s="4"/>
+      <c r="T33" s="5"/>
+    </row>
+    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B34" s="4"/>
+      <c r="T34" s="5"/>
+    </row>
+    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B35" s="4"/>
+      <c r="T35" s="5"/>
+    </row>
+    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B36" s="6"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="7"/>
+      <c r="R36" s="7"/>
+      <c r="S36" s="7"/>
+      <c r="T36" s="8"/>
+    </row>
+    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="O40" s="1"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="2"/>
+      <c r="T40" s="2"/>
+      <c r="U40" s="2"/>
+      <c r="V40" s="2"/>
+      <c r="W40" s="2"/>
+      <c r="X40" s="2"/>
+      <c r="Y40" s="2"/>
+      <c r="Z40" s="2"/>
+      <c r="AA40" s="2"/>
+      <c r="AB40" s="2"/>
+      <c r="AC40" s="2"/>
+      <c r="AD40" s="2"/>
+      <c r="AE40" s="2"/>
+      <c r="AF40" s="2"/>
+      <c r="AG40" s="3"/>
+    </row>
+    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="O41" s="4"/>
+      <c r="AG41" s="5"/>
+    </row>
+    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A42" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="O42" s="4"/>
+      <c r="AG42" s="5"/>
+    </row>
+    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B43" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="3"/>
+      <c r="O43" s="4"/>
+      <c r="AG43" s="5"/>
+    </row>
+    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B44" s="4"/>
+      <c r="C44" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" s="5"/>
+      <c r="O44" s="4"/>
+      <c r="AG44" s="5"/>
+    </row>
+    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B45" s="4"/>
+      <c r="D45" t="s">
+        <v>12</v>
+      </c>
+      <c r="F45" s="5"/>
+      <c r="O45" s="4"/>
+      <c r="AG45" s="5"/>
+    </row>
+    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B46" s="4"/>
+      <c r="D46" t="s">
+        <v>18</v>
+      </c>
+      <c r="F46" s="5"/>
+      <c r="O46" s="4"/>
+      <c r="AG46" s="5"/>
+    </row>
+    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B47" s="4"/>
+      <c r="D47" t="s">
+        <v>50</v>
+      </c>
+      <c r="F47" s="5"/>
+      <c r="O47" s="4"/>
+      <c r="AG47" s="5"/>
+    </row>
+    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B48" s="4"/>
+      <c r="D48" t="s">
+        <v>77</v>
+      </c>
+      <c r="F48" s="5"/>
+      <c r="O48" s="4"/>
+      <c r="AG48" s="5"/>
+    </row>
+    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B49" s="4"/>
+      <c r="D49" t="s">
+        <v>81</v>
+      </c>
+      <c r="F49" s="5"/>
+      <c r="O49" s="4"/>
+      <c r="AG49" s="5"/>
+    </row>
+    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B50" s="4"/>
+      <c r="D50" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="F50" s="5"/>
+      <c r="G50" t="s">
+        <v>17</v>
+      </c>
+      <c r="H50" t="s">
+        <v>16</v>
+      </c>
+      <c r="O50" s="4"/>
+      <c r="AG50" s="5"/>
+    </row>
+    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B51" s="6"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="8"/>
+      <c r="O51" s="4"/>
+      <c r="AG51" s="5"/>
+    </row>
+    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="O52" s="4"/>
+      <c r="AG52" s="5"/>
+    </row>
+    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="O53" s="4"/>
+      <c r="AG53" s="5"/>
+    </row>
+    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>91</v>
+      </c>
+      <c r="O54" s="4"/>
+      <c r="AG54" s="5"/>
+    </row>
+    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B55" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="3"/>
+      <c r="O55" s="4"/>
+      <c r="AG55" s="5"/>
+    </row>
+    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B56" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="I56" s="5"/>
+      <c r="O56" s="4"/>
+      <c r="AG56" s="5"/>
+    </row>
+    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B57" s="4"/>
+      <c r="I57" s="5"/>
+      <c r="O57" s="4"/>
+      <c r="AG57" s="5"/>
+    </row>
+    <row r="58" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B58" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="I58" s="5"/>
+      <c r="J58" t="s">
+        <v>17</v>
+      </c>
+      <c r="K58" t="s">
+        <v>113</v>
+      </c>
+      <c r="O58" s="4"/>
+      <c r="AG58" s="5"/>
+    </row>
+    <row r="59" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B59" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I59" s="5"/>
+      <c r="O59" s="4"/>
+      <c r="AG59" s="5"/>
+    </row>
+    <row r="60" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B60" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="I60" s="5"/>
+      <c r="O60" s="4"/>
+      <c r="AG60" s="5"/>
+    </row>
+    <row r="61" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B61" s="4"/>
+      <c r="I61" s="5"/>
+      <c r="O61" s="4"/>
+      <c r="AG61" s="5"/>
+    </row>
+    <row r="62" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B62" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="I62" s="5"/>
+      <c r="O62" s="4"/>
+      <c r="AG62" s="5"/>
+    </row>
+    <row r="63" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B63" s="4"/>
+      <c r="I63" s="5"/>
+      <c r="O63" s="4"/>
+      <c r="AG63" s="5"/>
+    </row>
+    <row r="64" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B64" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I64" s="5"/>
+      <c r="O64" s="4"/>
+      <c r="AG64" s="5"/>
+    </row>
+    <row r="65" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B65" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="I65" s="5"/>
+      <c r="O65" s="4"/>
+      <c r="AG65" s="5"/>
+    </row>
+    <row r="66" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B66" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I66" s="5"/>
+      <c r="O66" s="4"/>
+      <c r="AG66" s="5"/>
+    </row>
+    <row r="67" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B67" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="I67" s="5"/>
+      <c r="O67" s="4"/>
+      <c r="AG67" s="5"/>
+    </row>
+    <row r="68" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B68" s="4"/>
+      <c r="I68" s="5"/>
+      <c r="O68" s="4"/>
+      <c r="AG68" s="5"/>
+    </row>
+    <row r="69" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B69" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I69" s="5"/>
+      <c r="O69" s="4"/>
+      <c r="AG69" s="5"/>
+    </row>
+    <row r="70" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B70" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="I70" s="5"/>
+      <c r="J70" t="s">
+        <v>17</v>
+      </c>
+      <c r="K70" t="s">
+        <v>120</v>
+      </c>
+      <c r="O70" s="4"/>
+      <c r="AG70" s="5"/>
+    </row>
+    <row r="71" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B71" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="I71" s="5"/>
+      <c r="K71" t="s">
+        <v>121</v>
+      </c>
+      <c r="O71" s="4"/>
+      <c r="AG71" s="5"/>
+    </row>
+    <row r="72" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B72" s="4"/>
+      <c r="I72" s="5"/>
+      <c r="K72" t="s">
+        <v>122</v>
+      </c>
+      <c r="O72" s="4"/>
+      <c r="AG72" s="5"/>
+    </row>
+    <row r="73" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B73" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="I73" s="5"/>
+      <c r="O73" s="4"/>
+      <c r="AG73" s="5"/>
+    </row>
+    <row r="74" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B74" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="I74" s="5"/>
+      <c r="O74" s="4"/>
+      <c r="AG74" s="5"/>
+    </row>
+    <row r="75" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B75" s="4"/>
+      <c r="I75" s="5"/>
+      <c r="O75" s="4"/>
+      <c r="AG75" s="5"/>
+    </row>
+    <row r="76" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B76" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="I76" s="5"/>
+      <c r="O76" s="4"/>
+      <c r="AG76" s="5"/>
+    </row>
+    <row r="77" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B77" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I77" s="5"/>
+      <c r="O77" s="4"/>
+      <c r="AG77" s="5"/>
+    </row>
+    <row r="78" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B78" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="I78" s="5"/>
+      <c r="O78" s="4"/>
+      <c r="AG78" s="5"/>
+    </row>
+    <row r="79" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B79" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="I79" s="5"/>
+      <c r="O79" s="4"/>
+      <c r="AG79" s="5"/>
+    </row>
+    <row r="80" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B80" s="4"/>
+      <c r="I80" s="5"/>
+      <c r="O80" s="4"/>
+      <c r="AG80" s="5"/>
+    </row>
+    <row r="81" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B81" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="I81" s="5"/>
+      <c r="O81" s="4"/>
+      <c r="AG81" s="5"/>
+    </row>
+    <row r="82" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B82" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="I82" s="5"/>
+      <c r="O82" s="4"/>
+      <c r="AG82" s="5"/>
+    </row>
+    <row r="83" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B83" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="I83" s="5"/>
+      <c r="O83" s="4"/>
+      <c r="AG83" s="5"/>
+    </row>
+    <row r="84" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B84" s="4"/>
+      <c r="I84" s="5"/>
+      <c r="O84" s="4"/>
+      <c r="AG84" s="5"/>
+    </row>
+    <row r="85" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B85" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="I85" s="5"/>
+      <c r="O85" s="4"/>
+      <c r="AG85" s="5"/>
+    </row>
+    <row r="86" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B86" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="I86" s="5"/>
+      <c r="O86" s="4"/>
+      <c r="AG86" s="5"/>
+    </row>
+    <row r="87" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B87" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="I87" s="5"/>
+      <c r="O87" s="4"/>
+      <c r="AG87" s="5"/>
+    </row>
+    <row r="88" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B88" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="I88" s="5"/>
+      <c r="O88" s="4"/>
+      <c r="AG88" s="5"/>
+    </row>
+    <row r="89" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B89" s="4"/>
+      <c r="I89" s="5"/>
+      <c r="O89" s="4"/>
+      <c r="AG89" s="5"/>
+    </row>
+    <row r="90" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B90" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="I90" s="5"/>
+      <c r="O90" s="4"/>
+      <c r="AG90" s="5"/>
+    </row>
+    <row r="91" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B91" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="I91" s="5"/>
+      <c r="O91" s="4"/>
+      <c r="AG91" s="5"/>
+    </row>
+    <row r="92" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B92" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="I92" s="5"/>
+      <c r="O92" s="4"/>
+      <c r="AG92" s="5"/>
+    </row>
+    <row r="93" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B93" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="I93" s="5"/>
+      <c r="O93" s="4"/>
+      <c r="AG93" s="5"/>
+    </row>
+    <row r="94" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B94" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C94" s="7"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="7"/>
+      <c r="F94" s="7"/>
+      <c r="G94" s="7"/>
+      <c r="H94" s="7"/>
+      <c r="I94" s="8"/>
+      <c r="O94" s="4"/>
+      <c r="AG94" s="5"/>
+    </row>
+    <row r="95" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="O95" s="4"/>
+      <c r="AG95" s="5"/>
+    </row>
+    <row r="96" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="O96" s="4"/>
+      <c r="AG96" s="5"/>
+    </row>
+    <row r="97" spans="15:33" x14ac:dyDescent="0.25">
+      <c r="O97" s="6"/>
+      <c r="P97" s="7"/>
+      <c r="Q97" s="7"/>
+      <c r="R97" s="7"/>
+      <c r="S97" s="7"/>
+      <c r="T97" s="7"/>
+      <c r="U97" s="7"/>
+      <c r="V97" s="7"/>
+      <c r="W97" s="7"/>
+      <c r="X97" s="7"/>
+      <c r="Y97" s="7"/>
+      <c r="Z97" s="7"/>
+      <c r="AA97" s="7"/>
+      <c r="AB97" s="7"/>
+      <c r="AC97" s="7"/>
+      <c r="AD97" s="7"/>
+      <c r="AE97" s="7"/>
+      <c r="AF97" s="7"/>
+      <c r="AG97" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6398F4F3-3A93-4EE8-9246-C0D41AE3E1CB}">
+  <dimension ref="A2:K50"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="4"/>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="4"/>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="4"/>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="4"/>
+      <c r="D12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="4"/>
+      <c r="D13" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="4"/>
+      <c r="D14" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="4"/>
+      <c r="D15" t="s">
+        <v>92</v>
+      </c>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="4"/>
+      <c r="D16" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="6"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="8"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="I22" s="5"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="4"/>
+      <c r="I23" s="5"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="I24" s="5"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I25" s="5"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B26" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B27" s="4"/>
+      <c r="I27" s="5"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B28" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="I28" s="5"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B29" s="4"/>
+      <c r="I29" s="5"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B30" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B31" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="I31" s="5"/>
+      <c r="J31" t="s">
+        <v>17</v>
+      </c>
+      <c r="K31" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B32" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="I32" s="5"/>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B33" s="4"/>
+      <c r="I33" s="5"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B34" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="I34" s="5"/>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B35" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="I35" s="5"/>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B36" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="I36" s="5"/>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B37" s="4"/>
+      <c r="I37" s="5"/>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B38" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="I38" s="5"/>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B39" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="I39" s="5"/>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B40" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="I40" s="5"/>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B41" s="4"/>
+      <c r="I41" s="5"/>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B42" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="I42" s="5"/>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B43" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="I43" s="5"/>
+      <c r="J43" t="s">
+        <v>17</v>
+      </c>
+      <c r="K43" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B44" s="4"/>
+      <c r="I44" s="5"/>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B45" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="I45" s="5"/>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B46" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="I46" s="5"/>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B47" s="4"/>
+      <c r="I47" s="5"/>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B48" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="I48" s="5"/>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B49" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="I49" s="5"/>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B50" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{617CB9F7-276E-4C30-A5F6-F1811BB9A590}">
+  <dimension ref="A2:J86"/>
+  <sheetViews>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="L34" sqref="L34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="3"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B36" s="4"/>
+      <c r="C36" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" s="5"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B37" s="4"/>
+      <c r="D37" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" s="5"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B38" s="4"/>
+      <c r="D38" t="s">
+        <v>18</v>
+      </c>
+      <c r="F38" s="5"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B39" s="4"/>
+      <c r="D39" t="s">
+        <v>50</v>
+      </c>
+      <c r="F39" s="5"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B40" s="4"/>
+      <c r="D40" t="s">
+        <v>77</v>
+      </c>
+      <c r="F40" s="5"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B41" s="4"/>
+      <c r="D41" t="s">
+        <v>81</v>
+      </c>
+      <c r="F41" s="5"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B42" s="4"/>
+      <c r="D42" t="s">
+        <v>92</v>
+      </c>
+      <c r="F42" s="5"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B43" s="4"/>
+      <c r="D43" t="s">
+        <v>125</v>
+      </c>
+      <c r="F43" s="5"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B44" s="4"/>
+      <c r="D44" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="F44" s="5"/>
+      <c r="G44" t="s">
+        <v>17</v>
+      </c>
+      <c r="H44" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B45" s="6"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="8"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B49" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="3"/>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B50" s="4"/>
+      <c r="H50" s="5"/>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B51" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="H51" s="5"/>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B52" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="H52" s="5"/>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B53" s="4"/>
+      <c r="H53" s="5"/>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B54" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="H54" s="5"/>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B55" s="4"/>
+      <c r="H55" s="5"/>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B56" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="H56" s="5"/>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B57" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="H57" s="5"/>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B58" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="H58" s="5"/>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B59" s="4"/>
+      <c r="H59" s="5"/>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B60" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="H60" s="5"/>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B61" s="4"/>
+      <c r="H61" s="5"/>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B62" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="H62" s="5"/>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B63" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="H63" s="5"/>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B64" s="4"/>
+      <c r="H64" s="5"/>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B65" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="H65" s="5"/>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B66" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="H66" s="5"/>
+      <c r="I66" t="s">
+        <v>17</v>
+      </c>
+      <c r="J66" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B67" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="H67" s="5"/>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B68" s="4"/>
+      <c r="H68" s="5"/>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B69" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="H69" s="5"/>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B70" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="H70" s="5"/>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B71" s="4"/>
+      <c r="H71" s="5"/>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B72" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="H72" s="5"/>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B73" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="H73" s="5"/>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B74" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="H74" s="5"/>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B75" s="4"/>
+      <c r="H75" s="5"/>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B76" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="H76" s="5"/>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B77" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="H77" s="5"/>
+      <c r="I77" t="s">
+        <v>17</v>
+      </c>
+      <c r="J77" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B78" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H78" s="5"/>
+      <c r="J78" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B79" s="4"/>
+      <c r="H79" s="5"/>
+      <c r="J79" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B80" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="H80" s="5"/>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B81" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="H81" s="5"/>
+      <c r="I81" t="s">
+        <v>17</v>
+      </c>
+      <c r="J81" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B82" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="H82" s="5"/>
+      <c r="J82" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B83" s="4"/>
+      <c r="H83" s="5"/>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B84" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="H84" s="5"/>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B85" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="H85" s="5"/>
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B86" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="7"/>
+      <c r="H86" s="8"/>
+      <c r="I86" t="s">
+        <v>17</v>
+      </c>
+      <c r="J86" t="s">
+        <v>165</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EFEF962-5E18-46D8-84DA-95507988CE6A}">
+  <dimension ref="A3:T168"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
+      <selection activeCell="A159" sqref="A159"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B3" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="3"/>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B4" s="4"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="5"/>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B5" s="4"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="5"/>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B6" s="4"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="5"/>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B7" s="4"/>
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>
       <c r="E7" s="16"/>
@@ -8766,7 +10510,7 @@
       <c r="S32" s="16"/>
       <c r="T32" s="5"/>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B33" s="4"/>
       <c r="C33" s="16"/>
       <c r="D33" s="16"/>
@@ -8787,7 +10531,7 @@
       <c r="S33" s="16"/>
       <c r="T33" s="5"/>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B34" s="4"/>
       <c r="C34" s="16"/>
       <c r="D34" s="16"/>
@@ -8808,7 +10552,7 @@
       <c r="S34" s="16"/>
       <c r="T34" s="5"/>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B35" s="4"/>
       <c r="C35" s="16"/>
       <c r="D35" s="16"/>
@@ -8829,1385 +10573,2428 @@
       <c r="S35" s="16"/>
       <c r="T35" s="5"/>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B36" s="6"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="7"/>
-      <c r="M36" s="7"/>
-      <c r="N36" s="7"/>
-      <c r="O36" s="7"/>
-      <c r="P36" s="7"/>
-      <c r="Q36" s="7"/>
-      <c r="R36" s="7"/>
-      <c r="S36" s="7"/>
-      <c r="T36" s="8"/>
-    </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="O40" s="1"/>
-      <c r="P40" s="2"/>
-      <c r="Q40" s="2"/>
-      <c r="R40" s="2"/>
-      <c r="S40" s="2"/>
-      <c r="T40" s="2"/>
-      <c r="U40" s="2"/>
-      <c r="V40" s="2"/>
-      <c r="W40" s="2"/>
-      <c r="X40" s="2"/>
-      <c r="Y40" s="2"/>
-      <c r="Z40" s="2"/>
-      <c r="AA40" s="2"/>
-      <c r="AB40" s="2"/>
-      <c r="AC40" s="2"/>
-      <c r="AD40" s="2"/>
-      <c r="AE40" s="2"/>
-      <c r="AF40" s="2"/>
-      <c r="AG40" s="3"/>
-    </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="O41" s="4"/>
-      <c r="AG41" s="5"/>
-    </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A42" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="O42" s="4"/>
-      <c r="AG42" s="5"/>
-    </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B43" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="3"/>
-      <c r="O43" s="4"/>
-      <c r="AG43" s="5"/>
-    </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B36" s="4"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="16"/>
+      <c r="M36" s="16"/>
+      <c r="N36" s="16"/>
+      <c r="O36" s="16"/>
+      <c r="P36" s="16"/>
+      <c r="Q36" s="16"/>
+      <c r="R36" s="16"/>
+      <c r="S36" s="16"/>
+      <c r="T36" s="5"/>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B37" s="4"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="16"/>
+      <c r="N37" s="16"/>
+      <c r="O37" s="16"/>
+      <c r="P37" s="16"/>
+      <c r="Q37" s="16"/>
+      <c r="R37" s="16"/>
+      <c r="S37" s="16"/>
+      <c r="T37" s="5"/>
+    </row>
+    <row r="38" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B38" s="4"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="16"/>
+      <c r="N38" s="16"/>
+      <c r="O38" s="16"/>
+      <c r="P38" s="16"/>
+      <c r="Q38" s="16"/>
+      <c r="R38" s="16"/>
+      <c r="S38" s="16"/>
+      <c r="T38" s="5"/>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B39" s="4"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="16"/>
+      <c r="M39" s="16"/>
+      <c r="N39" s="16"/>
+      <c r="O39" s="16"/>
+      <c r="P39" s="16"/>
+      <c r="Q39" s="16"/>
+      <c r="R39" s="16"/>
+      <c r="S39" s="16"/>
+      <c r="T39" s="5"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B40" s="4"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="16"/>
+      <c r="L40" s="16"/>
+      <c r="M40" s="16"/>
+      <c r="N40" s="16"/>
+      <c r="O40" s="16"/>
+      <c r="P40" s="16"/>
+      <c r="Q40" s="16"/>
+      <c r="R40" s="16"/>
+      <c r="S40" s="16"/>
+      <c r="T40" s="5"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B41" s="4"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="16"/>
+      <c r="L41" s="16"/>
+      <c r="M41" s="16"/>
+      <c r="N41" s="16"/>
+      <c r="O41" s="16"/>
+      <c r="P41" s="16"/>
+      <c r="Q41" s="16"/>
+      <c r="R41" s="16"/>
+      <c r="S41" s="16"/>
+      <c r="T41" s="5"/>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B42" s="4"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="16"/>
+      <c r="L42" s="16"/>
+      <c r="M42" s="16"/>
+      <c r="N42" s="16"/>
+      <c r="O42" s="16"/>
+      <c r="P42" s="16"/>
+      <c r="Q42" s="16"/>
+      <c r="R42" s="16"/>
+      <c r="S42" s="16"/>
+      <c r="T42" s="5"/>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B43" s="4"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="16"/>
+      <c r="K43" s="16"/>
+      <c r="L43" s="16"/>
+      <c r="M43" s="16"/>
+      <c r="N43" s="16"/>
+      <c r="O43" s="16"/>
+      <c r="P43" s="16"/>
+      <c r="Q43" s="16"/>
+      <c r="R43" s="16"/>
+      <c r="S43" s="16"/>
+      <c r="T43" s="5"/>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B44" s="4"/>
-      <c r="C44" t="s">
-        <v>11</v>
-      </c>
-      <c r="F44" s="5"/>
-      <c r="O44" s="4"/>
-      <c r="AG44" s="5"/>
-    </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="16"/>
+      <c r="K44" s="16"/>
+      <c r="L44" s="16"/>
+      <c r="M44" s="16"/>
+      <c r="N44" s="16"/>
+      <c r="O44" s="16"/>
+      <c r="P44" s="16"/>
+      <c r="Q44" s="16"/>
+      <c r="R44" s="16"/>
+      <c r="S44" s="16"/>
+      <c r="T44" s="5"/>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B45" s="4"/>
-      <c r="D45" t="s">
-        <v>12</v>
-      </c>
-      <c r="F45" s="5"/>
-      <c r="O45" s="4"/>
-      <c r="AG45" s="5"/>
-    </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="16"/>
+      <c r="K45" s="16"/>
+      <c r="L45" s="16"/>
+      <c r="M45" s="16"/>
+      <c r="N45" s="16"/>
+      <c r="O45" s="16"/>
+      <c r="P45" s="16"/>
+      <c r="Q45" s="16"/>
+      <c r="R45" s="16"/>
+      <c r="S45" s="16"/>
+      <c r="T45" s="5"/>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B46" s="4"/>
-      <c r="D46" t="s">
-        <v>18</v>
-      </c>
-      <c r="F46" s="5"/>
-      <c r="O46" s="4"/>
-      <c r="AG46" s="5"/>
-    </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="16"/>
+      <c r="J46" s="16"/>
+      <c r="K46" s="16"/>
+      <c r="L46" s="16"/>
+      <c r="M46" s="16"/>
+      <c r="N46" s="16"/>
+      <c r="O46" s="16"/>
+      <c r="P46" s="16"/>
+      <c r="Q46" s="16"/>
+      <c r="R46" s="16"/>
+      <c r="S46" s="16"/>
+      <c r="T46" s="5"/>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B47" s="4"/>
-      <c r="D47" t="s">
-        <v>50</v>
-      </c>
-      <c r="F47" s="5"/>
-      <c r="O47" s="4"/>
-      <c r="AG47" s="5"/>
-    </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="16"/>
+      <c r="J47" s="16"/>
+      <c r="K47" s="16"/>
+      <c r="L47" s="16"/>
+      <c r="M47" s="16"/>
+      <c r="N47" s="16"/>
+      <c r="O47" s="16"/>
+      <c r="P47" s="16"/>
+      <c r="Q47" s="16"/>
+      <c r="R47" s="16"/>
+      <c r="S47" s="16"/>
+      <c r="T47" s="5"/>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B48" s="4"/>
-      <c r="D48" t="s">
-        <v>77</v>
-      </c>
-      <c r="F48" s="5"/>
-      <c r="O48" s="4"/>
-      <c r="AG48" s="5"/>
-    </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="C48" s="16"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="16"/>
+      <c r="I48" s="16"/>
+      <c r="J48" s="16"/>
+      <c r="K48" s="16"/>
+      <c r="L48" s="16"/>
+      <c r="M48" s="16"/>
+      <c r="N48" s="16"/>
+      <c r="O48" s="16"/>
+      <c r="P48" s="16"/>
+      <c r="Q48" s="16"/>
+      <c r="R48" s="16"/>
+      <c r="S48" s="16"/>
+      <c r="T48" s="5"/>
+    </row>
+    <row r="49" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B49" s="4"/>
-      <c r="D49" t="s">
-        <v>81</v>
-      </c>
-      <c r="F49" s="5"/>
-      <c r="O49" s="4"/>
-      <c r="AG49" s="5"/>
-    </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B50" s="4"/>
-      <c r="D50" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="F50" s="5"/>
-      <c r="G50" t="s">
-        <v>17</v>
-      </c>
-      <c r="H50" t="s">
-        <v>16</v>
-      </c>
-      <c r="O50" s="4"/>
-      <c r="AG50" s="5"/>
-    </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B51" s="6"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="8"/>
-      <c r="O51" s="4"/>
-      <c r="AG51" s="5"/>
-    </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="O52" s="4"/>
-      <c r="AG52" s="5"/>
-    </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="O53" s="4"/>
-      <c r="AG53" s="5"/>
-    </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>91</v>
-      </c>
-      <c r="O54" s="4"/>
-      <c r="AG54" s="5"/>
-    </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B55" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="3"/>
-      <c r="O55" s="4"/>
-      <c r="AG55" s="5"/>
-    </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B56" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="I56" s="5"/>
-      <c r="O56" s="4"/>
-      <c r="AG56" s="5"/>
-    </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B57" s="4"/>
-      <c r="I57" s="5"/>
-      <c r="O57" s="4"/>
-      <c r="AG57" s="5"/>
-    </row>
-    <row r="58" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B58" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="I58" s="5"/>
-      <c r="J58" t="s">
-        <v>17</v>
-      </c>
-      <c r="K58" t="s">
-        <v>113</v>
-      </c>
-      <c r="O58" s="4"/>
-      <c r="AG58" s="5"/>
-    </row>
-    <row r="59" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B59" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="I59" s="5"/>
-      <c r="O59" s="4"/>
-      <c r="AG59" s="5"/>
-    </row>
-    <row r="60" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B60" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="I60" s="5"/>
-      <c r="O60" s="4"/>
-      <c r="AG60" s="5"/>
-    </row>
-    <row r="61" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B61" s="4"/>
-      <c r="I61" s="5"/>
-      <c r="O61" s="4"/>
-      <c r="AG61" s="5"/>
-    </row>
-    <row r="62" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B62" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="I62" s="5"/>
-      <c r="O62" s="4"/>
-      <c r="AG62" s="5"/>
-    </row>
-    <row r="63" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B63" s="4"/>
-      <c r="I63" s="5"/>
-      <c r="O63" s="4"/>
-      <c r="AG63" s="5"/>
-    </row>
-    <row r="64" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B64" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="I64" s="5"/>
-      <c r="O64" s="4"/>
-      <c r="AG64" s="5"/>
-    </row>
-    <row r="65" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B65" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="I65" s="5"/>
-      <c r="O65" s="4"/>
-      <c r="AG65" s="5"/>
-    </row>
-    <row r="66" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B66" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I66" s="5"/>
-      <c r="O66" s="4"/>
-      <c r="AG66" s="5"/>
-    </row>
-    <row r="67" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B67" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="I67" s="5"/>
-      <c r="O67" s="4"/>
-      <c r="AG67" s="5"/>
-    </row>
-    <row r="68" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B68" s="4"/>
-      <c r="I68" s="5"/>
-      <c r="O68" s="4"/>
-      <c r="AG68" s="5"/>
-    </row>
-    <row r="69" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B69" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="I69" s="5"/>
-      <c r="O69" s="4"/>
-      <c r="AG69" s="5"/>
-    </row>
-    <row r="70" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B70" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="I70" s="5"/>
-      <c r="J70" t="s">
-        <v>17</v>
-      </c>
-      <c r="K70" t="s">
-        <v>120</v>
-      </c>
-      <c r="O70" s="4"/>
-      <c r="AG70" s="5"/>
-    </row>
-    <row r="71" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B71" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="I71" s="5"/>
-      <c r="K71" t="s">
-        <v>121</v>
-      </c>
-      <c r="O71" s="4"/>
-      <c r="AG71" s="5"/>
-    </row>
-    <row r="72" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B72" s="4"/>
-      <c r="I72" s="5"/>
-      <c r="K72" t="s">
-        <v>122</v>
-      </c>
-      <c r="O72" s="4"/>
-      <c r="AG72" s="5"/>
-    </row>
-    <row r="73" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B73" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="I73" s="5"/>
-      <c r="O73" s="4"/>
-      <c r="AG73" s="5"/>
-    </row>
-    <row r="74" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B74" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="I74" s="5"/>
-      <c r="O74" s="4"/>
-      <c r="AG74" s="5"/>
-    </row>
-    <row r="75" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B75" s="4"/>
-      <c r="I75" s="5"/>
-      <c r="O75" s="4"/>
-      <c r="AG75" s="5"/>
-    </row>
-    <row r="76" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B76" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="I76" s="5"/>
-      <c r="O76" s="4"/>
-      <c r="AG76" s="5"/>
-    </row>
-    <row r="77" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B77" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="I77" s="5"/>
-      <c r="O77" s="4"/>
-      <c r="AG77" s="5"/>
-    </row>
-    <row r="78" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B78" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="I78" s="5"/>
-      <c r="O78" s="4"/>
-      <c r="AG78" s="5"/>
-    </row>
-    <row r="79" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B79" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="I79" s="5"/>
-      <c r="O79" s="4"/>
-      <c r="AG79" s="5"/>
-    </row>
-    <row r="80" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B80" s="4"/>
-      <c r="I80" s="5"/>
-      <c r="O80" s="4"/>
-      <c r="AG80" s="5"/>
-    </row>
-    <row r="81" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B81" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="I81" s="5"/>
-      <c r="O81" s="4"/>
-      <c r="AG81" s="5"/>
-    </row>
-    <row r="82" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B82" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="I82" s="5"/>
-      <c r="O82" s="4"/>
-      <c r="AG82" s="5"/>
-    </row>
-    <row r="83" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B83" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="I83" s="5"/>
-      <c r="O83" s="4"/>
-      <c r="AG83" s="5"/>
-    </row>
-    <row r="84" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B84" s="4"/>
-      <c r="I84" s="5"/>
-      <c r="O84" s="4"/>
-      <c r="AG84" s="5"/>
-    </row>
-    <row r="85" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B85" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="I85" s="5"/>
-      <c r="O85" s="4"/>
-      <c r="AG85" s="5"/>
-    </row>
-    <row r="86" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B86" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="I86" s="5"/>
-      <c r="O86" s="4"/>
-      <c r="AG86" s="5"/>
-    </row>
-    <row r="87" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B87" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="I87" s="5"/>
-      <c r="O87" s="4"/>
-      <c r="AG87" s="5"/>
-    </row>
-    <row r="88" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B88" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="I88" s="5"/>
-      <c r="O88" s="4"/>
-      <c r="AG88" s="5"/>
-    </row>
-    <row r="89" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B89" s="4"/>
-      <c r="I89" s="5"/>
-      <c r="O89" s="4"/>
-      <c r="AG89" s="5"/>
-    </row>
-    <row r="90" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B90" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="I90" s="5"/>
-      <c r="O90" s="4"/>
-      <c r="AG90" s="5"/>
-    </row>
-    <row r="91" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B91" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="I91" s="5"/>
-      <c r="O91" s="4"/>
-      <c r="AG91" s="5"/>
-    </row>
-    <row r="92" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B92" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="I92" s="5"/>
-      <c r="O92" s="4"/>
-      <c r="AG92" s="5"/>
-    </row>
-    <row r="93" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B93" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="I93" s="5"/>
-      <c r="O93" s="4"/>
-      <c r="AG93" s="5"/>
-    </row>
-    <row r="94" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B94" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C94" s="7"/>
-      <c r="D94" s="7"/>
-      <c r="E94" s="7"/>
-      <c r="F94" s="7"/>
-      <c r="G94" s="7"/>
-      <c r="H94" s="7"/>
-      <c r="I94" s="8"/>
-      <c r="O94" s="4"/>
-      <c r="AG94" s="5"/>
-    </row>
-    <row r="95" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="O95" s="4"/>
-      <c r="AG95" s="5"/>
-    </row>
-    <row r="96" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="O96" s="4"/>
-      <c r="AG96" s="5"/>
-    </row>
-    <row r="97" spans="15:33" x14ac:dyDescent="0.25">
-      <c r="O97" s="6"/>
-      <c r="P97" s="7"/>
-      <c r="Q97" s="7"/>
-      <c r="R97" s="7"/>
-      <c r="S97" s="7"/>
-      <c r="T97" s="7"/>
-      <c r="U97" s="7"/>
-      <c r="V97" s="7"/>
-      <c r="W97" s="7"/>
-      <c r="X97" s="7"/>
-      <c r="Y97" s="7"/>
-      <c r="Z97" s="7"/>
-      <c r="AA97" s="7"/>
-      <c r="AB97" s="7"/>
-      <c r="AC97" s="7"/>
-      <c r="AD97" s="7"/>
-      <c r="AE97" s="7"/>
-      <c r="AF97" s="7"/>
-      <c r="AG97" s="8"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6398F4F3-3A93-4EE8-9246-C0D41AE3E1CB}">
-  <dimension ref="A2:K50"/>
-  <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="4"/>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="5"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="4"/>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="5"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="4"/>
-      <c r="D11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="5"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="4"/>
-      <c r="D12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F12" s="5"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="4"/>
-      <c r="D13" t="s">
-        <v>77</v>
-      </c>
-      <c r="F13" s="5"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="4"/>
-      <c r="D14" t="s">
-        <v>81</v>
-      </c>
-      <c r="F14" s="5"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="4"/>
-      <c r="D15" t="s">
-        <v>92</v>
-      </c>
-      <c r="F15" s="5"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="4"/>
-      <c r="D16" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="F16" s="5"/>
-      <c r="G16" t="s">
-        <v>17</v>
-      </c>
-      <c r="H16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="6"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="8"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="3"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="I22" s="5"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="4"/>
-      <c r="I23" s="5"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="I24" s="5"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="I25" s="5"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B26" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="I26" s="5"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="4"/>
-      <c r="I27" s="5"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="I28" s="5"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B29" s="4"/>
-      <c r="I29" s="5"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B30" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="I30" s="5"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B31" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="I31" s="5"/>
-      <c r="J31" t="s">
-        <v>17</v>
-      </c>
-      <c r="K31" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B32" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="I32" s="5"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B33" s="4"/>
-      <c r="I33" s="5"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B34" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="I34" s="5"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B35" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="I35" s="5"/>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B36" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="I36" s="5"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B37" s="4"/>
-      <c r="I37" s="5"/>
-    </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B38" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="I38" s="5"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B39" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="I39" s="5"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B40" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="I40" s="5"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B41" s="4"/>
-      <c r="I41" s="5"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B42" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="I42" s="5"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B43" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="I43" s="5"/>
-      <c r="J43" t="s">
-        <v>17</v>
-      </c>
-      <c r="K43" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B44" s="4"/>
-      <c r="I44" s="5"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B45" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="I45" s="5"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B46" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="I46" s="5"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B47" s="4"/>
-      <c r="I47" s="5"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B48" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="I48" s="5"/>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B49" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="I49" s="5"/>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B50" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7"/>
-      <c r="I50" s="8"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{617CB9F7-276E-4C30-A5F6-F1811BB9A590}">
-  <dimension ref="A2:J86"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="U6" sqref="U6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B35" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="3"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B36" s="4"/>
-      <c r="C36" t="s">
-        <v>11</v>
-      </c>
-      <c r="F36" s="5"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="4"/>
-      <c r="D37" t="s">
-        <v>12</v>
-      </c>
-      <c r="F37" s="5"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="4"/>
-      <c r="D38" t="s">
-        <v>18</v>
-      </c>
-      <c r="F38" s="5"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="4"/>
-      <c r="D39" t="s">
-        <v>50</v>
-      </c>
-      <c r="F39" s="5"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="4"/>
-      <c r="D40" t="s">
-        <v>77</v>
-      </c>
-      <c r="F40" s="5"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B41" s="4"/>
-      <c r="D41" t="s">
-        <v>81</v>
-      </c>
-      <c r="F41" s="5"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B42" s="4"/>
-      <c r="D42" t="s">
-        <v>92</v>
-      </c>
-      <c r="F42" s="5"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B43" s="4"/>
-      <c r="D43" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="F43" s="5"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B44" s="4"/>
-      <c r="D44" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="F44" s="5"/>
-      <c r="G44" t="s">
-        <v>17</v>
-      </c>
-      <c r="H44" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B45" s="6"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="8"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B49" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="3"/>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="16"/>
+      <c r="I49" s="16"/>
+      <c r="J49" s="16"/>
+      <c r="K49" s="16"/>
+      <c r="L49" s="16"/>
+      <c r="M49" s="16"/>
+      <c r="N49" s="16"/>
+      <c r="O49" s="16"/>
+      <c r="P49" s="16"/>
+      <c r="Q49" s="16"/>
+      <c r="R49" s="16"/>
+      <c r="S49" s="16"/>
+      <c r="T49" s="5"/>
+    </row>
+    <row r="50" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B50" s="4"/>
       <c r="C50" s="16"/>
       <c r="D50" s="16"/>
       <c r="E50" s="16"/>
       <c r="F50" s="16"/>
       <c r="G50" s="16"/>
-      <c r="H50" s="5"/>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B51" s="4" t="s">
-        <v>143</v>
-      </c>
+      <c r="H50" s="16"/>
+      <c r="I50" s="16"/>
+      <c r="J50" s="16"/>
+      <c r="K50" s="16"/>
+      <c r="L50" s="16"/>
+      <c r="M50" s="16"/>
+      <c r="N50" s="16"/>
+      <c r="O50" s="16"/>
+      <c r="P50" s="16"/>
+      <c r="Q50" s="16"/>
+      <c r="R50" s="16"/>
+      <c r="S50" s="16"/>
+      <c r="T50" s="5"/>
+    </row>
+    <row r="51" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B51" s="4"/>
       <c r="C51" s="16"/>
       <c r="D51" s="16"/>
       <c r="E51" s="16"/>
       <c r="F51" s="16"/>
       <c r="G51" s="16"/>
-      <c r="H51" s="5"/>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B52" s="4" t="s">
-        <v>144</v>
-      </c>
+      <c r="H51" s="16"/>
+      <c r="I51" s="16"/>
+      <c r="J51" s="16"/>
+      <c r="K51" s="16"/>
+      <c r="L51" s="16"/>
+      <c r="M51" s="16"/>
+      <c r="N51" s="16"/>
+      <c r="O51" s="16"/>
+      <c r="P51" s="16"/>
+      <c r="Q51" s="16"/>
+      <c r="R51" s="16"/>
+      <c r="S51" s="16"/>
+      <c r="T51" s="5"/>
+    </row>
+    <row r="52" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B52" s="4"/>
       <c r="C52" s="16"/>
       <c r="D52" s="16"/>
       <c r="E52" s="16"/>
       <c r="F52" s="16"/>
       <c r="G52" s="16"/>
-      <c r="H52" s="5"/>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H52" s="16"/>
+      <c r="I52" s="16"/>
+      <c r="J52" s="16"/>
+      <c r="K52" s="16"/>
+      <c r="L52" s="16"/>
+      <c r="M52" s="16"/>
+      <c r="N52" s="16"/>
+      <c r="O52" s="16"/>
+      <c r="P52" s="16"/>
+      <c r="Q52" s="16"/>
+      <c r="R52" s="16"/>
+      <c r="S52" s="16"/>
+      <c r="T52" s="5"/>
+    </row>
+    <row r="53" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B53" s="4"/>
       <c r="C53" s="16"/>
       <c r="D53" s="16"/>
       <c r="E53" s="16"/>
       <c r="F53" s="16"/>
       <c r="G53" s="16"/>
-      <c r="H53" s="5"/>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B54" s="4" t="s">
-        <v>145</v>
-      </c>
+      <c r="H53" s="16"/>
+      <c r="I53" s="16"/>
+      <c r="J53" s="16"/>
+      <c r="K53" s="16"/>
+      <c r="L53" s="16"/>
+      <c r="M53" s="16"/>
+      <c r="N53" s="16"/>
+      <c r="O53" s="16"/>
+      <c r="P53" s="16"/>
+      <c r="Q53" s="16"/>
+      <c r="R53" s="16"/>
+      <c r="S53" s="16"/>
+      <c r="T53" s="5"/>
+    </row>
+    <row r="54" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B54" s="4"/>
       <c r="C54" s="16"/>
       <c r="D54" s="16"/>
       <c r="E54" s="16"/>
       <c r="F54" s="16"/>
       <c r="G54" s="16"/>
-      <c r="H54" s="5"/>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H54" s="16"/>
+      <c r="I54" s="16"/>
+      <c r="J54" s="16"/>
+      <c r="K54" s="16"/>
+      <c r="L54" s="16"/>
+      <c r="M54" s="16"/>
+      <c r="N54" s="16"/>
+      <c r="O54" s="16"/>
+      <c r="P54" s="16"/>
+      <c r="Q54" s="16"/>
+      <c r="R54" s="16"/>
+      <c r="S54" s="16"/>
+      <c r="T54" s="5"/>
+    </row>
+    <row r="55" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B55" s="4"/>
       <c r="C55" s="16"/>
       <c r="D55" s="16"/>
       <c r="E55" s="16"/>
       <c r="F55" s="16"/>
       <c r="G55" s="16"/>
-      <c r="H55" s="5"/>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B56" s="4" t="s">
-        <v>146</v>
-      </c>
+      <c r="H55" s="16"/>
+      <c r="I55" s="16"/>
+      <c r="J55" s="16"/>
+      <c r="K55" s="16"/>
+      <c r="L55" s="16"/>
+      <c r="M55" s="16"/>
+      <c r="N55" s="16"/>
+      <c r="O55" s="16"/>
+      <c r="P55" s="16"/>
+      <c r="Q55" s="16"/>
+      <c r="R55" s="16"/>
+      <c r="S55" s="16"/>
+      <c r="T55" s="5"/>
+    </row>
+    <row r="56" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B56" s="4"/>
       <c r="C56" s="16"/>
       <c r="D56" s="16"/>
       <c r="E56" s="16"/>
       <c r="F56" s="16"/>
       <c r="G56" s="16"/>
-      <c r="H56" s="5"/>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B57" s="4" t="s">
-        <v>147</v>
-      </c>
+      <c r="H56" s="16"/>
+      <c r="I56" s="16"/>
+      <c r="J56" s="16"/>
+      <c r="K56" s="16"/>
+      <c r="L56" s="16"/>
+      <c r="M56" s="16"/>
+      <c r="N56" s="16"/>
+      <c r="O56" s="16"/>
+      <c r="P56" s="16"/>
+      <c r="Q56" s="16"/>
+      <c r="R56" s="16"/>
+      <c r="S56" s="16"/>
+      <c r="T56" s="5"/>
+    </row>
+    <row r="57" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B57" s="4"/>
       <c r="C57" s="16"/>
       <c r="D57" s="16"/>
       <c r="E57" s="16"/>
       <c r="F57" s="16"/>
       <c r="G57" s="16"/>
-      <c r="H57" s="5"/>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B58" s="4" t="s">
-        <v>148</v>
-      </c>
+      <c r="H57" s="16"/>
+      <c r="I57" s="16"/>
+      <c r="J57" s="16"/>
+      <c r="K57" s="16"/>
+      <c r="L57" s="16"/>
+      <c r="M57" s="16"/>
+      <c r="N57" s="16"/>
+      <c r="O57" s="16"/>
+      <c r="P57" s="16"/>
+      <c r="Q57" s="16"/>
+      <c r="R57" s="16"/>
+      <c r="S57" s="16"/>
+      <c r="T57" s="5"/>
+    </row>
+    <row r="58" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B58" s="4"/>
       <c r="C58" s="16"/>
       <c r="D58" s="16"/>
       <c r="E58" s="16"/>
       <c r="F58" s="16"/>
       <c r="G58" s="16"/>
-      <c r="H58" s="5"/>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H58" s="16"/>
+      <c r="I58" s="16"/>
+      <c r="J58" s="16"/>
+      <c r="K58" s="16"/>
+      <c r="L58" s="16"/>
+      <c r="M58" s="16"/>
+      <c r="N58" s="16"/>
+      <c r="O58" s="16"/>
+      <c r="P58" s="16"/>
+      <c r="Q58" s="16"/>
+      <c r="R58" s="16"/>
+      <c r="S58" s="16"/>
+      <c r="T58" s="5"/>
+    </row>
+    <row r="59" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B59" s="4"/>
       <c r="C59" s="16"/>
       <c r="D59" s="16"/>
       <c r="E59" s="16"/>
       <c r="F59" s="16"/>
       <c r="G59" s="16"/>
-      <c r="H59" s="5"/>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B60" s="4" t="s">
-        <v>145</v>
-      </c>
+      <c r="H59" s="16"/>
+      <c r="I59" s="16"/>
+      <c r="J59" s="16"/>
+      <c r="K59" s="16"/>
+      <c r="L59" s="16"/>
+      <c r="M59" s="16"/>
+      <c r="N59" s="16"/>
+      <c r="O59" s="16"/>
+      <c r="P59" s="16"/>
+      <c r="Q59" s="16"/>
+      <c r="R59" s="16"/>
+      <c r="S59" s="16"/>
+      <c r="T59" s="5"/>
+    </row>
+    <row r="60" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B60" s="4"/>
       <c r="C60" s="16"/>
       <c r="D60" s="16"/>
       <c r="E60" s="16"/>
       <c r="F60" s="16"/>
       <c r="G60" s="16"/>
-      <c r="H60" s="5"/>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H60" s="16"/>
+      <c r="I60" s="16"/>
+      <c r="J60" s="16"/>
+      <c r="K60" s="16"/>
+      <c r="L60" s="16"/>
+      <c r="M60" s="16"/>
+      <c r="N60" s="16"/>
+      <c r="O60" s="16"/>
+      <c r="P60" s="16"/>
+      <c r="Q60" s="16"/>
+      <c r="R60" s="16"/>
+      <c r="S60" s="16"/>
+      <c r="T60" s="5"/>
+    </row>
+    <row r="61" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B61" s="4"/>
       <c r="C61" s="16"/>
       <c r="D61" s="16"/>
       <c r="E61" s="16"/>
       <c r="F61" s="16"/>
       <c r="G61" s="16"/>
-      <c r="H61" s="5"/>
-    </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B62" s="4" t="s">
-        <v>149</v>
-      </c>
+      <c r="H61" s="16"/>
+      <c r="I61" s="16"/>
+      <c r="J61" s="16"/>
+      <c r="K61" s="16"/>
+      <c r="L61" s="16"/>
+      <c r="M61" s="16"/>
+      <c r="N61" s="16"/>
+      <c r="O61" s="16"/>
+      <c r="P61" s="16"/>
+      <c r="Q61" s="16"/>
+      <c r="R61" s="16"/>
+      <c r="S61" s="16"/>
+      <c r="T61" s="5"/>
+    </row>
+    <row r="62" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B62" s="4"/>
       <c r="C62" s="16"/>
       <c r="D62" s="16"/>
       <c r="E62" s="16"/>
       <c r="F62" s="16"/>
       <c r="G62" s="16"/>
-      <c r="H62" s="5"/>
-    </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B63" s="4" t="s">
-        <v>145</v>
-      </c>
+      <c r="H62" s="16"/>
+      <c r="I62" s="16"/>
+      <c r="J62" s="16"/>
+      <c r="K62" s="16"/>
+      <c r="L62" s="16"/>
+      <c r="M62" s="16"/>
+      <c r="N62" s="16"/>
+      <c r="O62" s="16"/>
+      <c r="P62" s="16"/>
+      <c r="Q62" s="16"/>
+      <c r="R62" s="16"/>
+      <c r="S62" s="16"/>
+      <c r="T62" s="5"/>
+    </row>
+    <row r="63" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B63" s="4"/>
       <c r="C63" s="16"/>
       <c r="D63" s="16"/>
       <c r="E63" s="16"/>
       <c r="F63" s="16"/>
       <c r="G63" s="16"/>
-      <c r="H63" s="5"/>
-    </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H63" s="16"/>
+      <c r="I63" s="16"/>
+      <c r="J63" s="16"/>
+      <c r="K63" s="16"/>
+      <c r="L63" s="16"/>
+      <c r="M63" s="16"/>
+      <c r="N63" s="16"/>
+      <c r="O63" s="16"/>
+      <c r="P63" s="16"/>
+      <c r="Q63" s="16"/>
+      <c r="R63" s="16"/>
+      <c r="S63" s="16"/>
+      <c r="T63" s="5"/>
+    </row>
+    <row r="64" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B64" s="4"/>
       <c r="C64" s="16"/>
       <c r="D64" s="16"/>
       <c r="E64" s="16"/>
       <c r="F64" s="16"/>
       <c r="G64" s="16"/>
-      <c r="H64" s="5"/>
-    </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B65" s="4" t="s">
-        <v>150</v>
-      </c>
+      <c r="H64" s="16"/>
+      <c r="I64" s="16"/>
+      <c r="J64" s="16"/>
+      <c r="K64" s="16"/>
+      <c r="L64" s="16"/>
+      <c r="M64" s="16"/>
+      <c r="N64" s="16"/>
+      <c r="O64" s="16"/>
+      <c r="P64" s="16"/>
+      <c r="Q64" s="16"/>
+      <c r="R64" s="16"/>
+      <c r="S64" s="16"/>
+      <c r="T64" s="5"/>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B65" s="4"/>
       <c r="C65" s="16"/>
       <c r="D65" s="16"/>
       <c r="E65" s="16"/>
       <c r="F65" s="16"/>
       <c r="G65" s="16"/>
-      <c r="H65" s="5"/>
-    </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B66" s="4" t="s">
-        <v>151</v>
-      </c>
+      <c r="H65" s="16"/>
+      <c r="I65" s="16"/>
+      <c r="J65" s="16"/>
+      <c r="K65" s="16"/>
+      <c r="L65" s="16"/>
+      <c r="M65" s="16"/>
+      <c r="N65" s="16"/>
+      <c r="O65" s="16"/>
+      <c r="P65" s="16"/>
+      <c r="Q65" s="16"/>
+      <c r="R65" s="16"/>
+      <c r="S65" s="16"/>
+      <c r="T65" s="5"/>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B66" s="4"/>
       <c r="C66" s="16"/>
       <c r="D66" s="16"/>
       <c r="E66" s="16"/>
       <c r="F66" s="16"/>
       <c r="G66" s="16"/>
-      <c r="H66" s="5"/>
-      <c r="I66" t="s">
-        <v>17</v>
-      </c>
-      <c r="J66" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B67" s="4" t="s">
-        <v>145</v>
-      </c>
+      <c r="H66" s="16"/>
+      <c r="I66" s="16"/>
+      <c r="J66" s="16"/>
+      <c r="K66" s="16"/>
+      <c r="L66" s="16"/>
+      <c r="M66" s="16"/>
+      <c r="N66" s="16"/>
+      <c r="O66" s="16"/>
+      <c r="P66" s="16"/>
+      <c r="Q66" s="16"/>
+      <c r="R66" s="16"/>
+      <c r="S66" s="16"/>
+      <c r="T66" s="5"/>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B67" s="4"/>
       <c r="C67" s="16"/>
       <c r="D67" s="16"/>
       <c r="E67" s="16"/>
       <c r="F67" s="16"/>
       <c r="G67" s="16"/>
-      <c r="H67" s="5"/>
-    </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H67" s="16"/>
+      <c r="I67" s="16"/>
+      <c r="J67" s="16"/>
+      <c r="K67" s="16"/>
+      <c r="L67" s="16"/>
+      <c r="M67" s="16"/>
+      <c r="N67" s="16"/>
+      <c r="O67" s="16"/>
+      <c r="P67" s="16"/>
+      <c r="Q67" s="16"/>
+      <c r="R67" s="16"/>
+      <c r="S67" s="16"/>
+      <c r="T67" s="5"/>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B68" s="4"/>
       <c r="C68" s="16"/>
       <c r="D68" s="16"/>
       <c r="E68" s="16"/>
       <c r="F68" s="16"/>
       <c r="G68" s="16"/>
-      <c r="H68" s="5"/>
-    </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B69" s="4" t="s">
-        <v>152</v>
-      </c>
+      <c r="H68" s="16"/>
+      <c r="I68" s="16"/>
+      <c r="J68" s="16"/>
+      <c r="K68" s="16"/>
+      <c r="L68" s="16"/>
+      <c r="M68" s="16"/>
+      <c r="N68" s="16"/>
+      <c r="O68" s="16"/>
+      <c r="P68" s="16"/>
+      <c r="Q68" s="16"/>
+      <c r="R68" s="16"/>
+      <c r="S68" s="16"/>
+      <c r="T68" s="5"/>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B69" s="4"/>
       <c r="C69" s="16"/>
       <c r="D69" s="16"/>
       <c r="E69" s="16"/>
       <c r="F69" s="16"/>
       <c r="G69" s="16"/>
-      <c r="H69" s="5"/>
-    </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B70" s="4" t="s">
-        <v>153</v>
-      </c>
+      <c r="H69" s="16"/>
+      <c r="I69" s="16"/>
+      <c r="J69" s="16"/>
+      <c r="K69" s="16"/>
+      <c r="L69" s="16"/>
+      <c r="M69" s="16"/>
+      <c r="N69" s="16"/>
+      <c r="O69" s="16"/>
+      <c r="P69" s="16"/>
+      <c r="Q69" s="16"/>
+      <c r="R69" s="16"/>
+      <c r="S69" s="16"/>
+      <c r="T69" s="5"/>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B70" s="4"/>
       <c r="C70" s="16"/>
       <c r="D70" s="16"/>
       <c r="E70" s="16"/>
       <c r="F70" s="16"/>
       <c r="G70" s="16"/>
-      <c r="H70" s="5"/>
-    </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H70" s="16"/>
+      <c r="I70" s="16"/>
+      <c r="J70" s="16"/>
+      <c r="K70" s="16"/>
+      <c r="L70" s="16"/>
+      <c r="M70" s="16"/>
+      <c r="N70" s="16"/>
+      <c r="O70" s="16"/>
+      <c r="P70" s="16"/>
+      <c r="Q70" s="16"/>
+      <c r="R70" s="16"/>
+      <c r="S70" s="16"/>
+      <c r="T70" s="5"/>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B71" s="4"/>
       <c r="C71" s="16"/>
       <c r="D71" s="16"/>
       <c r="E71" s="16"/>
       <c r="F71" s="16"/>
       <c r="G71" s="16"/>
-      <c r="H71" s="5"/>
-    </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B72" s="4" t="s">
-        <v>154</v>
-      </c>
+      <c r="H71" s="16"/>
+      <c r="I71" s="16"/>
+      <c r="J71" s="16"/>
+      <c r="K71" s="16"/>
+      <c r="L71" s="16"/>
+      <c r="M71" s="16"/>
+      <c r="N71" s="16"/>
+      <c r="O71" s="16"/>
+      <c r="P71" s="16"/>
+      <c r="Q71" s="16"/>
+      <c r="R71" s="16"/>
+      <c r="S71" s="16"/>
+      <c r="T71" s="5"/>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B72" s="4"/>
       <c r="C72" s="16"/>
       <c r="D72" s="16"/>
       <c r="E72" s="16"/>
       <c r="F72" s="16"/>
       <c r="G72" s="16"/>
-      <c r="H72" s="5"/>
-    </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B73" s="4" t="s">
-        <v>155</v>
-      </c>
+      <c r="H72" s="16"/>
+      <c r="I72" s="16"/>
+      <c r="J72" s="16"/>
+      <c r="K72" s="16"/>
+      <c r="L72" s="16"/>
+      <c r="M72" s="16"/>
+      <c r="N72" s="16"/>
+      <c r="O72" s="16"/>
+      <c r="P72" s="16"/>
+      <c r="Q72" s="16"/>
+      <c r="R72" s="16"/>
+      <c r="S72" s="16"/>
+      <c r="T72" s="5"/>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B73" s="4"/>
       <c r="C73" s="16"/>
       <c r="D73" s="16"/>
       <c r="E73" s="16"/>
       <c r="F73" s="16"/>
       <c r="G73" s="16"/>
-      <c r="H73" s="5"/>
-    </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B74" s="4" t="s">
-        <v>145</v>
-      </c>
+      <c r="H73" s="16"/>
+      <c r="I73" s="16"/>
+      <c r="J73" s="16"/>
+      <c r="K73" s="16"/>
+      <c r="L73" s="16"/>
+      <c r="M73" s="16"/>
+      <c r="N73" s="16"/>
+      <c r="O73" s="16"/>
+      <c r="P73" s="16"/>
+      <c r="Q73" s="16"/>
+      <c r="R73" s="16"/>
+      <c r="S73" s="16"/>
+      <c r="T73" s="5"/>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B74" s="4"/>
       <c r="C74" s="16"/>
       <c r="D74" s="16"/>
       <c r="E74" s="16"/>
       <c r="F74" s="16"/>
       <c r="G74" s="16"/>
-      <c r="H74" s="5"/>
-    </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H74" s="16"/>
+      <c r="I74" s="16"/>
+      <c r="J74" s="16"/>
+      <c r="K74" s="16"/>
+      <c r="L74" s="16"/>
+      <c r="M74" s="16"/>
+      <c r="N74" s="16"/>
+      <c r="O74" s="16"/>
+      <c r="P74" s="16"/>
+      <c r="Q74" s="16"/>
+      <c r="R74" s="16"/>
+      <c r="S74" s="16"/>
+      <c r="T74" s="5"/>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B75" s="4"/>
       <c r="C75" s="16"/>
       <c r="D75" s="16"/>
       <c r="E75" s="16"/>
       <c r="F75" s="16"/>
       <c r="G75" s="16"/>
-      <c r="H75" s="5"/>
-    </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B76" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C76" s="16"/>
-      <c r="D76" s="16"/>
-      <c r="E76" s="16"/>
-      <c r="F76" s="16"/>
-      <c r="G76" s="16"/>
-      <c r="H76" s="5"/>
-    </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B77" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C77" s="16"/>
-      <c r="D77" s="16"/>
-      <c r="E77" s="16"/>
-      <c r="F77" s="16"/>
-      <c r="G77" s="16"/>
-      <c r="H77" s="5"/>
-      <c r="I77" t="s">
-        <v>17</v>
-      </c>
-      <c r="J77" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B78" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C78" s="16"/>
-      <c r="D78" s="16"/>
-      <c r="E78" s="16"/>
-      <c r="F78" s="16"/>
-      <c r="G78" s="16"/>
-      <c r="H78" s="5"/>
-      <c r="J78" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B79" s="4"/>
-      <c r="C79" s="16"/>
-      <c r="D79" s="16"/>
-      <c r="E79" s="16"/>
-      <c r="F79" s="16"/>
-      <c r="G79" s="16"/>
-      <c r="H79" s="5"/>
-      <c r="J79" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B80" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C80" s="16"/>
-      <c r="D80" s="16"/>
-      <c r="E80" s="16"/>
-      <c r="F80" s="16"/>
-      <c r="G80" s="16"/>
-      <c r="H80" s="5"/>
-    </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B81" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C81" s="16"/>
+      <c r="H75" s="16"/>
+      <c r="I75" s="16"/>
+      <c r="J75" s="16"/>
+      <c r="K75" s="16"/>
+      <c r="L75" s="16"/>
+      <c r="M75" s="16"/>
+      <c r="N75" s="16"/>
+      <c r="O75" s="16"/>
+      <c r="P75" s="16"/>
+      <c r="Q75" s="16"/>
+      <c r="R75" s="16"/>
+      <c r="S75" s="16"/>
+      <c r="T75" s="5"/>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B76" s="6"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="7"/>
+      <c r="I76" s="7"/>
+      <c r="J76" s="7"/>
+      <c r="K76" s="7"/>
+      <c r="L76" s="7"/>
+      <c r="M76" s="7"/>
+      <c r="N76" s="7"/>
+      <c r="O76" s="7"/>
+      <c r="P76" s="7"/>
+      <c r="Q76" s="7"/>
+      <c r="R76" s="7"/>
+      <c r="S76" s="7"/>
+      <c r="T76" s="8"/>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A79" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B80" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
+      <c r="H80" s="3"/>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B81" s="4"/>
+      <c r="C81" s="16" t="s">
+        <v>11</v>
+      </c>
       <c r="D81" s="16"/>
       <c r="E81" s="16"/>
       <c r="F81" s="16"/>
       <c r="G81" s="16"/>
       <c r="H81" s="5"/>
-      <c r="I81" t="s">
-        <v>17</v>
-      </c>
-      <c r="J81" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B82" s="4" t="s">
-        <v>160</v>
-      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B82" s="4"/>
       <c r="C82" s="16"/>
-      <c r="D82" s="16"/>
+      <c r="D82" s="16" t="s">
+        <v>12</v>
+      </c>
       <c r="E82" s="16"/>
       <c r="F82" s="16"/>
       <c r="G82" s="16"/>
       <c r="H82" s="5"/>
-      <c r="J82" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B83" s="4"/>
       <c r="C83" s="16"/>
-      <c r="D83" s="16"/>
+      <c r="D83" s="16" t="s">
+        <v>18</v>
+      </c>
       <c r="E83" s="16"/>
       <c r="F83" s="16"/>
       <c r="G83" s="16"/>
       <c r="H83" s="5"/>
     </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B84" s="4" t="s">
-        <v>161</v>
-      </c>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B84" s="4"/>
       <c r="C84" s="16"/>
-      <c r="D84" s="16"/>
+      <c r="D84" s="16" t="s">
+        <v>50</v>
+      </c>
       <c r="E84" s="16"/>
       <c r="F84" s="16"/>
       <c r="G84" s="16"/>
       <c r="H84" s="5"/>
     </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B85" s="4" t="s">
-        <v>162</v>
-      </c>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B85" s="4"/>
       <c r="C85" s="16"/>
-      <c r="D85" s="16"/>
+      <c r="D85" s="16" t="s">
+        <v>77</v>
+      </c>
       <c r="E85" s="16"/>
       <c r="F85" s="16"/>
       <c r="G85" s="16"/>
       <c r="H85" s="5"/>
     </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B86" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="C86" s="7"/>
-      <c r="D86" s="7"/>
-      <c r="E86" s="7"/>
-      <c r="F86" s="7"/>
-      <c r="G86" s="7"/>
-      <c r="H86" s="8"/>
-      <c r="I86" t="s">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B86" s="4"/>
+      <c r="C86" s="16"/>
+      <c r="D86" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="E86" s="16"/>
+      <c r="F86" s="16"/>
+      <c r="G86" s="16"/>
+      <c r="H86" s="5"/>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B87" s="4"/>
+      <c r="C87" s="16"/>
+      <c r="D87" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="E87" s="16"/>
+      <c r="F87" s="16"/>
+      <c r="G87" s="16"/>
+      <c r="H87" s="5"/>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B88" s="4"/>
+      <c r="C88" s="16"/>
+      <c r="D88" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="E88" s="16"/>
+      <c r="F88" s="16"/>
+      <c r="G88" s="16"/>
+      <c r="H88" s="5"/>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B89" s="4"/>
+      <c r="C89" s="16"/>
+      <c r="D89" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="E89" s="16"/>
+      <c r="F89" s="16"/>
+      <c r="G89" s="16"/>
+      <c r="H89" s="5"/>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B90" s="4"/>
+      <c r="C90" s="16"/>
+      <c r="D90" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="E90" s="16"/>
+      <c r="F90" s="16"/>
+      <c r="G90" s="16"/>
+      <c r="H90" s="5"/>
+      <c r="I90" t="s">
         <v>17</v>
       </c>
-      <c r="J86" t="s">
-        <v>165</v>
-      </c>
+      <c r="J90" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B91" s="6"/>
+      <c r="C91" s="7"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="7"/>
+      <c r="F91" s="7"/>
+      <c r="G91" s="7"/>
+      <c r="H91" s="8"/>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B95" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2"/>
+      <c r="F95" s="2"/>
+      <c r="G95" s="2"/>
+      <c r="H95" s="2"/>
+      <c r="I95" s="2"/>
+      <c r="J95" s="2"/>
+      <c r="K95" s="2"/>
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B96" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C96" s="16"/>
+      <c r="D96" s="16"/>
+      <c r="E96" s="16"/>
+      <c r="F96" s="16"/>
+      <c r="G96" s="16"/>
+      <c r="H96" s="16"/>
+      <c r="I96" s="16"/>
+      <c r="J96" s="16"/>
+      <c r="K96" s="16"/>
+      <c r="L96" s="5"/>
+    </row>
+    <row r="97" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B97" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C97" s="16"/>
+      <c r="D97" s="16"/>
+      <c r="E97" s="16"/>
+      <c r="F97" s="16"/>
+      <c r="G97" s="16"/>
+      <c r="H97" s="16"/>
+      <c r="I97" s="16"/>
+      <c r="J97" s="16"/>
+      <c r="K97" s="16"/>
+      <c r="L97" s="5"/>
+    </row>
+    <row r="98" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B98" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C98" s="16"/>
+      <c r="D98" s="16"/>
+      <c r="E98" s="16"/>
+      <c r="F98" s="16"/>
+      <c r="G98" s="16"/>
+      <c r="H98" s="16"/>
+      <c r="I98" s="16"/>
+      <c r="J98" s="16"/>
+      <c r="K98" s="16"/>
+      <c r="L98" s="5"/>
+    </row>
+    <row r="99" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B99" s="4"/>
+      <c r="C99" s="16"/>
+      <c r="D99" s="16"/>
+      <c r="E99" s="16"/>
+      <c r="F99" s="16"/>
+      <c r="G99" s="16"/>
+      <c r="H99" s="16"/>
+      <c r="I99" s="16"/>
+      <c r="J99" s="16"/>
+      <c r="K99" s="16"/>
+      <c r="L99" s="5"/>
+    </row>
+    <row r="100" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B100" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C100" s="16"/>
+      <c r="D100" s="16"/>
+      <c r="E100" s="16"/>
+      <c r="F100" s="16"/>
+      <c r="G100" s="16"/>
+      <c r="H100" s="16"/>
+      <c r="I100" s="16"/>
+      <c r="J100" s="16"/>
+      <c r="K100" s="16"/>
+      <c r="L100" s="5"/>
+    </row>
+    <row r="101" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B101" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C101" s="16"/>
+      <c r="D101" s="16"/>
+      <c r="E101" s="16"/>
+      <c r="F101" s="16"/>
+      <c r="G101" s="16"/>
+      <c r="H101" s="16"/>
+      <c r="I101" s="16"/>
+      <c r="J101" s="16"/>
+      <c r="K101" s="16"/>
+      <c r="L101" s="5"/>
+    </row>
+    <row r="102" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B102" s="4"/>
+      <c r="C102" s="16"/>
+      <c r="D102" s="16"/>
+      <c r="E102" s="16"/>
+      <c r="F102" s="16"/>
+      <c r="G102" s="16"/>
+      <c r="H102" s="16"/>
+      <c r="I102" s="16"/>
+      <c r="J102" s="16"/>
+      <c r="K102" s="16"/>
+      <c r="L102" s="5"/>
+    </row>
+    <row r="103" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B103" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C103" s="16"/>
+      <c r="D103" s="16"/>
+      <c r="E103" s="16"/>
+      <c r="F103" s="16"/>
+      <c r="G103" s="16"/>
+      <c r="H103" s="16"/>
+      <c r="I103" s="16"/>
+      <c r="J103" s="16"/>
+      <c r="K103" s="16"/>
+      <c r="L103" s="5"/>
+    </row>
+    <row r="104" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B104" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C104" s="16"/>
+      <c r="D104" s="16"/>
+      <c r="E104" s="16"/>
+      <c r="F104" s="16"/>
+      <c r="G104" s="16"/>
+      <c r="H104" s="16"/>
+      <c r="I104" s="16"/>
+      <c r="J104" s="16"/>
+      <c r="K104" s="16"/>
+      <c r="L104" s="5"/>
+    </row>
+    <row r="105" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B105" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C105" s="16"/>
+      <c r="D105" s="16"/>
+      <c r="E105" s="16"/>
+      <c r="F105" s="16"/>
+      <c r="G105" s="16"/>
+      <c r="H105" s="16"/>
+      <c r="I105" s="16"/>
+      <c r="J105" s="16"/>
+      <c r="K105" s="16"/>
+      <c r="L105" s="5"/>
+    </row>
+    <row r="106" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B106" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C106" s="16"/>
+      <c r="D106" s="16"/>
+      <c r="E106" s="16"/>
+      <c r="F106" s="16"/>
+      <c r="G106" s="16"/>
+      <c r="H106" s="16"/>
+      <c r="I106" s="16"/>
+      <c r="J106" s="16"/>
+      <c r="K106" s="16"/>
+      <c r="L106" s="5"/>
+    </row>
+    <row r="107" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B107" s="4"/>
+      <c r="C107" s="16"/>
+      <c r="D107" s="16"/>
+      <c r="E107" s="16"/>
+      <c r="F107" s="16"/>
+      <c r="G107" s="16"/>
+      <c r="H107" s="16"/>
+      <c r="I107" s="16"/>
+      <c r="J107" s="16"/>
+      <c r="K107" s="16"/>
+      <c r="L107" s="5"/>
+    </row>
+    <row r="108" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B108" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C108" s="16"/>
+      <c r="D108" s="16"/>
+      <c r="E108" s="16"/>
+      <c r="F108" s="16"/>
+      <c r="G108" s="16"/>
+      <c r="H108" s="16"/>
+      <c r="I108" s="16"/>
+      <c r="J108" s="16"/>
+      <c r="K108" s="16"/>
+      <c r="L108" s="5"/>
+    </row>
+    <row r="109" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B109" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C109" s="7"/>
+      <c r="D109" s="7"/>
+      <c r="E109" s="7"/>
+      <c r="F109" s="7"/>
+      <c r="G109" s="7"/>
+      <c r="H109" s="7"/>
+      <c r="I109" s="7"/>
+      <c r="J109" s="7"/>
+      <c r="K109" s="7"/>
+      <c r="L109" s="8"/>
+    </row>
+    <row r="112" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B112" s="1"/>
+      <c r="C112" s="2"/>
+      <c r="D112" s="2"/>
+      <c r="E112" s="2"/>
+      <c r="F112" s="2"/>
+      <c r="G112" s="2"/>
+      <c r="H112" s="2"/>
+      <c r="I112" s="2"/>
+      <c r="J112" s="2"/>
+      <c r="K112" s="2"/>
+      <c r="L112" s="2"/>
+      <c r="M112" s="2"/>
+      <c r="N112" s="2"/>
+      <c r="O112" s="2"/>
+      <c r="P112" s="2"/>
+      <c r="Q112" s="2"/>
+      <c r="R112" s="2"/>
+      <c r="S112" s="2"/>
+      <c r="T112" s="3"/>
+    </row>
+    <row r="113" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B113" s="4"/>
+      <c r="C113" s="16"/>
+      <c r="D113" s="16"/>
+      <c r="E113" s="16"/>
+      <c r="F113" s="16"/>
+      <c r="G113" s="16"/>
+      <c r="H113" s="16"/>
+      <c r="I113" s="16"/>
+      <c r="J113" s="16"/>
+      <c r="K113" s="16"/>
+      <c r="L113" s="16"/>
+      <c r="M113" s="16"/>
+      <c r="N113" s="16"/>
+      <c r="O113" s="16"/>
+      <c r="P113" s="16"/>
+      <c r="Q113" s="16"/>
+      <c r="R113" s="16"/>
+      <c r="S113" s="16"/>
+      <c r="T113" s="5"/>
+    </row>
+    <row r="114" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B114" s="4"/>
+      <c r="C114" s="16"/>
+      <c r="D114" s="16"/>
+      <c r="E114" s="16"/>
+      <c r="F114" s="16"/>
+      <c r="G114" s="16"/>
+      <c r="H114" s="16"/>
+      <c r="I114" s="16"/>
+      <c r="J114" s="16"/>
+      <c r="K114" s="16"/>
+      <c r="L114" s="16"/>
+      <c r="M114" s="16"/>
+      <c r="N114" s="16"/>
+      <c r="O114" s="16"/>
+      <c r="P114" s="16"/>
+      <c r="Q114" s="16"/>
+      <c r="R114" s="16"/>
+      <c r="S114" s="16"/>
+      <c r="T114" s="5"/>
+    </row>
+    <row r="115" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B115" s="4"/>
+      <c r="C115" s="16"/>
+      <c r="D115" s="16"/>
+      <c r="E115" s="16"/>
+      <c r="F115" s="16"/>
+      <c r="G115" s="16"/>
+      <c r="H115" s="16"/>
+      <c r="I115" s="16"/>
+      <c r="J115" s="16"/>
+      <c r="K115" s="16"/>
+      <c r="L115" s="16"/>
+      <c r="M115" s="16"/>
+      <c r="N115" s="16"/>
+      <c r="O115" s="16"/>
+      <c r="P115" s="16"/>
+      <c r="Q115" s="16"/>
+      <c r="R115" s="16"/>
+      <c r="S115" s="16"/>
+      <c r="T115" s="5"/>
+    </row>
+    <row r="116" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B116" s="4"/>
+      <c r="C116" s="16"/>
+      <c r="D116" s="16"/>
+      <c r="E116" s="16"/>
+      <c r="F116" s="16"/>
+      <c r="G116" s="16"/>
+      <c r="H116" s="16"/>
+      <c r="I116" s="16"/>
+      <c r="J116" s="16"/>
+      <c r="K116" s="16"/>
+      <c r="L116" s="16"/>
+      <c r="M116" s="16"/>
+      <c r="N116" s="16"/>
+      <c r="O116" s="16"/>
+      <c r="P116" s="16"/>
+      <c r="Q116" s="16"/>
+      <c r="R116" s="16"/>
+      <c r="S116" s="16"/>
+      <c r="T116" s="5"/>
+    </row>
+    <row r="117" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B117" s="4"/>
+      <c r="C117" s="16"/>
+      <c r="D117" s="16"/>
+      <c r="E117" s="16"/>
+      <c r="F117" s="16"/>
+      <c r="G117" s="16"/>
+      <c r="H117" s="16"/>
+      <c r="I117" s="16"/>
+      <c r="J117" s="16"/>
+      <c r="K117" s="16"/>
+      <c r="L117" s="16"/>
+      <c r="M117" s="16"/>
+      <c r="N117" s="16"/>
+      <c r="O117" s="16"/>
+      <c r="P117" s="16"/>
+      <c r="Q117" s="16"/>
+      <c r="R117" s="16"/>
+      <c r="S117" s="16"/>
+      <c r="T117" s="5"/>
+    </row>
+    <row r="118" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B118" s="4"/>
+      <c r="C118" s="16"/>
+      <c r="D118" s="16"/>
+      <c r="E118" s="16"/>
+      <c r="F118" s="16"/>
+      <c r="G118" s="16"/>
+      <c r="H118" s="16"/>
+      <c r="I118" s="16"/>
+      <c r="J118" s="16"/>
+      <c r="K118" s="16"/>
+      <c r="L118" s="16"/>
+      <c r="M118" s="16"/>
+      <c r="N118" s="16"/>
+      <c r="O118" s="16"/>
+      <c r="P118" s="16"/>
+      <c r="Q118" s="16"/>
+      <c r="R118" s="16"/>
+      <c r="S118" s="16"/>
+      <c r="T118" s="5"/>
+    </row>
+    <row r="119" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B119" s="4"/>
+      <c r="C119" s="16"/>
+      <c r="D119" s="16"/>
+      <c r="E119" s="16"/>
+      <c r="F119" s="16"/>
+      <c r="G119" s="16"/>
+      <c r="H119" s="16"/>
+      <c r="I119" s="16"/>
+      <c r="J119" s="16"/>
+      <c r="K119" s="16"/>
+      <c r="L119" s="16"/>
+      <c r="M119" s="16"/>
+      <c r="N119" s="16"/>
+      <c r="O119" s="16"/>
+      <c r="P119" s="16"/>
+      <c r="Q119" s="16"/>
+      <c r="R119" s="16"/>
+      <c r="S119" s="16"/>
+      <c r="T119" s="5"/>
+    </row>
+    <row r="120" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B120" s="4"/>
+      <c r="C120" s="16"/>
+      <c r="D120" s="16"/>
+      <c r="E120" s="16"/>
+      <c r="F120" s="16"/>
+      <c r="G120" s="16"/>
+      <c r="H120" s="16"/>
+      <c r="I120" s="16"/>
+      <c r="J120" s="16"/>
+      <c r="K120" s="16"/>
+      <c r="L120" s="16"/>
+      <c r="M120" s="16"/>
+      <c r="N120" s="16"/>
+      <c r="O120" s="16"/>
+      <c r="P120" s="16"/>
+      <c r="Q120" s="16"/>
+      <c r="R120" s="16"/>
+      <c r="S120" s="16"/>
+      <c r="T120" s="5"/>
+    </row>
+    <row r="121" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B121" s="4"/>
+      <c r="C121" s="16"/>
+      <c r="D121" s="16"/>
+      <c r="E121" s="16"/>
+      <c r="F121" s="16"/>
+      <c r="G121" s="16"/>
+      <c r="H121" s="16"/>
+      <c r="I121" s="16"/>
+      <c r="J121" s="16"/>
+      <c r="K121" s="16"/>
+      <c r="L121" s="16"/>
+      <c r="M121" s="16"/>
+      <c r="N121" s="16"/>
+      <c r="O121" s="16"/>
+      <c r="P121" s="16"/>
+      <c r="Q121" s="16"/>
+      <c r="R121" s="16"/>
+      <c r="S121" s="16"/>
+      <c r="T121" s="5"/>
+    </row>
+    <row r="122" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B122" s="4"/>
+      <c r="C122" s="16"/>
+      <c r="D122" s="16"/>
+      <c r="E122" s="16"/>
+      <c r="F122" s="16"/>
+      <c r="G122" s="16"/>
+      <c r="H122" s="16"/>
+      <c r="I122" s="16"/>
+      <c r="J122" s="16"/>
+      <c r="K122" s="16"/>
+      <c r="L122" s="16"/>
+      <c r="M122" s="16"/>
+      <c r="N122" s="16"/>
+      <c r="O122" s="16"/>
+      <c r="P122" s="16"/>
+      <c r="Q122" s="16"/>
+      <c r="R122" s="16"/>
+      <c r="S122" s="16"/>
+      <c r="T122" s="5"/>
+    </row>
+    <row r="123" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B123" s="4"/>
+      <c r="C123" s="16"/>
+      <c r="D123" s="16"/>
+      <c r="E123" s="16"/>
+      <c r="F123" s="16"/>
+      <c r="G123" s="16"/>
+      <c r="H123" s="16"/>
+      <c r="I123" s="16"/>
+      <c r="J123" s="16"/>
+      <c r="K123" s="16"/>
+      <c r="L123" s="16"/>
+      <c r="M123" s="16"/>
+      <c r="N123" s="16"/>
+      <c r="O123" s="16"/>
+      <c r="P123" s="16"/>
+      <c r="Q123" s="16"/>
+      <c r="R123" s="16"/>
+      <c r="S123" s="16"/>
+      <c r="T123" s="5"/>
+    </row>
+    <row r="124" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B124" s="4"/>
+      <c r="C124" s="16"/>
+      <c r="D124" s="16"/>
+      <c r="E124" s="16"/>
+      <c r="F124" s="16"/>
+      <c r="G124" s="16"/>
+      <c r="H124" s="16"/>
+      <c r="I124" s="16"/>
+      <c r="J124" s="16"/>
+      <c r="K124" s="16"/>
+      <c r="L124" s="16"/>
+      <c r="M124" s="16"/>
+      <c r="N124" s="16"/>
+      <c r="O124" s="16"/>
+      <c r="P124" s="16"/>
+      <c r="Q124" s="16"/>
+      <c r="R124" s="16"/>
+      <c r="S124" s="16"/>
+      <c r="T124" s="5"/>
+    </row>
+    <row r="125" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B125" s="4"/>
+      <c r="C125" s="16"/>
+      <c r="D125" s="16"/>
+      <c r="E125" s="16"/>
+      <c r="F125" s="16"/>
+      <c r="G125" s="16"/>
+      <c r="H125" s="16"/>
+      <c r="I125" s="16"/>
+      <c r="J125" s="16"/>
+      <c r="K125" s="16"/>
+      <c r="L125" s="16"/>
+      <c r="M125" s="16"/>
+      <c r="N125" s="16"/>
+      <c r="O125" s="16"/>
+      <c r="P125" s="16"/>
+      <c r="Q125" s="16"/>
+      <c r="R125" s="16"/>
+      <c r="S125" s="16"/>
+      <c r="T125" s="5"/>
+    </row>
+    <row r="126" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B126" s="4"/>
+      <c r="C126" s="16"/>
+      <c r="D126" s="16"/>
+      <c r="E126" s="16"/>
+      <c r="F126" s="16"/>
+      <c r="G126" s="16"/>
+      <c r="H126" s="16"/>
+      <c r="I126" s="16"/>
+      <c r="J126" s="16"/>
+      <c r="K126" s="16"/>
+      <c r="L126" s="16"/>
+      <c r="M126" s="16"/>
+      <c r="N126" s="16"/>
+      <c r="O126" s="16"/>
+      <c r="P126" s="16"/>
+      <c r="Q126" s="16"/>
+      <c r="R126" s="16"/>
+      <c r="S126" s="16"/>
+      <c r="T126" s="5"/>
+    </row>
+    <row r="127" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B127" s="4"/>
+      <c r="C127" s="16"/>
+      <c r="D127" s="16"/>
+      <c r="E127" s="16"/>
+      <c r="F127" s="16"/>
+      <c r="G127" s="16"/>
+      <c r="H127" s="16"/>
+      <c r="I127" s="16"/>
+      <c r="J127" s="16"/>
+      <c r="K127" s="16"/>
+      <c r="L127" s="16"/>
+      <c r="M127" s="16"/>
+      <c r="N127" s="16"/>
+      <c r="O127" s="16"/>
+      <c r="P127" s="16"/>
+      <c r="Q127" s="16"/>
+      <c r="R127" s="16"/>
+      <c r="S127" s="16"/>
+      <c r="T127" s="5"/>
+    </row>
+    <row r="128" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B128" s="4"/>
+      <c r="C128" s="16"/>
+      <c r="D128" s="16"/>
+      <c r="E128" s="16"/>
+      <c r="F128" s="16"/>
+      <c r="G128" s="16"/>
+      <c r="H128" s="16"/>
+      <c r="I128" s="16"/>
+      <c r="J128" s="16"/>
+      <c r="K128" s="16"/>
+      <c r="L128" s="16"/>
+      <c r="M128" s="16"/>
+      <c r="N128" s="16"/>
+      <c r="O128" s="16"/>
+      <c r="P128" s="16"/>
+      <c r="Q128" s="16"/>
+      <c r="R128" s="16"/>
+      <c r="S128" s="16"/>
+      <c r="T128" s="5"/>
+    </row>
+    <row r="129" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B129" s="4"/>
+      <c r="C129" s="16"/>
+      <c r="D129" s="16"/>
+      <c r="E129" s="16"/>
+      <c r="F129" s="16"/>
+      <c r="G129" s="16"/>
+      <c r="H129" s="16"/>
+      <c r="I129" s="16"/>
+      <c r="J129" s="16"/>
+      <c r="K129" s="16"/>
+      <c r="L129" s="16"/>
+      <c r="M129" s="16"/>
+      <c r="N129" s="16"/>
+      <c r="O129" s="16"/>
+      <c r="P129" s="16"/>
+      <c r="Q129" s="16"/>
+      <c r="R129" s="16"/>
+      <c r="S129" s="16"/>
+      <c r="T129" s="5"/>
+    </row>
+    <row r="130" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B130" s="4"/>
+      <c r="C130" s="16"/>
+      <c r="D130" s="16"/>
+      <c r="E130" s="16"/>
+      <c r="F130" s="16"/>
+      <c r="G130" s="16"/>
+      <c r="H130" s="16"/>
+      <c r="I130" s="16"/>
+      <c r="J130" s="16"/>
+      <c r="K130" s="16"/>
+      <c r="L130" s="16"/>
+      <c r="M130" s="16"/>
+      <c r="N130" s="16"/>
+      <c r="O130" s="16"/>
+      <c r="P130" s="16"/>
+      <c r="Q130" s="16"/>
+      <c r="R130" s="16"/>
+      <c r="S130" s="16"/>
+      <c r="T130" s="5"/>
+    </row>
+    <row r="131" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B131" s="4"/>
+      <c r="C131" s="16"/>
+      <c r="D131" s="16"/>
+      <c r="E131" s="16"/>
+      <c r="F131" s="16"/>
+      <c r="G131" s="16"/>
+      <c r="H131" s="16"/>
+      <c r="I131" s="16"/>
+      <c r="J131" s="16"/>
+      <c r="K131" s="16"/>
+      <c r="L131" s="16"/>
+      <c r="M131" s="16"/>
+      <c r="N131" s="16"/>
+      <c r="O131" s="16"/>
+      <c r="P131" s="16"/>
+      <c r="Q131" s="16"/>
+      <c r="R131" s="16"/>
+      <c r="S131" s="16"/>
+      <c r="T131" s="5"/>
+    </row>
+    <row r="132" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B132" s="4"/>
+      <c r="C132" s="16"/>
+      <c r="D132" s="16"/>
+      <c r="E132" s="16"/>
+      <c r="F132" s="16"/>
+      <c r="G132" s="16"/>
+      <c r="H132" s="16"/>
+      <c r="I132" s="16"/>
+      <c r="J132" s="16"/>
+      <c r="K132" s="16"/>
+      <c r="L132" s="16"/>
+      <c r="M132" s="16"/>
+      <c r="N132" s="16"/>
+      <c r="O132" s="16"/>
+      <c r="P132" s="16"/>
+      <c r="Q132" s="16"/>
+      <c r="R132" s="16"/>
+      <c r="S132" s="16"/>
+      <c r="T132" s="5"/>
+    </row>
+    <row r="133" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B133" s="4"/>
+      <c r="C133" s="16"/>
+      <c r="D133" s="16"/>
+      <c r="E133" s="16"/>
+      <c r="F133" s="16"/>
+      <c r="G133" s="16"/>
+      <c r="H133" s="16"/>
+      <c r="I133" s="16"/>
+      <c r="J133" s="16"/>
+      <c r="K133" s="16"/>
+      <c r="L133" s="16"/>
+      <c r="M133" s="16"/>
+      <c r="N133" s="16"/>
+      <c r="O133" s="16"/>
+      <c r="P133" s="16"/>
+      <c r="Q133" s="16"/>
+      <c r="R133" s="16"/>
+      <c r="S133" s="16"/>
+      <c r="T133" s="5"/>
+    </row>
+    <row r="134" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B134" s="4"/>
+      <c r="C134" s="16"/>
+      <c r="D134" s="16"/>
+      <c r="E134" s="16"/>
+      <c r="F134" s="16"/>
+      <c r="G134" s="16"/>
+      <c r="H134" s="16"/>
+      <c r="I134" s="16"/>
+      <c r="J134" s="16"/>
+      <c r="K134" s="16"/>
+      <c r="L134" s="16"/>
+      <c r="M134" s="16"/>
+      <c r="N134" s="16"/>
+      <c r="O134" s="16"/>
+      <c r="P134" s="16"/>
+      <c r="Q134" s="16"/>
+      <c r="R134" s="16"/>
+      <c r="S134" s="16"/>
+      <c r="T134" s="5"/>
+    </row>
+    <row r="135" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B135" s="4"/>
+      <c r="C135" s="16"/>
+      <c r="D135" s="16"/>
+      <c r="E135" s="16"/>
+      <c r="F135" s="16"/>
+      <c r="G135" s="16"/>
+      <c r="H135" s="16"/>
+      <c r="I135" s="16"/>
+      <c r="J135" s="16"/>
+      <c r="K135" s="16"/>
+      <c r="L135" s="16"/>
+      <c r="M135" s="16"/>
+      <c r="N135" s="16"/>
+      <c r="O135" s="16"/>
+      <c r="P135" s="16"/>
+      <c r="Q135" s="16"/>
+      <c r="R135" s="16"/>
+      <c r="S135" s="16"/>
+      <c r="T135" s="5"/>
+    </row>
+    <row r="136" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B136" s="4"/>
+      <c r="C136" s="16"/>
+      <c r="D136" s="16"/>
+      <c r="E136" s="16"/>
+      <c r="F136" s="16"/>
+      <c r="G136" s="16"/>
+      <c r="H136" s="16"/>
+      <c r="I136" s="16"/>
+      <c r="J136" s="16"/>
+      <c r="K136" s="16"/>
+      <c r="L136" s="16"/>
+      <c r="M136" s="16"/>
+      <c r="N136" s="16"/>
+      <c r="O136" s="16"/>
+      <c r="P136" s="16"/>
+      <c r="Q136" s="16"/>
+      <c r="R136" s="16"/>
+      <c r="S136" s="16"/>
+      <c r="T136" s="5"/>
+    </row>
+    <row r="137" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B137" s="4"/>
+      <c r="C137" s="16"/>
+      <c r="D137" s="16"/>
+      <c r="E137" s="16"/>
+      <c r="F137" s="16"/>
+      <c r="G137" s="16"/>
+      <c r="H137" s="16"/>
+      <c r="I137" s="16"/>
+      <c r="J137" s="16"/>
+      <c r="K137" s="16"/>
+      <c r="L137" s="16"/>
+      <c r="M137" s="16"/>
+      <c r="N137" s="16"/>
+      <c r="O137" s="16"/>
+      <c r="P137" s="16"/>
+      <c r="Q137" s="16"/>
+      <c r="R137" s="16"/>
+      <c r="S137" s="16"/>
+      <c r="T137" s="5"/>
+    </row>
+    <row r="138" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B138" s="4"/>
+      <c r="C138" s="16"/>
+      <c r="D138" s="16"/>
+      <c r="E138" s="16"/>
+      <c r="F138" s="16"/>
+      <c r="G138" s="16"/>
+      <c r="H138" s="16"/>
+      <c r="I138" s="16"/>
+      <c r="J138" s="16"/>
+      <c r="K138" s="16"/>
+      <c r="L138" s="16"/>
+      <c r="M138" s="16"/>
+      <c r="N138" s="16"/>
+      <c r="O138" s="16"/>
+      <c r="P138" s="16"/>
+      <c r="Q138" s="16"/>
+      <c r="R138" s="16"/>
+      <c r="S138" s="16"/>
+      <c r="T138" s="5"/>
+    </row>
+    <row r="139" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B139" s="4"/>
+      <c r="C139" s="16"/>
+      <c r="D139" s="16"/>
+      <c r="E139" s="16"/>
+      <c r="F139" s="16"/>
+      <c r="G139" s="16"/>
+      <c r="H139" s="16"/>
+      <c r="I139" s="16"/>
+      <c r="J139" s="16"/>
+      <c r="K139" s="16"/>
+      <c r="L139" s="16"/>
+      <c r="M139" s="16"/>
+      <c r="N139" s="16"/>
+      <c r="O139" s="16"/>
+      <c r="P139" s="16"/>
+      <c r="Q139" s="16"/>
+      <c r="R139" s="16"/>
+      <c r="S139" s="16"/>
+      <c r="T139" s="5"/>
+    </row>
+    <row r="140" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B140" s="4"/>
+      <c r="C140" s="16"/>
+      <c r="D140" s="16"/>
+      <c r="E140" s="16"/>
+      <c r="F140" s="16"/>
+      <c r="G140" s="16"/>
+      <c r="H140" s="16"/>
+      <c r="I140" s="16"/>
+      <c r="J140" s="16"/>
+      <c r="K140" s="16"/>
+      <c r="L140" s="16"/>
+      <c r="M140" s="16"/>
+      <c r="N140" s="16"/>
+      <c r="O140" s="16"/>
+      <c r="P140" s="16"/>
+      <c r="Q140" s="16"/>
+      <c r="R140" s="16"/>
+      <c r="S140" s="16"/>
+      <c r="T140" s="5"/>
+    </row>
+    <row r="141" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B141" s="4"/>
+      <c r="C141" s="16"/>
+      <c r="D141" s="16"/>
+      <c r="E141" s="16"/>
+      <c r="F141" s="16"/>
+      <c r="G141" s="16"/>
+      <c r="H141" s="16"/>
+      <c r="I141" s="16"/>
+      <c r="J141" s="16"/>
+      <c r="K141" s="16"/>
+      <c r="L141" s="16"/>
+      <c r="M141" s="16"/>
+      <c r="N141" s="16"/>
+      <c r="O141" s="16"/>
+      <c r="P141" s="16"/>
+      <c r="Q141" s="16"/>
+      <c r="R141" s="16"/>
+      <c r="S141" s="16"/>
+      <c r="T141" s="5"/>
+    </row>
+    <row r="142" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B142" s="4"/>
+      <c r="C142" s="16"/>
+      <c r="D142" s="16"/>
+      <c r="E142" s="16"/>
+      <c r="F142" s="16"/>
+      <c r="G142" s="16"/>
+      <c r="H142" s="16"/>
+      <c r="I142" s="16"/>
+      <c r="J142" s="16"/>
+      <c r="K142" s="16"/>
+      <c r="L142" s="16"/>
+      <c r="M142" s="16"/>
+      <c r="N142" s="16"/>
+      <c r="O142" s="16"/>
+      <c r="P142" s="16"/>
+      <c r="Q142" s="16"/>
+      <c r="R142" s="16"/>
+      <c r="S142" s="16"/>
+      <c r="T142" s="5"/>
+    </row>
+    <row r="143" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B143" s="4"/>
+      <c r="C143" s="16"/>
+      <c r="D143" s="16"/>
+      <c r="E143" s="16"/>
+      <c r="F143" s="16"/>
+      <c r="G143" s="16"/>
+      <c r="H143" s="16"/>
+      <c r="I143" s="16"/>
+      <c r="J143" s="16"/>
+      <c r="K143" s="16"/>
+      <c r="L143" s="16"/>
+      <c r="M143" s="16"/>
+      <c r="N143" s="16"/>
+      <c r="O143" s="16"/>
+      <c r="P143" s="16"/>
+      <c r="Q143" s="16"/>
+      <c r="R143" s="16"/>
+      <c r="S143" s="16"/>
+      <c r="T143" s="5"/>
+    </row>
+    <row r="144" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B144" s="4"/>
+      <c r="C144" s="16"/>
+      <c r="D144" s="16"/>
+      <c r="E144" s="16"/>
+      <c r="F144" s="16"/>
+      <c r="G144" s="16"/>
+      <c r="H144" s="16"/>
+      <c r="I144" s="16"/>
+      <c r="J144" s="16"/>
+      <c r="K144" s="16"/>
+      <c r="L144" s="16"/>
+      <c r="M144" s="16"/>
+      <c r="N144" s="16"/>
+      <c r="O144" s="16"/>
+      <c r="P144" s="16"/>
+      <c r="Q144" s="16"/>
+      <c r="R144" s="16"/>
+      <c r="S144" s="16"/>
+      <c r="T144" s="5"/>
+    </row>
+    <row r="145" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B145" s="4"/>
+      <c r="C145" s="16"/>
+      <c r="D145" s="16"/>
+      <c r="E145" s="16"/>
+      <c r="F145" s="16"/>
+      <c r="G145" s="16"/>
+      <c r="H145" s="16"/>
+      <c r="I145" s="16"/>
+      <c r="J145" s="16"/>
+      <c r="K145" s="16"/>
+      <c r="L145" s="16"/>
+      <c r="M145" s="16"/>
+      <c r="N145" s="16"/>
+      <c r="O145" s="16"/>
+      <c r="P145" s="16"/>
+      <c r="Q145" s="16"/>
+      <c r="R145" s="16"/>
+      <c r="S145" s="16"/>
+      <c r="T145" s="5"/>
+    </row>
+    <row r="146" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B146" s="4"/>
+      <c r="C146" s="16"/>
+      <c r="D146" s="16"/>
+      <c r="E146" s="16"/>
+      <c r="F146" s="16"/>
+      <c r="G146" s="16"/>
+      <c r="H146" s="16"/>
+      <c r="I146" s="16"/>
+      <c r="J146" s="16"/>
+      <c r="K146" s="16"/>
+      <c r="L146" s="16"/>
+      <c r="M146" s="16"/>
+      <c r="N146" s="16"/>
+      <c r="O146" s="16"/>
+      <c r="P146" s="16"/>
+      <c r="Q146" s="16"/>
+      <c r="R146" s="16"/>
+      <c r="S146" s="16"/>
+      <c r="T146" s="5"/>
+    </row>
+    <row r="147" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B147" s="4"/>
+      <c r="C147" s="16"/>
+      <c r="D147" s="16"/>
+      <c r="E147" s="16"/>
+      <c r="F147" s="16"/>
+      <c r="G147" s="16"/>
+      <c r="H147" s="16"/>
+      <c r="I147" s="16"/>
+      <c r="J147" s="16"/>
+      <c r="K147" s="16"/>
+      <c r="L147" s="16"/>
+      <c r="M147" s="16"/>
+      <c r="N147" s="16"/>
+      <c r="O147" s="16"/>
+      <c r="P147" s="16"/>
+      <c r="Q147" s="16"/>
+      <c r="R147" s="16"/>
+      <c r="S147" s="16"/>
+      <c r="T147" s="5"/>
+    </row>
+    <row r="148" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B148" s="4"/>
+      <c r="C148" s="16"/>
+      <c r="D148" s="16"/>
+      <c r="E148" s="16"/>
+      <c r="F148" s="16"/>
+      <c r="G148" s="16"/>
+      <c r="H148" s="16"/>
+      <c r="I148" s="16"/>
+      <c r="J148" s="16"/>
+      <c r="K148" s="16"/>
+      <c r="L148" s="16"/>
+      <c r="M148" s="16"/>
+      <c r="N148" s="16"/>
+      <c r="O148" s="16"/>
+      <c r="P148" s="16"/>
+      <c r="Q148" s="16"/>
+      <c r="R148" s="16"/>
+      <c r="S148" s="16"/>
+      <c r="T148" s="5"/>
+    </row>
+    <row r="149" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B149" s="4"/>
+      <c r="C149" s="16"/>
+      <c r="D149" s="16"/>
+      <c r="E149" s="16"/>
+      <c r="F149" s="16"/>
+      <c r="G149" s="16"/>
+      <c r="H149" s="16"/>
+      <c r="I149" s="16"/>
+      <c r="J149" s="16"/>
+      <c r="K149" s="16"/>
+      <c r="L149" s="16"/>
+      <c r="M149" s="16"/>
+      <c r="N149" s="16"/>
+      <c r="O149" s="16"/>
+      <c r="P149" s="16"/>
+      <c r="Q149" s="16"/>
+      <c r="R149" s="16"/>
+      <c r="S149" s="16"/>
+      <c r="T149" s="5"/>
+    </row>
+    <row r="150" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B150" s="4"/>
+      <c r="C150" s="16"/>
+      <c r="D150" s="16"/>
+      <c r="E150" s="16"/>
+      <c r="F150" s="16"/>
+      <c r="G150" s="16"/>
+      <c r="H150" s="16"/>
+      <c r="I150" s="16"/>
+      <c r="J150" s="16"/>
+      <c r="K150" s="16"/>
+      <c r="L150" s="16"/>
+      <c r="M150" s="16"/>
+      <c r="N150" s="16"/>
+      <c r="O150" s="16"/>
+      <c r="P150" s="16"/>
+      <c r="Q150" s="16"/>
+      <c r="R150" s="16"/>
+      <c r="S150" s="16"/>
+      <c r="T150" s="5"/>
+    </row>
+    <row r="151" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B151" s="4"/>
+      <c r="C151" s="16"/>
+      <c r="D151" s="16"/>
+      <c r="E151" s="16"/>
+      <c r="F151" s="16"/>
+      <c r="G151" s="16"/>
+      <c r="H151" s="16"/>
+      <c r="I151" s="16"/>
+      <c r="J151" s="16"/>
+      <c r="K151" s="16"/>
+      <c r="L151" s="16"/>
+      <c r="M151" s="16"/>
+      <c r="N151" s="16"/>
+      <c r="O151" s="16"/>
+      <c r="P151" s="16"/>
+      <c r="Q151" s="16"/>
+      <c r="R151" s="16"/>
+      <c r="S151" s="16"/>
+      <c r="T151" s="5"/>
+    </row>
+    <row r="152" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B152" s="4"/>
+      <c r="C152" s="16"/>
+      <c r="D152" s="16"/>
+      <c r="E152" s="16"/>
+      <c r="F152" s="16"/>
+      <c r="G152" s="16"/>
+      <c r="H152" s="16"/>
+      <c r="I152" s="16"/>
+      <c r="J152" s="16"/>
+      <c r="K152" s="16"/>
+      <c r="L152" s="16"/>
+      <c r="M152" s="16"/>
+      <c r="N152" s="16"/>
+      <c r="O152" s="16"/>
+      <c r="P152" s="16"/>
+      <c r="Q152" s="16"/>
+      <c r="R152" s="16"/>
+      <c r="S152" s="16"/>
+      <c r="T152" s="5"/>
+    </row>
+    <row r="153" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B153" s="4"/>
+      <c r="C153" s="16"/>
+      <c r="D153" s="16"/>
+      <c r="E153" s="16"/>
+      <c r="F153" s="16"/>
+      <c r="G153" s="16"/>
+      <c r="H153" s="16"/>
+      <c r="I153" s="16"/>
+      <c r="J153" s="16"/>
+      <c r="K153" s="16"/>
+      <c r="L153" s="16"/>
+      <c r="M153" s="16"/>
+      <c r="N153" s="16"/>
+      <c r="O153" s="16"/>
+      <c r="P153" s="16"/>
+      <c r="Q153" s="16"/>
+      <c r="R153" s="16"/>
+      <c r="S153" s="16"/>
+      <c r="T153" s="5"/>
+    </row>
+    <row r="154" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B154" s="4"/>
+      <c r="C154" s="16"/>
+      <c r="D154" s="16"/>
+      <c r="E154" s="16"/>
+      <c r="F154" s="16"/>
+      <c r="G154" s="16"/>
+      <c r="H154" s="16"/>
+      <c r="I154" s="16"/>
+      <c r="J154" s="16"/>
+      <c r="K154" s="16"/>
+      <c r="L154" s="16"/>
+      <c r="M154" s="16"/>
+      <c r="N154" s="16"/>
+      <c r="O154" s="16"/>
+      <c r="P154" s="16"/>
+      <c r="Q154" s="16"/>
+      <c r="R154" s="16"/>
+      <c r="S154" s="16"/>
+      <c r="T154" s="5"/>
+    </row>
+    <row r="155" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B155" s="4"/>
+      <c r="C155" s="16"/>
+      <c r="D155" s="16"/>
+      <c r="E155" s="16"/>
+      <c r="F155" s="16"/>
+      <c r="G155" s="16"/>
+      <c r="H155" s="16"/>
+      <c r="I155" s="16"/>
+      <c r="J155" s="16"/>
+      <c r="K155" s="16"/>
+      <c r="L155" s="16"/>
+      <c r="M155" s="16"/>
+      <c r="N155" s="16"/>
+      <c r="O155" s="16"/>
+      <c r="P155" s="16"/>
+      <c r="Q155" s="16"/>
+      <c r="R155" s="16"/>
+      <c r="S155" s="16"/>
+      <c r="T155" s="5"/>
+    </row>
+    <row r="156" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B156" s="4"/>
+      <c r="C156" s="16"/>
+      <c r="D156" s="16"/>
+      <c r="E156" s="16"/>
+      <c r="F156" s="16"/>
+      <c r="G156" s="16"/>
+      <c r="H156" s="16"/>
+      <c r="I156" s="16"/>
+      <c r="J156" s="16"/>
+      <c r="K156" s="16"/>
+      <c r="L156" s="16"/>
+      <c r="M156" s="16"/>
+      <c r="N156" s="16"/>
+      <c r="O156" s="16"/>
+      <c r="P156" s="16"/>
+      <c r="Q156" s="16"/>
+      <c r="R156" s="16"/>
+      <c r="S156" s="16"/>
+      <c r="T156" s="5"/>
+    </row>
+    <row r="157" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B157" s="4"/>
+      <c r="C157" s="16"/>
+      <c r="D157" s="16"/>
+      <c r="E157" s="16"/>
+      <c r="F157" s="16"/>
+      <c r="G157" s="16"/>
+      <c r="H157" s="16"/>
+      <c r="I157" s="16"/>
+      <c r="J157" s="16"/>
+      <c r="K157" s="16"/>
+      <c r="L157" s="16"/>
+      <c r="M157" s="16"/>
+      <c r="N157" s="16"/>
+      <c r="O157" s="16"/>
+      <c r="P157" s="16"/>
+      <c r="Q157" s="16"/>
+      <c r="R157" s="16"/>
+      <c r="S157" s="16"/>
+      <c r="T157" s="5"/>
+    </row>
+    <row r="158" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B158" s="4"/>
+      <c r="C158" s="16"/>
+      <c r="D158" s="16"/>
+      <c r="E158" s="16"/>
+      <c r="F158" s="16"/>
+      <c r="G158" s="16"/>
+      <c r="H158" s="16"/>
+      <c r="I158" s="16"/>
+      <c r="J158" s="16"/>
+      <c r="K158" s="16"/>
+      <c r="L158" s="16"/>
+      <c r="M158" s="16"/>
+      <c r="N158" s="16"/>
+      <c r="O158" s="16"/>
+      <c r="P158" s="16"/>
+      <c r="Q158" s="16"/>
+      <c r="R158" s="16"/>
+      <c r="S158" s="16"/>
+      <c r="T158" s="5"/>
+    </row>
+    <row r="159" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B159" s="4"/>
+      <c r="C159" s="16"/>
+      <c r="D159" s="16"/>
+      <c r="E159" s="16"/>
+      <c r="F159" s="16"/>
+      <c r="G159" s="16"/>
+      <c r="H159" s="16"/>
+      <c r="I159" s="16"/>
+      <c r="J159" s="16"/>
+      <c r="K159" s="16"/>
+      <c r="L159" s="16"/>
+      <c r="M159" s="16"/>
+      <c r="N159" s="16"/>
+      <c r="O159" s="16"/>
+      <c r="P159" s="16"/>
+      <c r="Q159" s="16"/>
+      <c r="R159" s="16"/>
+      <c r="S159" s="16"/>
+      <c r="T159" s="5"/>
+    </row>
+    <row r="160" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B160" s="4"/>
+      <c r="C160" s="16"/>
+      <c r="D160" s="16"/>
+      <c r="E160" s="16"/>
+      <c r="F160" s="16"/>
+      <c r="G160" s="16"/>
+      <c r="H160" s="16"/>
+      <c r="I160" s="16"/>
+      <c r="J160" s="16"/>
+      <c r="K160" s="16"/>
+      <c r="L160" s="16"/>
+      <c r="M160" s="16"/>
+      <c r="N160" s="16"/>
+      <c r="O160" s="16"/>
+      <c r="P160" s="16"/>
+      <c r="Q160" s="16"/>
+      <c r="R160" s="16"/>
+      <c r="S160" s="16"/>
+      <c r="T160" s="5"/>
+    </row>
+    <row r="161" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B161" s="4"/>
+      <c r="C161" s="16"/>
+      <c r="D161" s="16"/>
+      <c r="E161" s="16"/>
+      <c r="F161" s="16"/>
+      <c r="G161" s="16"/>
+      <c r="H161" s="16"/>
+      <c r="I161" s="16"/>
+      <c r="J161" s="16"/>
+      <c r="K161" s="16"/>
+      <c r="L161" s="16"/>
+      <c r="M161" s="16"/>
+      <c r="N161" s="16"/>
+      <c r="O161" s="16"/>
+      <c r="P161" s="16"/>
+      <c r="Q161" s="16"/>
+      <c r="R161" s="16"/>
+      <c r="S161" s="16"/>
+      <c r="T161" s="5"/>
+    </row>
+    <row r="162" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B162" s="4"/>
+      <c r="C162" s="16"/>
+      <c r="D162" s="16"/>
+      <c r="E162" s="16"/>
+      <c r="F162" s="16"/>
+      <c r="G162" s="16"/>
+      <c r="H162" s="16"/>
+      <c r="I162" s="16"/>
+      <c r="J162" s="16"/>
+      <c r="K162" s="16"/>
+      <c r="L162" s="16"/>
+      <c r="M162" s="16"/>
+      <c r="N162" s="16"/>
+      <c r="O162" s="16"/>
+      <c r="P162" s="16"/>
+      <c r="Q162" s="16"/>
+      <c r="R162" s="16"/>
+      <c r="S162" s="16"/>
+      <c r="T162" s="5"/>
+    </row>
+    <row r="163" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B163" s="4"/>
+      <c r="C163" s="16"/>
+      <c r="D163" s="16"/>
+      <c r="E163" s="16"/>
+      <c r="F163" s="16"/>
+      <c r="G163" s="16"/>
+      <c r="H163" s="16"/>
+      <c r="I163" s="16"/>
+      <c r="J163" s="16"/>
+      <c r="K163" s="16"/>
+      <c r="L163" s="16"/>
+      <c r="M163" s="16"/>
+      <c r="N163" s="16"/>
+      <c r="O163" s="16"/>
+      <c r="P163" s="16"/>
+      <c r="Q163" s="16"/>
+      <c r="R163" s="16"/>
+      <c r="S163" s="16"/>
+      <c r="T163" s="5"/>
+    </row>
+    <row r="164" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B164" s="4"/>
+      <c r="C164" s="16"/>
+      <c r="D164" s="16"/>
+      <c r="E164" s="16"/>
+      <c r="F164" s="16"/>
+      <c r="G164" s="16"/>
+      <c r="H164" s="16"/>
+      <c r="I164" s="16"/>
+      <c r="J164" s="16"/>
+      <c r="K164" s="16"/>
+      <c r="L164" s="16"/>
+      <c r="M164" s="16"/>
+      <c r="N164" s="16"/>
+      <c r="O164" s="16"/>
+      <c r="P164" s="16"/>
+      <c r="Q164" s="16"/>
+      <c r="R164" s="16"/>
+      <c r="S164" s="16"/>
+      <c r="T164" s="5"/>
+    </row>
+    <row r="165" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B165" s="4"/>
+      <c r="C165" s="16"/>
+      <c r="D165" s="16"/>
+      <c r="E165" s="16"/>
+      <c r="F165" s="16"/>
+      <c r="G165" s="16"/>
+      <c r="H165" s="16"/>
+      <c r="I165" s="16"/>
+      <c r="J165" s="16"/>
+      <c r="K165" s="16"/>
+      <c r="L165" s="16"/>
+      <c r="M165" s="16"/>
+      <c r="N165" s="16"/>
+      <c r="O165" s="16"/>
+      <c r="P165" s="16"/>
+      <c r="Q165" s="16"/>
+      <c r="R165" s="16"/>
+      <c r="S165" s="16"/>
+      <c r="T165" s="5"/>
+    </row>
+    <row r="166" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B166" s="4"/>
+      <c r="C166" s="16"/>
+      <c r="D166" s="16"/>
+      <c r="E166" s="16"/>
+      <c r="F166" s="16"/>
+      <c r="G166" s="16"/>
+      <c r="H166" s="16"/>
+      <c r="I166" s="16"/>
+      <c r="J166" s="16"/>
+      <c r="K166" s="16"/>
+      <c r="L166" s="16"/>
+      <c r="M166" s="16"/>
+      <c r="N166" s="16"/>
+      <c r="O166" s="16"/>
+      <c r="P166" s="16"/>
+      <c r="Q166" s="16"/>
+      <c r="R166" s="16"/>
+      <c r="S166" s="16"/>
+      <c r="T166" s="5"/>
+    </row>
+    <row r="167" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B167" s="4"/>
+      <c r="C167" s="16"/>
+      <c r="D167" s="16"/>
+      <c r="E167" s="16"/>
+      <c r="F167" s="16"/>
+      <c r="G167" s="16"/>
+      <c r="H167" s="16"/>
+      <c r="I167" s="16"/>
+      <c r="J167" s="16"/>
+      <c r="K167" s="16"/>
+      <c r="L167" s="16"/>
+      <c r="M167" s="16"/>
+      <c r="N167" s="16"/>
+      <c r="O167" s="16"/>
+      <c r="P167" s="16"/>
+      <c r="Q167" s="16"/>
+      <c r="R167" s="16"/>
+      <c r="S167" s="16"/>
+      <c r="T167" s="5"/>
+    </row>
+    <row r="168" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B168" s="6"/>
+      <c r="C168" s="7"/>
+      <c r="D168" s="7"/>
+      <c r="E168" s="7"/>
+      <c r="F168" s="7"/>
+      <c r="G168" s="7"/>
+      <c r="H168" s="7"/>
+      <c r="I168" s="7"/>
+      <c r="J168" s="7"/>
+      <c r="K168" s="7"/>
+      <c r="L168" s="7"/>
+      <c r="M168" s="7"/>
+      <c r="N168" s="7"/>
+      <c r="O168" s="7"/>
+      <c r="P168" s="7"/>
+      <c r="Q168" s="7"/>
+      <c r="R168" s="7"/>
+      <c r="S168" s="7"/>
+      <c r="T168" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/me/2.Apex-Fundamentals.xlsx
+++ b/me/2.Apex-Fundamentals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\salesforce\me\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4FFC901-2D4F-42A5-9275-639C587ADF0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{619EB2F9-0C17-46C1-B308-261FB949FFA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="7" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hello World" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Set Collections Datatype" sheetId="7" r:id="rId7"/>
     <sheet name="Map Collections Datatype" sheetId="8" r:id="rId8"/>
     <sheet name="Challenge-VariablesAndDatatype" sheetId="9" r:id="rId9"/>
+    <sheet name="Constants in Apex" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="198">
   <si>
     <t>Mở Developer Console trên tab mới</t>
   </si>
@@ -687,6 +688,33 @@
   </si>
   <si>
     <t>System.debug(allPosts);</t>
+  </si>
+  <si>
+    <t>Đối với các giá trị hằng số sau khi khởi tạo giá trị cho nó  thì ko được quyền update giá trị mới cho nó</t>
+  </si>
+  <si>
+    <t>Khi báo bằng từ khóa final</t>
+  </si>
+  <si>
+    <t>10.constant-variable.txt</t>
+  </si>
+  <si>
+    <t>salesforce\2.Apex-Fundamentals\10.constant-variable.txt</t>
+  </si>
+  <si>
+    <t>// Declare Constant Variable</t>
+  </si>
+  <si>
+    <t>final Decimal PI = 3.14159;</t>
+  </si>
+  <si>
+    <t>System.debug(PI);</t>
+  </si>
+  <si>
+    <t>// update variable value - NOT ALLOWED</t>
+  </si>
+  <si>
+    <t>PI = 2.14159;</t>
   </si>
 </sst>
 </file>
@@ -723,7 +751,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -811,11 +839,91 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -838,9 +946,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1752,6 +1867,302 @@
         <a:xfrm flipV="1">
           <a:off x="2667000" y="56749950"/>
           <a:ext cx="1562100" cy="1905000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>144114</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68FBC3C8-6168-A46D-D71B-6DE61398E635}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="723900" y="5086350"/>
+          <a:ext cx="10677525" cy="3058764"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39A4944A-71F8-7CBC-FFC6-CD41BE120759}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1581150" y="4733925"/>
+          <a:ext cx="1685925" cy="1971675"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>8714</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06ECEBC5-5EBF-E0FB-5602-634FFDB6308C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="10620375"/>
+          <a:ext cx="11239500" cy="4266389"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>91914</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C170D888-9531-6994-7484-19B4AE6E7E04}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="15173325"/>
+          <a:ext cx="11191875" cy="5130639"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F01F4829-B673-17E7-A99D-454A6034C9A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6581775" y="14582775"/>
+          <a:ext cx="1219200" cy="3219450"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE857E9F-29F2-9515-4768-1B5E51862A16}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6619875" y="18802350"/>
+          <a:ext cx="390525" cy="847725"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5986,6 +6397,1988 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16C173CF-FC27-4BCA-8B8E-97F210FF7B89}">
+  <dimension ref="A2:T107"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="4"/>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="4"/>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="4"/>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="4"/>
+      <c r="D11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="4"/>
+      <c r="D12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="4"/>
+      <c r="D13" t="s">
+        <v>81</v>
+      </c>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="4"/>
+      <c r="D14" t="s">
+        <v>92</v>
+      </c>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="4"/>
+      <c r="D15" t="s">
+        <v>125</v>
+      </c>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="4"/>
+      <c r="D16" t="s">
+        <v>140</v>
+      </c>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B17" s="4"/>
+      <c r="D17" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B18" s="4"/>
+      <c r="D18" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="H18" s="5"/>
+      <c r="I18" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B19" s="6"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="8"/>
+    </row>
+    <row r="22" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="18"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="19"/>
+      <c r="R23" s="19"/>
+      <c r="S23" s="20"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="21"/>
+      <c r="B24" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
+      <c r="R24" s="17"/>
+      <c r="S24" s="22"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" s="21"/>
+      <c r="B25" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
+      <c r="R25" s="17"/>
+      <c r="S25" s="22"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" s="21"/>
+      <c r="B26" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
+      <c r="R26" s="17"/>
+      <c r="S26" s="22"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" s="21"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
+      <c r="R27" s="17"/>
+      <c r="S27" s="22"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" s="21"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
+      <c r="R28" s="17"/>
+      <c r="S28" s="22"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" s="21"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
+      <c r="R29" s="17"/>
+      <c r="S29" s="22"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" s="21"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="17"/>
+      <c r="R30" s="17"/>
+      <c r="S30" s="22"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" s="21"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
+      <c r="R31" s="17"/>
+      <c r="S31" s="22"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32" s="21"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
+      <c r="R32" s="17"/>
+      <c r="S32" s="22"/>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A33" s="21"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
+      <c r="R33" s="17"/>
+      <c r="S33" s="22"/>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A34" s="21"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
+      <c r="R34" s="17"/>
+      <c r="S34" s="22"/>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A35" s="21"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="17"/>
+      <c r="R35" s="17"/>
+      <c r="S35" s="22"/>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A36" s="21"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
+      <c r="R36" s="17"/>
+      <c r="S36" s="22"/>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A37" s="21"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
+      <c r="R37" s="17"/>
+      <c r="S37" s="22"/>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A38" s="21"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
+      <c r="R38" s="17"/>
+      <c r="S38" s="22"/>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A39" s="21"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
+      <c r="R39" s="17"/>
+      <c r="S39" s="22"/>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A40" s="21"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="17"/>
+      <c r="R40" s="17"/>
+      <c r="S40" s="22"/>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A41" s="21"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="17"/>
+      <c r="Q41" s="17"/>
+      <c r="R41" s="17"/>
+      <c r="S41" s="22"/>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A42" s="21"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17"/>
+      <c r="R42" s="17"/>
+      <c r="S42" s="22"/>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A43" s="21"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="17"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="17"/>
+      <c r="P43" s="17"/>
+      <c r="Q43" s="17"/>
+      <c r="R43" s="17"/>
+      <c r="S43" s="22"/>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A44" s="21"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="17"/>
+      <c r="J44" s="17"/>
+      <c r="K44" s="17"/>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="17"/>
+      <c r="O44" s="17"/>
+      <c r="P44" s="17"/>
+      <c r="Q44" s="17"/>
+      <c r="R44" s="17"/>
+      <c r="S44" s="22"/>
+    </row>
+    <row r="45" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="23"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="24"/>
+      <c r="I45" s="24"/>
+      <c r="J45" s="24"/>
+      <c r="K45" s="24"/>
+      <c r="L45" s="24"/>
+      <c r="M45" s="24"/>
+      <c r="N45" s="24"/>
+      <c r="O45" s="24"/>
+      <c r="P45" s="24"/>
+      <c r="Q45" s="24"/>
+      <c r="R45" s="24"/>
+      <c r="S45" s="25"/>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A46" s="17"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="17"/>
+      <c r="J46" s="17"/>
+      <c r="K46" s="17"/>
+      <c r="L46" s="17"/>
+      <c r="M46" s="17"/>
+      <c r="N46" s="17"/>
+      <c r="O46" s="17"/>
+      <c r="P46" s="17"/>
+      <c r="Q46" s="17"/>
+      <c r="R46" s="17"/>
+      <c r="S46" s="17"/>
+    </row>
+    <row r="47" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A48" s="18"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="19"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="19"/>
+      <c r="K48" s="19"/>
+      <c r="L48" s="19"/>
+      <c r="M48" s="19"/>
+      <c r="N48" s="19"/>
+      <c r="O48" s="19"/>
+      <c r="P48" s="19"/>
+      <c r="Q48" s="19"/>
+      <c r="R48" s="19"/>
+      <c r="S48" s="19"/>
+      <c r="T48" s="20"/>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A49" s="21"/>
+      <c r="B49" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="17"/>
+      <c r="I49" s="17"/>
+      <c r="J49" s="17"/>
+      <c r="K49" s="17"/>
+      <c r="L49" s="17"/>
+      <c r="M49" s="17"/>
+      <c r="N49" s="17"/>
+      <c r="O49" s="17"/>
+      <c r="P49" s="17"/>
+      <c r="Q49" s="17"/>
+      <c r="R49" s="17"/>
+      <c r="S49" s="17"/>
+      <c r="T49" s="22"/>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A50" s="21"/>
+      <c r="B50" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="17"/>
+      <c r="H50" s="17"/>
+      <c r="I50" s="17"/>
+      <c r="J50" s="17"/>
+      <c r="K50" s="17"/>
+      <c r="L50" s="17"/>
+      <c r="M50" s="17"/>
+      <c r="N50" s="17"/>
+      <c r="O50" s="17"/>
+      <c r="P50" s="17"/>
+      <c r="Q50" s="17"/>
+      <c r="R50" s="17"/>
+      <c r="S50" s="17"/>
+      <c r="T50" s="22"/>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A51" s="21"/>
+      <c r="B51" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="17"/>
+      <c r="I51" s="17"/>
+      <c r="J51" s="17"/>
+      <c r="K51" s="17"/>
+      <c r="L51" s="17"/>
+      <c r="M51" s="17"/>
+      <c r="N51" s="17"/>
+      <c r="O51" s="17"/>
+      <c r="P51" s="17"/>
+      <c r="Q51" s="17"/>
+      <c r="R51" s="17"/>
+      <c r="S51" s="17"/>
+      <c r="T51" s="22"/>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A52" s="21"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="17"/>
+      <c r="H52" s="17"/>
+      <c r="I52" s="17"/>
+      <c r="J52" s="17"/>
+      <c r="K52" s="17"/>
+      <c r="L52" s="17"/>
+      <c r="M52" s="17"/>
+      <c r="N52" s="17"/>
+      <c r="O52" s="17"/>
+      <c r="P52" s="17"/>
+      <c r="Q52" s="17"/>
+      <c r="R52" s="17"/>
+      <c r="S52" s="17"/>
+      <c r="T52" s="22"/>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A53" s="21"/>
+      <c r="B53" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C53" s="17"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="17"/>
+      <c r="H53" s="17"/>
+      <c r="I53" s="17"/>
+      <c r="J53" s="17"/>
+      <c r="K53" s="17"/>
+      <c r="L53" s="17"/>
+      <c r="M53" s="17"/>
+      <c r="N53" s="17"/>
+      <c r="O53" s="17"/>
+      <c r="P53" s="17"/>
+      <c r="Q53" s="17"/>
+      <c r="R53" s="17"/>
+      <c r="S53" s="17"/>
+      <c r="T53" s="22"/>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A54" s="21"/>
+      <c r="B54" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C54" s="17"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="17"/>
+      <c r="H54" s="17"/>
+      <c r="I54" s="17"/>
+      <c r="J54" s="17"/>
+      <c r="K54" s="17"/>
+      <c r="L54" s="17"/>
+      <c r="M54" s="17"/>
+      <c r="N54" s="17"/>
+      <c r="O54" s="17"/>
+      <c r="P54" s="17"/>
+      <c r="Q54" s="17"/>
+      <c r="R54" s="17"/>
+      <c r="S54" s="17"/>
+      <c r="T54" s="22"/>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A55" s="21"/>
+      <c r="B55" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="17"/>
+      <c r="H55" s="17"/>
+      <c r="I55" s="17"/>
+      <c r="J55" s="17"/>
+      <c r="K55" s="17"/>
+      <c r="L55" s="17"/>
+      <c r="M55" s="17"/>
+      <c r="N55" s="17"/>
+      <c r="O55" s="17"/>
+      <c r="P55" s="17"/>
+      <c r="Q55" s="17"/>
+      <c r="R55" s="17"/>
+      <c r="S55" s="17"/>
+      <c r="T55" s="22"/>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A56" s="21"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="17"/>
+      <c r="G56" s="17"/>
+      <c r="H56" s="17"/>
+      <c r="I56" s="17"/>
+      <c r="J56" s="17"/>
+      <c r="K56" s="17"/>
+      <c r="L56" s="17"/>
+      <c r="M56" s="17"/>
+      <c r="N56" s="17"/>
+      <c r="O56" s="17"/>
+      <c r="P56" s="17"/>
+      <c r="Q56" s="17"/>
+      <c r="R56" s="17"/>
+      <c r="S56" s="17"/>
+      <c r="T56" s="22"/>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A57" s="21"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="17"/>
+      <c r="H57" s="17"/>
+      <c r="I57" s="17"/>
+      <c r="J57" s="17"/>
+      <c r="K57" s="17"/>
+      <c r="L57" s="17"/>
+      <c r="M57" s="17"/>
+      <c r="N57" s="17"/>
+      <c r="O57" s="17"/>
+      <c r="P57" s="17"/>
+      <c r="Q57" s="17"/>
+      <c r="R57" s="17"/>
+      <c r="S57" s="17"/>
+      <c r="T57" s="22"/>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A58" s="21"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="17"/>
+      <c r="H58" s="17"/>
+      <c r="I58" s="17"/>
+      <c r="J58" s="17"/>
+      <c r="K58" s="17"/>
+      <c r="L58" s="17"/>
+      <c r="M58" s="17"/>
+      <c r="N58" s="17"/>
+      <c r="O58" s="17"/>
+      <c r="P58" s="17"/>
+      <c r="Q58" s="17"/>
+      <c r="R58" s="17"/>
+      <c r="S58" s="17"/>
+      <c r="T58" s="22"/>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A59" s="21"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="17"/>
+      <c r="G59" s="17"/>
+      <c r="H59" s="17"/>
+      <c r="I59" s="17"/>
+      <c r="J59" s="17"/>
+      <c r="K59" s="17"/>
+      <c r="L59" s="17"/>
+      <c r="M59" s="17"/>
+      <c r="N59" s="17"/>
+      <c r="O59" s="17"/>
+      <c r="P59" s="17"/>
+      <c r="Q59" s="17"/>
+      <c r="R59" s="17"/>
+      <c r="S59" s="17"/>
+      <c r="T59" s="22"/>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A60" s="21"/>
+      <c r="B60" s="17"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="17"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="17"/>
+      <c r="G60" s="17"/>
+      <c r="H60" s="17"/>
+      <c r="I60" s="17"/>
+      <c r="J60" s="17"/>
+      <c r="K60" s="17"/>
+      <c r="L60" s="17"/>
+      <c r="M60" s="17"/>
+      <c r="N60" s="17"/>
+      <c r="O60" s="17"/>
+      <c r="P60" s="17"/>
+      <c r="Q60" s="17"/>
+      <c r="R60" s="17"/>
+      <c r="S60" s="17"/>
+      <c r="T60" s="22"/>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A61" s="21"/>
+      <c r="B61" s="17"/>
+      <c r="C61" s="17"/>
+      <c r="D61" s="17"/>
+      <c r="E61" s="17"/>
+      <c r="F61" s="17"/>
+      <c r="G61" s="17"/>
+      <c r="H61" s="17"/>
+      <c r="I61" s="17"/>
+      <c r="J61" s="17"/>
+      <c r="K61" s="17"/>
+      <c r="L61" s="17"/>
+      <c r="M61" s="17"/>
+      <c r="N61" s="17"/>
+      <c r="O61" s="17"/>
+      <c r="P61" s="17"/>
+      <c r="Q61" s="17"/>
+      <c r="R61" s="17"/>
+      <c r="S61" s="17"/>
+      <c r="T61" s="22"/>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A62" s="21"/>
+      <c r="B62" s="17"/>
+      <c r="C62" s="17"/>
+      <c r="D62" s="17"/>
+      <c r="E62" s="17"/>
+      <c r="F62" s="17"/>
+      <c r="G62" s="17"/>
+      <c r="H62" s="17"/>
+      <c r="I62" s="17"/>
+      <c r="J62" s="17"/>
+      <c r="K62" s="17"/>
+      <c r="L62" s="17"/>
+      <c r="M62" s="17"/>
+      <c r="N62" s="17"/>
+      <c r="O62" s="17"/>
+      <c r="P62" s="17"/>
+      <c r="Q62" s="17"/>
+      <c r="R62" s="17"/>
+      <c r="S62" s="17"/>
+      <c r="T62" s="22"/>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A63" s="21"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="17"/>
+      <c r="D63" s="17"/>
+      <c r="E63" s="17"/>
+      <c r="F63" s="17"/>
+      <c r="G63" s="17"/>
+      <c r="H63" s="17"/>
+      <c r="I63" s="17"/>
+      <c r="J63" s="17"/>
+      <c r="K63" s="17"/>
+      <c r="L63" s="17"/>
+      <c r="M63" s="17"/>
+      <c r="N63" s="17"/>
+      <c r="O63" s="17"/>
+      <c r="P63" s="17"/>
+      <c r="Q63" s="17"/>
+      <c r="R63" s="17"/>
+      <c r="S63" s="17"/>
+      <c r="T63" s="22"/>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A64" s="21"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="17"/>
+      <c r="D64" s="17"/>
+      <c r="E64" s="17"/>
+      <c r="F64" s="17"/>
+      <c r="G64" s="17"/>
+      <c r="H64" s="17"/>
+      <c r="I64" s="17"/>
+      <c r="J64" s="17"/>
+      <c r="K64" s="17"/>
+      <c r="L64" s="17"/>
+      <c r="M64" s="17"/>
+      <c r="N64" s="17"/>
+      <c r="O64" s="17"/>
+      <c r="P64" s="17"/>
+      <c r="Q64" s="17"/>
+      <c r="R64" s="17"/>
+      <c r="S64" s="17"/>
+      <c r="T64" s="22"/>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A65" s="21"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="17"/>
+      <c r="D65" s="17"/>
+      <c r="E65" s="17"/>
+      <c r="F65" s="17"/>
+      <c r="G65" s="17"/>
+      <c r="H65" s="17"/>
+      <c r="I65" s="17"/>
+      <c r="J65" s="17"/>
+      <c r="K65" s="17"/>
+      <c r="L65" s="17"/>
+      <c r="M65" s="17"/>
+      <c r="N65" s="17"/>
+      <c r="O65" s="17"/>
+      <c r="P65" s="17"/>
+      <c r="Q65" s="17"/>
+      <c r="R65" s="17"/>
+      <c r="S65" s="17"/>
+      <c r="T65" s="22"/>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A66" s="21"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="17"/>
+      <c r="D66" s="17"/>
+      <c r="E66" s="17"/>
+      <c r="F66" s="17"/>
+      <c r="G66" s="17"/>
+      <c r="H66" s="17"/>
+      <c r="I66" s="17"/>
+      <c r="J66" s="17"/>
+      <c r="K66" s="17"/>
+      <c r="L66" s="17"/>
+      <c r="M66" s="17"/>
+      <c r="N66" s="17"/>
+      <c r="O66" s="17"/>
+      <c r="P66" s="17"/>
+      <c r="Q66" s="17"/>
+      <c r="R66" s="17"/>
+      <c r="S66" s="17"/>
+      <c r="T66" s="22"/>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A67" s="21"/>
+      <c r="B67" s="17"/>
+      <c r="C67" s="17"/>
+      <c r="D67" s="17"/>
+      <c r="E67" s="17"/>
+      <c r="F67" s="17"/>
+      <c r="G67" s="17"/>
+      <c r="H67" s="17"/>
+      <c r="I67" s="17"/>
+      <c r="J67" s="17"/>
+      <c r="K67" s="17"/>
+      <c r="L67" s="17"/>
+      <c r="M67" s="17"/>
+      <c r="N67" s="17"/>
+      <c r="O67" s="17"/>
+      <c r="P67" s="17"/>
+      <c r="Q67" s="17"/>
+      <c r="R67" s="17"/>
+      <c r="S67" s="17"/>
+      <c r="T67" s="22"/>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A68" s="21"/>
+      <c r="B68" s="17"/>
+      <c r="C68" s="17"/>
+      <c r="D68" s="17"/>
+      <c r="E68" s="17"/>
+      <c r="F68" s="17"/>
+      <c r="G68" s="17"/>
+      <c r="H68" s="17"/>
+      <c r="I68" s="17"/>
+      <c r="J68" s="17"/>
+      <c r="K68" s="17"/>
+      <c r="L68" s="17"/>
+      <c r="M68" s="17"/>
+      <c r="N68" s="17"/>
+      <c r="O68" s="17"/>
+      <c r="P68" s="17"/>
+      <c r="Q68" s="17"/>
+      <c r="R68" s="17"/>
+      <c r="S68" s="17"/>
+      <c r="T68" s="22"/>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A69" s="21"/>
+      <c r="B69" s="17"/>
+      <c r="C69" s="17"/>
+      <c r="D69" s="17"/>
+      <c r="E69" s="17"/>
+      <c r="F69" s="17"/>
+      <c r="G69" s="17"/>
+      <c r="H69" s="17"/>
+      <c r="I69" s="17"/>
+      <c r="J69" s="17"/>
+      <c r="K69" s="17"/>
+      <c r="L69" s="17"/>
+      <c r="M69" s="17"/>
+      <c r="N69" s="17"/>
+      <c r="O69" s="17"/>
+      <c r="P69" s="17"/>
+      <c r="Q69" s="17"/>
+      <c r="R69" s="17"/>
+      <c r="S69" s="17"/>
+      <c r="T69" s="22"/>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A70" s="21"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="17"/>
+      <c r="D70" s="17"/>
+      <c r="E70" s="17"/>
+      <c r="F70" s="17"/>
+      <c r="G70" s="17"/>
+      <c r="H70" s="17"/>
+      <c r="I70" s="17"/>
+      <c r="J70" s="17"/>
+      <c r="K70" s="17"/>
+      <c r="L70" s="17"/>
+      <c r="M70" s="17"/>
+      <c r="N70" s="17"/>
+      <c r="O70" s="17"/>
+      <c r="P70" s="17"/>
+      <c r="Q70" s="17"/>
+      <c r="R70" s="17"/>
+      <c r="S70" s="17"/>
+      <c r="T70" s="22"/>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A71" s="21"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="17"/>
+      <c r="D71" s="17"/>
+      <c r="E71" s="17"/>
+      <c r="F71" s="17"/>
+      <c r="G71" s="17"/>
+      <c r="H71" s="17"/>
+      <c r="I71" s="17"/>
+      <c r="J71" s="17"/>
+      <c r="K71" s="17"/>
+      <c r="L71" s="17"/>
+      <c r="M71" s="17"/>
+      <c r="N71" s="17"/>
+      <c r="O71" s="17"/>
+      <c r="P71" s="17"/>
+      <c r="Q71" s="17"/>
+      <c r="R71" s="17"/>
+      <c r="S71" s="17"/>
+      <c r="T71" s="22"/>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A72" s="21"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="17"/>
+      <c r="D72" s="17"/>
+      <c r="E72" s="17"/>
+      <c r="F72" s="17"/>
+      <c r="G72" s="17"/>
+      <c r="H72" s="17"/>
+      <c r="I72" s="17"/>
+      <c r="J72" s="17"/>
+      <c r="K72" s="17"/>
+      <c r="L72" s="17"/>
+      <c r="M72" s="17"/>
+      <c r="N72" s="17"/>
+      <c r="O72" s="17"/>
+      <c r="P72" s="17"/>
+      <c r="Q72" s="17"/>
+      <c r="R72" s="17"/>
+      <c r="S72" s="17"/>
+      <c r="T72" s="22"/>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A73" s="21"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="17"/>
+      <c r="D73" s="17"/>
+      <c r="E73" s="17"/>
+      <c r="F73" s="17"/>
+      <c r="G73" s="17"/>
+      <c r="H73" s="17"/>
+      <c r="I73" s="17"/>
+      <c r="J73" s="17"/>
+      <c r="K73" s="17"/>
+      <c r="L73" s="17"/>
+      <c r="M73" s="17"/>
+      <c r="N73" s="17"/>
+      <c r="O73" s="17"/>
+      <c r="P73" s="17"/>
+      <c r="Q73" s="17"/>
+      <c r="R73" s="17"/>
+      <c r="S73" s="17"/>
+      <c r="T73" s="22"/>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A74" s="21"/>
+      <c r="B74" s="17"/>
+      <c r="C74" s="17"/>
+      <c r="D74" s="17"/>
+      <c r="E74" s="17"/>
+      <c r="F74" s="17"/>
+      <c r="G74" s="17"/>
+      <c r="H74" s="17"/>
+      <c r="I74" s="17"/>
+      <c r="J74" s="17"/>
+      <c r="K74" s="17"/>
+      <c r="L74" s="17"/>
+      <c r="M74" s="17"/>
+      <c r="N74" s="17"/>
+      <c r="O74" s="17"/>
+      <c r="P74" s="17"/>
+      <c r="Q74" s="17"/>
+      <c r="R74" s="17"/>
+      <c r="S74" s="17"/>
+      <c r="T74" s="22"/>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A75" s="21"/>
+      <c r="B75" s="17"/>
+      <c r="C75" s="17"/>
+      <c r="D75" s="17"/>
+      <c r="E75" s="17"/>
+      <c r="F75" s="17"/>
+      <c r="G75" s="17"/>
+      <c r="H75" s="17"/>
+      <c r="I75" s="17"/>
+      <c r="J75" s="17"/>
+      <c r="K75" s="17"/>
+      <c r="L75" s="17"/>
+      <c r="M75" s="17"/>
+      <c r="N75" s="17"/>
+      <c r="O75" s="17"/>
+      <c r="P75" s="17"/>
+      <c r="Q75" s="17"/>
+      <c r="R75" s="17"/>
+      <c r="S75" s="17"/>
+      <c r="T75" s="22"/>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A76" s="21"/>
+      <c r="B76" s="17"/>
+      <c r="C76" s="17"/>
+      <c r="D76" s="17"/>
+      <c r="E76" s="17"/>
+      <c r="F76" s="17"/>
+      <c r="G76" s="17"/>
+      <c r="H76" s="17"/>
+      <c r="I76" s="17"/>
+      <c r="J76" s="17"/>
+      <c r="K76" s="17"/>
+      <c r="L76" s="17"/>
+      <c r="M76" s="17"/>
+      <c r="N76" s="17"/>
+      <c r="O76" s="17"/>
+      <c r="P76" s="17"/>
+      <c r="Q76" s="17"/>
+      <c r="R76" s="17"/>
+      <c r="S76" s="17"/>
+      <c r="T76" s="22"/>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A77" s="21"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="17"/>
+      <c r="D77" s="17"/>
+      <c r="E77" s="17"/>
+      <c r="F77" s="17"/>
+      <c r="G77" s="17"/>
+      <c r="H77" s="17"/>
+      <c r="I77" s="17"/>
+      <c r="J77" s="17"/>
+      <c r="K77" s="17"/>
+      <c r="L77" s="17"/>
+      <c r="M77" s="17"/>
+      <c r="N77" s="17"/>
+      <c r="O77" s="17"/>
+      <c r="P77" s="17"/>
+      <c r="Q77" s="17"/>
+      <c r="R77" s="17"/>
+      <c r="S77" s="17"/>
+      <c r="T77" s="22"/>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A78" s="21"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="17"/>
+      <c r="D78" s="17"/>
+      <c r="E78" s="17"/>
+      <c r="F78" s="17"/>
+      <c r="G78" s="17"/>
+      <c r="H78" s="17"/>
+      <c r="I78" s="17"/>
+      <c r="J78" s="17"/>
+      <c r="K78" s="17"/>
+      <c r="L78" s="17"/>
+      <c r="M78" s="17"/>
+      <c r="N78" s="17"/>
+      <c r="O78" s="17"/>
+      <c r="P78" s="17"/>
+      <c r="Q78" s="17"/>
+      <c r="R78" s="17"/>
+      <c r="S78" s="17"/>
+      <c r="T78" s="22"/>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A79" s="21"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="17"/>
+      <c r="D79" s="17"/>
+      <c r="E79" s="17"/>
+      <c r="F79" s="17"/>
+      <c r="G79" s="17"/>
+      <c r="H79" s="17"/>
+      <c r="I79" s="17"/>
+      <c r="J79" s="17"/>
+      <c r="K79" s="17"/>
+      <c r="L79" s="17"/>
+      <c r="M79" s="17"/>
+      <c r="N79" s="17"/>
+      <c r="O79" s="17"/>
+      <c r="P79" s="17"/>
+      <c r="Q79" s="17"/>
+      <c r="R79" s="17"/>
+      <c r="S79" s="17"/>
+      <c r="T79" s="22"/>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A80" s="21"/>
+      <c r="B80" s="17"/>
+      <c r="C80" s="17"/>
+      <c r="D80" s="17"/>
+      <c r="E80" s="17"/>
+      <c r="F80" s="17"/>
+      <c r="G80" s="17"/>
+      <c r="H80" s="17"/>
+      <c r="I80" s="17"/>
+      <c r="J80" s="17"/>
+      <c r="K80" s="17"/>
+      <c r="L80" s="17"/>
+      <c r="M80" s="17"/>
+      <c r="N80" s="17"/>
+      <c r="O80" s="17"/>
+      <c r="P80" s="17"/>
+      <c r="Q80" s="17"/>
+      <c r="R80" s="17"/>
+      <c r="S80" s="17"/>
+      <c r="T80" s="22"/>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A81" s="21"/>
+      <c r="B81" s="17"/>
+      <c r="C81" s="17"/>
+      <c r="D81" s="17"/>
+      <c r="E81" s="17"/>
+      <c r="F81" s="17"/>
+      <c r="G81" s="17"/>
+      <c r="H81" s="17"/>
+      <c r="I81" s="17"/>
+      <c r="J81" s="17"/>
+      <c r="K81" s="17"/>
+      <c r="L81" s="17"/>
+      <c r="M81" s="17"/>
+      <c r="N81" s="17"/>
+      <c r="O81" s="17"/>
+      <c r="P81" s="17"/>
+      <c r="Q81" s="17"/>
+      <c r="R81" s="17"/>
+      <c r="S81" s="17"/>
+      <c r="T81" s="22"/>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A82" s="21"/>
+      <c r="B82" s="17"/>
+      <c r="C82" s="17"/>
+      <c r="D82" s="17"/>
+      <c r="E82" s="17"/>
+      <c r="F82" s="17"/>
+      <c r="G82" s="17"/>
+      <c r="H82" s="17"/>
+      <c r="I82" s="17"/>
+      <c r="J82" s="17"/>
+      <c r="K82" s="17"/>
+      <c r="L82" s="17"/>
+      <c r="M82" s="17"/>
+      <c r="N82" s="17"/>
+      <c r="O82" s="17"/>
+      <c r="P82" s="17"/>
+      <c r="Q82" s="17"/>
+      <c r="R82" s="17"/>
+      <c r="S82" s="17"/>
+      <c r="T82" s="22"/>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A83" s="21"/>
+      <c r="B83" s="17"/>
+      <c r="C83" s="17"/>
+      <c r="D83" s="17"/>
+      <c r="E83" s="17"/>
+      <c r="F83" s="17"/>
+      <c r="G83" s="17"/>
+      <c r="H83" s="17"/>
+      <c r="I83" s="17"/>
+      <c r="J83" s="17"/>
+      <c r="K83" s="17"/>
+      <c r="L83" s="17"/>
+      <c r="M83" s="17"/>
+      <c r="N83" s="17"/>
+      <c r="O83" s="17"/>
+      <c r="P83" s="17"/>
+      <c r="Q83" s="17"/>
+      <c r="R83" s="17"/>
+      <c r="S83" s="17"/>
+      <c r="T83" s="22"/>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A84" s="21"/>
+      <c r="B84" s="17"/>
+      <c r="C84" s="17"/>
+      <c r="D84" s="17"/>
+      <c r="E84" s="17"/>
+      <c r="F84" s="17"/>
+      <c r="G84" s="17"/>
+      <c r="H84" s="17"/>
+      <c r="I84" s="17"/>
+      <c r="J84" s="17"/>
+      <c r="K84" s="17"/>
+      <c r="L84" s="17"/>
+      <c r="M84" s="17"/>
+      <c r="N84" s="17"/>
+      <c r="O84" s="17"/>
+      <c r="P84" s="17"/>
+      <c r="Q84" s="17"/>
+      <c r="R84" s="17"/>
+      <c r="S84" s="17"/>
+      <c r="T84" s="22"/>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A85" s="21"/>
+      <c r="B85" s="17"/>
+      <c r="C85" s="17"/>
+      <c r="D85" s="17"/>
+      <c r="E85" s="17"/>
+      <c r="F85" s="17"/>
+      <c r="G85" s="17"/>
+      <c r="H85" s="17"/>
+      <c r="I85" s="17"/>
+      <c r="J85" s="17"/>
+      <c r="K85" s="17"/>
+      <c r="L85" s="17"/>
+      <c r="M85" s="17"/>
+      <c r="N85" s="17"/>
+      <c r="O85" s="17"/>
+      <c r="P85" s="17"/>
+      <c r="Q85" s="17"/>
+      <c r="R85" s="17"/>
+      <c r="S85" s="17"/>
+      <c r="T85" s="22"/>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A86" s="21"/>
+      <c r="B86" s="17"/>
+      <c r="C86" s="17"/>
+      <c r="D86" s="17"/>
+      <c r="E86" s="17"/>
+      <c r="F86" s="17"/>
+      <c r="G86" s="17"/>
+      <c r="H86" s="17"/>
+      <c r="I86" s="17"/>
+      <c r="J86" s="17"/>
+      <c r="K86" s="17"/>
+      <c r="L86" s="17"/>
+      <c r="M86" s="17"/>
+      <c r="N86" s="17"/>
+      <c r="O86" s="17"/>
+      <c r="P86" s="17"/>
+      <c r="Q86" s="17"/>
+      <c r="R86" s="17"/>
+      <c r="S86" s="17"/>
+      <c r="T86" s="22"/>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A87" s="21"/>
+      <c r="B87" s="17"/>
+      <c r="C87" s="17"/>
+      <c r="D87" s="17"/>
+      <c r="E87" s="17"/>
+      <c r="F87" s="17"/>
+      <c r="G87" s="17"/>
+      <c r="H87" s="17"/>
+      <c r="I87" s="17"/>
+      <c r="J87" s="17"/>
+      <c r="K87" s="17"/>
+      <c r="L87" s="17"/>
+      <c r="M87" s="17"/>
+      <c r="N87" s="17"/>
+      <c r="O87" s="17"/>
+      <c r="P87" s="17"/>
+      <c r="Q87" s="17"/>
+      <c r="R87" s="17"/>
+      <c r="S87" s="17"/>
+      <c r="T87" s="22"/>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A88" s="21"/>
+      <c r="B88" s="17"/>
+      <c r="C88" s="17"/>
+      <c r="D88" s="17"/>
+      <c r="E88" s="17"/>
+      <c r="F88" s="17"/>
+      <c r="G88" s="17"/>
+      <c r="H88" s="17"/>
+      <c r="I88" s="17"/>
+      <c r="J88" s="17"/>
+      <c r="K88" s="17"/>
+      <c r="L88" s="17"/>
+      <c r="M88" s="17"/>
+      <c r="N88" s="17"/>
+      <c r="O88" s="17"/>
+      <c r="P88" s="17"/>
+      <c r="Q88" s="17"/>
+      <c r="R88" s="17"/>
+      <c r="S88" s="17"/>
+      <c r="T88" s="22"/>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A89" s="21"/>
+      <c r="B89" s="17"/>
+      <c r="C89" s="17"/>
+      <c r="D89" s="17"/>
+      <c r="E89" s="17"/>
+      <c r="F89" s="17"/>
+      <c r="G89" s="17"/>
+      <c r="H89" s="17"/>
+      <c r="I89" s="17"/>
+      <c r="J89" s="17"/>
+      <c r="K89" s="17"/>
+      <c r="L89" s="17"/>
+      <c r="M89" s="17"/>
+      <c r="N89" s="17"/>
+      <c r="O89" s="17"/>
+      <c r="P89" s="17"/>
+      <c r="Q89" s="17"/>
+      <c r="R89" s="17"/>
+      <c r="S89" s="17"/>
+      <c r="T89" s="22"/>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A90" s="21"/>
+      <c r="B90" s="17"/>
+      <c r="C90" s="17"/>
+      <c r="D90" s="17"/>
+      <c r="E90" s="17"/>
+      <c r="F90" s="17"/>
+      <c r="G90" s="17"/>
+      <c r="H90" s="17"/>
+      <c r="I90" s="17"/>
+      <c r="J90" s="17"/>
+      <c r="K90" s="17"/>
+      <c r="L90" s="17"/>
+      <c r="M90" s="17"/>
+      <c r="N90" s="17"/>
+      <c r="O90" s="17"/>
+      <c r="P90" s="17"/>
+      <c r="Q90" s="17"/>
+      <c r="R90" s="17"/>
+      <c r="S90" s="17"/>
+      <c r="T90" s="22"/>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A91" s="21"/>
+      <c r="B91" s="17"/>
+      <c r="C91" s="17"/>
+      <c r="D91" s="17"/>
+      <c r="E91" s="17"/>
+      <c r="F91" s="17"/>
+      <c r="G91" s="17"/>
+      <c r="H91" s="17"/>
+      <c r="I91" s="17"/>
+      <c r="J91" s="17"/>
+      <c r="K91" s="17"/>
+      <c r="L91" s="17"/>
+      <c r="M91" s="17"/>
+      <c r="N91" s="17"/>
+      <c r="O91" s="17"/>
+      <c r="P91" s="17"/>
+      <c r="Q91" s="17"/>
+      <c r="R91" s="17"/>
+      <c r="S91" s="17"/>
+      <c r="T91" s="22"/>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A92" s="21"/>
+      <c r="B92" s="17"/>
+      <c r="C92" s="17"/>
+      <c r="D92" s="17"/>
+      <c r="E92" s="17"/>
+      <c r="F92" s="17"/>
+      <c r="G92" s="17"/>
+      <c r="H92" s="17"/>
+      <c r="I92" s="17"/>
+      <c r="J92" s="17"/>
+      <c r="K92" s="17"/>
+      <c r="L92" s="17"/>
+      <c r="M92" s="17"/>
+      <c r="N92" s="17"/>
+      <c r="O92" s="17"/>
+      <c r="P92" s="17"/>
+      <c r="Q92" s="17"/>
+      <c r="R92" s="17"/>
+      <c r="S92" s="17"/>
+      <c r="T92" s="22"/>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A93" s="21"/>
+      <c r="B93" s="17"/>
+      <c r="C93" s="17"/>
+      <c r="D93" s="17"/>
+      <c r="E93" s="17"/>
+      <c r="F93" s="17"/>
+      <c r="G93" s="17"/>
+      <c r="H93" s="17"/>
+      <c r="I93" s="17"/>
+      <c r="J93" s="17"/>
+      <c r="K93" s="17"/>
+      <c r="L93" s="17"/>
+      <c r="M93" s="17"/>
+      <c r="N93" s="17"/>
+      <c r="O93" s="17"/>
+      <c r="P93" s="17"/>
+      <c r="Q93" s="17"/>
+      <c r="R93" s="17"/>
+      <c r="S93" s="17"/>
+      <c r="T93" s="22"/>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A94" s="21"/>
+      <c r="B94" s="17"/>
+      <c r="C94" s="17"/>
+      <c r="D94" s="17"/>
+      <c r="E94" s="17"/>
+      <c r="F94" s="17"/>
+      <c r="G94" s="17"/>
+      <c r="H94" s="17"/>
+      <c r="I94" s="17"/>
+      <c r="J94" s="17"/>
+      <c r="K94" s="17"/>
+      <c r="L94" s="17"/>
+      <c r="M94" s="17"/>
+      <c r="N94" s="17"/>
+      <c r="O94" s="17"/>
+      <c r="P94" s="17"/>
+      <c r="Q94" s="17"/>
+      <c r="R94" s="17"/>
+      <c r="S94" s="17"/>
+      <c r="T94" s="22"/>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A95" s="21"/>
+      <c r="B95" s="17"/>
+      <c r="C95" s="17"/>
+      <c r="D95" s="17"/>
+      <c r="E95" s="17"/>
+      <c r="F95" s="17"/>
+      <c r="G95" s="17"/>
+      <c r="H95" s="17"/>
+      <c r="I95" s="17"/>
+      <c r="J95" s="17"/>
+      <c r="K95" s="17"/>
+      <c r="L95" s="17"/>
+      <c r="M95" s="17"/>
+      <c r="N95" s="17"/>
+      <c r="O95" s="17"/>
+      <c r="P95" s="17"/>
+      <c r="Q95" s="17"/>
+      <c r="R95" s="17"/>
+      <c r="S95" s="17"/>
+      <c r="T95" s="22"/>
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A96" s="21"/>
+      <c r="B96" s="17"/>
+      <c r="C96" s="17"/>
+      <c r="D96" s="17"/>
+      <c r="E96" s="17"/>
+      <c r="F96" s="17"/>
+      <c r="G96" s="17"/>
+      <c r="H96" s="17"/>
+      <c r="I96" s="17"/>
+      <c r="J96" s="17"/>
+      <c r="K96" s="17"/>
+      <c r="L96" s="17"/>
+      <c r="M96" s="17"/>
+      <c r="N96" s="17"/>
+      <c r="O96" s="17"/>
+      <c r="P96" s="17"/>
+      <c r="Q96" s="17"/>
+      <c r="R96" s="17"/>
+      <c r="S96" s="17"/>
+      <c r="T96" s="22"/>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A97" s="21"/>
+      <c r="B97" s="17"/>
+      <c r="C97" s="17"/>
+      <c r="D97" s="17"/>
+      <c r="E97" s="17"/>
+      <c r="F97" s="17"/>
+      <c r="G97" s="17"/>
+      <c r="H97" s="17"/>
+      <c r="I97" s="17"/>
+      <c r="J97" s="17"/>
+      <c r="K97" s="17"/>
+      <c r="L97" s="17"/>
+      <c r="M97" s="17"/>
+      <c r="N97" s="17"/>
+      <c r="O97" s="17"/>
+      <c r="P97" s="17"/>
+      <c r="Q97" s="17"/>
+      <c r="R97" s="17"/>
+      <c r="S97" s="17"/>
+      <c r="T97" s="22"/>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A98" s="21"/>
+      <c r="B98" s="17"/>
+      <c r="C98" s="17"/>
+      <c r="D98" s="17"/>
+      <c r="E98" s="17"/>
+      <c r="F98" s="17"/>
+      <c r="G98" s="17"/>
+      <c r="H98" s="17"/>
+      <c r="I98" s="17"/>
+      <c r="J98" s="17"/>
+      <c r="K98" s="17"/>
+      <c r="L98" s="17"/>
+      <c r="M98" s="17"/>
+      <c r="N98" s="17"/>
+      <c r="O98" s="17"/>
+      <c r="P98" s="17"/>
+      <c r="Q98" s="17"/>
+      <c r="R98" s="17"/>
+      <c r="S98" s="17"/>
+      <c r="T98" s="22"/>
+    </row>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A99" s="21"/>
+      <c r="B99" s="17"/>
+      <c r="C99" s="17"/>
+      <c r="D99" s="17"/>
+      <c r="E99" s="17"/>
+      <c r="F99" s="17"/>
+      <c r="G99" s="17"/>
+      <c r="H99" s="17"/>
+      <c r="I99" s="17"/>
+      <c r="J99" s="17"/>
+      <c r="K99" s="17"/>
+      <c r="L99" s="17"/>
+      <c r="M99" s="17"/>
+      <c r="N99" s="17"/>
+      <c r="O99" s="17"/>
+      <c r="P99" s="17"/>
+      <c r="Q99" s="17"/>
+      <c r="R99" s="17"/>
+      <c r="S99" s="17"/>
+      <c r="T99" s="22"/>
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A100" s="21"/>
+      <c r="B100" s="17"/>
+      <c r="C100" s="17"/>
+      <c r="D100" s="17"/>
+      <c r="E100" s="17"/>
+      <c r="F100" s="17"/>
+      <c r="G100" s="17"/>
+      <c r="H100" s="17"/>
+      <c r="I100" s="17"/>
+      <c r="J100" s="17"/>
+      <c r="K100" s="17"/>
+      <c r="L100" s="17"/>
+      <c r="M100" s="17"/>
+      <c r="N100" s="17"/>
+      <c r="O100" s="17"/>
+      <c r="P100" s="17"/>
+      <c r="Q100" s="17"/>
+      <c r="R100" s="17"/>
+      <c r="S100" s="17"/>
+      <c r="T100" s="22"/>
+    </row>
+    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A101" s="21"/>
+      <c r="B101" s="17"/>
+      <c r="C101" s="17"/>
+      <c r="D101" s="17"/>
+      <c r="E101" s="17"/>
+      <c r="F101" s="17"/>
+      <c r="G101" s="17"/>
+      <c r="H101" s="17"/>
+      <c r="I101" s="17"/>
+      <c r="J101" s="17"/>
+      <c r="K101" s="17"/>
+      <c r="L101" s="17"/>
+      <c r="M101" s="17"/>
+      <c r="N101" s="17"/>
+      <c r="O101" s="17"/>
+      <c r="P101" s="17"/>
+      <c r="Q101" s="17"/>
+      <c r="R101" s="17"/>
+      <c r="S101" s="17"/>
+      <c r="T101" s="22"/>
+    </row>
+    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A102" s="21"/>
+      <c r="B102" s="17"/>
+      <c r="C102" s="17"/>
+      <c r="D102" s="17"/>
+      <c r="E102" s="17"/>
+      <c r="F102" s="17"/>
+      <c r="G102" s="17"/>
+      <c r="H102" s="17"/>
+      <c r="I102" s="17"/>
+      <c r="J102" s="17"/>
+      <c r="K102" s="17"/>
+      <c r="L102" s="17"/>
+      <c r="M102" s="17"/>
+      <c r="N102" s="17"/>
+      <c r="O102" s="17"/>
+      <c r="P102" s="17"/>
+      <c r="Q102" s="17"/>
+      <c r="R102" s="17"/>
+      <c r="S102" s="17"/>
+      <c r="T102" s="22"/>
+    </row>
+    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A103" s="21"/>
+      <c r="B103" s="17"/>
+      <c r="C103" s="17"/>
+      <c r="D103" s="17"/>
+      <c r="E103" s="17"/>
+      <c r="F103" s="17"/>
+      <c r="G103" s="17"/>
+      <c r="H103" s="17"/>
+      <c r="I103" s="17"/>
+      <c r="J103" s="17"/>
+      <c r="K103" s="17"/>
+      <c r="L103" s="17"/>
+      <c r="M103" s="17"/>
+      <c r="N103" s="17"/>
+      <c r="O103" s="17"/>
+      <c r="P103" s="17"/>
+      <c r="Q103" s="17"/>
+      <c r="R103" s="17"/>
+      <c r="S103" s="17"/>
+      <c r="T103" s="22"/>
+    </row>
+    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A104" s="21"/>
+      <c r="B104" s="17"/>
+      <c r="C104" s="17"/>
+      <c r="D104" s="17"/>
+      <c r="E104" s="17"/>
+      <c r="F104" s="17"/>
+      <c r="G104" s="17"/>
+      <c r="H104" s="17"/>
+      <c r="I104" s="17"/>
+      <c r="J104" s="17"/>
+      <c r="K104" s="17"/>
+      <c r="L104" s="17"/>
+      <c r="M104" s="17"/>
+      <c r="N104" s="17"/>
+      <c r="O104" s="17"/>
+      <c r="P104" s="17"/>
+      <c r="Q104" s="17"/>
+      <c r="R104" s="17"/>
+      <c r="S104" s="17"/>
+      <c r="T104" s="22"/>
+    </row>
+    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A105" s="21"/>
+      <c r="B105" s="17"/>
+      <c r="C105" s="17"/>
+      <c r="D105" s="17"/>
+      <c r="E105" s="17"/>
+      <c r="F105" s="17"/>
+      <c r="G105" s="17"/>
+      <c r="H105" s="17"/>
+      <c r="I105" s="17"/>
+      <c r="J105" s="17"/>
+      <c r="K105" s="17"/>
+      <c r="L105" s="17"/>
+      <c r="M105" s="17"/>
+      <c r="N105" s="17"/>
+      <c r="O105" s="17"/>
+      <c r="P105" s="17"/>
+      <c r="Q105" s="17"/>
+      <c r="R105" s="17"/>
+      <c r="S105" s="17"/>
+      <c r="T105" s="22"/>
+    </row>
+    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A106" s="21"/>
+      <c r="B106" s="17"/>
+      <c r="C106" s="17"/>
+      <c r="D106" s="17"/>
+      <c r="E106" s="17"/>
+      <c r="F106" s="17"/>
+      <c r="G106" s="17"/>
+      <c r="H106" s="17"/>
+      <c r="I106" s="17"/>
+      <c r="J106" s="17"/>
+      <c r="K106" s="17"/>
+      <c r="L106" s="17"/>
+      <c r="M106" s="17"/>
+      <c r="N106" s="17"/>
+      <c r="O106" s="17"/>
+      <c r="P106" s="17"/>
+      <c r="Q106" s="17"/>
+      <c r="R106" s="17"/>
+      <c r="S106" s="17"/>
+      <c r="T106" s="22"/>
+    </row>
+    <row r="107" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="23"/>
+      <c r="B107" s="24"/>
+      <c r="C107" s="24"/>
+      <c r="D107" s="24"/>
+      <c r="E107" s="24"/>
+      <c r="F107" s="24"/>
+      <c r="G107" s="24"/>
+      <c r="H107" s="24"/>
+      <c r="I107" s="24"/>
+      <c r="J107" s="24"/>
+      <c r="K107" s="24"/>
+      <c r="L107" s="24"/>
+      <c r="M107" s="24"/>
+      <c r="N107" s="24"/>
+      <c r="O107" s="24"/>
+      <c r="P107" s="24"/>
+      <c r="Q107" s="24"/>
+      <c r="R107" s="24"/>
+      <c r="S107" s="24"/>
+      <c r="T107" s="25"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82B92C1D-F078-402F-9CBE-00A6C09FD094}">
   <dimension ref="A2:T181"/>
@@ -9872,8 +12265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EFEF962-5E18-46D8-84DA-95507988CE6A}">
   <dimension ref="A3:T168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
-      <selection activeCell="A159" sqref="A159"/>
+    <sheetView topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="K85" sqref="K85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9903,1514 +12296,290 @@
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B4" s="4"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16"/>
       <c r="T4" s="5"/>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B5" s="4"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="16"/>
       <c r="T5" s="5"/>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B6" s="4"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="16"/>
       <c r="T6" s="5"/>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B7" s="4"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="16"/>
       <c r="T7" s="5"/>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B8" s="4"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="16"/>
       <c r="T8" s="5"/>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="16"/>
-      <c r="S9" s="16"/>
       <c r="T9" s="5"/>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="16"/>
-      <c r="S10" s="16"/>
       <c r="T10" s="5"/>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B11" s="4"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="16"/>
-      <c r="S11" s="16"/>
       <c r="T11" s="5"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B12" s="4"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="16"/>
-      <c r="S12" s="16"/>
       <c r="T12" s="5"/>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B13" s="4"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="16"/>
-      <c r="S13" s="16"/>
       <c r="T13" s="5"/>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B14" s="4"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="16"/>
-      <c r="R14" s="16"/>
-      <c r="S14" s="16"/>
       <c r="T14" s="5"/>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B15" s="4"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="16"/>
-      <c r="S15" s="16"/>
       <c r="T15" s="5"/>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B16" s="4"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="16"/>
-      <c r="R16" s="16"/>
-      <c r="S16" s="16"/>
       <c r="T16" s="5"/>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B17" s="4"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="16"/>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="16"/>
-      <c r="R17" s="16"/>
-      <c r="S17" s="16"/>
       <c r="T17" s="5"/>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B18" s="4"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="16"/>
-      <c r="R18" s="16"/>
-      <c r="S18" s="16"/>
       <c r="T18" s="5"/>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B19" s="4"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="16"/>
-      <c r="R19" s="16"/>
-      <c r="S19" s="16"/>
       <c r="T19" s="5"/>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B20" s="4"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="16"/>
-      <c r="R20" s="16"/>
-      <c r="S20" s="16"/>
       <c r="T20" s="5"/>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B21" s="4"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="16"/>
-      <c r="P21" s="16"/>
-      <c r="Q21" s="16"/>
-      <c r="R21" s="16"/>
-      <c r="S21" s="16"/>
       <c r="T21" s="5"/>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B22" s="4"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="16"/>
-      <c r="O22" s="16"/>
-      <c r="P22" s="16"/>
-      <c r="Q22" s="16"/>
-      <c r="R22" s="16"/>
-      <c r="S22" s="16"/>
       <c r="T22" s="5"/>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B23" s="4"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="16"/>
-      <c r="O23" s="16"/>
-      <c r="P23" s="16"/>
-      <c r="Q23" s="16"/>
-      <c r="R23" s="16"/>
-      <c r="S23" s="16"/>
       <c r="T23" s="5"/>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B24" s="4"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="16"/>
-      <c r="O24" s="16"/>
-      <c r="P24" s="16"/>
-      <c r="Q24" s="16"/>
-      <c r="R24" s="16"/>
-      <c r="S24" s="16"/>
       <c r="T24" s="5"/>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B25" s="4"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="16"/>
-      <c r="N25" s="16"/>
-      <c r="O25" s="16"/>
-      <c r="P25" s="16"/>
-      <c r="Q25" s="16"/>
-      <c r="R25" s="16"/>
-      <c r="S25" s="16"/>
       <c r="T25" s="5"/>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B26" s="4"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="16"/>
-      <c r="N26" s="16"/>
-      <c r="O26" s="16"/>
-      <c r="P26" s="16"/>
-      <c r="Q26" s="16"/>
-      <c r="R26" s="16"/>
-      <c r="S26" s="16"/>
       <c r="T26" s="5"/>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B27" s="4"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="16"/>
-      <c r="N27" s="16"/>
-      <c r="O27" s="16"/>
-      <c r="P27" s="16"/>
-      <c r="Q27" s="16"/>
-      <c r="R27" s="16"/>
-      <c r="S27" s="16"/>
       <c r="T27" s="5"/>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B28" s="4"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="16"/>
-      <c r="N28" s="16"/>
-      <c r="O28" s="16"/>
-      <c r="P28" s="16"/>
-      <c r="Q28" s="16"/>
-      <c r="R28" s="16"/>
-      <c r="S28" s="16"/>
       <c r="T28" s="5"/>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B29" s="4"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="16"/>
-      <c r="M29" s="16"/>
-      <c r="N29" s="16"/>
-      <c r="O29" s="16"/>
-      <c r="P29" s="16"/>
-      <c r="Q29" s="16"/>
-      <c r="R29" s="16"/>
-      <c r="S29" s="16"/>
       <c r="T29" s="5"/>
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B30" s="4"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="16"/>
-      <c r="N30" s="16"/>
-      <c r="O30" s="16"/>
-      <c r="P30" s="16"/>
-      <c r="Q30" s="16"/>
-      <c r="R30" s="16"/>
-      <c r="S30" s="16"/>
       <c r="T30" s="5"/>
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B31" s="4"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="16"/>
-      <c r="M31" s="16"/>
-      <c r="N31" s="16"/>
-      <c r="O31" s="16"/>
-      <c r="P31" s="16"/>
-      <c r="Q31" s="16"/>
-      <c r="R31" s="16"/>
-      <c r="S31" s="16"/>
       <c r="T31" s="5"/>
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B32" s="4"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="16"/>
-      <c r="N32" s="16"/>
-      <c r="O32" s="16"/>
-      <c r="P32" s="16"/>
-      <c r="Q32" s="16"/>
-      <c r="R32" s="16"/>
-      <c r="S32" s="16"/>
       <c r="T32" s="5"/>
     </row>
     <row r="33" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B33" s="4"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="16"/>
-      <c r="L33" s="16"/>
-      <c r="M33" s="16"/>
-      <c r="N33" s="16"/>
-      <c r="O33" s="16"/>
-      <c r="P33" s="16"/>
-      <c r="Q33" s="16"/>
-      <c r="R33" s="16"/>
-      <c r="S33" s="16"/>
       <c r="T33" s="5"/>
     </row>
     <row r="34" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B34" s="4"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="16"/>
-      <c r="L34" s="16"/>
-      <c r="M34" s="16"/>
-      <c r="N34" s="16"/>
-      <c r="O34" s="16"/>
-      <c r="P34" s="16"/>
-      <c r="Q34" s="16"/>
-      <c r="R34" s="16"/>
-      <c r="S34" s="16"/>
       <c r="T34" s="5"/>
     </row>
     <row r="35" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B35" s="4"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="16"/>
-      <c r="L35" s="16"/>
-      <c r="M35" s="16"/>
-      <c r="N35" s="16"/>
-      <c r="O35" s="16"/>
-      <c r="P35" s="16"/>
-      <c r="Q35" s="16"/>
-      <c r="R35" s="16"/>
-      <c r="S35" s="16"/>
       <c r="T35" s="5"/>
     </row>
     <row r="36" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B36" s="4"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="16"/>
-      <c r="L36" s="16"/>
-      <c r="M36" s="16"/>
-      <c r="N36" s="16"/>
-      <c r="O36" s="16"/>
-      <c r="P36" s="16"/>
-      <c r="Q36" s="16"/>
-      <c r="R36" s="16"/>
-      <c r="S36" s="16"/>
       <c r="T36" s="5"/>
     </row>
     <row r="37" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B37" s="4"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="16"/>
-      <c r="J37" s="16"/>
-      <c r="K37" s="16"/>
-      <c r="L37" s="16"/>
-      <c r="M37" s="16"/>
-      <c r="N37" s="16"/>
-      <c r="O37" s="16"/>
-      <c r="P37" s="16"/>
-      <c r="Q37" s="16"/>
-      <c r="R37" s="16"/>
-      <c r="S37" s="16"/>
       <c r="T37" s="5"/>
     </row>
     <row r="38" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B38" s="4"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="16"/>
-      <c r="K38" s="16"/>
-      <c r="L38" s="16"/>
-      <c r="M38" s="16"/>
-      <c r="N38" s="16"/>
-      <c r="O38" s="16"/>
-      <c r="P38" s="16"/>
-      <c r="Q38" s="16"/>
-      <c r="R38" s="16"/>
-      <c r="S38" s="16"/>
       <c r="T38" s="5"/>
     </row>
     <row r="39" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B39" s="4"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="16"/>
-      <c r="J39" s="16"/>
-      <c r="K39" s="16"/>
-      <c r="L39" s="16"/>
-      <c r="M39" s="16"/>
-      <c r="N39" s="16"/>
-      <c r="O39" s="16"/>
-      <c r="P39" s="16"/>
-      <c r="Q39" s="16"/>
-      <c r="R39" s="16"/>
-      <c r="S39" s="16"/>
       <c r="T39" s="5"/>
     </row>
     <row r="40" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B40" s="4"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="16"/>
-      <c r="H40" s="16"/>
-      <c r="I40" s="16"/>
-      <c r="J40" s="16"/>
-      <c r="K40" s="16"/>
-      <c r="L40" s="16"/>
-      <c r="M40" s="16"/>
-      <c r="N40" s="16"/>
-      <c r="O40" s="16"/>
-      <c r="P40" s="16"/>
-      <c r="Q40" s="16"/>
-      <c r="R40" s="16"/>
-      <c r="S40" s="16"/>
       <c r="T40" s="5"/>
     </row>
     <row r="41" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B41" s="4"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="16"/>
-      <c r="H41" s="16"/>
-      <c r="I41" s="16"/>
-      <c r="J41" s="16"/>
-      <c r="K41" s="16"/>
-      <c r="L41" s="16"/>
-      <c r="M41" s="16"/>
-      <c r="N41" s="16"/>
-      <c r="O41" s="16"/>
-      <c r="P41" s="16"/>
-      <c r="Q41" s="16"/>
-      <c r="R41" s="16"/>
-      <c r="S41" s="16"/>
       <c r="T41" s="5"/>
     </row>
     <row r="42" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B42" s="4"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="16"/>
-      <c r="I42" s="16"/>
-      <c r="J42" s="16"/>
-      <c r="K42" s="16"/>
-      <c r="L42" s="16"/>
-      <c r="M42" s="16"/>
-      <c r="N42" s="16"/>
-      <c r="O42" s="16"/>
-      <c r="P42" s="16"/>
-      <c r="Q42" s="16"/>
-      <c r="R42" s="16"/>
-      <c r="S42" s="16"/>
       <c r="T42" s="5"/>
     </row>
     <row r="43" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B43" s="4"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="16"/>
-      <c r="H43" s="16"/>
-      <c r="I43" s="16"/>
-      <c r="J43" s="16"/>
-      <c r="K43" s="16"/>
-      <c r="L43" s="16"/>
-      <c r="M43" s="16"/>
-      <c r="N43" s="16"/>
-      <c r="O43" s="16"/>
-      <c r="P43" s="16"/>
-      <c r="Q43" s="16"/>
-      <c r="R43" s="16"/>
-      <c r="S43" s="16"/>
       <c r="T43" s="5"/>
     </row>
     <row r="44" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B44" s="4"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="16"/>
-      <c r="H44" s="16"/>
-      <c r="I44" s="16"/>
-      <c r="J44" s="16"/>
-      <c r="K44" s="16"/>
-      <c r="L44" s="16"/>
-      <c r="M44" s="16"/>
-      <c r="N44" s="16"/>
-      <c r="O44" s="16"/>
-      <c r="P44" s="16"/>
-      <c r="Q44" s="16"/>
-      <c r="R44" s="16"/>
-      <c r="S44" s="16"/>
       <c r="T44" s="5"/>
     </row>
     <row r="45" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B45" s="4"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="16"/>
-      <c r="H45" s="16"/>
-      <c r="I45" s="16"/>
-      <c r="J45" s="16"/>
-      <c r="K45" s="16"/>
-      <c r="L45" s="16"/>
-      <c r="M45" s="16"/>
-      <c r="N45" s="16"/>
-      <c r="O45" s="16"/>
-      <c r="P45" s="16"/>
-      <c r="Q45" s="16"/>
-      <c r="R45" s="16"/>
-      <c r="S45" s="16"/>
       <c r="T45" s="5"/>
     </row>
     <row r="46" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B46" s="4"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="16"/>
-      <c r="H46" s="16"/>
-      <c r="I46" s="16"/>
-      <c r="J46" s="16"/>
-      <c r="K46" s="16"/>
-      <c r="L46" s="16"/>
-      <c r="M46" s="16"/>
-      <c r="N46" s="16"/>
-      <c r="O46" s="16"/>
-      <c r="P46" s="16"/>
-      <c r="Q46" s="16"/>
-      <c r="R46" s="16"/>
-      <c r="S46" s="16"/>
       <c r="T46" s="5"/>
     </row>
     <row r="47" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B47" s="4"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
-      <c r="H47" s="16"/>
-      <c r="I47" s="16"/>
-      <c r="J47" s="16"/>
-      <c r="K47" s="16"/>
-      <c r="L47" s="16"/>
-      <c r="M47" s="16"/>
-      <c r="N47" s="16"/>
-      <c r="O47" s="16"/>
-      <c r="P47" s="16"/>
-      <c r="Q47" s="16"/>
-      <c r="R47" s="16"/>
-      <c r="S47" s="16"/>
       <c r="T47" s="5"/>
     </row>
     <row r="48" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B48" s="4"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="16"/>
-      <c r="G48" s="16"/>
-      <c r="H48" s="16"/>
-      <c r="I48" s="16"/>
-      <c r="J48" s="16"/>
-      <c r="K48" s="16"/>
-      <c r="L48" s="16"/>
-      <c r="M48" s="16"/>
-      <c r="N48" s="16"/>
-      <c r="O48" s="16"/>
-      <c r="P48" s="16"/>
-      <c r="Q48" s="16"/>
-      <c r="R48" s="16"/>
-      <c r="S48" s="16"/>
       <c r="T48" s="5"/>
     </row>
     <row r="49" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B49" s="4"/>
-      <c r="C49" s="16"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="16"/>
-      <c r="G49" s="16"/>
-      <c r="H49" s="16"/>
-      <c r="I49" s="16"/>
-      <c r="J49" s="16"/>
-      <c r="K49" s="16"/>
-      <c r="L49" s="16"/>
-      <c r="M49" s="16"/>
-      <c r="N49" s="16"/>
-      <c r="O49" s="16"/>
-      <c r="P49" s="16"/>
-      <c r="Q49" s="16"/>
-      <c r="R49" s="16"/>
-      <c r="S49" s="16"/>
       <c r="T49" s="5"/>
     </row>
     <row r="50" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B50" s="4"/>
-      <c r="C50" s="16"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="16"/>
-      <c r="G50" s="16"/>
-      <c r="H50" s="16"/>
-      <c r="I50" s="16"/>
-      <c r="J50" s="16"/>
-      <c r="K50" s="16"/>
-      <c r="L50" s="16"/>
-      <c r="M50" s="16"/>
-      <c r="N50" s="16"/>
-      <c r="O50" s="16"/>
-      <c r="P50" s="16"/>
-      <c r="Q50" s="16"/>
-      <c r="R50" s="16"/>
-      <c r="S50" s="16"/>
       <c r="T50" s="5"/>
     </row>
     <row r="51" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B51" s="4"/>
-      <c r="C51" s="16"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="16"/>
-      <c r="F51" s="16"/>
-      <c r="G51" s="16"/>
-      <c r="H51" s="16"/>
-      <c r="I51" s="16"/>
-      <c r="J51" s="16"/>
-      <c r="K51" s="16"/>
-      <c r="L51" s="16"/>
-      <c r="M51" s="16"/>
-      <c r="N51" s="16"/>
-      <c r="O51" s="16"/>
-      <c r="P51" s="16"/>
-      <c r="Q51" s="16"/>
-      <c r="R51" s="16"/>
-      <c r="S51" s="16"/>
       <c r="T51" s="5"/>
     </row>
     <row r="52" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B52" s="4"/>
-      <c r="C52" s="16"/>
-      <c r="D52" s="16"/>
-      <c r="E52" s="16"/>
-      <c r="F52" s="16"/>
-      <c r="G52" s="16"/>
-      <c r="H52" s="16"/>
-      <c r="I52" s="16"/>
-      <c r="J52" s="16"/>
-      <c r="K52" s="16"/>
-      <c r="L52" s="16"/>
-      <c r="M52" s="16"/>
-      <c r="N52" s="16"/>
-      <c r="O52" s="16"/>
-      <c r="P52" s="16"/>
-      <c r="Q52" s="16"/>
-      <c r="R52" s="16"/>
-      <c r="S52" s="16"/>
       <c r="T52" s="5"/>
     </row>
     <row r="53" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B53" s="4"/>
-      <c r="C53" s="16"/>
-      <c r="D53" s="16"/>
-      <c r="E53" s="16"/>
-      <c r="F53" s="16"/>
-      <c r="G53" s="16"/>
-      <c r="H53" s="16"/>
-      <c r="I53" s="16"/>
-      <c r="J53" s="16"/>
-      <c r="K53" s="16"/>
-      <c r="L53" s="16"/>
-      <c r="M53" s="16"/>
-      <c r="N53" s="16"/>
-      <c r="O53" s="16"/>
-      <c r="P53" s="16"/>
-      <c r="Q53" s="16"/>
-      <c r="R53" s="16"/>
-      <c r="S53" s="16"/>
       <c r="T53" s="5"/>
     </row>
     <row r="54" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B54" s="4"/>
-      <c r="C54" s="16"/>
-      <c r="D54" s="16"/>
-      <c r="E54" s="16"/>
-      <c r="F54" s="16"/>
-      <c r="G54" s="16"/>
-      <c r="H54" s="16"/>
-      <c r="I54" s="16"/>
-      <c r="J54" s="16"/>
-      <c r="K54" s="16"/>
-      <c r="L54" s="16"/>
-      <c r="M54" s="16"/>
-      <c r="N54" s="16"/>
-      <c r="O54" s="16"/>
-      <c r="P54" s="16"/>
-      <c r="Q54" s="16"/>
-      <c r="R54" s="16"/>
-      <c r="S54" s="16"/>
       <c r="T54" s="5"/>
     </row>
     <row r="55" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B55" s="4"/>
-      <c r="C55" s="16"/>
-      <c r="D55" s="16"/>
-      <c r="E55" s="16"/>
-      <c r="F55" s="16"/>
-      <c r="G55" s="16"/>
-      <c r="H55" s="16"/>
-      <c r="I55" s="16"/>
-      <c r="J55" s="16"/>
-      <c r="K55" s="16"/>
-      <c r="L55" s="16"/>
-      <c r="M55" s="16"/>
-      <c r="N55" s="16"/>
-      <c r="O55" s="16"/>
-      <c r="P55" s="16"/>
-      <c r="Q55" s="16"/>
-      <c r="R55" s="16"/>
-      <c r="S55" s="16"/>
       <c r="T55" s="5"/>
     </row>
     <row r="56" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B56" s="4"/>
-      <c r="C56" s="16"/>
-      <c r="D56" s="16"/>
-      <c r="E56" s="16"/>
-      <c r="F56" s="16"/>
-      <c r="G56" s="16"/>
-      <c r="H56" s="16"/>
-      <c r="I56" s="16"/>
-      <c r="J56" s="16"/>
-      <c r="K56" s="16"/>
-      <c r="L56" s="16"/>
-      <c r="M56" s="16"/>
-      <c r="N56" s="16"/>
-      <c r="O56" s="16"/>
-      <c r="P56" s="16"/>
-      <c r="Q56" s="16"/>
-      <c r="R56" s="16"/>
-      <c r="S56" s="16"/>
       <c r="T56" s="5"/>
     </row>
     <row r="57" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B57" s="4"/>
-      <c r="C57" s="16"/>
-      <c r="D57" s="16"/>
-      <c r="E57" s="16"/>
-      <c r="F57" s="16"/>
-      <c r="G57" s="16"/>
-      <c r="H57" s="16"/>
-      <c r="I57" s="16"/>
-      <c r="J57" s="16"/>
-      <c r="K57" s="16"/>
-      <c r="L57" s="16"/>
-      <c r="M57" s="16"/>
-      <c r="N57" s="16"/>
-      <c r="O57" s="16"/>
-      <c r="P57" s="16"/>
-      <c r="Q57" s="16"/>
-      <c r="R57" s="16"/>
-      <c r="S57" s="16"/>
       <c r="T57" s="5"/>
     </row>
     <row r="58" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B58" s="4"/>
-      <c r="C58" s="16"/>
-      <c r="D58" s="16"/>
-      <c r="E58" s="16"/>
-      <c r="F58" s="16"/>
-      <c r="G58" s="16"/>
-      <c r="H58" s="16"/>
-      <c r="I58" s="16"/>
-      <c r="J58" s="16"/>
-      <c r="K58" s="16"/>
-      <c r="L58" s="16"/>
-      <c r="M58" s="16"/>
-      <c r="N58" s="16"/>
-      <c r="O58" s="16"/>
-      <c r="P58" s="16"/>
-      <c r="Q58" s="16"/>
-      <c r="R58" s="16"/>
-      <c r="S58" s="16"/>
       <c r="T58" s="5"/>
     </row>
     <row r="59" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B59" s="4"/>
-      <c r="C59" s="16"/>
-      <c r="D59" s="16"/>
-      <c r="E59" s="16"/>
-      <c r="F59" s="16"/>
-      <c r="G59" s="16"/>
-      <c r="H59" s="16"/>
-      <c r="I59" s="16"/>
-      <c r="J59" s="16"/>
-      <c r="K59" s="16"/>
-      <c r="L59" s="16"/>
-      <c r="M59" s="16"/>
-      <c r="N59" s="16"/>
-      <c r="O59" s="16"/>
-      <c r="P59" s="16"/>
-      <c r="Q59" s="16"/>
-      <c r="R59" s="16"/>
-      <c r="S59" s="16"/>
       <c r="T59" s="5"/>
     </row>
     <row r="60" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B60" s="4"/>
-      <c r="C60" s="16"/>
-      <c r="D60" s="16"/>
-      <c r="E60" s="16"/>
-      <c r="F60" s="16"/>
-      <c r="G60" s="16"/>
-      <c r="H60" s="16"/>
-      <c r="I60" s="16"/>
-      <c r="J60" s="16"/>
-      <c r="K60" s="16"/>
-      <c r="L60" s="16"/>
-      <c r="M60" s="16"/>
-      <c r="N60" s="16"/>
-      <c r="O60" s="16"/>
-      <c r="P60" s="16"/>
-      <c r="Q60" s="16"/>
-      <c r="R60" s="16"/>
-      <c r="S60" s="16"/>
       <c r="T60" s="5"/>
     </row>
     <row r="61" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B61" s="4"/>
-      <c r="C61" s="16"/>
-      <c r="D61" s="16"/>
-      <c r="E61" s="16"/>
-      <c r="F61" s="16"/>
-      <c r="G61" s="16"/>
-      <c r="H61" s="16"/>
-      <c r="I61" s="16"/>
-      <c r="J61" s="16"/>
-      <c r="K61" s="16"/>
-      <c r="L61" s="16"/>
-      <c r="M61" s="16"/>
-      <c r="N61" s="16"/>
-      <c r="O61" s="16"/>
-      <c r="P61" s="16"/>
-      <c r="Q61" s="16"/>
-      <c r="R61" s="16"/>
-      <c r="S61" s="16"/>
       <c r="T61" s="5"/>
     </row>
     <row r="62" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B62" s="4"/>
-      <c r="C62" s="16"/>
-      <c r="D62" s="16"/>
-      <c r="E62" s="16"/>
-      <c r="F62" s="16"/>
-      <c r="G62" s="16"/>
-      <c r="H62" s="16"/>
-      <c r="I62" s="16"/>
-      <c r="J62" s="16"/>
-      <c r="K62" s="16"/>
-      <c r="L62" s="16"/>
-      <c r="M62" s="16"/>
-      <c r="N62" s="16"/>
-      <c r="O62" s="16"/>
-      <c r="P62" s="16"/>
-      <c r="Q62" s="16"/>
-      <c r="R62" s="16"/>
-      <c r="S62" s="16"/>
       <c r="T62" s="5"/>
     </row>
     <row r="63" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B63" s="4"/>
-      <c r="C63" s="16"/>
-      <c r="D63" s="16"/>
-      <c r="E63" s="16"/>
-      <c r="F63" s="16"/>
-      <c r="G63" s="16"/>
-      <c r="H63" s="16"/>
-      <c r="I63" s="16"/>
-      <c r="J63" s="16"/>
-      <c r="K63" s="16"/>
-      <c r="L63" s="16"/>
-      <c r="M63" s="16"/>
-      <c r="N63" s="16"/>
-      <c r="O63" s="16"/>
-      <c r="P63" s="16"/>
-      <c r="Q63" s="16"/>
-      <c r="R63" s="16"/>
-      <c r="S63" s="16"/>
       <c r="T63" s="5"/>
     </row>
     <row r="64" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B64" s="4"/>
-      <c r="C64" s="16"/>
-      <c r="D64" s="16"/>
-      <c r="E64" s="16"/>
-      <c r="F64" s="16"/>
-      <c r="G64" s="16"/>
-      <c r="H64" s="16"/>
-      <c r="I64" s="16"/>
-      <c r="J64" s="16"/>
-      <c r="K64" s="16"/>
-      <c r="L64" s="16"/>
-      <c r="M64" s="16"/>
-      <c r="N64" s="16"/>
-      <c r="O64" s="16"/>
-      <c r="P64" s="16"/>
-      <c r="Q64" s="16"/>
-      <c r="R64" s="16"/>
-      <c r="S64" s="16"/>
       <c r="T64" s="5"/>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B65" s="4"/>
-      <c r="C65" s="16"/>
-      <c r="D65" s="16"/>
-      <c r="E65" s="16"/>
-      <c r="F65" s="16"/>
-      <c r="G65" s="16"/>
-      <c r="H65" s="16"/>
-      <c r="I65" s="16"/>
-      <c r="J65" s="16"/>
-      <c r="K65" s="16"/>
-      <c r="L65" s="16"/>
-      <c r="M65" s="16"/>
-      <c r="N65" s="16"/>
-      <c r="O65" s="16"/>
-      <c r="P65" s="16"/>
-      <c r="Q65" s="16"/>
-      <c r="R65" s="16"/>
-      <c r="S65" s="16"/>
       <c r="T65" s="5"/>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B66" s="4"/>
-      <c r="C66" s="16"/>
-      <c r="D66" s="16"/>
-      <c r="E66" s="16"/>
-      <c r="F66" s="16"/>
-      <c r="G66" s="16"/>
-      <c r="H66" s="16"/>
-      <c r="I66" s="16"/>
-      <c r="J66" s="16"/>
-      <c r="K66" s="16"/>
-      <c r="L66" s="16"/>
-      <c r="M66" s="16"/>
-      <c r="N66" s="16"/>
-      <c r="O66" s="16"/>
-      <c r="P66" s="16"/>
-      <c r="Q66" s="16"/>
-      <c r="R66" s="16"/>
-      <c r="S66" s="16"/>
       <c r="T66" s="5"/>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B67" s="4"/>
-      <c r="C67" s="16"/>
-      <c r="D67" s="16"/>
-      <c r="E67" s="16"/>
-      <c r="F67" s="16"/>
-      <c r="G67" s="16"/>
-      <c r="H67" s="16"/>
-      <c r="I67" s="16"/>
-      <c r="J67" s="16"/>
-      <c r="K67" s="16"/>
-      <c r="L67" s="16"/>
-      <c r="M67" s="16"/>
-      <c r="N67" s="16"/>
-      <c r="O67" s="16"/>
-      <c r="P67" s="16"/>
-      <c r="Q67" s="16"/>
-      <c r="R67" s="16"/>
-      <c r="S67" s="16"/>
       <c r="T67" s="5"/>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B68" s="4"/>
-      <c r="C68" s="16"/>
-      <c r="D68" s="16"/>
-      <c r="E68" s="16"/>
-      <c r="F68" s="16"/>
-      <c r="G68" s="16"/>
-      <c r="H68" s="16"/>
-      <c r="I68" s="16"/>
-      <c r="J68" s="16"/>
-      <c r="K68" s="16"/>
-      <c r="L68" s="16"/>
-      <c r="M68" s="16"/>
-      <c r="N68" s="16"/>
-      <c r="O68" s="16"/>
-      <c r="P68" s="16"/>
-      <c r="Q68" s="16"/>
-      <c r="R68" s="16"/>
-      <c r="S68" s="16"/>
       <c r="T68" s="5"/>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B69" s="4"/>
-      <c r="C69" s="16"/>
-      <c r="D69" s="16"/>
-      <c r="E69" s="16"/>
-      <c r="F69" s="16"/>
-      <c r="G69" s="16"/>
-      <c r="H69" s="16"/>
-      <c r="I69" s="16"/>
-      <c r="J69" s="16"/>
-      <c r="K69" s="16"/>
-      <c r="L69" s="16"/>
-      <c r="M69" s="16"/>
-      <c r="N69" s="16"/>
-      <c r="O69" s="16"/>
-      <c r="P69" s="16"/>
-      <c r="Q69" s="16"/>
-      <c r="R69" s="16"/>
-      <c r="S69" s="16"/>
       <c r="T69" s="5"/>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B70" s="4"/>
-      <c r="C70" s="16"/>
-      <c r="D70" s="16"/>
-      <c r="E70" s="16"/>
-      <c r="F70" s="16"/>
-      <c r="G70" s="16"/>
-      <c r="H70" s="16"/>
-      <c r="I70" s="16"/>
-      <c r="J70" s="16"/>
-      <c r="K70" s="16"/>
-      <c r="L70" s="16"/>
-      <c r="M70" s="16"/>
-      <c r="N70" s="16"/>
-      <c r="O70" s="16"/>
-      <c r="P70" s="16"/>
-      <c r="Q70" s="16"/>
-      <c r="R70" s="16"/>
-      <c r="S70" s="16"/>
       <c r="T70" s="5"/>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B71" s="4"/>
-      <c r="C71" s="16"/>
-      <c r="D71" s="16"/>
-      <c r="E71" s="16"/>
-      <c r="F71" s="16"/>
-      <c r="G71" s="16"/>
-      <c r="H71" s="16"/>
-      <c r="I71" s="16"/>
-      <c r="J71" s="16"/>
-      <c r="K71" s="16"/>
-      <c r="L71" s="16"/>
-      <c r="M71" s="16"/>
-      <c r="N71" s="16"/>
-      <c r="O71" s="16"/>
-      <c r="P71" s="16"/>
-      <c r="Q71" s="16"/>
-      <c r="R71" s="16"/>
-      <c r="S71" s="16"/>
       <c r="T71" s="5"/>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B72" s="4"/>
-      <c r="C72" s="16"/>
-      <c r="D72" s="16"/>
-      <c r="E72" s="16"/>
-      <c r="F72" s="16"/>
-      <c r="G72" s="16"/>
-      <c r="H72" s="16"/>
-      <c r="I72" s="16"/>
-      <c r="J72" s="16"/>
-      <c r="K72" s="16"/>
-      <c r="L72" s="16"/>
-      <c r="M72" s="16"/>
-      <c r="N72" s="16"/>
-      <c r="O72" s="16"/>
-      <c r="P72" s="16"/>
-      <c r="Q72" s="16"/>
-      <c r="R72" s="16"/>
-      <c r="S72" s="16"/>
       <c r="T72" s="5"/>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B73" s="4"/>
-      <c r="C73" s="16"/>
-      <c r="D73" s="16"/>
-      <c r="E73" s="16"/>
-      <c r="F73" s="16"/>
-      <c r="G73" s="16"/>
-      <c r="H73" s="16"/>
-      <c r="I73" s="16"/>
-      <c r="J73" s="16"/>
-      <c r="K73" s="16"/>
-      <c r="L73" s="16"/>
-      <c r="M73" s="16"/>
-      <c r="N73" s="16"/>
-      <c r="O73" s="16"/>
-      <c r="P73" s="16"/>
-      <c r="Q73" s="16"/>
-      <c r="R73" s="16"/>
-      <c r="S73" s="16"/>
       <c r="T73" s="5"/>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B74" s="4"/>
-      <c r="C74" s="16"/>
-      <c r="D74" s="16"/>
-      <c r="E74" s="16"/>
-      <c r="F74" s="16"/>
-      <c r="G74" s="16"/>
-      <c r="H74" s="16"/>
-      <c r="I74" s="16"/>
-      <c r="J74" s="16"/>
-      <c r="K74" s="16"/>
-      <c r="L74" s="16"/>
-      <c r="M74" s="16"/>
-      <c r="N74" s="16"/>
-      <c r="O74" s="16"/>
-      <c r="P74" s="16"/>
-      <c r="Q74" s="16"/>
-      <c r="R74" s="16"/>
-      <c r="S74" s="16"/>
       <c r="T74" s="5"/>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B75" s="4"/>
-      <c r="C75" s="16"/>
-      <c r="D75" s="16"/>
-      <c r="E75" s="16"/>
-      <c r="F75" s="16"/>
-      <c r="G75" s="16"/>
-      <c r="H75" s="16"/>
-      <c r="I75" s="16"/>
-      <c r="J75" s="16"/>
-      <c r="K75" s="16"/>
-      <c r="L75" s="16"/>
-      <c r="M75" s="16"/>
-      <c r="N75" s="16"/>
-      <c r="O75" s="16"/>
-      <c r="P75" s="16"/>
-      <c r="Q75" s="16"/>
-      <c r="R75" s="16"/>
-      <c r="S75" s="16"/>
       <c r="T75" s="5"/>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.25">
@@ -11452,112 +12621,72 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B81" s="4"/>
-      <c r="C81" s="16" t="s">
+      <c r="C81" t="s">
         <v>11</v>
       </c>
-      <c r="D81" s="16"/>
-      <c r="E81" s="16"/>
-      <c r="F81" s="16"/>
-      <c r="G81" s="16"/>
       <c r="H81" s="5"/>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B82" s="4"/>
-      <c r="C82" s="16"/>
-      <c r="D82" s="16" t="s">
+      <c r="D82" t="s">
         <v>12</v>
       </c>
-      <c r="E82" s="16"/>
-      <c r="F82" s="16"/>
-      <c r="G82" s="16"/>
       <c r="H82" s="5"/>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B83" s="4"/>
-      <c r="C83" s="16"/>
-      <c r="D83" s="16" t="s">
+      <c r="D83" t="s">
         <v>18</v>
       </c>
-      <c r="E83" s="16"/>
-      <c r="F83" s="16"/>
-      <c r="G83" s="16"/>
       <c r="H83" s="5"/>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B84" s="4"/>
-      <c r="C84" s="16"/>
-      <c r="D84" s="16" t="s">
+      <c r="D84" t="s">
         <v>50</v>
       </c>
-      <c r="E84" s="16"/>
-      <c r="F84" s="16"/>
-      <c r="G84" s="16"/>
       <c r="H84" s="5"/>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B85" s="4"/>
-      <c r="C85" s="16"/>
-      <c r="D85" s="16" t="s">
+      <c r="D85" t="s">
         <v>77</v>
       </c>
-      <c r="E85" s="16"/>
-      <c r="F85" s="16"/>
-      <c r="G85" s="16"/>
       <c r="H85" s="5"/>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B86" s="4"/>
-      <c r="C86" s="16"/>
-      <c r="D86" s="16" t="s">
+      <c r="D86" t="s">
         <v>81</v>
       </c>
-      <c r="E86" s="16"/>
-      <c r="F86" s="16"/>
-      <c r="G86" s="16"/>
       <c r="H86" s="5"/>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B87" s="4"/>
-      <c r="C87" s="16"/>
-      <c r="D87" s="16" t="s">
+      <c r="D87" t="s">
         <v>92</v>
       </c>
-      <c r="E87" s="16"/>
-      <c r="F87" s="16"/>
-      <c r="G87" s="16"/>
       <c r="H87" s="5"/>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B88" s="4"/>
-      <c r="C88" s="16"/>
-      <c r="D88" s="16" t="s">
+      <c r="D88" t="s">
         <v>125</v>
       </c>
-      <c r="E88" s="16"/>
-      <c r="F88" s="16"/>
-      <c r="G88" s="16"/>
       <c r="H88" s="5"/>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B89" s="4"/>
-      <c r="C89" s="16"/>
-      <c r="D89" s="17" t="s">
+      <c r="D89" t="s">
         <v>140</v>
       </c>
-      <c r="E89" s="16"/>
-      <c r="F89" s="16"/>
-      <c r="G89" s="16"/>
       <c r="H89" s="5"/>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B90" s="4"/>
-      <c r="C90" s="16"/>
-      <c r="D90" s="18" t="s">
+      <c r="D90" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="E90" s="16"/>
-      <c r="F90" s="16"/>
-      <c r="G90" s="16"/>
       <c r="H90" s="5"/>
       <c r="I90" t="s">
         <v>17</v>
@@ -11599,189 +12728,72 @@
       <c r="B96" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="C96" s="16"/>
-      <c r="D96" s="16"/>
-      <c r="E96" s="16"/>
-      <c r="F96" s="16"/>
-      <c r="G96" s="16"/>
-      <c r="H96" s="16"/>
-      <c r="I96" s="16"/>
-      <c r="J96" s="16"/>
-      <c r="K96" s="16"/>
       <c r="L96" s="5"/>
     </row>
     <row r="97" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B97" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="C97" s="16"/>
-      <c r="D97" s="16"/>
-      <c r="E97" s="16"/>
-      <c r="F97" s="16"/>
-      <c r="G97" s="16"/>
-      <c r="H97" s="16"/>
-      <c r="I97" s="16"/>
-      <c r="J97" s="16"/>
-      <c r="K97" s="16"/>
       <c r="L97" s="5"/>
     </row>
     <row r="98" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B98" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="C98" s="16"/>
-      <c r="D98" s="16"/>
-      <c r="E98" s="16"/>
-      <c r="F98" s="16"/>
-      <c r="G98" s="16"/>
-      <c r="H98" s="16"/>
-      <c r="I98" s="16"/>
-      <c r="J98" s="16"/>
-      <c r="K98" s="16"/>
       <c r="L98" s="5"/>
     </row>
     <row r="99" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B99" s="4"/>
-      <c r="C99" s="16"/>
-      <c r="D99" s="16"/>
-      <c r="E99" s="16"/>
-      <c r="F99" s="16"/>
-      <c r="G99" s="16"/>
-      <c r="H99" s="16"/>
-      <c r="I99" s="16"/>
-      <c r="J99" s="16"/>
-      <c r="K99" s="16"/>
       <c r="L99" s="5"/>
     </row>
     <row r="100" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B100" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="C100" s="16"/>
-      <c r="D100" s="16"/>
-      <c r="E100" s="16"/>
-      <c r="F100" s="16"/>
-      <c r="G100" s="16"/>
-      <c r="H100" s="16"/>
-      <c r="I100" s="16"/>
-      <c r="J100" s="16"/>
-      <c r="K100" s="16"/>
       <c r="L100" s="5"/>
     </row>
     <row r="101" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B101" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="C101" s="16"/>
-      <c r="D101" s="16"/>
-      <c r="E101" s="16"/>
-      <c r="F101" s="16"/>
-      <c r="G101" s="16"/>
-      <c r="H101" s="16"/>
-      <c r="I101" s="16"/>
-      <c r="J101" s="16"/>
-      <c r="K101" s="16"/>
       <c r="L101" s="5"/>
     </row>
     <row r="102" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B102" s="4"/>
-      <c r="C102" s="16"/>
-      <c r="D102" s="16"/>
-      <c r="E102" s="16"/>
-      <c r="F102" s="16"/>
-      <c r="G102" s="16"/>
-      <c r="H102" s="16"/>
-      <c r="I102" s="16"/>
-      <c r="J102" s="16"/>
-      <c r="K102" s="16"/>
       <c r="L102" s="5"/>
     </row>
     <row r="103" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B103" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="C103" s="16"/>
-      <c r="D103" s="16"/>
-      <c r="E103" s="16"/>
-      <c r="F103" s="16"/>
-      <c r="G103" s="16"/>
-      <c r="H103" s="16"/>
-      <c r="I103" s="16"/>
-      <c r="J103" s="16"/>
-      <c r="K103" s="16"/>
       <c r="L103" s="5"/>
     </row>
     <row r="104" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B104" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="C104" s="16"/>
-      <c r="D104" s="16"/>
-      <c r="E104" s="16"/>
-      <c r="F104" s="16"/>
-      <c r="G104" s="16"/>
-      <c r="H104" s="16"/>
-      <c r="I104" s="16"/>
-      <c r="J104" s="16"/>
-      <c r="K104" s="16"/>
       <c r="L104" s="5"/>
     </row>
     <row r="105" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B105" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="C105" s="16"/>
-      <c r="D105" s="16"/>
-      <c r="E105" s="16"/>
-      <c r="F105" s="16"/>
-      <c r="G105" s="16"/>
-      <c r="H105" s="16"/>
-      <c r="I105" s="16"/>
-      <c r="J105" s="16"/>
-      <c r="K105" s="16"/>
       <c r="L105" s="5"/>
     </row>
     <row r="106" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B106" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="C106" s="16"/>
-      <c r="D106" s="16"/>
-      <c r="E106" s="16"/>
-      <c r="F106" s="16"/>
-      <c r="G106" s="16"/>
-      <c r="H106" s="16"/>
-      <c r="I106" s="16"/>
-      <c r="J106" s="16"/>
-      <c r="K106" s="16"/>
       <c r="L106" s="5"/>
     </row>
     <row r="107" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B107" s="4"/>
-      <c r="C107" s="16"/>
-      <c r="D107" s="16"/>
-      <c r="E107" s="16"/>
-      <c r="F107" s="16"/>
-      <c r="G107" s="16"/>
-      <c r="H107" s="16"/>
-      <c r="I107" s="16"/>
-      <c r="J107" s="16"/>
-      <c r="K107" s="16"/>
       <c r="L107" s="5"/>
     </row>
     <row r="108" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B108" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="C108" s="16"/>
-      <c r="D108" s="16"/>
-      <c r="E108" s="16"/>
-      <c r="F108" s="16"/>
-      <c r="G108" s="16"/>
-      <c r="H108" s="16"/>
-      <c r="I108" s="16"/>
-      <c r="J108" s="16"/>
-      <c r="K108" s="16"/>
       <c r="L108" s="5"/>
     </row>
     <row r="109" spans="2:20" x14ac:dyDescent="0.25">
@@ -11822,1157 +12834,222 @@
     </row>
     <row r="113" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B113" s="4"/>
-      <c r="C113" s="16"/>
-      <c r="D113" s="16"/>
-      <c r="E113" s="16"/>
-      <c r="F113" s="16"/>
-      <c r="G113" s="16"/>
-      <c r="H113" s="16"/>
-      <c r="I113" s="16"/>
-      <c r="J113" s="16"/>
-      <c r="K113" s="16"/>
-      <c r="L113" s="16"/>
-      <c r="M113" s="16"/>
-      <c r="N113" s="16"/>
-      <c r="O113" s="16"/>
-      <c r="P113" s="16"/>
-      <c r="Q113" s="16"/>
-      <c r="R113" s="16"/>
-      <c r="S113" s="16"/>
       <c r="T113" s="5"/>
     </row>
     <row r="114" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B114" s="4"/>
-      <c r="C114" s="16"/>
-      <c r="D114" s="16"/>
-      <c r="E114" s="16"/>
-      <c r="F114" s="16"/>
-      <c r="G114" s="16"/>
-      <c r="H114" s="16"/>
-      <c r="I114" s="16"/>
-      <c r="J114" s="16"/>
-      <c r="K114" s="16"/>
-      <c r="L114" s="16"/>
-      <c r="M114" s="16"/>
-      <c r="N114" s="16"/>
-      <c r="O114" s="16"/>
-      <c r="P114" s="16"/>
-      <c r="Q114" s="16"/>
-      <c r="R114" s="16"/>
-      <c r="S114" s="16"/>
       <c r="T114" s="5"/>
     </row>
     <row r="115" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B115" s="4"/>
-      <c r="C115" s="16"/>
-      <c r="D115" s="16"/>
-      <c r="E115" s="16"/>
-      <c r="F115" s="16"/>
-      <c r="G115" s="16"/>
-      <c r="H115" s="16"/>
-      <c r="I115" s="16"/>
-      <c r="J115" s="16"/>
-      <c r="K115" s="16"/>
-      <c r="L115" s="16"/>
-      <c r="M115" s="16"/>
-      <c r="N115" s="16"/>
-      <c r="O115" s="16"/>
-      <c r="P115" s="16"/>
-      <c r="Q115" s="16"/>
-      <c r="R115" s="16"/>
-      <c r="S115" s="16"/>
       <c r="T115" s="5"/>
     </row>
     <row r="116" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B116" s="4"/>
-      <c r="C116" s="16"/>
-      <c r="D116" s="16"/>
-      <c r="E116" s="16"/>
-      <c r="F116" s="16"/>
-      <c r="G116" s="16"/>
-      <c r="H116" s="16"/>
-      <c r="I116" s="16"/>
-      <c r="J116" s="16"/>
-      <c r="K116" s="16"/>
-      <c r="L116" s="16"/>
-      <c r="M116" s="16"/>
-      <c r="N116" s="16"/>
-      <c r="O116" s="16"/>
-      <c r="P116" s="16"/>
-      <c r="Q116" s="16"/>
-      <c r="R116" s="16"/>
-      <c r="S116" s="16"/>
       <c r="T116" s="5"/>
     </row>
     <row r="117" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B117" s="4"/>
-      <c r="C117" s="16"/>
-      <c r="D117" s="16"/>
-      <c r="E117" s="16"/>
-      <c r="F117" s="16"/>
-      <c r="G117" s="16"/>
-      <c r="H117" s="16"/>
-      <c r="I117" s="16"/>
-      <c r="J117" s="16"/>
-      <c r="K117" s="16"/>
-      <c r="L117" s="16"/>
-      <c r="M117" s="16"/>
-      <c r="N117" s="16"/>
-      <c r="O117" s="16"/>
-      <c r="P117" s="16"/>
-      <c r="Q117" s="16"/>
-      <c r="R117" s="16"/>
-      <c r="S117" s="16"/>
       <c r="T117" s="5"/>
     </row>
     <row r="118" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B118" s="4"/>
-      <c r="C118" s="16"/>
-      <c r="D118" s="16"/>
-      <c r="E118" s="16"/>
-      <c r="F118" s="16"/>
-      <c r="G118" s="16"/>
-      <c r="H118" s="16"/>
-      <c r="I118" s="16"/>
-      <c r="J118" s="16"/>
-      <c r="K118" s="16"/>
-      <c r="L118" s="16"/>
-      <c r="M118" s="16"/>
-      <c r="N118" s="16"/>
-      <c r="O118" s="16"/>
-      <c r="P118" s="16"/>
-      <c r="Q118" s="16"/>
-      <c r="R118" s="16"/>
-      <c r="S118" s="16"/>
       <c r="T118" s="5"/>
     </row>
     <row r="119" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B119" s="4"/>
-      <c r="C119" s="16"/>
-      <c r="D119" s="16"/>
-      <c r="E119" s="16"/>
-      <c r="F119" s="16"/>
-      <c r="G119" s="16"/>
-      <c r="H119" s="16"/>
-      <c r="I119" s="16"/>
-      <c r="J119" s="16"/>
-      <c r="K119" s="16"/>
-      <c r="L119" s="16"/>
-      <c r="M119" s="16"/>
-      <c r="N119" s="16"/>
-      <c r="O119" s="16"/>
-      <c r="P119" s="16"/>
-      <c r="Q119" s="16"/>
-      <c r="R119" s="16"/>
-      <c r="S119" s="16"/>
       <c r="T119" s="5"/>
     </row>
     <row r="120" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B120" s="4"/>
-      <c r="C120" s="16"/>
-      <c r="D120" s="16"/>
-      <c r="E120" s="16"/>
-      <c r="F120" s="16"/>
-      <c r="G120" s="16"/>
-      <c r="H120" s="16"/>
-      <c r="I120" s="16"/>
-      <c r="J120" s="16"/>
-      <c r="K120" s="16"/>
-      <c r="L120" s="16"/>
-      <c r="M120" s="16"/>
-      <c r="N120" s="16"/>
-      <c r="O120" s="16"/>
-      <c r="P120" s="16"/>
-      <c r="Q120" s="16"/>
-      <c r="R120" s="16"/>
-      <c r="S120" s="16"/>
       <c r="T120" s="5"/>
     </row>
     <row r="121" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B121" s="4"/>
-      <c r="C121" s="16"/>
-      <c r="D121" s="16"/>
-      <c r="E121" s="16"/>
-      <c r="F121" s="16"/>
-      <c r="G121" s="16"/>
-      <c r="H121" s="16"/>
-      <c r="I121" s="16"/>
-      <c r="J121" s="16"/>
-      <c r="K121" s="16"/>
-      <c r="L121" s="16"/>
-      <c r="M121" s="16"/>
-      <c r="N121" s="16"/>
-      <c r="O121" s="16"/>
-      <c r="P121" s="16"/>
-      <c r="Q121" s="16"/>
-      <c r="R121" s="16"/>
-      <c r="S121" s="16"/>
       <c r="T121" s="5"/>
     </row>
     <row r="122" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B122" s="4"/>
-      <c r="C122" s="16"/>
-      <c r="D122" s="16"/>
-      <c r="E122" s="16"/>
-      <c r="F122" s="16"/>
-      <c r="G122" s="16"/>
-      <c r="H122" s="16"/>
-      <c r="I122" s="16"/>
-      <c r="J122" s="16"/>
-      <c r="K122" s="16"/>
-      <c r="L122" s="16"/>
-      <c r="M122" s="16"/>
-      <c r="N122" s="16"/>
-      <c r="O122" s="16"/>
-      <c r="P122" s="16"/>
-      <c r="Q122" s="16"/>
-      <c r="R122" s="16"/>
-      <c r="S122" s="16"/>
       <c r="T122" s="5"/>
     </row>
     <row r="123" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B123" s="4"/>
-      <c r="C123" s="16"/>
-      <c r="D123" s="16"/>
-      <c r="E123" s="16"/>
-      <c r="F123" s="16"/>
-      <c r="G123" s="16"/>
-      <c r="H123" s="16"/>
-      <c r="I123" s="16"/>
-      <c r="J123" s="16"/>
-      <c r="K123" s="16"/>
-      <c r="L123" s="16"/>
-      <c r="M123" s="16"/>
-      <c r="N123" s="16"/>
-      <c r="O123" s="16"/>
-      <c r="P123" s="16"/>
-      <c r="Q123" s="16"/>
-      <c r="R123" s="16"/>
-      <c r="S123" s="16"/>
       <c r="T123" s="5"/>
     </row>
     <row r="124" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B124" s="4"/>
-      <c r="C124" s="16"/>
-      <c r="D124" s="16"/>
-      <c r="E124" s="16"/>
-      <c r="F124" s="16"/>
-      <c r="G124" s="16"/>
-      <c r="H124" s="16"/>
-      <c r="I124" s="16"/>
-      <c r="J124" s="16"/>
-      <c r="K124" s="16"/>
-      <c r="L124" s="16"/>
-      <c r="M124" s="16"/>
-      <c r="N124" s="16"/>
-      <c r="O124" s="16"/>
-      <c r="P124" s="16"/>
-      <c r="Q124" s="16"/>
-      <c r="R124" s="16"/>
-      <c r="S124" s="16"/>
       <c r="T124" s="5"/>
     </row>
     <row r="125" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B125" s="4"/>
-      <c r="C125" s="16"/>
-      <c r="D125" s="16"/>
-      <c r="E125" s="16"/>
-      <c r="F125" s="16"/>
-      <c r="G125" s="16"/>
-      <c r="H125" s="16"/>
-      <c r="I125" s="16"/>
-      <c r="J125" s="16"/>
-      <c r="K125" s="16"/>
-      <c r="L125" s="16"/>
-      <c r="M125" s="16"/>
-      <c r="N125" s="16"/>
-      <c r="O125" s="16"/>
-      <c r="P125" s="16"/>
-      <c r="Q125" s="16"/>
-      <c r="R125" s="16"/>
-      <c r="S125" s="16"/>
       <c r="T125" s="5"/>
     </row>
     <row r="126" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B126" s="4"/>
-      <c r="C126" s="16"/>
-      <c r="D126" s="16"/>
-      <c r="E126" s="16"/>
-      <c r="F126" s="16"/>
-      <c r="G126" s="16"/>
-      <c r="H126" s="16"/>
-      <c r="I126" s="16"/>
-      <c r="J126" s="16"/>
-      <c r="K126" s="16"/>
-      <c r="L126" s="16"/>
-      <c r="M126" s="16"/>
-      <c r="N126" s="16"/>
-      <c r="O126" s="16"/>
-      <c r="P126" s="16"/>
-      <c r="Q126" s="16"/>
-      <c r="R126" s="16"/>
-      <c r="S126" s="16"/>
       <c r="T126" s="5"/>
     </row>
     <row r="127" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B127" s="4"/>
-      <c r="C127" s="16"/>
-      <c r="D127" s="16"/>
-      <c r="E127" s="16"/>
-      <c r="F127" s="16"/>
-      <c r="G127" s="16"/>
-      <c r="H127" s="16"/>
-      <c r="I127" s="16"/>
-      <c r="J127" s="16"/>
-      <c r="K127" s="16"/>
-      <c r="L127" s="16"/>
-      <c r="M127" s="16"/>
-      <c r="N127" s="16"/>
-      <c r="O127" s="16"/>
-      <c r="P127" s="16"/>
-      <c r="Q127" s="16"/>
-      <c r="R127" s="16"/>
-      <c r="S127" s="16"/>
       <c r="T127" s="5"/>
     </row>
     <row r="128" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B128" s="4"/>
-      <c r="C128" s="16"/>
-      <c r="D128" s="16"/>
-      <c r="E128" s="16"/>
-      <c r="F128" s="16"/>
-      <c r="G128" s="16"/>
-      <c r="H128" s="16"/>
-      <c r="I128" s="16"/>
-      <c r="J128" s="16"/>
-      <c r="K128" s="16"/>
-      <c r="L128" s="16"/>
-      <c r="M128" s="16"/>
-      <c r="N128" s="16"/>
-      <c r="O128" s="16"/>
-      <c r="P128" s="16"/>
-      <c r="Q128" s="16"/>
-      <c r="R128" s="16"/>
-      <c r="S128" s="16"/>
       <c r="T128" s="5"/>
     </row>
     <row r="129" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B129" s="4"/>
-      <c r="C129" s="16"/>
-      <c r="D129" s="16"/>
-      <c r="E129" s="16"/>
-      <c r="F129" s="16"/>
-      <c r="G129" s="16"/>
-      <c r="H129" s="16"/>
-      <c r="I129" s="16"/>
-      <c r="J129" s="16"/>
-      <c r="K129" s="16"/>
-      <c r="L129" s="16"/>
-      <c r="M129" s="16"/>
-      <c r="N129" s="16"/>
-      <c r="O129" s="16"/>
-      <c r="P129" s="16"/>
-      <c r="Q129" s="16"/>
-      <c r="R129" s="16"/>
-      <c r="S129" s="16"/>
       <c r="T129" s="5"/>
     </row>
     <row r="130" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B130" s="4"/>
-      <c r="C130" s="16"/>
-      <c r="D130" s="16"/>
-      <c r="E130" s="16"/>
-      <c r="F130" s="16"/>
-      <c r="G130" s="16"/>
-      <c r="H130" s="16"/>
-      <c r="I130" s="16"/>
-      <c r="J130" s="16"/>
-      <c r="K130" s="16"/>
-      <c r="L130" s="16"/>
-      <c r="M130" s="16"/>
-      <c r="N130" s="16"/>
-      <c r="O130" s="16"/>
-      <c r="P130" s="16"/>
-      <c r="Q130" s="16"/>
-      <c r="R130" s="16"/>
-      <c r="S130" s="16"/>
       <c r="T130" s="5"/>
     </row>
     <row r="131" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B131" s="4"/>
-      <c r="C131" s="16"/>
-      <c r="D131" s="16"/>
-      <c r="E131" s="16"/>
-      <c r="F131" s="16"/>
-      <c r="G131" s="16"/>
-      <c r="H131" s="16"/>
-      <c r="I131" s="16"/>
-      <c r="J131" s="16"/>
-      <c r="K131" s="16"/>
-      <c r="L131" s="16"/>
-      <c r="M131" s="16"/>
-      <c r="N131" s="16"/>
-      <c r="O131" s="16"/>
-      <c r="P131" s="16"/>
-      <c r="Q131" s="16"/>
-      <c r="R131" s="16"/>
-      <c r="S131" s="16"/>
       <c r="T131" s="5"/>
     </row>
     <row r="132" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B132" s="4"/>
-      <c r="C132" s="16"/>
-      <c r="D132" s="16"/>
-      <c r="E132" s="16"/>
-      <c r="F132" s="16"/>
-      <c r="G132" s="16"/>
-      <c r="H132" s="16"/>
-      <c r="I132" s="16"/>
-      <c r="J132" s="16"/>
-      <c r="K132" s="16"/>
-      <c r="L132" s="16"/>
-      <c r="M132" s="16"/>
-      <c r="N132" s="16"/>
-      <c r="O132" s="16"/>
-      <c r="P132" s="16"/>
-      <c r="Q132" s="16"/>
-      <c r="R132" s="16"/>
-      <c r="S132" s="16"/>
       <c r="T132" s="5"/>
     </row>
     <row r="133" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B133" s="4"/>
-      <c r="C133" s="16"/>
-      <c r="D133" s="16"/>
-      <c r="E133" s="16"/>
-      <c r="F133" s="16"/>
-      <c r="G133" s="16"/>
-      <c r="H133" s="16"/>
-      <c r="I133" s="16"/>
-      <c r="J133" s="16"/>
-      <c r="K133" s="16"/>
-      <c r="L133" s="16"/>
-      <c r="M133" s="16"/>
-      <c r="N133" s="16"/>
-      <c r="O133" s="16"/>
-      <c r="P133" s="16"/>
-      <c r="Q133" s="16"/>
-      <c r="R133" s="16"/>
-      <c r="S133" s="16"/>
       <c r="T133" s="5"/>
     </row>
     <row r="134" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B134" s="4"/>
-      <c r="C134" s="16"/>
-      <c r="D134" s="16"/>
-      <c r="E134" s="16"/>
-      <c r="F134" s="16"/>
-      <c r="G134" s="16"/>
-      <c r="H134" s="16"/>
-      <c r="I134" s="16"/>
-      <c r="J134" s="16"/>
-      <c r="K134" s="16"/>
-      <c r="L134" s="16"/>
-      <c r="M134" s="16"/>
-      <c r="N134" s="16"/>
-      <c r="O134" s="16"/>
-      <c r="P134" s="16"/>
-      <c r="Q134" s="16"/>
-      <c r="R134" s="16"/>
-      <c r="S134" s="16"/>
       <c r="T134" s="5"/>
     </row>
     <row r="135" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B135" s="4"/>
-      <c r="C135" s="16"/>
-      <c r="D135" s="16"/>
-      <c r="E135" s="16"/>
-      <c r="F135" s="16"/>
-      <c r="G135" s="16"/>
-      <c r="H135" s="16"/>
-      <c r="I135" s="16"/>
-      <c r="J135" s="16"/>
-      <c r="K135" s="16"/>
-      <c r="L135" s="16"/>
-      <c r="M135" s="16"/>
-      <c r="N135" s="16"/>
-      <c r="O135" s="16"/>
-      <c r="P135" s="16"/>
-      <c r="Q135" s="16"/>
-      <c r="R135" s="16"/>
-      <c r="S135" s="16"/>
       <c r="T135" s="5"/>
     </row>
     <row r="136" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B136" s="4"/>
-      <c r="C136" s="16"/>
-      <c r="D136" s="16"/>
-      <c r="E136" s="16"/>
-      <c r="F136" s="16"/>
-      <c r="G136" s="16"/>
-      <c r="H136" s="16"/>
-      <c r="I136" s="16"/>
-      <c r="J136" s="16"/>
-      <c r="K136" s="16"/>
-      <c r="L136" s="16"/>
-      <c r="M136" s="16"/>
-      <c r="N136" s="16"/>
-      <c r="O136" s="16"/>
-      <c r="P136" s="16"/>
-      <c r="Q136" s="16"/>
-      <c r="R136" s="16"/>
-      <c r="S136" s="16"/>
       <c r="T136" s="5"/>
     </row>
     <row r="137" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B137" s="4"/>
-      <c r="C137" s="16"/>
-      <c r="D137" s="16"/>
-      <c r="E137" s="16"/>
-      <c r="F137" s="16"/>
-      <c r="G137" s="16"/>
-      <c r="H137" s="16"/>
-      <c r="I137" s="16"/>
-      <c r="J137" s="16"/>
-      <c r="K137" s="16"/>
-      <c r="L137" s="16"/>
-      <c r="M137" s="16"/>
-      <c r="N137" s="16"/>
-      <c r="O137" s="16"/>
-      <c r="P137" s="16"/>
-      <c r="Q137" s="16"/>
-      <c r="R137" s="16"/>
-      <c r="S137" s="16"/>
       <c r="T137" s="5"/>
     </row>
     <row r="138" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B138" s="4"/>
-      <c r="C138" s="16"/>
-      <c r="D138" s="16"/>
-      <c r="E138" s="16"/>
-      <c r="F138" s="16"/>
-      <c r="G138" s="16"/>
-      <c r="H138" s="16"/>
-      <c r="I138" s="16"/>
-      <c r="J138" s="16"/>
-      <c r="K138" s="16"/>
-      <c r="L138" s="16"/>
-      <c r="M138" s="16"/>
-      <c r="N138" s="16"/>
-      <c r="O138" s="16"/>
-      <c r="P138" s="16"/>
-      <c r="Q138" s="16"/>
-      <c r="R138" s="16"/>
-      <c r="S138" s="16"/>
       <c r="T138" s="5"/>
     </row>
     <row r="139" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B139" s="4"/>
-      <c r="C139" s="16"/>
-      <c r="D139" s="16"/>
-      <c r="E139" s="16"/>
-      <c r="F139" s="16"/>
-      <c r="G139" s="16"/>
-      <c r="H139" s="16"/>
-      <c r="I139" s="16"/>
-      <c r="J139" s="16"/>
-      <c r="K139" s="16"/>
-      <c r="L139" s="16"/>
-      <c r="M139" s="16"/>
-      <c r="N139" s="16"/>
-      <c r="O139" s="16"/>
-      <c r="P139" s="16"/>
-      <c r="Q139" s="16"/>
-      <c r="R139" s="16"/>
-      <c r="S139" s="16"/>
       <c r="T139" s="5"/>
     </row>
     <row r="140" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B140" s="4"/>
-      <c r="C140" s="16"/>
-      <c r="D140" s="16"/>
-      <c r="E140" s="16"/>
-      <c r="F140" s="16"/>
-      <c r="G140" s="16"/>
-      <c r="H140" s="16"/>
-      <c r="I140" s="16"/>
-      <c r="J140" s="16"/>
-      <c r="K140" s="16"/>
-      <c r="L140" s="16"/>
-      <c r="M140" s="16"/>
-      <c r="N140" s="16"/>
-      <c r="O140" s="16"/>
-      <c r="P140" s="16"/>
-      <c r="Q140" s="16"/>
-      <c r="R140" s="16"/>
-      <c r="S140" s="16"/>
       <c r="T140" s="5"/>
     </row>
     <row r="141" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B141" s="4"/>
-      <c r="C141" s="16"/>
-      <c r="D141" s="16"/>
-      <c r="E141" s="16"/>
-      <c r="F141" s="16"/>
-      <c r="G141" s="16"/>
-      <c r="H141" s="16"/>
-      <c r="I141" s="16"/>
-      <c r="J141" s="16"/>
-      <c r="K141" s="16"/>
-      <c r="L141" s="16"/>
-      <c r="M141" s="16"/>
-      <c r="N141" s="16"/>
-      <c r="O141" s="16"/>
-      <c r="P141" s="16"/>
-      <c r="Q141" s="16"/>
-      <c r="R141" s="16"/>
-      <c r="S141" s="16"/>
       <c r="T141" s="5"/>
     </row>
     <row r="142" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B142" s="4"/>
-      <c r="C142" s="16"/>
-      <c r="D142" s="16"/>
-      <c r="E142" s="16"/>
-      <c r="F142" s="16"/>
-      <c r="G142" s="16"/>
-      <c r="H142" s="16"/>
-      <c r="I142" s="16"/>
-      <c r="J142" s="16"/>
-      <c r="K142" s="16"/>
-      <c r="L142" s="16"/>
-      <c r="M142" s="16"/>
-      <c r="N142" s="16"/>
-      <c r="O142" s="16"/>
-      <c r="P142" s="16"/>
-      <c r="Q142" s="16"/>
-      <c r="R142" s="16"/>
-      <c r="S142" s="16"/>
       <c r="T142" s="5"/>
     </row>
     <row r="143" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B143" s="4"/>
-      <c r="C143" s="16"/>
-      <c r="D143" s="16"/>
-      <c r="E143" s="16"/>
-      <c r="F143" s="16"/>
-      <c r="G143" s="16"/>
-      <c r="H143" s="16"/>
-      <c r="I143" s="16"/>
-      <c r="J143" s="16"/>
-      <c r="K143" s="16"/>
-      <c r="L143" s="16"/>
-      <c r="M143" s="16"/>
-      <c r="N143" s="16"/>
-      <c r="O143" s="16"/>
-      <c r="P143" s="16"/>
-      <c r="Q143" s="16"/>
-      <c r="R143" s="16"/>
-      <c r="S143" s="16"/>
       <c r="T143" s="5"/>
     </row>
     <row r="144" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B144" s="4"/>
-      <c r="C144" s="16"/>
-      <c r="D144" s="16"/>
-      <c r="E144" s="16"/>
-      <c r="F144" s="16"/>
-      <c r="G144" s="16"/>
-      <c r="H144" s="16"/>
-      <c r="I144" s="16"/>
-      <c r="J144" s="16"/>
-      <c r="K144" s="16"/>
-      <c r="L144" s="16"/>
-      <c r="M144" s="16"/>
-      <c r="N144" s="16"/>
-      <c r="O144" s="16"/>
-      <c r="P144" s="16"/>
-      <c r="Q144" s="16"/>
-      <c r="R144" s="16"/>
-      <c r="S144" s="16"/>
       <c r="T144" s="5"/>
     </row>
     <row r="145" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B145" s="4"/>
-      <c r="C145" s="16"/>
-      <c r="D145" s="16"/>
-      <c r="E145" s="16"/>
-      <c r="F145" s="16"/>
-      <c r="G145" s="16"/>
-      <c r="H145" s="16"/>
-      <c r="I145" s="16"/>
-      <c r="J145" s="16"/>
-      <c r="K145" s="16"/>
-      <c r="L145" s="16"/>
-      <c r="M145" s="16"/>
-      <c r="N145" s="16"/>
-      <c r="O145" s="16"/>
-      <c r="P145" s="16"/>
-      <c r="Q145" s="16"/>
-      <c r="R145" s="16"/>
-      <c r="S145" s="16"/>
       <c r="T145" s="5"/>
     </row>
     <row r="146" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B146" s="4"/>
-      <c r="C146" s="16"/>
-      <c r="D146" s="16"/>
-      <c r="E146" s="16"/>
-      <c r="F146" s="16"/>
-      <c r="G146" s="16"/>
-      <c r="H146" s="16"/>
-      <c r="I146" s="16"/>
-      <c r="J146" s="16"/>
-      <c r="K146" s="16"/>
-      <c r="L146" s="16"/>
-      <c r="M146" s="16"/>
-      <c r="N146" s="16"/>
-      <c r="O146" s="16"/>
-      <c r="P146" s="16"/>
-      <c r="Q146" s="16"/>
-      <c r="R146" s="16"/>
-      <c r="S146" s="16"/>
       <c r="T146" s="5"/>
     </row>
     <row r="147" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B147" s="4"/>
-      <c r="C147" s="16"/>
-      <c r="D147" s="16"/>
-      <c r="E147" s="16"/>
-      <c r="F147" s="16"/>
-      <c r="G147" s="16"/>
-      <c r="H147" s="16"/>
-      <c r="I147" s="16"/>
-      <c r="J147" s="16"/>
-      <c r="K147" s="16"/>
-      <c r="L147" s="16"/>
-      <c r="M147" s="16"/>
-      <c r="N147" s="16"/>
-      <c r="O147" s="16"/>
-      <c r="P147" s="16"/>
-      <c r="Q147" s="16"/>
-      <c r="R147" s="16"/>
-      <c r="S147" s="16"/>
       <c r="T147" s="5"/>
     </row>
     <row r="148" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B148" s="4"/>
-      <c r="C148" s="16"/>
-      <c r="D148" s="16"/>
-      <c r="E148" s="16"/>
-      <c r="F148" s="16"/>
-      <c r="G148" s="16"/>
-      <c r="H148" s="16"/>
-      <c r="I148" s="16"/>
-      <c r="J148" s="16"/>
-      <c r="K148" s="16"/>
-      <c r="L148" s="16"/>
-      <c r="M148" s="16"/>
-      <c r="N148" s="16"/>
-      <c r="O148" s="16"/>
-      <c r="P148" s="16"/>
-      <c r="Q148" s="16"/>
-      <c r="R148" s="16"/>
-      <c r="S148" s="16"/>
       <c r="T148" s="5"/>
     </row>
     <row r="149" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B149" s="4"/>
-      <c r="C149" s="16"/>
-      <c r="D149" s="16"/>
-      <c r="E149" s="16"/>
-      <c r="F149" s="16"/>
-      <c r="G149" s="16"/>
-      <c r="H149" s="16"/>
-      <c r="I149" s="16"/>
-      <c r="J149" s="16"/>
-      <c r="K149" s="16"/>
-      <c r="L149" s="16"/>
-      <c r="M149" s="16"/>
-      <c r="N149" s="16"/>
-      <c r="O149" s="16"/>
-      <c r="P149" s="16"/>
-      <c r="Q149" s="16"/>
-      <c r="R149" s="16"/>
-      <c r="S149" s="16"/>
       <c r="T149" s="5"/>
     </row>
     <row r="150" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B150" s="4"/>
-      <c r="C150" s="16"/>
-      <c r="D150" s="16"/>
-      <c r="E150" s="16"/>
-      <c r="F150" s="16"/>
-      <c r="G150" s="16"/>
-      <c r="H150" s="16"/>
-      <c r="I150" s="16"/>
-      <c r="J150" s="16"/>
-      <c r="K150" s="16"/>
-      <c r="L150" s="16"/>
-      <c r="M150" s="16"/>
-      <c r="N150" s="16"/>
-      <c r="O150" s="16"/>
-      <c r="P150" s="16"/>
-      <c r="Q150" s="16"/>
-      <c r="R150" s="16"/>
-      <c r="S150" s="16"/>
       <c r="T150" s="5"/>
     </row>
     <row r="151" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B151" s="4"/>
-      <c r="C151" s="16"/>
-      <c r="D151" s="16"/>
-      <c r="E151" s="16"/>
-      <c r="F151" s="16"/>
-      <c r="G151" s="16"/>
-      <c r="H151" s="16"/>
-      <c r="I151" s="16"/>
-      <c r="J151" s="16"/>
-      <c r="K151" s="16"/>
-      <c r="L151" s="16"/>
-      <c r="M151" s="16"/>
-      <c r="N151" s="16"/>
-      <c r="O151" s="16"/>
-      <c r="P151" s="16"/>
-      <c r="Q151" s="16"/>
-      <c r="R151" s="16"/>
-      <c r="S151" s="16"/>
       <c r="T151" s="5"/>
     </row>
     <row r="152" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B152" s="4"/>
-      <c r="C152" s="16"/>
-      <c r="D152" s="16"/>
-      <c r="E152" s="16"/>
-      <c r="F152" s="16"/>
-      <c r="G152" s="16"/>
-      <c r="H152" s="16"/>
-      <c r="I152" s="16"/>
-      <c r="J152" s="16"/>
-      <c r="K152" s="16"/>
-      <c r="L152" s="16"/>
-      <c r="M152" s="16"/>
-      <c r="N152" s="16"/>
-      <c r="O152" s="16"/>
-      <c r="P152" s="16"/>
-      <c r="Q152" s="16"/>
-      <c r="R152" s="16"/>
-      <c r="S152" s="16"/>
       <c r="T152" s="5"/>
     </row>
     <row r="153" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B153" s="4"/>
-      <c r="C153" s="16"/>
-      <c r="D153" s="16"/>
-      <c r="E153" s="16"/>
-      <c r="F153" s="16"/>
-      <c r="G153" s="16"/>
-      <c r="H153" s="16"/>
-      <c r="I153" s="16"/>
-      <c r="J153" s="16"/>
-      <c r="K153" s="16"/>
-      <c r="L153" s="16"/>
-      <c r="M153" s="16"/>
-      <c r="N153" s="16"/>
-      <c r="O153" s="16"/>
-      <c r="P153" s="16"/>
-      <c r="Q153" s="16"/>
-      <c r="R153" s="16"/>
-      <c r="S153" s="16"/>
       <c r="T153" s="5"/>
     </row>
     <row r="154" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B154" s="4"/>
-      <c r="C154" s="16"/>
-      <c r="D154" s="16"/>
-      <c r="E154" s="16"/>
-      <c r="F154" s="16"/>
-      <c r="G154" s="16"/>
-      <c r="H154" s="16"/>
-      <c r="I154" s="16"/>
-      <c r="J154" s="16"/>
-      <c r="K154" s="16"/>
-      <c r="L154" s="16"/>
-      <c r="M154" s="16"/>
-      <c r="N154" s="16"/>
-      <c r="O154" s="16"/>
-      <c r="P154" s="16"/>
-      <c r="Q154" s="16"/>
-      <c r="R154" s="16"/>
-      <c r="S154" s="16"/>
       <c r="T154" s="5"/>
     </row>
     <row r="155" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B155" s="4"/>
-      <c r="C155" s="16"/>
-      <c r="D155" s="16"/>
-      <c r="E155" s="16"/>
-      <c r="F155" s="16"/>
-      <c r="G155" s="16"/>
-      <c r="H155" s="16"/>
-      <c r="I155" s="16"/>
-      <c r="J155" s="16"/>
-      <c r="K155" s="16"/>
-      <c r="L155" s="16"/>
-      <c r="M155" s="16"/>
-      <c r="N155" s="16"/>
-      <c r="O155" s="16"/>
-      <c r="P155" s="16"/>
-      <c r="Q155" s="16"/>
-      <c r="R155" s="16"/>
-      <c r="S155" s="16"/>
       <c r="T155" s="5"/>
     </row>
     <row r="156" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B156" s="4"/>
-      <c r="C156" s="16"/>
-      <c r="D156" s="16"/>
-      <c r="E156" s="16"/>
-      <c r="F156" s="16"/>
-      <c r="G156" s="16"/>
-      <c r="H156" s="16"/>
-      <c r="I156" s="16"/>
-      <c r="J156" s="16"/>
-      <c r="K156" s="16"/>
-      <c r="L156" s="16"/>
-      <c r="M156" s="16"/>
-      <c r="N156" s="16"/>
-      <c r="O156" s="16"/>
-      <c r="P156" s="16"/>
-      <c r="Q156" s="16"/>
-      <c r="R156" s="16"/>
-      <c r="S156" s="16"/>
       <c r="T156" s="5"/>
     </row>
     <row r="157" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B157" s="4"/>
-      <c r="C157" s="16"/>
-      <c r="D157" s="16"/>
-      <c r="E157" s="16"/>
-      <c r="F157" s="16"/>
-      <c r="G157" s="16"/>
-      <c r="H157" s="16"/>
-      <c r="I157" s="16"/>
-      <c r="J157" s="16"/>
-      <c r="K157" s="16"/>
-      <c r="L157" s="16"/>
-      <c r="M157" s="16"/>
-      <c r="N157" s="16"/>
-      <c r="O157" s="16"/>
-      <c r="P157" s="16"/>
-      <c r="Q157" s="16"/>
-      <c r="R157" s="16"/>
-      <c r="S157" s="16"/>
       <c r="T157" s="5"/>
     </row>
     <row r="158" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B158" s="4"/>
-      <c r="C158" s="16"/>
-      <c r="D158" s="16"/>
-      <c r="E158" s="16"/>
-      <c r="F158" s="16"/>
-      <c r="G158" s="16"/>
-      <c r="H158" s="16"/>
-      <c r="I158" s="16"/>
-      <c r="J158" s="16"/>
-      <c r="K158" s="16"/>
-      <c r="L158" s="16"/>
-      <c r="M158" s="16"/>
-      <c r="N158" s="16"/>
-      <c r="O158" s="16"/>
-      <c r="P158" s="16"/>
-      <c r="Q158" s="16"/>
-      <c r="R158" s="16"/>
-      <c r="S158" s="16"/>
       <c r="T158" s="5"/>
     </row>
     <row r="159" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B159" s="4"/>
-      <c r="C159" s="16"/>
-      <c r="D159" s="16"/>
-      <c r="E159" s="16"/>
-      <c r="F159" s="16"/>
-      <c r="G159" s="16"/>
-      <c r="H159" s="16"/>
-      <c r="I159" s="16"/>
-      <c r="J159" s="16"/>
-      <c r="K159" s="16"/>
-      <c r="L159" s="16"/>
-      <c r="M159" s="16"/>
-      <c r="N159" s="16"/>
-      <c r="O159" s="16"/>
-      <c r="P159" s="16"/>
-      <c r="Q159" s="16"/>
-      <c r="R159" s="16"/>
-      <c r="S159" s="16"/>
       <c r="T159" s="5"/>
     </row>
     <row r="160" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B160" s="4"/>
-      <c r="C160" s="16"/>
-      <c r="D160" s="16"/>
-      <c r="E160" s="16"/>
-      <c r="F160" s="16"/>
-      <c r="G160" s="16"/>
-      <c r="H160" s="16"/>
-      <c r="I160" s="16"/>
-      <c r="J160" s="16"/>
-      <c r="K160" s="16"/>
-      <c r="L160" s="16"/>
-      <c r="M160" s="16"/>
-      <c r="N160" s="16"/>
-      <c r="O160" s="16"/>
-      <c r="P160" s="16"/>
-      <c r="Q160" s="16"/>
-      <c r="R160" s="16"/>
-      <c r="S160" s="16"/>
       <c r="T160" s="5"/>
     </row>
     <row r="161" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B161" s="4"/>
-      <c r="C161" s="16"/>
-      <c r="D161" s="16"/>
-      <c r="E161" s="16"/>
-      <c r="F161" s="16"/>
-      <c r="G161" s="16"/>
-      <c r="H161" s="16"/>
-      <c r="I161" s="16"/>
-      <c r="J161" s="16"/>
-      <c r="K161" s="16"/>
-      <c r="L161" s="16"/>
-      <c r="M161" s="16"/>
-      <c r="N161" s="16"/>
-      <c r="O161" s="16"/>
-      <c r="P161" s="16"/>
-      <c r="Q161" s="16"/>
-      <c r="R161" s="16"/>
-      <c r="S161" s="16"/>
       <c r="T161" s="5"/>
     </row>
     <row r="162" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B162" s="4"/>
-      <c r="C162" s="16"/>
-      <c r="D162" s="16"/>
-      <c r="E162" s="16"/>
-      <c r="F162" s="16"/>
-      <c r="G162" s="16"/>
-      <c r="H162" s="16"/>
-      <c r="I162" s="16"/>
-      <c r="J162" s="16"/>
-      <c r="K162" s="16"/>
-      <c r="L162" s="16"/>
-      <c r="M162" s="16"/>
-      <c r="N162" s="16"/>
-      <c r="O162" s="16"/>
-      <c r="P162" s="16"/>
-      <c r="Q162" s="16"/>
-      <c r="R162" s="16"/>
-      <c r="S162" s="16"/>
       <c r="T162" s="5"/>
     </row>
     <row r="163" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B163" s="4"/>
-      <c r="C163" s="16"/>
-      <c r="D163" s="16"/>
-      <c r="E163" s="16"/>
-      <c r="F163" s="16"/>
-      <c r="G163" s="16"/>
-      <c r="H163" s="16"/>
-      <c r="I163" s="16"/>
-      <c r="J163" s="16"/>
-      <c r="K163" s="16"/>
-      <c r="L163" s="16"/>
-      <c r="M163" s="16"/>
-      <c r="N163" s="16"/>
-      <c r="O163" s="16"/>
-      <c r="P163" s="16"/>
-      <c r="Q163" s="16"/>
-      <c r="R163" s="16"/>
-      <c r="S163" s="16"/>
       <c r="T163" s="5"/>
     </row>
     <row r="164" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B164" s="4"/>
-      <c r="C164" s="16"/>
-      <c r="D164" s="16"/>
-      <c r="E164" s="16"/>
-      <c r="F164" s="16"/>
-      <c r="G164" s="16"/>
-      <c r="H164" s="16"/>
-      <c r="I164" s="16"/>
-      <c r="J164" s="16"/>
-      <c r="K164" s="16"/>
-      <c r="L164" s="16"/>
-      <c r="M164" s="16"/>
-      <c r="N164" s="16"/>
-      <c r="O164" s="16"/>
-      <c r="P164" s="16"/>
-      <c r="Q164" s="16"/>
-      <c r="R164" s="16"/>
-      <c r="S164" s="16"/>
       <c r="T164" s="5"/>
     </row>
     <row r="165" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B165" s="4"/>
-      <c r="C165" s="16"/>
-      <c r="D165" s="16"/>
-      <c r="E165" s="16"/>
-      <c r="F165" s="16"/>
-      <c r="G165" s="16"/>
-      <c r="H165" s="16"/>
-      <c r="I165" s="16"/>
-      <c r="J165" s="16"/>
-      <c r="K165" s="16"/>
-      <c r="L165" s="16"/>
-      <c r="M165" s="16"/>
-      <c r="N165" s="16"/>
-      <c r="O165" s="16"/>
-      <c r="P165" s="16"/>
-      <c r="Q165" s="16"/>
-      <c r="R165" s="16"/>
-      <c r="S165" s="16"/>
       <c r="T165" s="5"/>
     </row>
     <row r="166" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B166" s="4"/>
-      <c r="C166" s="16"/>
-      <c r="D166" s="16"/>
-      <c r="E166" s="16"/>
-      <c r="F166" s="16"/>
-      <c r="G166" s="16"/>
-      <c r="H166" s="16"/>
-      <c r="I166" s="16"/>
-      <c r="J166" s="16"/>
-      <c r="K166" s="16"/>
-      <c r="L166" s="16"/>
-      <c r="M166" s="16"/>
-      <c r="N166" s="16"/>
-      <c r="O166" s="16"/>
-      <c r="P166" s="16"/>
-      <c r="Q166" s="16"/>
-      <c r="R166" s="16"/>
-      <c r="S166" s="16"/>
       <c r="T166" s="5"/>
     </row>
     <row r="167" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B167" s="4"/>
-      <c r="C167" s="16"/>
-      <c r="D167" s="16"/>
-      <c r="E167" s="16"/>
-      <c r="F167" s="16"/>
-      <c r="G167" s="16"/>
-      <c r="H167" s="16"/>
-      <c r="I167" s="16"/>
-      <c r="J167" s="16"/>
-      <c r="K167" s="16"/>
-      <c r="L167" s="16"/>
-      <c r="M167" s="16"/>
-      <c r="N167" s="16"/>
-      <c r="O167" s="16"/>
-      <c r="P167" s="16"/>
-      <c r="Q167" s="16"/>
-      <c r="R167" s="16"/>
-      <c r="S167" s="16"/>
       <c r="T167" s="5"/>
     </row>
     <row r="168" spans="2:20" x14ac:dyDescent="0.25">

--- a/me/2.Apex-Fundamentals.xlsx
+++ b/me/2.Apex-Fundamentals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\salesforce\me\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{619EB2F9-0C17-46C1-B308-261FB949FFA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F141867F-7BC8-4A8B-81B7-1342186DE958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="7" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="7" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hello World" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="Map Collections Datatype" sheetId="8" r:id="rId8"/>
     <sheet name="Challenge-VariablesAndDatatype" sheetId="9" r:id="rId9"/>
     <sheet name="Constants in Apex" sheetId="10" r:id="rId10"/>
+    <sheet name="Operators" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="288">
   <si>
     <t>Mở Developer Console trên tab mới</t>
   </si>
@@ -715,6 +716,276 @@
   </si>
   <si>
     <t>PI = 2.14159;</t>
+  </si>
+  <si>
+    <t>// assignment operator</t>
+  </si>
+  <si>
+    <t>Integer x = 5;</t>
+  </si>
+  <si>
+    <t>System.debug('assignment operator - '+x);</t>
+  </si>
+  <si>
+    <t>// addition operator</t>
+  </si>
+  <si>
+    <t>x = x + 5;</t>
+  </si>
+  <si>
+    <t>System.debug('addition operator - '+x);</t>
+  </si>
+  <si>
+    <t>// Subtraction operator</t>
+  </si>
+  <si>
+    <t>x = x - 5;</t>
+  </si>
+  <si>
+    <t>System.debug('Subtraction operator - '+x);</t>
+  </si>
+  <si>
+    <t>// multiplication operator</t>
+  </si>
+  <si>
+    <t>x = x * 5;</t>
+  </si>
+  <si>
+    <t>System.debug('multiplication operator - '+x);</t>
+  </si>
+  <si>
+    <t>// division operator</t>
+  </si>
+  <si>
+    <t>x = x/5;</t>
+  </si>
+  <si>
+    <t>System.debug('division operator - '+x);</t>
+  </si>
+  <si>
+    <t>//x = x + 1;</t>
+  </si>
+  <si>
+    <t>//increment operator</t>
+  </si>
+  <si>
+    <t>x++;</t>
+  </si>
+  <si>
+    <t>System.debug('increment operator - '+x);</t>
+  </si>
+  <si>
+    <t>//decrement operator</t>
+  </si>
+  <si>
+    <t>x--;// x=x-1;</t>
+  </si>
+  <si>
+    <t>System.debug('decrement operator - '+x);</t>
+  </si>
+  <si>
+    <t>// addition assignment operator</t>
+  </si>
+  <si>
+    <t>//x = x + 5; addition operator</t>
+  </si>
+  <si>
+    <t>x += 5; // x = x+5;</t>
+  </si>
+  <si>
+    <t>System.debug('addition assignment operator - '+x);</t>
+  </si>
+  <si>
+    <t>// subtraction assignment operator</t>
+  </si>
+  <si>
+    <t>x -= 5; // x = x-5;</t>
+  </si>
+  <si>
+    <t>System.debug('subtraction assignment operator - '+x);</t>
+  </si>
+  <si>
+    <t>// multiplication assignment operator</t>
+  </si>
+  <si>
+    <t>x *= 5; // x = x*5;</t>
+  </si>
+  <si>
+    <t>System.debug('multiplication assignment operator - '+x);</t>
+  </si>
+  <si>
+    <t>// division assignment operator</t>
+  </si>
+  <si>
+    <t>x /= 5; // x = x/5;</t>
+  </si>
+  <si>
+    <t>System.debug('division assignment operator - '+x);</t>
+  </si>
+  <si>
+    <t>// using addition operator on strings</t>
+  </si>
+  <si>
+    <t>String hello = 'Hello';</t>
+  </si>
+  <si>
+    <t>String world = 'World';</t>
+  </si>
+  <si>
+    <t>System.debug(hello + world); //HelloWorld</t>
+  </si>
+  <si>
+    <t>System.debug(hello + ' ' + world); //Hello World</t>
+  </si>
+  <si>
+    <t>Boolean first = true;</t>
+  </si>
+  <si>
+    <t>Boolean second = false;</t>
+  </si>
+  <si>
+    <t>Boolean result;</t>
+  </si>
+  <si>
+    <t>//AND Operator</t>
+  </si>
+  <si>
+    <t>result = first &amp;&amp; second;// both first and second is true, then final is true, else it is false</t>
+  </si>
+  <si>
+    <t>System.debug('And Operator - '+result);</t>
+  </si>
+  <si>
+    <t>//OR Operator</t>
+  </si>
+  <si>
+    <t>result  = first || second;// both first and second is false, then final is false, else it is true</t>
+  </si>
+  <si>
+    <t>System.debug('OR Operator - '+result);</t>
+  </si>
+  <si>
+    <t>// Equality operator</t>
+  </si>
+  <si>
+    <t>result = (first == second); // if both expressions have the same value, then true, else false</t>
+  </si>
+  <si>
+    <t>System.debug('Equality Operator Boolean - '+result);</t>
+  </si>
+  <si>
+    <t>result = (5 == 5);</t>
+  </si>
+  <si>
+    <t>System.debug('Equality Operator Integer - '+result);</t>
+  </si>
+  <si>
+    <t>result = ('Hello' == 'World');</t>
+  </si>
+  <si>
+    <t>System.debug('Equality Operator String - '+result);</t>
+  </si>
+  <si>
+    <t>// Less than operator</t>
+  </si>
+  <si>
+    <t>result = (5 &lt; 6);</t>
+  </si>
+  <si>
+    <t>System.debug('Less than operator - '+result);</t>
+  </si>
+  <si>
+    <t>// Greater than operator</t>
+  </si>
+  <si>
+    <t>result = (5 &gt; 6);</t>
+  </si>
+  <si>
+    <t>System.debug('Greater than operator - '+result);</t>
+  </si>
+  <si>
+    <t>//less than or equal to operator</t>
+  </si>
+  <si>
+    <t>result = (5 &lt;= 6);</t>
+  </si>
+  <si>
+    <t>System.debug('less than or equal to operator - '+result);</t>
+  </si>
+  <si>
+    <t>result = (6 &lt;= 6);</t>
+  </si>
+  <si>
+    <t>System.debug('less than or equal to operator 2 - '+result);</t>
+  </si>
+  <si>
+    <t>//greater than or equal to operator</t>
+  </si>
+  <si>
+    <t>result = (5 &gt;= 6);</t>
+  </si>
+  <si>
+    <t>System.debug('greater than or equal to operator - '+result);</t>
+  </si>
+  <si>
+    <t>result = (6 &gt;= 6);</t>
+  </si>
+  <si>
+    <t>System.debug('greater than or equal to operator 2 - '+result);</t>
+  </si>
+  <si>
+    <t>// NOT operator</t>
+  </si>
+  <si>
+    <t>System.debug('Not operator before - '+ first);</t>
+  </si>
+  <si>
+    <t>first = !first;</t>
+  </si>
+  <si>
+    <t>System.debug('Not operator after - '+ first);</t>
+  </si>
+  <si>
+    <t>// Ternary operator</t>
+  </si>
+  <si>
+    <t>String greeting = '';</t>
+  </si>
+  <si>
+    <t>Integer hour = 10;</t>
+  </si>
+  <si>
+    <t>// if hour is less than 12, then greeting should be good morning</t>
+  </si>
+  <si>
+    <t>// else greeting should be good afternoon</t>
+  </si>
+  <si>
+    <t>greeting = (hour &lt; 12) ? 'Good Morning' : 'Good Afternoon';</t>
+  </si>
+  <si>
+    <t>System.debug('Ternary operator 10 - '+ greeting);</t>
+  </si>
+  <si>
+    <t>hour = 13;</t>
+  </si>
+  <si>
+    <t>System.debug('Ternary operator 13 - '+ greeting);</t>
+  </si>
+  <si>
+    <t>//Challenge</t>
+  </si>
+  <si>
+    <t>// if hour &lt; 12 = Good morning</t>
+  </si>
+  <si>
+    <t>// if hour &gt; 12 &amp;&amp; hour &lt; 5 = Good Afternoon</t>
+  </si>
+  <si>
+    <t>// else Good Evening</t>
+  </si>
+  <si>
+    <t>11.operators.txt</t>
   </si>
 </sst>
 </file>
@@ -946,8 +1217,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
@@ -956,6 +1225,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2186,6 +2457,104 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>417474</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>132837</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="6" name="Group 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B885578F-899D-B3B3-3F10-01D2C21FD7B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="6915150" y="5305425"/>
+          <a:ext cx="13009524" cy="8733912"/>
+          <a:chOff x="6705600" y="3619500"/>
+          <a:chExt cx="13009524" cy="8733912"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="2" name="Picture 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F4AC322-C289-CF60-9E2A-F0351D89DACE}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6705600" y="3619500"/>
+            <a:ext cx="13000000" cy="4647619"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="3" name="Picture 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FA80FF0-8E66-F23E-40DD-B5C3DF7EF56B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6705600" y="8248650"/>
+            <a:ext cx="13009524" cy="4104762"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -6401,8 +6770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16C173CF-FC27-4BCA-8B8E-97F210FF7B89}">
   <dimension ref="A2:T107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6498,7 +6867,7 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B17" s="4"/>
-      <c r="D17" s="16" t="s">
+      <c r="D17" t="s">
         <v>175</v>
       </c>
       <c r="H17" s="5"/>
@@ -6531,28 +6900,28 @@
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="18"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="19"/>
-      <c r="N23" s="19"/>
-      <c r="O23" s="19"/>
-      <c r="P23" s="19"/>
-      <c r="Q23" s="19"/>
-      <c r="R23" s="19"/>
-      <c r="S23" s="20"/>
+      <c r="A23" s="16"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="17"/>
+      <c r="S23" s="18"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="21"/>
+      <c r="A24" s="19"/>
       <c r="B24" s="1" t="s">
         <v>193</v>
       </c>
@@ -6561,446 +6930,893 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="3"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
-      <c r="R24" s="17"/>
-      <c r="S24" s="22"/>
+      <c r="S24" s="20"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="21"/>
+      <c r="A25" s="19"/>
       <c r="B25" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
       <c r="G25" s="5"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="17"/>
-      <c r="R25" s="17"/>
-      <c r="S25" s="22"/>
+      <c r="S25" s="20"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="21"/>
+      <c r="A26" s="19"/>
       <c r="B26" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
       <c r="G26" s="5"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
-      <c r="R26" s="17"/>
-      <c r="S26" s="22"/>
+      <c r="S26" s="20"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="21"/>
+      <c r="A27" s="19"/>
       <c r="B27" s="6"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
       <c r="G27" s="8"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
-      <c r="R27" s="17"/>
-      <c r="S27" s="22"/>
+      <c r="S27" s="20"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="21"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
-      <c r="R28" s="17"/>
-      <c r="S28" s="22"/>
+      <c r="A28" s="19"/>
+      <c r="S28" s="20"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="21"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="17"/>
-      <c r="R29" s="17"/>
-      <c r="S29" s="22"/>
+      <c r="A29" s="19"/>
+      <c r="S29" s="20"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="21"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="17"/>
-      <c r="R30" s="17"/>
-      <c r="S30" s="22"/>
+      <c r="A30" s="19"/>
+      <c r="S30" s="20"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="21"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="17"/>
-      <c r="R31" s="17"/>
-      <c r="S31" s="22"/>
+      <c r="A31" s="19"/>
+      <c r="S31" s="20"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="21"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="17"/>
-      <c r="R32" s="17"/>
-      <c r="S32" s="22"/>
+      <c r="A32" s="19"/>
+      <c r="S32" s="20"/>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A33" s="21"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="17"/>
-      <c r="R33" s="17"/>
-      <c r="S33" s="22"/>
+      <c r="A33" s="19"/>
+      <c r="S33" s="20"/>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A34" s="21"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="17"/>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="17"/>
-      <c r="R34" s="17"/>
-      <c r="S34" s="22"/>
+      <c r="A34" s="19"/>
+      <c r="S34" s="20"/>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A35" s="21"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="17"/>
-      <c r="P35" s="17"/>
-      <c r="Q35" s="17"/>
-      <c r="R35" s="17"/>
-      <c r="S35" s="22"/>
+      <c r="A35" s="19"/>
+      <c r="S35" s="20"/>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A36" s="21"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="17"/>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="17"/>
-      <c r="P36" s="17"/>
-      <c r="Q36" s="17"/>
-      <c r="R36" s="17"/>
-      <c r="S36" s="22"/>
+      <c r="A36" s="19"/>
+      <c r="S36" s="20"/>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A37" s="21"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="17"/>
-      <c r="K37" s="17"/>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="17"/>
-      <c r="O37" s="17"/>
-      <c r="P37" s="17"/>
-      <c r="Q37" s="17"/>
-      <c r="R37" s="17"/>
-      <c r="S37" s="22"/>
+      <c r="A37" s="19"/>
+      <c r="S37" s="20"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A38" s="21"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="17"/>
-      <c r="K38" s="17"/>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="17"/>
-      <c r="O38" s="17"/>
-      <c r="P38" s="17"/>
-      <c r="Q38" s="17"/>
-      <c r="R38" s="17"/>
-      <c r="S38" s="22"/>
+      <c r="A38" s="19"/>
+      <c r="S38" s="20"/>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A39" s="21"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="17"/>
-      <c r="K39" s="17"/>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
-      <c r="N39" s="17"/>
-      <c r="O39" s="17"/>
-      <c r="P39" s="17"/>
-      <c r="Q39" s="17"/>
-      <c r="R39" s="17"/>
-      <c r="S39" s="22"/>
+      <c r="A39" s="19"/>
+      <c r="S39" s="20"/>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A40" s="21"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="17"/>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="17"/>
-      <c r="P40" s="17"/>
-      <c r="Q40" s="17"/>
-      <c r="R40" s="17"/>
-      <c r="S40" s="22"/>
+      <c r="A40" s="19"/>
+      <c r="S40" s="20"/>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A41" s="21"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="17"/>
-      <c r="J41" s="17"/>
-      <c r="K41" s="17"/>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
-      <c r="N41" s="17"/>
-      <c r="O41" s="17"/>
-      <c r="P41" s="17"/>
-      <c r="Q41" s="17"/>
-      <c r="R41" s="17"/>
-      <c r="S41" s="22"/>
+      <c r="A41" s="19"/>
+      <c r="S41" s="20"/>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A42" s="21"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="17"/>
-      <c r="K42" s="17"/>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="17"/>
-      <c r="P42" s="17"/>
-      <c r="Q42" s="17"/>
-      <c r="R42" s="17"/>
-      <c r="S42" s="22"/>
+      <c r="A42" s="19"/>
+      <c r="S42" s="20"/>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A43" s="21"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="17"/>
-      <c r="J43" s="17"/>
-      <c r="K43" s="17"/>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
-      <c r="N43" s="17"/>
-      <c r="O43" s="17"/>
-      <c r="P43" s="17"/>
-      <c r="Q43" s="17"/>
-      <c r="R43" s="17"/>
-      <c r="S43" s="22"/>
+      <c r="A43" s="19"/>
+      <c r="S43" s="20"/>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A44" s="21"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="17"/>
-      <c r="J44" s="17"/>
-      <c r="K44" s="17"/>
-      <c r="L44" s="17"/>
-      <c r="M44" s="17"/>
-      <c r="N44" s="17"/>
-      <c r="O44" s="17"/>
-      <c r="P44" s="17"/>
-      <c r="Q44" s="17"/>
-      <c r="R44" s="17"/>
-      <c r="S44" s="22"/>
+      <c r="A44" s="19"/>
+      <c r="S44" s="20"/>
     </row>
     <row r="45" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="23"/>
-      <c r="B45" s="24"/>
+      <c r="A45" s="21"/>
+      <c r="B45" s="22"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="22"/>
+      <c r="I45" s="22"/>
+      <c r="J45" s="22"/>
+      <c r="K45" s="22"/>
+      <c r="L45" s="22"/>
+      <c r="M45" s="22"/>
+      <c r="N45" s="22"/>
+      <c r="O45" s="22"/>
+      <c r="P45" s="22"/>
+      <c r="Q45" s="22"/>
+      <c r="R45" s="22"/>
+      <c r="S45" s="23"/>
+    </row>
+    <row r="47" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A48" s="16"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="17"/>
+      <c r="I48" s="17"/>
+      <c r="J48" s="17"/>
+      <c r="K48" s="17"/>
+      <c r="L48" s="17"/>
+      <c r="M48" s="17"/>
+      <c r="N48" s="17"/>
+      <c r="O48" s="17"/>
+      <c r="P48" s="17"/>
+      <c r="Q48" s="17"/>
+      <c r="R48" s="17"/>
+      <c r="S48" s="17"/>
+      <c r="T48" s="18"/>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A49" s="19"/>
+      <c r="B49" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="3"/>
+      <c r="T49" s="20"/>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A50" s="19"/>
+      <c r="B50" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="F50" s="5"/>
+      <c r="T50" s="20"/>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A51" s="19"/>
+      <c r="B51" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="F51" s="5"/>
+      <c r="T51" s="20"/>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A52" s="19"/>
+      <c r="B52" s="4"/>
+      <c r="F52" s="5"/>
+      <c r="T52" s="20"/>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A53" s="19"/>
+      <c r="B53" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="F53" s="5"/>
+      <c r="T53" s="20"/>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A54" s="19"/>
+      <c r="B54" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="F54" s="5"/>
+      <c r="T54" s="20"/>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A55" s="19"/>
+      <c r="B55" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="8"/>
+      <c r="T55" s="20"/>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A56" s="19"/>
+      <c r="T56" s="20"/>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A57" s="19"/>
+      <c r="T57" s="20"/>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A58" s="19"/>
+      <c r="T58" s="20"/>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A59" s="19"/>
+      <c r="T59" s="20"/>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A60" s="19"/>
+      <c r="T60" s="20"/>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A61" s="19"/>
+      <c r="T61" s="20"/>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A62" s="19"/>
+      <c r="T62" s="20"/>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A63" s="19"/>
+      <c r="T63" s="20"/>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A64" s="19"/>
+      <c r="T64" s="20"/>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A65" s="19"/>
+      <c r="T65" s="20"/>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A66" s="19"/>
+      <c r="T66" s="20"/>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A67" s="19"/>
+      <c r="T67" s="20"/>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A68" s="19"/>
+      <c r="T68" s="20"/>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A69" s="19"/>
+      <c r="T69" s="20"/>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A70" s="19"/>
+      <c r="T70" s="20"/>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A71" s="19"/>
+      <c r="T71" s="20"/>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A72" s="19"/>
+      <c r="T72" s="20"/>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A73" s="19"/>
+      <c r="T73" s="20"/>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A74" s="19"/>
+      <c r="T74" s="20"/>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A75" s="19"/>
+      <c r="T75" s="20"/>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A76" s="19"/>
+      <c r="T76" s="20"/>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A77" s="19"/>
+      <c r="T77" s="20"/>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A78" s="19"/>
+      <c r="T78" s="20"/>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A79" s="19"/>
+      <c r="T79" s="20"/>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A80" s="19"/>
+      <c r="T80" s="20"/>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A81" s="19"/>
+      <c r="T81" s="20"/>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A82" s="19"/>
+      <c r="T82" s="20"/>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A83" s="19"/>
+      <c r="T83" s="20"/>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A84" s="19"/>
+      <c r="T84" s="20"/>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A85" s="19"/>
+      <c r="T85" s="20"/>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A86" s="19"/>
+      <c r="T86" s="20"/>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A87" s="19"/>
+      <c r="T87" s="20"/>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A88" s="19"/>
+      <c r="T88" s="20"/>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A89" s="19"/>
+      <c r="T89" s="20"/>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A90" s="19"/>
+      <c r="T90" s="20"/>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A91" s="19"/>
+      <c r="T91" s="20"/>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A92" s="19"/>
+      <c r="T92" s="20"/>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A93" s="19"/>
+      <c r="T93" s="20"/>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A94" s="19"/>
+      <c r="T94" s="20"/>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A95" s="19"/>
+      <c r="T95" s="20"/>
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A96" s="19"/>
+      <c r="T96" s="20"/>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A97" s="19"/>
+      <c r="T97" s="20"/>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A98" s="19"/>
+      <c r="T98" s="20"/>
+    </row>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A99" s="19"/>
+      <c r="T99" s="20"/>
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A100" s="19"/>
+      <c r="T100" s="20"/>
+    </row>
+    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A101" s="19"/>
+      <c r="T101" s="20"/>
+    </row>
+    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A102" s="19"/>
+      <c r="T102" s="20"/>
+    </row>
+    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A103" s="19"/>
+      <c r="T103" s="20"/>
+    </row>
+    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A104" s="19"/>
+      <c r="T104" s="20"/>
+    </row>
+    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A105" s="19"/>
+      <c r="T105" s="20"/>
+    </row>
+    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A106" s="19"/>
+      <c r="T106" s="20"/>
+    </row>
+    <row r="107" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="21"/>
+      <c r="B107" s="22"/>
+      <c r="C107" s="22"/>
+      <c r="D107" s="22"/>
+      <c r="E107" s="22"/>
+      <c r="F107" s="22"/>
+      <c r="G107" s="22"/>
+      <c r="H107" s="22"/>
+      <c r="I107" s="22"/>
+      <c r="J107" s="22"/>
+      <c r="K107" s="22"/>
+      <c r="L107" s="22"/>
+      <c r="M107" s="22"/>
+      <c r="N107" s="22"/>
+      <c r="O107" s="22"/>
+      <c r="P107" s="22"/>
+      <c r="Q107" s="22"/>
+      <c r="R107" s="22"/>
+      <c r="S107" s="22"/>
+      <c r="T107" s="23"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CA5570D-70F4-4206-A9FB-A92E1F5012C6}">
+  <dimension ref="A3:J131"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="4"/>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="4"/>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="4"/>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="4"/>
+      <c r="D8" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="4"/>
+      <c r="D9" t="s">
+        <v>77</v>
+      </c>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="4"/>
+      <c r="D10" t="s">
+        <v>81</v>
+      </c>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="4"/>
+      <c r="D11" t="s">
+        <v>92</v>
+      </c>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="4"/>
+      <c r="D12" t="s">
+        <v>125</v>
+      </c>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="4"/>
+      <c r="D13" t="s">
+        <v>140</v>
+      </c>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="4"/>
+      <c r="D14" t="s">
+        <v>175</v>
+      </c>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="4"/>
+      <c r="D15" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="4"/>
+      <c r="D16" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="6"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="8"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="5"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="5"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="4"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="5"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="5"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="5"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="5"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="4"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="5"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="5"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="5"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="5"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="5"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B32" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="5"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B33" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="5"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B34" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="5"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B35" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="5"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B36" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="24"/>
+      <c r="J36" s="5"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B37" s="4"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="5"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B38" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="24"/>
+      <c r="J38" s="5"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B39" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="5"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B40" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="24"/>
+      <c r="J40" s="5"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B41" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="24"/>
+      <c r="J41" s="5"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B42" s="4"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="24"/>
+      <c r="J42" s="5"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B43" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="24"/>
+      <c r="J43" s="5"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B44" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="24"/>
+      <c r="J44" s="5"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B45" s="4" t="s">
+        <v>219</v>
+      </c>
       <c r="C45" s="24"/>
       <c r="D45" s="24"/>
       <c r="E45" s="24"/>
@@ -7008,1352 +7824,779 @@
       <c r="G45" s="24"/>
       <c r="H45" s="24"/>
       <c r="I45" s="24"/>
-      <c r="J45" s="24"/>
-      <c r="K45" s="24"/>
-      <c r="L45" s="24"/>
-      <c r="M45" s="24"/>
-      <c r="N45" s="24"/>
-      <c r="O45" s="24"/>
-      <c r="P45" s="24"/>
-      <c r="Q45" s="24"/>
-      <c r="R45" s="24"/>
-      <c r="S45" s="25"/>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A46" s="17"/>
-      <c r="B46" s="17"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="17"/>
-      <c r="I46" s="17"/>
-      <c r="J46" s="17"/>
-      <c r="K46" s="17"/>
-      <c r="L46" s="17"/>
-      <c r="M46" s="17"/>
-      <c r="N46" s="17"/>
-      <c r="O46" s="17"/>
-      <c r="P46" s="17"/>
-      <c r="Q46" s="17"/>
-      <c r="R46" s="17"/>
-      <c r="S46" s="17"/>
-    </row>
-    <row r="47" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A48" s="18"/>
-      <c r="B48" s="19"/>
-      <c r="C48" s="19"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="19"/>
-      <c r="F48" s="19"/>
-      <c r="G48" s="19"/>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="19"/>
-      <c r="K48" s="19"/>
-      <c r="L48" s="19"/>
-      <c r="M48" s="19"/>
-      <c r="N48" s="19"/>
-      <c r="O48" s="19"/>
-      <c r="P48" s="19"/>
-      <c r="Q48" s="19"/>
-      <c r="R48" s="19"/>
-      <c r="S48" s="19"/>
-      <c r="T48" s="20"/>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A49" s="21"/>
-      <c r="B49" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="17"/>
-      <c r="H49" s="17"/>
-      <c r="I49" s="17"/>
-      <c r="J49" s="17"/>
-      <c r="K49" s="17"/>
-      <c r="L49" s="17"/>
-      <c r="M49" s="17"/>
-      <c r="N49" s="17"/>
-      <c r="O49" s="17"/>
-      <c r="P49" s="17"/>
-      <c r="Q49" s="17"/>
-      <c r="R49" s="17"/>
-      <c r="S49" s="17"/>
-      <c r="T49" s="22"/>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A50" s="21"/>
+      <c r="J45" s="5"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B46" s="4"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="24"/>
+      <c r="J46" s="5"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B47" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C47" s="24"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="24"/>
+      <c r="H47" s="24"/>
+      <c r="I47" s="24"/>
+      <c r="J47" s="5"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B48" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C48" s="24"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="24"/>
+      <c r="I48" s="24"/>
+      <c r="J48" s="5"/>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B49" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C49" s="24"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="24"/>
+      <c r="H49" s="24"/>
+      <c r="I49" s="24"/>
+      <c r="J49" s="5"/>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B50" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C50" s="17"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="17"/>
-      <c r="H50" s="17"/>
-      <c r="I50" s="17"/>
-      <c r="J50" s="17"/>
-      <c r="K50" s="17"/>
-      <c r="L50" s="17"/>
-      <c r="M50" s="17"/>
-      <c r="N50" s="17"/>
-      <c r="O50" s="17"/>
-      <c r="P50" s="17"/>
-      <c r="Q50" s="17"/>
-      <c r="R50" s="17"/>
-      <c r="S50" s="17"/>
-      <c r="T50" s="22"/>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A51" s="21"/>
+        <v>223</v>
+      </c>
+      <c r="C50" s="24"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="24"/>
+      <c r="H50" s="24"/>
+      <c r="I50" s="24"/>
+      <c r="J50" s="5"/>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B51" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="C51" s="17"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="17"/>
-      <c r="H51" s="17"/>
-      <c r="I51" s="17"/>
-      <c r="J51" s="17"/>
-      <c r="K51" s="17"/>
-      <c r="L51" s="17"/>
-      <c r="M51" s="17"/>
-      <c r="N51" s="17"/>
-      <c r="O51" s="17"/>
-      <c r="P51" s="17"/>
-      <c r="Q51" s="17"/>
-      <c r="R51" s="17"/>
-      <c r="S51" s="17"/>
-      <c r="T51" s="22"/>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A52" s="21"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="17"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="17"/>
-      <c r="H52" s="17"/>
-      <c r="I52" s="17"/>
-      <c r="J52" s="17"/>
-      <c r="K52" s="17"/>
-      <c r="L52" s="17"/>
-      <c r="M52" s="17"/>
-      <c r="N52" s="17"/>
-      <c r="O52" s="17"/>
-      <c r="P52" s="17"/>
-      <c r="Q52" s="17"/>
-      <c r="R52" s="17"/>
-      <c r="S52" s="17"/>
-      <c r="T52" s="22"/>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A53" s="21"/>
+        <v>224</v>
+      </c>
+      <c r="C51" s="24"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="24"/>
+      <c r="H51" s="24"/>
+      <c r="I51" s="24"/>
+      <c r="J51" s="5"/>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B52" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C52" s="24"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="24"/>
+      <c r="F52" s="24"/>
+      <c r="G52" s="24"/>
+      <c r="H52" s="24"/>
+      <c r="I52" s="24"/>
+      <c r="J52" s="5"/>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B53" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="C53" s="17"/>
-      <c r="D53" s="17"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="17"/>
-      <c r="H53" s="17"/>
-      <c r="I53" s="17"/>
-      <c r="J53" s="17"/>
-      <c r="K53" s="17"/>
-      <c r="L53" s="17"/>
-      <c r="M53" s="17"/>
-      <c r="N53" s="17"/>
-      <c r="O53" s="17"/>
-      <c r="P53" s="17"/>
-      <c r="Q53" s="17"/>
-      <c r="R53" s="17"/>
-      <c r="S53" s="17"/>
-      <c r="T53" s="22"/>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A54" s="21"/>
+        <v>226</v>
+      </c>
+      <c r="C53" s="24"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="24"/>
+      <c r="F53" s="24"/>
+      <c r="G53" s="24"/>
+      <c r="H53" s="24"/>
+      <c r="I53" s="24"/>
+      <c r="J53" s="5"/>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B54" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="C54" s="17"/>
-      <c r="D54" s="17"/>
-      <c r="E54" s="17"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="17"/>
-      <c r="H54" s="17"/>
-      <c r="I54" s="17"/>
-      <c r="J54" s="17"/>
-      <c r="K54" s="17"/>
-      <c r="L54" s="17"/>
-      <c r="M54" s="17"/>
-      <c r="N54" s="17"/>
-      <c r="O54" s="17"/>
-      <c r="P54" s="17"/>
-      <c r="Q54" s="17"/>
-      <c r="R54" s="17"/>
-      <c r="S54" s="17"/>
-      <c r="T54" s="22"/>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A55" s="21"/>
-      <c r="B55" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="17"/>
-      <c r="H55" s="17"/>
-      <c r="I55" s="17"/>
-      <c r="J55" s="17"/>
-      <c r="K55" s="17"/>
-      <c r="L55" s="17"/>
-      <c r="M55" s="17"/>
-      <c r="N55" s="17"/>
-      <c r="O55" s="17"/>
-      <c r="P55" s="17"/>
-      <c r="Q55" s="17"/>
-      <c r="R55" s="17"/>
-      <c r="S55" s="17"/>
-      <c r="T55" s="22"/>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A56" s="21"/>
-      <c r="B56" s="17"/>
-      <c r="C56" s="17"/>
-      <c r="D56" s="17"/>
-      <c r="E56" s="17"/>
-      <c r="F56" s="17"/>
-      <c r="G56" s="17"/>
-      <c r="H56" s="17"/>
-      <c r="I56" s="17"/>
-      <c r="J56" s="17"/>
-      <c r="K56" s="17"/>
-      <c r="L56" s="17"/>
-      <c r="M56" s="17"/>
-      <c r="N56" s="17"/>
-      <c r="O56" s="17"/>
-      <c r="P56" s="17"/>
-      <c r="Q56" s="17"/>
-      <c r="R56" s="17"/>
-      <c r="S56" s="17"/>
-      <c r="T56" s="22"/>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A57" s="21"/>
-      <c r="B57" s="17"/>
-      <c r="C57" s="17"/>
-      <c r="D57" s="17"/>
-      <c r="E57" s="17"/>
-      <c r="F57" s="17"/>
-      <c r="G57" s="17"/>
-      <c r="H57" s="17"/>
-      <c r="I57" s="17"/>
-      <c r="J57" s="17"/>
-      <c r="K57" s="17"/>
-      <c r="L57" s="17"/>
-      <c r="M57" s="17"/>
-      <c r="N57" s="17"/>
-      <c r="O57" s="17"/>
-      <c r="P57" s="17"/>
-      <c r="Q57" s="17"/>
-      <c r="R57" s="17"/>
-      <c r="S57" s="17"/>
-      <c r="T57" s="22"/>
-    </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A58" s="21"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="17"/>
-      <c r="D58" s="17"/>
-      <c r="E58" s="17"/>
-      <c r="F58" s="17"/>
-      <c r="G58" s="17"/>
-      <c r="H58" s="17"/>
-      <c r="I58" s="17"/>
-      <c r="J58" s="17"/>
-      <c r="K58" s="17"/>
-      <c r="L58" s="17"/>
-      <c r="M58" s="17"/>
-      <c r="N58" s="17"/>
-      <c r="O58" s="17"/>
-      <c r="P58" s="17"/>
-      <c r="Q58" s="17"/>
-      <c r="R58" s="17"/>
-      <c r="S58" s="17"/>
-      <c r="T58" s="22"/>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A59" s="21"/>
-      <c r="B59" s="17"/>
-      <c r="C59" s="17"/>
-      <c r="D59" s="17"/>
-      <c r="E59" s="17"/>
-      <c r="F59" s="17"/>
-      <c r="G59" s="17"/>
-      <c r="H59" s="17"/>
-      <c r="I59" s="17"/>
-      <c r="J59" s="17"/>
-      <c r="K59" s="17"/>
-      <c r="L59" s="17"/>
-      <c r="M59" s="17"/>
-      <c r="N59" s="17"/>
-      <c r="O59" s="17"/>
-      <c r="P59" s="17"/>
-      <c r="Q59" s="17"/>
-      <c r="R59" s="17"/>
-      <c r="S59" s="17"/>
-      <c r="T59" s="22"/>
-    </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A60" s="21"/>
-      <c r="B60" s="17"/>
-      <c r="C60" s="17"/>
-      <c r="D60" s="17"/>
-      <c r="E60" s="17"/>
-      <c r="F60" s="17"/>
-      <c r="G60" s="17"/>
-      <c r="H60" s="17"/>
-      <c r="I60" s="17"/>
-      <c r="J60" s="17"/>
-      <c r="K60" s="17"/>
-      <c r="L60" s="17"/>
-      <c r="M60" s="17"/>
-      <c r="N60" s="17"/>
-      <c r="O60" s="17"/>
-      <c r="P60" s="17"/>
-      <c r="Q60" s="17"/>
-      <c r="R60" s="17"/>
-      <c r="S60" s="17"/>
-      <c r="T60" s="22"/>
-    </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A61" s="21"/>
-      <c r="B61" s="17"/>
-      <c r="C61" s="17"/>
-      <c r="D61" s="17"/>
-      <c r="E61" s="17"/>
-      <c r="F61" s="17"/>
-      <c r="G61" s="17"/>
-      <c r="H61" s="17"/>
-      <c r="I61" s="17"/>
-      <c r="J61" s="17"/>
-      <c r="K61" s="17"/>
-      <c r="L61" s="17"/>
-      <c r="M61" s="17"/>
-      <c r="N61" s="17"/>
-      <c r="O61" s="17"/>
-      <c r="P61" s="17"/>
-      <c r="Q61" s="17"/>
-      <c r="R61" s="17"/>
-      <c r="S61" s="17"/>
-      <c r="T61" s="22"/>
-    </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A62" s="21"/>
-      <c r="B62" s="17"/>
-      <c r="C62" s="17"/>
-      <c r="D62" s="17"/>
-      <c r="E62" s="17"/>
-      <c r="F62" s="17"/>
-      <c r="G62" s="17"/>
-      <c r="H62" s="17"/>
-      <c r="I62" s="17"/>
-      <c r="J62" s="17"/>
-      <c r="K62" s="17"/>
-      <c r="L62" s="17"/>
-      <c r="M62" s="17"/>
-      <c r="N62" s="17"/>
-      <c r="O62" s="17"/>
-      <c r="P62" s="17"/>
-      <c r="Q62" s="17"/>
-      <c r="R62" s="17"/>
-      <c r="S62" s="17"/>
-      <c r="T62" s="22"/>
-    </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A63" s="21"/>
-      <c r="B63" s="17"/>
-      <c r="C63" s="17"/>
-      <c r="D63" s="17"/>
-      <c r="E63" s="17"/>
-      <c r="F63" s="17"/>
-      <c r="G63" s="17"/>
-      <c r="H63" s="17"/>
-      <c r="I63" s="17"/>
-      <c r="J63" s="17"/>
-      <c r="K63" s="17"/>
-      <c r="L63" s="17"/>
-      <c r="M63" s="17"/>
-      <c r="N63" s="17"/>
-      <c r="O63" s="17"/>
-      <c r="P63" s="17"/>
-      <c r="Q63" s="17"/>
-      <c r="R63" s="17"/>
-      <c r="S63" s="17"/>
-      <c r="T63" s="22"/>
-    </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A64" s="21"/>
-      <c r="B64" s="17"/>
-      <c r="C64" s="17"/>
-      <c r="D64" s="17"/>
-      <c r="E64" s="17"/>
-      <c r="F64" s="17"/>
-      <c r="G64" s="17"/>
-      <c r="H64" s="17"/>
-      <c r="I64" s="17"/>
-      <c r="J64" s="17"/>
-      <c r="K64" s="17"/>
-      <c r="L64" s="17"/>
-      <c r="M64" s="17"/>
-      <c r="N64" s="17"/>
-      <c r="O64" s="17"/>
-      <c r="P64" s="17"/>
-      <c r="Q64" s="17"/>
-      <c r="R64" s="17"/>
-      <c r="S64" s="17"/>
-      <c r="T64" s="22"/>
-    </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A65" s="21"/>
-      <c r="B65" s="17"/>
-      <c r="C65" s="17"/>
-      <c r="D65" s="17"/>
-      <c r="E65" s="17"/>
-      <c r="F65" s="17"/>
-      <c r="G65" s="17"/>
-      <c r="H65" s="17"/>
-      <c r="I65" s="17"/>
-      <c r="J65" s="17"/>
-      <c r="K65" s="17"/>
-      <c r="L65" s="17"/>
-      <c r="M65" s="17"/>
-      <c r="N65" s="17"/>
-      <c r="O65" s="17"/>
-      <c r="P65" s="17"/>
-      <c r="Q65" s="17"/>
-      <c r="R65" s="17"/>
-      <c r="S65" s="17"/>
-      <c r="T65" s="22"/>
-    </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A66" s="21"/>
-      <c r="B66" s="17"/>
-      <c r="C66" s="17"/>
-      <c r="D66" s="17"/>
-      <c r="E66" s="17"/>
-      <c r="F66" s="17"/>
-      <c r="G66" s="17"/>
-      <c r="H66" s="17"/>
-      <c r="I66" s="17"/>
-      <c r="J66" s="17"/>
-      <c r="K66" s="17"/>
-      <c r="L66" s="17"/>
-      <c r="M66" s="17"/>
-      <c r="N66" s="17"/>
-      <c r="O66" s="17"/>
-      <c r="P66" s="17"/>
-      <c r="Q66" s="17"/>
-      <c r="R66" s="17"/>
-      <c r="S66" s="17"/>
-      <c r="T66" s="22"/>
-    </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A67" s="21"/>
-      <c r="B67" s="17"/>
-      <c r="C67" s="17"/>
-      <c r="D67" s="17"/>
-      <c r="E67" s="17"/>
-      <c r="F67" s="17"/>
-      <c r="G67" s="17"/>
-      <c r="H67" s="17"/>
-      <c r="I67" s="17"/>
-      <c r="J67" s="17"/>
-      <c r="K67" s="17"/>
-      <c r="L67" s="17"/>
-      <c r="M67" s="17"/>
-      <c r="N67" s="17"/>
-      <c r="O67" s="17"/>
-      <c r="P67" s="17"/>
-      <c r="Q67" s="17"/>
-      <c r="R67" s="17"/>
-      <c r="S67" s="17"/>
-      <c r="T67" s="22"/>
-    </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A68" s="21"/>
-      <c r="B68" s="17"/>
-      <c r="C68" s="17"/>
-      <c r="D68" s="17"/>
-      <c r="E68" s="17"/>
-      <c r="F68" s="17"/>
-      <c r="G68" s="17"/>
-      <c r="H68" s="17"/>
-      <c r="I68" s="17"/>
-      <c r="J68" s="17"/>
-      <c r="K68" s="17"/>
-      <c r="L68" s="17"/>
-      <c r="M68" s="17"/>
-      <c r="N68" s="17"/>
-      <c r="O68" s="17"/>
-      <c r="P68" s="17"/>
-      <c r="Q68" s="17"/>
-      <c r="R68" s="17"/>
-      <c r="S68" s="17"/>
-      <c r="T68" s="22"/>
-    </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A69" s="21"/>
-      <c r="B69" s="17"/>
-      <c r="C69" s="17"/>
-      <c r="D69" s="17"/>
-      <c r="E69" s="17"/>
-      <c r="F69" s="17"/>
-      <c r="G69" s="17"/>
-      <c r="H69" s="17"/>
-      <c r="I69" s="17"/>
-      <c r="J69" s="17"/>
-      <c r="K69" s="17"/>
-      <c r="L69" s="17"/>
-      <c r="M69" s="17"/>
-      <c r="N69" s="17"/>
-      <c r="O69" s="17"/>
-      <c r="P69" s="17"/>
-      <c r="Q69" s="17"/>
-      <c r="R69" s="17"/>
-      <c r="S69" s="17"/>
-      <c r="T69" s="22"/>
-    </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A70" s="21"/>
-      <c r="B70" s="17"/>
-      <c r="C70" s="17"/>
-      <c r="D70" s="17"/>
-      <c r="E70" s="17"/>
-      <c r="F70" s="17"/>
-      <c r="G70" s="17"/>
-      <c r="H70" s="17"/>
-      <c r="I70" s="17"/>
-      <c r="J70" s="17"/>
-      <c r="K70" s="17"/>
-      <c r="L70" s="17"/>
-      <c r="M70" s="17"/>
-      <c r="N70" s="17"/>
-      <c r="O70" s="17"/>
-      <c r="P70" s="17"/>
-      <c r="Q70" s="17"/>
-      <c r="R70" s="17"/>
-      <c r="S70" s="17"/>
-      <c r="T70" s="22"/>
-    </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A71" s="21"/>
-      <c r="B71" s="17"/>
-      <c r="C71" s="17"/>
-      <c r="D71" s="17"/>
-      <c r="E71" s="17"/>
-      <c r="F71" s="17"/>
-      <c r="G71" s="17"/>
-      <c r="H71" s="17"/>
-      <c r="I71" s="17"/>
-      <c r="J71" s="17"/>
-      <c r="K71" s="17"/>
-      <c r="L71" s="17"/>
-      <c r="M71" s="17"/>
-      <c r="N71" s="17"/>
-      <c r="O71" s="17"/>
-      <c r="P71" s="17"/>
-      <c r="Q71" s="17"/>
-      <c r="R71" s="17"/>
-      <c r="S71" s="17"/>
-      <c r="T71" s="22"/>
-    </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A72" s="21"/>
-      <c r="B72" s="17"/>
-      <c r="C72" s="17"/>
-      <c r="D72" s="17"/>
-      <c r="E72" s="17"/>
-      <c r="F72" s="17"/>
-      <c r="G72" s="17"/>
-      <c r="H72" s="17"/>
-      <c r="I72" s="17"/>
-      <c r="J72" s="17"/>
-      <c r="K72" s="17"/>
-      <c r="L72" s="17"/>
-      <c r="M72" s="17"/>
-      <c r="N72" s="17"/>
-      <c r="O72" s="17"/>
-      <c r="P72" s="17"/>
-      <c r="Q72" s="17"/>
-      <c r="R72" s="17"/>
-      <c r="S72" s="17"/>
-      <c r="T72" s="22"/>
-    </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A73" s="21"/>
-      <c r="B73" s="17"/>
-      <c r="C73" s="17"/>
-      <c r="D73" s="17"/>
-      <c r="E73" s="17"/>
-      <c r="F73" s="17"/>
-      <c r="G73" s="17"/>
-      <c r="H73" s="17"/>
-      <c r="I73" s="17"/>
-      <c r="J73" s="17"/>
-      <c r="K73" s="17"/>
-      <c r="L73" s="17"/>
-      <c r="M73" s="17"/>
-      <c r="N73" s="17"/>
-      <c r="O73" s="17"/>
-      <c r="P73" s="17"/>
-      <c r="Q73" s="17"/>
-      <c r="R73" s="17"/>
-      <c r="S73" s="17"/>
-      <c r="T73" s="22"/>
-    </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A74" s="21"/>
-      <c r="B74" s="17"/>
-      <c r="C74" s="17"/>
-      <c r="D74" s="17"/>
-      <c r="E74" s="17"/>
-      <c r="F74" s="17"/>
-      <c r="G74" s="17"/>
-      <c r="H74" s="17"/>
-      <c r="I74" s="17"/>
-      <c r="J74" s="17"/>
-      <c r="K74" s="17"/>
-      <c r="L74" s="17"/>
-      <c r="M74" s="17"/>
-      <c r="N74" s="17"/>
-      <c r="O74" s="17"/>
-      <c r="P74" s="17"/>
-      <c r="Q74" s="17"/>
-      <c r="R74" s="17"/>
-      <c r="S74" s="17"/>
-      <c r="T74" s="22"/>
-    </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A75" s="21"/>
-      <c r="B75" s="17"/>
-      <c r="C75" s="17"/>
-      <c r="D75" s="17"/>
-      <c r="E75" s="17"/>
-      <c r="F75" s="17"/>
-      <c r="G75" s="17"/>
-      <c r="H75" s="17"/>
-      <c r="I75" s="17"/>
-      <c r="J75" s="17"/>
-      <c r="K75" s="17"/>
-      <c r="L75" s="17"/>
-      <c r="M75" s="17"/>
-      <c r="N75" s="17"/>
-      <c r="O75" s="17"/>
-      <c r="P75" s="17"/>
-      <c r="Q75" s="17"/>
-      <c r="R75" s="17"/>
-      <c r="S75" s="17"/>
-      <c r="T75" s="22"/>
-    </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A76" s="21"/>
-      <c r="B76" s="17"/>
-      <c r="C76" s="17"/>
-      <c r="D76" s="17"/>
-      <c r="E76" s="17"/>
-      <c r="F76" s="17"/>
-      <c r="G76" s="17"/>
-      <c r="H76" s="17"/>
-      <c r="I76" s="17"/>
-      <c r="J76" s="17"/>
-      <c r="K76" s="17"/>
-      <c r="L76" s="17"/>
-      <c r="M76" s="17"/>
-      <c r="N76" s="17"/>
-      <c r="O76" s="17"/>
-      <c r="P76" s="17"/>
-      <c r="Q76" s="17"/>
-      <c r="R76" s="17"/>
-      <c r="S76" s="17"/>
-      <c r="T76" s="22"/>
-    </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A77" s="21"/>
-      <c r="B77" s="17"/>
-      <c r="C77" s="17"/>
-      <c r="D77" s="17"/>
-      <c r="E77" s="17"/>
-      <c r="F77" s="17"/>
-      <c r="G77" s="17"/>
-      <c r="H77" s="17"/>
-      <c r="I77" s="17"/>
-      <c r="J77" s="17"/>
-      <c r="K77" s="17"/>
-      <c r="L77" s="17"/>
-      <c r="M77" s="17"/>
-      <c r="N77" s="17"/>
-      <c r="O77" s="17"/>
-      <c r="P77" s="17"/>
-      <c r="Q77" s="17"/>
-      <c r="R77" s="17"/>
-      <c r="S77" s="17"/>
-      <c r="T77" s="22"/>
-    </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A78" s="21"/>
-      <c r="B78" s="17"/>
-      <c r="C78" s="17"/>
-      <c r="D78" s="17"/>
-      <c r="E78" s="17"/>
-      <c r="F78" s="17"/>
-      <c r="G78" s="17"/>
-      <c r="H78" s="17"/>
-      <c r="I78" s="17"/>
-      <c r="J78" s="17"/>
-      <c r="K78" s="17"/>
-      <c r="L78" s="17"/>
-      <c r="M78" s="17"/>
-      <c r="N78" s="17"/>
-      <c r="O78" s="17"/>
-      <c r="P78" s="17"/>
-      <c r="Q78" s="17"/>
-      <c r="R78" s="17"/>
-      <c r="S78" s="17"/>
-      <c r="T78" s="22"/>
-    </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A79" s="21"/>
-      <c r="B79" s="17"/>
-      <c r="C79" s="17"/>
-      <c r="D79" s="17"/>
-      <c r="E79" s="17"/>
-      <c r="F79" s="17"/>
-      <c r="G79" s="17"/>
-      <c r="H79" s="17"/>
-      <c r="I79" s="17"/>
-      <c r="J79" s="17"/>
-      <c r="K79" s="17"/>
-      <c r="L79" s="17"/>
-      <c r="M79" s="17"/>
-      <c r="N79" s="17"/>
-      <c r="O79" s="17"/>
-      <c r="P79" s="17"/>
-      <c r="Q79" s="17"/>
-      <c r="R79" s="17"/>
-      <c r="S79" s="17"/>
-      <c r="T79" s="22"/>
-    </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A80" s="21"/>
-      <c r="B80" s="17"/>
-      <c r="C80" s="17"/>
-      <c r="D80" s="17"/>
-      <c r="E80" s="17"/>
-      <c r="F80" s="17"/>
-      <c r="G80" s="17"/>
-      <c r="H80" s="17"/>
-      <c r="I80" s="17"/>
-      <c r="J80" s="17"/>
-      <c r="K80" s="17"/>
-      <c r="L80" s="17"/>
-      <c r="M80" s="17"/>
-      <c r="N80" s="17"/>
-      <c r="O80" s="17"/>
-      <c r="P80" s="17"/>
-      <c r="Q80" s="17"/>
-      <c r="R80" s="17"/>
-      <c r="S80" s="17"/>
-      <c r="T80" s="22"/>
-    </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A81" s="21"/>
-      <c r="B81" s="17"/>
-      <c r="C81" s="17"/>
-      <c r="D81" s="17"/>
-      <c r="E81" s="17"/>
-      <c r="F81" s="17"/>
-      <c r="G81" s="17"/>
-      <c r="H81" s="17"/>
-      <c r="I81" s="17"/>
-      <c r="J81" s="17"/>
-      <c r="K81" s="17"/>
-      <c r="L81" s="17"/>
-      <c r="M81" s="17"/>
-      <c r="N81" s="17"/>
-      <c r="O81" s="17"/>
-      <c r="P81" s="17"/>
-      <c r="Q81" s="17"/>
-      <c r="R81" s="17"/>
-      <c r="S81" s="17"/>
-      <c r="T81" s="22"/>
-    </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A82" s="21"/>
-      <c r="B82" s="17"/>
-      <c r="C82" s="17"/>
-      <c r="D82" s="17"/>
-      <c r="E82" s="17"/>
-      <c r="F82" s="17"/>
-      <c r="G82" s="17"/>
-      <c r="H82" s="17"/>
-      <c r="I82" s="17"/>
-      <c r="J82" s="17"/>
-      <c r="K82" s="17"/>
-      <c r="L82" s="17"/>
-      <c r="M82" s="17"/>
-      <c r="N82" s="17"/>
-      <c r="O82" s="17"/>
-      <c r="P82" s="17"/>
-      <c r="Q82" s="17"/>
-      <c r="R82" s="17"/>
-      <c r="S82" s="17"/>
-      <c r="T82" s="22"/>
-    </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A83" s="21"/>
-      <c r="B83" s="17"/>
-      <c r="C83" s="17"/>
-      <c r="D83" s="17"/>
-      <c r="E83" s="17"/>
-      <c r="F83" s="17"/>
-      <c r="G83" s="17"/>
-      <c r="H83" s="17"/>
-      <c r="I83" s="17"/>
-      <c r="J83" s="17"/>
-      <c r="K83" s="17"/>
-      <c r="L83" s="17"/>
-      <c r="M83" s="17"/>
-      <c r="N83" s="17"/>
-      <c r="O83" s="17"/>
-      <c r="P83" s="17"/>
-      <c r="Q83" s="17"/>
-      <c r="R83" s="17"/>
-      <c r="S83" s="17"/>
-      <c r="T83" s="22"/>
-    </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A84" s="21"/>
-      <c r="B84" s="17"/>
-      <c r="C84" s="17"/>
-      <c r="D84" s="17"/>
-      <c r="E84" s="17"/>
-      <c r="F84" s="17"/>
-      <c r="G84" s="17"/>
-      <c r="H84" s="17"/>
-      <c r="I84" s="17"/>
-      <c r="J84" s="17"/>
-      <c r="K84" s="17"/>
-      <c r="L84" s="17"/>
-      <c r="M84" s="17"/>
-      <c r="N84" s="17"/>
-      <c r="O84" s="17"/>
-      <c r="P84" s="17"/>
-      <c r="Q84" s="17"/>
-      <c r="R84" s="17"/>
-      <c r="S84" s="17"/>
-      <c r="T84" s="22"/>
-    </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A85" s="21"/>
-      <c r="B85" s="17"/>
-      <c r="C85" s="17"/>
-      <c r="D85" s="17"/>
-      <c r="E85" s="17"/>
-      <c r="F85" s="17"/>
-      <c r="G85" s="17"/>
-      <c r="H85" s="17"/>
-      <c r="I85" s="17"/>
-      <c r="J85" s="17"/>
-      <c r="K85" s="17"/>
-      <c r="L85" s="17"/>
-      <c r="M85" s="17"/>
-      <c r="N85" s="17"/>
-      <c r="O85" s="17"/>
-      <c r="P85" s="17"/>
-      <c r="Q85" s="17"/>
-      <c r="R85" s="17"/>
-      <c r="S85" s="17"/>
-      <c r="T85" s="22"/>
-    </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A86" s="21"/>
-      <c r="B86" s="17"/>
-      <c r="C86" s="17"/>
-      <c r="D86" s="17"/>
-      <c r="E86" s="17"/>
-      <c r="F86" s="17"/>
-      <c r="G86" s="17"/>
-      <c r="H86" s="17"/>
-      <c r="I86" s="17"/>
-      <c r="J86" s="17"/>
-      <c r="K86" s="17"/>
-      <c r="L86" s="17"/>
-      <c r="M86" s="17"/>
-      <c r="N86" s="17"/>
-      <c r="O86" s="17"/>
-      <c r="P86" s="17"/>
-      <c r="Q86" s="17"/>
-      <c r="R86" s="17"/>
-      <c r="S86" s="17"/>
-      <c r="T86" s="22"/>
-    </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A87" s="21"/>
-      <c r="B87" s="17"/>
-      <c r="C87" s="17"/>
-      <c r="D87" s="17"/>
-      <c r="E87" s="17"/>
-      <c r="F87" s="17"/>
-      <c r="G87" s="17"/>
-      <c r="H87" s="17"/>
-      <c r="I87" s="17"/>
-      <c r="J87" s="17"/>
-      <c r="K87" s="17"/>
-      <c r="L87" s="17"/>
-      <c r="M87" s="17"/>
-      <c r="N87" s="17"/>
-      <c r="O87" s="17"/>
-      <c r="P87" s="17"/>
-      <c r="Q87" s="17"/>
-      <c r="R87" s="17"/>
-      <c r="S87" s="17"/>
-      <c r="T87" s="22"/>
-    </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A88" s="21"/>
-      <c r="B88" s="17"/>
-      <c r="C88" s="17"/>
-      <c r="D88" s="17"/>
-      <c r="E88" s="17"/>
-      <c r="F88" s="17"/>
-      <c r="G88" s="17"/>
-      <c r="H88" s="17"/>
-      <c r="I88" s="17"/>
-      <c r="J88" s="17"/>
-      <c r="K88" s="17"/>
-      <c r="L88" s="17"/>
-      <c r="M88" s="17"/>
-      <c r="N88" s="17"/>
-      <c r="O88" s="17"/>
-      <c r="P88" s="17"/>
-      <c r="Q88" s="17"/>
-      <c r="R88" s="17"/>
-      <c r="S88" s="17"/>
-      <c r="T88" s="22"/>
-    </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A89" s="21"/>
-      <c r="B89" s="17"/>
-      <c r="C89" s="17"/>
-      <c r="D89" s="17"/>
-      <c r="E89" s="17"/>
-      <c r="F89" s="17"/>
-      <c r="G89" s="17"/>
-      <c r="H89" s="17"/>
-      <c r="I89" s="17"/>
-      <c r="J89" s="17"/>
-      <c r="K89" s="17"/>
-      <c r="L89" s="17"/>
-      <c r="M89" s="17"/>
-      <c r="N89" s="17"/>
-      <c r="O89" s="17"/>
-      <c r="P89" s="17"/>
-      <c r="Q89" s="17"/>
-      <c r="R89" s="17"/>
-      <c r="S89" s="17"/>
-      <c r="T89" s="22"/>
-    </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A90" s="21"/>
-      <c r="B90" s="17"/>
-      <c r="C90" s="17"/>
-      <c r="D90" s="17"/>
-      <c r="E90" s="17"/>
-      <c r="F90" s="17"/>
-      <c r="G90" s="17"/>
-      <c r="H90" s="17"/>
-      <c r="I90" s="17"/>
-      <c r="J90" s="17"/>
-      <c r="K90" s="17"/>
-      <c r="L90" s="17"/>
-      <c r="M90" s="17"/>
-      <c r="N90" s="17"/>
-      <c r="O90" s="17"/>
-      <c r="P90" s="17"/>
-      <c r="Q90" s="17"/>
-      <c r="R90" s="17"/>
-      <c r="S90" s="17"/>
-      <c r="T90" s="22"/>
-    </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A91" s="21"/>
-      <c r="B91" s="17"/>
-      <c r="C91" s="17"/>
-      <c r="D91" s="17"/>
-      <c r="E91" s="17"/>
-      <c r="F91" s="17"/>
-      <c r="G91" s="17"/>
-      <c r="H91" s="17"/>
-      <c r="I91" s="17"/>
-      <c r="J91" s="17"/>
-      <c r="K91" s="17"/>
-      <c r="L91" s="17"/>
-      <c r="M91" s="17"/>
-      <c r="N91" s="17"/>
-      <c r="O91" s="17"/>
-      <c r="P91" s="17"/>
-      <c r="Q91" s="17"/>
-      <c r="R91" s="17"/>
-      <c r="S91" s="17"/>
-      <c r="T91" s="22"/>
-    </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A92" s="21"/>
-      <c r="B92" s="17"/>
-      <c r="C92" s="17"/>
-      <c r="D92" s="17"/>
-      <c r="E92" s="17"/>
-      <c r="F92" s="17"/>
-      <c r="G92" s="17"/>
-      <c r="H92" s="17"/>
-      <c r="I92" s="17"/>
-      <c r="J92" s="17"/>
-      <c r="K92" s="17"/>
-      <c r="L92" s="17"/>
-      <c r="M92" s="17"/>
-      <c r="N92" s="17"/>
-      <c r="O92" s="17"/>
-      <c r="P92" s="17"/>
-      <c r="Q92" s="17"/>
-      <c r="R92" s="17"/>
-      <c r="S92" s="17"/>
-      <c r="T92" s="22"/>
-    </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A93" s="21"/>
-      <c r="B93" s="17"/>
-      <c r="C93" s="17"/>
-      <c r="D93" s="17"/>
-      <c r="E93" s="17"/>
-      <c r="F93" s="17"/>
-      <c r="G93" s="17"/>
-      <c r="H93" s="17"/>
-      <c r="I93" s="17"/>
-      <c r="J93" s="17"/>
-      <c r="K93" s="17"/>
-      <c r="L93" s="17"/>
-      <c r="M93" s="17"/>
-      <c r="N93" s="17"/>
-      <c r="O93" s="17"/>
-      <c r="P93" s="17"/>
-      <c r="Q93" s="17"/>
-      <c r="R93" s="17"/>
-      <c r="S93" s="17"/>
-      <c r="T93" s="22"/>
-    </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A94" s="21"/>
-      <c r="B94" s="17"/>
-      <c r="C94" s="17"/>
-      <c r="D94" s="17"/>
-      <c r="E94" s="17"/>
-      <c r="F94" s="17"/>
-      <c r="G94" s="17"/>
-      <c r="H94" s="17"/>
-      <c r="I94" s="17"/>
-      <c r="J94" s="17"/>
-      <c r="K94" s="17"/>
-      <c r="L94" s="17"/>
-      <c r="M94" s="17"/>
-      <c r="N94" s="17"/>
-      <c r="O94" s="17"/>
-      <c r="P94" s="17"/>
-      <c r="Q94" s="17"/>
-      <c r="R94" s="17"/>
-      <c r="S94" s="17"/>
-      <c r="T94" s="22"/>
-    </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A95" s="21"/>
-      <c r="B95" s="17"/>
-      <c r="C95" s="17"/>
-      <c r="D95" s="17"/>
-      <c r="E95" s="17"/>
-      <c r="F95" s="17"/>
-      <c r="G95" s="17"/>
-      <c r="H95" s="17"/>
-      <c r="I95" s="17"/>
-      <c r="J95" s="17"/>
-      <c r="K95" s="17"/>
-      <c r="L95" s="17"/>
-      <c r="M95" s="17"/>
-      <c r="N95" s="17"/>
-      <c r="O95" s="17"/>
-      <c r="P95" s="17"/>
-      <c r="Q95" s="17"/>
-      <c r="R95" s="17"/>
-      <c r="S95" s="17"/>
-      <c r="T95" s="22"/>
-    </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A96" s="21"/>
-      <c r="B96" s="17"/>
-      <c r="C96" s="17"/>
-      <c r="D96" s="17"/>
-      <c r="E96" s="17"/>
-      <c r="F96" s="17"/>
-      <c r="G96" s="17"/>
-      <c r="H96" s="17"/>
-      <c r="I96" s="17"/>
-      <c r="J96" s="17"/>
-      <c r="K96" s="17"/>
-      <c r="L96" s="17"/>
-      <c r="M96" s="17"/>
-      <c r="N96" s="17"/>
-      <c r="O96" s="17"/>
-      <c r="P96" s="17"/>
-      <c r="Q96" s="17"/>
-      <c r="R96" s="17"/>
-      <c r="S96" s="17"/>
-      <c r="T96" s="22"/>
-    </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A97" s="21"/>
-      <c r="B97" s="17"/>
-      <c r="C97" s="17"/>
-      <c r="D97" s="17"/>
-      <c r="E97" s="17"/>
-      <c r="F97" s="17"/>
-      <c r="G97" s="17"/>
-      <c r="H97" s="17"/>
-      <c r="I97" s="17"/>
-      <c r="J97" s="17"/>
-      <c r="K97" s="17"/>
-      <c r="L97" s="17"/>
-      <c r="M97" s="17"/>
-      <c r="N97" s="17"/>
-      <c r="O97" s="17"/>
-      <c r="P97" s="17"/>
-      <c r="Q97" s="17"/>
-      <c r="R97" s="17"/>
-      <c r="S97" s="17"/>
-      <c r="T97" s="22"/>
-    </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A98" s="21"/>
-      <c r="B98" s="17"/>
-      <c r="C98" s="17"/>
-      <c r="D98" s="17"/>
-      <c r="E98" s="17"/>
-      <c r="F98" s="17"/>
-      <c r="G98" s="17"/>
-      <c r="H98" s="17"/>
-      <c r="I98" s="17"/>
-      <c r="J98" s="17"/>
-      <c r="K98" s="17"/>
-      <c r="L98" s="17"/>
-      <c r="M98" s="17"/>
-      <c r="N98" s="17"/>
-      <c r="O98" s="17"/>
-      <c r="P98" s="17"/>
-      <c r="Q98" s="17"/>
-      <c r="R98" s="17"/>
-      <c r="S98" s="17"/>
-      <c r="T98" s="22"/>
-    </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A99" s="21"/>
-      <c r="B99" s="17"/>
-      <c r="C99" s="17"/>
-      <c r="D99" s="17"/>
-      <c r="E99" s="17"/>
-      <c r="F99" s="17"/>
-      <c r="G99" s="17"/>
-      <c r="H99" s="17"/>
-      <c r="I99" s="17"/>
-      <c r="J99" s="17"/>
-      <c r="K99" s="17"/>
-      <c r="L99" s="17"/>
-      <c r="M99" s="17"/>
-      <c r="N99" s="17"/>
-      <c r="O99" s="17"/>
-      <c r="P99" s="17"/>
-      <c r="Q99" s="17"/>
-      <c r="R99" s="17"/>
-      <c r="S99" s="17"/>
-      <c r="T99" s="22"/>
-    </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A100" s="21"/>
-      <c r="B100" s="17"/>
-      <c r="C100" s="17"/>
-      <c r="D100" s="17"/>
-      <c r="E100" s="17"/>
-      <c r="F100" s="17"/>
-      <c r="G100" s="17"/>
-      <c r="H100" s="17"/>
-      <c r="I100" s="17"/>
-      <c r="J100" s="17"/>
-      <c r="K100" s="17"/>
-      <c r="L100" s="17"/>
-      <c r="M100" s="17"/>
-      <c r="N100" s="17"/>
-      <c r="O100" s="17"/>
-      <c r="P100" s="17"/>
-      <c r="Q100" s="17"/>
-      <c r="R100" s="17"/>
-      <c r="S100" s="17"/>
-      <c r="T100" s="22"/>
-    </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A101" s="21"/>
-      <c r="B101" s="17"/>
-      <c r="C101" s="17"/>
-      <c r="D101" s="17"/>
-      <c r="E101" s="17"/>
-      <c r="F101" s="17"/>
-      <c r="G101" s="17"/>
-      <c r="H101" s="17"/>
-      <c r="I101" s="17"/>
-      <c r="J101" s="17"/>
-      <c r="K101" s="17"/>
-      <c r="L101" s="17"/>
-      <c r="M101" s="17"/>
-      <c r="N101" s="17"/>
-      <c r="O101" s="17"/>
-      <c r="P101" s="17"/>
-      <c r="Q101" s="17"/>
-      <c r="R101" s="17"/>
-      <c r="S101" s="17"/>
-      <c r="T101" s="22"/>
-    </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A102" s="21"/>
-      <c r="B102" s="17"/>
-      <c r="C102" s="17"/>
-      <c r="D102" s="17"/>
-      <c r="E102" s="17"/>
-      <c r="F102" s="17"/>
-      <c r="G102" s="17"/>
-      <c r="H102" s="17"/>
-      <c r="I102" s="17"/>
-      <c r="J102" s="17"/>
-      <c r="K102" s="17"/>
-      <c r="L102" s="17"/>
-      <c r="M102" s="17"/>
-      <c r="N102" s="17"/>
-      <c r="O102" s="17"/>
-      <c r="P102" s="17"/>
-      <c r="Q102" s="17"/>
-      <c r="R102" s="17"/>
-      <c r="S102" s="17"/>
-      <c r="T102" s="22"/>
-    </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A103" s="21"/>
-      <c r="B103" s="17"/>
-      <c r="C103" s="17"/>
-      <c r="D103" s="17"/>
-      <c r="E103" s="17"/>
-      <c r="F103" s="17"/>
-      <c r="G103" s="17"/>
-      <c r="H103" s="17"/>
-      <c r="I103" s="17"/>
-      <c r="J103" s="17"/>
-      <c r="K103" s="17"/>
-      <c r="L103" s="17"/>
-      <c r="M103" s="17"/>
-      <c r="N103" s="17"/>
-      <c r="O103" s="17"/>
-      <c r="P103" s="17"/>
-      <c r="Q103" s="17"/>
-      <c r="R103" s="17"/>
-      <c r="S103" s="17"/>
-      <c r="T103" s="22"/>
-    </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A104" s="21"/>
-      <c r="B104" s="17"/>
-      <c r="C104" s="17"/>
-      <c r="D104" s="17"/>
-      <c r="E104" s="17"/>
-      <c r="F104" s="17"/>
-      <c r="G104" s="17"/>
-      <c r="H104" s="17"/>
-      <c r="I104" s="17"/>
-      <c r="J104" s="17"/>
-      <c r="K104" s="17"/>
-      <c r="L104" s="17"/>
-      <c r="M104" s="17"/>
-      <c r="N104" s="17"/>
-      <c r="O104" s="17"/>
-      <c r="P104" s="17"/>
-      <c r="Q104" s="17"/>
-      <c r="R104" s="17"/>
-      <c r="S104" s="17"/>
-      <c r="T104" s="22"/>
-    </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A105" s="21"/>
-      <c r="B105" s="17"/>
-      <c r="C105" s="17"/>
-      <c r="D105" s="17"/>
-      <c r="E105" s="17"/>
-      <c r="F105" s="17"/>
-      <c r="G105" s="17"/>
-      <c r="H105" s="17"/>
-      <c r="I105" s="17"/>
-      <c r="J105" s="17"/>
-      <c r="K105" s="17"/>
-      <c r="L105" s="17"/>
-      <c r="M105" s="17"/>
-      <c r="N105" s="17"/>
-      <c r="O105" s="17"/>
-      <c r="P105" s="17"/>
-      <c r="Q105" s="17"/>
-      <c r="R105" s="17"/>
-      <c r="S105" s="17"/>
-      <c r="T105" s="22"/>
-    </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A106" s="21"/>
-      <c r="B106" s="17"/>
-      <c r="C106" s="17"/>
-      <c r="D106" s="17"/>
-      <c r="E106" s="17"/>
-      <c r="F106" s="17"/>
-      <c r="G106" s="17"/>
-      <c r="H106" s="17"/>
-      <c r="I106" s="17"/>
-      <c r="J106" s="17"/>
-      <c r="K106" s="17"/>
-      <c r="L106" s="17"/>
-      <c r="M106" s="17"/>
-      <c r="N106" s="17"/>
-      <c r="O106" s="17"/>
-      <c r="P106" s="17"/>
-      <c r="Q106" s="17"/>
-      <c r="R106" s="17"/>
-      <c r="S106" s="17"/>
-      <c r="T106" s="22"/>
-    </row>
-    <row r="107" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="23"/>
-      <c r="B107" s="24"/>
+        <v>227</v>
+      </c>
+      <c r="C54" s="24"/>
+      <c r="D54" s="24"/>
+      <c r="E54" s="24"/>
+      <c r="F54" s="24"/>
+      <c r="G54" s="24"/>
+      <c r="H54" s="24"/>
+      <c r="I54" s="24"/>
+      <c r="J54" s="5"/>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B55" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="C55" s="24"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="24"/>
+      <c r="G55" s="24"/>
+      <c r="H55" s="24"/>
+      <c r="I55" s="24"/>
+      <c r="J55" s="5"/>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B56" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="C56" s="24"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="24"/>
+      <c r="F56" s="24"/>
+      <c r="G56" s="24"/>
+      <c r="H56" s="24"/>
+      <c r="I56" s="24"/>
+      <c r="J56" s="5"/>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B57" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="C57" s="24"/>
+      <c r="D57" s="24"/>
+      <c r="E57" s="24"/>
+      <c r="F57" s="24"/>
+      <c r="G57" s="24"/>
+      <c r="H57" s="24"/>
+      <c r="I57" s="24"/>
+      <c r="J57" s="5"/>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B58" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C58" s="24"/>
+      <c r="D58" s="24"/>
+      <c r="E58" s="24"/>
+      <c r="F58" s="24"/>
+      <c r="G58" s="24"/>
+      <c r="H58" s="24"/>
+      <c r="I58" s="24"/>
+      <c r="J58" s="5"/>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B59" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C59" s="24"/>
+      <c r="D59" s="24"/>
+      <c r="E59" s="24"/>
+      <c r="F59" s="24"/>
+      <c r="G59" s="24"/>
+      <c r="H59" s="24"/>
+      <c r="I59" s="24"/>
+      <c r="J59" s="5"/>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B60" s="4"/>
+      <c r="C60" s="24"/>
+      <c r="D60" s="24"/>
+      <c r="E60" s="24"/>
+      <c r="F60" s="24"/>
+      <c r="G60" s="24"/>
+      <c r="H60" s="24"/>
+      <c r="I60" s="24"/>
+      <c r="J60" s="5"/>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B61" s="4"/>
+      <c r="C61" s="24"/>
+      <c r="D61" s="24"/>
+      <c r="E61" s="24"/>
+      <c r="F61" s="24"/>
+      <c r="G61" s="24"/>
+      <c r="H61" s="24"/>
+      <c r="I61" s="24"/>
+      <c r="J61" s="5"/>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B62" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="C62" s="24"/>
+      <c r="D62" s="24"/>
+      <c r="E62" s="24"/>
+      <c r="F62" s="24"/>
+      <c r="G62" s="24"/>
+      <c r="H62" s="24"/>
+      <c r="I62" s="24"/>
+      <c r="J62" s="5"/>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B63" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C63" s="24"/>
+      <c r="D63" s="24"/>
+      <c r="E63" s="24"/>
+      <c r="F63" s="24"/>
+      <c r="G63" s="24"/>
+      <c r="H63" s="24"/>
+      <c r="I63" s="24"/>
+      <c r="J63" s="5"/>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B64" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C64" s="24"/>
+      <c r="D64" s="24"/>
+      <c r="E64" s="24"/>
+      <c r="F64" s="24"/>
+      <c r="G64" s="24"/>
+      <c r="H64" s="24"/>
+      <c r="I64" s="24"/>
+      <c r="J64" s="5"/>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B65" s="4"/>
+      <c r="C65" s="24"/>
+      <c r="D65" s="24"/>
+      <c r="E65" s="24"/>
+      <c r="F65" s="24"/>
+      <c r="G65" s="24"/>
+      <c r="H65" s="24"/>
+      <c r="I65" s="24"/>
+      <c r="J65" s="5"/>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B66" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="C66" s="24"/>
+      <c r="D66" s="24"/>
+      <c r="E66" s="24"/>
+      <c r="F66" s="24"/>
+      <c r="G66" s="24"/>
+      <c r="H66" s="24"/>
+      <c r="I66" s="24"/>
+      <c r="J66" s="5"/>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B67" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="C67" s="24"/>
+      <c r="D67" s="24"/>
+      <c r="E67" s="24"/>
+      <c r="F67" s="24"/>
+      <c r="G67" s="24"/>
+      <c r="H67" s="24"/>
+      <c r="I67" s="24"/>
+      <c r="J67" s="5"/>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B68" s="4"/>
+      <c r="C68" s="24"/>
+      <c r="D68" s="24"/>
+      <c r="E68" s="24"/>
+      <c r="F68" s="24"/>
+      <c r="G68" s="24"/>
+      <c r="H68" s="24"/>
+      <c r="I68" s="24"/>
+      <c r="J68" s="5"/>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B69" s="4"/>
+      <c r="C69" s="24"/>
+      <c r="D69" s="24"/>
+      <c r="E69" s="24"/>
+      <c r="F69" s="24"/>
+      <c r="G69" s="24"/>
+      <c r="H69" s="24"/>
+      <c r="I69" s="24"/>
+      <c r="J69" s="5"/>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B70" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C70" s="24"/>
+      <c r="D70" s="24"/>
+      <c r="E70" s="24"/>
+      <c r="F70" s="24"/>
+      <c r="G70" s="24"/>
+      <c r="H70" s="24"/>
+      <c r="I70" s="24"/>
+      <c r="J70" s="5"/>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B71" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C71" s="24"/>
+      <c r="D71" s="24"/>
+      <c r="E71" s="24"/>
+      <c r="F71" s="24"/>
+      <c r="G71" s="24"/>
+      <c r="H71" s="24"/>
+      <c r="I71" s="24"/>
+      <c r="J71" s="5"/>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B72" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C72" s="24"/>
+      <c r="D72" s="24"/>
+      <c r="E72" s="24"/>
+      <c r="F72" s="24"/>
+      <c r="G72" s="24"/>
+      <c r="H72" s="24"/>
+      <c r="I72" s="24"/>
+      <c r="J72" s="5"/>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B73" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="C73" s="24"/>
+      <c r="D73" s="24"/>
+      <c r="E73" s="24"/>
+      <c r="F73" s="24"/>
+      <c r="G73" s="24"/>
+      <c r="H73" s="24"/>
+      <c r="I73" s="24"/>
+      <c r="J73" s="5"/>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B74" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C74" s="24"/>
+      <c r="D74" s="24"/>
+      <c r="E74" s="24"/>
+      <c r="F74" s="24"/>
+      <c r="G74" s="24"/>
+      <c r="H74" s="24"/>
+      <c r="I74" s="24"/>
+      <c r="J74" s="5"/>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B75" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C75" s="24"/>
+      <c r="D75" s="24"/>
+      <c r="E75" s="24"/>
+      <c r="F75" s="24"/>
+      <c r="G75" s="24"/>
+      <c r="H75" s="24"/>
+      <c r="I75" s="24"/>
+      <c r="J75" s="5"/>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B76" s="4"/>
+      <c r="C76" s="24"/>
+      <c r="D76" s="24"/>
+      <c r="E76" s="24"/>
+      <c r="F76" s="24"/>
+      <c r="G76" s="24"/>
+      <c r="H76" s="24"/>
+      <c r="I76" s="24"/>
+      <c r="J76" s="5"/>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B77" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C77" s="24"/>
+      <c r="D77" s="24"/>
+      <c r="E77" s="24"/>
+      <c r="F77" s="24"/>
+      <c r="G77" s="24"/>
+      <c r="H77" s="24"/>
+      <c r="I77" s="24"/>
+      <c r="J77" s="5"/>
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B78" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C78" s="24"/>
+      <c r="D78" s="24"/>
+      <c r="E78" s="24"/>
+      <c r="F78" s="24"/>
+      <c r="G78" s="24"/>
+      <c r="H78" s="24"/>
+      <c r="I78" s="24"/>
+      <c r="J78" s="5"/>
+    </row>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B79" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C79" s="24"/>
+      <c r="D79" s="24"/>
+      <c r="E79" s="24"/>
+      <c r="F79" s="24"/>
+      <c r="G79" s="24"/>
+      <c r="H79" s="24"/>
+      <c r="I79" s="24"/>
+      <c r="J79" s="5"/>
+    </row>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B80" s="4"/>
+      <c r="C80" s="24"/>
+      <c r="D80" s="24"/>
+      <c r="E80" s="24"/>
+      <c r="F80" s="24"/>
+      <c r="G80" s="24"/>
+      <c r="H80" s="24"/>
+      <c r="I80" s="24"/>
+      <c r="J80" s="5"/>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B81" s="4"/>
+      <c r="C81" s="24"/>
+      <c r="D81" s="24"/>
+      <c r="E81" s="24"/>
+      <c r="F81" s="24"/>
+      <c r="G81" s="24"/>
+      <c r="H81" s="24"/>
+      <c r="I81" s="24"/>
+      <c r="J81" s="5"/>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B82" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C82" s="24"/>
+      <c r="D82" s="24"/>
+      <c r="E82" s="24"/>
+      <c r="F82" s="24"/>
+      <c r="G82" s="24"/>
+      <c r="H82" s="24"/>
+      <c r="I82" s="24"/>
+      <c r="J82" s="5"/>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B83" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C83" s="24"/>
+      <c r="D83" s="24"/>
+      <c r="E83" s="24"/>
+      <c r="F83" s="24"/>
+      <c r="G83" s="24"/>
+      <c r="H83" s="24"/>
+      <c r="I83" s="24"/>
+      <c r="J83" s="5"/>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B84" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="C84" s="24"/>
+      <c r="D84" s="24"/>
+      <c r="E84" s="24"/>
+      <c r="F84" s="24"/>
+      <c r="G84" s="24"/>
+      <c r="H84" s="24"/>
+      <c r="I84" s="24"/>
+      <c r="J84" s="5"/>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B85" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="C85" s="24"/>
+      <c r="D85" s="24"/>
+      <c r="E85" s="24"/>
+      <c r="F85" s="24"/>
+      <c r="G85" s="24"/>
+      <c r="H85" s="24"/>
+      <c r="I85" s="24"/>
+      <c r="J85" s="5"/>
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B86" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="C86" s="24"/>
+      <c r="D86" s="24"/>
+      <c r="E86" s="24"/>
+      <c r="F86" s="24"/>
+      <c r="G86" s="24"/>
+      <c r="H86" s="24"/>
+      <c r="I86" s="24"/>
+      <c r="J86" s="5"/>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B87" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C87" s="24"/>
+      <c r="D87" s="24"/>
+      <c r="E87" s="24"/>
+      <c r="F87" s="24"/>
+      <c r="G87" s="24"/>
+      <c r="H87" s="24"/>
+      <c r="I87" s="24"/>
+      <c r="J87" s="5"/>
+    </row>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B88" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="C88" s="24"/>
+      <c r="D88" s="24"/>
+      <c r="E88" s="24"/>
+      <c r="F88" s="24"/>
+      <c r="G88" s="24"/>
+      <c r="H88" s="24"/>
+      <c r="I88" s="24"/>
+      <c r="J88" s="5"/>
+    </row>
+    <row r="89" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B89" s="4"/>
+      <c r="C89" s="24"/>
+      <c r="D89" s="24"/>
+      <c r="E89" s="24"/>
+      <c r="F89" s="24"/>
+      <c r="G89" s="24"/>
+      <c r="H89" s="24"/>
+      <c r="I89" s="24"/>
+      <c r="J89" s="5"/>
+    </row>
+    <row r="90" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B90" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="C90" s="24"/>
+      <c r="D90" s="24"/>
+      <c r="E90" s="24"/>
+      <c r="F90" s="24"/>
+      <c r="G90" s="24"/>
+      <c r="H90" s="24"/>
+      <c r="I90" s="24"/>
+      <c r="J90" s="5"/>
+    </row>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B91" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C91" s="24"/>
+      <c r="D91" s="24"/>
+      <c r="E91" s="24"/>
+      <c r="F91" s="24"/>
+      <c r="G91" s="24"/>
+      <c r="H91" s="24"/>
+      <c r="I91" s="24"/>
+      <c r="J91" s="5"/>
+    </row>
+    <row r="92" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B92" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="C92" s="24"/>
+      <c r="D92" s="24"/>
+      <c r="E92" s="24"/>
+      <c r="F92" s="24"/>
+      <c r="G92" s="24"/>
+      <c r="H92" s="24"/>
+      <c r="I92" s="24"/>
+      <c r="J92" s="5"/>
+    </row>
+    <row r="93" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B93" s="4"/>
+      <c r="C93" s="24"/>
+      <c r="D93" s="24"/>
+      <c r="E93" s="24"/>
+      <c r="F93" s="24"/>
+      <c r="G93" s="24"/>
+      <c r="H93" s="24"/>
+      <c r="I93" s="24"/>
+      <c r="J93" s="5"/>
+    </row>
+    <row r="94" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B94" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="C94" s="24"/>
+      <c r="D94" s="24"/>
+      <c r="E94" s="24"/>
+      <c r="F94" s="24"/>
+      <c r="G94" s="24"/>
+      <c r="H94" s="24"/>
+      <c r="I94" s="24"/>
+      <c r="J94" s="5"/>
+    </row>
+    <row r="95" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B95" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="C95" s="24"/>
+      <c r="D95" s="24"/>
+      <c r="E95" s="24"/>
+      <c r="F95" s="24"/>
+      <c r="G95" s="24"/>
+      <c r="H95" s="24"/>
+      <c r="I95" s="24"/>
+      <c r="J95" s="5"/>
+    </row>
+    <row r="96" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B96" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="C96" s="24"/>
+      <c r="D96" s="24"/>
+      <c r="E96" s="24"/>
+      <c r="F96" s="24"/>
+      <c r="G96" s="24"/>
+      <c r="H96" s="24"/>
+      <c r="I96" s="24"/>
+      <c r="J96" s="5"/>
+    </row>
+    <row r="97" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B97" s="4"/>
+      <c r="C97" s="24"/>
+      <c r="D97" s="24"/>
+      <c r="E97" s="24"/>
+      <c r="F97" s="24"/>
+      <c r="G97" s="24"/>
+      <c r="H97" s="24"/>
+      <c r="I97" s="24"/>
+      <c r="J97" s="5"/>
+    </row>
+    <row r="98" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B98" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C98" s="24"/>
+      <c r="D98" s="24"/>
+      <c r="E98" s="24"/>
+      <c r="F98" s="24"/>
+      <c r="G98" s="24"/>
+      <c r="H98" s="24"/>
+      <c r="I98" s="24"/>
+      <c r="J98" s="5"/>
+    </row>
+    <row r="99" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B99" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="C99" s="24"/>
+      <c r="D99" s="24"/>
+      <c r="E99" s="24"/>
+      <c r="F99" s="24"/>
+      <c r="G99" s="24"/>
+      <c r="H99" s="24"/>
+      <c r="I99" s="24"/>
+      <c r="J99" s="5"/>
+    </row>
+    <row r="100" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B100" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C100" s="24"/>
+      <c r="D100" s="24"/>
+      <c r="E100" s="24"/>
+      <c r="F100" s="24"/>
+      <c r="G100" s="24"/>
+      <c r="H100" s="24"/>
+      <c r="I100" s="24"/>
+      <c r="J100" s="5"/>
+    </row>
+    <row r="101" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B101" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="C101" s="24"/>
+      <c r="D101" s="24"/>
+      <c r="E101" s="24"/>
+      <c r="F101" s="24"/>
+      <c r="G101" s="24"/>
+      <c r="H101" s="24"/>
+      <c r="I101" s="24"/>
+      <c r="J101" s="5"/>
+    </row>
+    <row r="102" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B102" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="C102" s="24"/>
+      <c r="D102" s="24"/>
+      <c r="E102" s="24"/>
+      <c r="F102" s="24"/>
+      <c r="G102" s="24"/>
+      <c r="H102" s="24"/>
+      <c r="I102" s="24"/>
+      <c r="J102" s="5"/>
+    </row>
+    <row r="103" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B103" s="4"/>
+      <c r="C103" s="24"/>
+      <c r="D103" s="24"/>
+      <c r="E103" s="24"/>
+      <c r="F103" s="24"/>
+      <c r="G103" s="24"/>
+      <c r="H103" s="24"/>
+      <c r="I103" s="24"/>
+      <c r="J103" s="5"/>
+    </row>
+    <row r="104" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B104" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C104" s="24"/>
+      <c r="D104" s="24"/>
+      <c r="E104" s="24"/>
+      <c r="F104" s="24"/>
+      <c r="G104" s="24"/>
+      <c r="H104" s="24"/>
+      <c r="I104" s="24"/>
+      <c r="J104" s="5"/>
+    </row>
+    <row r="105" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B105" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C105" s="24"/>
+      <c r="D105" s="24"/>
+      <c r="E105" s="24"/>
+      <c r="F105" s="24"/>
+      <c r="G105" s="24"/>
+      <c r="H105" s="24"/>
+      <c r="I105" s="24"/>
+      <c r="J105" s="5"/>
+    </row>
+    <row r="106" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B106" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="C106" s="24"/>
+      <c r="D106" s="24"/>
+      <c r="E106" s="24"/>
+      <c r="F106" s="24"/>
+      <c r="G106" s="24"/>
+      <c r="H106" s="24"/>
+      <c r="I106" s="24"/>
+      <c r="J106" s="5"/>
+    </row>
+    <row r="107" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B107" s="4" t="s">
+        <v>268</v>
+      </c>
       <c r="C107" s="24"/>
       <c r="D107" s="24"/>
       <c r="E107" s="24"/>
@@ -8361,17 +8604,309 @@
       <c r="G107" s="24"/>
       <c r="H107" s="24"/>
       <c r="I107" s="24"/>
-      <c r="J107" s="24"/>
-      <c r="K107" s="24"/>
-      <c r="L107" s="24"/>
-      <c r="M107" s="24"/>
-      <c r="N107" s="24"/>
-      <c r="O107" s="24"/>
-      <c r="P107" s="24"/>
-      <c r="Q107" s="24"/>
-      <c r="R107" s="24"/>
-      <c r="S107" s="24"/>
-      <c r="T107" s="25"/>
+      <c r="J107" s="5"/>
+    </row>
+    <row r="108" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B108" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C108" s="24"/>
+      <c r="D108" s="24"/>
+      <c r="E108" s="24"/>
+      <c r="F108" s="24"/>
+      <c r="G108" s="24"/>
+      <c r="H108" s="24"/>
+      <c r="I108" s="24"/>
+      <c r="J108" s="5"/>
+    </row>
+    <row r="109" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B109" s="4"/>
+      <c r="C109" s="24"/>
+      <c r="D109" s="24"/>
+      <c r="E109" s="24"/>
+      <c r="F109" s="24"/>
+      <c r="G109" s="24"/>
+      <c r="H109" s="24"/>
+      <c r="I109" s="24"/>
+      <c r="J109" s="5"/>
+    </row>
+    <row r="110" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B110" s="4"/>
+      <c r="C110" s="24"/>
+      <c r="D110" s="24"/>
+      <c r="E110" s="24"/>
+      <c r="F110" s="24"/>
+      <c r="G110" s="24"/>
+      <c r="H110" s="24"/>
+      <c r="I110" s="24"/>
+      <c r="J110" s="5"/>
+    </row>
+    <row r="111" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B111" s="4"/>
+      <c r="C111" s="24"/>
+      <c r="D111" s="24"/>
+      <c r="E111" s="24"/>
+      <c r="F111" s="24"/>
+      <c r="G111" s="24"/>
+      <c r="H111" s="24"/>
+      <c r="I111" s="24"/>
+      <c r="J111" s="5"/>
+    </row>
+    <row r="112" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B112" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="C112" s="24"/>
+      <c r="D112" s="24"/>
+      <c r="E112" s="24"/>
+      <c r="F112" s="24"/>
+      <c r="G112" s="24"/>
+      <c r="H112" s="24"/>
+      <c r="I112" s="24"/>
+      <c r="J112" s="5"/>
+    </row>
+    <row r="113" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B113" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C113" s="24"/>
+      <c r="D113" s="24"/>
+      <c r="E113" s="24"/>
+      <c r="F113" s="24"/>
+      <c r="G113" s="24"/>
+      <c r="H113" s="24"/>
+      <c r="I113" s="24"/>
+      <c r="J113" s="5"/>
+    </row>
+    <row r="114" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B114" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="C114" s="24"/>
+      <c r="D114" s="24"/>
+      <c r="E114" s="24"/>
+      <c r="F114" s="24"/>
+      <c r="G114" s="24"/>
+      <c r="H114" s="24"/>
+      <c r="I114" s="24"/>
+      <c r="J114" s="5"/>
+    </row>
+    <row r="115" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B115" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="C115" s="24"/>
+      <c r="D115" s="24"/>
+      <c r="E115" s="24"/>
+      <c r="F115" s="24"/>
+      <c r="G115" s="24"/>
+      <c r="H115" s="24"/>
+      <c r="I115" s="24"/>
+      <c r="J115" s="5"/>
+    </row>
+    <row r="116" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B116" s="4"/>
+      <c r="C116" s="24"/>
+      <c r="D116" s="24"/>
+      <c r="E116" s="24"/>
+      <c r="F116" s="24"/>
+      <c r="G116" s="24"/>
+      <c r="H116" s="24"/>
+      <c r="I116" s="24"/>
+      <c r="J116" s="5"/>
+    </row>
+    <row r="117" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B117" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="C117" s="24"/>
+      <c r="D117" s="24"/>
+      <c r="E117" s="24"/>
+      <c r="F117" s="24"/>
+      <c r="G117" s="24"/>
+      <c r="H117" s="24"/>
+      <c r="I117" s="24"/>
+      <c r="J117" s="5"/>
+    </row>
+    <row r="118" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B118" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="C118" s="24"/>
+      <c r="D118" s="24"/>
+      <c r="E118" s="24"/>
+      <c r="F118" s="24"/>
+      <c r="G118" s="24"/>
+      <c r="H118" s="24"/>
+      <c r="I118" s="24"/>
+      <c r="J118" s="5"/>
+    </row>
+    <row r="119" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B119" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="C119" s="24"/>
+      <c r="D119" s="24"/>
+      <c r="E119" s="24"/>
+      <c r="F119" s="24"/>
+      <c r="G119" s="24"/>
+      <c r="H119" s="24"/>
+      <c r="I119" s="24"/>
+      <c r="J119" s="5"/>
+    </row>
+    <row r="120" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B120" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C120" s="24"/>
+      <c r="D120" s="24"/>
+      <c r="E120" s="24"/>
+      <c r="F120" s="24"/>
+      <c r="G120" s="24"/>
+      <c r="H120" s="24"/>
+      <c r="I120" s="24"/>
+      <c r="J120" s="5"/>
+    </row>
+    <row r="121" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B121" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C121" s="24"/>
+      <c r="D121" s="24"/>
+      <c r="E121" s="24"/>
+      <c r="F121" s="24"/>
+      <c r="G121" s="24"/>
+      <c r="H121" s="24"/>
+      <c r="I121" s="24"/>
+      <c r="J121" s="5"/>
+    </row>
+    <row r="122" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B122" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="C122" s="24"/>
+      <c r="D122" s="24"/>
+      <c r="E122" s="24"/>
+      <c r="F122" s="24"/>
+      <c r="G122" s="24"/>
+      <c r="H122" s="24"/>
+      <c r="I122" s="24"/>
+      <c r="J122" s="5"/>
+    </row>
+    <row r="123" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B123" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="C123" s="24"/>
+      <c r="D123" s="24"/>
+      <c r="E123" s="24"/>
+      <c r="F123" s="24"/>
+      <c r="G123" s="24"/>
+      <c r="H123" s="24"/>
+      <c r="I123" s="24"/>
+      <c r="J123" s="5"/>
+    </row>
+    <row r="124" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B124" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="C124" s="24"/>
+      <c r="D124" s="24"/>
+      <c r="E124" s="24"/>
+      <c r="F124" s="24"/>
+      <c r="G124" s="24"/>
+      <c r="H124" s="24"/>
+      <c r="I124" s="24"/>
+      <c r="J124" s="5"/>
+    </row>
+    <row r="125" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B125" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="C125" s="24"/>
+      <c r="D125" s="24"/>
+      <c r="E125" s="24"/>
+      <c r="F125" s="24"/>
+      <c r="G125" s="24"/>
+      <c r="H125" s="24"/>
+      <c r="I125" s="24"/>
+      <c r="J125" s="5"/>
+    </row>
+    <row r="126" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B126" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="C126" s="24"/>
+      <c r="D126" s="24"/>
+      <c r="E126" s="24"/>
+      <c r="F126" s="24"/>
+      <c r="G126" s="24"/>
+      <c r="H126" s="24"/>
+      <c r="I126" s="24"/>
+      <c r="J126" s="5"/>
+    </row>
+    <row r="127" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B127" s="4"/>
+      <c r="C127" s="24"/>
+      <c r="D127" s="24"/>
+      <c r="E127" s="24"/>
+      <c r="F127" s="24"/>
+      <c r="G127" s="24"/>
+      <c r="H127" s="24"/>
+      <c r="I127" s="24"/>
+      <c r="J127" s="5"/>
+    </row>
+    <row r="128" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B128" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="C128" s="24"/>
+      <c r="D128" s="24"/>
+      <c r="E128" s="24"/>
+      <c r="F128" s="24"/>
+      <c r="G128" s="24"/>
+      <c r="H128" s="24"/>
+      <c r="I128" s="24"/>
+      <c r="J128" s="5"/>
+    </row>
+    <row r="129" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B129" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C129" s="24"/>
+      <c r="D129" s="24"/>
+      <c r="E129" s="24"/>
+      <c r="F129" s="24"/>
+      <c r="G129" s="24"/>
+      <c r="H129" s="24"/>
+      <c r="I129" s="24"/>
+      <c r="J129" s="5"/>
+    </row>
+    <row r="130" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B130" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="C130" s="24"/>
+      <c r="D130" s="24"/>
+      <c r="E130" s="24"/>
+      <c r="F130" s="24"/>
+      <c r="G130" s="24"/>
+      <c r="H130" s="24"/>
+      <c r="I130" s="24"/>
+      <c r="J130" s="5"/>
+    </row>
+    <row r="131" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B131" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="C131" s="7"/>
+      <c r="D131" s="7"/>
+      <c r="E131" s="7"/>
+      <c r="F131" s="7"/>
+      <c r="G131" s="7"/>
+      <c r="H131" s="7"/>
+      <c r="I131" s="7"/>
+      <c r="J131" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/me/2.Apex-Fundamentals.xlsx
+++ b/me/2.Apex-Fundamentals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\salesforce\me\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F141867F-7BC8-4A8B-81B7-1342186DE958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B870E163-6E19-4BB1-B71A-74C8D6D17789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="7" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="8" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hello World" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="Challenge-VariablesAndDatatype" sheetId="9" r:id="rId9"/>
     <sheet name="Constants in Apex" sheetId="10" r:id="rId10"/>
     <sheet name="Operators" sheetId="11" r:id="rId11"/>
+    <sheet name="Challenge - Operators" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="317">
   <si>
     <t>Mở Developer Console trên tab mới</t>
   </si>
@@ -986,6 +987,93 @@
   </si>
   <si>
     <t>11.operators.txt</t>
+  </si>
+  <si>
+    <t>Challenge - Operators</t>
+  </si>
+  <si>
+    <t>12.operator-challenge-solution.txt</t>
+  </si>
+  <si>
+    <t>salesforce\2.Apex-Fundamentals\12.operator-challenge-solution.txt</t>
+  </si>
+  <si>
+    <t>/*Pizza Rates:</t>
+  </si>
+  <si>
+    <t>1 slice - $8/slice</t>
+  </si>
+  <si>
+    <t>2-3 slice - $7/slice</t>
+  </si>
+  <si>
+    <t>&gt;3 slice - $6/slice</t>
+  </si>
+  <si>
+    <t>Ross ordered - 3 slices</t>
+  </si>
+  <si>
+    <t>Chandler ordered - 1 slice</t>
+  </si>
+  <si>
+    <t>Joey ordered - 4 slices</t>
+  </si>
+  <si>
+    <t>//Create rate card with constants</t>
+  </si>
+  <si>
+    <t>final Integer ONLY_ONE_SLICE = 8;</t>
+  </si>
+  <si>
+    <t>final Integer UPTO_THREE_SLICES = 7;</t>
+  </si>
+  <si>
+    <t>final Integer MORE_THAN_THREE_SLICES = 6;</t>
+  </si>
+  <si>
+    <t>Integer numberOfSlices = 0;</t>
+  </si>
+  <si>
+    <t>// Calculate Ross's amount</t>
+  </si>
+  <si>
+    <t>numberOfSlices = 3;</t>
+  </si>
+  <si>
+    <t>Integer rossHasToPay = numberOfSlices == 1 ? ONLY_ONE_SLICE*numberOfSlices :</t>
+  </si>
+  <si>
+    <t>(numberOfSlices &lt;= 3 ? UPTO_THREE_SLICES*numberOfSlices :</t>
+  </si>
+  <si>
+    <t>MORE_THAN_THREE_SLICES*numberOfSlices);</t>
+  </si>
+  <si>
+    <t>System.debug('Ross has to pay - '+rossHasToPay);</t>
+  </si>
+  <si>
+    <t>// Calculate Chandler's amount</t>
+  </si>
+  <si>
+    <t>numberOfSlices = 1;</t>
+  </si>
+  <si>
+    <t>Integer chandlerHasToPay = numberOfSlices == 1 ? ONLY_ONE_SLICE*numberOfSlices :</t>
+  </si>
+  <si>
+    <t>System.debug('Chandler has to pay - '+chandlerHasToPay);</t>
+  </si>
+  <si>
+    <t>// Calculate Joey's amount</t>
+  </si>
+  <si>
+    <t>numberOfSlices = 4;</t>
+  </si>
+  <si>
+    <t>Integer joeyHasToPay = numberOfSlices == 1 ? ONLY_ONE_SLICE*numberOfSlices :</t>
+  </si>
+  <si>
+    <t>System.debug('Joey has to pay - '+joeyHasToPay);</t>
   </si>
 </sst>
 </file>
@@ -2555,6 +2643,302 @@
         </xdr:spPr>
       </xdr:pic>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>494567</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>151820</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A41FF1B2-9C47-49EC-7376-958DF310C098}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="723900" y="657225"/>
+          <a:ext cx="5866667" cy="4638095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>389121</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>142489</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57EE9889-8FE9-21DE-C015-E078C663EF7D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="742950" y="5438775"/>
+          <a:ext cx="11228571" cy="3085714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>131753</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>75488</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37390DE6-05BC-4EC3-9BDE-0666B14BB8E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6867525" y="13620750"/>
+          <a:ext cx="12771428" cy="5695238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F6199BB-F0EF-ECF6-77AF-EDA08C6BB290}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3581400" y="15754350"/>
+          <a:ext cx="6781800" cy="4371975"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE280108-02A8-D483-403B-9A82376F8DA7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4114800" y="15535275"/>
+          <a:ext cx="6381750" cy="3057525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7342894C-C0E9-75B0-5E95-D2B0753AAB26}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3552825" y="15325725"/>
+          <a:ext cx="6734175" cy="1724025"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -7366,8 +7750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CA5570D-70F4-4206-A9FB-A92E1F5012C6}">
   <dimension ref="A3:J131"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7460,7 +7844,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="4"/>
-      <c r="D15" s="25" t="s">
+      <c r="D15" t="s">
         <v>191</v>
       </c>
       <c r="H15" s="5"/>
@@ -7487,15 +7871,6 @@
       <c r="G17" s="7"/>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-    </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>198</v>
@@ -7513,6 +7888,1029 @@
       <c r="B21" s="4" t="s">
         <v>199</v>
       </c>
+      <c r="J21" s="5"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="J22" s="5"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="4"/>
+      <c r="J23" s="5"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="J24" s="5"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="J25" s="5"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="J26" s="5"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="4"/>
+      <c r="J27" s="5"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="J28" s="5"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="J29" s="5"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="J30" s="5"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="J31" s="5"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B32" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="J32" s="5"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B33" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="J33" s="5"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B34" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="J34" s="5"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B35" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="J35" s="5"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B36" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="J36" s="5"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B37" s="4"/>
+      <c r="J37" s="5"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B38" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="J38" s="5"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B39" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="J39" s="5"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B40" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="J40" s="5"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B41" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="J41" s="5"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B42" s="4"/>
+      <c r="J42" s="5"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B43" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="J43" s="5"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B44" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="J44" s="5"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B45" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="J45" s="5"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B46" s="4"/>
+      <c r="J46" s="5"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B47" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="J47" s="5"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B48" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="J48" s="5"/>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B49" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="J49" s="5"/>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B50" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="J50" s="5"/>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B51" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="J51" s="5"/>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B52" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="J52" s="5"/>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B53" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="J53" s="5"/>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B54" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="J54" s="5"/>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B55" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="J55" s="5"/>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B56" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="J56" s="5"/>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B57" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="J57" s="5"/>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B58" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="J58" s="5"/>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B59" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="J59" s="5"/>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B60" s="4"/>
+      <c r="J60" s="5"/>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B61" s="4"/>
+      <c r="J61" s="5"/>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B62" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="J62" s="5"/>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B63" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="J63" s="5"/>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B64" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="J64" s="5"/>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B65" s="4"/>
+      <c r="J65" s="5"/>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B66" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="J66" s="5"/>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B67" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="J67" s="5"/>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B68" s="4"/>
+      <c r="J68" s="5"/>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B69" s="4"/>
+      <c r="J69" s="5"/>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B70" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="J70" s="5"/>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B71" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="J71" s="5"/>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B72" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="J72" s="5"/>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B73" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="J73" s="5"/>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B74" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="J74" s="5"/>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B75" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="J75" s="5"/>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B76" s="4"/>
+      <c r="J76" s="5"/>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B77" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="J77" s="5"/>
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B78" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="J78" s="5"/>
+    </row>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B79" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="J79" s="5"/>
+    </row>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B80" s="4"/>
+      <c r="J80" s="5"/>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B81" s="4"/>
+      <c r="J81" s="5"/>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B82" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="J82" s="5"/>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B83" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="J83" s="5"/>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B84" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="J84" s="5"/>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B85" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="J85" s="5"/>
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B86" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="J86" s="5"/>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B87" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="J87" s="5"/>
+    </row>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B88" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="J88" s="5"/>
+    </row>
+    <row r="89" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B89" s="4"/>
+      <c r="J89" s="5"/>
+    </row>
+    <row r="90" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B90" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="J90" s="5"/>
+    </row>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B91" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="J91" s="5"/>
+    </row>
+    <row r="92" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B92" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="J92" s="5"/>
+    </row>
+    <row r="93" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B93" s="4"/>
+      <c r="J93" s="5"/>
+    </row>
+    <row r="94" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B94" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="J94" s="5"/>
+    </row>
+    <row r="95" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B95" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="J95" s="5"/>
+    </row>
+    <row r="96" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B96" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="J96" s="5"/>
+    </row>
+    <row r="97" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B97" s="4"/>
+      <c r="J97" s="5"/>
+    </row>
+    <row r="98" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B98" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="J98" s="5"/>
+    </row>
+    <row r="99" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B99" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="J99" s="5"/>
+    </row>
+    <row r="100" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B100" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="J100" s="5"/>
+    </row>
+    <row r="101" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B101" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="J101" s="5"/>
+    </row>
+    <row r="102" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B102" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="J102" s="5"/>
+    </row>
+    <row r="103" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B103" s="4"/>
+      <c r="J103" s="5"/>
+    </row>
+    <row r="104" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B104" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="J104" s="5"/>
+    </row>
+    <row r="105" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B105" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="J105" s="5"/>
+    </row>
+    <row r="106" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B106" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="J106" s="5"/>
+    </row>
+    <row r="107" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B107" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="J107" s="5"/>
+    </row>
+    <row r="108" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B108" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="J108" s="5"/>
+    </row>
+    <row r="109" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B109" s="4"/>
+      <c r="J109" s="5"/>
+    </row>
+    <row r="110" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B110" s="4"/>
+      <c r="J110" s="5"/>
+    </row>
+    <row r="111" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B111" s="4"/>
+      <c r="J111" s="5"/>
+    </row>
+    <row r="112" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B112" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="J112" s="5"/>
+    </row>
+    <row r="113" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B113" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="J113" s="5"/>
+    </row>
+    <row r="114" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B114" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="J114" s="5"/>
+    </row>
+    <row r="115" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B115" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="J115" s="5"/>
+    </row>
+    <row r="116" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B116" s="4"/>
+      <c r="J116" s="5"/>
+    </row>
+    <row r="117" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B117" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="J117" s="5"/>
+    </row>
+    <row r="118" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B118" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="J118" s="5"/>
+    </row>
+    <row r="119" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B119" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="J119" s="5"/>
+    </row>
+    <row r="120" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B120" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="J120" s="5"/>
+    </row>
+    <row r="121" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B121" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="J121" s="5"/>
+    </row>
+    <row r="122" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B122" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="J122" s="5"/>
+    </row>
+    <row r="123" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B123" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="J123" s="5"/>
+    </row>
+    <row r="124" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B124" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="J124" s="5"/>
+    </row>
+    <row r="125" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B125" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="J125" s="5"/>
+    </row>
+    <row r="126" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B126" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="J126" s="5"/>
+    </row>
+    <row r="127" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B127" s="4"/>
+      <c r="J127" s="5"/>
+    </row>
+    <row r="128" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B128" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="J128" s="5"/>
+    </row>
+    <row r="129" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B129" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="J129" s="5"/>
+    </row>
+    <row r="130" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B130" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="J130" s="5"/>
+    </row>
+    <row r="131" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B131" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="C131" s="7"/>
+      <c r="D131" s="7"/>
+      <c r="E131" s="7"/>
+      <c r="F131" s="7"/>
+      <c r="G131" s="7"/>
+      <c r="H131" s="7"/>
+      <c r="I131" s="7"/>
+      <c r="J131" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB441F49-B758-4A07-97EF-A04AAC664B07}">
+  <dimension ref="A3:T106"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="K80" sqref="K80"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B3" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="3"/>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B4" s="4"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="24"/>
+      <c r="T4" s="5"/>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B5" s="4"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24"/>
+      <c r="T5" s="5"/>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B6" s="4"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="24"/>
+      <c r="S6" s="24"/>
+      <c r="T6" s="5"/>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B7" s="4"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24"/>
+      <c r="S7" s="24"/>
+      <c r="T7" s="5"/>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B8" s="4"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24"/>
+      <c r="S8" s="24"/>
+      <c r="T8" s="5"/>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B9" s="4"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="24"/>
+      <c r="S9" s="24"/>
+      <c r="T9" s="5"/>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B10" s="4"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="24"/>
+      <c r="S10" s="24"/>
+      <c r="T10" s="5"/>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B11" s="4"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="24"/>
+      <c r="T11" s="5"/>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B12" s="4"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="24"/>
+      <c r="T12" s="5"/>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B13" s="4"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="24"/>
+      <c r="S13" s="24"/>
+      <c r="T13" s="5"/>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B14" s="4"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="24"/>
+      <c r="S14" s="24"/>
+      <c r="T14" s="5"/>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B15" s="4"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="24"/>
+      <c r="T15" s="5"/>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B16" s="4"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="24"/>
+      <c r="S16" s="24"/>
+      <c r="T16" s="5"/>
+    </row>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B17" s="4"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="24"/>
+      <c r="T17" s="5"/>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B18" s="4"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="24"/>
+      <c r="R18" s="24"/>
+      <c r="S18" s="24"/>
+      <c r="T18" s="5"/>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B19" s="4"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="24"/>
+      <c r="R19" s="24"/>
+      <c r="S19" s="24"/>
+      <c r="T19" s="5"/>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B20" s="4"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="24"/>
+      <c r="P20" s="24"/>
+      <c r="Q20" s="24"/>
+      <c r="R20" s="24"/>
+      <c r="S20" s="24"/>
+      <c r="T20" s="5"/>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B21" s="4"/>
       <c r="C21" s="24"/>
       <c r="D21" s="24"/>
       <c r="E21" s="24"/>
@@ -7520,12 +8918,20 @@
       <c r="G21" s="24"/>
       <c r="H21" s="24"/>
       <c r="I21" s="24"/>
-      <c r="J21" s="5"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="4" t="s">
-        <v>200</v>
-      </c>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="24"/>
+      <c r="O21" s="24"/>
+      <c r="P21" s="24"/>
+      <c r="Q21" s="24"/>
+      <c r="R21" s="24"/>
+      <c r="S21" s="24"/>
+      <c r="T21" s="5"/>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B22" s="4"/>
       <c r="C22" s="24"/>
       <c r="D22" s="24"/>
       <c r="E22" s="24"/>
@@ -7533,9 +8939,19 @@
       <c r="G22" s="24"/>
       <c r="H22" s="24"/>
       <c r="I22" s="24"/>
-      <c r="J22" s="5"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="24"/>
+      <c r="P22" s="24"/>
+      <c r="Q22" s="24"/>
+      <c r="R22" s="24"/>
+      <c r="S22" s="24"/>
+      <c r="T22" s="5"/>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B23" s="4"/>
       <c r="C23" s="24"/>
       <c r="D23" s="24"/>
@@ -7544,12 +8960,20 @@
       <c r="G23" s="24"/>
       <c r="H23" s="24"/>
       <c r="I23" s="24"/>
-      <c r="J23" s="5"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B24" s="4" t="s">
-        <v>201</v>
-      </c>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="24"/>
+      <c r="P23" s="24"/>
+      <c r="Q23" s="24"/>
+      <c r="R23" s="24"/>
+      <c r="S23" s="24"/>
+      <c r="T23" s="5"/>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B24" s="4"/>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
       <c r="E24" s="24"/>
@@ -7557,12 +8981,20 @@
       <c r="G24" s="24"/>
       <c r="H24" s="24"/>
       <c r="I24" s="24"/>
-      <c r="J24" s="5"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B25" s="4" t="s">
-        <v>202</v>
-      </c>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="24"/>
+      <c r="O24" s="24"/>
+      <c r="P24" s="24"/>
+      <c r="Q24" s="24"/>
+      <c r="R24" s="24"/>
+      <c r="S24" s="24"/>
+      <c r="T24" s="5"/>
+    </row>
+    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B25" s="4"/>
       <c r="C25" s="24"/>
       <c r="D25" s="24"/>
       <c r="E25" s="24"/>
@@ -7570,12 +9002,20 @@
       <c r="G25" s="24"/>
       <c r="H25" s="24"/>
       <c r="I25" s="24"/>
-      <c r="J25" s="5"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B26" s="4" t="s">
-        <v>203</v>
-      </c>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="24"/>
+      <c r="S25" s="24"/>
+      <c r="T25" s="5"/>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B26" s="4"/>
       <c r="C26" s="24"/>
       <c r="D26" s="24"/>
       <c r="E26" s="24"/>
@@ -7583,9 +9023,19 @@
       <c r="G26" s="24"/>
       <c r="H26" s="24"/>
       <c r="I26" s="24"/>
-      <c r="J26" s="5"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="24"/>
+      <c r="O26" s="24"/>
+      <c r="P26" s="24"/>
+      <c r="Q26" s="24"/>
+      <c r="R26" s="24"/>
+      <c r="S26" s="24"/>
+      <c r="T26" s="5"/>
+    </row>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B27" s="4"/>
       <c r="C27" s="24"/>
       <c r="D27" s="24"/>
@@ -7594,12 +9044,20 @@
       <c r="G27" s="24"/>
       <c r="H27" s="24"/>
       <c r="I27" s="24"/>
-      <c r="J27" s="5"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B28" s="4" t="s">
-        <v>204</v>
-      </c>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="24"/>
+      <c r="O27" s="24"/>
+      <c r="P27" s="24"/>
+      <c r="Q27" s="24"/>
+      <c r="R27" s="24"/>
+      <c r="S27" s="24"/>
+      <c r="T27" s="5"/>
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B28" s="4"/>
       <c r="C28" s="24"/>
       <c r="D28" s="24"/>
       <c r="E28" s="24"/>
@@ -7607,12 +9065,20 @@
       <c r="G28" s="24"/>
       <c r="H28" s="24"/>
       <c r="I28" s="24"/>
-      <c r="J28" s="5"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B29" s="4" t="s">
-        <v>205</v>
-      </c>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="24"/>
+      <c r="N28" s="24"/>
+      <c r="O28" s="24"/>
+      <c r="P28" s="24"/>
+      <c r="Q28" s="24"/>
+      <c r="R28" s="24"/>
+      <c r="S28" s="24"/>
+      <c r="T28" s="5"/>
+    </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B29" s="4"/>
       <c r="C29" s="24"/>
       <c r="D29" s="24"/>
       <c r="E29" s="24"/>
@@ -7620,12 +9086,20 @@
       <c r="G29" s="24"/>
       <c r="H29" s="24"/>
       <c r="I29" s="24"/>
-      <c r="J29" s="5"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B30" s="4" t="s">
-        <v>206</v>
-      </c>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="24"/>
+      <c r="O29" s="24"/>
+      <c r="P29" s="24"/>
+      <c r="Q29" s="24"/>
+      <c r="R29" s="24"/>
+      <c r="S29" s="24"/>
+      <c r="T29" s="5"/>
+    </row>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B30" s="4"/>
       <c r="C30" s="24"/>
       <c r="D30" s="24"/>
       <c r="E30" s="24"/>
@@ -7633,12 +9107,20 @@
       <c r="G30" s="24"/>
       <c r="H30" s="24"/>
       <c r="I30" s="24"/>
-      <c r="J30" s="5"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B31" s="4" t="s">
-        <v>207</v>
-      </c>
+      <c r="J30" s="24"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="24"/>
+      <c r="N30" s="24"/>
+      <c r="O30" s="24"/>
+      <c r="P30" s="24"/>
+      <c r="Q30" s="24"/>
+      <c r="R30" s="24"/>
+      <c r="S30" s="24"/>
+      <c r="T30" s="5"/>
+    </row>
+    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B31" s="4"/>
       <c r="C31" s="24"/>
       <c r="D31" s="24"/>
       <c r="E31" s="24"/>
@@ -7646,12 +9128,20 @@
       <c r="G31" s="24"/>
       <c r="H31" s="24"/>
       <c r="I31" s="24"/>
-      <c r="J31" s="5"/>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B32" s="4" t="s">
-        <v>208</v>
-      </c>
+      <c r="J31" s="24"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="24"/>
+      <c r="N31" s="24"/>
+      <c r="O31" s="24"/>
+      <c r="P31" s="24"/>
+      <c r="Q31" s="24"/>
+      <c r="R31" s="24"/>
+      <c r="S31" s="24"/>
+      <c r="T31" s="5"/>
+    </row>
+    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B32" s="4"/>
       <c r="C32" s="24"/>
       <c r="D32" s="24"/>
       <c r="E32" s="24"/>
@@ -7659,12 +9149,20 @@
       <c r="G32" s="24"/>
       <c r="H32" s="24"/>
       <c r="I32" s="24"/>
-      <c r="J32" s="5"/>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B33" s="4" t="s">
-        <v>209</v>
-      </c>
+      <c r="J32" s="24"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="24"/>
+      <c r="M32" s="24"/>
+      <c r="N32" s="24"/>
+      <c r="O32" s="24"/>
+      <c r="P32" s="24"/>
+      <c r="Q32" s="24"/>
+      <c r="R32" s="24"/>
+      <c r="S32" s="24"/>
+      <c r="T32" s="5"/>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B33" s="4"/>
       <c r="C33" s="24"/>
       <c r="D33" s="24"/>
       <c r="E33" s="24"/>
@@ -7672,12 +9170,20 @@
       <c r="G33" s="24"/>
       <c r="H33" s="24"/>
       <c r="I33" s="24"/>
-      <c r="J33" s="5"/>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B34" s="4" t="s">
-        <v>210</v>
-      </c>
+      <c r="J33" s="24"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="24"/>
+      <c r="M33" s="24"/>
+      <c r="N33" s="24"/>
+      <c r="O33" s="24"/>
+      <c r="P33" s="24"/>
+      <c r="Q33" s="24"/>
+      <c r="R33" s="24"/>
+      <c r="S33" s="24"/>
+      <c r="T33" s="5"/>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B34" s="4"/>
       <c r="C34" s="24"/>
       <c r="D34" s="24"/>
       <c r="E34" s="24"/>
@@ -7685,12 +9191,20 @@
       <c r="G34" s="24"/>
       <c r="H34" s="24"/>
       <c r="I34" s="24"/>
-      <c r="J34" s="5"/>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B35" s="4" t="s">
-        <v>211</v>
-      </c>
+      <c r="J34" s="24"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="24"/>
+      <c r="N34" s="24"/>
+      <c r="O34" s="24"/>
+      <c r="P34" s="24"/>
+      <c r="Q34" s="24"/>
+      <c r="R34" s="24"/>
+      <c r="S34" s="24"/>
+      <c r="T34" s="5"/>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B35" s="4"/>
       <c r="C35" s="24"/>
       <c r="D35" s="24"/>
       <c r="E35" s="24"/>
@@ -7698,12 +9212,20 @@
       <c r="G35" s="24"/>
       <c r="H35" s="24"/>
       <c r="I35" s="24"/>
-      <c r="J35" s="5"/>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B36" s="4" t="s">
-        <v>212</v>
-      </c>
+      <c r="J35" s="24"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="24"/>
+      <c r="M35" s="24"/>
+      <c r="N35" s="24"/>
+      <c r="O35" s="24"/>
+      <c r="P35" s="24"/>
+      <c r="Q35" s="24"/>
+      <c r="R35" s="24"/>
+      <c r="S35" s="24"/>
+      <c r="T35" s="5"/>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B36" s="4"/>
       <c r="C36" s="24"/>
       <c r="D36" s="24"/>
       <c r="E36" s="24"/>
@@ -7711,9 +9233,19 @@
       <c r="G36" s="24"/>
       <c r="H36" s="24"/>
       <c r="I36" s="24"/>
-      <c r="J36" s="5"/>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J36" s="24"/>
+      <c r="K36" s="24"/>
+      <c r="L36" s="24"/>
+      <c r="M36" s="24"/>
+      <c r="N36" s="24"/>
+      <c r="O36" s="24"/>
+      <c r="P36" s="24"/>
+      <c r="Q36" s="24"/>
+      <c r="R36" s="24"/>
+      <c r="S36" s="24"/>
+      <c r="T36" s="5"/>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B37" s="4"/>
       <c r="C37" s="24"/>
       <c r="D37" s="24"/>
@@ -7722,12 +9254,20 @@
       <c r="G37" s="24"/>
       <c r="H37" s="24"/>
       <c r="I37" s="24"/>
-      <c r="J37" s="5"/>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B38" s="4" t="s">
-        <v>213</v>
-      </c>
+      <c r="J37" s="24"/>
+      <c r="K37" s="24"/>
+      <c r="L37" s="24"/>
+      <c r="M37" s="24"/>
+      <c r="N37" s="24"/>
+      <c r="O37" s="24"/>
+      <c r="P37" s="24"/>
+      <c r="Q37" s="24"/>
+      <c r="R37" s="24"/>
+      <c r="S37" s="24"/>
+      <c r="T37" s="5"/>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B38" s="4"/>
       <c r="C38" s="24"/>
       <c r="D38" s="24"/>
       <c r="E38" s="24"/>
@@ -7735,12 +9275,20 @@
       <c r="G38" s="24"/>
       <c r="H38" s="24"/>
       <c r="I38" s="24"/>
-      <c r="J38" s="5"/>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B39" s="4" t="s">
-        <v>214</v>
-      </c>
+      <c r="J38" s="24"/>
+      <c r="K38" s="24"/>
+      <c r="L38" s="24"/>
+      <c r="M38" s="24"/>
+      <c r="N38" s="24"/>
+      <c r="O38" s="24"/>
+      <c r="P38" s="24"/>
+      <c r="Q38" s="24"/>
+      <c r="R38" s="24"/>
+      <c r="S38" s="24"/>
+      <c r="T38" s="5"/>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B39" s="4"/>
       <c r="C39" s="24"/>
       <c r="D39" s="24"/>
       <c r="E39" s="24"/>
@@ -7748,12 +9296,20 @@
       <c r="G39" s="24"/>
       <c r="H39" s="24"/>
       <c r="I39" s="24"/>
-      <c r="J39" s="5"/>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B40" s="4" t="s">
-        <v>215</v>
-      </c>
+      <c r="J39" s="24"/>
+      <c r="K39" s="24"/>
+      <c r="L39" s="24"/>
+      <c r="M39" s="24"/>
+      <c r="N39" s="24"/>
+      <c r="O39" s="24"/>
+      <c r="P39" s="24"/>
+      <c r="Q39" s="24"/>
+      <c r="R39" s="24"/>
+      <c r="S39" s="24"/>
+      <c r="T39" s="5"/>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B40" s="4"/>
       <c r="C40" s="24"/>
       <c r="D40" s="24"/>
       <c r="E40" s="24"/>
@@ -7761,12 +9317,20 @@
       <c r="G40" s="24"/>
       <c r="H40" s="24"/>
       <c r="I40" s="24"/>
-      <c r="J40" s="5"/>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B41" s="4" t="s">
-        <v>216</v>
-      </c>
+      <c r="J40" s="24"/>
+      <c r="K40" s="24"/>
+      <c r="L40" s="24"/>
+      <c r="M40" s="24"/>
+      <c r="N40" s="24"/>
+      <c r="O40" s="24"/>
+      <c r="P40" s="24"/>
+      <c r="Q40" s="24"/>
+      <c r="R40" s="24"/>
+      <c r="S40" s="24"/>
+      <c r="T40" s="5"/>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B41" s="4"/>
       <c r="C41" s="24"/>
       <c r="D41" s="24"/>
       <c r="E41" s="24"/>
@@ -7774,9 +9338,19 @@
       <c r="G41" s="24"/>
       <c r="H41" s="24"/>
       <c r="I41" s="24"/>
-      <c r="J41" s="5"/>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J41" s="24"/>
+      <c r="K41" s="24"/>
+      <c r="L41" s="24"/>
+      <c r="M41" s="24"/>
+      <c r="N41" s="24"/>
+      <c r="O41" s="24"/>
+      <c r="P41" s="24"/>
+      <c r="Q41" s="24"/>
+      <c r="R41" s="24"/>
+      <c r="S41" s="24"/>
+      <c r="T41" s="5"/>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B42" s="4"/>
       <c r="C42" s="24"/>
       <c r="D42" s="24"/>
@@ -7785,12 +9359,20 @@
       <c r="G42" s="24"/>
       <c r="H42" s="24"/>
       <c r="I42" s="24"/>
-      <c r="J42" s="5"/>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B43" s="4" t="s">
-        <v>217</v>
-      </c>
+      <c r="J42" s="24"/>
+      <c r="K42" s="24"/>
+      <c r="L42" s="24"/>
+      <c r="M42" s="24"/>
+      <c r="N42" s="24"/>
+      <c r="O42" s="24"/>
+      <c r="P42" s="24"/>
+      <c r="Q42" s="24"/>
+      <c r="R42" s="24"/>
+      <c r="S42" s="24"/>
+      <c r="T42" s="5"/>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B43" s="4"/>
       <c r="C43" s="24"/>
       <c r="D43" s="24"/>
       <c r="E43" s="24"/>
@@ -7798,12 +9380,20 @@
       <c r="G43" s="24"/>
       <c r="H43" s="24"/>
       <c r="I43" s="24"/>
-      <c r="J43" s="5"/>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B44" s="4" t="s">
-        <v>218</v>
-      </c>
+      <c r="J43" s="24"/>
+      <c r="K43" s="24"/>
+      <c r="L43" s="24"/>
+      <c r="M43" s="24"/>
+      <c r="N43" s="24"/>
+      <c r="O43" s="24"/>
+      <c r="P43" s="24"/>
+      <c r="Q43" s="24"/>
+      <c r="R43" s="24"/>
+      <c r="S43" s="24"/>
+      <c r="T43" s="5"/>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B44" s="4"/>
       <c r="C44" s="24"/>
       <c r="D44" s="24"/>
       <c r="E44" s="24"/>
@@ -7811,301 +9401,183 @@
       <c r="G44" s="24"/>
       <c r="H44" s="24"/>
       <c r="I44" s="24"/>
-      <c r="J44" s="5"/>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B45" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="24"/>
-      <c r="H45" s="24"/>
-      <c r="I45" s="24"/>
-      <c r="J45" s="5"/>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B46" s="4"/>
-      <c r="C46" s="24"/>
-      <c r="D46" s="24"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="24"/>
-      <c r="H46" s="24"/>
-      <c r="I46" s="24"/>
-      <c r="J46" s="5"/>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B47" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="C47" s="24"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="24"/>
-      <c r="H47" s="24"/>
-      <c r="I47" s="24"/>
-      <c r="J47" s="5"/>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B48" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="C48" s="24"/>
-      <c r="D48" s="24"/>
-      <c r="E48" s="24"/>
-      <c r="F48" s="24"/>
-      <c r="G48" s="24"/>
-      <c r="H48" s="24"/>
-      <c r="I48" s="24"/>
-      <c r="J48" s="5"/>
+      <c r="J44" s="24"/>
+      <c r="K44" s="24"/>
+      <c r="L44" s="24"/>
+      <c r="M44" s="24"/>
+      <c r="N44" s="24"/>
+      <c r="O44" s="24"/>
+      <c r="P44" s="24"/>
+      <c r="Q44" s="24"/>
+      <c r="R44" s="24"/>
+      <c r="S44" s="24"/>
+      <c r="T44" s="5"/>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B45" s="6"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="7"/>
+      <c r="O45" s="7"/>
+      <c r="P45" s="7"/>
+      <c r="Q45" s="7"/>
+      <c r="R45" s="7"/>
+      <c r="S45" s="7"/>
+      <c r="T45" s="8"/>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A48" s="9" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B49" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="C49" s="24"/>
-      <c r="D49" s="24"/>
-      <c r="E49" s="24"/>
-      <c r="F49" s="24"/>
-      <c r="G49" s="24"/>
-      <c r="H49" s="24"/>
-      <c r="I49" s="24"/>
-      <c r="J49" s="5"/>
+      <c r="B49" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="3"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B50" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="C50" s="24"/>
-      <c r="D50" s="24"/>
-      <c r="E50" s="24"/>
-      <c r="F50" s="24"/>
-      <c r="G50" s="24"/>
-      <c r="H50" s="24"/>
-      <c r="I50" s="24"/>
-      <c r="J50" s="5"/>
+      <c r="B50" s="4"/>
+      <c r="C50" t="s">
+        <v>11</v>
+      </c>
+      <c r="H50" s="5"/>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B51" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="C51" s="24"/>
-      <c r="D51" s="24"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="24"/>
-      <c r="G51" s="24"/>
-      <c r="H51" s="24"/>
-      <c r="I51" s="24"/>
-      <c r="J51" s="5"/>
+      <c r="B51" s="4"/>
+      <c r="D51" t="s">
+        <v>12</v>
+      </c>
+      <c r="H51" s="5"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B52" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="C52" s="24"/>
-      <c r="D52" s="24"/>
-      <c r="E52" s="24"/>
-      <c r="F52" s="24"/>
-      <c r="G52" s="24"/>
-      <c r="H52" s="24"/>
-      <c r="I52" s="24"/>
-      <c r="J52" s="5"/>
+      <c r="B52" s="4"/>
+      <c r="D52" t="s">
+        <v>18</v>
+      </c>
+      <c r="H52" s="5"/>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B53" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="C53" s="24"/>
-      <c r="D53" s="24"/>
-      <c r="E53" s="24"/>
-      <c r="F53" s="24"/>
-      <c r="G53" s="24"/>
-      <c r="H53" s="24"/>
-      <c r="I53" s="24"/>
-      <c r="J53" s="5"/>
+      <c r="B53" s="4"/>
+      <c r="D53" t="s">
+        <v>50</v>
+      </c>
+      <c r="H53" s="5"/>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B54" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="C54" s="24"/>
-      <c r="D54" s="24"/>
-      <c r="E54" s="24"/>
-      <c r="F54" s="24"/>
-      <c r="G54" s="24"/>
-      <c r="H54" s="24"/>
-      <c r="I54" s="24"/>
-      <c r="J54" s="5"/>
+      <c r="B54" s="4"/>
+      <c r="D54" t="s">
+        <v>77</v>
+      </c>
+      <c r="H54" s="5"/>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B55" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="C55" s="24"/>
-      <c r="D55" s="24"/>
-      <c r="E55" s="24"/>
-      <c r="F55" s="24"/>
-      <c r="G55" s="24"/>
-      <c r="H55" s="24"/>
-      <c r="I55" s="24"/>
-      <c r="J55" s="5"/>
+      <c r="B55" s="4"/>
+      <c r="D55" t="s">
+        <v>81</v>
+      </c>
+      <c r="H55" s="5"/>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B56" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="C56" s="24"/>
-      <c r="D56" s="24"/>
-      <c r="E56" s="24"/>
-      <c r="F56" s="24"/>
-      <c r="G56" s="24"/>
-      <c r="H56" s="24"/>
-      <c r="I56" s="24"/>
-      <c r="J56" s="5"/>
+      <c r="B56" s="4"/>
+      <c r="D56" t="s">
+        <v>92</v>
+      </c>
+      <c r="H56" s="5"/>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B57" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="C57" s="24"/>
-      <c r="D57" s="24"/>
-      <c r="E57" s="24"/>
-      <c r="F57" s="24"/>
-      <c r="G57" s="24"/>
-      <c r="H57" s="24"/>
-      <c r="I57" s="24"/>
-      <c r="J57" s="5"/>
+      <c r="B57" s="4"/>
+      <c r="D57" t="s">
+        <v>125</v>
+      </c>
+      <c r="H57" s="5"/>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B58" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="C58" s="24"/>
-      <c r="D58" s="24"/>
-      <c r="E58" s="24"/>
-      <c r="F58" s="24"/>
-      <c r="G58" s="24"/>
-      <c r="H58" s="24"/>
-      <c r="I58" s="24"/>
-      <c r="J58" s="5"/>
+      <c r="B58" s="4"/>
+      <c r="D58" t="s">
+        <v>140</v>
+      </c>
+      <c r="H58" s="5"/>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B59" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="C59" s="24"/>
-      <c r="D59" s="24"/>
-      <c r="E59" s="24"/>
-      <c r="F59" s="24"/>
-      <c r="G59" s="24"/>
-      <c r="H59" s="24"/>
-      <c r="I59" s="24"/>
-      <c r="J59" s="5"/>
+      <c r="B59" s="4"/>
+      <c r="D59" t="s">
+        <v>175</v>
+      </c>
+      <c r="H59" s="5"/>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B60" s="4"/>
-      <c r="C60" s="24"/>
-      <c r="D60" s="24"/>
-      <c r="E60" s="24"/>
-      <c r="F60" s="24"/>
-      <c r="G60" s="24"/>
-      <c r="H60" s="24"/>
-      <c r="I60" s="24"/>
-      <c r="J60" s="5"/>
+      <c r="D60" t="s">
+        <v>191</v>
+      </c>
+      <c r="H60" s="5"/>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B61" s="4"/>
-      <c r="C61" s="24"/>
-      <c r="D61" s="24"/>
-      <c r="E61" s="24"/>
-      <c r="F61" s="24"/>
-      <c r="G61" s="24"/>
-      <c r="H61" s="24"/>
-      <c r="I61" s="24"/>
-      <c r="J61" s="5"/>
+      <c r="D61" s="25" t="s">
+        <v>287</v>
+      </c>
+      <c r="H61" s="5"/>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B62" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="C62" s="24"/>
-      <c r="D62" s="24"/>
-      <c r="E62" s="24"/>
-      <c r="F62" s="24"/>
-      <c r="G62" s="24"/>
-      <c r="H62" s="24"/>
-      <c r="I62" s="24"/>
-      <c r="J62" s="5"/>
+      <c r="B62" s="4"/>
+      <c r="D62" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="H62" s="5"/>
+      <c r="I62" t="s">
+        <v>17</v>
+      </c>
+      <c r="J62" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B63" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="C63" s="24"/>
-      <c r="D63" s="24"/>
-      <c r="E63" s="24"/>
-      <c r="F63" s="24"/>
-      <c r="G63" s="24"/>
-      <c r="H63" s="24"/>
-      <c r="I63" s="24"/>
-      <c r="J63" s="5"/>
-    </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B64" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="C64" s="24"/>
-      <c r="D64" s="24"/>
-      <c r="E64" s="24"/>
-      <c r="F64" s="24"/>
-      <c r="G64" s="24"/>
-      <c r="H64" s="24"/>
-      <c r="I64" s="24"/>
-      <c r="J64" s="5"/>
-    </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B65" s="4"/>
-      <c r="C65" s="24"/>
-      <c r="D65" s="24"/>
-      <c r="E65" s="24"/>
-      <c r="F65" s="24"/>
-      <c r="G65" s="24"/>
-      <c r="H65" s="24"/>
-      <c r="I65" s="24"/>
-      <c r="J65" s="5"/>
-    </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B66" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="C66" s="24"/>
-      <c r="D66" s="24"/>
-      <c r="E66" s="24"/>
-      <c r="F66" s="24"/>
-      <c r="G66" s="24"/>
-      <c r="H66" s="24"/>
-      <c r="I66" s="24"/>
-      <c r="J66" s="5"/>
-    </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B67" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="C67" s="24"/>
-      <c r="D67" s="24"/>
-      <c r="E67" s="24"/>
-      <c r="F67" s="24"/>
-      <c r="G67" s="24"/>
-      <c r="H67" s="24"/>
-      <c r="I67" s="24"/>
-      <c r="J67" s="5"/>
-    </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B68" s="4"/>
+      <c r="B63" s="6"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="8"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B67" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="3"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B68" s="4" t="s">
+        <v>292</v>
+      </c>
       <c r="C68" s="24"/>
       <c r="D68" s="24"/>
       <c r="E68" s="24"/>
@@ -8115,8 +9587,10 @@
       <c r="I68" s="24"/>
       <c r="J68" s="5"/>
     </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B69" s="4"/>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B69" s="4" t="s">
+        <v>293</v>
+      </c>
       <c r="C69" s="24"/>
       <c r="D69" s="24"/>
       <c r="E69" s="24"/>
@@ -8126,9 +9600,9 @@
       <c r="I69" s="24"/>
       <c r="J69" s="5"/>
     </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B70" s="4" t="s">
-        <v>238</v>
+        <v>294</v>
       </c>
       <c r="C70" s="24"/>
       <c r="D70" s="24"/>
@@ -8139,10 +9613,8 @@
       <c r="I70" s="24"/>
       <c r="J70" s="5"/>
     </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B71" s="4" t="s">
-        <v>239</v>
-      </c>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B71" s="4"/>
       <c r="C71" s="24"/>
       <c r="D71" s="24"/>
       <c r="E71" s="24"/>
@@ -8152,9 +9624,9 @@
       <c r="I71" s="24"/>
       <c r="J71" s="5"/>
     </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B72" s="4" t="s">
-        <v>240</v>
+        <v>295</v>
       </c>
       <c r="C72" s="24"/>
       <c r="D72" s="24"/>
@@ -8165,9 +9637,9 @@
       <c r="I72" s="24"/>
       <c r="J72" s="5"/>
     </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B73" s="4" t="s">
-        <v>241</v>
+        <v>296</v>
       </c>
       <c r="C73" s="24"/>
       <c r="D73" s="24"/>
@@ -8178,9 +9650,9 @@
       <c r="I73" s="24"/>
       <c r="J73" s="5"/>
     </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B74" s="4" t="s">
-        <v>242</v>
+        <v>297</v>
       </c>
       <c r="C74" s="24"/>
       <c r="D74" s="24"/>
@@ -8191,9 +9663,9 @@
       <c r="I74" s="24"/>
       <c r="J74" s="5"/>
     </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B75" s="4" t="s">
-        <v>243</v>
+        <v>87</v>
       </c>
       <c r="C75" s="24"/>
       <c r="D75" s="24"/>
@@ -8204,7 +9676,7 @@
       <c r="I75" s="24"/>
       <c r="J75" s="5"/>
     </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B76" s="4"/>
       <c r="C76" s="24"/>
       <c r="D76" s="24"/>
@@ -8215,9 +9687,9 @@
       <c r="I76" s="24"/>
       <c r="J76" s="5"/>
     </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B77" s="4" t="s">
-        <v>244</v>
+        <v>298</v>
       </c>
       <c r="C77" s="24"/>
       <c r="D77" s="24"/>
@@ -8228,9 +9700,9 @@
       <c r="I77" s="24"/>
       <c r="J77" s="5"/>
     </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B78" s="4" t="s">
-        <v>245</v>
+        <v>299</v>
       </c>
       <c r="C78" s="24"/>
       <c r="D78" s="24"/>
@@ -8241,9 +9713,9 @@
       <c r="I78" s="24"/>
       <c r="J78" s="5"/>
     </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B79" s="4" t="s">
-        <v>246</v>
+        <v>300</v>
       </c>
       <c r="C79" s="24"/>
       <c r="D79" s="24"/>
@@ -8254,8 +9726,10 @@
       <c r="I79" s="24"/>
       <c r="J79" s="5"/>
     </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B80" s="4"/>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B80" s="4" t="s">
+        <v>301</v>
+      </c>
       <c r="C80" s="24"/>
       <c r="D80" s="24"/>
       <c r="E80" s="24"/>
@@ -8278,7 +9752,7 @@
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B82" s="4" t="s">
-        <v>247</v>
+        <v>302</v>
       </c>
       <c r="C82" s="24"/>
       <c r="D82" s="24"/>
@@ -8290,9 +9764,7 @@
       <c r="J82" s="5"/>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B83" s="4" t="s">
-        <v>248</v>
-      </c>
+      <c r="B83" s="4"/>
       <c r="C83" s="24"/>
       <c r="D83" s="24"/>
       <c r="E83" s="24"/>
@@ -8304,7 +9776,7 @@
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B84" s="4" t="s">
-        <v>249</v>
+        <v>303</v>
       </c>
       <c r="C84" s="24"/>
       <c r="D84" s="24"/>
@@ -8317,7 +9789,7 @@
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B85" s="4" t="s">
-        <v>250</v>
+        <v>304</v>
       </c>
       <c r="C85" s="24"/>
       <c r="D85" s="24"/>
@@ -8330,7 +9802,7 @@
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B86" s="4" t="s">
-        <v>251</v>
+        <v>305</v>
       </c>
       <c r="C86" s="24"/>
       <c r="D86" s="24"/>
@@ -8342,10 +9814,10 @@
       <c r="J86" s="5"/>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B87" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="C87" s="24"/>
+      <c r="B87" s="4"/>
+      <c r="C87" s="24" t="s">
+        <v>306</v>
+      </c>
       <c r="D87" s="24"/>
       <c r="E87" s="24"/>
       <c r="F87" s="24"/>
@@ -8355,11 +9827,11 @@
       <c r="J87" s="5"/>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B88" s="4" t="s">
-        <v>253</v>
-      </c>
+      <c r="B88" s="4"/>
       <c r="C88" s="24"/>
-      <c r="D88" s="24"/>
+      <c r="D88" s="24" t="s">
+        <v>307</v>
+      </c>
       <c r="E88" s="24"/>
       <c r="F88" s="24"/>
       <c r="G88" s="24"/>
@@ -8380,7 +9852,7 @@
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B90" s="4" t="s">
-        <v>254</v>
+        <v>308</v>
       </c>
       <c r="C90" s="24"/>
       <c r="D90" s="24"/>
@@ -8392,9 +9864,7 @@
       <c r="J90" s="5"/>
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B91" s="4" t="s">
-        <v>255</v>
-      </c>
+      <c r="B91" s="4"/>
       <c r="C91" s="24"/>
       <c r="D91" s="24"/>
       <c r="E91" s="24"/>
@@ -8406,7 +9876,7 @@
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B92" s="4" t="s">
-        <v>256</v>
+        <v>309</v>
       </c>
       <c r="C92" s="24"/>
       <c r="D92" s="24"/>
@@ -8418,7 +9888,9 @@
       <c r="J92" s="5"/>
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B93" s="4"/>
+      <c r="B93" s="4" t="s">
+        <v>310</v>
+      </c>
       <c r="C93" s="24"/>
       <c r="D93" s="24"/>
       <c r="E93" s="24"/>
@@ -8430,7 +9902,7 @@
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B94" s="4" t="s">
-        <v>257</v>
+        <v>311</v>
       </c>
       <c r="C94" s="24"/>
       <c r="D94" s="24"/>
@@ -8442,10 +9914,10 @@
       <c r="J94" s="5"/>
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B95" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="C95" s="24"/>
+      <c r="B95" s="4"/>
+      <c r="C95" s="24" t="s">
+        <v>306</v>
+      </c>
       <c r="D95" s="24"/>
       <c r="E95" s="24"/>
       <c r="F95" s="24"/>
@@ -8455,11 +9927,11 @@
       <c r="J95" s="5"/>
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B96" s="4" t="s">
-        <v>259</v>
-      </c>
+      <c r="B96" s="4"/>
       <c r="C96" s="24"/>
-      <c r="D96" s="24"/>
+      <c r="D96" s="24" t="s">
+        <v>307</v>
+      </c>
       <c r="E96" s="24"/>
       <c r="F96" s="24"/>
       <c r="G96" s="24"/>
@@ -8480,7 +9952,7 @@
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B98" s="4" t="s">
-        <v>260</v>
+        <v>312</v>
       </c>
       <c r="C98" s="24"/>
       <c r="D98" s="24"/>
@@ -8492,9 +9964,7 @@
       <c r="J98" s="5"/>
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B99" s="4" t="s">
-        <v>261</v>
-      </c>
+      <c r="B99" s="4"/>
       <c r="C99" s="24"/>
       <c r="D99" s="24"/>
       <c r="E99" s="24"/>
@@ -8506,7 +9976,7 @@
     </row>
     <row r="100" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B100" s="4" t="s">
-        <v>262</v>
+        <v>313</v>
       </c>
       <c r="C100" s="24"/>
       <c r="D100" s="24"/>
@@ -8519,7 +9989,7 @@
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B101" s="4" t="s">
-        <v>263</v>
+        <v>314</v>
       </c>
       <c r="C101" s="24"/>
       <c r="D101" s="24"/>
@@ -8532,7 +10002,7 @@
     </row>
     <row r="102" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B102" s="4" t="s">
-        <v>264</v>
+        <v>315</v>
       </c>
       <c r="C102" s="24"/>
       <c r="D102" s="24"/>
@@ -8545,7 +10015,9 @@
     </row>
     <row r="103" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B103" s="4"/>
-      <c r="C103" s="24"/>
+      <c r="C103" s="24" t="s">
+        <v>306</v>
+      </c>
       <c r="D103" s="24"/>
       <c r="E103" s="24"/>
       <c r="F103" s="24"/>
@@ -8555,11 +10027,11 @@
       <c r="J103" s="5"/>
     </row>
     <row r="104" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B104" s="4" t="s">
-        <v>265</v>
-      </c>
+      <c r="B104" s="4"/>
       <c r="C104" s="24"/>
-      <c r="D104" s="24"/>
+      <c r="D104" s="24" t="s">
+        <v>307</v>
+      </c>
       <c r="E104" s="24"/>
       <c r="F104" s="24"/>
       <c r="G104" s="24"/>
@@ -8568,9 +10040,7 @@
       <c r="J104" s="5"/>
     </row>
     <row r="105" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B105" s="4" t="s">
-        <v>266</v>
-      </c>
+      <c r="B105" s="4"/>
       <c r="C105" s="24"/>
       <c r="D105" s="24"/>
       <c r="E105" s="24"/>
@@ -8581,332 +10051,17 @@
       <c r="J105" s="5"/>
     </row>
     <row r="106" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B106" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="C106" s="24"/>
-      <c r="D106" s="24"/>
-      <c r="E106" s="24"/>
-      <c r="F106" s="24"/>
-      <c r="G106" s="24"/>
-      <c r="H106" s="24"/>
-      <c r="I106" s="24"/>
-      <c r="J106" s="5"/>
-    </row>
-    <row r="107" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B107" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="C107" s="24"/>
-      <c r="D107" s="24"/>
-      <c r="E107" s="24"/>
-      <c r="F107" s="24"/>
-      <c r="G107" s="24"/>
-      <c r="H107" s="24"/>
-      <c r="I107" s="24"/>
-      <c r="J107" s="5"/>
-    </row>
-    <row r="108" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B108" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="C108" s="24"/>
-      <c r="D108" s="24"/>
-      <c r="E108" s="24"/>
-      <c r="F108" s="24"/>
-      <c r="G108" s="24"/>
-      <c r="H108" s="24"/>
-      <c r="I108" s="24"/>
-      <c r="J108" s="5"/>
-    </row>
-    <row r="109" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B109" s="4"/>
-      <c r="C109" s="24"/>
-      <c r="D109" s="24"/>
-      <c r="E109" s="24"/>
-      <c r="F109" s="24"/>
-      <c r="G109" s="24"/>
-      <c r="H109" s="24"/>
-      <c r="I109" s="24"/>
-      <c r="J109" s="5"/>
-    </row>
-    <row r="110" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B110" s="4"/>
-      <c r="C110" s="24"/>
-      <c r="D110" s="24"/>
-      <c r="E110" s="24"/>
-      <c r="F110" s="24"/>
-      <c r="G110" s="24"/>
-      <c r="H110" s="24"/>
-      <c r="I110" s="24"/>
-      <c r="J110" s="5"/>
-    </row>
-    <row r="111" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B111" s="4"/>
-      <c r="C111" s="24"/>
-      <c r="D111" s="24"/>
-      <c r="E111" s="24"/>
-      <c r="F111" s="24"/>
-      <c r="G111" s="24"/>
-      <c r="H111" s="24"/>
-      <c r="I111" s="24"/>
-      <c r="J111" s="5"/>
-    </row>
-    <row r="112" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B112" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="C112" s="24"/>
-      <c r="D112" s="24"/>
-      <c r="E112" s="24"/>
-      <c r="F112" s="24"/>
-      <c r="G112" s="24"/>
-      <c r="H112" s="24"/>
-      <c r="I112" s="24"/>
-      <c r="J112" s="5"/>
-    </row>
-    <row r="113" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B113" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="C113" s="24"/>
-      <c r="D113" s="24"/>
-      <c r="E113" s="24"/>
-      <c r="F113" s="24"/>
-      <c r="G113" s="24"/>
-      <c r="H113" s="24"/>
-      <c r="I113" s="24"/>
-      <c r="J113" s="5"/>
-    </row>
-    <row r="114" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B114" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="C114" s="24"/>
-      <c r="D114" s="24"/>
-      <c r="E114" s="24"/>
-      <c r="F114" s="24"/>
-      <c r="G114" s="24"/>
-      <c r="H114" s="24"/>
-      <c r="I114" s="24"/>
-      <c r="J114" s="5"/>
-    </row>
-    <row r="115" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B115" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="C115" s="24"/>
-      <c r="D115" s="24"/>
-      <c r="E115" s="24"/>
-      <c r="F115" s="24"/>
-      <c r="G115" s="24"/>
-      <c r="H115" s="24"/>
-      <c r="I115" s="24"/>
-      <c r="J115" s="5"/>
-    </row>
-    <row r="116" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B116" s="4"/>
-      <c r="C116" s="24"/>
-      <c r="D116" s="24"/>
-      <c r="E116" s="24"/>
-      <c r="F116" s="24"/>
-      <c r="G116" s="24"/>
-      <c r="H116" s="24"/>
-      <c r="I116" s="24"/>
-      <c r="J116" s="5"/>
-    </row>
-    <row r="117" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B117" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="C117" s="24"/>
-      <c r="D117" s="24"/>
-      <c r="E117" s="24"/>
-      <c r="F117" s="24"/>
-      <c r="G117" s="24"/>
-      <c r="H117" s="24"/>
-      <c r="I117" s="24"/>
-      <c r="J117" s="5"/>
-    </row>
-    <row r="118" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B118" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="C118" s="24"/>
-      <c r="D118" s="24"/>
-      <c r="E118" s="24"/>
-      <c r="F118" s="24"/>
-      <c r="G118" s="24"/>
-      <c r="H118" s="24"/>
-      <c r="I118" s="24"/>
-      <c r="J118" s="5"/>
-    </row>
-    <row r="119" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B119" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="C119" s="24"/>
-      <c r="D119" s="24"/>
-      <c r="E119" s="24"/>
-      <c r="F119" s="24"/>
-      <c r="G119" s="24"/>
-      <c r="H119" s="24"/>
-      <c r="I119" s="24"/>
-      <c r="J119" s="5"/>
-    </row>
-    <row r="120" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B120" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="C120" s="24"/>
-      <c r="D120" s="24"/>
-      <c r="E120" s="24"/>
-      <c r="F120" s="24"/>
-      <c r="G120" s="24"/>
-      <c r="H120" s="24"/>
-      <c r="I120" s="24"/>
-      <c r="J120" s="5"/>
-    </row>
-    <row r="121" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B121" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="C121" s="24"/>
-      <c r="D121" s="24"/>
-      <c r="E121" s="24"/>
-      <c r="F121" s="24"/>
-      <c r="G121" s="24"/>
-      <c r="H121" s="24"/>
-      <c r="I121" s="24"/>
-      <c r="J121" s="5"/>
-    </row>
-    <row r="122" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B122" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="C122" s="24"/>
-      <c r="D122" s="24"/>
-      <c r="E122" s="24"/>
-      <c r="F122" s="24"/>
-      <c r="G122" s="24"/>
-      <c r="H122" s="24"/>
-      <c r="I122" s="24"/>
-      <c r="J122" s="5"/>
-    </row>
-    <row r="123" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B123" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="C123" s="24"/>
-      <c r="D123" s="24"/>
-      <c r="E123" s="24"/>
-      <c r="F123" s="24"/>
-      <c r="G123" s="24"/>
-      <c r="H123" s="24"/>
-      <c r="I123" s="24"/>
-      <c r="J123" s="5"/>
-    </row>
-    <row r="124" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B124" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="C124" s="24"/>
-      <c r="D124" s="24"/>
-      <c r="E124" s="24"/>
-      <c r="F124" s="24"/>
-      <c r="G124" s="24"/>
-      <c r="H124" s="24"/>
-      <c r="I124" s="24"/>
-      <c r="J124" s="5"/>
-    </row>
-    <row r="125" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B125" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="C125" s="24"/>
-      <c r="D125" s="24"/>
-      <c r="E125" s="24"/>
-      <c r="F125" s="24"/>
-      <c r="G125" s="24"/>
-      <c r="H125" s="24"/>
-      <c r="I125" s="24"/>
-      <c r="J125" s="5"/>
-    </row>
-    <row r="126" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B126" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="C126" s="24"/>
-      <c r="D126" s="24"/>
-      <c r="E126" s="24"/>
-      <c r="F126" s="24"/>
-      <c r="G126" s="24"/>
-      <c r="H126" s="24"/>
-      <c r="I126" s="24"/>
-      <c r="J126" s="5"/>
-    </row>
-    <row r="127" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B127" s="4"/>
-      <c r="C127" s="24"/>
-      <c r="D127" s="24"/>
-      <c r="E127" s="24"/>
-      <c r="F127" s="24"/>
-      <c r="G127" s="24"/>
-      <c r="H127" s="24"/>
-      <c r="I127" s="24"/>
-      <c r="J127" s="5"/>
-    </row>
-    <row r="128" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B128" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="C128" s="24"/>
-      <c r="D128" s="24"/>
-      <c r="E128" s="24"/>
-      <c r="F128" s="24"/>
-      <c r="G128" s="24"/>
-      <c r="H128" s="24"/>
-      <c r="I128" s="24"/>
-      <c r="J128" s="5"/>
-    </row>
-    <row r="129" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B129" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="C129" s="24"/>
-      <c r="D129" s="24"/>
-      <c r="E129" s="24"/>
-      <c r="F129" s="24"/>
-      <c r="G129" s="24"/>
-      <c r="H129" s="24"/>
-      <c r="I129" s="24"/>
-      <c r="J129" s="5"/>
-    </row>
-    <row r="130" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B130" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="C130" s="24"/>
-      <c r="D130" s="24"/>
-      <c r="E130" s="24"/>
-      <c r="F130" s="24"/>
-      <c r="G130" s="24"/>
-      <c r="H130" s="24"/>
-      <c r="I130" s="24"/>
-      <c r="J130" s="5"/>
-    </row>
-    <row r="131" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B131" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="C131" s="7"/>
-      <c r="D131" s="7"/>
-      <c r="E131" s="7"/>
-      <c r="F131" s="7"/>
-      <c r="G131" s="7"/>
-      <c r="H131" s="7"/>
-      <c r="I131" s="7"/>
-      <c r="J131" s="8"/>
+      <c r="B106" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="C106" s="7"/>
+      <c r="D106" s="7"/>
+      <c r="E106" s="7"/>
+      <c r="F106" s="7"/>
+      <c r="G106" s="7"/>
+      <c r="H106" s="7"/>
+      <c r="I106" s="7"/>
+      <c r="J106" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12800,7 +13955,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EFEF962-5E18-46D8-84DA-95507988CE6A}">
   <dimension ref="A3:T168"/>
   <sheetViews>
-    <sheetView topLeftCell="A77" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K85" sqref="K85"/>
     </sheetView>
   </sheetViews>

--- a/me/2.Apex-Fundamentals.xlsx
+++ b/me/2.Apex-Fundamentals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\salesforce\me\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B870E163-6E19-4BB1-B71A-74C8D6D17789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD84E752-5A82-4AA2-A561-10596257E7A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="8" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="9" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hello World" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="Constants in Apex" sheetId="10" r:id="rId10"/>
     <sheet name="Operators" sheetId="11" r:id="rId11"/>
     <sheet name="Challenge - Operators" sheetId="12" r:id="rId12"/>
+    <sheet name="Datatype Conversion" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="332">
   <si>
     <t>Mở Developer Console trên tab mới</t>
   </si>
@@ -1074,6 +1075,51 @@
   </si>
   <si>
     <t>System.debug('Joey has to pay - '+joeyHasToPay);</t>
+  </si>
+  <si>
+    <t>Có thể convert data type này sang data type khác</t>
+  </si>
+  <si>
+    <t>13.datatype-conversion.txt</t>
+  </si>
+  <si>
+    <t>salesforce\2.Apex-Fundamentals\13.datatype-conversion.txt</t>
+  </si>
+  <si>
+    <t>// Storing student marks as string values</t>
+  </si>
+  <si>
+    <t>String physicsMarks = '72';</t>
+  </si>
+  <si>
+    <t>String chemistryMarks = '64';</t>
+  </si>
+  <si>
+    <t>String mathMarks = '87';</t>
+  </si>
+  <si>
+    <t>String total = String.valueOf(</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    Integer.valueOf(physicsMarks) +</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    Integer.valueOf(chemistryMarks) +</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    Integer.valueOf(mathMarks)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                  );</t>
+  </si>
+  <si>
+    <t>System.debug('Total - '+total);</t>
+  </si>
+  <si>
+    <t>Để tính toán số học nên phải dùng Integer.valueOf() để chuyển string sang số. Sau khi tính tổng xong dùng String.valueOf() để</t>
+  </si>
+  <si>
+    <t>convert ngược sang kiểu chuỗi</t>
   </si>
 </sst>
 </file>
@@ -1282,7 +1328,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1313,8 +1359,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2916,6 +2960,267 @@
         <a:xfrm flipV="1">
           <a:off x="3552825" y="15325725"/>
           <a:ext cx="6734175" cy="1724025"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>78196</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8BDBD40-FEDB-2248-4AEB-5143E6E79F8D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="733425" y="7381875"/>
+          <a:ext cx="11287125" cy="4888321"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C73CD1BA-DEC6-4F71-08D4-8E4B01C0A0A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2209800" y="6810375"/>
+          <a:ext cx="1171575" cy="2019300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC1808BD-88BD-CC72-5CC5-9D8250481D42}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1800225" y="4933950"/>
+          <a:ext cx="447675" cy="866775"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AA4AB60-E709-8C86-DF6E-6D333849B3DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2324100" y="5619750"/>
+          <a:ext cx="8791575" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F07106A3-EC9A-F8CA-9275-B0C448B01351}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1181100" y="5657850"/>
+          <a:ext cx="895350" cy="1085850"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -8523,8 +8828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB441F49-B758-4A07-97EF-A04AAC664B07}">
   <dimension ref="A3:T106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="K80" sqref="K80"/>
+    <sheetView topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="M62" sqref="M62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8554,863 +8859,166 @@
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B4" s="4"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="24"/>
-      <c r="S4" s="24"/>
       <c r="T4" s="5"/>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B5" s="4"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="24"/>
       <c r="T5" s="5"/>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B6" s="4"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="24"/>
-      <c r="P6" s="24"/>
-      <c r="Q6" s="24"/>
-      <c r="R6" s="24"/>
-      <c r="S6" s="24"/>
       <c r="T6" s="5"/>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B7" s="4"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="24"/>
-      <c r="S7" s="24"/>
       <c r="T7" s="5"/>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B8" s="4"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="24"/>
-      <c r="S8" s="24"/>
       <c r="T8" s="5"/>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="24"/>
-      <c r="S9" s="24"/>
       <c r="T9" s="5"/>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="24"/>
-      <c r="R10" s="24"/>
-      <c r="S10" s="24"/>
       <c r="T10" s="5"/>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B11" s="4"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="24"/>
-      <c r="S11" s="24"/>
       <c r="T11" s="5"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B12" s="4"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="24"/>
-      <c r="R12" s="24"/>
-      <c r="S12" s="24"/>
       <c r="T12" s="5"/>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B13" s="4"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="24"/>
-      <c r="R13" s="24"/>
-      <c r="S13" s="24"/>
       <c r="T13" s="5"/>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B14" s="4"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="24"/>
-      <c r="P14" s="24"/>
-      <c r="Q14" s="24"/>
-      <c r="R14" s="24"/>
-      <c r="S14" s="24"/>
       <c r="T14" s="5"/>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B15" s="4"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="24"/>
-      <c r="R15" s="24"/>
-      <c r="S15" s="24"/>
       <c r="T15" s="5"/>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B16" s="4"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="24"/>
-      <c r="P16" s="24"/>
-      <c r="Q16" s="24"/>
-      <c r="R16" s="24"/>
-      <c r="S16" s="24"/>
       <c r="T16" s="5"/>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B17" s="4"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="24"/>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="24"/>
-      <c r="R17" s="24"/>
-      <c r="S17" s="24"/>
       <c r="T17" s="5"/>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B18" s="4"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="24"/>
-      <c r="N18" s="24"/>
-      <c r="O18" s="24"/>
-      <c r="P18" s="24"/>
-      <c r="Q18" s="24"/>
-      <c r="R18" s="24"/>
-      <c r="S18" s="24"/>
       <c r="T18" s="5"/>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B19" s="4"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="24"/>
-      <c r="N19" s="24"/>
-      <c r="O19" s="24"/>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="24"/>
-      <c r="R19" s="24"/>
-      <c r="S19" s="24"/>
       <c r="T19" s="5"/>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B20" s="4"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="24"/>
-      <c r="N20" s="24"/>
-      <c r="O20" s="24"/>
-      <c r="P20" s="24"/>
-      <c r="Q20" s="24"/>
-      <c r="R20" s="24"/>
-      <c r="S20" s="24"/>
       <c r="T20" s="5"/>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B21" s="4"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="24"/>
-      <c r="P21" s="24"/>
-      <c r="Q21" s="24"/>
-      <c r="R21" s="24"/>
-      <c r="S21" s="24"/>
       <c r="T21" s="5"/>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B22" s="4"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="24"/>
-      <c r="N22" s="24"/>
-      <c r="O22" s="24"/>
-      <c r="P22" s="24"/>
-      <c r="Q22" s="24"/>
-      <c r="R22" s="24"/>
-      <c r="S22" s="24"/>
       <c r="T22" s="5"/>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B23" s="4"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="24"/>
-      <c r="O23" s="24"/>
-      <c r="P23" s="24"/>
-      <c r="Q23" s="24"/>
-      <c r="R23" s="24"/>
-      <c r="S23" s="24"/>
       <c r="T23" s="5"/>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B24" s="4"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="24"/>
-      <c r="N24" s="24"/>
-      <c r="O24" s="24"/>
-      <c r="P24" s="24"/>
-      <c r="Q24" s="24"/>
-      <c r="R24" s="24"/>
-      <c r="S24" s="24"/>
       <c r="T24" s="5"/>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B25" s="4"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="24"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="24"/>
-      <c r="R25" s="24"/>
-      <c r="S25" s="24"/>
       <c r="T25" s="5"/>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B26" s="4"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="24"/>
-      <c r="N26" s="24"/>
-      <c r="O26" s="24"/>
-      <c r="P26" s="24"/>
-      <c r="Q26" s="24"/>
-      <c r="R26" s="24"/>
-      <c r="S26" s="24"/>
       <c r="T26" s="5"/>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B27" s="4"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="24"/>
-      <c r="O27" s="24"/>
-      <c r="P27" s="24"/>
-      <c r="Q27" s="24"/>
-      <c r="R27" s="24"/>
-      <c r="S27" s="24"/>
       <c r="T27" s="5"/>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B28" s="4"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="24"/>
-      <c r="M28" s="24"/>
-      <c r="N28" s="24"/>
-      <c r="O28" s="24"/>
-      <c r="P28" s="24"/>
-      <c r="Q28" s="24"/>
-      <c r="R28" s="24"/>
-      <c r="S28" s="24"/>
       <c r="T28" s="5"/>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B29" s="4"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="24"/>
-      <c r="L29" s="24"/>
-      <c r="M29" s="24"/>
-      <c r="N29" s="24"/>
-      <c r="O29" s="24"/>
-      <c r="P29" s="24"/>
-      <c r="Q29" s="24"/>
-      <c r="R29" s="24"/>
-      <c r="S29" s="24"/>
       <c r="T29" s="5"/>
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B30" s="4"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="24"/>
-      <c r="L30" s="24"/>
-      <c r="M30" s="24"/>
-      <c r="N30" s="24"/>
-      <c r="O30" s="24"/>
-      <c r="P30" s="24"/>
-      <c r="Q30" s="24"/>
-      <c r="R30" s="24"/>
-      <c r="S30" s="24"/>
       <c r="T30" s="5"/>
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B31" s="4"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
-      <c r="K31" s="24"/>
-      <c r="L31" s="24"/>
-      <c r="M31" s="24"/>
-      <c r="N31" s="24"/>
-      <c r="O31" s="24"/>
-      <c r="P31" s="24"/>
-      <c r="Q31" s="24"/>
-      <c r="R31" s="24"/>
-      <c r="S31" s="24"/>
       <c r="T31" s="5"/>
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B32" s="4"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="24"/>
-      <c r="J32" s="24"/>
-      <c r="K32" s="24"/>
-      <c r="L32" s="24"/>
-      <c r="M32" s="24"/>
-      <c r="N32" s="24"/>
-      <c r="O32" s="24"/>
-      <c r="P32" s="24"/>
-      <c r="Q32" s="24"/>
-      <c r="R32" s="24"/>
-      <c r="S32" s="24"/>
       <c r="T32" s="5"/>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B33" s="4"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="24"/>
-      <c r="J33" s="24"/>
-      <c r="K33" s="24"/>
-      <c r="L33" s="24"/>
-      <c r="M33" s="24"/>
-      <c r="N33" s="24"/>
-      <c r="O33" s="24"/>
-      <c r="P33" s="24"/>
-      <c r="Q33" s="24"/>
-      <c r="R33" s="24"/>
-      <c r="S33" s="24"/>
       <c r="T33" s="5"/>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B34" s="4"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="24"/>
-      <c r="J34" s="24"/>
-      <c r="K34" s="24"/>
-      <c r="L34" s="24"/>
-      <c r="M34" s="24"/>
-      <c r="N34" s="24"/>
-      <c r="O34" s="24"/>
-      <c r="P34" s="24"/>
-      <c r="Q34" s="24"/>
-      <c r="R34" s="24"/>
-      <c r="S34" s="24"/>
       <c r="T34" s="5"/>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B35" s="4"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="24"/>
-      <c r="I35" s="24"/>
-      <c r="J35" s="24"/>
-      <c r="K35" s="24"/>
-      <c r="L35" s="24"/>
-      <c r="M35" s="24"/>
-      <c r="N35" s="24"/>
-      <c r="O35" s="24"/>
-      <c r="P35" s="24"/>
-      <c r="Q35" s="24"/>
-      <c r="R35" s="24"/>
-      <c r="S35" s="24"/>
       <c r="T35" s="5"/>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B36" s="4"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="24"/>
-      <c r="I36" s="24"/>
-      <c r="J36" s="24"/>
-      <c r="K36" s="24"/>
-      <c r="L36" s="24"/>
-      <c r="M36" s="24"/>
-      <c r="N36" s="24"/>
-      <c r="O36" s="24"/>
-      <c r="P36" s="24"/>
-      <c r="Q36" s="24"/>
-      <c r="R36" s="24"/>
-      <c r="S36" s="24"/>
       <c r="T36" s="5"/>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B37" s="4"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="24"/>
-      <c r="J37" s="24"/>
-      <c r="K37" s="24"/>
-      <c r="L37" s="24"/>
-      <c r="M37" s="24"/>
-      <c r="N37" s="24"/>
-      <c r="O37" s="24"/>
-      <c r="P37" s="24"/>
-      <c r="Q37" s="24"/>
-      <c r="R37" s="24"/>
-      <c r="S37" s="24"/>
       <c r="T37" s="5"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B38" s="4"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="24"/>
-      <c r="J38" s="24"/>
-      <c r="K38" s="24"/>
-      <c r="L38" s="24"/>
-      <c r="M38" s="24"/>
-      <c r="N38" s="24"/>
-      <c r="O38" s="24"/>
-      <c r="P38" s="24"/>
-      <c r="Q38" s="24"/>
-      <c r="R38" s="24"/>
-      <c r="S38" s="24"/>
       <c r="T38" s="5"/>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B39" s="4"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="24"/>
-      <c r="I39" s="24"/>
-      <c r="J39" s="24"/>
-      <c r="K39" s="24"/>
-      <c r="L39" s="24"/>
-      <c r="M39" s="24"/>
-      <c r="N39" s="24"/>
-      <c r="O39" s="24"/>
-      <c r="P39" s="24"/>
-      <c r="Q39" s="24"/>
-      <c r="R39" s="24"/>
-      <c r="S39" s="24"/>
       <c r="T39" s="5"/>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B40" s="4"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="24"/>
-      <c r="I40" s="24"/>
-      <c r="J40" s="24"/>
-      <c r="K40" s="24"/>
-      <c r="L40" s="24"/>
-      <c r="M40" s="24"/>
-      <c r="N40" s="24"/>
-      <c r="O40" s="24"/>
-      <c r="P40" s="24"/>
-      <c r="Q40" s="24"/>
-      <c r="R40" s="24"/>
-      <c r="S40" s="24"/>
       <c r="T40" s="5"/>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B41" s="4"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="24"/>
-      <c r="H41" s="24"/>
-      <c r="I41" s="24"/>
-      <c r="J41" s="24"/>
-      <c r="K41" s="24"/>
-      <c r="L41" s="24"/>
-      <c r="M41" s="24"/>
-      <c r="N41" s="24"/>
-      <c r="O41" s="24"/>
-      <c r="P41" s="24"/>
-      <c r="Q41" s="24"/>
-      <c r="R41" s="24"/>
-      <c r="S41" s="24"/>
       <c r="T41" s="5"/>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B42" s="4"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="24"/>
-      <c r="H42" s="24"/>
-      <c r="I42" s="24"/>
-      <c r="J42" s="24"/>
-      <c r="K42" s="24"/>
-      <c r="L42" s="24"/>
-      <c r="M42" s="24"/>
-      <c r="N42" s="24"/>
-      <c r="O42" s="24"/>
-      <c r="P42" s="24"/>
-      <c r="Q42" s="24"/>
-      <c r="R42" s="24"/>
-      <c r="S42" s="24"/>
       <c r="T42" s="5"/>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B43" s="4"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="24"/>
-      <c r="H43" s="24"/>
-      <c r="I43" s="24"/>
-      <c r="J43" s="24"/>
-      <c r="K43" s="24"/>
-      <c r="L43" s="24"/>
-      <c r="M43" s="24"/>
-      <c r="N43" s="24"/>
-      <c r="O43" s="24"/>
-      <c r="P43" s="24"/>
-      <c r="Q43" s="24"/>
-      <c r="R43" s="24"/>
-      <c r="S43" s="24"/>
       <c r="T43" s="5"/>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B44" s="4"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="24"/>
-      <c r="H44" s="24"/>
-      <c r="I44" s="24"/>
-      <c r="J44" s="24"/>
-      <c r="K44" s="24"/>
-      <c r="L44" s="24"/>
-      <c r="M44" s="24"/>
-      <c r="N44" s="24"/>
-      <c r="O44" s="24"/>
-      <c r="P44" s="24"/>
-      <c r="Q44" s="24"/>
-      <c r="R44" s="24"/>
-      <c r="S44" s="24"/>
       <c r="T44" s="5"/>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
@@ -9529,7 +9137,7 @@
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B61" s="4"/>
-      <c r="D61" s="25" t="s">
+      <c r="D61" t="s">
         <v>287</v>
       </c>
       <c r="H61" s="5"/>
@@ -9578,476 +9186,216 @@
       <c r="B68" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="C68" s="24"/>
-      <c r="D68" s="24"/>
-      <c r="E68" s="24"/>
-      <c r="F68" s="24"/>
-      <c r="G68" s="24"/>
-      <c r="H68" s="24"/>
-      <c r="I68" s="24"/>
       <c r="J68" s="5"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B69" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="C69" s="24"/>
-      <c r="D69" s="24"/>
-      <c r="E69" s="24"/>
-      <c r="F69" s="24"/>
-      <c r="G69" s="24"/>
-      <c r="H69" s="24"/>
-      <c r="I69" s="24"/>
       <c r="J69" s="5"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B70" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="C70" s="24"/>
-      <c r="D70" s="24"/>
-      <c r="E70" s="24"/>
-      <c r="F70" s="24"/>
-      <c r="G70" s="24"/>
-      <c r="H70" s="24"/>
-      <c r="I70" s="24"/>
       <c r="J70" s="5"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B71" s="4"/>
-      <c r="C71" s="24"/>
-      <c r="D71" s="24"/>
-      <c r="E71" s="24"/>
-      <c r="F71" s="24"/>
-      <c r="G71" s="24"/>
-      <c r="H71" s="24"/>
-      <c r="I71" s="24"/>
       <c r="J71" s="5"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B72" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="C72" s="24"/>
-      <c r="D72" s="24"/>
-      <c r="E72" s="24"/>
-      <c r="F72" s="24"/>
-      <c r="G72" s="24"/>
-      <c r="H72" s="24"/>
-      <c r="I72" s="24"/>
       <c r="J72" s="5"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B73" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="C73" s="24"/>
-      <c r="D73" s="24"/>
-      <c r="E73" s="24"/>
-      <c r="F73" s="24"/>
-      <c r="G73" s="24"/>
-      <c r="H73" s="24"/>
-      <c r="I73" s="24"/>
       <c r="J73" s="5"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B74" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="C74" s="24"/>
-      <c r="D74" s="24"/>
-      <c r="E74" s="24"/>
-      <c r="F74" s="24"/>
-      <c r="G74" s="24"/>
-      <c r="H74" s="24"/>
-      <c r="I74" s="24"/>
       <c r="J74" s="5"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B75" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C75" s="24"/>
-      <c r="D75" s="24"/>
-      <c r="E75" s="24"/>
-      <c r="F75" s="24"/>
-      <c r="G75" s="24"/>
-      <c r="H75" s="24"/>
-      <c r="I75" s="24"/>
       <c r="J75" s="5"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B76" s="4"/>
-      <c r="C76" s="24"/>
-      <c r="D76" s="24"/>
-      <c r="E76" s="24"/>
-      <c r="F76" s="24"/>
-      <c r="G76" s="24"/>
-      <c r="H76" s="24"/>
-      <c r="I76" s="24"/>
       <c r="J76" s="5"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B77" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="C77" s="24"/>
-      <c r="D77" s="24"/>
-      <c r="E77" s="24"/>
-      <c r="F77" s="24"/>
-      <c r="G77" s="24"/>
-      <c r="H77" s="24"/>
-      <c r="I77" s="24"/>
       <c r="J77" s="5"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B78" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="C78" s="24"/>
-      <c r="D78" s="24"/>
-      <c r="E78" s="24"/>
-      <c r="F78" s="24"/>
-      <c r="G78" s="24"/>
-      <c r="H78" s="24"/>
-      <c r="I78" s="24"/>
       <c r="J78" s="5"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B79" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="C79" s="24"/>
-      <c r="D79" s="24"/>
-      <c r="E79" s="24"/>
-      <c r="F79" s="24"/>
-      <c r="G79" s="24"/>
-      <c r="H79" s="24"/>
-      <c r="I79" s="24"/>
       <c r="J79" s="5"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B80" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="C80" s="24"/>
-      <c r="D80" s="24"/>
-      <c r="E80" s="24"/>
-      <c r="F80" s="24"/>
-      <c r="G80" s="24"/>
-      <c r="H80" s="24"/>
-      <c r="I80" s="24"/>
       <c r="J80" s="5"/>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B81" s="4"/>
-      <c r="C81" s="24"/>
-      <c r="D81" s="24"/>
-      <c r="E81" s="24"/>
-      <c r="F81" s="24"/>
-      <c r="G81" s="24"/>
-      <c r="H81" s="24"/>
-      <c r="I81" s="24"/>
       <c r="J81" s="5"/>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B82" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="C82" s="24"/>
-      <c r="D82" s="24"/>
-      <c r="E82" s="24"/>
-      <c r="F82" s="24"/>
-      <c r="G82" s="24"/>
-      <c r="H82" s="24"/>
-      <c r="I82" s="24"/>
       <c r="J82" s="5"/>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B83" s="4"/>
-      <c r="C83" s="24"/>
-      <c r="D83" s="24"/>
-      <c r="E83" s="24"/>
-      <c r="F83" s="24"/>
-      <c r="G83" s="24"/>
-      <c r="H83" s="24"/>
-      <c r="I83" s="24"/>
       <c r="J83" s="5"/>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B84" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="C84" s="24"/>
-      <c r="D84" s="24"/>
-      <c r="E84" s="24"/>
-      <c r="F84" s="24"/>
-      <c r="G84" s="24"/>
-      <c r="H84" s="24"/>
-      <c r="I84" s="24"/>
       <c r="J84" s="5"/>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B85" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="C85" s="24"/>
-      <c r="D85" s="24"/>
-      <c r="E85" s="24"/>
-      <c r="F85" s="24"/>
-      <c r="G85" s="24"/>
-      <c r="H85" s="24"/>
-      <c r="I85" s="24"/>
       <c r="J85" s="5"/>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B86" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="C86" s="24"/>
-      <c r="D86" s="24"/>
-      <c r="E86" s="24"/>
-      <c r="F86" s="24"/>
-      <c r="G86" s="24"/>
-      <c r="H86" s="24"/>
-      <c r="I86" s="24"/>
       <c r="J86" s="5"/>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B87" s="4"/>
-      <c r="C87" s="24" t="s">
+      <c r="C87" t="s">
         <v>306</v>
       </c>
-      <c r="D87" s="24"/>
-      <c r="E87" s="24"/>
-      <c r="F87" s="24"/>
-      <c r="G87" s="24"/>
-      <c r="H87" s="24"/>
-      <c r="I87" s="24"/>
       <c r="J87" s="5"/>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B88" s="4"/>
-      <c r="C88" s="24"/>
-      <c r="D88" s="24" t="s">
+      <c r="D88" t="s">
         <v>307</v>
       </c>
-      <c r="E88" s="24"/>
-      <c r="F88" s="24"/>
-      <c r="G88" s="24"/>
-      <c r="H88" s="24"/>
-      <c r="I88" s="24"/>
       <c r="J88" s="5"/>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B89" s="4"/>
-      <c r="C89" s="24"/>
-      <c r="D89" s="24"/>
-      <c r="E89" s="24"/>
-      <c r="F89" s="24"/>
-      <c r="G89" s="24"/>
-      <c r="H89" s="24"/>
-      <c r="I89" s="24"/>
       <c r="J89" s="5"/>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B90" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="C90" s="24"/>
-      <c r="D90" s="24"/>
-      <c r="E90" s="24"/>
-      <c r="F90" s="24"/>
-      <c r="G90" s="24"/>
-      <c r="H90" s="24"/>
-      <c r="I90" s="24"/>
       <c r="J90" s="5"/>
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B91" s="4"/>
-      <c r="C91" s="24"/>
-      <c r="D91" s="24"/>
-      <c r="E91" s="24"/>
-      <c r="F91" s="24"/>
-      <c r="G91" s="24"/>
-      <c r="H91" s="24"/>
-      <c r="I91" s="24"/>
       <c r="J91" s="5"/>
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B92" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="C92" s="24"/>
-      <c r="D92" s="24"/>
-      <c r="E92" s="24"/>
-      <c r="F92" s="24"/>
-      <c r="G92" s="24"/>
-      <c r="H92" s="24"/>
-      <c r="I92" s="24"/>
       <c r="J92" s="5"/>
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B93" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="C93" s="24"/>
-      <c r="D93" s="24"/>
-      <c r="E93" s="24"/>
-      <c r="F93" s="24"/>
-      <c r="G93" s="24"/>
-      <c r="H93" s="24"/>
-      <c r="I93" s="24"/>
       <c r="J93" s="5"/>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B94" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="C94" s="24"/>
-      <c r="D94" s="24"/>
-      <c r="E94" s="24"/>
-      <c r="F94" s="24"/>
-      <c r="G94" s="24"/>
-      <c r="H94" s="24"/>
-      <c r="I94" s="24"/>
       <c r="J94" s="5"/>
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B95" s="4"/>
-      <c r="C95" s="24" t="s">
+      <c r="C95" t="s">
         <v>306</v>
       </c>
-      <c r="D95" s="24"/>
-      <c r="E95" s="24"/>
-      <c r="F95" s="24"/>
-      <c r="G95" s="24"/>
-      <c r="H95" s="24"/>
-      <c r="I95" s="24"/>
       <c r="J95" s="5"/>
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B96" s="4"/>
-      <c r="C96" s="24"/>
-      <c r="D96" s="24" t="s">
+      <c r="D96" t="s">
         <v>307</v>
       </c>
-      <c r="E96" s="24"/>
-      <c r="F96" s="24"/>
-      <c r="G96" s="24"/>
-      <c r="H96" s="24"/>
-      <c r="I96" s="24"/>
       <c r="J96" s="5"/>
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B97" s="4"/>
-      <c r="C97" s="24"/>
-      <c r="D97" s="24"/>
-      <c r="E97" s="24"/>
-      <c r="F97" s="24"/>
-      <c r="G97" s="24"/>
-      <c r="H97" s="24"/>
-      <c r="I97" s="24"/>
       <c r="J97" s="5"/>
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B98" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="C98" s="24"/>
-      <c r="D98" s="24"/>
-      <c r="E98" s="24"/>
-      <c r="F98" s="24"/>
-      <c r="G98" s="24"/>
-      <c r="H98" s="24"/>
-      <c r="I98" s="24"/>
       <c r="J98" s="5"/>
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B99" s="4"/>
-      <c r="C99" s="24"/>
-      <c r="D99" s="24"/>
-      <c r="E99" s="24"/>
-      <c r="F99" s="24"/>
-      <c r="G99" s="24"/>
-      <c r="H99" s="24"/>
-      <c r="I99" s="24"/>
       <c r="J99" s="5"/>
     </row>
     <row r="100" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B100" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="C100" s="24"/>
-      <c r="D100" s="24"/>
-      <c r="E100" s="24"/>
-      <c r="F100" s="24"/>
-      <c r="G100" s="24"/>
-      <c r="H100" s="24"/>
-      <c r="I100" s="24"/>
       <c r="J100" s="5"/>
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B101" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="C101" s="24"/>
-      <c r="D101" s="24"/>
-      <c r="E101" s="24"/>
-      <c r="F101" s="24"/>
-      <c r="G101" s="24"/>
-      <c r="H101" s="24"/>
-      <c r="I101" s="24"/>
       <c r="J101" s="5"/>
     </row>
     <row r="102" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B102" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="C102" s="24"/>
-      <c r="D102" s="24"/>
-      <c r="E102" s="24"/>
-      <c r="F102" s="24"/>
-      <c r="G102" s="24"/>
-      <c r="H102" s="24"/>
-      <c r="I102" s="24"/>
       <c r="J102" s="5"/>
     </row>
     <row r="103" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B103" s="4"/>
-      <c r="C103" s="24" t="s">
+      <c r="C103" t="s">
         <v>306</v>
       </c>
-      <c r="D103" s="24"/>
-      <c r="E103" s="24"/>
-      <c r="F103" s="24"/>
-      <c r="G103" s="24"/>
-      <c r="H103" s="24"/>
-      <c r="I103" s="24"/>
       <c r="J103" s="5"/>
     </row>
     <row r="104" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B104" s="4"/>
-      <c r="C104" s="24"/>
-      <c r="D104" s="24" t="s">
+      <c r="D104" t="s">
         <v>307</v>
       </c>
-      <c r="E104" s="24"/>
-      <c r="F104" s="24"/>
-      <c r="G104" s="24"/>
-      <c r="H104" s="24"/>
-      <c r="I104" s="24"/>
       <c r="J104" s="5"/>
     </row>
     <row r="105" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B105" s="4"/>
-      <c r="C105" s="24"/>
-      <c r="D105" s="24"/>
-      <c r="E105" s="24"/>
-      <c r="F105" s="24"/>
-      <c r="G105" s="24"/>
-      <c r="H105" s="24"/>
-      <c r="I105" s="24"/>
       <c r="J105" s="5"/>
     </row>
     <row r="106" spans="2:10" x14ac:dyDescent="0.25">
@@ -10062,6 +9410,246 @@
       <c r="H106" s="7"/>
       <c r="I106" s="7"/>
       <c r="J106" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08DF3058-A664-49F1-9B30-B484E5C4B201}">
+  <dimension ref="A2:J36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="4"/>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="4"/>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="4"/>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="4"/>
+      <c r="D10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="4"/>
+      <c r="D11" t="s">
+        <v>77</v>
+      </c>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="4"/>
+      <c r="D12" t="s">
+        <v>81</v>
+      </c>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="4"/>
+      <c r="D13" t="s">
+        <v>92</v>
+      </c>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="4"/>
+      <c r="D14" t="s">
+        <v>125</v>
+      </c>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="4"/>
+      <c r="D15" t="s">
+        <v>140</v>
+      </c>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="4"/>
+      <c r="D16" t="s">
+        <v>175</v>
+      </c>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="4"/>
+      <c r="D17" t="s">
+        <v>191</v>
+      </c>
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="4"/>
+      <c r="D18" t="s">
+        <v>287</v>
+      </c>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="4"/>
+      <c r="D19" t="s">
+        <v>289</v>
+      </c>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="4"/>
+      <c r="D20" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="H20" s="5"/>
+      <c r="I20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="6"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="8"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B26" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="G27" s="5"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="G28" s="5"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="4"/>
+      <c r="G29" s="5"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="G30" s="5"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="G31" s="5"/>
+      <c r="H31" t="s">
+        <v>17</v>
+      </c>
+      <c r="I31" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B32" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="G32" s="5"/>
+      <c r="I32" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="G33" s="5"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="G34" s="5"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="4"/>
+      <c r="G35" s="5"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
